--- a/Luban/MiniTemplate/Datas/#SkillGraph.xlsx
+++ b/Luban/MiniTemplate/Datas/#SkillGraph.xlsx
@@ -2,13 +2,13 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29628"/>
-  <workbookPr/>
+  <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\ugit\XHFrameworkSkill\Luban\MiniTemplate\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4CC357C-4290-4193-94FA-1FE439150031}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD6A654A-D92F-4471-BB1E-9DB62548B84A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="39">
   <si>
     <t>##var</t>
   </si>
@@ -37,6 +37,12 @@
     <t>Description</t>
   </si>
   <si>
+    <t>*NodesJsons</t>
+  </si>
+  <si>
+    <t>*ConnectionsJson</t>
+  </si>
+  <si>
     <t>##type</t>
   </si>
   <si>
@@ -46,6 +52,18 @@
     <t>string</t>
   </si>
   <si>
+    <t>list,NodeJson</t>
+  </si>
+  <si>
+    <t>list,string</t>
+  </si>
+  <si>
+    <t>nodeType</t>
+  </si>
+  <si>
+    <t>content</t>
+  </si>
+  <si>
     <t>##</t>
   </si>
   <si>
@@ -67,27 +85,58 @@
     <t>连接数据JSON</t>
   </si>
   <si>
-    <t>*ConnectionsJson</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>list,string</t>
-  </si>
-  <si>
-    <t>list,NodeJson</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>nodeType</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>content</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>*NodesJsons</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>Skill_Wan</t>
+  </si>
+  <si>
+    <t>万象天引</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>{"guid":"9d6f459d-b588-4b64-843b-1b71e8f299ae","nodeType":3,"position":{"x":-1186.4000244140625,"y":-2011.199951171875},"targetType":1,"assetTags":{"_tags":[]},"grantedTags":{"_tags":[]},"applicationRequiredTags":{"_tags":[]},"applicationImmunityTags":{"_tags":[]},"removeGameEffectsWithTags":{"_tags":[]},"durationType":0,"duration":"0","isPeriodic":false,"period":"1","executeOnApplication":false,"attributeModifiers":[{"attrType":100,"operation":0,"magnitudeSourceType":0,"fixedValue":10.0,"formula":"","mmcType":0,"setByCallerKey":"","mmcCaptureAttribute":200,"mmcAttributeSource":0,"mmcCoefficient":1.0,"mmcUseSnapshot":true}],"stackType":0,"stackLimit":0,"stackDurationRefreshPolicy":0,"stackPeriodResetPolicy":0,"stackExpirationPolicy":0,"stackOverflowPolicy":0,"ongoingRequiredTags":{"_tags":[]},"cancelOnAbilityEnd":true}</t>
+  </si>
+  <si>
+    <t>{"outputNodeGuid":"356907e0-1488-4128-bfcc-7ff73cfc3330","outputPortName":"动画","inputNodeGuid":"432ff1e3-b18d-476d-af80-d39ddc07402a","inputPortName":"输入"}</t>
+  </si>
+  <si>
+    <t>{"guid":"f73ba91e-a76b-456c-b19c-a5176809d5f5","nodeType":7,"position":{"x":700.0,"y":-1856.800048828125},"targetType":1,"endType":0}</t>
+  </si>
+  <si>
+    <t>{"outputNodeGuid":"356907e0-1488-4128-bfcc-7ff73cfc3330","outputPortName":"冷却","inputNodeGuid":"c28fb88d-51b1-47b2-be59-859e0ac638e3","inputPortName":"输入"}</t>
+  </si>
+  <si>
+    <t>{"guid":"432ff1e3-b18d-476d-af80-d39ddc07402a","nodeType":20,"position":{"x":-502.3999938964844,"y":-2384.0},"targetType":1,"skeletonDataAsset":{"instanceID":44398},"animationName":"Skill_attack_1009","animationDuration":"25","isAnimationLooping":false,"timeEffects":[{"triggerTime":4,"portId":"de0ba361-3aba-4ef0-bb07-9b418fcae591"},{"triggerTime":25,"portId":"f41c85e0-7f26-494e-9ffc-4a06c980f811"}],"timeCues":[{"startTime":0,"endTime":75,"portId":"8dea1941-c520-4f9a-aee0-40932c8542ef"}]}</t>
+  </si>
+  <si>
+    <t>{"outputNodeGuid":"356907e0-1488-4128-bfcc-7ff73cfc3330","outputPortName":"消耗","inputNodeGuid":"9d6f459d-b588-4b64-843b-1b71e8f299ae","inputPortName":"输入"}</t>
+  </si>
+  <si>
+    <t>{"guid":"091ecddb-f80b-4c00-aa06-f9bc718618d2","nodeType":22,"position":{"x":-93.60000610351563,"y":-1708.800048828125},"targetType":0,"assetTags":{"_tags":[]},"grantedTags":{"_tags":[]},"applicationRequiredTags":{"_tags":[]},"applicationImmunityTags":{"_tags":[]},"removeGameEffectsWithTags":{"_tags":[]},"durationType":1,"duration":"0.5","isPeriodic":false,"period":"1","executeOnApplication":false,"attributeModifiers":[],"stackType":0,"stackLimit":0,"stackDurationRefreshPolicy":0,"stackPeriodResetPolicy":0,"stackExpirationPolicy":0,"stackOverflowPolicy":0,"ongoingRequiredTags":{"_tags":[]},"cancelOnAbilityEnd":false,"displaceType":0,"speed":10.0,"distance":3.0,"minDistance":0.5,"pointSource":0,"pointBindingName":""}</t>
+  </si>
+  <si>
+    <t>{"outputNodeGuid":"432ff1e3-b18d-476d-af80-d39ddc07402a","outputPortName":"f41c85e0-7f26-494e-9ffc-4a06c980f811","inputNodeGuid":"f73ba91e-a76b-456c-b19c-a5176809d5f5","inputPortName":"输入"}</t>
+  </si>
+  <si>
+    <t>{"guid":"c28fb88d-51b1-47b2-be59-859e0ac638e3","nodeType":10,"position":{"x":-1186.4000244140625,"y":-1747.199951171875},"targetType":1,"assetTags":{"_tags":[]},"grantedTags":{"_tags":[{"_name":"CD.Wan","_hashCode":87403585,"_shortName":"Wan","_ancestorHashCodes":[-1137859925],"_ancestorNames":["CD"]}]},"applicationRequiredTags":{"_tags":[]},"applicationImmunityTags":{"_tags":[]},"removeGameEffectsWithTags":{"_tags":[]},"durationType":1,"duration":"5","isPeriodic":false,"period":"1","executeOnApplication":false,"attributeModifiers":[],"stackType":0,"stackLimit":0,"stackDurationRefreshPolicy":0,"stackPeriodResetPolicy":0,"stackExpirationPolicy":0,"stackOverflowPolicy":0,"ongoingRequiredTags":{"_tags":[]},"cancelOnAbilityEnd":false,"cooldownType":0,"maxCharges":2,"chargeTime":"10"}</t>
+  </si>
+  <si>
+    <t>{"outputNodeGuid":"432ff1e3-b18d-476d-af80-d39ddc07402a","outputPortName":"de0ba361-3aba-4ef0-bb07-9b418fcae591","inputNodeGuid":"e33ab94c-1496-4d6a-ba5e-1afd38bb0c30","inputPortName":"输入"}</t>
+  </si>
+  <si>
+    <t>{"guid":"cde57fb8-b693-4da8-a4a8-fd61e56c5dcd","nodeType":12,"position":{"x":677.5999755859375,"y":-1998.4000244140625},"targetType":1,"requiredTags":{"_tags":[]},"immunityTags":{"_tags":[]},"destroyWithNode":false,"positionSource":0,"particlePrefab":{"instanceID":45418},"particleBindingName":"down","particleOffset":{"x":0.0,"y":0.0,"z":0.0},"particleScale":{"x":1.0,"y":1.0,"z":1.0},"attachToTarget":false,"particleLoop":false}</t>
+  </si>
+  <si>
+    <t>{"outputNodeGuid":"432ff1e3-b18d-476d-af80-d39ddc07402a","outputPortName":"8dea1941-c520-4f9a-aee0-40932c8542ef","inputNodeGuid":"cde57fb8-b693-4da8-a4a8-fd61e56c5dcd","inputPortName":"输入"}</t>
+  </si>
+  <si>
+    <t>{"guid":"356907e0-1488-4128-bfcc-7ff73cfc3330","nodeType":0,"position":{"x":-878.4000244140625,"y":-1853.5999755859375},"targetType":1,"skillId":1007,"assetTags":{"_tags":[]},"cancelAbilitiesWithTags":{"_tags":[]},"blockAbilitiesWithTags":{"_tags":[]},"activationOwnedTags":{"_tags":[]},"activationRequiredTags":{"_tags":[]},"activationBlockedTags":{"_tags":[{"_name":"CD.Wan","_hashCode":87403585,"_shortName":"Wan","_ancestorHashCodes":[-1137859925],"_ancestorNames":["CD"]}]},"ongoingBlockedTags":{"_tags":[]},"eventOutputPorts":[]}</t>
+  </si>
+  <si>
+    <t>{"outputNodeGuid":"e33ab94c-1496-4d6a-ba5e-1afd38bb0c30","outputPortName":"对每个目标","inputNodeGuid":"091ecddb-f80b-4c00-aa06-f9bc718618d2","inputPortName":"输入"}</t>
+  </si>
+  <si>
+    <t>{"guid":"e33ab94c-1496-4d6a-ba5e-1afd38bb0c30","nodeType":4,"position":{"x":-452.0,"y":-1786.4000244140625},"targetType":1,"searchShapeType":0,"searchLineType":0,"positionSource":0,"positionBindingName":"center","searchCircleRadius":4.0,"searchSectorRadius":2.0,"searchSectorAngle":180.0,"searchLineDirectionOffsetAngle":0.0,"searchLineDirectionWidth":1.0,"searchLineDirectionLength":10.0,"lineStartPositionSource":0,"lineStartBindingName":"","lineEndPositionSource":1,"lineEndBindingName":"","searchLineBetweenWidth":1.0,"searchLineAbsoluteAngle":0.0,"searchLineAbsoluteWidth":1.0,"searchLineAbsoluteLength":10.0,"maxTargets":999,"searchTargetTags":{"_tags":[{"_name":"unitType.boss","_hashCode":-2067207703,"_shortName":"boss","_ancestorHashCodes":[1600484460],"_ancestorNames":["unitType"]}]},"searchExcludeTags":{"_tags":[]}}</t>
   </si>
 </sst>
 </file>
@@ -97,17 +146,15 @@
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
       <family val="2"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -118,7 +165,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -126,24 +173,38 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
+  <cellXfs count="2">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -156,7 +217,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -166,44 +227,44 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="1F497D"/>
+        <a:srgbClr val="0E2841"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="EEECE1"/>
+        <a:srgbClr val="E8E8E8"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4F81BD"/>
+        <a:srgbClr val="156082"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="C0504D"/>
+        <a:srgbClr val="E97132"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="9BBB59"/>
+        <a:srgbClr val="196B24"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="8064A2"/>
+        <a:srgbClr val="0F9ED5"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4BACC6"/>
+        <a:srgbClr val="A02B93"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="F79646"/>
+        <a:srgbClr val="4EA72E"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0000FF"/>
+        <a:srgbClr val="467886"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="800080"/>
+        <a:srgbClr val="96607D"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Aptos Display" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="等线 Light"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -230,14 +291,32 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Aptos Narrow" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="等线"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -264,6 +343,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -275,276 +372,404 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="50000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="35000">
-              <a:schemeClr val="phClr">
-                <a:tint val="37000"/>
-                <a:satMod val="300000"/>
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:tint val="15000"/>
-                <a:satMod val="350000"/>
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="1"/>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:shade val="51000"/>
-                <a:satMod val="130000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="80000">
-              <a:schemeClr val="phClr">
-                <a:shade val="93000"/>
-                <a:satMod val="130000"/>
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="94000"/>
-                <a:satMod val="135000"/>
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="0"/>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
-            <a:schemeClr val="phClr">
-              <a:shade val="95000"/>
-              <a:satMod val="105000"/>
-            </a:schemeClr>
+            <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
         </a:ln>
         <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-        </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
         <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
               <a:srgbClr val="000000">
-                <a:alpha val="38000"/>
+                <a:alpha val="63000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-          <a:scene3d>
-            <a:camera prst="orthographicFront">
-              <a:rot lat="0" lon="0" rev="0"/>
-            </a:camera>
-            <a:lightRig rig="threePt" dir="t">
-              <a:rot lat="0" lon="0" rev="1200000"/>
-            </a:lightRig>
-          </a:scene3d>
-          <a:sp3d>
-            <a:bevelT w="63500" h="25400"/>
-          </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="40000"/>
-                <a:satMod val="350000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="40000">
-              <a:schemeClr val="phClr">
-                <a:tint val="45000"/>
-                <a:shade val="99000"/>
-                <a:satMod val="350000"/>
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="20000"/>
-                <a:satMod val="255000"/>
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
-          </a:path>
-        </a:gradFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="80000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="30000"/>
-                <a:satMod val="200000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
-          </a:path>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults/>
+  <a:objectDefaults>
+    <a:lnDef>
+      <a:spPr/>
+      <a:bodyPr/>
+      <a:lstStyle/>
+      <a:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </a:style>
+    </a:lnDef>
+  </a:objectDefaults>
   <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{2E142A2C-CD16-42D6-873A-C26D2A0506FA}" vid="{1BDDFF52-6CD6-40A5-AB3C-68EB2F1E4D0A}"/>
+    </a:ext>
+  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="2" width="8" customWidth="1"/>
-    <col min="3" max="4" width="15" customWidth="1"/>
-    <col min="5" max="6" width="20" customWidth="1"/>
-    <col min="7" max="7" width="21.36328125" customWidth="1"/>
-    <col min="8" max="8" width="118.26953125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="25.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H3" s="1"/>
+    </row>
+    <row r="4" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="G1" s="2"/>
-      <c r="H1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" t="s">
+    </row>
+    <row r="5" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A5" s="1"/>
+      <c r="B5" s="1">
+        <v>1</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F5" s="1">
+        <v>3</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A6" s="1"/>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1">
         <v>7</v>
       </c>
-      <c r="D2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="G2" s="2"/>
-      <c r="H2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="G6" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A7" s="1"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1">
+        <v>20</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1">
+        <v>22</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A9" s="1"/>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1">
+        <v>10</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A10" s="1"/>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1">
+        <v>12</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A11" s="1"/>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1">
         <v>0</v>
       </c>
-      <c r="F3" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E4" t="s">
-        <v>12</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G4" s="2"/>
-      <c r="H4" t="s">
-        <v>14</v>
-      </c>
+      <c r="G11" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A12" s="1"/>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1">
+        <v>4</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="H12" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="F1:G1"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="F4:G4"/>
-  </mergeCells>
+  <autoFilter ref="A1:H12" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Luban/MiniTemplate/Datas/#SkillGraph.xlsx
+++ b/Luban/MiniTemplate/Datas/#SkillGraph.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\ugit\XHFrameworkSkill\Luban\MiniTemplate\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD6A654A-D92F-4471-BB1E-9DB62548B84A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{351FAC69-8C6B-414F-A23D-653ACC6457B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="155">
   <si>
     <t>##var</t>
   </si>
@@ -61,89 +61,449 @@
     <t>nodeType</t>
   </si>
   <si>
+    <t>##</t>
+  </si>
+  <si>
+    <t>主键ID</t>
+  </si>
+  <si>
+    <t>技能标识</t>
+  </si>
+  <si>
+    <t>技能名称</t>
+  </si>
+  <si>
+    <t>技能描述</t>
+  </si>
+  <si>
+    <t>连接数据JSON</t>
+  </si>
+  <si>
+    <t>Skill_Wan</t>
+  </si>
+  <si>
+    <t>{"guid":"9d6f459d-b588-4b64-843b-1b71e8f299ae","nodeType":3,"position":{"x":-1186.4000244140625,"y":-2011.199951171875},"targetType":1,"assetTags":{"_tags":[]},"grantedTags":{"_tags":[]},"applicationRequiredTags":{"_tags":[]},"applicationImmunityTags":{"_tags":[]},"removeGameEffectsWithTags":{"_tags":[]},"durationType":0,"duration":"0","isPeriodic":false,"period":"1","executeOnApplication":false,"attributeModifiers":[{"attrType":100,"operation":0,"magnitudeSourceType":0,"fixedValue":10.0,"formula":"","mmcType":0,"setByCallerKey":"","mmcCaptureAttribute":200,"mmcAttributeSource":0,"mmcCoefficient":1.0,"mmcUseSnapshot":true}],"stackType":0,"stackLimit":0,"stackDurationRefreshPolicy":0,"stackPeriodResetPolicy":0,"stackExpirationPolicy":0,"stackOverflowPolicy":0,"ongoingRequiredTags":{"_tags":[]},"cancelOnAbilityEnd":true}</t>
+  </si>
+  <si>
+    <t>{"outputNodeGuid":"356907e0-1488-4128-bfcc-7ff73cfc3330","outputPortName":"动画","inputNodeGuid":"432ff1e3-b18d-476d-af80-d39ddc07402a","inputPortName":"输入"}</t>
+  </si>
+  <si>
+    <t>{"guid":"f73ba91e-a76b-456c-b19c-a5176809d5f5","nodeType":7,"position":{"x":700.0,"y":-1856.800048828125},"targetType":1,"endType":0}</t>
+  </si>
+  <si>
+    <t>{"outputNodeGuid":"356907e0-1488-4128-bfcc-7ff73cfc3330","outputPortName":"冷却","inputNodeGuid":"c28fb88d-51b1-47b2-be59-859e0ac638e3","inputPortName":"输入"}</t>
+  </si>
+  <si>
+    <t>{"guid":"432ff1e3-b18d-476d-af80-d39ddc07402a","nodeType":20,"position":{"x":-502.3999938964844,"y":-2384.0},"targetType":1,"skeletonDataAsset":{"instanceID":44398},"animationName":"Skill_attack_1009","animationDuration":"25","isAnimationLooping":false,"timeEffects":[{"triggerTime":4,"portId":"de0ba361-3aba-4ef0-bb07-9b418fcae591"},{"triggerTime":25,"portId":"f41c85e0-7f26-494e-9ffc-4a06c980f811"}],"timeCues":[{"startTime":0,"endTime":75,"portId":"8dea1941-c520-4f9a-aee0-40932c8542ef"}]}</t>
+  </si>
+  <si>
+    <t>{"outputNodeGuid":"356907e0-1488-4128-bfcc-7ff73cfc3330","outputPortName":"消耗","inputNodeGuid":"9d6f459d-b588-4b64-843b-1b71e8f299ae","inputPortName":"输入"}</t>
+  </si>
+  <si>
+    <t>{"guid":"091ecddb-f80b-4c00-aa06-f9bc718618d2","nodeType":22,"position":{"x":-93.60000610351563,"y":-1708.800048828125},"targetType":0,"assetTags":{"_tags":[]},"grantedTags":{"_tags":[]},"applicationRequiredTags":{"_tags":[]},"applicationImmunityTags":{"_tags":[]},"removeGameEffectsWithTags":{"_tags":[]},"durationType":1,"duration":"0.5","isPeriodic":false,"period":"1","executeOnApplication":false,"attributeModifiers":[],"stackType":0,"stackLimit":0,"stackDurationRefreshPolicy":0,"stackPeriodResetPolicy":0,"stackExpirationPolicy":0,"stackOverflowPolicy":0,"ongoingRequiredTags":{"_tags":[]},"cancelOnAbilityEnd":false,"displaceType":0,"speed":10.0,"distance":3.0,"minDistance":0.5,"pointSource":0,"pointBindingName":""}</t>
+  </si>
+  <si>
+    <t>{"outputNodeGuid":"432ff1e3-b18d-476d-af80-d39ddc07402a","outputPortName":"f41c85e0-7f26-494e-9ffc-4a06c980f811","inputNodeGuid":"f73ba91e-a76b-456c-b19c-a5176809d5f5","inputPortName":"输入"}</t>
+  </si>
+  <si>
+    <t>{"guid":"c28fb88d-51b1-47b2-be59-859e0ac638e3","nodeType":10,"position":{"x":-1186.4000244140625,"y":-1747.199951171875},"targetType":1,"assetTags":{"_tags":[]},"grantedTags":{"_tags":[{"_name":"CD.Wan","_hashCode":87403585,"_shortName":"Wan","_ancestorHashCodes":[-1137859925],"_ancestorNames":["CD"]}]},"applicationRequiredTags":{"_tags":[]},"applicationImmunityTags":{"_tags":[]},"removeGameEffectsWithTags":{"_tags":[]},"durationType":1,"duration":"5","isPeriodic":false,"period":"1","executeOnApplication":false,"attributeModifiers":[],"stackType":0,"stackLimit":0,"stackDurationRefreshPolicy":0,"stackPeriodResetPolicy":0,"stackExpirationPolicy":0,"stackOverflowPolicy":0,"ongoingRequiredTags":{"_tags":[]},"cancelOnAbilityEnd":false,"cooldownType":0,"maxCharges":2,"chargeTime":"10"}</t>
+  </si>
+  <si>
+    <t>{"outputNodeGuid":"432ff1e3-b18d-476d-af80-d39ddc07402a","outputPortName":"de0ba361-3aba-4ef0-bb07-9b418fcae591","inputNodeGuid":"e33ab94c-1496-4d6a-ba5e-1afd38bb0c30","inputPortName":"输入"}</t>
+  </si>
+  <si>
+    <t>{"guid":"cde57fb8-b693-4da8-a4a8-fd61e56c5dcd","nodeType":12,"position":{"x":677.5999755859375,"y":-1998.4000244140625},"targetType":1,"requiredTags":{"_tags":[]},"immunityTags":{"_tags":[]},"destroyWithNode":false,"positionSource":0,"particlePrefab":{"instanceID":45418},"particleBindingName":"down","particleOffset":{"x":0.0,"y":0.0,"z":0.0},"particleScale":{"x":1.0,"y":1.0,"z":1.0},"attachToTarget":false,"particleLoop":false}</t>
+  </si>
+  <si>
+    <t>{"outputNodeGuid":"432ff1e3-b18d-476d-af80-d39ddc07402a","outputPortName":"8dea1941-c520-4f9a-aee0-40932c8542ef","inputNodeGuid":"cde57fb8-b693-4da8-a4a8-fd61e56c5dcd","inputPortName":"输入"}</t>
+  </si>
+  <si>
+    <t>{"guid":"356907e0-1488-4128-bfcc-7ff73cfc3330","nodeType":0,"position":{"x":-878.4000244140625,"y":-1853.5999755859375},"targetType":1,"skillId":1007,"assetTags":{"_tags":[]},"cancelAbilitiesWithTags":{"_tags":[]},"blockAbilitiesWithTags":{"_tags":[]},"activationOwnedTags":{"_tags":[]},"activationRequiredTags":{"_tags":[]},"activationBlockedTags":{"_tags":[{"_name":"CD.Wan","_hashCode":87403585,"_shortName":"Wan","_ancestorHashCodes":[-1137859925],"_ancestorNames":["CD"]}]},"ongoingBlockedTags":{"_tags":[]},"eventOutputPorts":[]}</t>
+  </si>
+  <si>
+    <t>{"outputNodeGuid":"e33ab94c-1496-4d6a-ba5e-1afd38bb0c30","outputPortName":"对每个目标","inputNodeGuid":"091ecddb-f80b-4c00-aa06-f9bc718618d2","inputPortName":"输入"}</t>
+  </si>
+  <si>
+    <t>{"guid":"e33ab94c-1496-4d6a-ba5e-1afd38bb0c30","nodeType":4,"position":{"x":-452.0,"y":-1786.4000244140625},"targetType":1,"searchShapeType":0,"searchLineType":0,"positionSource":0,"positionBindingName":"center","searchCircleRadius":4.0,"searchSectorRadius":2.0,"searchSectorAngle":180.0,"searchLineDirectionOffsetAngle":0.0,"searchLineDirectionWidth":1.0,"searchLineDirectionLength":10.0,"lineStartPositionSource":0,"lineStartBindingName":"","lineEndPositionSource":1,"lineEndBindingName":"","searchLineBetweenWidth":1.0,"searchLineAbsoluteAngle":0.0,"searchLineAbsoluteWidth":1.0,"searchLineAbsoluteLength":10.0,"maxTargets":999,"searchTargetTags":{"_tags":[{"_name":"unitType.boss","_hashCode":-2067207703,"_shortName":"boss","_ancestorHashCodes":[1600484460],"_ancestorNames":["unitType"]}]},"searchExcludeTags":{"_tags":[]}}</t>
+  </si>
+  <si>
     <t>content</t>
-  </si>
-  <si>
-    <t>##</t>
-  </si>
-  <si>
-    <t>主键ID</t>
-  </si>
-  <si>
-    <t>技能标识</t>
-  </si>
-  <si>
-    <t>技能名称</t>
-  </si>
-  <si>
-    <t>技能描述</t>
-  </si>
-  <si>
-    <t>节点数据JSON</t>
-  </si>
-  <si>
-    <t>连接数据JSON</t>
-  </si>
-  <si>
-    <t>Skill_Wan</t>
-  </si>
-  <si>
-    <t>万象天引</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>{"guid":"9d6f459d-b588-4b64-843b-1b71e8f299ae","nodeType":3,"position":{"x":-1186.4000244140625,"y":-2011.199951171875},"targetType":1,"assetTags":{"_tags":[]},"grantedTags":{"_tags":[]},"applicationRequiredTags":{"_tags":[]},"applicationImmunityTags":{"_tags":[]},"removeGameEffectsWithTags":{"_tags":[]},"durationType":0,"duration":"0","isPeriodic":false,"period":"1","executeOnApplication":false,"attributeModifiers":[{"attrType":100,"operation":0,"magnitudeSourceType":0,"fixedValue":10.0,"formula":"","mmcType":0,"setByCallerKey":"","mmcCaptureAttribute":200,"mmcAttributeSource":0,"mmcCoefficient":1.0,"mmcUseSnapshot":true}],"stackType":0,"stackLimit":0,"stackDurationRefreshPolicy":0,"stackPeriodResetPolicy":0,"stackExpirationPolicy":0,"stackOverflowPolicy":0,"ongoingRequiredTags":{"_tags":[]},"cancelOnAbilityEnd":true}</t>
-  </si>
-  <si>
-    <t>{"outputNodeGuid":"356907e0-1488-4128-bfcc-7ff73cfc3330","outputPortName":"动画","inputNodeGuid":"432ff1e3-b18d-476d-af80-d39ddc07402a","inputPortName":"输入"}</t>
-  </si>
-  <si>
-    <t>{"guid":"f73ba91e-a76b-456c-b19c-a5176809d5f5","nodeType":7,"position":{"x":700.0,"y":-1856.800048828125},"targetType":1,"endType":0}</t>
-  </si>
-  <si>
-    <t>{"outputNodeGuid":"356907e0-1488-4128-bfcc-7ff73cfc3330","outputPortName":"冷却","inputNodeGuid":"c28fb88d-51b1-47b2-be59-859e0ac638e3","inputPortName":"输入"}</t>
-  </si>
-  <si>
-    <t>{"guid":"432ff1e3-b18d-476d-af80-d39ddc07402a","nodeType":20,"position":{"x":-502.3999938964844,"y":-2384.0},"targetType":1,"skeletonDataAsset":{"instanceID":44398},"animationName":"Skill_attack_1009","animationDuration":"25","isAnimationLooping":false,"timeEffects":[{"triggerTime":4,"portId":"de0ba361-3aba-4ef0-bb07-9b418fcae591"},{"triggerTime":25,"portId":"f41c85e0-7f26-494e-9ffc-4a06c980f811"}],"timeCues":[{"startTime":0,"endTime":75,"portId":"8dea1941-c520-4f9a-aee0-40932c8542ef"}]}</t>
-  </si>
-  <si>
-    <t>{"outputNodeGuid":"356907e0-1488-4128-bfcc-7ff73cfc3330","outputPortName":"消耗","inputNodeGuid":"9d6f459d-b588-4b64-843b-1b71e8f299ae","inputPortName":"输入"}</t>
-  </si>
-  <si>
-    <t>{"guid":"091ecddb-f80b-4c00-aa06-f9bc718618d2","nodeType":22,"position":{"x":-93.60000610351563,"y":-1708.800048828125},"targetType":0,"assetTags":{"_tags":[]},"grantedTags":{"_tags":[]},"applicationRequiredTags":{"_tags":[]},"applicationImmunityTags":{"_tags":[]},"removeGameEffectsWithTags":{"_tags":[]},"durationType":1,"duration":"0.5","isPeriodic":false,"period":"1","executeOnApplication":false,"attributeModifiers":[],"stackType":0,"stackLimit":0,"stackDurationRefreshPolicy":0,"stackPeriodResetPolicy":0,"stackExpirationPolicy":0,"stackOverflowPolicy":0,"ongoingRequiredTags":{"_tags":[]},"cancelOnAbilityEnd":false,"displaceType":0,"speed":10.0,"distance":3.0,"minDistance":0.5,"pointSource":0,"pointBindingName":""}</t>
-  </si>
-  <si>
-    <t>{"outputNodeGuid":"432ff1e3-b18d-476d-af80-d39ddc07402a","outputPortName":"f41c85e0-7f26-494e-9ffc-4a06c980f811","inputNodeGuid":"f73ba91e-a76b-456c-b19c-a5176809d5f5","inputPortName":"输入"}</t>
-  </si>
-  <si>
-    <t>{"guid":"c28fb88d-51b1-47b2-be59-859e0ac638e3","nodeType":10,"position":{"x":-1186.4000244140625,"y":-1747.199951171875},"targetType":1,"assetTags":{"_tags":[]},"grantedTags":{"_tags":[{"_name":"CD.Wan","_hashCode":87403585,"_shortName":"Wan","_ancestorHashCodes":[-1137859925],"_ancestorNames":["CD"]}]},"applicationRequiredTags":{"_tags":[]},"applicationImmunityTags":{"_tags":[]},"removeGameEffectsWithTags":{"_tags":[]},"durationType":1,"duration":"5","isPeriodic":false,"period":"1","executeOnApplication":false,"attributeModifiers":[],"stackType":0,"stackLimit":0,"stackDurationRefreshPolicy":0,"stackPeriodResetPolicy":0,"stackExpirationPolicy":0,"stackOverflowPolicy":0,"ongoingRequiredTags":{"_tags":[]},"cancelOnAbilityEnd":false,"cooldownType":0,"maxCharges":2,"chargeTime":"10"}</t>
-  </si>
-  <si>
-    <t>{"outputNodeGuid":"432ff1e3-b18d-476d-af80-d39ddc07402a","outputPortName":"de0ba361-3aba-4ef0-bb07-9b418fcae591","inputNodeGuid":"e33ab94c-1496-4d6a-ba5e-1afd38bb0c30","inputPortName":"输入"}</t>
-  </si>
-  <si>
-    <t>{"guid":"cde57fb8-b693-4da8-a4a8-fd61e56c5dcd","nodeType":12,"position":{"x":677.5999755859375,"y":-1998.4000244140625},"targetType":1,"requiredTags":{"_tags":[]},"immunityTags":{"_tags":[]},"destroyWithNode":false,"positionSource":0,"particlePrefab":{"instanceID":45418},"particleBindingName":"down","particleOffset":{"x":0.0,"y":0.0,"z":0.0},"particleScale":{"x":1.0,"y":1.0,"z":1.0},"attachToTarget":false,"particleLoop":false}</t>
-  </si>
-  <si>
-    <t>{"outputNodeGuid":"432ff1e3-b18d-476d-af80-d39ddc07402a","outputPortName":"8dea1941-c520-4f9a-aee0-40932c8542ef","inputNodeGuid":"cde57fb8-b693-4da8-a4a8-fd61e56c5dcd","inputPortName":"输入"}</t>
-  </si>
-  <si>
-    <t>{"guid":"356907e0-1488-4128-bfcc-7ff73cfc3330","nodeType":0,"position":{"x":-878.4000244140625,"y":-1853.5999755859375},"targetType":1,"skillId":1007,"assetTags":{"_tags":[]},"cancelAbilitiesWithTags":{"_tags":[]},"blockAbilitiesWithTags":{"_tags":[]},"activationOwnedTags":{"_tags":[]},"activationRequiredTags":{"_tags":[]},"activationBlockedTags":{"_tags":[{"_name":"CD.Wan","_hashCode":87403585,"_shortName":"Wan","_ancestorHashCodes":[-1137859925],"_ancestorNames":["CD"]}]},"ongoingBlockedTags":{"_tags":[]},"eventOutputPorts":[]}</t>
-  </si>
-  <si>
-    <t>{"outputNodeGuid":"e33ab94c-1496-4d6a-ba5e-1afd38bb0c30","outputPortName":"对每个目标","inputNodeGuid":"091ecddb-f80b-4c00-aa06-f9bc718618d2","inputPortName":"输入"}</t>
-  </si>
-  <si>
-    <t>{"guid":"e33ab94c-1496-4d6a-ba5e-1afd38bb0c30","nodeType":4,"position":{"x":-452.0,"y":-1786.4000244140625},"targetType":1,"searchShapeType":0,"searchLineType":0,"positionSource":0,"positionBindingName":"center","searchCircleRadius":4.0,"searchSectorRadius":2.0,"searchSectorAngle":180.0,"searchLineDirectionOffsetAngle":0.0,"searchLineDirectionWidth":1.0,"searchLineDirectionLength":10.0,"lineStartPositionSource":0,"lineStartBindingName":"","lineEndPositionSource":1,"lineEndBindingName":"","searchLineBetweenWidth":1.0,"searchLineAbsoluteAngle":0.0,"searchLineAbsoluteWidth":1.0,"searchLineAbsoluteLength":10.0,"maxTargets":999,"searchTargetTags":{"_tags":[{"_name":"unitType.boss","_hashCode":-2067207703,"_shortName":"boss","_ancestorHashCodes":[1600484460],"_ancestorNames":["unitType"]}]},"searchExcludeTags":{"_tags":[]}}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>节点数据</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>JSON</t>
+    </r>
+  </si>
+  <si>
+    <t>Skill_BeRecBlood</t>
+  </si>
+  <si>
+    <t>BeRecBlood</t>
+  </si>
+  <si>
+    <t>{"guid":"a8c2d6c0-65f1-4bed-8a6a-70197e84bb56","nodeType":2,"position":{"x":933.5999755859375,"y":226.39999389648438},"targetType":1,"assetTags":{"_tags":[]},"grantedTags":{"_tags":[]},"applicationRequiredTags":{"_tags":[]},"applicationImmunityTags":{"_tags":[]},"removeGameEffectsWithTags":{"_tags":[]},"durationType":0,"duration":"0","isPeriodic":false,"period":"1","executeOnApplication":false,"attributeModifiers":[],"stackType":0,"stackLimit":0,"stackDurationRefreshPolicy":0,"stackPeriodResetPolicy":0,"stackExpirationPolicy":0,"stackOverflowPolicy":0,"ongoingRequiredTags":{"_tags":[]},"cancelOnAbilityEnd":false,"healSourceType":0,"healFixedValue":2.0,"healFormula":"","healMMCType":0,"healSetByCallerKey":"","healMMCCaptureAttribute":202,"healMMCAttributeSource":0,"healMMCCoefficient":1.0,"healMMCUseSnapshot":true,"healMultiplyByStackCount":false,"healCalculationType":0}</t>
+  </si>
+  <si>
+    <t>{"outputNodeGuid":"426755b7-c39a-4524-9cb5-960a31a19c10","outputPortName":"每周期执行","inputNodeGuid":"a8c2d6c0-65f1-4bed-8a6a-70197e84bb56","inputPortName":"输入"}</t>
+  </si>
+  <si>
+    <t>{"guid":"d086a8c9-8557-4a61-8fd2-64b3c1e543a3","nodeType":14,"position":{"x":1148.800048828125,"y":208.0},"targetType":1,"requiredTags":{"_tags":[]},"immunityTags":{"_tags":[]},"destroyWithNode":false,"positionSource":0,"positionBindingName":"head","textType":1,"fixedText":"","contextDataKey":"Heal","textColor":{"r":0.04063582420349121,"g":1.0,"b":0.0,"a":1.0},"criticalColor":{"r":1.0,"g":0.5,"b":0.0,"a":1.0},"missColor":{"r":0.5,"g":0.5,"b":0.5,"a":1.0},"fontSize":45.0,"criticalFontSize":60.0,"duration":1.5,"offset":{"x":0.0,"y":0.0},"moveDirection":{"x":0.0,"y":1.0}}</t>
+  </si>
+  <si>
+    <t>{"outputNodeGuid":"a8c2d6c0-65f1-4bed-8a6a-70197e84bb56","outputPortName":"完成效果","inputNodeGuid":"d086a8c9-8557-4a61-8fd2-64b3c1e543a3","inputPortName":"输入"}</t>
+  </si>
+  <si>
+    <t>{"guid":"d5809887-df6e-4604-bd09-36cef191ce83","nodeType":0,"position":{"x":210.39999389648438,"y":114.39999389648438},"targetType":1,"skillId":1009,"assetTags":{"_tags":[]},"cancelAbilitiesWithTags":{"_tags":[]},"blockAbilitiesWithTags":{"_tags":[]},"activationOwnedTags":{"_tags":[]},"activationRequiredTags":{"_tags":[]},"activationBlockedTags":{"_tags":[]},"ongoingBlockedTags":{"_tags":[]},"eventOutputPorts":[{"eventType":2,"customEventTag":""}]}</t>
+  </si>
+  <si>
+    <t>{"outputNodeGuid":"d5809887-df6e-4604-bd09-36cef191ce83","outputPortName":"激活","inputNodeGuid":"426755b7-c39a-4524-9cb5-960a31a19c10","inputPortName":"输入"}</t>
+  </si>
+  <si>
+    <t>{"guid":"7eefd9ae-c57e-439d-b1b6-e7f4e52f2f6f","nodeType":10,"position":{"x":370.4000244140625,"y":484.79998779296877},"targetType":1,"assetTags":{"_tags":[]},"grantedTags":{"_tags":[{"_name":"CD.被动回血","_hashCode":-1099994396,"_shortName":"被动回血","_ancestorHashCodes":[-1137859925],"_ancestorNames":["CD"]}]},"applicationRequiredTags":{"_tags":[]},"applicationImmunityTags":{"_tags":[]},"removeGameEffectsWithTags":{"_tags":[]},"durationType":1,"duration":"3","isPeriodic":false,"period":"1","executeOnApplication":false,"attributeModifiers":[],"stackType":0,"stackLimit":0,"stackDurationRefreshPolicy":0,"stackPeriodResetPolicy":0,"stackExpirationPolicy":0,"stackOverflowPolicy":0,"ongoingRequiredTags":{"_tags":[]},"cancelOnAbilityEnd":false,"cooldownType":0,"maxCharges":2,"chargeTime":"10"}</t>
+  </si>
+  <si>
+    <t>{"outputNodeGuid":"7eefd9ae-c57e-439d-b1b6-e7f4e52f2f6f","outputPortName":"完成效果","inputNodeGuid":"426755b7-c39a-4524-9cb5-960a31a19c10","inputPortName":"输入"}</t>
+  </si>
+  <si>
+    <t>{"guid":"426755b7-c39a-4524-9cb5-960a31a19c10","nodeType":11,"position":{"x":587.2000122070313,"y":114.39999389648438},"targetType":1,"assetTags":{"_tags":[]},"grantedTags":{"_tags":[]},"applicationRequiredTags":{"_tags":[]},"applicationImmunityTags":{"_tags":[]},"removeGameEffectsWithTags":{"_tags":[]},"durationType":2,"duration":"10","isPeriodic":true,"period":"1","executeOnApplication":false,"attributeModifiers":[],"stackType":1,"stackLimit":1,"stackDurationRefreshPolicy":0,"stackPeriodResetPolicy":0,"stackExpirationPolicy":0,"stackOverflowPolicy":0,"ongoingRequiredTags":{"_tags":[{"_name":"CD.被动回血","_hashCode":-1099994396,"_shortName":"被动回血","_ancestorHashCodes":[-1137859925],"_ancestorNames":["CD"]}]},"cancelOnAbilityEnd":true,"buffId":0}</t>
+  </si>
+  <si>
+    <t>{"outputNodeGuid":"d5809887-df6e-4604-bd09-36cef191ce83","outputPortName":"受到伤害时","inputNodeGuid":"7eefd9ae-c57e-439d-b1b6-e7f4e52f2f6f","inputPortName":"输入"}</t>
+  </si>
+  <si>
+    <t>Skill_Blood</t>
+  </si>
+  <si>
+    <t>Blood</t>
+  </si>
+  <si>
+    <t>{"guid":"432ff1e3-b18d-476d-af80-d39ddc07402a","nodeType":20,"position":{"x":-472.0,"y":-2380.800048828125},"targetType":1,"skeletonDataAsset":{"instanceID":44398},"animationName":"Attack_02","animationDuration":"22","isAnimationLooping":false,"timeEffects":[{"triggerTime":7,"portId":"de0ba361-3aba-4ef0-bb07-9b418fcae591"},{"triggerTime":22,"portId":"97dc121c-84b7-4f94-9997-02e0e5b2ea6c"}],"timeCues":[{"startTime":7,"endTime":48,"portId":"8dea1941-c520-4f9a-aee0-40932c8542ef"}]}</t>
+  </si>
+  <si>
+    <t>{"guid":"cde57fb8-b693-4da8-a4a8-fd61e56c5dcd","nodeType":12,"position":{"x":677.5999755859375,"y":-1998.4000244140625},"targetType":1,"requiredTags":{"_tags":[]},"immunityTags":{"_tags":[]},"destroyWithNode":false,"positionSource":0,"particlePrefab":{"instanceID":45538},"particleBindingName":"down","particleOffset":{"x":0.0,"y":0.0,"z":0.0},"particleScale":{"x":1.0,"y":1.0,"z":1.0},"attachToTarget":false,"particleLoop":false}</t>
+  </si>
+  <si>
+    <t>{"guid":"9d6f459d-b588-4b64-843b-1b71e8f299ae","nodeType":3,"position":{"x":-1186.4000244140625,"y":-2019.199951171875},"targetType":1,"assetTags":{"_tags":[]},"grantedTags":{"_tags":[]},"applicationRequiredTags":{"_tags":[]},"applicationImmunityTags":{"_tags":[]},"removeGameEffectsWithTags":{"_tags":[]},"durationType":0,"duration":"0","isPeriodic":false,"period":"1","executeOnApplication":false,"attributeModifiers":[{"attrType":100,"operation":0,"magnitudeSourceType":0,"fixedValue":10.0,"formula":"","mmcType":0,"setByCallerKey":"","mmcCaptureAttribute":200,"mmcAttributeSource":0,"mmcCoefficient":1.0,"mmcUseSnapshot":true}],"stackType":0,"stackLimit":0,"stackDurationRefreshPolicy":0,"stackPeriodResetPolicy":0,"stackExpirationPolicy":0,"stackOverflowPolicy":0,"ongoingRequiredTags":{"_tags":[]},"cancelOnAbilityEnd":true}</t>
+  </si>
+  <si>
+    <t>{"guid":"c28fb88d-51b1-47b2-be59-859e0ac638e3","nodeType":10,"position":{"x":-1186.4000244140625,"y":-1825.5999755859375},"targetType":1,"assetTags":{"_tags":[]},"grantedTags":{"_tags":[{"_name":"CD.流血","_hashCode":-1868013560,"_shortName":"流血","_ancestorHashCodes":[-1137859925],"_ancestorNames":["CD"]}]},"applicationRequiredTags":{"_tags":[]},"applicationImmunityTags":{"_tags":[]},"removeGameEffectsWithTags":{"_tags":[]},"durationType":1,"duration":"3","isPeriodic":false,"period":"1","executeOnApplication":false,"attributeModifiers":[],"stackType":0,"stackLimit":0,"stackDurationRefreshPolicy":0,"stackPeriodResetPolicy":0,"stackExpirationPolicy":0,"stackOverflowPolicy":0,"ongoingRequiredTags":{"_tags":[]},"cancelOnAbilityEnd":false,"cooldownType":0,"maxCharges":2,"chargeTime":"10"}</t>
+  </si>
+  <si>
+    <t>{"guid":"c353e286-8ef0-460a-b917-887f2aeb390a","nodeType":14,"position":{"x":383.20001220703127,"y":-1531.199951171875},"targetType":1,"requiredTags":{"_tags":[]},"immunityTags":{"_tags":[]},"destroyWithNode":false,"positionSource":2,"positionBindingName":"head","textType":0,"fixedText":"","contextDataKey":"DamageResult","textColor":{"r":1.0,"g":0.0,"b":0.0,"a":1.0},"criticalColor":{"r":1.0,"g":0.5,"b":0.0,"a":1.0},"missColor":{"r":0.5,"g":0.5,"b":0.5,"a":1.0},"fontSize":45.0,"criticalFontSize":60.0,"duration":1.5,"offset":{"x":0.0,"y":0.0},"moveDirection":{"x":0.0,"y":1.0}}</t>
+  </si>
+  <si>
+    <t>{"guid":"356907e0-1488-4128-bfcc-7ff73cfc3330","nodeType":0,"position":{"x":-878.4000244140625,"y":-1853.5999755859375},"targetType":1,"skillId":1002,"assetTags":{"_tags":[]},"cancelAbilitiesWithTags":{"_tags":[]},"blockAbilitiesWithTags":{"_tags":[]},"activationOwnedTags":{"_tags":[]},"activationRequiredTags":{"_tags":[]},"activationBlockedTags":{"_tags":[{"_name":"CD.流血","_hashCode":-1868013560,"_shortName":"流血","_ancestorHashCodes":[-1137859925],"_ancestorNames":["CD"]}]},"ongoingBlockedTags":{"_tags":[]},"eventOutputPorts":[]}</t>
+  </si>
+  <si>
+    <t>{"outputNodeGuid":"f8947676-1084-4228-b991-1509cc7fe851","outputPortName":"完成效果","inputNodeGuid":"c353e286-8ef0-460a-b917-887f2aeb390a","inputPortName":"输入"}</t>
+  </si>
+  <si>
+    <t>{"guid":"011aad56-e96c-41eb-9d85-e793d74a40bb","nodeType":7,"position":{"x":677.5999755859375,"y":-1879.199951171875},"targetType":1,"endType":0}</t>
+  </si>
+  <si>
+    <t>{"outputNodeGuid":"e33ab94c-1496-4d6a-ba5e-1afd38bb0c30","outputPortName":"对每个目标","inputNodeGuid":"cb1df36f-5729-423e-9d1a-287db5a433f0","inputPortName":"输入"}</t>
+  </si>
+  <si>
+    <t>{"guid":"f8947676-1084-4228-b991-1509cc7fe851","nodeType":1,"position":{"x":195.20001220703126,"y":-1761.5999755859375},"targetType":0,"assetTags":{"_tags":[]},"grantedTags":{"_tags":[]},"applicationRequiredTags":{"_tags":[]},"applicationImmunityTags":{"_tags":[]},"removeGameEffectsWithTags":{"_tags":[]},"durationType":0,"duration":"0","isPeriodic":false,"period":"1","executeOnApplication":false,"attributeModifiers":[],"stackType":0,"stackLimit":0,"stackDurationRefreshPolicy":0,"stackPeriodResetPolicy":0,"stackExpirationPolicy":0,"stackOverflowPolicy":0,"ongoingRequiredTags":{"_tags":[]},"cancelOnAbilityEnd":true,"damageType":0,"damageSourceType":0,"damageFixedValue":3.0,"damageFormula":"","damageMMCType":0,"damageSetByCallerKey":"","damageMMCCaptureAttribute":200,"damageMMCAttributeSource":0,"damageMMCCoefficient":1.0,"damageMMCUseSnapshot":true,"damageMultiplyByStackCount":true,"damageCalculationType":0}</t>
+  </si>
+  <si>
+    <t>{"outputNodeGuid":"cb1df36f-5729-423e-9d1a-287db5a433f0","outputPortName":"每周期执行","inputNodeGuid":"f8947676-1084-4228-b991-1509cc7fe851","inputPortName":"输入"}</t>
+  </si>
+  <si>
+    <t>{"guid":"cb1df36f-5729-423e-9d1a-287db5a433f0","nodeType":11,"position":{"x":-160.8000030517578,"y":-1761.5999755859375},"targetType":0,"assetTags":{"_tags":[{"_name":"Buff.DeBuff.Dot","_hashCode":-637848644,"_shortName":"Dot","_ancestorHashCodes":[937056111,321157895],"_ancestorNames":["Buff","Buff.DeBuff"]}]},"grantedTags":{"_tags":[]},"applicationRequiredTags":{"_tags":[]},"applicationImmunityTags":{"_tags":[]},"removeGameEffectsWithTags":{"_tags":[]},"durationType":1,"duration":"10","isPeriodic":true,"period":"1","executeOnApplication":false,"attributeModifiers":[],"stackType":1,"stackLimit":3,"stackDurationRefreshPolicy":0,"stackPeriodResetPolicy":1,"stackExpirationPolicy":0,"stackOverflowPolicy":0,"ongoingRequiredTags":{"_tags":[]},"cancelOnAbilityEnd":false,"buffId":0}</t>
+  </si>
+  <si>
+    <t>{"outputNodeGuid":"432ff1e3-b18d-476d-af80-d39ddc07402a","outputPortName":"97dc121c-84b7-4f94-9997-02e0e5b2ea6c","inputNodeGuid":"011aad56-e96c-41eb-9d85-e793d74a40bb","inputPortName":"输入"}</t>
+  </si>
+  <si>
+    <t>{"guid":"e33ab94c-1496-4d6a-ba5e-1afd38bb0c30","nodeType":4,"position":{"x":-452.0,"y":-1786.4000244140625},"targetType":1,"searchShapeType":1,"searchLineType":0,"positionSource":0,"positionBindingName":"center","searchCircleRadius":5.0,"searchSectorRadius":2.0,"searchSectorAngle":180.0,"searchLineDirectionOffsetAngle":0.0,"searchLineDirectionWidth":1.0,"searchLineDirectionLength":10.0,"lineStartPositionSource":0,"lineStartBindingName":"","lineEndPositionSource":1,"lineEndBindingName":"","searchLineBetweenWidth":1.0,"searchLineAbsoluteAngle":0.0,"searchLineAbsoluteWidth":1.0,"searchLineAbsoluteLength":10.0,"maxTargets":999,"searchTargetTags":{"_tags":[{"_name":"unitType.monster","_hashCode":-2021655864,"_shortName":"monster","_ancestorHashCodes":[1600484460],"_ancestorNames":["unitType"]}]},"searchExcludeTags":{"_tags":[]}}</t>
+  </si>
+  <si>
+    <t>Skill_FireCircle</t>
+  </si>
+  <si>
+    <t>FireCircle</t>
+  </si>
+  <si>
+    <t>{"guid":"356907e0-1488-4128-bfcc-7ff73cfc3330","nodeType":0,"position":{"x":-878.4000244140625,"y":-1853.5999755859375},"targetType":1,"skillId":1004,"assetTags":{"_tags":[]},"cancelAbilitiesWithTags":{"_tags":[]},"blockAbilitiesWithTags":{"_tags":[]},"activationOwnedTags":{"_tags":[]},"activationRequiredTags":{"_tags":[]},"activationBlockedTags":{"_tags":[{"_name":"CD.旋风斩","_hashCode":1979572373,"_shortName":"旋风斩","_ancestorHashCodes":[-1137859925],"_ancestorNames":["CD"]}]},"ongoingBlockedTags":{"_tags":[]},"eventOutputPorts":[]}</t>
+  </si>
+  <si>
+    <t>{"guid":"764289ea-065e-4f48-afc0-0f6963d18d57","nodeType":14,"position":{"x":492.0,"y":-1539.199951171875},"targetType":1,"requiredTags":{"_tags":[]},"immunityTags":{"_tags":[]},"destroyWithNode":false,"positionSource":2,"positionBindingName":"head","textType":0,"fixedText":"","contextDataKey":"DamageResult","textColor":{"r":1.0,"g":0.0,"b":0.0,"a":1.0},"criticalColor":{"r":1.0,"g":0.5,"b":0.0,"a":1.0},"missColor":{"r":0.5,"g":0.5,"b":0.5,"a":1.0},"fontSize":45.0,"criticalFontSize":60.0,"duration":1.5,"offset":{"x":0.0,"y":0.0},"moveDirection":{"x":0.0,"y":1.0}}</t>
+  </si>
+  <si>
+    <t>{"guid":"a32d1135-94db-4f81-95ba-9d5f105ef8d0","nodeType":1,"position":{"x":308.79998779296877,"y":-1720.0},"targetType":0,"assetTags":{"_tags":[]},"grantedTags":{"_tags":[]},"applicationRequiredTags":{"_tags":[]},"applicationImmunityTags":{"_tags":[]},"removeGameEffectsWithTags":{"_tags":[]},"durationType":0,"duration":"0","isPeriodic":false,"period":"1","executeOnApplication":false,"attributeModifiers":[],"stackType":0,"stackLimit":0,"stackDurationRefreshPolicy":0,"stackPeriodResetPolicy":0,"stackExpirationPolicy":0,"stackOverflowPolicy":0,"ongoingRequiredTags":{"_tags":[]},"cancelOnAbilityEnd":true,"damageType":0,"damageSourceType":0,"damageFixedValue":1.0,"damageFormula":"","damageMMCType":0,"damageSetByCallerKey":"","damageMMCCaptureAttribute":200,"damageMMCAttributeSource":0,"damageMMCCoefficient":1.0,"damageMMCUseSnapshot":true,"damageMultiplyByStackCount":false,"damageCalculationType":0}</t>
+  </si>
+  <si>
+    <t>{"outputNodeGuid":"356907e0-1488-4128-bfcc-7ff73cfc3330","outputPortName":"激活","inputNodeGuid":"d8847c3e-459e-4589-a96b-37ebb5ec458b","inputPortName":"输入"}</t>
+  </si>
+  <si>
+    <t>{"guid":"432ff1e3-b18d-476d-af80-d39ddc07402a","nodeType":20,"position":{"x":-452.0,"y":-2375.199951171875},"targetType":1,"skeletonDataAsset":{"instanceID":44398},"animationName":"Skill_attack_1011","animationDuration":"12","isAnimationLooping":true,"timeEffects":[{"triggerTime":250,"portId":"f41c85e0-7f26-494e-9ffc-4a06c980f811"}],"timeCues":[{"startTime":0,"endTime":255,"portId":"8dea1941-c520-4f9a-aee0-40932c8542ef"}]}</t>
+  </si>
+  <si>
+    <t>{"outputNodeGuid":"d8847c3e-459e-4589-a96b-37ebb5ec458b","outputPortName":"每周期执行","inputNodeGuid":"e33ab94c-1496-4d6a-ba5e-1afd38bb0c30","inputPortName":"输入"}</t>
+  </si>
+  <si>
+    <t>{"guid":"cde57fb8-b693-4da8-a4a8-fd61e56c5dcd","nodeType":12,"position":{"x":677.5999755859375,"y":-1998.4000244140625},"targetType":1,"requiredTags":{"_tags":[]},"immunityTags":{"_tags":[]},"destroyWithNode":true,"positionSource":0,"particlePrefab":{"instanceID":45710},"particleBindingName":"down","particleOffset":{"x":0.0,"y":0.0,"z":0.0},"particleScale":{"x":1.0,"y":1.0,"z":1.0},"attachToTarget":true,"particleLoop":true}</t>
+  </si>
+  <si>
+    <t>{"outputNodeGuid":"e33ab94c-1496-4d6a-ba5e-1afd38bb0c30","outputPortName":"对每个目标","inputNodeGuid":"a32d1135-94db-4f81-95ba-9d5f105ef8d0","inputPortName":"输入"}</t>
+  </si>
+  <si>
+    <t>{"guid":"c28fb88d-51b1-47b2-be59-859e0ac638e3","nodeType":10,"position":{"x":-1186.4000244140625,"y":-1747.199951171875},"targetType":1,"assetTags":{"_tags":[]},"grantedTags":{"_tags":[{"_name":"CD.旋风斩","_hashCode":1979572373,"_shortName":"旋风斩","_ancestorHashCodes":[-1137859925],"_ancestorNames":["CD"]}]},"applicationRequiredTags":{"_tags":[]},"applicationImmunityTags":{"_tags":[]},"removeGameEffectsWithTags":{"_tags":[]},"durationType":1,"duration":"15","isPeriodic":false,"period":"1","executeOnApplication":false,"attributeModifiers":[],"stackType":0,"stackLimit":0,"stackDurationRefreshPolicy":0,"stackPeriodResetPolicy":0,"stackExpirationPolicy":0,"stackOverflowPolicy":0,"ongoingRequiredTags":{"_tags":[]},"cancelOnAbilityEnd":false,"cooldownType":0,"maxCharges":2,"chargeTime":"10"}</t>
+  </si>
+  <si>
+    <t>{"outputNodeGuid":"a32d1135-94db-4f81-95ba-9d5f105ef8d0","outputPortName":"完成效果","inputNodeGuid":"764289ea-065e-4f48-afc0-0f6963d18d57","inputPortName":"输入"}</t>
+  </si>
+  <si>
+    <t>{"guid":"e33ab94c-1496-4d6a-ba5e-1afd38bb0c30","nodeType":4,"position":{"x":27.20001220703125,"y":-1769.5999755859375},"targetType":1,"searchShapeType":0,"searchLineType":0,"positionSource":0,"positionBindingName":"center","searchCircleRadius":2.5,"searchSectorRadius":2.0,"searchSectorAngle":180.0,"searchLineDirectionOffsetAngle":0.0,"searchLineDirectionWidth":1.0,"searchLineDirectionLength":10.0,"lineStartPositionSource":0,"lineStartBindingName":"","lineEndPositionSource":1,"lineEndBindingName":"","searchLineBetweenWidth":1.0,"searchLineAbsoluteAngle":0.0,"searchLineAbsoluteWidth":1.0,"searchLineAbsoluteLength":10.0,"maxTargets":999,"searchTargetTags":{"_tags":[{"_name":"unitType.monster","_hashCode":-2021655864,"_shortName":"monster","_ancestorHashCodes":[1600484460],"_ancestorNames":["unitType"]}]},"searchExcludeTags":{"_tags":[]}}</t>
+  </si>
+  <si>
+    <t>{"guid":"d8847c3e-459e-4589-a96b-37ebb5ec458b","nodeType":21,"position":{"x":-308.79998779296877,"y":-1769.5999755859375},"targetType":1,"assetTags":{"_tags":[]},"grantedTags":{"_tags":[]},"applicationRequiredTags":{"_tags":[]},"applicationImmunityTags":{"_tags":[]},"removeGameEffectsWithTags":{"_tags":[]},"durationType":2,"duration":"0","isPeriodic":true,"period":"0.3","executeOnApplication":false,"attributeModifiers":[],"stackType":0,"stackLimit":0,"stackDurationRefreshPolicy":0,"stackPeriodResetPolicy":0,"stackExpirationPolicy":0,"stackOverflowPolicy":0,"ongoingRequiredTags":{"_tags":[]},"cancelOnAbilityEnd":true}</t>
+  </si>
+  <si>
+    <t>Skill_God</t>
+  </si>
+  <si>
+    <t>God</t>
+  </si>
+  <si>
+    <t>{"guid":"cde57fb8-b693-4da8-a4a8-fd61e56c5dcd","nodeType":12,"position":{"x":677.5999755859375,"y":-1998.4000244140625},"targetType":1,"requiredTags":{"_tags":[]},"immunityTags":{"_tags":[]},"destroyWithNode":false,"positionSource":0,"particlePrefab":{"instanceID":45540},"particleBindingName":"down","particleOffset":{"x":0.0,"y":0.0,"z":0.0},"particleScale":{"x":1.0,"y":1.0,"z":1.0},"attachToTarget":false,"particleLoop":false}</t>
+  </si>
+  <si>
+    <t>{"guid":"356907e0-1488-4128-bfcc-7ff73cfc3330","nodeType":0,"position":{"x":-878.4000244140625,"y":-1853.5999755859375},"targetType":1,"skillId":1006,"assetTags":{"_tags":[]},"cancelAbilitiesWithTags":{"_tags":[]},"blockAbilitiesWithTags":{"_tags":[]},"activationOwnedTags":{"_tags":[]},"activationRequiredTags":{"_tags":[]},"activationBlockedTags":{"_tags":[{"_name":"CD.回血","_hashCode":1163914435,"_shortName":"回血","_ancestorHashCodes":[-1137859925],"_ancestorNames":["CD"]}]},"ongoingBlockedTags":{"_tags":[]},"eventOutputPorts":[]}</t>
+  </si>
+  <si>
+    <t>{"guid":"c28fb88d-51b1-47b2-be59-859e0ac638e3","nodeType":10,"position":{"x":-1186.4000244140625,"y":-1747.199951171875},"targetType":1,"assetTags":{"_tags":[]},"grantedTags":{"_tags":[{"_name":"CD.神罗天正","_hashCode":810112138,"_shortName":"神罗天正","_ancestorHashCodes":[-1137859925],"_ancestorNames":["CD"]}]},"applicationRequiredTags":{"_tags":[]},"applicationImmunityTags":{"_tags":[]},"removeGameEffectsWithTags":{"_tags":[]},"durationType":1,"duration":"5","isPeriodic":false,"period":"1","executeOnApplication":false,"attributeModifiers":[],"stackType":0,"stackLimit":0,"stackDurationRefreshPolicy":0,"stackPeriodResetPolicy":0,"stackExpirationPolicy":0,"stackOverflowPolicy":0,"ongoingRequiredTags":{"_tags":[]},"cancelOnAbilityEnd":false,"cooldownType":0,"maxCharges":2,"chargeTime":"10"}</t>
+  </si>
+  <si>
+    <t>{"guid":"091ecddb-f80b-4c00-aa06-f9bc718618d2","nodeType":22,"position":{"x":-93.60000610351563,"y":-1708.800048828125},"targetType":0,"assetTags":{"_tags":[]},"grantedTags":{"_tags":[]},"applicationRequiredTags":{"_tags":[]},"applicationImmunityTags":{"_tags":[]},"removeGameEffectsWithTags":{"_tags":[]},"durationType":1,"duration":"0.5","isPeriodic":false,"period":"1","executeOnApplication":false,"attributeModifiers":[],"stackType":0,"stackLimit":0,"stackDurationRefreshPolicy":0,"stackPeriodResetPolicy":0,"stackExpirationPolicy":0,"stackOverflowPolicy":0,"ongoingRequiredTags":{"_tags":[]},"cancelOnAbilityEnd":false,"displaceType":1,"speed":10.0,"distance":3.0,"minDistance":0.5,"pointSource":0,"pointBindingName":""}</t>
+  </si>
+  <si>
+    <t>Skill_RecBlood</t>
+  </si>
+  <si>
+    <t>RecBlood</t>
+  </si>
+  <si>
+    <t>{"guid":"5fb21a71-2fff-4477-b79b-4c1a8bc10f9a","nodeType":2,"position":{"x":-571.2000122070313,"y":-1987.199951171875},"targetType":1,"assetTags":{"_tags":[]},"grantedTags":{"_tags":[]},"applicationRequiredTags":{"_tags":[]},"applicationImmunityTags":{"_tags":[]},"removeGameEffectsWithTags":{"_tags":[]},"durationType":0,"duration":"0","isPeriodic":false,"period":"1","executeOnApplication":false,"attributeModifiers":[],"stackType":0,"stackLimit":0,"stackDurationRefreshPolicy":0,"stackPeriodResetPolicy":0,"stackExpirationPolicy":0,"stackOverflowPolicy":0,"ongoingRequiredTags":{"_tags":[]},"cancelOnAbilityEnd":false,"healSourceType":0,"healFixedValue":10.0,"healFormula":"","healMMCType":0,"healSetByCallerKey":"","healMMCCaptureAttribute":202,"healMMCAttributeSource":0,"healMMCCoefficient":1.0,"healMMCUseSnapshot":true,"healMultiplyByStackCount":false,"healCalculationType":0}</t>
+  </si>
+  <si>
+    <t>{"guid":"011aad56-e96c-41eb-9d85-e793d74a40bb","nodeType":7,"position":{"x":-333.6000061035156,"y":-1780.0},"targetType":1,"endType":0}</t>
+  </si>
+  <si>
+    <t>{"outputNodeGuid":"356907e0-1488-4128-bfcc-7ff73cfc3330","outputPortName":"激活","inputNodeGuid":"5fb21a71-2fff-4477-b79b-4c1a8bc10f9a","inputPortName":"输入"}</t>
+  </si>
+  <si>
+    <t>{"guid":"c28fb88d-51b1-47b2-be59-859e0ac638e3","nodeType":10,"position":{"x":-1223.199951171875,"y":-1826.4000244140625},"targetType":1,"assetTags":{"_tags":[]},"grantedTags":{"_tags":[{"_name":"CD.回血","_hashCode":1163914435,"_shortName":"回血","_ancestorHashCodes":[-1137859925],"_ancestorNames":["CD"]}]},"applicationRequiredTags":{"_tags":[]},"applicationImmunityTags":{"_tags":[]},"removeGameEffectsWithTags":{"_tags":[]},"durationType":1,"duration":"3","isPeriodic":false,"period":"1","executeOnApplication":false,"attributeModifiers":[],"stackType":0,"stackLimit":0,"stackDurationRefreshPolicy":0,"stackPeriodResetPolicy":0,"stackExpirationPolicy":0,"stackOverflowPolicy":0,"ongoingRequiredTags":{"_tags":[]},"cancelOnAbilityEnd":false,"cooldownType":0,"maxCharges":2,"chargeTime":"10"}</t>
+  </si>
+  <si>
+    <t>{"outputNodeGuid":"5fb21a71-2fff-4477-b79b-4c1a8bc10f9a","outputPortName":"初始效果","inputNodeGuid":"cde57fb8-b693-4da8-a4a8-fd61e56c5dcd","inputPortName":"输入"}</t>
+  </si>
+  <si>
+    <t>{"guid":"356907e0-1488-4128-bfcc-7ff73cfc3330","nodeType":0,"position":{"x":-902.4000244140625,"y":-1844.0},"targetType":1,"skillId":1008,"assetTags":{"_tags":[]},"cancelAbilitiesWithTags":{"_tags":[]},"blockAbilitiesWithTags":{"_tags":[]},"activationOwnedTags":{"_tags":[]},"activationRequiredTags":{"_tags":[]},"activationBlockedTags":{"_tags":[{"_name":"CD.回血","_hashCode":1163914435,"_shortName":"回血","_ancestorHashCodes":[-1137859925],"_ancestorNames":["CD"]}]},"ongoingBlockedTags":{"_tags":[]},"eventOutputPorts":[]}</t>
+  </si>
+  <si>
+    <t>{"outputNodeGuid":"5fb21a71-2fff-4477-b79b-4c1a8bc10f9a","outputPortName":"完成效果","inputNodeGuid":"011aad56-e96c-41eb-9d85-e793d74a40bb","inputPortName":"输入"}</t>
+  </si>
+  <si>
+    <t>{"guid":"cde57fb8-b693-4da8-a4a8-fd61e56c5dcd","nodeType":12,"position":{"x":-304.0,"y":-2072.0},"targetType":1,"requiredTags":{"_tags":[]},"immunityTags":{"_tags":[]},"destroyWithNode":false,"positionSource":0,"particlePrefab":{"instanceID":45360},"particleBindingName":"down","particleOffset":{"x":0.0,"y":0.0,"z":0.0},"particleScale":{"x":1.0,"y":1.0,"z":1.0},"attachToTarget":false,"particleLoop":false}</t>
+  </si>
+  <si>
+    <t>{"outputNodeGuid":"5fb21a71-2fff-4477-b79b-4c1a8bc10f9a","outputPortName":"完成效果","inputNodeGuid":"becb4d53-8a9e-4dc0-95a3-618d1e79ecc7","inputPortName":"输入"}</t>
+  </si>
+  <si>
+    <t>{"guid":"becb4d53-8a9e-4dc0-95a3-618d1e79ecc7","nodeType":14,"position":{"x":-313.6000061035156,"y":-1951.199951171875},"targetType":1,"requiredTags":{"_tags":[]},"immunityTags":{"_tags":[]},"destroyWithNode":false,"positionSource":2,"positionBindingName":"head","textType":1,"fixedText":"","contextDataKey":"Heal","textColor":{"r":0.0,"g":1.0,"b":0.10971927642822266,"a":1.0},"criticalColor":{"r":1.0,"g":0.5,"b":0.0,"a":1.0},"missColor":{"r":0.5,"g":0.5,"b":0.5,"a":1.0},"fontSize":45.0,"criticalFontSize":60.0,"duration":1.5,"offset":{"x":0.0,"y":0.0},"moveDirection":{"x":0.0,"y":1.0}}</t>
+  </si>
+  <si>
+    <t>Skill_RuFood</t>
+  </si>
+  <si>
+    <t>RuFood</t>
+  </si>
+  <si>
+    <t>{"guid":"eae41233-d297-46fe-a6c8-0b5c876fbb2a","nodeType":1,"position":{"x":46.399993896484378,"y":-1808.800048828125},"targetType":0,"assetTags":{"_tags":[]},"grantedTags":{"_tags":[]},"applicationRequiredTags":{"_tags":[]},"applicationImmunityTags":{"_tags":[]},"removeGameEffectsWithTags":{"_tags":[]},"durationType":0,"duration":"0","isPeriodic":false,"period":"1","executeOnApplication":false,"attributeModifiers":[],"stackType":0,"stackLimit":0,"stackDurationRefreshPolicy":0,"stackPeriodResetPolicy":0,"stackExpirationPolicy":0,"stackOverflowPolicy":0,"ongoingRequiredTags":{"_tags":[]},"cancelOnAbilityEnd":true,"damageType":0,"damageSourceType":0,"damageFixedValue":10.0,"damageFormula":"","damageMMCType":0,"damageSetByCallerKey":"","damageMMCCaptureAttribute":200,"damageMMCAttributeSource":0,"damageMMCCoefficient":1.0,"damageMMCUseSnapshot":true,"damageMultiplyByStackCount":false,"damageCalculationType":0}</t>
+  </si>
+  <si>
+    <t>{"guid":"2d7e41c4-8e90-4b61-879c-4b2e5b9486db","nodeType":14,"position":{"x":408.79998779296877,"y":-1747.199951171875},"targetType":1,"requiredTags":{"_tags":[]},"immunityTags":{"_tags":[]},"destroyWithNode":false,"positionSource":2,"positionBindingName":"head","textType":0,"fixedText":"","contextDataKey":"DamageResult","textColor":{"r":0.0,"g":0.323091983795166,"b":1.0,"a":1.0},"criticalColor":{"r":1.0,"g":0.5,"b":0.0,"a":1.0},"missColor":{"r":0.5,"g":0.5,"b":0.5,"a":1.0},"fontSize":45.0,"criticalFontSize":60.0,"duration":1.5,"offset":{"x":0.0,"y":0.0},"moveDirection":{"x":0.0,"y":1.0}}</t>
+  </si>
+  <si>
+    <t>{"guid":"c28fb88d-51b1-47b2-be59-859e0ac638e3","nodeType":10,"position":{"x":-1186.4000244140625,"y":-1747.199951171875},"targetType":1,"assetTags":{"_tags":[]},"grantedTags":{"_tags":[{"_name":"CD.火球术","_hashCode":-1710429436,"_shortName":"火球术","_ancestorHashCodes":[-1137859925],"_ancestorNames":["CD"]}]},"applicationRequiredTags":{"_tags":[]},"applicationImmunityTags":{"_tags":[]},"removeGameEffectsWithTags":{"_tags":[]},"durationType":1,"duration":"1","isPeriodic":false,"period":"1","executeOnApplication":false,"attributeModifiers":[],"stackType":0,"stackLimit":0,"stackDurationRefreshPolicy":0,"stackPeriodResetPolicy":0,"stackExpirationPolicy":0,"stackOverflowPolicy":0,"ongoingRequiredTags":{"_tags":[]},"cancelOnAbilityEnd":false,"cooldownType":0,"maxCharges":2,"chargeTime":"10"}</t>
+  </si>
+  <si>
+    <t>{"outputNodeGuid":"432ff1e3-b18d-476d-af80-d39ddc07402a","outputPortName":"de0ba361-3aba-4ef0-bb07-9b418fcae591","inputNodeGuid":"90bacd9f-d882-4bba-aaa8-41ed993ac3ff","inputPortName":"输入"}</t>
+  </si>
+  <si>
+    <t>{"guid":"356907e0-1488-4128-bfcc-7ff73cfc3330","nodeType":0,"position":{"x":-878.4000244140625,"y":-1853.5999755859375},"targetType":1,"skillId":1004,"assetTags":{"_tags":[]},"cancelAbilitiesWithTags":{"_tags":[]},"blockAbilitiesWithTags":{"_tags":[]},"activationOwnedTags":{"_tags":[]},"activationRequiredTags":{"_tags":[]},"activationBlockedTags":{"_tags":[{"_name":"CD.火球术","_hashCode":-1710429436,"_shortName":"火球术","_ancestorHashCodes":[-1137859925],"_ancestorNames":["CD"]}]},"ongoingBlockedTags":{"_tags":[{"_name":"Buff.DeBuff.Stun","_hashCode":1791562953,"_shortName":"Stun","_ancestorHashCodes":[937056111,321157895],"_ancestorNames":["Buff","Buff.DeBuff"]}]},"eventOutputPorts":[]}</t>
+  </si>
+  <si>
+    <t>{"outputNodeGuid":"90bacd9f-d882-4bba-aaa8-41ed993ac3ff","outputPortName":"碰撞时","inputNodeGuid":"eae41233-d297-46fe-a6c8-0b5c876fbb2a","inputPortName":"输入"}</t>
+  </si>
+  <si>
+    <t>{"guid":"3aafa9a5-4766-4204-91ab-d797aeb3c0e1","nodeType":7,"position":{"x":580.7999877929688,"y":-1987.199951171875},"targetType":1,"endType":0}</t>
+  </si>
+  <si>
+    <t>{"outputNodeGuid":"eae41233-d297-46fe-a6c8-0b5c876fbb2a","outputPortName":"完成效果","inputNodeGuid":"2d7e41c4-8e90-4b61-879c-4b2e5b9486db","inputPortName":"输入"}</t>
+  </si>
+  <si>
+    <t>{"guid":"432ff1e3-b18d-476d-af80-d39ddc07402a","nodeType":20,"position":{"x":-491.20001220703127,"y":-2478.39990234375},"targetType":1,"skeletonDataAsset":{"instanceID":44578},"animationName":"Attack","animationDuration":"24","isAnimationLooping":false,"timeEffects":[{"triggerTime":11,"portId":"de0ba361-3aba-4ef0-bb07-9b418fcae591"},{"triggerTime":24,"portId":"7ecf9fe6-7c5e-46ae-bade-7922214225e2"}],"timeCues":[]}</t>
+  </si>
+  <si>
+    <t>{"outputNodeGuid":"432ff1e3-b18d-476d-af80-d39ddc07402a","outputPortName":"7ecf9fe6-7c5e-46ae-bade-7922214225e2","inputNodeGuid":"3aafa9a5-4766-4204-91ab-d797aeb3c0e1","inputPortName":"输入"}</t>
+  </si>
+  <si>
+    <t>{"guid":"90bacd9f-d882-4bba-aaa8-41ed993ac3ff","nodeType":8,"position":{"x":-401.6000061035156,"y":-1826.4000244140625},"targetType":2,"assetTags":{"_tags":[]},"grantedTags":{"_tags":[]},"applicationRequiredTags":{"_tags":[]},"applicationImmunityTags":{"_tags":[]},"removeGameEffectsWithTags":{"_tags":[]},"durationType":2,"duration":"0","isPeriodic":false,"period":"1","executeOnApplication":false,"attributeModifiers":[],"stackType":0,"stackLimit":0,"stackDurationRefreshPolicy":0,"stackPeriodResetPolicy":0,"stackExpirationPolicy":0,"stackOverflowPolicy":0,"ongoingRequiredTags":{"_tags":[]},"cancelOnAbilityEnd":false,"launchPositionSource":0,"launchBindingName":"center","targetPositionSource":1,"targetBindingName":"center","projectileTargetType":0,"flyOver":true,"offsetAngle":0.0,"curveHeight":0.0,"projectilePrefab":{"instanceID":45446},"speed":3.0,"maxDistance":10.0,"collisionRadius":0.5,"isPiercing":false,"maxPierceCount":1,"collisionTargetTags":{"_tags":[]},"collisionExcludeTags":{"_tags":[]}}</t>
+  </si>
+  <si>
+    <t>Skill_SpeedUp</t>
+  </si>
+  <si>
+    <t>SpeedUp</t>
+  </si>
+  <si>
+    <t>{"guid":"432ff1e3-b18d-476d-af80-d39ddc07402a","nodeType":20,"position":{"x":-502.3999938964844,"y":-2384.0},"targetType":1,"skeletonDataAsset":{"instanceID":44398},"animationName":"Skill_attack_1009","animationDuration":"25","isAnimationLooping":false,"timeEffects":[{"triggerTime":25,"portId":"f41c85e0-7f26-494e-9ffc-4a06c980f811"}],"timeCues":[]}</t>
+  </si>
+  <si>
+    <t>{"guid":"c28fb88d-51b1-47b2-be59-859e0ac638e3","nodeType":10,"position":{"x":-1186.4000244140625,"y":-1747.199951171875},"targetType":1,"assetTags":{"_tags":[]},"grantedTags":{"_tags":[{"_name":"CD.急速","_hashCode":-605747253,"_shortName":"急速","_ancestorHashCodes":[-1137859925],"_ancestorNames":["CD"]}]},"applicationRequiredTags":{"_tags":[]},"applicationImmunityTags":{"_tags":[]},"removeGameEffectsWithTags":{"_tags":[]},"durationType":1,"duration":"10","isPeriodic":false,"period":"1","executeOnApplication":false,"attributeModifiers":[],"stackType":0,"stackLimit":0,"stackDurationRefreshPolicy":0,"stackPeriodResetPolicy":0,"stackExpirationPolicy":0,"stackOverflowPolicy":0,"ongoingRequiredTags":{"_tags":[]},"cancelOnAbilityEnd":false,"cooldownType":0,"maxCharges":2,"chargeTime":"10"}</t>
+  </si>
+  <si>
+    <t>{"guid":"356907e0-1488-4128-bfcc-7ff73cfc3330","nodeType":0,"position":{"x":-878.4000244140625,"y":-1853.5999755859375},"targetType":1,"skillId":0,"assetTags":{"_tags":[]},"cancelAbilitiesWithTags":{"_tags":[]},"blockAbilitiesWithTags":{"_tags":[]},"activationOwnedTags":{"_tags":[]},"activationRequiredTags":{"_tags":[]},"activationBlockedTags":{"_tags":[{"_name":"CD.急速","_hashCode":-605747253,"_shortName":"急速","_ancestorHashCodes":[-1137859925],"_ancestorNames":["CD"]}]},"ongoingBlockedTags":{"_tags":[]},"eventOutputPorts":[]}</t>
+  </si>
+  <si>
+    <t>{"outputNodeGuid":"356907e0-1488-4128-bfcc-7ff73cfc3330","outputPortName":"激活","inputNodeGuid":"632c75e2-152b-4376-8e9e-62c0e74f92d0","inputPortName":"输入"}</t>
+  </si>
+  <si>
+    <t>{"guid":"632c75e2-152b-4376-8e9e-62c0e74f92d0","nodeType":11,"position":{"x":-514.4000244140625,"y":-1880.0},"targetType":1,"assetTags":{"_tags":[]},"grantedTags":{"_tags":[]},"applicationRequiredTags":{"_tags":[]},"applicationImmunityTags":{"_tags":[]},"removeGameEffectsWithTags":{"_tags":[]},"durationType":1,"duration":"7","isPeriodic":false,"period":"1","executeOnApplication":false,"attributeModifiers":[{"attrType":300,"operation":0,"magnitudeSourceType":0,"fixedValue":10.0,"formula":"","mmcType":0,"setByCallerKey":"","mmcCaptureAttribute":200,"mmcAttributeSource":0,"mmcCoefficient":1.0,"mmcUseSnapshot":true}],"stackType":2,"stackLimit":1,"stackDurationRefreshPolicy":0,"stackPeriodResetPolicy":0,"stackExpirationPolicy":0,"stackOverflowPolicy":0,"ongoingRequiredTags":{"_tags":[]},"cancelOnAbilityEnd":false,"buffId":0}</t>
+  </si>
+  <si>
+    <t>Skill_Sweep</t>
+  </si>
+  <si>
+    <t>Sweep</t>
+  </si>
+  <si>
+    <t>{"guid":"c353e286-8ef0-460a-b917-887f2aeb390a","nodeType":14,"position":{"x":178.39999389648438,"y":-1786.4000244140625},"targetType":1,"requiredTags":{"_tags":[]},"immunityTags":{"_tags":[]},"destroyWithNode":false,"positionSource":2,"positionBindingName":"head","textType":0,"fixedText":"","contextDataKey":"DamageResult","textColor":{"r":1.0,"g":0.0,"b":0.0,"a":1.0},"criticalColor":{"r":1.0,"g":0.5,"b":0.0,"a":1.0},"missColor":{"r":0.5,"g":0.5,"b":0.5,"a":1.0},"fontSize":45.0,"criticalFontSize":60.0,"duration":1.5,"offset":{"x":0.0,"y":0.0},"moveDirection":{"x":0.0,"y":1.0}}</t>
+  </si>
+  <si>
+    <t>{"guid":"356907e0-1488-4128-bfcc-7ff73cfc3330","nodeType":0,"position":{"x":-878.4000244140625,"y":-1853.5999755859375},"targetType":1,"skillId":1001,"assetTags":{"_tags":[]},"cancelAbilitiesWithTags":{"_tags":[]},"blockAbilitiesWithTags":{"_tags":[]},"activationOwnedTags":{"_tags":[]},"activationRequiredTags":{"_tags":[]},"activationBlockedTags":{"_tags":[{"_name":"CD.横扫","_hashCode":2090173402,"_shortName":"横扫","_ancestorHashCodes":[-1137859925],"_ancestorNames":["CD"]}]},"ongoingBlockedTags":{"_tags":[]},"eventOutputPorts":[]}</t>
+  </si>
+  <si>
+    <t>{"guid":"c28fb88d-51b1-47b2-be59-859e0ac638e3","nodeType":10,"position":{"x":-1186.4000244140625,"y":-1747.199951171875},"targetType":1,"assetTags":{"_tags":[]},"grantedTags":{"_tags":[{"_name":"CD.横扫","_hashCode":2090173402,"_shortName":"横扫","_ancestorHashCodes":[-1137859925],"_ancestorNames":["CD"]}]},"applicationRequiredTags":{"_tags":[]},"applicationImmunityTags":{"_tags":[]},"removeGameEffectsWithTags":{"_tags":[]},"durationType":1,"duration":"1","isPeriodic":false,"period":"1","executeOnApplication":false,"attributeModifiers":[],"stackType":0,"stackLimit":0,"stackDurationRefreshPolicy":0,"stackPeriodResetPolicy":0,"stackExpirationPolicy":0,"stackOverflowPolicy":0,"ongoingRequiredTags":{"_tags":[]},"cancelOnAbilityEnd":false,"cooldownType":0,"maxCharges":2,"chargeTime":"10"}</t>
+  </si>
+  <si>
+    <t>{"guid":"2cfdacd2-0186-49dd-b177-4eb8c0ad87bd","nodeType":7,"position":{"x":689.5999755859375,"y":-1860.800048828125},"targetType":1,"endType":0}</t>
+  </si>
+  <si>
+    <t>{"guid":"f8947676-1084-4228-b991-1509cc7fe851","nodeType":1,"position":{"x":-100.0,"y":-1680.800048828125},"targetType":0,"assetTags":{"_tags":[]},"grantedTags":{"_tags":[]},"applicationRequiredTags":{"_tags":[]},"applicationImmunityTags":{"_tags":[]},"removeGameEffectsWithTags":{"_tags":[]},"durationType":0,"duration":"0","isPeriodic":false,"period":"1","executeOnApplication":false,"attributeModifiers":[],"stackType":0,"stackLimit":0,"stackDurationRefreshPolicy":0,"stackPeriodResetPolicy":0,"stackExpirationPolicy":0,"stackOverflowPolicy":0,"ongoingRequiredTags":{"_tags":[]},"cancelOnAbilityEnd":true,"damageType":0,"damageSourceType":0,"damageFixedValue":10.0,"damageFormula":"","damageMMCType":0,"damageSetByCallerKey":"","damageMMCCaptureAttribute":200,"damageMMCAttributeSource":0,"damageMMCCoefficient":1.0,"damageMMCUseSnapshot":true,"damageMultiplyByStackCount":false,"damageCalculationType":0}</t>
+  </si>
+  <si>
+    <t>{"outputNodeGuid":"e33ab94c-1496-4d6a-ba5e-1afd38bb0c30","outputPortName":"对每个目标","inputNodeGuid":"f8947676-1084-4228-b991-1509cc7fe851","inputPortName":"输入"}</t>
+  </si>
+  <si>
+    <t>{"guid":"432ff1e3-b18d-476d-af80-d39ddc07402a","nodeType":20,"position":{"x":-452.0,"y":-2406.39990234375},"targetType":1,"skeletonDataAsset":{"instanceID":44398},"animationName":"Attack_01","animationDuration":"18","isAnimationLooping":false,"timeEffects":[{"triggerTime":7,"portId":"de0ba361-3aba-4ef0-bb07-9b418fcae591"},{"triggerTime":18,"portId":"84e238a8-5baf-470e-829f-186695064945"}],"timeCues":[{"startTime":7,"endTime":48,"portId":"8dea1941-c520-4f9a-aee0-40932c8542ef"}]}</t>
+  </si>
+  <si>
+    <t>{"guid":"e33ab94c-1496-4d6a-ba5e-1afd38bb0c30","nodeType":4,"position":{"x":-452.0,"y":-1786.4000244140625},"targetType":1,"searchShapeType":1,"searchLineType":0,"positionSource":0,"positionBindingName":"center","searchCircleRadius":5.0,"searchSectorRadius":2.0,"searchSectorAngle":180.0,"searchLineDirectionOffsetAngle":0.0,"searchLineDirectionWidth":1.0,"searchLineDirectionLength":10.0,"lineStartPositionSource":0,"lineStartBindingName":"","lineEndPositionSource":1,"lineEndBindingName":"","searchLineBetweenWidth":1.0,"searchLineAbsoluteAngle":0.0,"searchLineAbsoluteWidth":1.0,"searchLineAbsoluteLength":10.0,"maxTargets":999,"searchTargetTags":{"_tags":[{"_name":"unitType.boss","_hashCode":-2067207703,"_shortName":"boss","_ancestorHashCodes":[1600484460],"_ancestorNames":["unitType"]}]},"searchExcludeTags":{"_tags":[]}}</t>
+  </si>
+  <si>
+    <t>{"outputNodeGuid":"432ff1e3-b18d-476d-af80-d39ddc07402a","outputPortName":"84e238a8-5baf-470e-829f-186695064945","inputNodeGuid":"2cfdacd2-0186-49dd-b177-4eb8c0ad87bd","inputPortName":"输入"}</t>
+  </si>
+  <si>
+    <t>Skill_ThreeFire</t>
+  </si>
+  <si>
+    <t>ThreeFire</t>
+  </si>
+  <si>
+    <t>{"guid":"432ff1e3-b18d-476d-af80-d39ddc07402a","nodeType":20,"position":{"x":-452.0,"y":-2406.39990234375},"targetType":1,"skeletonDataAsset":{"instanceID":44398},"animationName":"Attack_01","animationDuration":"18","isAnimationLooping":false,"timeEffects":[{"triggerTime":7,"portId":"de0ba361-3aba-4ef0-bb07-9b418fcae591"},{"triggerTime":18,"portId":"84e238a8-5baf-470e-829f-186695064945"}],"timeCues":[]}</t>
+  </si>
+  <si>
+    <t>{"guid":"c28fb88d-51b1-47b2-be59-859e0ac638e3","nodeType":10,"position":{"x":-1186.4000244140625,"y":-1747.199951171875},"targetType":1,"assetTags":{"_tags":[]},"grantedTags":{"_tags":[{"_name":"CD.三火球","_hashCode":-1656226246,"_shortName":"三火球","_ancestorHashCodes":[-1137859925],"_ancestorNames":["CD"]}]},"applicationRequiredTags":{"_tags":[]},"applicationImmunityTags":{"_tags":[]},"removeGameEffectsWithTags":{"_tags":[]},"durationType":1,"duration":"1","isPeriodic":false,"period":"1","executeOnApplication":false,"attributeModifiers":[],"stackType":0,"stackLimit":0,"stackDurationRefreshPolicy":0,"stackPeriodResetPolicy":0,"stackExpirationPolicy":0,"stackOverflowPolicy":0,"ongoingRequiredTags":{"_tags":[]},"cancelOnAbilityEnd":false,"cooldownType":0,"maxCharges":2,"chargeTime":"10"}</t>
+  </si>
+  <si>
+    <t>{"guid":"356907e0-1488-4128-bfcc-7ff73cfc3330","nodeType":0,"position":{"x":-878.4000244140625,"y":-1853.5999755859375},"targetType":1,"skillId":1010,"assetTags":{"_tags":[]},"cancelAbilitiesWithTags":{"_tags":[]},"blockAbilitiesWithTags":{"_tags":[]},"activationOwnedTags":{"_tags":[]},"activationRequiredTags":{"_tags":[]},"activationBlockedTags":{"_tags":[{"_name":"CD.三火球","_hashCode":-1656226246,"_shortName":"三火球","_ancestorHashCodes":[-1137859925],"_ancestorNames":["CD"]}]},"ongoingBlockedTags":{"_tags":[]},"eventOutputPorts":[]}</t>
+  </si>
+  <si>
+    <t>{"outputNodeGuid":"ce857360-de7e-4457-b348-9c124ce98879","outputPortName":"碰撞时","inputNodeGuid":"f8947676-1084-4228-b991-1509cc7fe851","inputPortName":"输入"}</t>
+  </si>
+  <si>
+    <t>{"guid":"c353e286-8ef0-460a-b917-887f2aeb390a","nodeType":14,"position":{"x":839.199951171875,"y":-1583.199951171875},"targetType":1,"requiredTags":{"_tags":[]},"immunityTags":{"_tags":[]},"destroyWithNode":false,"positionSource":2,"positionBindingName":"head","textType":0,"fixedText":"","contextDataKey":"DamageResult","textColor":{"r":1.0,"g":0.0,"b":0.0,"a":1.0},"criticalColor":{"r":1.0,"g":0.5,"b":0.0,"a":1.0},"missColor":{"r":0.5,"g":0.5,"b":0.5,"a":1.0},"fontSize":45.0,"criticalFontSize":60.0,"duration":1.5,"offset":{"x":0.0,"y":0.0},"moveDirection":{"x":0.0,"y":1.0}}</t>
+  </si>
+  <si>
+    <t>{"outputNodeGuid":"9a695e91-e218-425e-82ed-1e157bf1b014","outputPortName":"碰撞时","inputNodeGuid":"f8947676-1084-4228-b991-1509cc7fe851","inputPortName":"输入"}</t>
+  </si>
+  <si>
+    <t>{"guid":"f8947676-1084-4228-b991-1509cc7fe851","nodeType":1,"position":{"x":614.4000244140625,"y":-1583.199951171875},"targetType":0,"assetTags":{"_tags":[]},"grantedTags":{"_tags":[]},"applicationRequiredTags":{"_tags":[]},"applicationImmunityTags":{"_tags":[]},"removeGameEffectsWithTags":{"_tags":[]},"durationType":0,"duration":"0","isPeriodic":false,"period":"1","executeOnApplication":false,"attributeModifiers":[],"stackType":0,"stackLimit":0,"stackDurationRefreshPolicy":0,"stackPeriodResetPolicy":0,"stackExpirationPolicy":0,"stackOverflowPolicy":0,"ongoingRequiredTags":{"_tags":[]},"cancelOnAbilityEnd":true,"damageType":0,"damageSourceType":0,"damageFixedValue":10.0,"damageFormula":"","damageMMCType":0,"damageSetByCallerKey":"","damageMMCCaptureAttribute":200,"damageMMCAttributeSource":0,"damageMMCCoefficient":1.0,"damageMMCUseSnapshot":true,"damageMultiplyByStackCount":false,"damageCalculationType":0}</t>
+  </si>
+  <si>
+    <t>{"outputNodeGuid":"d897a922-5756-42cf-ac65-90a48c1e5a17","outputPortName":"碰撞时","inputNodeGuid":"f8947676-1084-4228-b991-1509cc7fe851","inputPortName":"输入"}</t>
+  </si>
+  <si>
+    <t>{"guid":"ce857360-de7e-4457-b348-9c124ce98879","nodeType":8,"position":{"x":202.39999389648438,"y":-1649.5999755859375},"targetType":2,"assetTags":{"_tags":[]},"grantedTags":{"_tags":[]},"applicationRequiredTags":{"_tags":[]},"applicationImmunityTags":{"_tags":[]},"removeGameEffectsWithTags":{"_tags":[]},"durationType":2,"duration":"0","isPeriodic":false,"period":"1","executeOnApplication":false,"attributeModifiers":[],"stackType":0,"stackLimit":0,"stackDurationRefreshPolicy":0,"stackPeriodResetPolicy":0,"stackExpirationPolicy":0,"stackOverflowPolicy":0,"ongoingRequiredTags":{"_tags":[]},"cancelOnAbilityEnd":false,"launchPositionSource":0,"launchBindingName":"center","targetPositionSource":2,"targetBindingName":"center","projectileTargetType":0,"flyOver":true,"offsetAngle":30.0,"curveHeight":0.0,"projectilePrefab":{"instanceID":45344},"speed":10.0,"maxDistance":10.0,"collisionRadius":0.5,"isPiercing":false,"maxPierceCount":1,"collisionTargetTags":{"_tags":[]},"collisionExcludeTags":{"_tags":[]}}</t>
+  </si>
+  <si>
+    <t>{"guid":"9a695e91-e218-425e-82ed-1e157bf1b014","nodeType":8,"position":{"x":184.79998779296876,"y":-1475.199951171875},"targetType":2,"assetTags":{"_tags":[]},"grantedTags":{"_tags":[]},"applicationRequiredTags":{"_tags":[]},"applicationImmunityTags":{"_tags":[]},"removeGameEffectsWithTags":{"_tags":[]},"durationType":2,"duration":"0","isPeriodic":false,"period":"1","executeOnApplication":false,"attributeModifiers":[],"stackType":0,"stackLimit":0,"stackDurationRefreshPolicy":0,"stackPeriodResetPolicy":0,"stackExpirationPolicy":0,"stackOverflowPolicy":0,"ongoingRequiredTags":{"_tags":[]},"cancelOnAbilityEnd":false,"launchPositionSource":0,"launchBindingName":"center","targetPositionSource":2,"targetBindingName":"center","projectileTargetType":0,"flyOver":true,"offsetAngle":0.0,"curveHeight":0.0,"projectilePrefab":{"instanceID":45344},"speed":10.0,"maxDistance":10.0,"collisionRadius":0.5,"isPiercing":false,"maxPierceCount":1,"collisionTargetTags":{"_tags":[]},"collisionExcludeTags":{"_tags":[]}}</t>
+  </si>
+  <si>
+    <t>{"outputNodeGuid":"432ff1e3-b18d-476d-af80-d39ddc07402a","outputPortName":"de0ba361-3aba-4ef0-bb07-9b418fcae591","inputNodeGuid":"ce857360-de7e-4457-b348-9c124ce98879","inputPortName":"输入"}</t>
+  </si>
+  <si>
+    <t>{"guid":"d897a922-5756-42cf-ac65-90a48c1e5a17","nodeType":8,"position":{"x":173.60000610351563,"y":-1327.199951171875},"targetType":2,"assetTags":{"_tags":[]},"grantedTags":{"_tags":[]},"applicationRequiredTags":{"_tags":[]},"applicationImmunityTags":{"_tags":[]},"removeGameEffectsWithTags":{"_tags":[]},"durationType":2,"duration":"0","isPeriodic":false,"period":"1","executeOnApplication":false,"attributeModifiers":[],"stackType":0,"stackLimit":0,"stackDurationRefreshPolicy":0,"stackPeriodResetPolicy":0,"stackExpirationPolicy":0,"stackOverflowPolicy":0,"ongoingRequiredTags":{"_tags":[]},"cancelOnAbilityEnd":false,"launchPositionSource":0,"launchBindingName":"center","targetPositionSource":2,"targetBindingName":"center","projectileTargetType":0,"flyOver":true,"offsetAngle":-30.0,"curveHeight":0.0,"projectilePrefab":{"instanceID":45344},"speed":10.0,"maxDistance":10.0,"collisionRadius":0.5,"isPiercing":false,"maxPierceCount":1,"collisionTargetTags":{"_tags":[]},"collisionExcludeTags":{"_tags":[]}}</t>
+  </si>
+  <si>
+    <t>{"outputNodeGuid":"432ff1e3-b18d-476d-af80-d39ddc07402a","outputPortName":"de0ba361-3aba-4ef0-bb07-9b418fcae591","inputNodeGuid":"9a695e91-e218-425e-82ed-1e157bf1b014","inputPortName":"输入"}</t>
+  </si>
+  <si>
+    <t>{"outputNodeGuid":"432ff1e3-b18d-476d-af80-d39ddc07402a","outputPortName":"de0ba361-3aba-4ef0-bb07-9b418fcae591","inputNodeGuid":"d897a922-5756-42cf-ac65-90a48c1e5a17","inputPortName":"输入"}</t>
+  </si>
+  <si>
+    <t>Wan</t>
+  </si>
+  <si>
+    <t>Skill_Wind</t>
+  </si>
+  <si>
+    <t>Wind</t>
+  </si>
+  <si>
+    <t>{"guid":"e33ab94c-1496-4d6a-ba5e-1afd38bb0c30","nodeType":4,"position":{"x":-452.0,"y":-1786.4000244140625},"targetType":1,"searchShapeType":0,"searchLineType":0,"positionSource":0,"positionBindingName":"center","searchCircleRadius":2.5,"searchSectorRadius":2.0,"searchSectorAngle":180.0,"searchLineDirectionOffsetAngle":0.0,"searchLineDirectionWidth":1.0,"searchLineDirectionLength":10.0,"lineStartPositionSource":0,"lineStartBindingName":"","lineEndPositionSource":1,"lineEndBindingName":"","searchLineBetweenWidth":1.0,"searchLineAbsoluteAngle":0.0,"searchLineAbsoluteWidth":1.0,"searchLineAbsoluteLength":10.0,"maxTargets":999,"searchTargetTags":{"_tags":[{"_name":"unitType.boss","_hashCode":-2067207703,"_shortName":"boss","_ancestorHashCodes":[1600484460],"_ancestorNames":["unitType"]}]},"searchExcludeTags":{"_tags":[]}}</t>
+  </si>
+  <si>
+    <t>{"guid":"c28fb88d-51b1-47b2-be59-859e0ac638e3","nodeType":10,"position":{"x":-1186.4000244140625,"y":-1747.199951171875},"targetType":1,"assetTags":{"_tags":[]},"grantedTags":{"_tags":[{"_name":"CD.践踏","_hashCode":-1394424629,"_shortName":"践踏","_ancestorHashCodes":[-1137859925],"_ancestorNames":["CD"]}]},"applicationRequiredTags":{"_tags":[]},"applicationImmunityTags":{"_tags":[]},"removeGameEffectsWithTags":{"_tags":[]},"durationType":1,"duration":"5","isPeriodic":false,"period":"1","executeOnApplication":false,"attributeModifiers":[],"stackType":0,"stackLimit":0,"stackDurationRefreshPolicy":0,"stackPeriodResetPolicy":0,"stackExpirationPolicy":0,"stackOverflowPolicy":0,"ongoingRequiredTags":{"_tags":[]},"cancelOnAbilityEnd":false,"cooldownType":0,"maxCharges":2,"chargeTime":"10"}</t>
+  </si>
+  <si>
+    <t>{"guid":"356907e0-1488-4128-bfcc-7ff73cfc3330","nodeType":0,"position":{"x":-878.4000244140625,"y":-1853.5999755859375},"targetType":1,"skillId":1003,"assetTags":{"_tags":[]},"cancelAbilitiesWithTags":{"_tags":[]},"blockAbilitiesWithTags":{"_tags":[]},"activationOwnedTags":{"_tags":[]},"activationRequiredTags":{"_tags":[]},"activationBlockedTags":{"_tags":[{"_name":"CD.践踏","_hashCode":-1394424629,"_shortName":"践踏","_ancestorHashCodes":[-1137859925],"_ancestorNames":["CD"]}]},"ongoingBlockedTags":{"_tags":[]},"eventOutputPorts":[]}</t>
+  </si>
+  <si>
+    <t>{"guid":"cde57fb8-b693-4da8-a4a8-fd61e56c5dcd","nodeType":12,"position":{"x":677.5999755859375,"y":-1998.4000244140625},"targetType":1,"requiredTags":{"_tags":[]},"immunityTags":{"_tags":[]},"destroyWithNode":false,"positionSource":0,"particlePrefab":{"instanceID":45504},"particleBindingName":"down","particleOffset":{"x":0.0,"y":0.0,"z":0.0},"particleScale":{"x":1.0,"y":1.0,"z":1.0},"attachToTarget":false,"particleLoop":false}</t>
+  </si>
+  <si>
+    <t>{"outputNodeGuid":"cb1df36f-5729-423e-9d1a-287db5a433f0","outputPortName":"初始效果","inputNodeGuid":"93ec5a43-cc34-4e4a-acb3-39da2f2c3010","inputPortName":"输入"}</t>
+  </si>
+  <si>
+    <t>{"guid":"432ff1e3-b18d-476d-af80-d39ddc07402a","nodeType":20,"position":{"x":-452.0,"y":-2375.199951171875},"targetType":1,"skeletonDataAsset":{"instanceID":44398},"animationName":"Skill_attack_1005","animationDuration":"16","isAnimationLooping":false,"timeEffects":[{"triggerTime":7,"portId":"de0ba361-3aba-4ef0-bb07-9b418fcae591"},{"triggerTime":16,"portId":"f41c85e0-7f26-494e-9ffc-4a06c980f811"}],"timeCues":[{"startTime":6,"endTime":55,"portId":"8dea1941-c520-4f9a-aee0-40932c8542ef"}]}</t>
+  </si>
+  <si>
+    <t>{"guid":"cb1df36f-5729-423e-9d1a-287db5a433f0","nodeType":11,"position":{"x":18.399993896484376,"y":-1786.4000244140625},"targetType":0,"assetTags":{"_tags":[{"_name":"Buff.DeBuff.Stun","_hashCode":1791562953,"_shortName":"Stun","_ancestorHashCodes":[937056111,321157895],"_ancestorNames":["Buff","Buff.DeBuff"]}]},"grantedTags":{"_tags":[{"_name":"Buff.DeBuff.Stun","_hashCode":1791562953,"_shortName":"Stun","_ancestorHashCodes":[937056111,321157895],"_ancestorNames":["Buff","Buff.DeBuff"]}]},"applicationRequiredTags":{"_tags":[]},"applicationImmunityTags":{"_tags":[]},"removeGameEffectsWithTags":{"_tags":[]},"durationType":1,"duration":"4","isPeriodic":false,"period":"1","executeOnApplication":false,"attributeModifiers":[],"stackType":1,"stackLimit":1,"stackDurationRefreshPolicy":0,"stackPeriodResetPolicy":1,"stackExpirationPolicy":0,"stackOverflowPolicy":0,"ongoingRequiredTags":{"_tags":[]},"cancelOnAbilityEnd":false,"buffId":0}</t>
+  </si>
+  <si>
+    <t>{"guid":"93ec5a43-cc34-4e4a-acb3-39da2f2c3010","nodeType":12,"position":{"x":468.79998779296877,"y":-1749.5999755859375},"targetType":1,"requiredTags":{"_tags":[]},"immunityTags":{"_tags":[]},"destroyWithNode":true,"positionSource":2,"particlePrefab":{"instanceID":45630},"particleBindingName":"head","particleOffset":{"x":0.0,"y":0.0,"z":0.0},"particleScale":{"x":1.0,"y":1.0,"z":1.0},"attachToTarget":true,"particleLoop":true}</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -152,6 +512,13 @@
     </font>
     <font>
       <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
@@ -165,7 +532,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -188,17 +555,56 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -533,19 +939,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H12"/>
+  <dimension ref="A1:H95"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+      <selection pane="bottomLeft" activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="7" max="7" width="25.54296875" customWidth="1"/>
+    <col min="3" max="3" width="15.7265625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.1796875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.54296875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="255.6328125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="21.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -561,15 +971,15 @@
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1"/>
+      <c r="G1" s="4"/>
       <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>7</v>
       </c>
@@ -585,15 +995,15 @@
       <c r="E2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="F2" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="G2" s="1"/>
+      <c r="G2" s="6"/>
       <c r="H2" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -605,170 +1015,1107 @@
         <v>12</v>
       </c>
       <c r="G3" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H3" s="1"/>
+    </row>
+    <row r="4" spans="1:8" ht="15" x14ac:dyDescent="0.35">
+      <c r="A4" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="H3" s="1"/>
-    </row>
-    <row r="4" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A4" s="1" t="s">
+      <c r="B4" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="C4" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="D4" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="E4" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="F4" s="1"/>
+      <c r="G4" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="H4" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="F4" s="1" t="s">
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5" t="s">
+        <v>37</v>
+      </c>
+      <c r="D5" t="s">
+        <v>38</v>
+      </c>
+      <c r="F5">
+        <v>2</v>
+      </c>
+      <c r="G5" t="s">
+        <v>39</v>
+      </c>
+      <c r="H5" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="F6">
+        <v>14</v>
+      </c>
+      <c r="G6" t="s">
+        <v>41</v>
+      </c>
+      <c r="H6" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7" t="s">
+        <v>43</v>
+      </c>
+      <c r="H7" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="F8">
+        <v>10</v>
+      </c>
+      <c r="G8" t="s">
+        <v>45</v>
+      </c>
+      <c r="H8" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="F9">
+        <v>11</v>
+      </c>
+      <c r="G9" t="s">
+        <v>47</v>
+      </c>
+      <c r="H9" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="B10">
+        <v>2</v>
+      </c>
+      <c r="C10" t="s">
+        <v>49</v>
+      </c>
+      <c r="D10" t="s">
+        <v>50</v>
+      </c>
+      <c r="F10">
+        <v>20</v>
+      </c>
+      <c r="G10" t="s">
+        <v>51</v>
+      </c>
+      <c r="H10" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="F11">
+        <v>12</v>
+      </c>
+      <c r="G11" t="s">
+        <v>52</v>
+      </c>
+      <c r="H11" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="F12">
+        <v>3</v>
+      </c>
+      <c r="G12" t="s">
+        <v>53</v>
+      </c>
+      <c r="H12" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="F13">
+        <v>10</v>
+      </c>
+      <c r="G13" t="s">
+        <v>54</v>
+      </c>
+      <c r="H13" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="F14">
+        <v>14</v>
+      </c>
+      <c r="G14" t="s">
+        <v>55</v>
+      </c>
+      <c r="H14" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15" t="s">
+        <v>56</v>
+      </c>
+      <c r="H15" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="F16">
+        <v>7</v>
+      </c>
+      <c r="G16" t="s">
+        <v>58</v>
+      </c>
+      <c r="H16" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="17" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17" t="s">
+        <v>60</v>
+      </c>
+      <c r="H17" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="18" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="F18">
+        <v>11</v>
+      </c>
+      <c r="G18" t="s">
+        <v>62</v>
+      </c>
+      <c r="H18" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="19" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="F19">
+        <v>4</v>
+      </c>
+      <c r="G19" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="20" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B20">
+        <v>3</v>
+      </c>
+      <c r="C20" t="s">
+        <v>65</v>
+      </c>
+      <c r="D20" t="s">
+        <v>66</v>
+      </c>
+      <c r="F20">
+        <v>3</v>
+      </c>
+      <c r="G20" t="s">
+        <v>20</v>
+      </c>
+      <c r="H20" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="21" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="F21">
+        <v>0</v>
+      </c>
+      <c r="G21" t="s">
+        <v>67</v>
+      </c>
+      <c r="H21" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="22" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="F22">
+        <v>14</v>
+      </c>
+      <c r="G22" t="s">
+        <v>68</v>
+      </c>
+      <c r="H22" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="23" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23" t="s">
+        <v>69</v>
+      </c>
+      <c r="H23" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="24" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="F24">
+        <v>20</v>
+      </c>
+      <c r="G24" t="s">
+        <v>71</v>
+      </c>
+      <c r="H24" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="25" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="F25">
+        <v>12</v>
+      </c>
+      <c r="G25" t="s">
+        <v>73</v>
+      </c>
+      <c r="H25" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="26" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="F26">
+        <v>10</v>
+      </c>
+      <c r="G26" t="s">
+        <v>75</v>
+      </c>
+      <c r="H26" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="27" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="F27">
+        <v>7</v>
+      </c>
+      <c r="G27" t="s">
+        <v>22</v>
+      </c>
+      <c r="H27" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="28" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="F28">
+        <v>4</v>
+      </c>
+      <c r="G28" t="s">
+        <v>77</v>
+      </c>
+      <c r="H28" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="29" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="F29">
+        <v>21</v>
+      </c>
+      <c r="G29" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="30" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B30">
+        <v>4</v>
+      </c>
+      <c r="C30" t="s">
+        <v>79</v>
+      </c>
+      <c r="D30" t="s">
+        <v>80</v>
+      </c>
+      <c r="F30">
+        <v>3</v>
+      </c>
+      <c r="G30" t="s">
+        <v>20</v>
+      </c>
+      <c r="H30" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="31" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="F31">
+        <v>7</v>
+      </c>
+      <c r="G31" t="s">
+        <v>22</v>
+      </c>
+      <c r="H31" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="32" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="F32">
+        <v>20</v>
+      </c>
+      <c r="G32" t="s">
+        <v>24</v>
+      </c>
+      <c r="H32" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="33" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="F33">
+        <v>12</v>
+      </c>
+      <c r="G33" t="s">
+        <v>81</v>
+      </c>
+      <c r="H33" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="34" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="F34">
+        <v>0</v>
+      </c>
+      <c r="G34" t="s">
+        <v>82</v>
+      </c>
+      <c r="H34" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="35" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="F35">
+        <v>10</v>
+      </c>
+      <c r="G35" t="s">
+        <v>83</v>
+      </c>
+      <c r="H35" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="36" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="F36">
+        <v>22</v>
+      </c>
+      <c r="G36" t="s">
+        <v>84</v>
+      </c>
+      <c r="H36" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="37" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="F37">
+        <v>4</v>
+      </c>
+      <c r="G37" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="38" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B38">
+        <v>5</v>
+      </c>
+      <c r="C38" t="s">
+        <v>85</v>
+      </c>
+      <c r="D38" t="s">
+        <v>86</v>
+      </c>
+      <c r="F38">
+        <v>3</v>
+      </c>
+      <c r="G38" t="s">
+        <v>53</v>
+      </c>
+      <c r="H38" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="39" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="F39">
+        <v>2</v>
+      </c>
+      <c r="G39" t="s">
+        <v>87</v>
+      </c>
+      <c r="H39" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="40" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="F40">
+        <v>7</v>
+      </c>
+      <c r="G40" t="s">
+        <v>88</v>
+      </c>
+      <c r="H40" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="41" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="F41">
+        <v>10</v>
+      </c>
+      <c r="G41" t="s">
+        <v>90</v>
+      </c>
+      <c r="H41" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="42" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42" t="s">
+        <v>92</v>
+      </c>
+      <c r="H42" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="43" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="F43">
+        <v>12</v>
+      </c>
+      <c r="G43" t="s">
+        <v>94</v>
+      </c>
+      <c r="H43" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="44" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="F44">
+        <v>14</v>
+      </c>
+      <c r="G44" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="45" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B45">
+        <v>6</v>
+      </c>
+      <c r="C45" t="s">
+        <v>97</v>
+      </c>
+      <c r="D45" t="s">
+        <v>98</v>
+      </c>
+      <c r="F45">
+        <v>3</v>
+      </c>
+      <c r="G45" t="s">
+        <v>20</v>
+      </c>
+      <c r="H45" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="46" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="F46">
+        <v>1</v>
+      </c>
+      <c r="G46" t="s">
+        <v>99</v>
+      </c>
+      <c r="H46" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="47" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="F47">
+        <v>14</v>
+      </c>
+      <c r="G47" t="s">
+        <v>100</v>
+      </c>
+      <c r="H47" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="48" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="F48">
+        <v>10</v>
+      </c>
+      <c r="G48" t="s">
+        <v>101</v>
+      </c>
+      <c r="H48" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="49" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="F49">
+        <v>0</v>
+      </c>
+      <c r="G49" t="s">
+        <v>103</v>
+      </c>
+      <c r="H49" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="50" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="F50">
+        <v>7</v>
+      </c>
+      <c r="G50" t="s">
+        <v>105</v>
+      </c>
+      <c r="H50" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="51" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="F51">
+        <v>20</v>
+      </c>
+      <c r="G51" t="s">
+        <v>107</v>
+      </c>
+      <c r="H51" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="52" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="F52">
+        <v>8</v>
+      </c>
+      <c r="G52" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="53" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B53">
+        <v>7</v>
+      </c>
+      <c r="C53" t="s">
+        <v>110</v>
+      </c>
+      <c r="D53" t="s">
+        <v>111</v>
+      </c>
+      <c r="F53">
+        <v>3</v>
+      </c>
+      <c r="G53" t="s">
+        <v>20</v>
+      </c>
+      <c r="H53" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="54" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="F54">
+        <v>7</v>
+      </c>
+      <c r="G54" t="s">
+        <v>22</v>
+      </c>
+      <c r="H54" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="55" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="F55">
+        <v>20</v>
+      </c>
+      <c r="G55" t="s">
+        <v>112</v>
+      </c>
+      <c r="H55" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="56" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="F56">
+        <v>10</v>
+      </c>
+      <c r="G56" t="s">
+        <v>113</v>
+      </c>
+      <c r="H56" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="57" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="F57">
+        <v>0</v>
+      </c>
+      <c r="G57" t="s">
+        <v>114</v>
+      </c>
+      <c r="H57" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="58" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="F58">
+        <v>11</v>
+      </c>
+      <c r="G58" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="59" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B59">
+        <v>8</v>
+      </c>
+      <c r="C59" t="s">
+        <v>117</v>
+      </c>
+      <c r="D59" t="s">
+        <v>118</v>
+      </c>
+      <c r="F59">
+        <v>14</v>
+      </c>
+      <c r="G59" t="s">
+        <v>119</v>
+      </c>
+      <c r="H59" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="60" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="F60">
+        <v>0</v>
+      </c>
+      <c r="G60" t="s">
+        <v>120</v>
+      </c>
+      <c r="H60" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="61" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="F61">
+        <v>10</v>
+      </c>
+      <c r="G61" t="s">
+        <v>121</v>
+      </c>
+      <c r="H61" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="62" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="F62">
+        <v>7</v>
+      </c>
+      <c r="G62" t="s">
+        <v>122</v>
+      </c>
+      <c r="H62" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="63" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="F63">
+        <v>3</v>
+      </c>
+      <c r="G63" t="s">
+        <v>53</v>
+      </c>
+      <c r="H63" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="64" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="F64">
+        <v>1</v>
+      </c>
+      <c r="G64" t="s">
+        <v>123</v>
+      </c>
+      <c r="H64" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="65" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="F65">
+        <v>20</v>
+      </c>
+      <c r="G65" t="s">
+        <v>125</v>
+      </c>
+      <c r="H65" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="66" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="F66">
+        <v>4</v>
+      </c>
+      <c r="G66" t="s">
+        <v>126</v>
+      </c>
+      <c r="H66" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="67" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="F67">
+        <v>12</v>
+      </c>
+      <c r="G67" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="68" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B68">
+        <v>9</v>
+      </c>
+      <c r="C68" t="s">
+        <v>128</v>
+      </c>
+      <c r="D68" t="s">
+        <v>129</v>
+      </c>
+      <c r="F68">
+        <v>7</v>
+      </c>
+      <c r="G68" t="s">
+        <v>122</v>
+      </c>
+      <c r="H68" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="69" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="F69">
+        <v>3</v>
+      </c>
+      <c r="G69" t="s">
+        <v>53</v>
+      </c>
+      <c r="H69" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="70" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="F70">
+        <v>20</v>
+      </c>
+      <c r="G70" t="s">
+        <v>130</v>
+      </c>
+      <c r="H70" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="71" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="F71">
+        <v>10</v>
+      </c>
+      <c r="G71" t="s">
+        <v>131</v>
+      </c>
+      <c r="H71" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="72" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="F72">
+        <v>0</v>
+      </c>
+      <c r="G72" t="s">
+        <v>132</v>
+      </c>
+      <c r="H72" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="73" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="F73">
+        <v>14</v>
+      </c>
+      <c r="G73" t="s">
+        <v>134</v>
+      </c>
+      <c r="H73" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="74" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="F74">
+        <v>1</v>
+      </c>
+      <c r="G74" t="s">
+        <v>136</v>
+      </c>
+      <c r="H74" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="75" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="F75">
+        <v>8</v>
+      </c>
+      <c r="G75" t="s">
+        <v>138</v>
+      </c>
+      <c r="H75" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="76" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="F76">
+        <v>8</v>
+      </c>
+      <c r="G76" t="s">
+        <v>139</v>
+      </c>
+      <c r="H76" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="77" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="F77">
+        <v>8</v>
+      </c>
+      <c r="G77" t="s">
+        <v>141</v>
+      </c>
+      <c r="H77" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="78" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="H78" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="79" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B79">
+        <v>10</v>
+      </c>
+      <c r="C79" t="s">
         <v>19</v>
       </c>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1" t="s">
+      <c r="D79" t="s">
+        <v>144</v>
+      </c>
+      <c r="F79">
+        <v>3</v>
+      </c>
+      <c r="G79" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1">
-        <v>1</v>
-      </c>
-      <c r="C5" s="1" t="s">
+      <c r="H79" t="s">
         <v>21</v>
       </c>
-      <c r="D5" s="1" t="s">
+    </row>
+    <row r="80" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="F80">
+        <v>7</v>
+      </c>
+      <c r="G80" t="s">
         <v>22</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="H80" t="s">
         <v>23</v>
       </c>
-      <c r="F5" s="1">
+    </row>
+    <row r="81" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="F81">
+        <v>20</v>
+      </c>
+      <c r="G81" t="s">
+        <v>24</v>
+      </c>
+      <c r="H81" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="82" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="F82">
+        <v>22</v>
+      </c>
+      <c r="G82" t="s">
+        <v>26</v>
+      </c>
+      <c r="H82" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="83" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="F83">
+        <v>10</v>
+      </c>
+      <c r="G83" t="s">
+        <v>28</v>
+      </c>
+      <c r="H83" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="84" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="F84">
+        <v>12</v>
+      </c>
+      <c r="G84" t="s">
+        <v>30</v>
+      </c>
+      <c r="H84" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="85" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="F85">
+        <v>0</v>
+      </c>
+      <c r="G85" t="s">
+        <v>32</v>
+      </c>
+      <c r="H85" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="86" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="F86">
+        <v>4</v>
+      </c>
+      <c r="G86" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="87" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B87">
+        <v>11</v>
+      </c>
+      <c r="C87" t="s">
+        <v>145</v>
+      </c>
+      <c r="D87" t="s">
+        <v>146</v>
+      </c>
+      <c r="F87">
+        <v>4</v>
+      </c>
+      <c r="G87" t="s">
+        <v>147</v>
+      </c>
+      <c r="H87" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="88" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="F88">
         <v>3</v>
       </c>
-      <c r="G5" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="H5" s="1" t="s">
+      <c r="G88" t="s">
+        <v>20</v>
+      </c>
+      <c r="H88" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="89" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="F89">
+        <v>10</v>
+      </c>
+      <c r="G89" t="s">
+        <v>148</v>
+      </c>
+      <c r="H89" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A6" s="1"/>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1">
+    <row r="90" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="F90">
+        <v>0</v>
+      </c>
+      <c r="G90" t="s">
+        <v>149</v>
+      </c>
+      <c r="H90" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="91" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="F91">
+        <v>12</v>
+      </c>
+      <c r="G91" t="s">
+        <v>150</v>
+      </c>
+      <c r="H91" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="92" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="F92">
+        <v>20</v>
+      </c>
+      <c r="G92" t="s">
+        <v>152</v>
+      </c>
+      <c r="H92" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="93" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="F93">
         <v>7</v>
       </c>
-      <c r="G6" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A7" s="1"/>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1">
-        <v>20</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="H7" s="1" t="s">
+      <c r="G93" t="s">
+        <v>22</v>
+      </c>
+      <c r="H93" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A8" s="1"/>
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1">
-        <v>22</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="H8" s="1" t="s">
+    <row r="94" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="F94">
+        <v>11</v>
+      </c>
+      <c r="G94" t="s">
+        <v>153</v>
+      </c>
+      <c r="H94" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A9" s="1"/>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1">
-        <v>10</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A10" s="1"/>
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1">
+    <row r="95" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="F95">
         <v>12</v>
       </c>
-      <c r="G10" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="H10" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A11" s="1"/>
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1">
-        <v>0</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="H11" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A12" s="1"/>
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1">
-        <v>4</v>
-      </c>
-      <c r="G12" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="H12" s="1"/>
+      <c r="G95" t="s">
+        <v>154</v>
+      </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:H12" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <mergeCells count="2">
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="F2:G2"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Luban/MiniTemplate/Datas/#SkillGraph.xlsx
+++ b/Luban/MiniTemplate/Datas/#SkillGraph.xlsx
@@ -1043,1072 +1043,1893 @@
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="5">
+      <c r="A5"/>
       <c r="B5">
         <v>1</v>
       </c>
-      <c r="C5" t="s">
-        <v>37</v>
-      </c>
-      <c r="D5" t="s">
-        <v>38</v>
-      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Skill_BeRecBlood</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>BeRecBlood</t>
+        </is>
+      </c>
+      <c r="E5"/>
       <c r="F5">
         <v>2</v>
       </c>
-      <c r="G5" t="s">
-        <v>39</v>
-      </c>
-      <c r="H5" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>{"guid":"a8c2d6c0-65f1-4bed-8a6a-70197e84bb56","nodeType":2,"position":{"x":933.5999755859375,"y":226.39999389648438},"targetType":1,"assetTags":{"_tags":[]},"grantedTags":{"_tags":[]},"applicationRequiredTags":{"_tags":[]},"applicationImmunityTags":{"_tags":[]},"removeGameEffectsWithTags":{"_tags":[]},"durationType":0,"duration":"0","isPeriodic":false,"period":"1","executeOnApplication":false,"attributeModifiers":[],"stackType":0,"stackLimit":0,"stackDurationRefreshPolicy":0,"stackPeriodResetPolicy":0,"stackExpirationPolicy":0,"stackOverflowPolicy":0,"ongoingRequiredTags":{"_tags":[]},"cancelOnAbilityEnd":false,"healSourceType":0,"healFixedValue":2.0,"healFormula":"","healMMCType":0,"healSetByCallerKey":"","healMMCCaptureAttribute":202,"healMMCAttributeSource":0,"healMMCCoefficient":1.0,"healMMCUseSnapshot":true,"healMultiplyByStackCount":false,"healCalculationType":0}</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>{"outputNodeGuid":"426755b7-c39a-4524-9cb5-960a31a19c10","outputPortName":"每周期执行","inputNodeGuid":"a8c2d6c0-65f1-4bed-8a6a-70197e84bb56","inputPortName":"输入"}</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6"/>
+      <c r="B6"/>
+      <c r="C6"/>
+      <c r="D6"/>
+      <c r="E6"/>
       <c r="F6">
         <v>14</v>
       </c>
-      <c r="G6" t="s">
-        <v>41</v>
-      </c>
-      <c r="H6" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>{"guid":"d086a8c9-8557-4a61-8fd2-64b3c1e543a3","nodeType":14,"position":{"x":1148.800048828125,"y":208.0},"targetType":1,"requiredTags":{"_tags":[]},"immunityTags":{"_tags":[]},"destroyWithNode":false,"positionSource":0,"positionBindingName":"head","textType":1,"fixedText":"","contextDataKey":"Heal","textColor":{"r":0.04063582420349121,"g":1.0,"b":0.0,"a":1.0},"criticalColor":{"r":1.0,"g":0.5,"b":0.0,"a":1.0},"missColor":{"r":0.5,"g":0.5,"b":0.5,"a":1.0},"fontSize":45.0,"criticalFontSize":60.0,"duration":1.5,"offset":{"x":0.0,"y":0.0},"moveDirection":{"x":0.0,"y":1.0}}</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>{"outputNodeGuid":"a8c2d6c0-65f1-4bed-8a6a-70197e84bb56","outputPortName":"完成效果","inputNodeGuid":"d086a8c9-8557-4a61-8fd2-64b3c1e543a3","inputPortName":"输入"}</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7"/>
+      <c r="B7"/>
+      <c r="C7"/>
+      <c r="D7"/>
+      <c r="E7"/>
       <c r="F7">
         <v>0</v>
       </c>
-      <c r="G7" t="s">
-        <v>43</v>
-      </c>
-      <c r="H7" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>{"guid":"d5809887-df6e-4604-bd09-36cef191ce83","nodeType":0,"position":{"x":210.39999389648438,"y":114.39999389648438},"targetType":1,"skillId":1009,"assetTags":{"_tags":[]},"cancelAbilitiesWithTags":{"_tags":[]},"blockAbilitiesWithTags":{"_tags":[]},"activationOwnedTags":{"_tags":[]},"activationRequiredTags":{"_tags":[]},"activationBlockedTags":{"_tags":[]},"ongoingBlockedTags":{"_tags":[]},"eventOutputPorts":[{"eventType":2,"customEventTag":""}]}</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>{"outputNodeGuid":"d5809887-df6e-4604-bd09-36cef191ce83","outputPortName":"激活","inputNodeGuid":"426755b7-c39a-4524-9cb5-960a31a19c10","inputPortName":"输入"}</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8"/>
+      <c r="B8"/>
+      <c r="C8"/>
+      <c r="D8"/>
+      <c r="E8"/>
       <c r="F8">
         <v>10</v>
       </c>
-      <c r="G8" t="s">
-        <v>45</v>
-      </c>
-      <c r="H8" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>{"guid":"7eefd9ae-c57e-439d-b1b6-e7f4e52f2f6f","nodeType":10,"position":{"x":370.4000244140625,"y":484.79998779296877},"targetType":1,"assetTags":{"_tags":[]},"grantedTags":{"_tags":[{"_name":"CD.BeRecBlood","_hashCode":-1099994396,"_shortName":"被动回血","_ancestorHashCodes":[-1137859925],"_ancestorNames":["CD"]}]},"applicationRequiredTags":{"_tags":[]},"applicationImmunityTags":{"_tags":[]},"removeGameEffectsWithTags":{"_tags":[]},"durationType":1,"duration":"3","isPeriodic":false,"period":"1","executeOnApplication":false,"attributeModifiers":[],"stackType":0,"stackLimit":0,"stackDurationRefreshPolicy":0,"stackPeriodResetPolicy":0,"stackExpirationPolicy":0,"stackOverflowPolicy":0,"ongoingRequiredTags":{"_tags":[]},"cancelOnAbilityEnd":false,"cooldownType":0,"maxCharges":2,"chargeTime":"10"}</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>{"outputNodeGuid":"7eefd9ae-c57e-439d-b1b6-e7f4e52f2f6f","outputPortName":"完成效果","inputNodeGuid":"426755b7-c39a-4524-9cb5-960a31a19c10","inputPortName":"输入"}</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9"/>
+      <c r="B9"/>
+      <c r="C9"/>
+      <c r="D9"/>
+      <c r="E9"/>
       <c r="F9">
         <v>11</v>
       </c>
-      <c r="G9" t="s">
-        <v>47</v>
-      </c>
-      <c r="H9" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>{"guid":"426755b7-c39a-4524-9cb5-960a31a19c10","nodeType":11,"position":{"x":587.2000122070313,"y":114.39999389648438},"targetType":1,"assetTags":{"_tags":[]},"grantedTags":{"_tags":[]},"applicationRequiredTags":{"_tags":[]},"applicationImmunityTags":{"_tags":[]},"removeGameEffectsWithTags":{"_tags":[]},"durationType":2,"duration":"10","isPeriodic":true,"period":"1","executeOnApplication":false,"attributeModifiers":[],"stackType":1,"stackLimit":1,"stackDurationRefreshPolicy":0,"stackPeriodResetPolicy":0,"stackExpirationPolicy":0,"stackOverflowPolicy":0,"ongoingRequiredTags":{"_tags":[{"_name":"CD.BeRecBlood","_hashCode":-1099994396,"_shortName":"被动回血","_ancestorHashCodes":[-1137859925],"_ancestorNames":["CD"]}]},"cancelOnAbilityEnd":true,"buffId":0}</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>{"outputNodeGuid":"d5809887-df6e-4604-bd09-36cef191ce83","outputPortName":"受到伤害时","inputNodeGuid":"7eefd9ae-c57e-439d-b1b6-e7f4e52f2f6f","inputPortName":"输入"}</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10"/>
       <c r="B10">
         <v>2</v>
       </c>
-      <c r="C10" t="s">
-        <v>49</v>
-      </c>
-      <c r="D10" t="s">
-        <v>50</v>
-      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Skill_Blood</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>Blood</t>
+        </is>
+      </c>
+      <c r="E10"/>
       <c r="F10">
         <v>20</v>
       </c>
-      <c r="G10" t="s">
-        <v>51</v>
-      </c>
-      <c r="H10" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>{"guid":"432ff1e3-b18d-476d-af80-d39ddc07402a","nodeType":20,"position":{"x":-472.0,"y":-2380.800048828125},"targetType":1,"skeletonDataAsset":{"instanceID":44398},"animationName":"Attack_02","animationDuration":"22","isAnimationLooping":false,"timeEffects":[{"triggerTime":7,"portId":"de0ba361-3aba-4ef0-bb07-9b418fcae591"},{"triggerTime":22,"portId":"97dc121c-84b7-4f94-9997-02e0e5b2ea6c"}],"timeCues":[{"startTime":7,"endTime":48,"portId":"8dea1941-c520-4f9a-aee0-40932c8542ef"}]}</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>{"outputNodeGuid":"432ff1e3-b18d-476d-af80-d39ddc07402a","outputPortName":"8dea1941-c520-4f9a-aee0-40932c8542ef","inputNodeGuid":"cde57fb8-b693-4da8-a4a8-fd61e56c5dcd","inputPortName":"输入"}</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11"/>
+      <c r="B11"/>
+      <c r="C11"/>
+      <c r="D11"/>
+      <c r="E11"/>
       <c r="F11">
         <v>12</v>
       </c>
-      <c r="G11" t="s">
-        <v>52</v>
-      </c>
-      <c r="H11" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>{"guid":"cde57fb8-b693-4da8-a4a8-fd61e56c5dcd","nodeType":12,"position":{"x":677.5999755859375,"y":-1998.4000244140625},"targetType":1,"requiredTags":{"_tags":[]},"immunityTags":{"_tags":[]},"destroyWithNode":false,"positionSource":0,"particlePrefab":{"instanceID":45538},"particleBindingName":"down","particleOffset":{"x":0.0,"y":0.0,"z":0.0},"particleScale":{"x":1.0,"y":1.0,"z":1.0},"attachToTarget":false,"particleLoop":false}</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>{"outputNodeGuid":"356907e0-1488-4128-bfcc-7ff73cfc3330","outputPortName":"动画","inputNodeGuid":"432ff1e3-b18d-476d-af80-d39ddc07402a","inputPortName":"输入"}</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12"/>
+      <c r="B12"/>
+      <c r="C12"/>
+      <c r="D12"/>
+      <c r="E12"/>
       <c r="F12">
         <v>3</v>
       </c>
-      <c r="G12" t="s">
-        <v>53</v>
-      </c>
-      <c r="H12" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>{"guid":"9d6f459d-b588-4b64-843b-1b71e8f299ae","nodeType":3,"position":{"x":-1186.4000244140625,"y":-2019.199951171875},"targetType":1,"assetTags":{"_tags":[]},"grantedTags":{"_tags":[]},"applicationRequiredTags":{"_tags":[]},"applicationImmunityTags":{"_tags":[]},"removeGameEffectsWithTags":{"_tags":[]},"durationType":0,"duration":"0","isPeriodic":false,"period":"1","executeOnApplication":false,"attributeModifiers":[{"attrType":100,"operation":0,"magnitudeSourceType":0,"fixedValue":10.0,"formula":"","mmcType":0,"setByCallerKey":"","mmcCaptureAttribute":200,"mmcAttributeSource":0,"mmcCoefficient":1.0,"mmcUseSnapshot":true}],"stackType":0,"stackLimit":0,"stackDurationRefreshPolicy":0,"stackPeriodResetPolicy":0,"stackExpirationPolicy":0,"stackOverflowPolicy":0,"ongoingRequiredTags":{"_tags":[]},"cancelOnAbilityEnd":true}</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>{"outputNodeGuid":"356907e0-1488-4128-bfcc-7ff73cfc3330","outputPortName":"冷却","inputNodeGuid":"c28fb88d-51b1-47b2-be59-859e0ac638e3","inputPortName":"输入"}</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13"/>
+      <c r="B13"/>
+      <c r="C13"/>
+      <c r="D13"/>
+      <c r="E13"/>
       <c r="F13">
         <v>10</v>
       </c>
-      <c r="G13" t="s">
-        <v>54</v>
-      </c>
-      <c r="H13" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>{"guid":"c28fb88d-51b1-47b2-be59-859e0ac638e3","nodeType":10,"position":{"x":-1186.4000244140625,"y":-1825.5999755859375},"targetType":1,"assetTags":{"_tags":[]},"grantedTags":{"_tags":[{"_name":"CD.Blood","_hashCode":-1868013560,"_shortName":"流血","_ancestorHashCodes":[-1137859925],"_ancestorNames":["CD"]}]},"applicationRequiredTags":{"_tags":[]},"applicationImmunityTags":{"_tags":[]},"removeGameEffectsWithTags":{"_tags":[]},"durationType":1,"duration":"3","isPeriodic":false,"period":"1","executeOnApplication":false,"attributeModifiers":[],"stackType":0,"stackLimit":0,"stackDurationRefreshPolicy":0,"stackPeriodResetPolicy":0,"stackExpirationPolicy":0,"stackOverflowPolicy":0,"ongoingRequiredTags":{"_tags":[]},"cancelOnAbilityEnd":false,"cooldownType":0,"maxCharges":2,"chargeTime":"10"}</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>{"outputNodeGuid":"356907e0-1488-4128-bfcc-7ff73cfc3330","outputPortName":"消耗","inputNodeGuid":"9d6f459d-b588-4b64-843b-1b71e8f299ae","inputPortName":"输入"}</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14"/>
+      <c r="B14"/>
+      <c r="C14"/>
+      <c r="D14"/>
+      <c r="E14"/>
       <c r="F14">
         <v>14</v>
       </c>
-      <c r="G14" t="s">
-        <v>55</v>
-      </c>
-      <c r="H14" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>{"guid":"c353e286-8ef0-460a-b917-887f2aeb390a","nodeType":14,"position":{"x":383.20001220703127,"y":-1531.199951171875},"targetType":1,"requiredTags":{"_tags":[]},"immunityTags":{"_tags":[]},"destroyWithNode":false,"positionSource":2,"positionBindingName":"head","textType":0,"fixedText":"","contextDataKey":"DamageResult","textColor":{"r":1.0,"g":0.0,"b":0.0,"a":1.0},"criticalColor":{"r":1.0,"g":0.5,"b":0.0,"a":1.0},"missColor":{"r":0.5,"g":0.5,"b":0.5,"a":1.0},"fontSize":45.0,"criticalFontSize":60.0,"duration":1.5,"offset":{"x":0.0,"y":0.0},"moveDirection":{"x":0.0,"y":1.0}}</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>{"outputNodeGuid":"432ff1e3-b18d-476d-af80-d39ddc07402a","outputPortName":"de0ba361-3aba-4ef0-bb07-9b418fcae591","inputNodeGuid":"e33ab94c-1496-4d6a-ba5e-1afd38bb0c30","inputPortName":"输入"}</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15"/>
+      <c r="B15"/>
+      <c r="C15"/>
+      <c r="D15"/>
+      <c r="E15"/>
       <c r="F15">
         <v>0</v>
       </c>
-      <c r="G15" t="s">
-        <v>56</v>
-      </c>
-      <c r="H15" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>{"guid":"356907e0-1488-4128-bfcc-7ff73cfc3330","nodeType":0,"position":{"x":-878.4000244140625,"y":-1853.5999755859375},"targetType":1,"skillId":1002,"assetTags":{"_tags":[]},"cancelAbilitiesWithTags":{"_tags":[]},"blockAbilitiesWithTags":{"_tags":[]},"activationOwnedTags":{"_tags":[]},"activationRequiredTags":{"_tags":[]},"activationBlockedTags":{"_tags":[{"_name":"CD.Blood","_hashCode":-1868013560,"_shortName":"流血","_ancestorHashCodes":[-1137859925],"_ancestorNames":["CD"]}]},"ongoingBlockedTags":{"_tags":[]},"eventOutputPorts":[]}</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>{"outputNodeGuid":"f8947676-1084-4228-b991-1509cc7fe851","outputPortName":"完成效果","inputNodeGuid":"c353e286-8ef0-460a-b917-887f2aeb390a","inputPortName":"输入"}</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16"/>
+      <c r="B16"/>
+      <c r="C16"/>
+      <c r="D16"/>
+      <c r="E16"/>
       <c r="F16">
         <v>7</v>
       </c>
-      <c r="G16" t="s">
-        <v>58</v>
-      </c>
-      <c r="H16" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>{"guid":"011aad56-e96c-41eb-9d85-e793d74a40bb","nodeType":7,"position":{"x":677.5999755859375,"y":-1879.199951171875},"targetType":1,"endType":0}</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>{"outputNodeGuid":"e33ab94c-1496-4d6a-ba5e-1afd38bb0c30","outputPortName":"对每个目标","inputNodeGuid":"cb1df36f-5729-423e-9d1a-287db5a433f0","inputPortName":"输入"}</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17"/>
+      <c r="B17"/>
+      <c r="C17"/>
+      <c r="D17"/>
+      <c r="E17"/>
       <c r="F17">
         <v>1</v>
       </c>
-      <c r="G17" t="s">
-        <v>60</v>
-      </c>
-      <c r="H17" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>{"guid":"f8947676-1084-4228-b991-1509cc7fe851","nodeType":1,"position":{"x":195.20001220703126,"y":-1761.5999755859375},"targetType":0,"assetTags":{"_tags":[]},"grantedTags":{"_tags":[]},"applicationRequiredTags":{"_tags":[]},"applicationImmunityTags":{"_tags":[]},"removeGameEffectsWithTags":{"_tags":[]},"durationType":0,"duration":"0","isPeriodic":false,"period":"1","executeOnApplication":false,"attributeModifiers":[],"stackType":0,"stackLimit":0,"stackDurationRefreshPolicy":0,"stackPeriodResetPolicy":0,"stackExpirationPolicy":0,"stackOverflowPolicy":0,"ongoingRequiredTags":{"_tags":[]},"cancelOnAbilityEnd":true,"damageType":0,"damageSourceType":0,"damageFixedValue":3.0,"damageFormula":"","damageMMCType":0,"damageSetByCallerKey":"","damageMMCCaptureAttribute":200,"damageMMCAttributeSource":0,"damageMMCCoefficient":1.0,"damageMMCUseSnapshot":true,"damageMultiplyByStackCount":true,"damageCalculationType":0}</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>{"outputNodeGuid":"cb1df36f-5729-423e-9d1a-287db5a433f0","outputPortName":"每周期执行","inputNodeGuid":"f8947676-1084-4228-b991-1509cc7fe851","inputPortName":"输入"}</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18"/>
+      <c r="B18"/>
+      <c r="C18"/>
+      <c r="D18"/>
+      <c r="E18"/>
       <c r="F18">
         <v>11</v>
       </c>
-      <c r="G18" t="s">
-        <v>62</v>
-      </c>
-      <c r="H18" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>{"guid":"cb1df36f-5729-423e-9d1a-287db5a433f0","nodeType":11,"position":{"x":-160.8000030517578,"y":-1761.5999755859375},"targetType":0,"assetTags":{"_tags":[{"_name":"Buff.DeBuff.Dot","_hashCode":-637848644,"_shortName":"Dot","_ancestorHashCodes":[937056111,321157895],"_ancestorNames":["Buff","Buff.DeBuff"]}]},"grantedTags":{"_tags":[]},"applicationRequiredTags":{"_tags":[]},"applicationImmunityTags":{"_tags":[]},"removeGameEffectsWithTags":{"_tags":[]},"durationType":1,"duration":"10","isPeriodic":true,"period":"1","executeOnApplication":false,"attributeModifiers":[],"stackType":1,"stackLimit":3,"stackDurationRefreshPolicy":0,"stackPeriodResetPolicy":1,"stackExpirationPolicy":0,"stackOverflowPolicy":0,"ongoingRequiredTags":{"_tags":[]},"cancelOnAbilityEnd":false,"buffId":0}</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>{"outputNodeGuid":"432ff1e3-b18d-476d-af80-d39ddc07402a","outputPortName":"97dc121c-84b7-4f94-9997-02e0e5b2ea6c","inputNodeGuid":"011aad56-e96c-41eb-9d85-e793d74a40bb","inputPortName":"输入"}</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19"/>
+      <c r="B19"/>
+      <c r="C19"/>
+      <c r="D19"/>
+      <c r="E19"/>
       <c r="F19">
         <v>4</v>
       </c>
-      <c r="G19" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="20" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>{"guid":"e33ab94c-1496-4d6a-ba5e-1afd38bb0c30","nodeType":4,"position":{"x":-452.0,"y":-1786.4000244140625},"targetType":1,"searchShapeType":1,"searchLineType":0,"positionSource":0,"positionBindingName":"center","searchCircleRadius":5.0,"searchSectorRadius":2.0,"searchSectorAngle":180.0,"searchLineDirectionOffsetAngle":0.0,"searchLineDirectionWidth":1.0,"searchLineDirectionLength":10.0,"lineStartPositionSource":0,"lineStartBindingName":"","lineEndPositionSource":1,"lineEndBindingName":"","searchLineBetweenWidth":1.0,"searchLineAbsoluteAngle":0.0,"searchLineAbsoluteWidth":1.0,"searchLineAbsoluteLength":10.0,"maxTargets":999,"searchTargetTags":{"_tags":[{"_name":"unitType.monster","_hashCode":-2021655864,"_shortName":"monster","_ancestorHashCodes":[1600484460],"_ancestorNames":["unitType"]}]},"searchExcludeTags":{"_tags":[]}}</t>
+        </is>
+      </c>
+      <c r="H19"/>
+    </row>
+    <row r="20">
+      <c r="A20"/>
       <c r="B20">
         <v>3</v>
       </c>
-      <c r="C20" t="s">
-        <v>65</v>
-      </c>
-      <c r="D20" t="s">
-        <v>66</v>
-      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Skill_FireCircle</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>FireCircle</t>
+        </is>
+      </c>
+      <c r="E20"/>
       <c r="F20">
         <v>3</v>
       </c>
-      <c r="G20" t="s">
-        <v>20</v>
-      </c>
-      <c r="H20" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="21" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>{"guid":"9d6f459d-b588-4b64-843b-1b71e8f299ae","nodeType":3,"position":{"x":-1186.4000244140625,"y":-2011.199951171875},"targetType":1,"assetTags":{"_tags":[]},"grantedTags":{"_tags":[]},"applicationRequiredTags":{"_tags":[]},"applicationImmunityTags":{"_tags":[]},"removeGameEffectsWithTags":{"_tags":[]},"durationType":0,"duration":"0","isPeriodic":false,"period":"1","executeOnApplication":false,"attributeModifiers":[{"attrType":100,"operation":0,"magnitudeSourceType":0,"fixedValue":10.0,"formula":"","mmcType":0,"setByCallerKey":"","mmcCaptureAttribute":200,"mmcAttributeSource":0,"mmcCoefficient":1.0,"mmcUseSnapshot":true}],"stackType":0,"stackLimit":0,"stackDurationRefreshPolicy":0,"stackPeriodResetPolicy":0,"stackExpirationPolicy":0,"stackOverflowPolicy":0,"ongoingRequiredTags":{"_tags":[]},"cancelOnAbilityEnd":true}</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>{"outputNodeGuid":"356907e0-1488-4128-bfcc-7ff73cfc3330","outputPortName":"动画","inputNodeGuid":"432ff1e3-b18d-476d-af80-d39ddc07402a","inputPortName":"输入"}</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21"/>
+      <c r="B21"/>
+      <c r="C21"/>
+      <c r="D21"/>
+      <c r="E21"/>
       <c r="F21">
         <v>0</v>
       </c>
-      <c r="G21" t="s">
-        <v>67</v>
-      </c>
-      <c r="H21" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="22" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>{"guid":"356907e0-1488-4128-bfcc-7ff73cfc3330","nodeType":0,"position":{"x":-878.4000244140625,"y":-1853.5999755859375},"targetType":1,"skillId":1004,"assetTags":{"_tags":[]},"cancelAbilitiesWithTags":{"_tags":[]},"blockAbilitiesWithTags":{"_tags":[]},"activationOwnedTags":{"_tags":[]},"activationRequiredTags":{"_tags":[]},"activationBlockedTags":{"_tags":[{"_name":"CD.FireCircle","_hashCode":1979572373,"_shortName":"旋风斩","_ancestorHashCodes":[-1137859925],"_ancestorNames":["CD"]}]},"ongoingBlockedTags":{"_tags":[]},"eventOutputPorts":[]}</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>{"outputNodeGuid":"356907e0-1488-4128-bfcc-7ff73cfc3330","outputPortName":"冷却","inputNodeGuid":"c28fb88d-51b1-47b2-be59-859e0ac638e3","inputPortName":"输入"}</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22"/>
+      <c r="B22"/>
+      <c r="C22"/>
+      <c r="D22"/>
+      <c r="E22"/>
       <c r="F22">
         <v>14</v>
       </c>
-      <c r="G22" t="s">
-        <v>68</v>
-      </c>
-      <c r="H22" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="23" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>{"guid":"764289ea-065e-4f48-afc0-0f6963d18d57","nodeType":14,"position":{"x":492.0,"y":-1539.199951171875},"targetType":1,"requiredTags":{"_tags":[]},"immunityTags":{"_tags":[]},"destroyWithNode":false,"positionSource":2,"positionBindingName":"head","textType":0,"fixedText":"","contextDataKey":"DamageResult","textColor":{"r":1.0,"g":0.0,"b":0.0,"a":1.0},"criticalColor":{"r":1.0,"g":0.5,"b":0.0,"a":1.0},"missColor":{"r":0.5,"g":0.5,"b":0.5,"a":1.0},"fontSize":45.0,"criticalFontSize":60.0,"duration":1.5,"offset":{"x":0.0,"y":0.0},"moveDirection":{"x":0.0,"y":1.0}}</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>{"outputNodeGuid":"356907e0-1488-4128-bfcc-7ff73cfc3330","outputPortName":"消耗","inputNodeGuid":"9d6f459d-b588-4b64-843b-1b71e8f299ae","inputPortName":"输入"}</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23"/>
+      <c r="B23"/>
+      <c r="C23"/>
+      <c r="D23"/>
+      <c r="E23"/>
       <c r="F23">
         <v>1</v>
       </c>
-      <c r="G23" t="s">
-        <v>69</v>
-      </c>
-      <c r="H23" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="24" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>{"guid":"a32d1135-94db-4f81-95ba-9d5f105ef8d0","nodeType":1,"position":{"x":308.79998779296877,"y":-1720.0},"targetType":0,"assetTags":{"_tags":[]},"grantedTags":{"_tags":[]},"applicationRequiredTags":{"_tags":[]},"applicationImmunityTags":{"_tags":[]},"removeGameEffectsWithTags":{"_tags":[]},"durationType":0,"duration":"0","isPeriodic":false,"period":"1","executeOnApplication":false,"attributeModifiers":[],"stackType":0,"stackLimit":0,"stackDurationRefreshPolicy":0,"stackPeriodResetPolicy":0,"stackExpirationPolicy":0,"stackOverflowPolicy":0,"ongoingRequiredTags":{"_tags":[]},"cancelOnAbilityEnd":true,"damageType":0,"damageSourceType":0,"damageFixedValue":1.0,"damageFormula":"","damageMMCType":0,"damageSetByCallerKey":"","damageMMCCaptureAttribute":200,"damageMMCAttributeSource":0,"damageMMCCoefficient":1.0,"damageMMCUseSnapshot":true,"damageMultiplyByStackCount":false,"damageCalculationType":0}</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>{"outputNodeGuid":"356907e0-1488-4128-bfcc-7ff73cfc3330","outputPortName":"激活","inputNodeGuid":"d8847c3e-459e-4589-a96b-37ebb5ec458b","inputPortName":"输入"}</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24"/>
+      <c r="B24"/>
+      <c r="C24"/>
+      <c r="D24"/>
+      <c r="E24"/>
       <c r="F24">
         <v>20</v>
       </c>
-      <c r="G24" t="s">
-        <v>71</v>
-      </c>
-      <c r="H24" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="25" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>{"guid":"432ff1e3-b18d-476d-af80-d39ddc07402a","nodeType":20,"position":{"x":-452.0,"y":-2375.199951171875},"targetType":1,"skeletonDataAsset":{"instanceID":44398},"animationName":"Skill_attack_1011","animationDuration":"12","isAnimationLooping":true,"timeEffects":[{"triggerTime":250,"portId":"f41c85e0-7f26-494e-9ffc-4a06c980f811"}],"timeCues":[{"startTime":0,"endTime":255,"portId":"8dea1941-c520-4f9a-aee0-40932c8542ef"}]}</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>{"outputNodeGuid":"d8847c3e-459e-4589-a96b-37ebb5ec458b","outputPortName":"每周期执行","inputNodeGuid":"e33ab94c-1496-4d6a-ba5e-1afd38bb0c30","inputPortName":"输入"}</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25"/>
+      <c r="B25"/>
+      <c r="C25"/>
+      <c r="D25"/>
+      <c r="E25"/>
       <c r="F25">
         <v>12</v>
       </c>
-      <c r="G25" t="s">
-        <v>73</v>
-      </c>
-      <c r="H25" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="26" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>{"guid":"cde57fb8-b693-4da8-a4a8-fd61e56c5dcd","nodeType":12,"position":{"x":677.5999755859375,"y":-1998.4000244140625},"targetType":1,"requiredTags":{"_tags":[]},"immunityTags":{"_tags":[]},"destroyWithNode":true,"positionSource":0,"particlePrefab":{"instanceID":45710},"particleBindingName":"down","particleOffset":{"x":0.0,"y":0.0,"z":0.0},"particleScale":{"x":1.0,"y":1.0,"z":1.0},"attachToTarget":true,"particleLoop":true}</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>{"outputNodeGuid":"e33ab94c-1496-4d6a-ba5e-1afd38bb0c30","outputPortName":"对每个目标","inputNodeGuid":"a32d1135-94db-4f81-95ba-9d5f105ef8d0","inputPortName":"输入"}</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26"/>
+      <c r="B26"/>
+      <c r="C26"/>
+      <c r="D26"/>
+      <c r="E26"/>
       <c r="F26">
         <v>10</v>
       </c>
-      <c r="G26" t="s">
-        <v>75</v>
-      </c>
-      <c r="H26" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="27" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>{"guid":"c28fb88d-51b1-47b2-be59-859e0ac638e3","nodeType":10,"position":{"x":-1186.4000244140625,"y":-1747.199951171875},"targetType":1,"assetTags":{"_tags":[]},"grantedTags":{"_tags":[{"_name":"CD.FireCircle","_hashCode":1979572373,"_shortName":"旋风斩","_ancestorHashCodes":[-1137859925],"_ancestorNames":["CD"]}]},"applicationRequiredTags":{"_tags":[]},"applicationImmunityTags":{"_tags":[]},"removeGameEffectsWithTags":{"_tags":[]},"durationType":1,"duration":"15","isPeriodic":false,"period":"1","executeOnApplication":false,"attributeModifiers":[],"stackType":0,"stackLimit":0,"stackDurationRefreshPolicy":0,"stackPeriodResetPolicy":0,"stackExpirationPolicy":0,"stackOverflowPolicy":0,"ongoingRequiredTags":{"_tags":[]},"cancelOnAbilityEnd":false,"cooldownType":0,"maxCharges":2,"chargeTime":"10"}</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>{"outputNodeGuid":"a32d1135-94db-4f81-95ba-9d5f105ef8d0","outputPortName":"完成效果","inputNodeGuid":"764289ea-065e-4f48-afc0-0f6963d18d57","inputPortName":"输入"}</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27"/>
+      <c r="B27"/>
+      <c r="C27"/>
+      <c r="D27"/>
+      <c r="E27"/>
       <c r="F27">
         <v>7</v>
       </c>
-      <c r="G27" t="s">
-        <v>22</v>
-      </c>
-      <c r="H27" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="28" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>{"guid":"f73ba91e-a76b-456c-b19c-a5176809d5f5","nodeType":7,"position":{"x":700.0,"y":-1856.800048828125},"targetType":1,"endType":0}</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>{"outputNodeGuid":"432ff1e3-b18d-476d-af80-d39ddc07402a","outputPortName":"8dea1941-c520-4f9a-aee0-40932c8542ef","inputNodeGuid":"cde57fb8-b693-4da8-a4a8-fd61e56c5dcd","inputPortName":"输入"}</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28"/>
+      <c r="B28"/>
+      <c r="C28"/>
+      <c r="D28"/>
+      <c r="E28"/>
       <c r="F28">
         <v>4</v>
       </c>
-      <c r="G28" t="s">
-        <v>77</v>
-      </c>
-      <c r="H28" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="29" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>{"guid":"e33ab94c-1496-4d6a-ba5e-1afd38bb0c30","nodeType":4,"position":{"x":27.20001220703125,"y":-1769.5999755859375},"targetType":1,"searchShapeType":0,"searchLineType":0,"positionSource":0,"positionBindingName":"center","searchCircleRadius":2.5,"searchSectorRadius":2.0,"searchSectorAngle":180.0,"searchLineDirectionOffsetAngle":0.0,"searchLineDirectionWidth":1.0,"searchLineDirectionLength":10.0,"lineStartPositionSource":0,"lineStartBindingName":"","lineEndPositionSource":1,"lineEndBindingName":"","searchLineBetweenWidth":1.0,"searchLineAbsoluteAngle":0.0,"searchLineAbsoluteWidth":1.0,"searchLineAbsoluteLength":10.0,"maxTargets":999,"searchTargetTags":{"_tags":[{"_name":"unitType.monster","_hashCode":-2021655864,"_shortName":"monster","_ancestorHashCodes":[1600484460],"_ancestorNames":["unitType"]}]},"searchExcludeTags":{"_tags":[]}}</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>{"outputNodeGuid":"432ff1e3-b18d-476d-af80-d39ddc07402a","outputPortName":"f41c85e0-7f26-494e-9ffc-4a06c980f811","inputNodeGuid":"f73ba91e-a76b-456c-b19c-a5176809d5f5","inputPortName":"输入"}</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29"/>
+      <c r="B29"/>
+      <c r="C29"/>
+      <c r="D29"/>
+      <c r="E29"/>
       <c r="F29">
         <v>21</v>
       </c>
-      <c r="G29" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="30" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>{"guid":"d8847c3e-459e-4589-a96b-37ebb5ec458b","nodeType":21,"position":{"x":-308.79998779296877,"y":-1769.5999755859375},"targetType":1,"assetTags":{"_tags":[]},"grantedTags":{"_tags":[]},"applicationRequiredTags":{"_tags":[]},"applicationImmunityTags":{"_tags":[]},"removeGameEffectsWithTags":{"_tags":[]},"durationType":2,"duration":"0","isPeriodic":true,"period":"0.3","executeOnApplication":false,"attributeModifiers":[],"stackType":0,"stackLimit":0,"stackDurationRefreshPolicy":0,"stackPeriodResetPolicy":0,"stackExpirationPolicy":0,"stackOverflowPolicy":0,"ongoingRequiredTags":{"_tags":[]},"cancelOnAbilityEnd":true}</t>
+        </is>
+      </c>
+      <c r="H29"/>
+    </row>
+    <row r="30">
+      <c r="A30"/>
       <c r="B30">
         <v>4</v>
       </c>
-      <c r="C30" t="s">
-        <v>79</v>
-      </c>
-      <c r="D30" t="s">
-        <v>80</v>
-      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>Skill_God</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>God</t>
+        </is>
+      </c>
+      <c r="E30"/>
       <c r="F30">
         <v>3</v>
       </c>
-      <c r="G30" t="s">
-        <v>20</v>
-      </c>
-      <c r="H30" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="31" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>{"guid":"9d6f459d-b588-4b64-843b-1b71e8f299ae","nodeType":3,"position":{"x":-1186.4000244140625,"y":-2011.199951171875},"targetType":1,"assetTags":{"_tags":[]},"grantedTags":{"_tags":[]},"applicationRequiredTags":{"_tags":[]},"applicationImmunityTags":{"_tags":[]},"removeGameEffectsWithTags":{"_tags":[]},"durationType":0,"duration":"0","isPeriodic":false,"period":"1","executeOnApplication":false,"attributeModifiers":[{"attrType":100,"operation":0,"magnitudeSourceType":0,"fixedValue":10.0,"formula":"","mmcType":0,"setByCallerKey":"","mmcCaptureAttribute":200,"mmcAttributeSource":0,"mmcCoefficient":1.0,"mmcUseSnapshot":true}],"stackType":0,"stackLimit":0,"stackDurationRefreshPolicy":0,"stackPeriodResetPolicy":0,"stackExpirationPolicy":0,"stackOverflowPolicy":0,"ongoingRequiredTags":{"_tags":[]},"cancelOnAbilityEnd":true}</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>{"outputNodeGuid":"356907e0-1488-4128-bfcc-7ff73cfc3330","outputPortName":"动画","inputNodeGuid":"432ff1e3-b18d-476d-af80-d39ddc07402a","inputPortName":"输入"}</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31"/>
+      <c r="B31"/>
+      <c r="C31"/>
+      <c r="D31"/>
+      <c r="E31"/>
       <c r="F31">
         <v>7</v>
       </c>
-      <c r="G31" t="s">
-        <v>22</v>
-      </c>
-      <c r="H31" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="32" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>{"guid":"f73ba91e-a76b-456c-b19c-a5176809d5f5","nodeType":7,"position":{"x":700.0,"y":-1856.800048828125},"targetType":1,"endType":0}</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>{"outputNodeGuid":"356907e0-1488-4128-bfcc-7ff73cfc3330","outputPortName":"冷却","inputNodeGuid":"c28fb88d-51b1-47b2-be59-859e0ac638e3","inputPortName":"输入"}</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32"/>
+      <c r="B32"/>
+      <c r="C32"/>
+      <c r="D32"/>
+      <c r="E32"/>
       <c r="F32">
         <v>20</v>
       </c>
-      <c r="G32" t="s">
-        <v>24</v>
-      </c>
-      <c r="H32" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="33" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>{"guid":"432ff1e3-b18d-476d-af80-d39ddc07402a","nodeType":20,"position":{"x":-502.3999938964844,"y":-2384.0},"targetType":1,"skeletonDataAsset":{"instanceID":44398},"animationName":"Skill_attack_1009","animationDuration":"25","isAnimationLooping":false,"timeEffects":[{"triggerTime":4,"portId":"de0ba361-3aba-4ef0-bb07-9b418fcae591"},{"triggerTime":25,"portId":"f41c85e0-7f26-494e-9ffc-4a06c980f811"}],"timeCues":[{"startTime":0,"endTime":75,"portId":"8dea1941-c520-4f9a-aee0-40932c8542ef"}]}</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>{"outputNodeGuid":"356907e0-1488-4128-bfcc-7ff73cfc3330","outputPortName":"消耗","inputNodeGuid":"9d6f459d-b588-4b64-843b-1b71e8f299ae","inputPortName":"输入"}</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33"/>
+      <c r="B33"/>
+      <c r="C33"/>
+      <c r="D33"/>
+      <c r="E33"/>
       <c r="F33">
         <v>12</v>
       </c>
-      <c r="G33" t="s">
-        <v>81</v>
-      </c>
-      <c r="H33" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="34" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>{"guid":"cde57fb8-b693-4da8-a4a8-fd61e56c5dcd","nodeType":12,"position":{"x":677.5999755859375,"y":-1998.4000244140625},"targetType":1,"requiredTags":{"_tags":[]},"immunityTags":{"_tags":[]},"destroyWithNode":false,"positionSource":0,"particlePrefab":{"instanceID":45540},"particleBindingName":"down","particleOffset":{"x":0.0,"y":0.0,"z":0.0},"particleScale":{"x":1.0,"y":1.0,"z":1.0},"attachToTarget":false,"particleLoop":false}</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>{"outputNodeGuid":"432ff1e3-b18d-476d-af80-d39ddc07402a","outputPortName":"f41c85e0-7f26-494e-9ffc-4a06c980f811","inputNodeGuid":"f73ba91e-a76b-456c-b19c-a5176809d5f5","inputPortName":"输入"}</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34"/>
+      <c r="B34"/>
+      <c r="C34"/>
+      <c r="D34"/>
+      <c r="E34"/>
       <c r="F34">
         <v>0</v>
       </c>
-      <c r="G34" t="s">
-        <v>82</v>
-      </c>
-      <c r="H34" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="35" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>{"guid":"356907e0-1488-4128-bfcc-7ff73cfc3330","nodeType":0,"position":{"x":-878.4000244140625,"y":-1853.5999755859375},"targetType":1,"skillId":1006,"assetTags":{"_tags":[]},"cancelAbilitiesWithTags":{"_tags":[]},"blockAbilitiesWithTags":{"_tags":[]},"activationOwnedTags":{"_tags":[]},"activationRequiredTags":{"_tags":[]},"activationBlockedTags":{"_tags":[{"_name":"CD.RecBlood","_hashCode":1163914435,"_shortName":"回血","_ancestorHashCodes":[-1137859925],"_ancestorNames":["CD"]}]},"ongoingBlockedTags":{"_tags":[]},"eventOutputPorts":[]}</t>
+        </is>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>{"outputNodeGuid":"432ff1e3-b18d-476d-af80-d39ddc07402a","outputPortName":"de0ba361-3aba-4ef0-bb07-9b418fcae591","inputNodeGuid":"e33ab94c-1496-4d6a-ba5e-1afd38bb0c30","inputPortName":"输入"}</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35"/>
+      <c r="B35"/>
+      <c r="C35"/>
+      <c r="D35"/>
+      <c r="E35"/>
       <c r="F35">
         <v>10</v>
       </c>
-      <c r="G35" t="s">
-        <v>83</v>
-      </c>
-      <c r="H35" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="36" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>{"guid":"c28fb88d-51b1-47b2-be59-859e0ac638e3","nodeType":10,"position":{"x":-1186.4000244140625,"y":-1747.199951171875},"targetType":1,"assetTags":{"_tags":[]},"grantedTags":{"_tags":[{"_name":"CD.God","_hashCode":810112138,"_shortName":"神罗天正","_ancestorHashCodes":[-1137859925],"_ancestorNames":["CD"]}]},"applicationRequiredTags":{"_tags":[]},"applicationImmunityTags":{"_tags":[]},"removeGameEffectsWithTags":{"_tags":[]},"durationType":1,"duration":"5","isPeriodic":false,"period":"1","executeOnApplication":false,"attributeModifiers":[],"stackType":0,"stackLimit":0,"stackDurationRefreshPolicy":0,"stackPeriodResetPolicy":0,"stackExpirationPolicy":0,"stackOverflowPolicy":0,"ongoingRequiredTags":{"_tags":[]},"cancelOnAbilityEnd":false,"cooldownType":0,"maxCharges":2,"chargeTime":"10"}</t>
+        </is>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>{"outputNodeGuid":"432ff1e3-b18d-476d-af80-d39ddc07402a","outputPortName":"8dea1941-c520-4f9a-aee0-40932c8542ef","inputNodeGuid":"cde57fb8-b693-4da8-a4a8-fd61e56c5dcd","inputPortName":"输入"}</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36"/>
+      <c r="B36"/>
+      <c r="C36"/>
+      <c r="D36"/>
+      <c r="E36"/>
       <c r="F36">
         <v>22</v>
       </c>
-      <c r="G36" t="s">
-        <v>84</v>
-      </c>
-      <c r="H36" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="37" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>{"guid":"091ecddb-f80b-4c00-aa06-f9bc718618d2","nodeType":22,"position":{"x":-93.60000610351563,"y":-1708.800048828125},"targetType":0,"assetTags":{"_tags":[]},"grantedTags":{"_tags":[]},"applicationRequiredTags":{"_tags":[]},"applicationImmunityTags":{"_tags":[]},"removeGameEffectsWithTags":{"_tags":[]},"durationType":1,"duration":"0.5","isPeriodic":false,"period":"1","executeOnApplication":false,"attributeModifiers":[],"stackType":0,"stackLimit":0,"stackDurationRefreshPolicy":0,"stackPeriodResetPolicy":0,"stackExpirationPolicy":0,"stackOverflowPolicy":0,"ongoingRequiredTags":{"_tags":[]},"cancelOnAbilityEnd":false,"displaceType":1,"speed":10.0,"distance":3.0,"minDistance":0.5,"pointSource":0,"pointBindingName":""}</t>
+        </is>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>{"outputNodeGuid":"e33ab94c-1496-4d6a-ba5e-1afd38bb0c30","outputPortName":"对每个目标","inputNodeGuid":"091ecddb-f80b-4c00-aa06-f9bc718618d2","inputPortName":"输入"}</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37"/>
+      <c r="B37"/>
+      <c r="C37"/>
+      <c r="D37"/>
+      <c r="E37"/>
       <c r="F37">
         <v>4</v>
       </c>
-      <c r="G37" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="38" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>{"guid":"e33ab94c-1496-4d6a-ba5e-1afd38bb0c30","nodeType":4,"position":{"x":-452.0,"y":-1786.4000244140625},"targetType":1,"searchShapeType":0,"searchLineType":0,"positionSource":0,"positionBindingName":"center","searchCircleRadius":4.0,"searchSectorRadius":2.0,"searchSectorAngle":180.0,"searchLineDirectionOffsetAngle":0.0,"searchLineDirectionWidth":1.0,"searchLineDirectionLength":10.0,"lineStartPositionSource":0,"lineStartBindingName":"","lineEndPositionSource":1,"lineEndBindingName":"","searchLineBetweenWidth":1.0,"searchLineAbsoluteAngle":0.0,"searchLineAbsoluteWidth":1.0,"searchLineAbsoluteLength":10.0,"maxTargets":999,"searchTargetTags":{"_tags":[{"_name":"unitType.boss","_hashCode":-2067207703,"_shortName":"boss","_ancestorHashCodes":[1600484460],"_ancestorNames":["unitType"]}]},"searchExcludeTags":{"_tags":[]}}</t>
+        </is>
+      </c>
+      <c r="H37"/>
+    </row>
+    <row r="38">
+      <c r="A38"/>
       <c r="B38">
         <v>5</v>
       </c>
-      <c r="C38" t="s">
-        <v>85</v>
-      </c>
-      <c r="D38" t="s">
-        <v>86</v>
-      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>Skill_RecBlood</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>RecBlood</t>
+        </is>
+      </c>
+      <c r="E38"/>
       <c r="F38">
         <v>3</v>
       </c>
-      <c r="G38" t="s">
-        <v>53</v>
-      </c>
-      <c r="H38" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="39" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>{"guid":"9d6f459d-b588-4b64-843b-1b71e8f299ae","nodeType":3,"position":{"x":-1186.4000244140625,"y":-2019.199951171875},"targetType":1,"assetTags":{"_tags":[]},"grantedTags":{"_tags":[]},"applicationRequiredTags":{"_tags":[]},"applicationImmunityTags":{"_tags":[]},"removeGameEffectsWithTags":{"_tags":[]},"durationType":0,"duration":"0","isPeriodic":false,"period":"1","executeOnApplication":false,"attributeModifiers":[{"attrType":100,"operation":0,"magnitudeSourceType":0,"fixedValue":10.0,"formula":"","mmcType":0,"setByCallerKey":"","mmcCaptureAttribute":200,"mmcAttributeSource":0,"mmcCoefficient":1.0,"mmcUseSnapshot":true}],"stackType":0,"stackLimit":0,"stackDurationRefreshPolicy":0,"stackPeriodResetPolicy":0,"stackExpirationPolicy":0,"stackOverflowPolicy":0,"ongoingRequiredTags":{"_tags":[]},"cancelOnAbilityEnd":true}</t>
+        </is>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>{"outputNodeGuid":"356907e0-1488-4128-bfcc-7ff73cfc3330","outputPortName":"冷却","inputNodeGuid":"c28fb88d-51b1-47b2-be59-859e0ac638e3","inputPortName":"输入"}</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39"/>
+      <c r="B39"/>
+      <c r="C39"/>
+      <c r="D39"/>
+      <c r="E39"/>
       <c r="F39">
         <v>2</v>
       </c>
-      <c r="G39" t="s">
-        <v>87</v>
-      </c>
-      <c r="H39" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="40" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>{"guid":"5fb21a71-2fff-4477-b79b-4c1a8bc10f9a","nodeType":2,"position":{"x":-571.2000122070313,"y":-1987.199951171875},"targetType":1,"assetTags":{"_tags":[]},"grantedTags":{"_tags":[]},"applicationRequiredTags":{"_tags":[]},"applicationImmunityTags":{"_tags":[]},"removeGameEffectsWithTags":{"_tags":[]},"durationType":0,"duration":"0","isPeriodic":false,"period":"1","executeOnApplication":false,"attributeModifiers":[],"stackType":0,"stackLimit":0,"stackDurationRefreshPolicy":0,"stackPeriodResetPolicy":0,"stackExpirationPolicy":0,"stackOverflowPolicy":0,"ongoingRequiredTags":{"_tags":[]},"cancelOnAbilityEnd":false,"healSourceType":0,"healFixedValue":10.0,"healFormula":"","healMMCType":0,"healSetByCallerKey":"","healMMCCaptureAttribute":202,"healMMCAttributeSource":0,"healMMCCoefficient":1.0,"healMMCUseSnapshot":true,"healMultiplyByStackCount":false,"healCalculationType":0}</t>
+        </is>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>{"outputNodeGuid":"356907e0-1488-4128-bfcc-7ff73cfc3330","outputPortName":"消耗","inputNodeGuid":"9d6f459d-b588-4b64-843b-1b71e8f299ae","inputPortName":"输入"}</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40"/>
+      <c r="B40"/>
+      <c r="C40"/>
+      <c r="D40"/>
+      <c r="E40"/>
       <c r="F40">
         <v>7</v>
       </c>
-      <c r="G40" t="s">
-        <v>88</v>
-      </c>
-      <c r="H40" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="41" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>{"guid":"011aad56-e96c-41eb-9d85-e793d74a40bb","nodeType":7,"position":{"x":-333.6000061035156,"y":-1780.0},"targetType":1,"endType":0}</t>
+        </is>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>{"outputNodeGuid":"356907e0-1488-4128-bfcc-7ff73cfc3330","outputPortName":"激活","inputNodeGuid":"5fb21a71-2fff-4477-b79b-4c1a8bc10f9a","inputPortName":"输入"}</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41"/>
+      <c r="B41"/>
+      <c r="C41"/>
+      <c r="D41"/>
+      <c r="E41"/>
       <c r="F41">
         <v>10</v>
       </c>
-      <c r="G41" t="s">
-        <v>90</v>
-      </c>
-      <c r="H41" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="42" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>{"guid":"c28fb88d-51b1-47b2-be59-859e0ac638e3","nodeType":10,"position":{"x":-1223.199951171875,"y":-1826.4000244140625},"targetType":1,"assetTags":{"_tags":[]},"grantedTags":{"_tags":[{"_name":"CD.RecBlood","_hashCode":1163914435,"_shortName":"回血","_ancestorHashCodes":[-1137859925],"_ancestorNames":["CD"]}]},"applicationRequiredTags":{"_tags":[]},"applicationImmunityTags":{"_tags":[]},"removeGameEffectsWithTags":{"_tags":[]},"durationType":1,"duration":"3","isPeriodic":false,"period":"1","executeOnApplication":false,"attributeModifiers":[],"stackType":0,"stackLimit":0,"stackDurationRefreshPolicy":0,"stackPeriodResetPolicy":0,"stackExpirationPolicy":0,"stackOverflowPolicy":0,"ongoingRequiredTags":{"_tags":[]},"cancelOnAbilityEnd":false,"cooldownType":0,"maxCharges":2,"chargeTime":"10"}</t>
+        </is>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>{"outputNodeGuid":"5fb21a71-2fff-4477-b79b-4c1a8bc10f9a","outputPortName":"初始效果","inputNodeGuid":"cde57fb8-b693-4da8-a4a8-fd61e56c5dcd","inputPortName":"输入"}</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42"/>
+      <c r="B42"/>
+      <c r="C42"/>
+      <c r="D42"/>
+      <c r="E42"/>
       <c r="F42">
         <v>0</v>
       </c>
-      <c r="G42" t="s">
-        <v>92</v>
-      </c>
-      <c r="H42" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="43" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>{"guid":"356907e0-1488-4128-bfcc-7ff73cfc3330","nodeType":0,"position":{"x":-902.4000244140625,"y":-1844.0},"targetType":1,"skillId":1008,"assetTags":{"_tags":[]},"cancelAbilitiesWithTags":{"_tags":[]},"blockAbilitiesWithTags":{"_tags":[]},"activationOwnedTags":{"_tags":[]},"activationRequiredTags":{"_tags":[]},"activationBlockedTags":{"_tags":[{"_name":"CD.RecBlood","_hashCode":1163914435,"_shortName":"回血","_ancestorHashCodes":[-1137859925],"_ancestorNames":["CD"]}]},"ongoingBlockedTags":{"_tags":[]},"eventOutputPorts":[]}</t>
+        </is>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>{"outputNodeGuid":"5fb21a71-2fff-4477-b79b-4c1a8bc10f9a","outputPortName":"完成效果","inputNodeGuid":"011aad56-e96c-41eb-9d85-e793d74a40bb","inputPortName":"输入"}</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43"/>
+      <c r="B43"/>
+      <c r="C43"/>
+      <c r="D43"/>
+      <c r="E43"/>
       <c r="F43">
         <v>12</v>
       </c>
-      <c r="G43" t="s">
-        <v>94</v>
-      </c>
-      <c r="H43" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="44" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>{"guid":"cde57fb8-b693-4da8-a4a8-fd61e56c5dcd","nodeType":12,"position":{"x":-304.0,"y":-2072.0},"targetType":1,"requiredTags":{"_tags":[]},"immunityTags":{"_tags":[]},"destroyWithNode":false,"positionSource":0,"particlePrefab":{"instanceID":45360},"particleBindingName":"down","particleOffset":{"x":0.0,"y":0.0,"z":0.0},"particleScale":{"x":1.0,"y":1.0,"z":1.0},"attachToTarget":false,"particleLoop":false}</t>
+        </is>
+      </c>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>{"outputNodeGuid":"5fb21a71-2fff-4477-b79b-4c1a8bc10f9a","outputPortName":"完成效果","inputNodeGuid":"becb4d53-8a9e-4dc0-95a3-618d1e79ecc7","inputPortName":"输入"}</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44"/>
+      <c r="B44"/>
+      <c r="C44"/>
+      <c r="D44"/>
+      <c r="E44"/>
       <c r="F44">
         <v>14</v>
       </c>
-      <c r="G44" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="45" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>{"guid":"becb4d53-8a9e-4dc0-95a3-618d1e79ecc7","nodeType":14,"position":{"x":-313.6000061035156,"y":-1951.199951171875},"targetType":1,"requiredTags":{"_tags":[]},"immunityTags":{"_tags":[]},"destroyWithNode":false,"positionSource":2,"positionBindingName":"head","textType":1,"fixedText":"","contextDataKey":"Heal","textColor":{"r":0.0,"g":1.0,"b":0.10971927642822266,"a":1.0},"criticalColor":{"r":1.0,"g":0.5,"b":0.0,"a":1.0},"missColor":{"r":0.5,"g":0.5,"b":0.5,"a":1.0},"fontSize":45.0,"criticalFontSize":60.0,"duration":1.5,"offset":{"x":0.0,"y":0.0},"moveDirection":{"x":0.0,"y":1.0}}</t>
+        </is>
+      </c>
+      <c r="H44"/>
+    </row>
+    <row r="45">
+      <c r="A45"/>
       <c r="B45">
         <v>6</v>
       </c>
-      <c r="C45" t="s">
-        <v>97</v>
-      </c>
-      <c r="D45" t="s">
-        <v>98</v>
-      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>Skill_RuFood</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>RuFood</t>
+        </is>
+      </c>
+      <c r="E45"/>
       <c r="F45">
         <v>3</v>
       </c>
-      <c r="G45" t="s">
-        <v>20</v>
-      </c>
-      <c r="H45" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="46" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>{"guid":"9d6f459d-b588-4b64-843b-1b71e8f299ae","nodeType":3,"position":{"x":-1186.4000244140625,"y":-2011.199951171875},"targetType":1,"assetTags":{"_tags":[]},"grantedTags":{"_tags":[]},"applicationRequiredTags":{"_tags":[]},"applicationImmunityTags":{"_tags":[]},"removeGameEffectsWithTags":{"_tags":[]},"durationType":0,"duration":"0","isPeriodic":false,"period":"1","executeOnApplication":false,"attributeModifiers":[{"attrType":100,"operation":0,"magnitudeSourceType":0,"fixedValue":10.0,"formula":"","mmcType":0,"setByCallerKey":"","mmcCaptureAttribute":200,"mmcAttributeSource":0,"mmcCoefficient":1.0,"mmcUseSnapshot":true}],"stackType":0,"stackLimit":0,"stackDurationRefreshPolicy":0,"stackPeriodResetPolicy":0,"stackExpirationPolicy":0,"stackOverflowPolicy":0,"ongoingRequiredTags":{"_tags":[]},"cancelOnAbilityEnd":true}</t>
+        </is>
+      </c>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>{"outputNodeGuid":"356907e0-1488-4128-bfcc-7ff73cfc3330","outputPortName":"动画","inputNodeGuid":"432ff1e3-b18d-476d-af80-d39ddc07402a","inputPortName":"输入"}</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46"/>
+      <c r="B46"/>
+      <c r="C46"/>
+      <c r="D46"/>
+      <c r="E46"/>
       <c r="F46">
         <v>1</v>
       </c>
-      <c r="G46" t="s">
-        <v>99</v>
-      </c>
-      <c r="H46" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="47" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>{"guid":"eae41233-d297-46fe-a6c8-0b5c876fbb2a","nodeType":1,"position":{"x":46.399993896484378,"y":-1808.800048828125},"targetType":0,"assetTags":{"_tags":[]},"grantedTags":{"_tags":[]},"applicationRequiredTags":{"_tags":[]},"applicationImmunityTags":{"_tags":[]},"removeGameEffectsWithTags":{"_tags":[]},"durationType":0,"duration":"0","isPeriodic":false,"period":"1","executeOnApplication":false,"attributeModifiers":[],"stackType":0,"stackLimit":0,"stackDurationRefreshPolicy":0,"stackPeriodResetPolicy":0,"stackExpirationPolicy":0,"stackOverflowPolicy":0,"ongoingRequiredTags":{"_tags":[]},"cancelOnAbilityEnd":true,"damageType":0,"damageSourceType":0,"damageFixedValue":10.0,"damageFormula":"","damageMMCType":0,"damageSetByCallerKey":"","damageMMCCaptureAttribute":200,"damageMMCAttributeSource":0,"damageMMCCoefficient":1.0,"damageMMCUseSnapshot":true,"damageMultiplyByStackCount":false,"damageCalculationType":0}</t>
+        </is>
+      </c>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>{"outputNodeGuid":"356907e0-1488-4128-bfcc-7ff73cfc3330","outputPortName":"冷却","inputNodeGuid":"c28fb88d-51b1-47b2-be59-859e0ac638e3","inputPortName":"输入"}</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47"/>
+      <c r="B47"/>
+      <c r="C47"/>
+      <c r="D47"/>
+      <c r="E47"/>
       <c r="F47">
         <v>14</v>
       </c>
-      <c r="G47" t="s">
-        <v>100</v>
-      </c>
-      <c r="H47" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="48" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>{"guid":"2d7e41c4-8e90-4b61-879c-4b2e5b9486db","nodeType":14,"position":{"x":408.79998779296877,"y":-1747.199951171875},"targetType":1,"requiredTags":{"_tags":[]},"immunityTags":{"_tags":[]},"destroyWithNode":false,"positionSource":2,"positionBindingName":"head","textType":0,"fixedText":"","contextDataKey":"DamageResult","textColor":{"r":0.0,"g":0.323091983795166,"b":1.0,"a":1.0},"criticalColor":{"r":1.0,"g":0.5,"b":0.0,"a":1.0},"missColor":{"r":0.5,"g":0.5,"b":0.5,"a":1.0},"fontSize":45.0,"criticalFontSize":60.0,"duration":1.5,"offset":{"x":0.0,"y":0.0},"moveDirection":{"x":0.0,"y":1.0}}</t>
+        </is>
+      </c>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>{"outputNodeGuid":"356907e0-1488-4128-bfcc-7ff73cfc3330","outputPortName":"消耗","inputNodeGuid":"9d6f459d-b588-4b64-843b-1b71e8f299ae","inputPortName":"输入"}</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48"/>
+      <c r="B48"/>
+      <c r="C48"/>
+      <c r="D48"/>
+      <c r="E48"/>
       <c r="F48">
         <v>10</v>
       </c>
-      <c r="G48" t="s">
-        <v>101</v>
-      </c>
-      <c r="H48" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="49" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>{"guid":"c28fb88d-51b1-47b2-be59-859e0ac638e3","nodeType":10,"position":{"x":-1186.4000244140625,"y":-1747.199951171875},"targetType":1,"assetTags":{"_tags":[]},"grantedTags":{"_tags":[{"_name":"CD.RuFood","_hashCode":-1710429436,"_shortName":"火球术","_ancestorHashCodes":[-1137859925],"_ancestorNames":["CD"]}]},"applicationRequiredTags":{"_tags":[]},"applicationImmunityTags":{"_tags":[]},"removeGameEffectsWithTags":{"_tags":[]},"durationType":1,"duration":"1","isPeriodic":false,"period":"1","executeOnApplication":false,"attributeModifiers":[],"stackType":0,"stackLimit":0,"stackDurationRefreshPolicy":0,"stackPeriodResetPolicy":0,"stackExpirationPolicy":0,"stackOverflowPolicy":0,"ongoingRequiredTags":{"_tags":[]},"cancelOnAbilityEnd":false,"cooldownType":0,"maxCharges":2,"chargeTime":"10"}</t>
+        </is>
+      </c>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>{"outputNodeGuid":"432ff1e3-b18d-476d-af80-d39ddc07402a","outputPortName":"de0ba361-3aba-4ef0-bb07-9b418fcae591","inputNodeGuid":"90bacd9f-d882-4bba-aaa8-41ed993ac3ff","inputPortName":"输入"}</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49"/>
+      <c r="B49"/>
+      <c r="C49"/>
+      <c r="D49"/>
+      <c r="E49"/>
       <c r="F49">
         <v>0</v>
       </c>
-      <c r="G49" t="s">
-        <v>103</v>
-      </c>
-      <c r="H49" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="50" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>{"guid":"356907e0-1488-4128-bfcc-7ff73cfc3330","nodeType":0,"position":{"x":-878.4000244140625,"y":-1853.5999755859375},"targetType":1,"skillId":1004,"assetTags":{"_tags":[]},"cancelAbilitiesWithTags":{"_tags":[]},"blockAbilitiesWithTags":{"_tags":[]},"activationOwnedTags":{"_tags":[]},"activationRequiredTags":{"_tags":[]},"activationBlockedTags":{"_tags":[{"_name":"CD.RuFood","_hashCode":-1710429436,"_shortName":"火球术","_ancestorHashCodes":[-1137859925],"_ancestorNames":["CD"]}]},"ongoingBlockedTags":{"_tags":[{"_name":"Buff.DeBuff.Stun","_hashCode":1791562953,"_shortName":"Stun","_ancestorHashCodes":[937056111,321157895],"_ancestorNames":["Buff","Buff.DeBuff"]}]},"eventOutputPorts":[]}</t>
+        </is>
+      </c>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>{"outputNodeGuid":"90bacd9f-d882-4bba-aaa8-41ed993ac3ff","outputPortName":"碰撞时","inputNodeGuid":"eae41233-d297-46fe-a6c8-0b5c876fbb2a","inputPortName":"输入"}</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50"/>
+      <c r="B50"/>
+      <c r="C50"/>
+      <c r="D50"/>
+      <c r="E50"/>
       <c r="F50">
         <v>7</v>
       </c>
-      <c r="G50" t="s">
-        <v>105</v>
-      </c>
-      <c r="H50" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="51" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>{"guid":"3aafa9a5-4766-4204-91ab-d797aeb3c0e1","nodeType":7,"position":{"x":580.7999877929688,"y":-1987.199951171875},"targetType":1,"endType":0}</t>
+        </is>
+      </c>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>{"outputNodeGuid":"eae41233-d297-46fe-a6c8-0b5c876fbb2a","outputPortName":"完成效果","inputNodeGuid":"2d7e41c4-8e90-4b61-879c-4b2e5b9486db","inputPortName":"输入"}</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51"/>
+      <c r="B51"/>
+      <c r="C51"/>
+      <c r="D51"/>
+      <c r="E51"/>
       <c r="F51">
         <v>20</v>
       </c>
-      <c r="G51" t="s">
-        <v>107</v>
-      </c>
-      <c r="H51" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="52" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>{"guid":"432ff1e3-b18d-476d-af80-d39ddc07402a","nodeType":20,"position":{"x":-491.20001220703127,"y":-2478.39990234375},"targetType":1,"skeletonDataAsset":{"instanceID":44578},"animationName":"Attack","animationDuration":"24","isAnimationLooping":false,"timeEffects":[{"triggerTime":11,"portId":"de0ba361-3aba-4ef0-bb07-9b418fcae591"},{"triggerTime":24,"portId":"7ecf9fe6-7c5e-46ae-bade-7922214225e2"}],"timeCues":[]}</t>
+        </is>
+      </c>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>{"outputNodeGuid":"432ff1e3-b18d-476d-af80-d39ddc07402a","outputPortName":"7ecf9fe6-7c5e-46ae-bade-7922214225e2","inputNodeGuid":"3aafa9a5-4766-4204-91ab-d797aeb3c0e1","inputPortName":"输入"}</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52"/>
+      <c r="B52"/>
+      <c r="C52"/>
+      <c r="D52"/>
+      <c r="E52"/>
       <c r="F52">
         <v>8</v>
       </c>
-      <c r="G52" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="53" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>{"guid":"90bacd9f-d882-4bba-aaa8-41ed993ac3ff","nodeType":8,"position":{"x":-401.6000061035156,"y":-1826.4000244140625},"targetType":2,"assetTags":{"_tags":[]},"grantedTags":{"_tags":[]},"applicationRequiredTags":{"_tags":[]},"applicationImmunityTags":{"_tags":[]},"removeGameEffectsWithTags":{"_tags":[]},"durationType":2,"duration":"0","isPeriodic":false,"period":"1","executeOnApplication":false,"attributeModifiers":[],"stackType":0,"stackLimit":0,"stackDurationRefreshPolicy":0,"stackPeriodResetPolicy":0,"stackExpirationPolicy":0,"stackOverflowPolicy":0,"ongoingRequiredTags":{"_tags":[]},"cancelOnAbilityEnd":false,"launchPositionSource":0,"launchBindingName":"center","targetPositionSource":1,"targetBindingName":"center","projectileTargetType":0,"flyOver":true,"offsetAngle":0.0,"curveHeight":0.0,"projectilePrefab":{"instanceID":45446},"speed":3.0,"maxDistance":10.0,"collisionRadius":0.5,"isPiercing":false,"maxPierceCount":1,"collisionTargetTags":{"_tags":[]},"collisionExcludeTags":{"_tags":[]}}</t>
+        </is>
+      </c>
+      <c r="H52"/>
+    </row>
+    <row r="53">
+      <c r="A53"/>
       <c r="B53">
         <v>7</v>
       </c>
-      <c r="C53" t="s">
-        <v>110</v>
-      </c>
-      <c r="D53" t="s">
-        <v>111</v>
-      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>Skill_SpeedUp</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>SpeedUp</t>
+        </is>
+      </c>
+      <c r="E53"/>
       <c r="F53">
         <v>3</v>
       </c>
-      <c r="G53" t="s">
-        <v>20</v>
-      </c>
-      <c r="H53" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="54" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>{"guid":"9d6f459d-b588-4b64-843b-1b71e8f299ae","nodeType":3,"position":{"x":-1186.4000244140625,"y":-2011.199951171875},"targetType":1,"assetTags":{"_tags":[]},"grantedTags":{"_tags":[]},"applicationRequiredTags":{"_tags":[]},"applicationImmunityTags":{"_tags":[]},"removeGameEffectsWithTags":{"_tags":[]},"durationType":0,"duration":"0","isPeriodic":false,"period":"1","executeOnApplication":false,"attributeModifiers":[{"attrType":100,"operation":0,"magnitudeSourceType":0,"fixedValue":10.0,"formula":"","mmcType":0,"setByCallerKey":"","mmcCaptureAttribute":200,"mmcAttributeSource":0,"mmcCoefficient":1.0,"mmcUseSnapshot":true}],"stackType":0,"stackLimit":0,"stackDurationRefreshPolicy":0,"stackPeriodResetPolicy":0,"stackExpirationPolicy":0,"stackOverflowPolicy":0,"ongoingRequiredTags":{"_tags":[]},"cancelOnAbilityEnd":true}</t>
+        </is>
+      </c>
+      <c r="H53" t="inlineStr">
+        <is>
+          <t>{"outputNodeGuid":"356907e0-1488-4128-bfcc-7ff73cfc3330","outputPortName":"动画","inputNodeGuid":"432ff1e3-b18d-476d-af80-d39ddc07402a","inputPortName":"输入"}</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54"/>
+      <c r="B54"/>
+      <c r="C54"/>
+      <c r="D54"/>
+      <c r="E54"/>
       <c r="F54">
         <v>7</v>
       </c>
-      <c r="G54" t="s">
-        <v>22</v>
-      </c>
-      <c r="H54" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="55" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>{"guid":"f73ba91e-a76b-456c-b19c-a5176809d5f5","nodeType":7,"position":{"x":700.0,"y":-1856.800048828125},"targetType":1,"endType":0}</t>
+        </is>
+      </c>
+      <c r="H54" t="inlineStr">
+        <is>
+          <t>{"outputNodeGuid":"356907e0-1488-4128-bfcc-7ff73cfc3330","outputPortName":"冷却","inputNodeGuid":"c28fb88d-51b1-47b2-be59-859e0ac638e3","inputPortName":"输入"}</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55"/>
+      <c r="B55"/>
+      <c r="C55"/>
+      <c r="D55"/>
+      <c r="E55"/>
       <c r="F55">
         <v>20</v>
       </c>
-      <c r="G55" t="s">
-        <v>112</v>
-      </c>
-      <c r="H55" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="56" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>{"guid":"432ff1e3-b18d-476d-af80-d39ddc07402a","nodeType":20,"position":{"x":-502.3999938964844,"y":-2384.0},"targetType":1,"skeletonDataAsset":{"instanceID":44398},"animationName":"Skill_attack_1009","animationDuration":"25","isAnimationLooping":false,"timeEffects":[{"triggerTime":25,"portId":"f41c85e0-7f26-494e-9ffc-4a06c980f811"}],"timeCues":[]}</t>
+        </is>
+      </c>
+      <c r="H55" t="inlineStr">
+        <is>
+          <t>{"outputNodeGuid":"356907e0-1488-4128-bfcc-7ff73cfc3330","outputPortName":"消耗","inputNodeGuid":"9d6f459d-b588-4b64-843b-1b71e8f299ae","inputPortName":"输入"}</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56"/>
+      <c r="B56"/>
+      <c r="C56"/>
+      <c r="D56"/>
+      <c r="E56"/>
       <c r="F56">
         <v>10</v>
       </c>
-      <c r="G56" t="s">
-        <v>113</v>
-      </c>
-      <c r="H56" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="57" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>{"guid":"c28fb88d-51b1-47b2-be59-859e0ac638e3","nodeType":10,"position":{"x":-1186.4000244140625,"y":-1747.199951171875},"targetType":1,"assetTags":{"_tags":[]},"grantedTags":{"_tags":[{"_name":"CD.SpeedUp","_hashCode":-605747253,"_shortName":"急速","_ancestorHashCodes":[-1137859925],"_ancestorNames":["CD"]}]},"applicationRequiredTags":{"_tags":[]},"applicationImmunityTags":{"_tags":[]},"removeGameEffectsWithTags":{"_tags":[]},"durationType":1,"duration":"10","isPeriodic":false,"period":"1","executeOnApplication":false,"attributeModifiers":[],"stackType":0,"stackLimit":0,"stackDurationRefreshPolicy":0,"stackPeriodResetPolicy":0,"stackExpirationPolicy":0,"stackOverflowPolicy":0,"ongoingRequiredTags":{"_tags":[]},"cancelOnAbilityEnd":false,"cooldownType":0,"maxCharges":2,"chargeTime":"10"}</t>
+        </is>
+      </c>
+      <c r="H56" t="inlineStr">
+        <is>
+          <t>{"outputNodeGuid":"432ff1e3-b18d-476d-af80-d39ddc07402a","outputPortName":"f41c85e0-7f26-494e-9ffc-4a06c980f811","inputNodeGuid":"f73ba91e-a76b-456c-b19c-a5176809d5f5","inputPortName":"输入"}</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57"/>
+      <c r="B57"/>
+      <c r="C57"/>
+      <c r="D57"/>
+      <c r="E57"/>
       <c r="F57">
         <v>0</v>
       </c>
-      <c r="G57" t="s">
-        <v>114</v>
-      </c>
-      <c r="H57" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="58" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>{"guid":"356907e0-1488-4128-bfcc-7ff73cfc3330","nodeType":0,"position":{"x":-878.4000244140625,"y":-1853.5999755859375},"targetType":1,"skillId":0,"assetTags":{"_tags":[]},"cancelAbilitiesWithTags":{"_tags":[]},"blockAbilitiesWithTags":{"_tags":[]},"activationOwnedTags":{"_tags":[]},"activationRequiredTags":{"_tags":[]},"activationBlockedTags":{"_tags":[{"_name":"CD.SpeedUp","_hashCode":-605747253,"_shortName":"急速","_ancestorHashCodes":[-1137859925],"_ancestorNames":["CD"]}]},"ongoingBlockedTags":{"_tags":[]},"eventOutputPorts":[]}</t>
+        </is>
+      </c>
+      <c r="H57" t="inlineStr">
+        <is>
+          <t>{"outputNodeGuid":"356907e0-1488-4128-bfcc-7ff73cfc3330","outputPortName":"激活","inputNodeGuid":"632c75e2-152b-4376-8e9e-62c0e74f92d0","inputPortName":"输入"}</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58"/>
+      <c r="B58"/>
+      <c r="C58"/>
+      <c r="D58"/>
+      <c r="E58"/>
       <c r="F58">
         <v>11</v>
       </c>
-      <c r="G58" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="59" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>{"guid":"632c75e2-152b-4376-8e9e-62c0e74f92d0","nodeType":11,"position":{"x":-514.4000244140625,"y":-1880.0},"targetType":1,"assetTags":{"_tags":[]},"grantedTags":{"_tags":[]},"applicationRequiredTags":{"_tags":[]},"applicationImmunityTags":{"_tags":[]},"removeGameEffectsWithTags":{"_tags":[]},"durationType":1,"duration":"7","isPeriodic":false,"period":"1","executeOnApplication":false,"attributeModifiers":[{"attrType":300,"operation":0,"magnitudeSourceType":0,"fixedValue":10.0,"formula":"","mmcType":0,"setByCallerKey":"","mmcCaptureAttribute":200,"mmcAttributeSource":0,"mmcCoefficient":1.0,"mmcUseSnapshot":true}],"stackType":2,"stackLimit":1,"stackDurationRefreshPolicy":0,"stackPeriodResetPolicy":0,"stackExpirationPolicy":0,"stackOverflowPolicy":0,"ongoingRequiredTags":{"_tags":[]},"cancelOnAbilityEnd":false,"buffId":0}</t>
+        </is>
+      </c>
+      <c r="H58"/>
+    </row>
+    <row r="59">
+      <c r="A59"/>
       <c r="B59">
         <v>8</v>
       </c>
-      <c r="C59" t="s">
-        <v>117</v>
-      </c>
-      <c r="D59" t="s">
-        <v>118</v>
-      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>Skill_Sweep</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>Sweep</t>
+        </is>
+      </c>
+      <c r="E59"/>
       <c r="F59">
         <v>14</v>
       </c>
-      <c r="G59" t="s">
-        <v>119</v>
-      </c>
-      <c r="H59" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="60" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>{"guid":"c353e286-8ef0-460a-b917-887f2aeb390a","nodeType":14,"position":{"x":178.39999389648438,"y":-1786.4000244140625},"targetType":1,"requiredTags":{"_tags":[]},"immunityTags":{"_tags":[]},"destroyWithNode":false,"positionSource":2,"positionBindingName":"head","textType":0,"fixedText":"","contextDataKey":"DamageResult","textColor":{"r":1.0,"g":0.0,"b":0.0,"a":1.0},"criticalColor":{"r":1.0,"g":0.5,"b":0.0,"a":1.0},"missColor":{"r":0.5,"g":0.5,"b":0.5,"a":1.0},"fontSize":45.0,"criticalFontSize":60.0,"duration":1.5,"offset":{"x":0.0,"y":0.0},"moveDirection":{"x":0.0,"y":1.0}}</t>
+        </is>
+      </c>
+      <c r="H59" t="inlineStr">
+        <is>
+          <t>{"outputNodeGuid":"432ff1e3-b18d-476d-af80-d39ddc07402a","outputPortName":"8dea1941-c520-4f9a-aee0-40932c8542ef","inputNodeGuid":"cde57fb8-b693-4da8-a4a8-fd61e56c5dcd","inputPortName":"输入"}</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60"/>
+      <c r="B60"/>
+      <c r="C60"/>
+      <c r="D60"/>
+      <c r="E60"/>
       <c r="F60">
         <v>0</v>
       </c>
-      <c r="G60" t="s">
-        <v>120</v>
-      </c>
-      <c r="H60" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="61" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>{"guid":"356907e0-1488-4128-bfcc-7ff73cfc3330","nodeType":0,"position":{"x":-878.4000244140625,"y":-1853.5999755859375},"targetType":1,"skillId":1001,"assetTags":{"_tags":[]},"cancelAbilitiesWithTags":{"_tags":[]},"blockAbilitiesWithTags":{"_tags":[]},"activationOwnedTags":{"_tags":[]},"activationRequiredTags":{"_tags":[]},"activationBlockedTags":{"_tags":[{"_name":"CD.Sweep","_hashCode":2090173402,"_shortName":"横扫","_ancestorHashCodes":[-1137859925],"_ancestorNames":["CD"]}]},"ongoingBlockedTags":{"_tags":[]},"eventOutputPorts":[]}</t>
+        </is>
+      </c>
+      <c r="H60" t="inlineStr">
+        <is>
+          <t>{"outputNodeGuid":"356907e0-1488-4128-bfcc-7ff73cfc3330","outputPortName":"动画","inputNodeGuid":"432ff1e3-b18d-476d-af80-d39ddc07402a","inputPortName":"输入"}</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61"/>
+      <c r="B61"/>
+      <c r="C61"/>
+      <c r="D61"/>
+      <c r="E61"/>
       <c r="F61">
         <v>10</v>
       </c>
-      <c r="G61" t="s">
-        <v>121</v>
-      </c>
-      <c r="H61" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="62" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>{"guid":"c28fb88d-51b1-47b2-be59-859e0ac638e3","nodeType":10,"position":{"x":-1186.4000244140625,"y":-1747.199951171875},"targetType":1,"assetTags":{"_tags":[]},"grantedTags":{"_tags":[{"_name":"CD.Sweep","_hashCode":2090173402,"_shortName":"横扫","_ancestorHashCodes":[-1137859925],"_ancestorNames":["CD"]}]},"applicationRequiredTags":{"_tags":[]},"applicationImmunityTags":{"_tags":[]},"removeGameEffectsWithTags":{"_tags":[]},"durationType":1,"duration":"1","isPeriodic":false,"period":"1","executeOnApplication":false,"attributeModifiers":[],"stackType":0,"stackLimit":0,"stackDurationRefreshPolicy":0,"stackPeriodResetPolicy":0,"stackExpirationPolicy":0,"stackOverflowPolicy":0,"ongoingRequiredTags":{"_tags":[]},"cancelOnAbilityEnd":false,"cooldownType":0,"maxCharges":2,"chargeTime":"10"}</t>
+        </is>
+      </c>
+      <c r="H61" t="inlineStr">
+        <is>
+          <t>{"outputNodeGuid":"356907e0-1488-4128-bfcc-7ff73cfc3330","outputPortName":"冷却","inputNodeGuid":"c28fb88d-51b1-47b2-be59-859e0ac638e3","inputPortName":"输入"}</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62"/>
+      <c r="B62"/>
+      <c r="C62"/>
+      <c r="D62"/>
+      <c r="E62"/>
       <c r="F62">
         <v>7</v>
       </c>
-      <c r="G62" t="s">
-        <v>122</v>
-      </c>
-      <c r="H62" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="63" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>{"guid":"2cfdacd2-0186-49dd-b177-4eb8c0ad87bd","nodeType":7,"position":{"x":689.5999755859375,"y":-1860.800048828125},"targetType":1,"endType":0}</t>
+        </is>
+      </c>
+      <c r="H62" t="inlineStr">
+        <is>
+          <t>{"outputNodeGuid":"356907e0-1488-4128-bfcc-7ff73cfc3330","outputPortName":"消耗","inputNodeGuid":"9d6f459d-b588-4b64-843b-1b71e8f299ae","inputPortName":"输入"}</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63"/>
+      <c r="B63"/>
+      <c r="C63"/>
+      <c r="D63"/>
+      <c r="E63"/>
       <c r="F63">
         <v>3</v>
       </c>
-      <c r="G63" t="s">
-        <v>53</v>
-      </c>
-      <c r="H63" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="64" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>{"guid":"9d6f459d-b588-4b64-843b-1b71e8f299ae","nodeType":3,"position":{"x":-1186.4000244140625,"y":-2019.199951171875},"targetType":1,"assetTags":{"_tags":[]},"grantedTags":{"_tags":[]},"applicationRequiredTags":{"_tags":[]},"applicationImmunityTags":{"_tags":[]},"removeGameEffectsWithTags":{"_tags":[]},"durationType":0,"duration":"0","isPeriodic":false,"period":"1","executeOnApplication":false,"attributeModifiers":[{"attrType":100,"operation":0,"magnitudeSourceType":0,"fixedValue":10.0,"formula":"","mmcType":0,"setByCallerKey":"","mmcCaptureAttribute":200,"mmcAttributeSource":0,"mmcCoefficient":1.0,"mmcUseSnapshot":true}],"stackType":0,"stackLimit":0,"stackDurationRefreshPolicy":0,"stackPeriodResetPolicy":0,"stackExpirationPolicy":0,"stackOverflowPolicy":0,"ongoingRequiredTags":{"_tags":[]},"cancelOnAbilityEnd":true}</t>
+        </is>
+      </c>
+      <c r="H63" t="inlineStr">
+        <is>
+          <t>{"outputNodeGuid":"432ff1e3-b18d-476d-af80-d39ddc07402a","outputPortName":"de0ba361-3aba-4ef0-bb07-9b418fcae591","inputNodeGuid":"e33ab94c-1496-4d6a-ba5e-1afd38bb0c30","inputPortName":"输入"}</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64"/>
+      <c r="B64"/>
+      <c r="C64"/>
+      <c r="D64"/>
+      <c r="E64"/>
       <c r="F64">
         <v>1</v>
       </c>
-      <c r="G64" t="s">
-        <v>123</v>
-      </c>
-      <c r="H64" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="65" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>{"guid":"f8947676-1084-4228-b991-1509cc7fe851","nodeType":1,"position":{"x":-100.0,"y":-1680.800048828125},"targetType":0,"assetTags":{"_tags":[]},"grantedTags":{"_tags":[]},"applicationRequiredTags":{"_tags":[]},"applicationImmunityTags":{"_tags":[]},"removeGameEffectsWithTags":{"_tags":[]},"durationType":0,"duration":"0","isPeriodic":false,"period":"1","executeOnApplication":false,"attributeModifiers":[],"stackType":0,"stackLimit":0,"stackDurationRefreshPolicy":0,"stackPeriodResetPolicy":0,"stackExpirationPolicy":0,"stackOverflowPolicy":0,"ongoingRequiredTags":{"_tags":[]},"cancelOnAbilityEnd":true,"damageType":0,"damageSourceType":0,"damageFixedValue":10.0,"damageFormula":"","damageMMCType":0,"damageSetByCallerKey":"","damageMMCCaptureAttribute":200,"damageMMCAttributeSource":0,"damageMMCCoefficient":1.0,"damageMMCUseSnapshot":true,"damageMultiplyByStackCount":false,"damageCalculationType":0}</t>
+        </is>
+      </c>
+      <c r="H64" t="inlineStr">
+        <is>
+          <t>{"outputNodeGuid":"e33ab94c-1496-4d6a-ba5e-1afd38bb0c30","outputPortName":"对每个目标","inputNodeGuid":"f8947676-1084-4228-b991-1509cc7fe851","inputPortName":"输入"}</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65"/>
+      <c r="B65"/>
+      <c r="C65"/>
+      <c r="D65"/>
+      <c r="E65"/>
       <c r="F65">
         <v>20</v>
       </c>
-      <c r="G65" t="s">
-        <v>125</v>
-      </c>
-      <c r="H65" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="66" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>{"guid":"432ff1e3-b18d-476d-af80-d39ddc07402a","nodeType":20,"position":{"x":-452.0,"y":-2406.39990234375},"targetType":1,"skeletonDataAsset":{"instanceID":44398},"animationName":"Attack_01","animationDuration":"18","isAnimationLooping":false,"timeEffects":[{"triggerTime":7,"portId":"de0ba361-3aba-4ef0-bb07-9b418fcae591"},{"triggerTime":18,"portId":"84e238a8-5baf-470e-829f-186695064945"}],"timeCues":[{"startTime":7,"endTime":48,"portId":"8dea1941-c520-4f9a-aee0-40932c8542ef"}]}</t>
+        </is>
+      </c>
+      <c r="H65" t="inlineStr">
+        <is>
+          <t>{"outputNodeGuid":"f8947676-1084-4228-b991-1509cc7fe851","outputPortName":"完成效果","inputNodeGuid":"c353e286-8ef0-460a-b917-887f2aeb390a","inputPortName":"输入"}</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66"/>
+      <c r="B66"/>
+      <c r="C66"/>
+      <c r="D66"/>
+      <c r="E66"/>
       <c r="F66">
         <v>4</v>
       </c>
-      <c r="G66" t="s">
-        <v>126</v>
-      </c>
-      <c r="H66" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="67" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>{"guid":"e33ab94c-1496-4d6a-ba5e-1afd38bb0c30","nodeType":4,"position":{"x":-452.0,"y":-1786.4000244140625},"targetType":1,"searchShapeType":1,"searchLineType":0,"positionSource":0,"positionBindingName":"center","searchCircleRadius":5.0,"searchSectorRadius":2.0,"searchSectorAngle":180.0,"searchLineDirectionOffsetAngle":0.0,"searchLineDirectionWidth":1.0,"searchLineDirectionLength":10.0,"lineStartPositionSource":0,"lineStartBindingName":"","lineEndPositionSource":1,"lineEndBindingName":"","searchLineBetweenWidth":1.0,"searchLineAbsoluteAngle":0.0,"searchLineAbsoluteWidth":1.0,"searchLineAbsoluteLength":10.0,"maxTargets":999,"searchTargetTags":{"_tags":[{"_name":"unitType.boss","_hashCode":-2067207703,"_shortName":"boss","_ancestorHashCodes":[1600484460],"_ancestorNames":["unitType"]}]},"searchExcludeTags":{"_tags":[]}}</t>
+        </is>
+      </c>
+      <c r="H66" t="inlineStr">
+        <is>
+          <t>{"outputNodeGuid":"432ff1e3-b18d-476d-af80-d39ddc07402a","outputPortName":"84e238a8-5baf-470e-829f-186695064945","inputNodeGuid":"2cfdacd2-0186-49dd-b177-4eb8c0ad87bd","inputPortName":"输入"}</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67"/>
+      <c r="B67"/>
+      <c r="C67"/>
+      <c r="D67"/>
+      <c r="E67"/>
       <c r="F67">
         <v>12</v>
       </c>
-      <c r="G67" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="68" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>{"guid":"cde57fb8-b693-4da8-a4a8-fd61e56c5dcd","nodeType":12,"position":{"x":677.5999755859375,"y":-1998.4000244140625},"targetType":1,"requiredTags":{"_tags":[]},"immunityTags":{"_tags":[]},"destroyWithNode":false,"positionSource":0,"particlePrefab":{"instanceID":45538},"particleBindingName":"down","particleOffset":{"x":0.0,"y":0.0,"z":0.0},"particleScale":{"x":1.0,"y":1.0,"z":1.0},"attachToTarget":false,"particleLoop":false}</t>
+        </is>
+      </c>
+      <c r="H67"/>
+    </row>
+    <row r="68">
+      <c r="A68"/>
       <c r="B68">
         <v>9</v>
       </c>
-      <c r="C68" t="s">
-        <v>128</v>
-      </c>
-      <c r="D68" t="s">
-        <v>129</v>
-      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>Skill_ThreeFire</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>ThreeFire</t>
+        </is>
+      </c>
+      <c r="E68"/>
       <c r="F68">
         <v>7</v>
       </c>
-      <c r="G68" t="s">
-        <v>122</v>
-      </c>
-      <c r="H68" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="69" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>{"guid":"2cfdacd2-0186-49dd-b177-4eb8c0ad87bd","nodeType":7,"position":{"x":689.5999755859375,"y":-1860.800048828125},"targetType":1,"endType":0}</t>
+        </is>
+      </c>
+      <c r="H68" t="inlineStr">
+        <is>
+          <t>{"outputNodeGuid":"356907e0-1488-4128-bfcc-7ff73cfc3330","outputPortName":"动画","inputNodeGuid":"432ff1e3-b18d-476d-af80-d39ddc07402a","inputPortName":"输入"}</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69"/>
+      <c r="B69"/>
+      <c r="C69"/>
+      <c r="D69"/>
+      <c r="E69"/>
       <c r="F69">
         <v>3</v>
       </c>
-      <c r="G69" t="s">
-        <v>53</v>
-      </c>
-      <c r="H69" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="70" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>{"guid":"9d6f459d-b588-4b64-843b-1b71e8f299ae","nodeType":3,"position":{"x":-1186.4000244140625,"y":-2019.199951171875},"targetType":1,"assetTags":{"_tags":[]},"grantedTags":{"_tags":[]},"applicationRequiredTags":{"_tags":[]},"applicationImmunityTags":{"_tags":[]},"removeGameEffectsWithTags":{"_tags":[]},"durationType":0,"duration":"0","isPeriodic":false,"period":"1","executeOnApplication":false,"attributeModifiers":[{"attrType":100,"operation":0,"magnitudeSourceType":0,"fixedValue":10.0,"formula":"","mmcType":0,"setByCallerKey":"","mmcCaptureAttribute":200,"mmcAttributeSource":0,"mmcCoefficient":1.0,"mmcUseSnapshot":true}],"stackType":0,"stackLimit":0,"stackDurationRefreshPolicy":0,"stackPeriodResetPolicy":0,"stackExpirationPolicy":0,"stackOverflowPolicy":0,"ongoingRequiredTags":{"_tags":[]},"cancelOnAbilityEnd":true}</t>
+        </is>
+      </c>
+      <c r="H69" t="inlineStr">
+        <is>
+          <t>{"outputNodeGuid":"356907e0-1488-4128-bfcc-7ff73cfc3330","outputPortName":"冷却","inputNodeGuid":"c28fb88d-51b1-47b2-be59-859e0ac638e3","inputPortName":"输入"}</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70"/>
+      <c r="B70"/>
+      <c r="C70"/>
+      <c r="D70"/>
+      <c r="E70"/>
       <c r="F70">
         <v>20</v>
       </c>
-      <c r="G70" t="s">
-        <v>130</v>
-      </c>
-      <c r="H70" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="71" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>{"guid":"432ff1e3-b18d-476d-af80-d39ddc07402a","nodeType":20,"position":{"x":-452.0,"y":-2406.39990234375},"targetType":1,"skeletonDataAsset":{"instanceID":44398},"animationName":"Attack_01","animationDuration":"18","isAnimationLooping":false,"timeEffects":[{"triggerTime":7,"portId":"de0ba361-3aba-4ef0-bb07-9b418fcae591"},{"triggerTime":18,"portId":"84e238a8-5baf-470e-829f-186695064945"}],"timeCues":[]}</t>
+        </is>
+      </c>
+      <c r="H70" t="inlineStr">
+        <is>
+          <t>{"outputNodeGuid":"356907e0-1488-4128-bfcc-7ff73cfc3330","outputPortName":"消耗","inputNodeGuid":"9d6f459d-b588-4b64-843b-1b71e8f299ae","inputPortName":"输入"}</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71"/>
+      <c r="B71"/>
+      <c r="C71"/>
+      <c r="D71"/>
+      <c r="E71"/>
       <c r="F71">
         <v>10</v>
       </c>
-      <c r="G71" t="s">
-        <v>131</v>
-      </c>
-      <c r="H71" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="72" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>{"guid":"c28fb88d-51b1-47b2-be59-859e0ac638e3","nodeType":10,"position":{"x":-1186.4000244140625,"y":-1747.199951171875},"targetType":1,"assetTags":{"_tags":[]},"grantedTags":{"_tags":[{"_name":"CD.ThreeFire","_hashCode":-1656226246,"_shortName":"三火球","_ancestorHashCodes":[-1137859925],"_ancestorNames":["CD"]}]},"applicationRequiredTags":{"_tags":[]},"applicationImmunityTags":{"_tags":[]},"removeGameEffectsWithTags":{"_tags":[]},"durationType":1,"duration":"1","isPeriodic":false,"period":"1","executeOnApplication":false,"attributeModifiers":[],"stackType":0,"stackLimit":0,"stackDurationRefreshPolicy":0,"stackPeriodResetPolicy":0,"stackExpirationPolicy":0,"stackOverflowPolicy":0,"ongoingRequiredTags":{"_tags":[]},"cancelOnAbilityEnd":false,"cooldownType":0,"maxCharges":2,"chargeTime":"10"}</t>
+        </is>
+      </c>
+      <c r="H71" t="inlineStr">
+        <is>
+          <t>{"outputNodeGuid":"f8947676-1084-4228-b991-1509cc7fe851","outputPortName":"完成效果","inputNodeGuid":"c353e286-8ef0-460a-b917-887f2aeb390a","inputPortName":"输入"}</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72"/>
+      <c r="B72"/>
+      <c r="C72"/>
+      <c r="D72"/>
+      <c r="E72"/>
       <c r="F72">
         <v>0</v>
       </c>
-      <c r="G72" t="s">
-        <v>132</v>
-      </c>
-      <c r="H72" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="73" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>{"guid":"356907e0-1488-4128-bfcc-7ff73cfc3330","nodeType":0,"position":{"x":-878.4000244140625,"y":-1853.5999755859375},"targetType":1,"skillId":1010,"assetTags":{"_tags":[]},"cancelAbilitiesWithTags":{"_tags":[]},"blockAbilitiesWithTags":{"_tags":[]},"activationOwnedTags":{"_tags":[]},"activationRequiredTags":{"_tags":[]},"activationBlockedTags":{"_tags":[{"_name":"CD.ThreeFire","_hashCode":-1656226246,"_shortName":"三火球","_ancestorHashCodes":[-1137859925],"_ancestorNames":["CD"]}]},"ongoingBlockedTags":{"_tags":[]},"eventOutputPorts":[]}</t>
+        </is>
+      </c>
+      <c r="H72" t="inlineStr">
+        <is>
+          <t>{"outputNodeGuid":"ce857360-de7e-4457-b348-9c124ce98879","outputPortName":"碰撞时","inputNodeGuid":"f8947676-1084-4228-b991-1509cc7fe851","inputPortName":"输入"}</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73"/>
+      <c r="B73"/>
+      <c r="C73"/>
+      <c r="D73"/>
+      <c r="E73"/>
       <c r="F73">
         <v>14</v>
       </c>
-      <c r="G73" t="s">
-        <v>134</v>
-      </c>
-      <c r="H73" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="74" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>{"guid":"c353e286-8ef0-460a-b917-887f2aeb390a","nodeType":14,"position":{"x":839.199951171875,"y":-1583.199951171875},"targetType":1,"requiredTags":{"_tags":[]},"immunityTags":{"_tags":[]},"destroyWithNode":false,"positionSource":2,"positionBindingName":"head","textType":0,"fixedText":"","contextDataKey":"DamageResult","textColor":{"r":1.0,"g":0.0,"b":0.0,"a":1.0},"criticalColor":{"r":1.0,"g":0.5,"b":0.0,"a":1.0},"missColor":{"r":0.5,"g":0.5,"b":0.5,"a":1.0},"fontSize":45.0,"criticalFontSize":60.0,"duration":1.5,"offset":{"x":0.0,"y":0.0},"moveDirection":{"x":0.0,"y":1.0}}</t>
+        </is>
+      </c>
+      <c r="H73" t="inlineStr">
+        <is>
+          <t>{"outputNodeGuid":"9a695e91-e218-425e-82ed-1e157bf1b014","outputPortName":"碰撞时","inputNodeGuid":"f8947676-1084-4228-b991-1509cc7fe851","inputPortName":"输入"}</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74"/>
+      <c r="B74"/>
+      <c r="C74"/>
+      <c r="D74"/>
+      <c r="E74"/>
       <c r="F74">
         <v>1</v>
       </c>
-      <c r="G74" t="s">
-        <v>136</v>
-      </c>
-      <c r="H74" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="75" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>{"guid":"f8947676-1084-4228-b991-1509cc7fe851","nodeType":1,"position":{"x":614.4000244140625,"y":-1583.199951171875},"targetType":0,"assetTags":{"_tags":[]},"grantedTags":{"_tags":[]},"applicationRequiredTags":{"_tags":[]},"applicationImmunityTags":{"_tags":[]},"removeGameEffectsWithTags":{"_tags":[]},"durationType":0,"duration":"0","isPeriodic":false,"period":"1","executeOnApplication":false,"attributeModifiers":[],"stackType":0,"stackLimit":0,"stackDurationRefreshPolicy":0,"stackPeriodResetPolicy":0,"stackExpirationPolicy":0,"stackOverflowPolicy":0,"ongoingRequiredTags":{"_tags":[]},"cancelOnAbilityEnd":true,"damageType":0,"damageSourceType":0,"damageFixedValue":10.0,"damageFormula":"","damageMMCType":0,"damageSetByCallerKey":"","damageMMCCaptureAttribute":200,"damageMMCAttributeSource":0,"damageMMCCoefficient":1.0,"damageMMCUseSnapshot":true,"damageMultiplyByStackCount":false,"damageCalculationType":0}</t>
+        </is>
+      </c>
+      <c r="H74" t="inlineStr">
+        <is>
+          <t>{"outputNodeGuid":"d897a922-5756-42cf-ac65-90a48c1e5a17","outputPortName":"碰撞时","inputNodeGuid":"f8947676-1084-4228-b991-1509cc7fe851","inputPortName":"输入"}</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75"/>
+      <c r="B75"/>
+      <c r="C75"/>
+      <c r="D75"/>
+      <c r="E75"/>
       <c r="F75">
         <v>8</v>
       </c>
-      <c r="G75" t="s">
-        <v>138</v>
-      </c>
-      <c r="H75" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="76" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>{"guid":"ce857360-de7e-4457-b348-9c124ce98879","nodeType":8,"position":{"x":202.39999389648438,"y":-1649.5999755859375},"targetType":2,"assetTags":{"_tags":[]},"grantedTags":{"_tags":[]},"applicationRequiredTags":{"_tags":[]},"applicationImmunityTags":{"_tags":[]},"removeGameEffectsWithTags":{"_tags":[]},"durationType":2,"duration":"0","isPeriodic":false,"period":"1","executeOnApplication":false,"attributeModifiers":[],"stackType":0,"stackLimit":0,"stackDurationRefreshPolicy":0,"stackPeriodResetPolicy":0,"stackExpirationPolicy":0,"stackOverflowPolicy":0,"ongoingRequiredTags":{"_tags":[]},"cancelOnAbilityEnd":false,"launchPositionSource":0,"launchBindingName":"center","targetPositionSource":2,"targetBindingName":"center","projectileTargetType":0,"flyOver":true,"offsetAngle":30.0,"curveHeight":0.0,"projectilePrefab":{"instanceID":45344},"speed":10.0,"maxDistance":10.0,"collisionRadius":0.5,"isPiercing":false,"maxPierceCount":1,"collisionTargetTags":{"_tags":[]},"collisionExcludeTags":{"_tags":[]}}</t>
+        </is>
+      </c>
+      <c r="H75" t="inlineStr">
+        <is>
+          <t>{"outputNodeGuid":"432ff1e3-b18d-476d-af80-d39ddc07402a","outputPortName":"84e238a8-5baf-470e-829f-186695064945","inputNodeGuid":"2cfdacd2-0186-49dd-b177-4eb8c0ad87bd","inputPortName":"输入"}</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76"/>
+      <c r="B76"/>
+      <c r="C76"/>
+      <c r="D76"/>
+      <c r="E76"/>
       <c r="F76">
         <v>8</v>
       </c>
-      <c r="G76" t="s">
-        <v>139</v>
-      </c>
-      <c r="H76" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="77" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>{"guid":"9a695e91-e218-425e-82ed-1e157bf1b014","nodeType":8,"position":{"x":184.79998779296876,"y":-1475.199951171875},"targetType":2,"assetTags":{"_tags":[]},"grantedTags":{"_tags":[]},"applicationRequiredTags":{"_tags":[]},"applicationImmunityTags":{"_tags":[]},"removeGameEffectsWithTags":{"_tags":[]},"durationType":2,"duration":"0","isPeriodic":false,"period":"1","executeOnApplication":false,"attributeModifiers":[],"stackType":0,"stackLimit":0,"stackDurationRefreshPolicy":0,"stackPeriodResetPolicy":0,"stackExpirationPolicy":0,"stackOverflowPolicy":0,"ongoingRequiredTags":{"_tags":[]},"cancelOnAbilityEnd":false,"launchPositionSource":0,"launchBindingName":"center","targetPositionSource":2,"targetBindingName":"center","projectileTargetType":0,"flyOver":true,"offsetAngle":0.0,"curveHeight":0.0,"projectilePrefab":{"instanceID":45344},"speed":10.0,"maxDistance":10.0,"collisionRadius":0.5,"isPiercing":false,"maxPierceCount":1,"collisionTargetTags":{"_tags":[]},"collisionExcludeTags":{"_tags":[]}}</t>
+        </is>
+      </c>
+      <c r="H76" t="inlineStr">
+        <is>
+          <t>{"outputNodeGuid":"432ff1e3-b18d-476d-af80-d39ddc07402a","outputPortName":"de0ba361-3aba-4ef0-bb07-9b418fcae591","inputNodeGuid":"ce857360-de7e-4457-b348-9c124ce98879","inputPortName":"输入"}</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77"/>
+      <c r="B77"/>
+      <c r="C77"/>
+      <c r="D77"/>
+      <c r="E77"/>
       <c r="F77">
         <v>8</v>
       </c>
-      <c r="G77" t="s">
-        <v>141</v>
-      </c>
-      <c r="H77" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="78" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="H78" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="79" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>{"guid":"d897a922-5756-42cf-ac65-90a48c1e5a17","nodeType":8,"position":{"x":173.60000610351563,"y":-1327.199951171875},"targetType":2,"assetTags":{"_tags":[]},"grantedTags":{"_tags":[]},"applicationRequiredTags":{"_tags":[]},"applicationImmunityTags":{"_tags":[]},"removeGameEffectsWithTags":{"_tags":[]},"durationType":2,"duration":"0","isPeriodic":false,"period":"1","executeOnApplication":false,"attributeModifiers":[],"stackType":0,"stackLimit":0,"stackDurationRefreshPolicy":0,"stackPeriodResetPolicy":0,"stackExpirationPolicy":0,"stackOverflowPolicy":0,"ongoingRequiredTags":{"_tags":[]},"cancelOnAbilityEnd":false,"launchPositionSource":0,"launchBindingName":"center","targetPositionSource":2,"targetBindingName":"center","projectileTargetType":0,"flyOver":true,"offsetAngle":-30.0,"curveHeight":0.0,"projectilePrefab":{"instanceID":45344},"speed":10.0,"maxDistance":10.0,"collisionRadius":0.5,"isPiercing":false,"maxPierceCount":1,"collisionTargetTags":{"_tags":[]},"collisionExcludeTags":{"_tags":[]}}</t>
+        </is>
+      </c>
+      <c r="H77" t="inlineStr">
+        <is>
+          <t>{"outputNodeGuid":"432ff1e3-b18d-476d-af80-d39ddc07402a","outputPortName":"de0ba361-3aba-4ef0-bb07-9b418fcae591","inputNodeGuid":"9a695e91-e218-425e-82ed-1e157bf1b014","inputPortName":"输入"}</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78"/>
+      <c r="B78"/>
+      <c r="C78"/>
+      <c r="D78"/>
+      <c r="E78"/>
+      <c r="F78"/>
+      <c r="G78"/>
+      <c r="H78" t="inlineStr">
+        <is>
+          <t>{"outputNodeGuid":"432ff1e3-b18d-476d-af80-d39ddc07402a","outputPortName":"de0ba361-3aba-4ef0-bb07-9b418fcae591","inputNodeGuid":"d897a922-5756-42cf-ac65-90a48c1e5a17","inputPortName":"输入"}</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79"/>
       <c r="B79">
         <v>10</v>
       </c>
-      <c r="C79" t="s">
-        <v>19</v>
-      </c>
-      <c r="D79" t="s">
-        <v>144</v>
-      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>Skill_Wan</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>Wan</t>
+        </is>
+      </c>
+      <c r="E79"/>
       <c r="F79">
         <v>3</v>
       </c>
-      <c r="G79" t="s">
-        <v>20</v>
-      </c>
-      <c r="H79" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="80" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>{"guid":"9d6f459d-b588-4b64-843b-1b71e8f299ae","nodeType":3,"position":{"x":-1186.4000244140625,"y":-2011.199951171875},"targetType":1,"assetTags":{"_tags":[]},"grantedTags":{"_tags":[]},"applicationRequiredTags":{"_tags":[]},"applicationImmunityTags":{"_tags":[]},"removeGameEffectsWithTags":{"_tags":[]},"durationType":0,"duration":"0","isPeriodic":false,"period":"1","executeOnApplication":false,"attributeModifiers":[{"attrType":100,"operation":0,"magnitudeSourceType":0,"fixedValue":10.0,"formula":"","mmcType":0,"setByCallerKey":"","mmcCaptureAttribute":200,"mmcAttributeSource":0,"mmcCoefficient":1.0,"mmcUseSnapshot":true}],"stackType":0,"stackLimit":0,"stackDurationRefreshPolicy":0,"stackPeriodResetPolicy":0,"stackExpirationPolicy":0,"stackOverflowPolicy":0,"ongoingRequiredTags":{"_tags":[]},"cancelOnAbilityEnd":true}</t>
+        </is>
+      </c>
+      <c r="H79" t="inlineStr">
+        <is>
+          <t>{"outputNodeGuid":"356907e0-1488-4128-bfcc-7ff73cfc3330","outputPortName":"动画","inputNodeGuid":"432ff1e3-b18d-476d-af80-d39ddc07402a","inputPortName":"输入"}</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80"/>
+      <c r="B80"/>
+      <c r="C80"/>
+      <c r="D80"/>
+      <c r="E80"/>
       <c r="F80">
         <v>7</v>
       </c>
-      <c r="G80" t="s">
-        <v>22</v>
-      </c>
-      <c r="H80" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="81" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>{"guid":"f73ba91e-a76b-456c-b19c-a5176809d5f5","nodeType":7,"position":{"x":700.0,"y":-1856.800048828125},"targetType":1,"endType":0}</t>
+        </is>
+      </c>
+      <c r="H80" t="inlineStr">
+        <is>
+          <t>{"outputNodeGuid":"356907e0-1488-4128-bfcc-7ff73cfc3330","outputPortName":"冷却","inputNodeGuid":"c28fb88d-51b1-47b2-be59-859e0ac638e3","inputPortName":"输入"}</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81"/>
+      <c r="B81"/>
+      <c r="C81"/>
+      <c r="D81"/>
+      <c r="E81"/>
       <c r="F81">
         <v>20</v>
       </c>
-      <c r="G81" t="s">
-        <v>24</v>
-      </c>
-      <c r="H81" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="82" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>{"guid":"432ff1e3-b18d-476d-af80-d39ddc07402a","nodeType":20,"position":{"x":-502.3999938964844,"y":-2384.0},"targetType":1,"skeletonDataAsset":{"instanceID":44398},"animationName":"Skill_attack_1009","animationDuration":"25","isAnimationLooping":false,"timeEffects":[{"triggerTime":4,"portId":"de0ba361-3aba-4ef0-bb07-9b418fcae591"},{"triggerTime":25,"portId":"f41c85e0-7f26-494e-9ffc-4a06c980f811"}],"timeCues":[{"startTime":0,"endTime":75,"portId":"8dea1941-c520-4f9a-aee0-40932c8542ef"}]}</t>
+        </is>
+      </c>
+      <c r="H81" t="inlineStr">
+        <is>
+          <t>{"outputNodeGuid":"356907e0-1488-4128-bfcc-7ff73cfc3330","outputPortName":"消耗","inputNodeGuid":"9d6f459d-b588-4b64-843b-1b71e8f299ae","inputPortName":"输入"}</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82"/>
+      <c r="B82"/>
+      <c r="C82"/>
+      <c r="D82"/>
+      <c r="E82"/>
       <c r="F82">
         <v>22</v>
       </c>
-      <c r="G82" t="s">
-        <v>26</v>
-      </c>
-      <c r="H82" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="83" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>{"guid":"091ecddb-f80b-4c00-aa06-f9bc718618d2","nodeType":22,"position":{"x":-93.60000610351563,"y":-1708.800048828125},"targetType":0,"assetTags":{"_tags":[]},"grantedTags":{"_tags":[]},"applicationRequiredTags":{"_tags":[]},"applicationImmunityTags":{"_tags":[]},"removeGameEffectsWithTags":{"_tags":[]},"durationType":1,"duration":"0.5","isPeriodic":false,"period":"1","executeOnApplication":false,"attributeModifiers":[],"stackType":0,"stackLimit":0,"stackDurationRefreshPolicy":0,"stackPeriodResetPolicy":0,"stackExpirationPolicy":0,"stackOverflowPolicy":0,"ongoingRequiredTags":{"_tags":[]},"cancelOnAbilityEnd":false,"displaceType":0,"speed":10.0,"distance":3.0,"minDistance":0.5,"pointSource":0,"pointBindingName":""}</t>
+        </is>
+      </c>
+      <c r="H82" t="inlineStr">
+        <is>
+          <t>{"outputNodeGuid":"432ff1e3-b18d-476d-af80-d39ddc07402a","outputPortName":"f41c85e0-7f26-494e-9ffc-4a06c980f811","inputNodeGuid":"f73ba91e-a76b-456c-b19c-a5176809d5f5","inputPortName":"输入"}</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83"/>
+      <c r="B83"/>
+      <c r="C83"/>
+      <c r="D83"/>
+      <c r="E83"/>
       <c r="F83">
         <v>10</v>
       </c>
-      <c r="G83" t="s">
-        <v>28</v>
-      </c>
-      <c r="H83" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="84" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>{"guid":"c28fb88d-51b1-47b2-be59-859e0ac638e3","nodeType":10,"position":{"x":-1186.4000244140625,"y":-1747.199951171875},"targetType":1,"assetTags":{"_tags":[]},"grantedTags":{"_tags":[{"_name":"CD.Wan","_hashCode":87403585,"_shortName":"Wan","_ancestorHashCodes":[-1137859925],"_ancestorNames":["CD"]}]},"applicationRequiredTags":{"_tags":[]},"applicationImmunityTags":{"_tags":[]},"removeGameEffectsWithTags":{"_tags":[]},"durationType":1,"duration":"5","isPeriodic":false,"period":"1","executeOnApplication":false,"attributeModifiers":[],"stackType":0,"stackLimit":0,"stackDurationRefreshPolicy":0,"stackPeriodResetPolicy":0,"stackExpirationPolicy":0,"stackOverflowPolicy":0,"ongoingRequiredTags":{"_tags":[]},"cancelOnAbilityEnd":false,"cooldownType":0,"maxCharges":2,"chargeTime":"10"}</t>
+        </is>
+      </c>
+      <c r="H83" t="inlineStr">
+        <is>
+          <t>{"outputNodeGuid":"432ff1e3-b18d-476d-af80-d39ddc07402a","outputPortName":"de0ba361-3aba-4ef0-bb07-9b418fcae591","inputNodeGuid":"e33ab94c-1496-4d6a-ba5e-1afd38bb0c30","inputPortName":"输入"}</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84"/>
+      <c r="B84"/>
+      <c r="C84"/>
+      <c r="D84"/>
+      <c r="E84"/>
       <c r="F84">
         <v>12</v>
       </c>
-      <c r="G84" t="s">
-        <v>30</v>
-      </c>
-      <c r="H84" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="85" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>{"guid":"cde57fb8-b693-4da8-a4a8-fd61e56c5dcd","nodeType":12,"position":{"x":677.5999755859375,"y":-1998.4000244140625},"targetType":1,"requiredTags":{"_tags":[]},"immunityTags":{"_tags":[]},"destroyWithNode":false,"positionSource":0,"particlePrefab":{"instanceID":45418},"particleBindingName":"down","particleOffset":{"x":0.0,"y":0.0,"z":0.0},"particleScale":{"x":1.0,"y":1.0,"z":1.0},"attachToTarget":false,"particleLoop":false}</t>
+        </is>
+      </c>
+      <c r="H84" t="inlineStr">
+        <is>
+          <t>{"outputNodeGuid":"432ff1e3-b18d-476d-af80-d39ddc07402a","outputPortName":"8dea1941-c520-4f9a-aee0-40932c8542ef","inputNodeGuid":"cde57fb8-b693-4da8-a4a8-fd61e56c5dcd","inputPortName":"输入"}</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85"/>
+      <c r="B85"/>
+      <c r="C85"/>
+      <c r="D85"/>
+      <c r="E85"/>
       <c r="F85">
         <v>0</v>
       </c>
-      <c r="G85" t="s">
-        <v>32</v>
-      </c>
-      <c r="H85" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="86" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>{"guid":"356907e0-1488-4128-bfcc-7ff73cfc3330","nodeType":0,"position":{"x":-878.4000244140625,"y":-1853.5999755859375},"targetType":1,"skillId":1007,"assetTags":{"_tags":[]},"cancelAbilitiesWithTags":{"_tags":[]},"blockAbilitiesWithTags":{"_tags":[]},"activationOwnedTags":{"_tags":[]},"activationRequiredTags":{"_tags":[]},"activationBlockedTags":{"_tags":[{"_name":"CD.Wan","_hashCode":87403585,"_shortName":"Wan","_ancestorHashCodes":[-1137859925],"_ancestorNames":["CD"]}]},"ongoingBlockedTags":{"_tags":[]},"eventOutputPorts":[]}</t>
+        </is>
+      </c>
+      <c r="H85" t="inlineStr">
+        <is>
+          <t>{"outputNodeGuid":"e33ab94c-1496-4d6a-ba5e-1afd38bb0c30","outputPortName":"对每个目标","inputNodeGuid":"091ecddb-f80b-4c00-aa06-f9bc718618d2","inputPortName":"输入"}</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86"/>
+      <c r="B86"/>
+      <c r="C86"/>
+      <c r="D86"/>
+      <c r="E86"/>
       <c r="F86">
         <v>4</v>
       </c>
-      <c r="G86" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="87" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>{"guid":"e33ab94c-1496-4d6a-ba5e-1afd38bb0c30","nodeType":4,"position":{"x":-452.0,"y":-1786.4000244140625},"targetType":1,"searchShapeType":0,"searchLineType":0,"positionSource":0,"positionBindingName":"center","searchCircleRadius":4.0,"searchSectorRadius":2.0,"searchSectorAngle":180.0,"searchLineDirectionOffsetAngle":0.0,"searchLineDirectionWidth":1.0,"searchLineDirectionLength":10.0,"lineStartPositionSource":0,"lineStartBindingName":"","lineEndPositionSource":1,"lineEndBindingName":"","searchLineBetweenWidth":1.0,"searchLineAbsoluteAngle":0.0,"searchLineAbsoluteWidth":1.0,"searchLineAbsoluteLength":10.0,"maxTargets":999,"searchTargetTags":{"_tags":[{"_name":"unitType.boss","_hashCode":-2067207703,"_shortName":"boss","_ancestorHashCodes":[1600484460],"_ancestorNames":["unitType"]}]},"searchExcludeTags":{"_tags":[]}}</t>
+        </is>
+      </c>
+      <c r="H86"/>
+    </row>
+    <row r="87">
+      <c r="A87"/>
       <c r="B87">
         <v>11</v>
       </c>
-      <c r="C87" t="s">
-        <v>145</v>
-      </c>
-      <c r="D87" t="s">
-        <v>146</v>
-      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>Skill_Wind</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>Wind</t>
+        </is>
+      </c>
+      <c r="E87"/>
       <c r="F87">
         <v>4</v>
       </c>
-      <c r="G87" t="s">
-        <v>147</v>
-      </c>
-      <c r="H87" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="88" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>{"guid":"e33ab94c-1496-4d6a-ba5e-1afd38bb0c30","nodeType":4,"position":{"x":-452.0,"y":-1786.4000244140625},"targetType":1,"searchShapeType":0,"searchLineType":0,"positionSource":0,"positionBindingName":"center","searchCircleRadius":2.5,"searchSectorRadius":2.0,"searchSectorAngle":180.0,"searchLineDirectionOffsetAngle":0.0,"searchLineDirectionWidth":1.0,"searchLineDirectionLength":10.0,"lineStartPositionSource":0,"lineStartBindingName":"","lineEndPositionSource":1,"lineEndBindingName":"","searchLineBetweenWidth":1.0,"searchLineAbsoluteAngle":0.0,"searchLineAbsoluteWidth":1.0,"searchLineAbsoluteLength":10.0,"maxTargets":999,"searchTargetTags":{"_tags":[{"_name":"unitType.boss","_hashCode":-2067207703,"_shortName":"boss","_ancestorHashCodes":[1600484460],"_ancestorNames":["unitType"]}]},"searchExcludeTags":{"_tags":[]}}</t>
+        </is>
+      </c>
+      <c r="H87" t="inlineStr">
+        <is>
+          <t>{"outputNodeGuid":"356907e0-1488-4128-bfcc-7ff73cfc3330","outputPortName":"动画","inputNodeGuid":"432ff1e3-b18d-476d-af80-d39ddc07402a","inputPortName":"输入"}</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88"/>
+      <c r="B88"/>
+      <c r="C88"/>
+      <c r="D88"/>
+      <c r="E88"/>
       <c r="F88">
         <v>3</v>
       </c>
-      <c r="G88" t="s">
-        <v>20</v>
-      </c>
-      <c r="H88" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="89" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>{"guid":"9d6f459d-b588-4b64-843b-1b71e8f299ae","nodeType":3,"position":{"x":-1186.4000244140625,"y":-2011.199951171875},"targetType":1,"assetTags":{"_tags":[]},"grantedTags":{"_tags":[]},"applicationRequiredTags":{"_tags":[]},"applicationImmunityTags":{"_tags":[]},"removeGameEffectsWithTags":{"_tags":[]},"durationType":0,"duration":"0","isPeriodic":false,"period":"1","executeOnApplication":false,"attributeModifiers":[{"attrType":100,"operation":0,"magnitudeSourceType":0,"fixedValue":10.0,"formula":"","mmcType":0,"setByCallerKey":"","mmcCaptureAttribute":200,"mmcAttributeSource":0,"mmcCoefficient":1.0,"mmcUseSnapshot":true}],"stackType":0,"stackLimit":0,"stackDurationRefreshPolicy":0,"stackPeriodResetPolicy":0,"stackExpirationPolicy":0,"stackOverflowPolicy":0,"ongoingRequiredTags":{"_tags":[]},"cancelOnAbilityEnd":true}</t>
+        </is>
+      </c>
+      <c r="H88" t="inlineStr">
+        <is>
+          <t>{"outputNodeGuid":"356907e0-1488-4128-bfcc-7ff73cfc3330","outputPortName":"冷却","inputNodeGuid":"c28fb88d-51b1-47b2-be59-859e0ac638e3","inputPortName":"输入"}</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89"/>
+      <c r="B89"/>
+      <c r="C89"/>
+      <c r="D89"/>
+      <c r="E89"/>
       <c r="F89">
         <v>10</v>
       </c>
-      <c r="G89" t="s">
-        <v>148</v>
-      </c>
-      <c r="H89" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="90" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>{"guid":"c28fb88d-51b1-47b2-be59-859e0ac638e3","nodeType":10,"position":{"x":-1186.4000244140625,"y":-1747.199951171875},"targetType":1,"assetTags":{"_tags":[]},"grantedTags":{"_tags":[{"_name":"CD.Wind","_hashCode":-1394424629,"_shortName":"践踏","_ancestorHashCodes":[-1137859925],"_ancestorNames":["CD"]}]},"applicationRequiredTags":{"_tags":[]},"applicationImmunityTags":{"_tags":[]},"removeGameEffectsWithTags":{"_tags":[]},"durationType":1,"duration":"5","isPeriodic":false,"period":"1","executeOnApplication":false,"attributeModifiers":[],"stackType":0,"stackLimit":0,"stackDurationRefreshPolicy":0,"stackPeriodResetPolicy":0,"stackExpirationPolicy":0,"stackOverflowPolicy":0,"ongoingRequiredTags":{"_tags":[]},"cancelOnAbilityEnd":false,"cooldownType":0,"maxCharges":2,"chargeTime":"10"}</t>
+        </is>
+      </c>
+      <c r="H89" t="inlineStr">
+        <is>
+          <t>{"outputNodeGuid":"356907e0-1488-4128-bfcc-7ff73cfc3330","outputPortName":"消耗","inputNodeGuid":"9d6f459d-b588-4b64-843b-1b71e8f299ae","inputPortName":"输入"}</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90"/>
+      <c r="B90"/>
+      <c r="C90"/>
+      <c r="D90"/>
+      <c r="E90"/>
       <c r="F90">
         <v>0</v>
       </c>
-      <c r="G90" t="s">
-        <v>149</v>
-      </c>
-      <c r="H90" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="91" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>{"guid":"356907e0-1488-4128-bfcc-7ff73cfc3330","nodeType":0,"position":{"x":-878.4000244140625,"y":-1853.5999755859375},"targetType":1,"skillId":1003,"assetTags":{"_tags":[]},"cancelAbilitiesWithTags":{"_tags":[]},"blockAbilitiesWithTags":{"_tags":[]},"activationOwnedTags":{"_tags":[]},"activationRequiredTags":{"_tags":[]},"activationBlockedTags":{"_tags":[{"_name":"CD.Wind","_hashCode":-1394424629,"_shortName":"践踏","_ancestorHashCodes":[-1137859925],"_ancestorNames":["CD"]}]},"ongoingBlockedTags":{"_tags":[]},"eventOutputPorts":[]}</t>
+        </is>
+      </c>
+      <c r="H90" t="inlineStr">
+        <is>
+          <t>{"outputNodeGuid":"e33ab94c-1496-4d6a-ba5e-1afd38bb0c30","outputPortName":"对每个目标","inputNodeGuid":"cb1df36f-5729-423e-9d1a-287db5a433f0","inputPortName":"输入"}</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91"/>
+      <c r="B91"/>
+      <c r="C91"/>
+      <c r="D91"/>
+      <c r="E91"/>
       <c r="F91">
         <v>12</v>
       </c>
-      <c r="G91" t="s">
-        <v>150</v>
-      </c>
-      <c r="H91" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="92" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>{"guid":"cde57fb8-b693-4da8-a4a8-fd61e56c5dcd","nodeType":12,"position":{"x":677.5999755859375,"y":-1998.4000244140625},"targetType":1,"requiredTags":{"_tags":[]},"immunityTags":{"_tags":[]},"destroyWithNode":false,"positionSource":0,"particlePrefab":{"instanceID":45504},"particleBindingName":"down","particleOffset":{"x":0.0,"y":0.0,"z":0.0},"particleScale":{"x":1.0,"y":1.0,"z":1.0},"attachToTarget":false,"particleLoop":false}</t>
+        </is>
+      </c>
+      <c r="H91" t="inlineStr">
+        <is>
+          <t>{"outputNodeGuid":"cb1df36f-5729-423e-9d1a-287db5a433f0","outputPortName":"初始效果","inputNodeGuid":"93ec5a43-cc34-4e4a-acb3-39da2f2c3010","inputPortName":"输入"}</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92"/>
+      <c r="B92"/>
+      <c r="C92"/>
+      <c r="D92"/>
+      <c r="E92"/>
       <c r="F92">
         <v>20</v>
       </c>
-      <c r="G92" t="s">
-        <v>152</v>
-      </c>
-      <c r="H92" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="93" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>{"guid":"432ff1e3-b18d-476d-af80-d39ddc07402a","nodeType":20,"position":{"x":-452.0,"y":-2375.199951171875},"targetType":1,"skeletonDataAsset":{"instanceID":44398},"animationName":"Skill_attack_1005","animationDuration":"16","isAnimationLooping":false,"timeEffects":[{"triggerTime":7,"portId":"de0ba361-3aba-4ef0-bb07-9b418fcae591"},{"triggerTime":16,"portId":"f41c85e0-7f26-494e-9ffc-4a06c980f811"}],"timeCues":[{"startTime":6,"endTime":55,"portId":"8dea1941-c520-4f9a-aee0-40932c8542ef"}]}</t>
+        </is>
+      </c>
+      <c r="H92" t="inlineStr">
+        <is>
+          <t>{"outputNodeGuid":"432ff1e3-b18d-476d-af80-d39ddc07402a","outputPortName":"f41c85e0-7f26-494e-9ffc-4a06c980f811","inputNodeGuid":"f73ba91e-a76b-456c-b19c-a5176809d5f5","inputPortName":"输入"}</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93"/>
+      <c r="B93"/>
+      <c r="C93"/>
+      <c r="D93"/>
+      <c r="E93"/>
       <c r="F93">
         <v>7</v>
       </c>
-      <c r="G93" t="s">
-        <v>22</v>
-      </c>
-      <c r="H93" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="94" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>{"guid":"f73ba91e-a76b-456c-b19c-a5176809d5f5","nodeType":7,"position":{"x":700.0,"y":-1856.800048828125},"targetType":1,"endType":0}</t>
+        </is>
+      </c>
+      <c r="H93" t="inlineStr">
+        <is>
+          <t>{"outputNodeGuid":"432ff1e3-b18d-476d-af80-d39ddc07402a","outputPortName":"de0ba361-3aba-4ef0-bb07-9b418fcae591","inputNodeGuid":"e33ab94c-1496-4d6a-ba5e-1afd38bb0c30","inputPortName":"输入"}</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94"/>
+      <c r="B94"/>
+      <c r="C94"/>
+      <c r="D94"/>
+      <c r="E94"/>
       <c r="F94">
         <v>11</v>
       </c>
-      <c r="G94" t="s">
-        <v>153</v>
-      </c>
-      <c r="H94" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="95" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>{"guid":"cb1df36f-5729-423e-9d1a-287db5a433f0","nodeType":11,"position":{"x":18.399993896484376,"y":-1786.4000244140625},"targetType":0,"assetTags":{"_tags":[{"_name":"Buff.DeBuff.Stun","_hashCode":1791562953,"_shortName":"Stun","_ancestorHashCodes":[937056111,321157895],"_ancestorNames":["Buff","Buff.DeBuff"]}]},"grantedTags":{"_tags":[{"_name":"Buff.DeBuff.Stun","_hashCode":1791562953,"_shortName":"Stun","_ancestorHashCodes":[937056111,321157895],"_ancestorNames":["Buff","Buff.DeBuff"]}]},"applicationRequiredTags":{"_tags":[]},"applicationImmunityTags":{"_tags":[]},"removeGameEffectsWithTags":{"_tags":[]},"durationType":1,"duration":"4","isPeriodic":false,"period":"1","executeOnApplication":false,"attributeModifiers":[],"stackType":1,"stackLimit":1,"stackDurationRefreshPolicy":0,"stackPeriodResetPolicy":1,"stackExpirationPolicy":0,"stackOverflowPolicy":0,"ongoingRequiredTags":{"_tags":[]},"cancelOnAbilityEnd":false,"buffId":0}</t>
+        </is>
+      </c>
+      <c r="H94" t="inlineStr">
+        <is>
+          <t>{"outputNodeGuid":"432ff1e3-b18d-476d-af80-d39ddc07402a","outputPortName":"8dea1941-c520-4f9a-aee0-40932c8542ef","inputNodeGuid":"cde57fb8-b693-4da8-a4a8-fd61e56c5dcd","inputPortName":"输入"}</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95"/>
+      <c r="B95"/>
+      <c r="C95"/>
+      <c r="D95"/>
+      <c r="E95"/>
       <c r="F95">
         <v>12</v>
       </c>
-      <c r="G95" t="s">
-        <v>154</v>
-      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>{"guid":"93ec5a43-cc34-4e4a-acb3-39da2f2c3010","nodeType":12,"position":{"x":468.79998779296877,"y":-1749.5999755859375},"targetType":1,"requiredTags":{"_tags":[]},"immunityTags":{"_tags":[]},"destroyWithNode":true,"positionSource":2,"particlePrefab":{"instanceID":45630},"particleBindingName":"head","particleOffset":{"x":0.0,"y":0.0,"z":0.0},"particleScale":{"x":1.0,"y":1.0,"z":1.0},"attachToTarget":true,"particleLoop":true}</t>
+        </is>
+      </c>
+      <c r="H95"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:H12" xr:uid="{00000000-0009-0000-0000-000000000000}"/>

--- a/Luban/MiniTemplate/Datas/#SkillGraph.xlsx
+++ b/Luban/MiniTemplate/Datas/#SkillGraph.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\ugit\XHFrameworkSkill\Luban\MiniTemplate\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{351FAC69-8C6B-414F-A23D-653ACC6457B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98CA6CEA-1F76-4EA9-9526-47BA135EC904}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9410" yWindow="2860" windowWidth="19200" windowHeight="9970" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="144">
   <si>
     <t>##var</t>
   </si>
@@ -28,9 +28,6 @@
     <t>Id</t>
   </si>
   <si>
-    <t>SkillId</t>
-  </si>
-  <si>
     <t>Name</t>
   </si>
   <si>
@@ -67,9 +64,6 @@
     <t>主键ID</t>
   </si>
   <si>
-    <t>技能标识</t>
-  </si>
-  <si>
     <t>技能名称</t>
   </si>
   <si>
@@ -77,9 +71,6 @@
   </si>
   <si>
     <t>连接数据JSON</t>
-  </si>
-  <si>
-    <t>Skill_Wan</t>
   </si>
   <si>
     <t>{"guid":"9d6f459d-b588-4b64-843b-1b71e8f299ae","nodeType":3,"position":{"x":-1186.4000244140625,"y":-2011.199951171875},"targetType":1,"assetTags":{"_tags":[]},"grantedTags":{"_tags":[]},"applicationRequiredTags":{"_tags":[]},"applicationImmunityTags":{"_tags":[]},"removeGameEffectsWithTags":{"_tags":[]},"durationType":0,"duration":"0","isPeriodic":false,"period":"1","executeOnApplication":false,"attributeModifiers":[{"attrType":100,"operation":0,"magnitudeSourceType":0,"fixedValue":10.0,"formula":"","mmcType":0,"setByCallerKey":"","mmcCaptureAttribute":200,"mmcAttributeSource":0,"mmcCoefficient":1.0,"mmcUseSnapshot":true}],"stackType":0,"stackLimit":0,"stackDurationRefreshPolicy":0,"stackPeriodResetPolicy":0,"stackExpirationPolicy":0,"stackOverflowPolicy":0,"ongoingRequiredTags":{"_tags":[]},"cancelOnAbilityEnd":true}</t>
@@ -145,45 +136,21 @@
     </r>
   </si>
   <si>
-    <t>Skill_BeRecBlood</t>
-  </si>
-  <si>
     <t>BeRecBlood</t>
   </si>
   <si>
-    <t>{"guid":"a8c2d6c0-65f1-4bed-8a6a-70197e84bb56","nodeType":2,"position":{"x":933.5999755859375,"y":226.39999389648438},"targetType":1,"assetTags":{"_tags":[]},"grantedTags":{"_tags":[]},"applicationRequiredTags":{"_tags":[]},"applicationImmunityTags":{"_tags":[]},"removeGameEffectsWithTags":{"_tags":[]},"durationType":0,"duration":"0","isPeriodic":false,"period":"1","executeOnApplication":false,"attributeModifiers":[],"stackType":0,"stackLimit":0,"stackDurationRefreshPolicy":0,"stackPeriodResetPolicy":0,"stackExpirationPolicy":0,"stackOverflowPolicy":0,"ongoingRequiredTags":{"_tags":[]},"cancelOnAbilityEnd":false,"healSourceType":0,"healFixedValue":2.0,"healFormula":"","healMMCType":0,"healSetByCallerKey":"","healMMCCaptureAttribute":202,"healMMCAttributeSource":0,"healMMCCoefficient":1.0,"healMMCUseSnapshot":true,"healMultiplyByStackCount":false,"healCalculationType":0}</t>
-  </si>
-  <si>
     <t>{"outputNodeGuid":"426755b7-c39a-4524-9cb5-960a31a19c10","outputPortName":"每周期执行","inputNodeGuid":"a8c2d6c0-65f1-4bed-8a6a-70197e84bb56","inputPortName":"输入"}</t>
   </si>
   <si>
-    <t>{"guid":"d086a8c9-8557-4a61-8fd2-64b3c1e543a3","nodeType":14,"position":{"x":1148.800048828125,"y":208.0},"targetType":1,"requiredTags":{"_tags":[]},"immunityTags":{"_tags":[]},"destroyWithNode":false,"positionSource":0,"positionBindingName":"head","textType":1,"fixedText":"","contextDataKey":"Heal","textColor":{"r":0.04063582420349121,"g":1.0,"b":0.0,"a":1.0},"criticalColor":{"r":1.0,"g":0.5,"b":0.0,"a":1.0},"missColor":{"r":0.5,"g":0.5,"b":0.5,"a":1.0},"fontSize":45.0,"criticalFontSize":60.0,"duration":1.5,"offset":{"x":0.0,"y":0.0},"moveDirection":{"x":0.0,"y":1.0}}</t>
-  </si>
-  <si>
     <t>{"outputNodeGuid":"a8c2d6c0-65f1-4bed-8a6a-70197e84bb56","outputPortName":"完成效果","inputNodeGuid":"d086a8c9-8557-4a61-8fd2-64b3c1e543a3","inputPortName":"输入"}</t>
   </si>
   <si>
-    <t>{"guid":"d5809887-df6e-4604-bd09-36cef191ce83","nodeType":0,"position":{"x":210.39999389648438,"y":114.39999389648438},"targetType":1,"skillId":1009,"assetTags":{"_tags":[]},"cancelAbilitiesWithTags":{"_tags":[]},"blockAbilitiesWithTags":{"_tags":[]},"activationOwnedTags":{"_tags":[]},"activationRequiredTags":{"_tags":[]},"activationBlockedTags":{"_tags":[]},"ongoingBlockedTags":{"_tags":[]},"eventOutputPorts":[{"eventType":2,"customEventTag":""}]}</t>
-  </si>
-  <si>
     <t>{"outputNodeGuid":"d5809887-df6e-4604-bd09-36cef191ce83","outputPortName":"激活","inputNodeGuid":"426755b7-c39a-4524-9cb5-960a31a19c10","inputPortName":"输入"}</t>
   </si>
   <si>
-    <t>{"guid":"7eefd9ae-c57e-439d-b1b6-e7f4e52f2f6f","nodeType":10,"position":{"x":370.4000244140625,"y":484.79998779296877},"targetType":1,"assetTags":{"_tags":[]},"grantedTags":{"_tags":[{"_name":"CD.被动回血","_hashCode":-1099994396,"_shortName":"被动回血","_ancestorHashCodes":[-1137859925],"_ancestorNames":["CD"]}]},"applicationRequiredTags":{"_tags":[]},"applicationImmunityTags":{"_tags":[]},"removeGameEffectsWithTags":{"_tags":[]},"durationType":1,"duration":"3","isPeriodic":false,"period":"1","executeOnApplication":false,"attributeModifiers":[],"stackType":0,"stackLimit":0,"stackDurationRefreshPolicy":0,"stackPeriodResetPolicy":0,"stackExpirationPolicy":0,"stackOverflowPolicy":0,"ongoingRequiredTags":{"_tags":[]},"cancelOnAbilityEnd":false,"cooldownType":0,"maxCharges":2,"chargeTime":"10"}</t>
-  </si>
-  <si>
     <t>{"outputNodeGuid":"7eefd9ae-c57e-439d-b1b6-e7f4e52f2f6f","outputPortName":"完成效果","inputNodeGuid":"426755b7-c39a-4524-9cb5-960a31a19c10","inputPortName":"输入"}</t>
   </si>
   <si>
-    <t>{"guid":"426755b7-c39a-4524-9cb5-960a31a19c10","nodeType":11,"position":{"x":587.2000122070313,"y":114.39999389648438},"targetType":1,"assetTags":{"_tags":[]},"grantedTags":{"_tags":[]},"applicationRequiredTags":{"_tags":[]},"applicationImmunityTags":{"_tags":[]},"removeGameEffectsWithTags":{"_tags":[]},"durationType":2,"duration":"10","isPeriodic":true,"period":"1","executeOnApplication":false,"attributeModifiers":[],"stackType":1,"stackLimit":1,"stackDurationRefreshPolicy":0,"stackPeriodResetPolicy":0,"stackExpirationPolicy":0,"stackOverflowPolicy":0,"ongoingRequiredTags":{"_tags":[{"_name":"CD.被动回血","_hashCode":-1099994396,"_shortName":"被动回血","_ancestorHashCodes":[-1137859925],"_ancestorNames":["CD"]}]},"cancelOnAbilityEnd":true,"buffId":0}</t>
-  </si>
-  <si>
-    <t>{"outputNodeGuid":"d5809887-df6e-4604-bd09-36cef191ce83","outputPortName":"受到伤害时","inputNodeGuid":"7eefd9ae-c57e-439d-b1b6-e7f4e52f2f6f","inputPortName":"输入"}</t>
-  </si>
-  <si>
-    <t>Skill_Blood</t>
-  </si>
-  <si>
     <t>Blood</t>
   </si>
   <si>
@@ -196,15 +163,9 @@
     <t>{"guid":"9d6f459d-b588-4b64-843b-1b71e8f299ae","nodeType":3,"position":{"x":-1186.4000244140625,"y":-2019.199951171875},"targetType":1,"assetTags":{"_tags":[]},"grantedTags":{"_tags":[]},"applicationRequiredTags":{"_tags":[]},"applicationImmunityTags":{"_tags":[]},"removeGameEffectsWithTags":{"_tags":[]},"durationType":0,"duration":"0","isPeriodic":false,"period":"1","executeOnApplication":false,"attributeModifiers":[{"attrType":100,"operation":0,"magnitudeSourceType":0,"fixedValue":10.0,"formula":"","mmcType":0,"setByCallerKey":"","mmcCaptureAttribute":200,"mmcAttributeSource":0,"mmcCoefficient":1.0,"mmcUseSnapshot":true}],"stackType":0,"stackLimit":0,"stackDurationRefreshPolicy":0,"stackPeriodResetPolicy":0,"stackExpirationPolicy":0,"stackOverflowPolicy":0,"ongoingRequiredTags":{"_tags":[]},"cancelOnAbilityEnd":true}</t>
   </si>
   <si>
-    <t>{"guid":"c28fb88d-51b1-47b2-be59-859e0ac638e3","nodeType":10,"position":{"x":-1186.4000244140625,"y":-1825.5999755859375},"targetType":1,"assetTags":{"_tags":[]},"grantedTags":{"_tags":[{"_name":"CD.流血","_hashCode":-1868013560,"_shortName":"流血","_ancestorHashCodes":[-1137859925],"_ancestorNames":["CD"]}]},"applicationRequiredTags":{"_tags":[]},"applicationImmunityTags":{"_tags":[]},"removeGameEffectsWithTags":{"_tags":[]},"durationType":1,"duration":"3","isPeriodic":false,"period":"1","executeOnApplication":false,"attributeModifiers":[],"stackType":0,"stackLimit":0,"stackDurationRefreshPolicy":0,"stackPeriodResetPolicy":0,"stackExpirationPolicy":0,"stackOverflowPolicy":0,"ongoingRequiredTags":{"_tags":[]},"cancelOnAbilityEnd":false,"cooldownType":0,"maxCharges":2,"chargeTime":"10"}</t>
-  </si>
-  <si>
     <t>{"guid":"c353e286-8ef0-460a-b917-887f2aeb390a","nodeType":14,"position":{"x":383.20001220703127,"y":-1531.199951171875},"targetType":1,"requiredTags":{"_tags":[]},"immunityTags":{"_tags":[]},"destroyWithNode":false,"positionSource":2,"positionBindingName":"head","textType":0,"fixedText":"","contextDataKey":"DamageResult","textColor":{"r":1.0,"g":0.0,"b":0.0,"a":1.0},"criticalColor":{"r":1.0,"g":0.5,"b":0.0,"a":1.0},"missColor":{"r":0.5,"g":0.5,"b":0.5,"a":1.0},"fontSize":45.0,"criticalFontSize":60.0,"duration":1.5,"offset":{"x":0.0,"y":0.0},"moveDirection":{"x":0.0,"y":1.0}}</t>
   </si>
   <si>
-    <t>{"guid":"356907e0-1488-4128-bfcc-7ff73cfc3330","nodeType":0,"position":{"x":-878.4000244140625,"y":-1853.5999755859375},"targetType":1,"skillId":1002,"assetTags":{"_tags":[]},"cancelAbilitiesWithTags":{"_tags":[]},"blockAbilitiesWithTags":{"_tags":[]},"activationOwnedTags":{"_tags":[]},"activationRequiredTags":{"_tags":[]},"activationBlockedTags":{"_tags":[{"_name":"CD.流血","_hashCode":-1868013560,"_shortName":"流血","_ancestorHashCodes":[-1137859925],"_ancestorNames":["CD"]}]},"ongoingBlockedTags":{"_tags":[]},"eventOutputPorts":[]}</t>
-  </si>
-  <si>
     <t>{"outputNodeGuid":"f8947676-1084-4228-b991-1509cc7fe851","outputPortName":"完成效果","inputNodeGuid":"c353e286-8ef0-460a-b917-887f2aeb390a","inputPortName":"输入"}</t>
   </si>
   <si>
@@ -229,15 +190,9 @@
     <t>{"guid":"e33ab94c-1496-4d6a-ba5e-1afd38bb0c30","nodeType":4,"position":{"x":-452.0,"y":-1786.4000244140625},"targetType":1,"searchShapeType":1,"searchLineType":0,"positionSource":0,"positionBindingName":"center","searchCircleRadius":5.0,"searchSectorRadius":2.0,"searchSectorAngle":180.0,"searchLineDirectionOffsetAngle":0.0,"searchLineDirectionWidth":1.0,"searchLineDirectionLength":10.0,"lineStartPositionSource":0,"lineStartBindingName":"","lineEndPositionSource":1,"lineEndBindingName":"","searchLineBetweenWidth":1.0,"searchLineAbsoluteAngle":0.0,"searchLineAbsoluteWidth":1.0,"searchLineAbsoluteLength":10.0,"maxTargets":999,"searchTargetTags":{"_tags":[{"_name":"unitType.monster","_hashCode":-2021655864,"_shortName":"monster","_ancestorHashCodes":[1600484460],"_ancestorNames":["unitType"]}]},"searchExcludeTags":{"_tags":[]}}</t>
   </si>
   <si>
-    <t>Skill_FireCircle</t>
-  </si>
-  <si>
     <t>FireCircle</t>
   </si>
   <si>
-    <t>{"guid":"356907e0-1488-4128-bfcc-7ff73cfc3330","nodeType":0,"position":{"x":-878.4000244140625,"y":-1853.5999755859375},"targetType":1,"skillId":1004,"assetTags":{"_tags":[]},"cancelAbilitiesWithTags":{"_tags":[]},"blockAbilitiesWithTags":{"_tags":[]},"activationOwnedTags":{"_tags":[]},"activationRequiredTags":{"_tags":[]},"activationBlockedTags":{"_tags":[{"_name":"CD.旋风斩","_hashCode":1979572373,"_shortName":"旋风斩","_ancestorHashCodes":[-1137859925],"_ancestorNames":["CD"]}]},"ongoingBlockedTags":{"_tags":[]},"eventOutputPorts":[]}</t>
-  </si>
-  <si>
     <t>{"guid":"764289ea-065e-4f48-afc0-0f6963d18d57","nodeType":14,"position":{"x":492.0,"y":-1539.199951171875},"targetType":1,"requiredTags":{"_tags":[]},"immunityTags":{"_tags":[]},"destroyWithNode":false,"positionSource":2,"positionBindingName":"head","textType":0,"fixedText":"","contextDataKey":"DamageResult","textColor":{"r":1.0,"g":0.0,"b":0.0,"a":1.0},"criticalColor":{"r":1.0,"g":0.5,"b":0.0,"a":1.0},"missColor":{"r":0.5,"g":0.5,"b":0.5,"a":1.0},"fontSize":45.0,"criticalFontSize":60.0,"duration":1.5,"offset":{"x":0.0,"y":0.0},"moveDirection":{"x":0.0,"y":1.0}}</t>
   </si>
   <si>
@@ -259,9 +214,6 @@
     <t>{"outputNodeGuid":"e33ab94c-1496-4d6a-ba5e-1afd38bb0c30","outputPortName":"对每个目标","inputNodeGuid":"a32d1135-94db-4f81-95ba-9d5f105ef8d0","inputPortName":"输入"}</t>
   </si>
   <si>
-    <t>{"guid":"c28fb88d-51b1-47b2-be59-859e0ac638e3","nodeType":10,"position":{"x":-1186.4000244140625,"y":-1747.199951171875},"targetType":1,"assetTags":{"_tags":[]},"grantedTags":{"_tags":[{"_name":"CD.旋风斩","_hashCode":1979572373,"_shortName":"旋风斩","_ancestorHashCodes":[-1137859925],"_ancestorNames":["CD"]}]},"applicationRequiredTags":{"_tags":[]},"applicationImmunityTags":{"_tags":[]},"removeGameEffectsWithTags":{"_tags":[]},"durationType":1,"duration":"15","isPeriodic":false,"period":"1","executeOnApplication":false,"attributeModifiers":[],"stackType":0,"stackLimit":0,"stackDurationRefreshPolicy":0,"stackPeriodResetPolicy":0,"stackExpirationPolicy":0,"stackOverflowPolicy":0,"ongoingRequiredTags":{"_tags":[]},"cancelOnAbilityEnd":false,"cooldownType":0,"maxCharges":2,"chargeTime":"10"}</t>
-  </si>
-  <si>
     <t>{"outputNodeGuid":"a32d1135-94db-4f81-95ba-9d5f105ef8d0","outputPortName":"完成效果","inputNodeGuid":"764289ea-065e-4f48-afc0-0f6963d18d57","inputPortName":"输入"}</t>
   </si>
   <si>
@@ -271,27 +223,15 @@
     <t>{"guid":"d8847c3e-459e-4589-a96b-37ebb5ec458b","nodeType":21,"position":{"x":-308.79998779296877,"y":-1769.5999755859375},"targetType":1,"assetTags":{"_tags":[]},"grantedTags":{"_tags":[]},"applicationRequiredTags":{"_tags":[]},"applicationImmunityTags":{"_tags":[]},"removeGameEffectsWithTags":{"_tags":[]},"durationType":2,"duration":"0","isPeriodic":true,"period":"0.3","executeOnApplication":false,"attributeModifiers":[],"stackType":0,"stackLimit":0,"stackDurationRefreshPolicy":0,"stackPeriodResetPolicy":0,"stackExpirationPolicy":0,"stackOverflowPolicy":0,"ongoingRequiredTags":{"_tags":[]},"cancelOnAbilityEnd":true}</t>
   </si>
   <si>
-    <t>Skill_God</t>
-  </si>
-  <si>
     <t>God</t>
   </si>
   <si>
     <t>{"guid":"cde57fb8-b693-4da8-a4a8-fd61e56c5dcd","nodeType":12,"position":{"x":677.5999755859375,"y":-1998.4000244140625},"targetType":1,"requiredTags":{"_tags":[]},"immunityTags":{"_tags":[]},"destroyWithNode":false,"positionSource":0,"particlePrefab":{"instanceID":45540},"particleBindingName":"down","particleOffset":{"x":0.0,"y":0.0,"z":0.0},"particleScale":{"x":1.0,"y":1.0,"z":1.0},"attachToTarget":false,"particleLoop":false}</t>
   </si>
   <si>
-    <t>{"guid":"356907e0-1488-4128-bfcc-7ff73cfc3330","nodeType":0,"position":{"x":-878.4000244140625,"y":-1853.5999755859375},"targetType":1,"skillId":1006,"assetTags":{"_tags":[]},"cancelAbilitiesWithTags":{"_tags":[]},"blockAbilitiesWithTags":{"_tags":[]},"activationOwnedTags":{"_tags":[]},"activationRequiredTags":{"_tags":[]},"activationBlockedTags":{"_tags":[{"_name":"CD.回血","_hashCode":1163914435,"_shortName":"回血","_ancestorHashCodes":[-1137859925],"_ancestorNames":["CD"]}]},"ongoingBlockedTags":{"_tags":[]},"eventOutputPorts":[]}</t>
-  </si>
-  <si>
-    <t>{"guid":"c28fb88d-51b1-47b2-be59-859e0ac638e3","nodeType":10,"position":{"x":-1186.4000244140625,"y":-1747.199951171875},"targetType":1,"assetTags":{"_tags":[]},"grantedTags":{"_tags":[{"_name":"CD.神罗天正","_hashCode":810112138,"_shortName":"神罗天正","_ancestorHashCodes":[-1137859925],"_ancestorNames":["CD"]}]},"applicationRequiredTags":{"_tags":[]},"applicationImmunityTags":{"_tags":[]},"removeGameEffectsWithTags":{"_tags":[]},"durationType":1,"duration":"5","isPeriodic":false,"period":"1","executeOnApplication":false,"attributeModifiers":[],"stackType":0,"stackLimit":0,"stackDurationRefreshPolicy":0,"stackPeriodResetPolicy":0,"stackExpirationPolicy":0,"stackOverflowPolicy":0,"ongoingRequiredTags":{"_tags":[]},"cancelOnAbilityEnd":false,"cooldownType":0,"maxCharges":2,"chargeTime":"10"}</t>
-  </si>
-  <si>
     <t>{"guid":"091ecddb-f80b-4c00-aa06-f9bc718618d2","nodeType":22,"position":{"x":-93.60000610351563,"y":-1708.800048828125},"targetType":0,"assetTags":{"_tags":[]},"grantedTags":{"_tags":[]},"applicationRequiredTags":{"_tags":[]},"applicationImmunityTags":{"_tags":[]},"removeGameEffectsWithTags":{"_tags":[]},"durationType":1,"duration":"0.5","isPeriodic":false,"period":"1","executeOnApplication":false,"attributeModifiers":[],"stackType":0,"stackLimit":0,"stackDurationRefreshPolicy":0,"stackPeriodResetPolicy":0,"stackExpirationPolicy":0,"stackOverflowPolicy":0,"ongoingRequiredTags":{"_tags":[]},"cancelOnAbilityEnd":false,"displaceType":1,"speed":10.0,"distance":3.0,"minDistance":0.5,"pointSource":0,"pointBindingName":""}</t>
   </si>
   <si>
-    <t>Skill_RecBlood</t>
-  </si>
-  <si>
     <t>RecBlood</t>
   </si>
   <si>
@@ -304,15 +244,9 @@
     <t>{"outputNodeGuid":"356907e0-1488-4128-bfcc-7ff73cfc3330","outputPortName":"激活","inputNodeGuid":"5fb21a71-2fff-4477-b79b-4c1a8bc10f9a","inputPortName":"输入"}</t>
   </si>
   <si>
-    <t>{"guid":"c28fb88d-51b1-47b2-be59-859e0ac638e3","nodeType":10,"position":{"x":-1223.199951171875,"y":-1826.4000244140625},"targetType":1,"assetTags":{"_tags":[]},"grantedTags":{"_tags":[{"_name":"CD.回血","_hashCode":1163914435,"_shortName":"回血","_ancestorHashCodes":[-1137859925],"_ancestorNames":["CD"]}]},"applicationRequiredTags":{"_tags":[]},"applicationImmunityTags":{"_tags":[]},"removeGameEffectsWithTags":{"_tags":[]},"durationType":1,"duration":"3","isPeriodic":false,"period":"1","executeOnApplication":false,"attributeModifiers":[],"stackType":0,"stackLimit":0,"stackDurationRefreshPolicy":0,"stackPeriodResetPolicy":0,"stackExpirationPolicy":0,"stackOverflowPolicy":0,"ongoingRequiredTags":{"_tags":[]},"cancelOnAbilityEnd":false,"cooldownType":0,"maxCharges":2,"chargeTime":"10"}</t>
-  </si>
-  <si>
     <t>{"outputNodeGuid":"5fb21a71-2fff-4477-b79b-4c1a8bc10f9a","outputPortName":"初始效果","inputNodeGuid":"cde57fb8-b693-4da8-a4a8-fd61e56c5dcd","inputPortName":"输入"}</t>
   </si>
   <si>
-    <t>{"guid":"356907e0-1488-4128-bfcc-7ff73cfc3330","nodeType":0,"position":{"x":-902.4000244140625,"y":-1844.0},"targetType":1,"skillId":1008,"assetTags":{"_tags":[]},"cancelAbilitiesWithTags":{"_tags":[]},"blockAbilitiesWithTags":{"_tags":[]},"activationOwnedTags":{"_tags":[]},"activationRequiredTags":{"_tags":[]},"activationBlockedTags":{"_tags":[{"_name":"CD.回血","_hashCode":1163914435,"_shortName":"回血","_ancestorHashCodes":[-1137859925],"_ancestorNames":["CD"]}]},"ongoingBlockedTags":{"_tags":[]},"eventOutputPorts":[]}</t>
-  </si>
-  <si>
     <t>{"outputNodeGuid":"5fb21a71-2fff-4477-b79b-4c1a8bc10f9a","outputPortName":"完成效果","inputNodeGuid":"011aad56-e96c-41eb-9d85-e793d74a40bb","inputPortName":"输入"}</t>
   </si>
   <si>
@@ -325,81 +259,33 @@
     <t>{"guid":"becb4d53-8a9e-4dc0-95a3-618d1e79ecc7","nodeType":14,"position":{"x":-313.6000061035156,"y":-1951.199951171875},"targetType":1,"requiredTags":{"_tags":[]},"immunityTags":{"_tags":[]},"destroyWithNode":false,"positionSource":2,"positionBindingName":"head","textType":1,"fixedText":"","contextDataKey":"Heal","textColor":{"r":0.0,"g":1.0,"b":0.10971927642822266,"a":1.0},"criticalColor":{"r":1.0,"g":0.5,"b":0.0,"a":1.0},"missColor":{"r":0.5,"g":0.5,"b":0.5,"a":1.0},"fontSize":45.0,"criticalFontSize":60.0,"duration":1.5,"offset":{"x":0.0,"y":0.0},"moveDirection":{"x":0.0,"y":1.0}}</t>
   </si>
   <si>
-    <t>Skill_RuFood</t>
-  </si>
-  <si>
     <t>RuFood</t>
   </si>
   <si>
-    <t>{"guid":"eae41233-d297-46fe-a6c8-0b5c876fbb2a","nodeType":1,"position":{"x":46.399993896484378,"y":-1808.800048828125},"targetType":0,"assetTags":{"_tags":[]},"grantedTags":{"_tags":[]},"applicationRequiredTags":{"_tags":[]},"applicationImmunityTags":{"_tags":[]},"removeGameEffectsWithTags":{"_tags":[]},"durationType":0,"duration":"0","isPeriodic":false,"period":"1","executeOnApplication":false,"attributeModifiers":[],"stackType":0,"stackLimit":0,"stackDurationRefreshPolicy":0,"stackPeriodResetPolicy":0,"stackExpirationPolicy":0,"stackOverflowPolicy":0,"ongoingRequiredTags":{"_tags":[]},"cancelOnAbilityEnd":true,"damageType":0,"damageSourceType":0,"damageFixedValue":10.0,"damageFormula":"","damageMMCType":0,"damageSetByCallerKey":"","damageMMCCaptureAttribute":200,"damageMMCAttributeSource":0,"damageMMCCoefficient":1.0,"damageMMCUseSnapshot":true,"damageMultiplyByStackCount":false,"damageCalculationType":0}</t>
-  </si>
-  <si>
-    <t>{"guid":"2d7e41c4-8e90-4b61-879c-4b2e5b9486db","nodeType":14,"position":{"x":408.79998779296877,"y":-1747.199951171875},"targetType":1,"requiredTags":{"_tags":[]},"immunityTags":{"_tags":[]},"destroyWithNode":false,"positionSource":2,"positionBindingName":"head","textType":0,"fixedText":"","contextDataKey":"DamageResult","textColor":{"r":0.0,"g":0.323091983795166,"b":1.0,"a":1.0},"criticalColor":{"r":1.0,"g":0.5,"b":0.0,"a":1.0},"missColor":{"r":0.5,"g":0.5,"b":0.5,"a":1.0},"fontSize":45.0,"criticalFontSize":60.0,"duration":1.5,"offset":{"x":0.0,"y":0.0},"moveDirection":{"x":0.0,"y":1.0}}</t>
-  </si>
-  <si>
-    <t>{"guid":"c28fb88d-51b1-47b2-be59-859e0ac638e3","nodeType":10,"position":{"x":-1186.4000244140625,"y":-1747.199951171875},"targetType":1,"assetTags":{"_tags":[]},"grantedTags":{"_tags":[{"_name":"CD.火球术","_hashCode":-1710429436,"_shortName":"火球术","_ancestorHashCodes":[-1137859925],"_ancestorNames":["CD"]}]},"applicationRequiredTags":{"_tags":[]},"applicationImmunityTags":{"_tags":[]},"removeGameEffectsWithTags":{"_tags":[]},"durationType":1,"duration":"1","isPeriodic":false,"period":"1","executeOnApplication":false,"attributeModifiers":[],"stackType":0,"stackLimit":0,"stackDurationRefreshPolicy":0,"stackPeriodResetPolicy":0,"stackExpirationPolicy":0,"stackOverflowPolicy":0,"ongoingRequiredTags":{"_tags":[]},"cancelOnAbilityEnd":false,"cooldownType":0,"maxCharges":2,"chargeTime":"10"}</t>
-  </si>
-  <si>
     <t>{"outputNodeGuid":"432ff1e3-b18d-476d-af80-d39ddc07402a","outputPortName":"de0ba361-3aba-4ef0-bb07-9b418fcae591","inputNodeGuid":"90bacd9f-d882-4bba-aaa8-41ed993ac3ff","inputPortName":"输入"}</t>
   </si>
   <si>
-    <t>{"guid":"356907e0-1488-4128-bfcc-7ff73cfc3330","nodeType":0,"position":{"x":-878.4000244140625,"y":-1853.5999755859375},"targetType":1,"skillId":1004,"assetTags":{"_tags":[]},"cancelAbilitiesWithTags":{"_tags":[]},"blockAbilitiesWithTags":{"_tags":[]},"activationOwnedTags":{"_tags":[]},"activationRequiredTags":{"_tags":[]},"activationBlockedTags":{"_tags":[{"_name":"CD.火球术","_hashCode":-1710429436,"_shortName":"火球术","_ancestorHashCodes":[-1137859925],"_ancestorNames":["CD"]}]},"ongoingBlockedTags":{"_tags":[{"_name":"Buff.DeBuff.Stun","_hashCode":1791562953,"_shortName":"Stun","_ancestorHashCodes":[937056111,321157895],"_ancestorNames":["Buff","Buff.DeBuff"]}]},"eventOutputPorts":[]}</t>
-  </si>
-  <si>
     <t>{"outputNodeGuid":"90bacd9f-d882-4bba-aaa8-41ed993ac3ff","outputPortName":"碰撞时","inputNodeGuid":"eae41233-d297-46fe-a6c8-0b5c876fbb2a","inputPortName":"输入"}</t>
   </si>
   <si>
-    <t>{"guid":"3aafa9a5-4766-4204-91ab-d797aeb3c0e1","nodeType":7,"position":{"x":580.7999877929688,"y":-1987.199951171875},"targetType":1,"endType":0}</t>
-  </si>
-  <si>
     <t>{"outputNodeGuid":"eae41233-d297-46fe-a6c8-0b5c876fbb2a","outputPortName":"完成效果","inputNodeGuid":"2d7e41c4-8e90-4b61-879c-4b2e5b9486db","inputPortName":"输入"}</t>
   </si>
   <si>
-    <t>{"guid":"432ff1e3-b18d-476d-af80-d39ddc07402a","nodeType":20,"position":{"x":-491.20001220703127,"y":-2478.39990234375},"targetType":1,"skeletonDataAsset":{"instanceID":44578},"animationName":"Attack","animationDuration":"24","isAnimationLooping":false,"timeEffects":[{"triggerTime":11,"portId":"de0ba361-3aba-4ef0-bb07-9b418fcae591"},{"triggerTime":24,"portId":"7ecf9fe6-7c5e-46ae-bade-7922214225e2"}],"timeCues":[]}</t>
-  </si>
-  <si>
     <t>{"outputNodeGuid":"432ff1e3-b18d-476d-af80-d39ddc07402a","outputPortName":"7ecf9fe6-7c5e-46ae-bade-7922214225e2","inputNodeGuid":"3aafa9a5-4766-4204-91ab-d797aeb3c0e1","inputPortName":"输入"}</t>
   </si>
   <si>
-    <t>{"guid":"90bacd9f-d882-4bba-aaa8-41ed993ac3ff","nodeType":8,"position":{"x":-401.6000061035156,"y":-1826.4000244140625},"targetType":2,"assetTags":{"_tags":[]},"grantedTags":{"_tags":[]},"applicationRequiredTags":{"_tags":[]},"applicationImmunityTags":{"_tags":[]},"removeGameEffectsWithTags":{"_tags":[]},"durationType":2,"duration":"0","isPeriodic":false,"period":"1","executeOnApplication":false,"attributeModifiers":[],"stackType":0,"stackLimit":0,"stackDurationRefreshPolicy":0,"stackPeriodResetPolicy":0,"stackExpirationPolicy":0,"stackOverflowPolicy":0,"ongoingRequiredTags":{"_tags":[]},"cancelOnAbilityEnd":false,"launchPositionSource":0,"launchBindingName":"center","targetPositionSource":1,"targetBindingName":"center","projectileTargetType":0,"flyOver":true,"offsetAngle":0.0,"curveHeight":0.0,"projectilePrefab":{"instanceID":45446},"speed":3.0,"maxDistance":10.0,"collisionRadius":0.5,"isPiercing":false,"maxPierceCount":1,"collisionTargetTags":{"_tags":[]},"collisionExcludeTags":{"_tags":[]}}</t>
-  </si>
-  <si>
-    <t>Skill_SpeedUp</t>
-  </si>
-  <si>
     <t>SpeedUp</t>
   </si>
   <si>
-    <t>{"guid":"432ff1e3-b18d-476d-af80-d39ddc07402a","nodeType":20,"position":{"x":-502.3999938964844,"y":-2384.0},"targetType":1,"skeletonDataAsset":{"instanceID":44398},"animationName":"Skill_attack_1009","animationDuration":"25","isAnimationLooping":false,"timeEffects":[{"triggerTime":25,"portId":"f41c85e0-7f26-494e-9ffc-4a06c980f811"}],"timeCues":[]}</t>
-  </si>
-  <si>
-    <t>{"guid":"c28fb88d-51b1-47b2-be59-859e0ac638e3","nodeType":10,"position":{"x":-1186.4000244140625,"y":-1747.199951171875},"targetType":1,"assetTags":{"_tags":[]},"grantedTags":{"_tags":[{"_name":"CD.急速","_hashCode":-605747253,"_shortName":"急速","_ancestorHashCodes":[-1137859925],"_ancestorNames":["CD"]}]},"applicationRequiredTags":{"_tags":[]},"applicationImmunityTags":{"_tags":[]},"removeGameEffectsWithTags":{"_tags":[]},"durationType":1,"duration":"10","isPeriodic":false,"period":"1","executeOnApplication":false,"attributeModifiers":[],"stackType":0,"stackLimit":0,"stackDurationRefreshPolicy":0,"stackPeriodResetPolicy":0,"stackExpirationPolicy":0,"stackOverflowPolicy":0,"ongoingRequiredTags":{"_tags":[]},"cancelOnAbilityEnd":false,"cooldownType":0,"maxCharges":2,"chargeTime":"10"}</t>
-  </si>
-  <si>
-    <t>{"guid":"356907e0-1488-4128-bfcc-7ff73cfc3330","nodeType":0,"position":{"x":-878.4000244140625,"y":-1853.5999755859375},"targetType":1,"skillId":0,"assetTags":{"_tags":[]},"cancelAbilitiesWithTags":{"_tags":[]},"blockAbilitiesWithTags":{"_tags":[]},"activationOwnedTags":{"_tags":[]},"activationRequiredTags":{"_tags":[]},"activationBlockedTags":{"_tags":[{"_name":"CD.急速","_hashCode":-605747253,"_shortName":"急速","_ancestorHashCodes":[-1137859925],"_ancestorNames":["CD"]}]},"ongoingBlockedTags":{"_tags":[]},"eventOutputPorts":[]}</t>
-  </si>
-  <si>
     <t>{"outputNodeGuid":"356907e0-1488-4128-bfcc-7ff73cfc3330","outputPortName":"激活","inputNodeGuid":"632c75e2-152b-4376-8e9e-62c0e74f92d0","inputPortName":"输入"}</t>
   </si>
   <si>
-    <t>{"guid":"632c75e2-152b-4376-8e9e-62c0e74f92d0","nodeType":11,"position":{"x":-514.4000244140625,"y":-1880.0},"targetType":1,"assetTags":{"_tags":[]},"grantedTags":{"_tags":[]},"applicationRequiredTags":{"_tags":[]},"applicationImmunityTags":{"_tags":[]},"removeGameEffectsWithTags":{"_tags":[]},"durationType":1,"duration":"7","isPeriodic":false,"period":"1","executeOnApplication":false,"attributeModifiers":[{"attrType":300,"operation":0,"magnitudeSourceType":0,"fixedValue":10.0,"formula":"","mmcType":0,"setByCallerKey":"","mmcCaptureAttribute":200,"mmcAttributeSource":0,"mmcCoefficient":1.0,"mmcUseSnapshot":true}],"stackType":2,"stackLimit":1,"stackDurationRefreshPolicy":0,"stackPeriodResetPolicy":0,"stackExpirationPolicy":0,"stackOverflowPolicy":0,"ongoingRequiredTags":{"_tags":[]},"cancelOnAbilityEnd":false,"buffId":0}</t>
-  </si>
-  <si>
-    <t>Skill_Sweep</t>
-  </si>
-  <si>
     <t>Sweep</t>
   </si>
   <si>
     <t>{"guid":"c353e286-8ef0-460a-b917-887f2aeb390a","nodeType":14,"position":{"x":178.39999389648438,"y":-1786.4000244140625},"targetType":1,"requiredTags":{"_tags":[]},"immunityTags":{"_tags":[]},"destroyWithNode":false,"positionSource":2,"positionBindingName":"head","textType":0,"fixedText":"","contextDataKey":"DamageResult","textColor":{"r":1.0,"g":0.0,"b":0.0,"a":1.0},"criticalColor":{"r":1.0,"g":0.5,"b":0.0,"a":1.0},"missColor":{"r":0.5,"g":0.5,"b":0.5,"a":1.0},"fontSize":45.0,"criticalFontSize":60.0,"duration":1.5,"offset":{"x":0.0,"y":0.0},"moveDirection":{"x":0.0,"y":1.0}}</t>
   </si>
   <si>
-    <t>{"guid":"356907e0-1488-4128-bfcc-7ff73cfc3330","nodeType":0,"position":{"x":-878.4000244140625,"y":-1853.5999755859375},"targetType":1,"skillId":1001,"assetTags":{"_tags":[]},"cancelAbilitiesWithTags":{"_tags":[]},"blockAbilitiesWithTags":{"_tags":[]},"activationOwnedTags":{"_tags":[]},"activationRequiredTags":{"_tags":[]},"activationBlockedTags":{"_tags":[{"_name":"CD.横扫","_hashCode":2090173402,"_shortName":"横扫","_ancestorHashCodes":[-1137859925],"_ancestorNames":["CD"]}]},"ongoingBlockedTags":{"_tags":[]},"eventOutputPorts":[]}</t>
-  </si>
-  <si>
-    <t>{"guid":"c28fb88d-51b1-47b2-be59-859e0ac638e3","nodeType":10,"position":{"x":-1186.4000244140625,"y":-1747.199951171875},"targetType":1,"assetTags":{"_tags":[]},"grantedTags":{"_tags":[{"_name":"CD.横扫","_hashCode":2090173402,"_shortName":"横扫","_ancestorHashCodes":[-1137859925],"_ancestorNames":["CD"]}]},"applicationRequiredTags":{"_tags":[]},"applicationImmunityTags":{"_tags":[]},"removeGameEffectsWithTags":{"_tags":[]},"durationType":1,"duration":"1","isPeriodic":false,"period":"1","executeOnApplication":false,"attributeModifiers":[],"stackType":0,"stackLimit":0,"stackDurationRefreshPolicy":0,"stackPeriodResetPolicy":0,"stackExpirationPolicy":0,"stackOverflowPolicy":0,"ongoingRequiredTags":{"_tags":[]},"cancelOnAbilityEnd":false,"cooldownType":0,"maxCharges":2,"chargeTime":"10"}</t>
-  </si>
-  <si>
     <t>{"guid":"2cfdacd2-0186-49dd-b177-4eb8c0ad87bd","nodeType":7,"position":{"x":689.5999755859375,"y":-1860.800048828125},"targetType":1,"endType":0}</t>
   </si>
   <si>
@@ -418,21 +304,12 @@
     <t>{"outputNodeGuid":"432ff1e3-b18d-476d-af80-d39ddc07402a","outputPortName":"84e238a8-5baf-470e-829f-186695064945","inputNodeGuid":"2cfdacd2-0186-49dd-b177-4eb8c0ad87bd","inputPortName":"输入"}</t>
   </si>
   <si>
-    <t>Skill_ThreeFire</t>
-  </si>
-  <si>
     <t>ThreeFire</t>
   </si>
   <si>
     <t>{"guid":"432ff1e3-b18d-476d-af80-d39ddc07402a","nodeType":20,"position":{"x":-452.0,"y":-2406.39990234375},"targetType":1,"skeletonDataAsset":{"instanceID":44398},"animationName":"Attack_01","animationDuration":"18","isAnimationLooping":false,"timeEffects":[{"triggerTime":7,"portId":"de0ba361-3aba-4ef0-bb07-9b418fcae591"},{"triggerTime":18,"portId":"84e238a8-5baf-470e-829f-186695064945"}],"timeCues":[]}</t>
   </si>
   <si>
-    <t>{"guid":"c28fb88d-51b1-47b2-be59-859e0ac638e3","nodeType":10,"position":{"x":-1186.4000244140625,"y":-1747.199951171875},"targetType":1,"assetTags":{"_tags":[]},"grantedTags":{"_tags":[{"_name":"CD.三火球","_hashCode":-1656226246,"_shortName":"三火球","_ancestorHashCodes":[-1137859925],"_ancestorNames":["CD"]}]},"applicationRequiredTags":{"_tags":[]},"applicationImmunityTags":{"_tags":[]},"removeGameEffectsWithTags":{"_tags":[]},"durationType":1,"duration":"1","isPeriodic":false,"period":"1","executeOnApplication":false,"attributeModifiers":[],"stackType":0,"stackLimit":0,"stackDurationRefreshPolicy":0,"stackPeriodResetPolicy":0,"stackExpirationPolicy":0,"stackOverflowPolicy":0,"ongoingRequiredTags":{"_tags":[]},"cancelOnAbilityEnd":false,"cooldownType":0,"maxCharges":2,"chargeTime":"10"}</t>
-  </si>
-  <si>
-    <t>{"guid":"356907e0-1488-4128-bfcc-7ff73cfc3330","nodeType":0,"position":{"x":-878.4000244140625,"y":-1853.5999755859375},"targetType":1,"skillId":1010,"assetTags":{"_tags":[]},"cancelAbilitiesWithTags":{"_tags":[]},"blockAbilitiesWithTags":{"_tags":[]},"activationOwnedTags":{"_tags":[]},"activationRequiredTags":{"_tags":[]},"activationBlockedTags":{"_tags":[{"_name":"CD.三火球","_hashCode":-1656226246,"_shortName":"三火球","_ancestorHashCodes":[-1137859925],"_ancestorNames":["CD"]}]},"ongoingBlockedTags":{"_tags":[]},"eventOutputPorts":[]}</t>
-  </si>
-  <si>
     <t>{"outputNodeGuid":"ce857360-de7e-4457-b348-9c124ce98879","outputPortName":"碰撞时","inputNodeGuid":"f8947676-1084-4228-b991-1509cc7fe851","inputPortName":"输入"}</t>
   </si>
   <si>
@@ -469,21 +346,12 @@
     <t>Wan</t>
   </si>
   <si>
-    <t>Skill_Wind</t>
-  </si>
-  <si>
     <t>Wind</t>
   </si>
   <si>
     <t>{"guid":"e33ab94c-1496-4d6a-ba5e-1afd38bb0c30","nodeType":4,"position":{"x":-452.0,"y":-1786.4000244140625},"targetType":1,"searchShapeType":0,"searchLineType":0,"positionSource":0,"positionBindingName":"center","searchCircleRadius":2.5,"searchSectorRadius":2.0,"searchSectorAngle":180.0,"searchLineDirectionOffsetAngle":0.0,"searchLineDirectionWidth":1.0,"searchLineDirectionLength":10.0,"lineStartPositionSource":0,"lineStartBindingName":"","lineEndPositionSource":1,"lineEndBindingName":"","searchLineBetweenWidth":1.0,"searchLineAbsoluteAngle":0.0,"searchLineAbsoluteWidth":1.0,"searchLineAbsoluteLength":10.0,"maxTargets":999,"searchTargetTags":{"_tags":[{"_name":"unitType.boss","_hashCode":-2067207703,"_shortName":"boss","_ancestorHashCodes":[1600484460],"_ancestorNames":["unitType"]}]},"searchExcludeTags":{"_tags":[]}}</t>
   </si>
   <si>
-    <t>{"guid":"c28fb88d-51b1-47b2-be59-859e0ac638e3","nodeType":10,"position":{"x":-1186.4000244140625,"y":-1747.199951171875},"targetType":1,"assetTags":{"_tags":[]},"grantedTags":{"_tags":[{"_name":"CD.践踏","_hashCode":-1394424629,"_shortName":"践踏","_ancestorHashCodes":[-1137859925],"_ancestorNames":["CD"]}]},"applicationRequiredTags":{"_tags":[]},"applicationImmunityTags":{"_tags":[]},"removeGameEffectsWithTags":{"_tags":[]},"durationType":1,"duration":"5","isPeriodic":false,"period":"1","executeOnApplication":false,"attributeModifiers":[],"stackType":0,"stackLimit":0,"stackDurationRefreshPolicy":0,"stackPeriodResetPolicy":0,"stackExpirationPolicy":0,"stackOverflowPolicy":0,"ongoingRequiredTags":{"_tags":[]},"cancelOnAbilityEnd":false,"cooldownType":0,"maxCharges":2,"chargeTime":"10"}</t>
-  </si>
-  <si>
-    <t>{"guid":"356907e0-1488-4128-bfcc-7ff73cfc3330","nodeType":0,"position":{"x":-878.4000244140625,"y":-1853.5999755859375},"targetType":1,"skillId":1003,"assetTags":{"_tags":[]},"cancelAbilitiesWithTags":{"_tags":[]},"blockAbilitiesWithTags":{"_tags":[]},"activationOwnedTags":{"_tags":[]},"activationRequiredTags":{"_tags":[]},"activationBlockedTags":{"_tags":[{"_name":"CD.践踏","_hashCode":-1394424629,"_shortName":"践踏","_ancestorHashCodes":[-1137859925],"_ancestorNames":["CD"]}]},"ongoingBlockedTags":{"_tags":[]},"eventOutputPorts":[]}</t>
-  </si>
-  <si>
     <t>{"guid":"cde57fb8-b693-4da8-a4a8-fd61e56c5dcd","nodeType":12,"position":{"x":677.5999755859375,"y":-1998.4000244140625},"targetType":1,"requiredTags":{"_tags":[]},"immunityTags":{"_tags":[]},"destroyWithNode":false,"positionSource":0,"particlePrefab":{"instanceID":45504},"particleBindingName":"down","particleOffset":{"x":0.0,"y":0.0,"z":0.0},"particleScale":{"x":1.0,"y":1.0,"z":1.0},"attachToTarget":false,"particleLoop":false}</t>
   </si>
   <si>
@@ -497,6 +365,106 @@
   </si>
   <si>
     <t>{"guid":"93ec5a43-cc34-4e4a-acb3-39da2f2c3010","nodeType":12,"position":{"x":468.79998779296877,"y":-1749.5999755859375},"targetType":1,"requiredTags":{"_tags":[]},"immunityTags":{"_tags":[]},"destroyWithNode":true,"positionSource":2,"particlePrefab":{"instanceID":45630},"particleBindingName":"head","particleOffset":{"x":0.0,"y":0.0,"z":0.0},"particleScale":{"x":1.0,"y":1.0,"z":1.0},"attachToTarget":true,"particleLoop":true}</t>
+  </si>
+  <si>
+    <t>{"guid":"c28fb88d-51b1-47b2-be59-859e0ac638e3","nodeType":10,"position":{"x":-1186.4000244140625,"y":-1825.5999755859375},"targetType":1,"assetTags":{"_tags":[]},"grantedTags":{"_tags":[{"_name":"CD.Blood","_hashCode":-1868013560,"_shortName":"流血","_ancestorHashCodes":[-1137859925],"_ancestorNames":["CD"]}]},"applicationRequiredTags":{"_tags":[]},"applicationImmunityTags":{"_tags":[]},"removeGameEffectsWithTags":{"_tags":[]},"durationType":1,"duration":"3","isPeriodic":false,"period":"1","executeOnApplication":false,"attributeModifiers":[],"stackType":0,"stackLimit":0,"stackDurationRefreshPolicy":0,"stackPeriodResetPolicy":0,"stackExpirationPolicy":0,"stackOverflowPolicy":0,"ongoingRequiredTags":{"_tags":[]},"cancelOnAbilityEnd":false,"cooldownType":0,"maxCharges":2,"chargeTime":"10"}</t>
+  </si>
+  <si>
+    <t>{"guid":"356907e0-1488-4128-bfcc-7ff73cfc3330","nodeType":0,"position":{"x":-878.4000244140625,"y":-1853.5999755859375},"targetType":1,"skillId":1002,"assetTags":{"_tags":[]},"cancelAbilitiesWithTags":{"_tags":[]},"blockAbilitiesWithTags":{"_tags":[]},"activationOwnedTags":{"_tags":[]},"activationRequiredTags":{"_tags":[]},"activationBlockedTags":{"_tags":[{"_name":"CD.Blood","_hashCode":-1868013560,"_shortName":"流血","_ancestorHashCodes":[-1137859925],"_ancestorNames":["CD"]}]},"ongoingBlockedTags":{"_tags":[]},"eventOutputPorts":[]}</t>
+  </si>
+  <si>
+    <t>{"guid":"c28fb88d-51b1-47b2-be59-859e0ac638e3","nodeType":10,"position":{"x":-1186.4000244140625,"y":-1747.199951171875},"targetType":1,"assetTags":{"_tags":[]},"grantedTags":{"_tags":[{"_name":"CD.FireCircle","_hashCode":1979572373,"_shortName":"旋风斩","_ancestorHashCodes":[-1137859925],"_ancestorNames":["CD"]}]},"applicationRequiredTags":{"_tags":[]},"applicationImmunityTags":{"_tags":[]},"removeGameEffectsWithTags":{"_tags":[]},"durationType":1,"duration":"15","isPeriodic":false,"period":"1","executeOnApplication":false,"attributeModifiers":[],"stackType":0,"stackLimit":0,"stackDurationRefreshPolicy":0,"stackPeriodResetPolicy":0,"stackExpirationPolicy":0,"stackOverflowPolicy":0,"ongoingRequiredTags":{"_tags":[]},"cancelOnAbilityEnd":false,"cooldownType":0,"maxCharges":2,"chargeTime":"10"}</t>
+  </si>
+  <si>
+    <t>{"guid":"356907e0-1488-4128-bfcc-7ff73cfc3330","nodeType":0,"position":{"x":-878.4000244140625,"y":-1853.5999755859375},"targetType":1,"skillId":1006,"assetTags":{"_tags":[]},"cancelAbilitiesWithTags":{"_tags":[]},"blockAbilitiesWithTags":{"_tags":[]},"activationOwnedTags":{"_tags":[]},"activationRequiredTags":{"_tags":[]},"activationBlockedTags":{"_tags":[{"_name":"CD.RecBlood","_hashCode":1163914435,"_shortName":"回血","_ancestorHashCodes":[-1137859925],"_ancestorNames":["CD"]}]},"ongoingBlockedTags":{"_tags":[]},"eventOutputPorts":[]}</t>
+  </si>
+  <si>
+    <t>{"guid":"c28fb88d-51b1-47b2-be59-859e0ac638e3","nodeType":10,"position":{"x":-1186.4000244140625,"y":-1747.199951171875},"targetType":1,"assetTags":{"_tags":[]},"grantedTags":{"_tags":[{"_name":"CD.God","_hashCode":810112138,"_shortName":"神罗天正","_ancestorHashCodes":[-1137859925],"_ancestorNames":["CD"]}]},"applicationRequiredTags":{"_tags":[]},"applicationImmunityTags":{"_tags":[]},"removeGameEffectsWithTags":{"_tags":[]},"durationType":1,"duration":"5","isPeriodic":false,"period":"1","executeOnApplication":false,"attributeModifiers":[],"stackType":0,"stackLimit":0,"stackDurationRefreshPolicy":0,"stackPeriodResetPolicy":0,"stackExpirationPolicy":0,"stackOverflowPolicy":0,"ongoingRequiredTags":{"_tags":[]},"cancelOnAbilityEnd":false,"cooldownType":0,"maxCharges":2,"chargeTime":"10"}</t>
+  </si>
+  <si>
+    <t>{"guid":"c28fb88d-51b1-47b2-be59-859e0ac638e3","nodeType":10,"position":{"x":-1223.199951171875,"y":-1826.4000244140625},"targetType":1,"assetTags":{"_tags":[]},"grantedTags":{"_tags":[{"_name":"CD.RecBlood","_hashCode":1163914435,"_shortName":"回血","_ancestorHashCodes":[-1137859925],"_ancestorNames":["CD"]}]},"applicationRequiredTags":{"_tags":[]},"applicationImmunityTags":{"_tags":[]},"removeGameEffectsWithTags":{"_tags":[]},"durationType":1,"duration":"3","isPeriodic":false,"period":"1","executeOnApplication":false,"attributeModifiers":[],"stackType":0,"stackLimit":0,"stackDurationRefreshPolicy":0,"stackPeriodResetPolicy":0,"stackExpirationPolicy":0,"stackOverflowPolicy":0,"ongoingRequiredTags":{"_tags":[]},"cancelOnAbilityEnd":false,"cooldownType":0,"maxCharges":2,"chargeTime":"10"}</t>
+  </si>
+  <si>
+    <t>{"guid":"356907e0-1488-4128-bfcc-7ff73cfc3330","nodeType":0,"position":{"x":-902.4000244140625,"y":-1844.0},"targetType":1,"skillId":1008,"assetTags":{"_tags":[]},"cancelAbilitiesWithTags":{"_tags":[]},"blockAbilitiesWithTags":{"_tags":[]},"activationOwnedTags":{"_tags":[]},"activationRequiredTags":{"_tags":[]},"activationBlockedTags":{"_tags":[{"_name":"CD.RecBlood","_hashCode":1163914435,"_shortName":"回血","_ancestorHashCodes":[-1137859925],"_ancestorNames":["CD"]}]},"ongoingBlockedTags":{"_tags":[]},"eventOutputPorts":[]}</t>
+  </si>
+  <si>
+    <t>{"guid":"356907e0-1488-4128-bfcc-7ff73cfc3330","nodeType":0,"position":{"x":-878.4000244140625,"y":-1853.5999755859375},"targetType":1,"skillId":1001,"assetTags":{"_tags":[]},"cancelAbilitiesWithTags":{"_tags":[]},"blockAbilitiesWithTags":{"_tags":[]},"activationOwnedTags":{"_tags":[]},"activationRequiredTags":{"_tags":[]},"activationBlockedTags":{"_tags":[{"_name":"CD.Sweep","_hashCode":2090173402,"_shortName":"横扫","_ancestorHashCodes":[-1137859925],"_ancestorNames":["CD"]}]},"ongoingBlockedTags":{"_tags":[]},"eventOutputPorts":[]}</t>
+  </si>
+  <si>
+    <t>{"guid":"c28fb88d-51b1-47b2-be59-859e0ac638e3","nodeType":10,"position":{"x":-1186.4000244140625,"y":-1747.199951171875},"targetType":1,"assetTags":{"_tags":[]},"grantedTags":{"_tags":[{"_name":"CD.Sweep","_hashCode":2090173402,"_shortName":"横扫","_ancestorHashCodes":[-1137859925],"_ancestorNames":["CD"]}]},"applicationRequiredTags":{"_tags":[]},"applicationImmunityTags":{"_tags":[]},"removeGameEffectsWithTags":{"_tags":[]},"durationType":1,"duration":"1","isPeriodic":false,"period":"1","executeOnApplication":false,"attributeModifiers":[],"stackType":0,"stackLimit":0,"stackDurationRefreshPolicy":0,"stackPeriodResetPolicy":0,"stackExpirationPolicy":0,"stackOverflowPolicy":0,"ongoingRequiredTags":{"_tags":[]},"cancelOnAbilityEnd":false,"cooldownType":0,"maxCharges":2,"chargeTime":"10"}</t>
+  </si>
+  <si>
+    <t>{"guid":"c28fb88d-51b1-47b2-be59-859e0ac638e3","nodeType":10,"position":{"x":-1186.4000244140625,"y":-1747.199951171875},"targetType":1,"assetTags":{"_tags":[]},"grantedTags":{"_tags":[{"_name":"CD.ThreeFire","_hashCode":-1656226246,"_shortName":"三火球","_ancestorHashCodes":[-1137859925],"_ancestorNames":["CD"]}]},"applicationRequiredTags":{"_tags":[]},"applicationImmunityTags":{"_tags":[]},"removeGameEffectsWithTags":{"_tags":[]},"durationType":1,"duration":"1","isPeriodic":false,"period":"1","executeOnApplication":false,"attributeModifiers":[],"stackType":0,"stackLimit":0,"stackDurationRefreshPolicy":0,"stackPeriodResetPolicy":0,"stackExpirationPolicy":0,"stackOverflowPolicy":0,"ongoingRequiredTags":{"_tags":[]},"cancelOnAbilityEnd":false,"cooldownType":0,"maxCharges":2,"chargeTime":"10"}</t>
+  </si>
+  <si>
+    <t>{"guid":"356907e0-1488-4128-bfcc-7ff73cfc3330","nodeType":0,"position":{"x":-878.4000244140625,"y":-1853.5999755859375},"targetType":1,"skillId":1010,"assetTags":{"_tags":[]},"cancelAbilitiesWithTags":{"_tags":[]},"blockAbilitiesWithTags":{"_tags":[]},"activationOwnedTags":{"_tags":[]},"activationRequiredTags":{"_tags":[]},"activationBlockedTags":{"_tags":[{"_name":"CD.ThreeFire","_hashCode":-1656226246,"_shortName":"三火球","_ancestorHashCodes":[-1137859925],"_ancestorNames":["CD"]}]},"ongoingBlockedTags":{"_tags":[]},"eventOutputPorts":[]}</t>
+  </si>
+  <si>
+    <t>{"guid":"c28fb88d-51b1-47b2-be59-859e0ac638e3","nodeType":10,"position":{"x":-1186.4000244140625,"y":-1747.199951171875},"targetType":1,"assetTags":{"_tags":[]},"grantedTags":{"_tags":[{"_name":"CD.Wind","_hashCode":-1394424629,"_shortName":"践踏","_ancestorHashCodes":[-1137859925],"_ancestorNames":["CD"]}]},"applicationRequiredTags":{"_tags":[]},"applicationImmunityTags":{"_tags":[]},"removeGameEffectsWithTags":{"_tags":[]},"durationType":1,"duration":"5","isPeriodic":false,"period":"1","executeOnApplication":false,"attributeModifiers":[],"stackType":0,"stackLimit":0,"stackDurationRefreshPolicy":0,"stackPeriodResetPolicy":0,"stackExpirationPolicy":0,"stackOverflowPolicy":0,"ongoingRequiredTags":{"_tags":[]},"cancelOnAbilityEnd":false,"cooldownType":0,"maxCharges":2,"chargeTime":"10"}</t>
+  </si>
+  <si>
+    <t>{"guid":"356907e0-1488-4128-bfcc-7ff73cfc3330","nodeType":0,"position":{"x":-878.4000244140625,"y":-1853.5999755859375},"targetType":1,"skillId":1003,"assetTags":{"_tags":[]},"cancelAbilitiesWithTags":{"_tags":[]},"blockAbilitiesWithTags":{"_tags":[]},"activationOwnedTags":{"_tags":[]},"activationRequiredTags":{"_tags":[]},"activationBlockedTags":{"_tags":[{"_name":"CD.Wind","_hashCode":-1394424629,"_shortName":"践踏","_ancestorHashCodes":[-1137859925],"_ancestorNames":["CD"]}]},"ongoingBlockedTags":{"_tags":[]},"eventOutputPorts":[]}</t>
+  </si>
+  <si>
+    <t>{"guid":"a8c2d6c0-65f1-4bed-8a6a-70197e84bb56","nodeType":2,"position":{"x":933.3333740234375,"y":226.6666717529297},"targetType":1,"assetTags":{"_tags":[]},"grantedTags":{"_tags":[]},"applicationRequiredTags":{"_tags":[]},"applicationImmunityTags":{"_tags":[]},"removeGameEffectsWithTags":{"_tags":[]},"durationType":0,"duration":"0","isPeriodic":false,"period":"1","executeOnApplication":false,"attributeModifiers":[],"stackType":0,"stackLimit":0,"stackDurationRefreshPolicy":0,"stackPeriodResetPolicy":0,"stackExpirationPolicy":0,"stackOverflowPolicy":0,"ongoingRequiredTags":{"_tags":[]},"cancelOnAbilityEnd":false,"healSourceType":0,"healFixedValue":2.0,"healFormula":"","healMMCType":0,"healSetByCallerKey":"","healMMCCaptureAttribute":202,"healMMCAttributeSource":0,"healMMCCoefficient":1.0,"healMMCUseSnapshot":true,"healMultiplyByStackCount":false,"healCalculationType":0}</t>
+  </si>
+  <si>
+    <t>{"guid":"d086a8c9-8557-4a61-8fd2-64b3c1e543a3","nodeType":14,"position":{"x":1148.666748046875,"y":208.00001525878907},"targetType":1,"requiredTags":{"_tags":[]},"immunityTags":{"_tags":[]},"destroyWithNode":false,"positionSource":0,"positionBindingName":"head","textType":1,"fixedText":"","contextDataKey":"Heal","textColor":{"r":0.04063582420349121,"g":1.0,"b":0.0,"a":1.0},"criticalColor":{"r":1.0,"g":0.5,"b":0.0,"a":1.0},"missColor":{"r":0.5,"g":0.5,"b":0.5,"a":1.0},"fontSize":45.0,"criticalFontSize":60.0,"duration":1.5,"offset":{"x":0.0,"y":0.0},"moveDirection":{"x":0.0,"y":1.0}}</t>
+  </si>
+  <si>
+    <t>{"guid":"7eefd9ae-c57e-439d-b1b6-e7f4e52f2f6f","nodeType":10,"position":{"x":370.6666564941406,"y":484.6666564941406},"targetType":1,"assetTags":{"_tags":[]},"grantedTags":{"_tags":[{"_name":"CD.BeRecBlood","_hashCode":-1099994396,"_shortName":"被动回血","_ancestorHashCodes":[-1137859925],"_ancestorNames":["CD"]}]},"applicationRequiredTags":{"_tags":[]},"applicationImmunityTags":{"_tags":[]},"removeGameEffectsWithTags":{"_tags":[]},"durationType":1,"duration":"3","isPeriodic":false,"period":"1","executeOnApplication":false,"attributeModifiers":[],"stackType":0,"stackLimit":0,"stackDurationRefreshPolicy":0,"stackPeriodResetPolicy":0,"stackExpirationPolicy":0,"stackOverflowPolicy":0,"ongoingRequiredTags":{"_tags":[]},"cancelOnAbilityEnd":false,"cooldownType":0,"maxCharges":2,"chargeTime":"10"}</t>
+  </si>
+  <si>
+    <t>{"guid":"426755b7-c39a-4524-9cb5-960a31a19c10","nodeType":11,"position":{"x":587.3333740234375,"y":114.66667175292969},"targetType":1,"assetTags":{"_tags":[]},"grantedTags":{"_tags":[]},"applicationRequiredTags":{"_tags":[]},"applicationImmunityTags":{"_tags":[]},"removeGameEffectsWithTags":{"_tags":[]},"durationType":2,"duration":"10","isPeriodic":true,"period":"1","executeOnApplication":false,"attributeModifiers":[],"stackType":1,"stackLimit":1,"stackDurationRefreshPolicy":0,"stackPeriodResetPolicy":0,"stackExpirationPolicy":0,"stackOverflowPolicy":0,"ongoingRequiredTags":{"_tags":[{"_name":"CD.BeRecBlood","_hashCode":-1099994396,"_shortName":"被动回血","_ancestorHashCodes":[-1137859925],"_ancestorNames":["CD"]}]},"cancelOnAbilityEnd":true,"buffId":0}</t>
+  </si>
+  <si>
+    <t>{"guid":"d5809887-df6e-4604-bd09-36cef191ce83","nodeType":0,"position":{"x":210.66668701171876,"y":114.66667175292969},"targetType":1,"skillId":2001,"assetTags":{"_tags":[]},"cancelAbilitiesWithTags":{"_tags":[]},"blockAbilitiesWithTags":{"_tags":[]},"activationOwnedTags":{"_tags":[]},"activationRequiredTags":{"_tags":[]},"activationBlockedTags":{"_tags":[]},"ongoingBlockedTags":{"_tags":[]},"eventOutputPorts":[{"eventType":2,"customEventTag":""}]}</t>
+  </si>
+  <si>
+    <t>{"guid":"9d6f459d-b588-4b64-843b-1b71e8f299ae","nodeType":3,"position":{"x":-1186.6666259765625,"y":-2011.3333740234375},"targetType":1,"assetTags":{"_tags":[]},"grantedTags":{"_tags":[]},"applicationRequiredTags":{"_tags":[]},"applicationImmunityTags":{"_tags":[]},"removeGameEffectsWithTags":{"_tags":[]},"durationType":0,"duration":"0","isPeriodic":false,"period":"1","executeOnApplication":false,"attributeModifiers":[{"attrType":100,"operation":0,"magnitudeSourceType":0,"fixedValue":10.0,"formula":"","mmcType":0,"setByCallerKey":"","mmcCaptureAttribute":200,"mmcAttributeSource":0,"mmcCoefficient":1.0,"mmcUseSnapshot":true}],"stackType":0,"stackLimit":0,"stackDurationRefreshPolicy":0,"stackPeriodResetPolicy":0,"stackExpirationPolicy":0,"stackOverflowPolicy":0,"ongoingRequiredTags":{"_tags":[]},"cancelOnAbilityEnd":true}</t>
+  </si>
+  <si>
+    <t>{"guid":"eae41233-d297-46fe-a6c8-0b5c876fbb2a","nodeType":1,"position":{"x":46.66668701171875,"y":-1808.666748046875},"targetType":0,"assetTags":{"_tags":[]},"grantedTags":{"_tags":[]},"applicationRequiredTags":{"_tags":[]},"applicationImmunityTags":{"_tags":[]},"removeGameEffectsWithTags":{"_tags":[]},"durationType":0,"duration":"0","isPeriodic":false,"period":"1","executeOnApplication":false,"attributeModifiers":[],"stackType":0,"stackLimit":0,"stackDurationRefreshPolicy":0,"stackPeriodResetPolicy":0,"stackExpirationPolicy":0,"stackOverflowPolicy":0,"ongoingRequiredTags":{"_tags":[]},"cancelOnAbilityEnd":true,"damageType":0,"damageSourceType":0,"damageFixedValue":10.0,"damageFormula":"","damageMMCType":0,"damageSetByCallerKey":"","damageMMCCaptureAttribute":200,"damageMMCAttributeSource":0,"damageMMCCoefficient":1.0,"damageMMCUseSnapshot":true,"damageMultiplyByStackCount":false,"damageCalculationType":0}</t>
+  </si>
+  <si>
+    <t>{"guid":"2d7e41c4-8e90-4b61-879c-4b2e5b9486db","nodeType":14,"position":{"x":408.6666564941406,"y":-1747.3333740234375},"targetType":1,"requiredTags":{"_tags":[]},"immunityTags":{"_tags":[]},"destroyWithNode":false,"positionSource":2,"positionBindingName":"head","textType":0,"fixedText":"","contextDataKey":"DamageResult","textColor":{"r":0.0,"g":0.323091983795166,"b":1.0,"a":1.0},"criticalColor":{"r":1.0,"g":0.5,"b":0.0,"a":1.0},"missColor":{"r":0.5,"g":0.5,"b":0.5,"a":1.0},"fontSize":45.0,"criticalFontSize":60.0,"duration":1.5,"offset":{"x":0.0,"y":0.0},"moveDirection":{"x":0.0,"y":1.0}}</t>
+  </si>
+  <si>
+    <t>{"guid":"c28fb88d-51b1-47b2-be59-859e0ac638e3","nodeType":10,"position":{"x":-1186.6666259765625,"y":-1747.3333740234375},"targetType":1,"assetTags":{"_tags":[]},"grantedTags":{"_tags":[{"_name":"CD.RuFood","_hashCode":-1710429436,"_shortName":"火球术","_ancestorHashCodes":[-1137859925],"_ancestorNames":["CD"]}]},"applicationRequiredTags":{"_tags":[]},"applicationImmunityTags":{"_tags":[]},"removeGameEffectsWithTags":{"_tags":[]},"durationType":1,"duration":"1","isPeriodic":false,"period":"1","executeOnApplication":false,"attributeModifiers":[],"stackType":0,"stackLimit":0,"stackDurationRefreshPolicy":0,"stackPeriodResetPolicy":0,"stackExpirationPolicy":0,"stackOverflowPolicy":0,"ongoingRequiredTags":{"_tags":[]},"cancelOnAbilityEnd":false,"cooldownType":0,"maxCharges":2,"chargeTime":"10"}</t>
+  </si>
+  <si>
+    <t>{"guid":"3aafa9a5-4766-4204-91ab-d797aeb3c0e1","nodeType":7,"position":{"x":580.6666259765625,"y":-1987.3333740234375},"targetType":1,"endType":0}</t>
+  </si>
+  <si>
+    <t>{"guid":"432ff1e3-b18d-476d-af80-d39ddc07402a","nodeType":20,"position":{"x":-491.33331298828127,"y":-2478.66650390625},"targetType":1,"skeletonDataAsset":{"instanceID":44578},"animationName":"Attack","animationDuration":"24","isAnimationLooping":false,"timeEffects":[{"triggerTime":11,"portId":"de0ba361-3aba-4ef0-bb07-9b418fcae591"},{"triggerTime":24,"portId":"7ecf9fe6-7c5e-46ae-bade-7922214225e2"}],"timeCues":[]}</t>
+  </si>
+  <si>
+    <t>{"guid":"90bacd9f-d882-4bba-aaa8-41ed993ac3ff","nodeType":8,"position":{"x":-401.33331298828127,"y":-1826.666748046875},"targetType":2,"assetTags":{"_tags":[]},"grantedTags":{"_tags":[]},"applicationRequiredTags":{"_tags":[]},"applicationImmunityTags":{"_tags":[]},"removeGameEffectsWithTags":{"_tags":[]},"durationType":2,"duration":"0","isPeriodic":false,"period":"1","executeOnApplication":false,"attributeModifiers":[],"stackType":0,"stackLimit":0,"stackDurationRefreshPolicy":0,"stackPeriodResetPolicy":0,"stackExpirationPolicy":0,"stackOverflowPolicy":0,"ongoingRequiredTags":{"_tags":[]},"cancelOnAbilityEnd":false,"launchPositionSource":0,"launchBindingName":"center","targetPositionSource":1,"targetBindingName":"center","projectileTargetType":0,"flyOver":true,"offsetAngle":0.0,"curveHeight":0.0,"projectilePrefab":{"instanceID":45446},"speed":3.0,"maxDistance":10.0,"collisionRadius":0.5,"isPiercing":false,"maxPierceCount":1,"collisionTargetTags":{"_tags":[]},"collisionExcludeTags":{"_tags":[]}}</t>
+  </si>
+  <si>
+    <t>{"guid":"356907e0-1488-4128-bfcc-7ff73cfc3330","nodeType":0,"position":{"x":-878.6666259765625,"y":-1853.3333740234375},"targetType":1,"skillId":1004,"assetTags":{"_tags":[]},"cancelAbilitiesWithTags":{"_tags":[]},"blockAbilitiesWithTags":{"_tags":[]},"activationOwnedTags":{"_tags":[]},"activationRequiredTags":{"_tags":[]},"activationBlockedTags":{"_tags":[{"_name":"CD.Wind","_hashCode":1982736573,"_shortName":"Wind","_ancestorHashCodes":[-1137859925],"_ancestorNames":["CD"]}]},"ongoingBlockedTags":{"_tags":[{"_name":"Buff.DeBuff.Stun","_hashCode":1791562953,"_shortName":"Stun","_ancestorHashCodes":[937056111,321157895],"_ancestorNames":["Buff","Buff.DeBuff"]}]},"eventOutputPorts":[]}</t>
+  </si>
+  <si>
+    <t>{"guid":"f73ba91e-a76b-456c-b19c-a5176809d5f5","nodeType":7,"position":{"x":700.0,"y":-1856.666748046875},"targetType":1,"endType":0}</t>
+  </si>
+  <si>
+    <t>{"guid":"432ff1e3-b18d-476d-af80-d39ddc07402a","nodeType":20,"position":{"x":-502.6666564941406,"y":-2384.0},"targetType":1,"skeletonDataAsset":{"instanceID":44398},"animationName":"Skill_attack_1009","animationDuration":"25","isAnimationLooping":false,"timeEffects":[{"triggerTime":25,"portId":"f41c85e0-7f26-494e-9ffc-4a06c980f811"}],"timeCues":[]}</t>
+  </si>
+  <si>
+    <t>{"guid":"c28fb88d-51b1-47b2-be59-859e0ac638e3","nodeType":10,"position":{"x":-1186.6666259765625,"y":-1747.3333740234375},"targetType":1,"assetTags":{"_tags":[]},"grantedTags":{"_tags":[{"_name":"CD.SpeedUp","_hashCode":-605747253,"_shortName":"急速","_ancestorHashCodes":[-1137859925],"_ancestorNames":["CD"]}]},"applicationRequiredTags":{"_tags":[]},"applicationImmunityTags":{"_tags":[]},"removeGameEffectsWithTags":{"_tags":[]},"durationType":1,"duration":"10","isPeriodic":false,"period":"1","executeOnApplication":false,"attributeModifiers":[],"stackType":0,"stackLimit":0,"stackDurationRefreshPolicy":0,"stackPeriodResetPolicy":0,"stackExpirationPolicy":0,"stackOverflowPolicy":0,"ongoingRequiredTags":{"_tags":[]},"cancelOnAbilityEnd":false,"cooldownType":0,"maxCharges":2,"chargeTime":"10"}</t>
+  </si>
+  <si>
+    <t>{"guid":"632c75e2-152b-4376-8e9e-62c0e74f92d0","nodeType":11,"position":{"x":-514.6666259765625,"y":-1880.0},"targetType":1,"assetTags":{"_tags":[]},"grantedTags":{"_tags":[]},"applicationRequiredTags":{"_tags":[]},"applicationImmunityTags":{"_tags":[]},"removeGameEffectsWithTags":{"_tags":[]},"durationType":1,"duration":"7","isPeriodic":false,"period":"1","executeOnApplication":false,"attributeModifiers":[{"attrType":300,"operation":0,"magnitudeSourceType":0,"fixedValue":10.0,"formula":"","mmcType":0,"setByCallerKey":"","mmcCaptureAttribute":200,"mmcAttributeSource":0,"mmcCoefficient":1.0,"mmcUseSnapshot":true}],"stackType":2,"stackLimit":1,"stackDurationRefreshPolicy":0,"stackPeriodResetPolicy":0,"stackExpirationPolicy":0,"stackOverflowPolicy":0,"ongoingRequiredTags":{"_tags":[]},"cancelOnAbilityEnd":false,"buffId":0}</t>
+  </si>
+  <si>
+    <t>{"guid":"356907e0-1488-4128-bfcc-7ff73cfc3330","nodeType":0,"position":{"x":-878.6666259765625,"y":-1853.3333740234375},"targetType":1,"skillId":1009,"assetTags":{"_tags":[]},"cancelAbilitiesWithTags":{"_tags":[]},"blockAbilitiesWithTags":{"_tags":[]},"activationOwnedTags":{"_tags":[]},"activationRequiredTags":{"_tags":[]},"activationBlockedTags":{"_tags":[{"_name":"CD.SpeedUp","_hashCode":-605747253,"_shortName":"急速","_ancestorHashCodes":[-1137859925],"_ancestorNames":["CD"]}]},"ongoingBlockedTags":{"_tags":[]},"eventOutputPorts":[]}</t>
+  </si>
+  <si>
+    <t>{"guid":"356907e0-1488-4128-bfcc-7ff73cfc3330","nodeType":0,"position":{"x":-878.4000244140625,"y":-1853.5999755859375},"targetType":1,"skillId":1004,"assetTags":{"_tags":[]},"cancelAbilitiesWithTags":{"_tags":[]},"blockAbilitiesWithTags":{"_tags":[]},"activationOwnedTags":{"_tags":[]},"activationRequiredTags":{"_tags":[]},"activationBlockedTags":{"_tags":[{"_name":"CD.FireCircle","_hashCode":522143731,"_shortName":"FireCircle","_ancestorHashCodes":[-1137859925],"_ancestorNames":["CD"]}]},"ongoingBlockedTags":{"_tags":[]},"eventOutputPorts":[]}</t>
+  </si>
+  <si>
+    <t>{"guid":"9d6f459d-b588-4b64-843b-1b71e8f299ae","nodeType":3,"position":{"x":-1186.4000244140625,"y":-2019.199951171875},"targetType":1,"assetTags":{"_tags":[]},"grantedTags":{"_tags":[]},"applicationRequiredTags":{"_tags":[]},"applicationImmunityTags":{"_tags":[]},"removeGameEffectsWithTags":{"_tags":[]},"durationType":0,"duration":"0","isPeriodic":false,"period":"1","executeOnApplication":false,"attributeModifiers":[{"attrType":100,"operation":0,"magnitudeSourceType":0,"fixedValue":10.0,"formula":"","mmcType":0,"setByCallerKey":"","mmcCaptureAttribute":200,"mmcAttributeSource":0,"mmcCoefficient":1.0,"mmcUseSnapshot":true}],"stackType":0,"stackLimit":0,"stackDurationRefreshPolicy":0,"stackPeriodResetPolicy":0,"stackExpirationPolicy":0,"stackOverflowPolicy":0,"ongoingRequiredTags":{"_tags":[]},"cancelOnAbilityEnd":true}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -939,23 +907,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H95"/>
+  <dimension ref="A1:G95"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G8" sqref="G8"/>
+      <selection pane="bottomLeft" activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="3" max="3" width="15.7265625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.1796875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.54296875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="255.6328125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="21.1796875" customWidth="1"/>
+    <col min="2" max="2" width="16.08984375" customWidth="1"/>
+    <col min="3" max="3" width="11.1796875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.54296875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="255.6328125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="21.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -968,1582 +936,1532 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="4"/>
+      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="4"/>
-      <c r="H1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A2" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A2" s="1" t="s">
+      <c r="B2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="C2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="D2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F2" s="5" t="s">
+      <c r="F2" s="6"/>
+      <c r="G2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="G2" s="6"/>
-      <c r="H2" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
+      <c r="E3" s="1" t="s">
+        <v>11</v>
+      </c>
       <c r="F3" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G3" s="1"/>
+    </row>
+    <row r="4" spans="1:7" ht="15" x14ac:dyDescent="0.35">
+      <c r="A4" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="G3" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="H3" s="1"/>
-    </row>
-    <row r="4" spans="1:8" ht="15" x14ac:dyDescent="0.35">
-      <c r="A4" s="1" t="s">
+      <c r="B4" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="C4" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="D4" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="E4" s="1"/>
+      <c r="F4" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="G4" s="1" t="s">
         <v>16</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F4" s="1"/>
-      <c r="G4" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="5">
       <c r="A5"/>
       <c r="B5">
-        <v>1</v>
+        <v>2001</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Skill_BeRecBlood</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
           <t>BeRecBlood</t>
         </is>
       </c>
-      <c r="E5"/>
-      <c r="F5">
+      <c r="D5"/>
+      <c r="E5">
         <v>2</v>
       </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>{"guid":"a8c2d6c0-65f1-4bed-8a6a-70197e84bb56","nodeType":2,"position":{"x":933.3333740234375,"y":226.6666717529297},"targetType":1,"assetTags":{"_tags":[]},"grantedTags":{"_tags":[]},"applicationRequiredTags":{"_tags":[]},"applicationImmunityTags":{"_tags":[]},"removeGameEffectsWithTags":{"_tags":[]},"durationType":0,"duration":"0","isPeriodic":false,"period":"1","executeOnApplication":false,"attributeModifiers":[],"stackType":0,"stackLimit":0,"stackDurationRefreshPolicy":0,"stackPeriodResetPolicy":0,"stackExpirationPolicy":0,"stackOverflowPolicy":0,"ongoingRequiredTags":{"_tags":[]},"cancelOnAbilityEnd":false,"healSourceType":0,"healFixedValue":2.0,"healFormula":"","healMMCType":0,"healSetByCallerKey":"","healMMCCaptureAttribute":202,"healMMCAttributeSource":0,"healMMCCoefficient":1.0,"healMMCUseSnapshot":true,"healMultiplyByStackCount":false,"healCalculationType":0}</t>
+        </is>
+      </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>{"guid":"a8c2d6c0-65f1-4bed-8a6a-70197e84bb56","nodeType":2,"position":{"x":933.5999755859375,"y":226.39999389648438},"targetType":1,"assetTags":{"_tags":[]},"grantedTags":{"_tags":[]},"applicationRequiredTags":{"_tags":[]},"applicationImmunityTags":{"_tags":[]},"removeGameEffectsWithTags":{"_tags":[]},"durationType":0,"duration":"0","isPeriodic":false,"period":"1","executeOnApplication":false,"attributeModifiers":[],"stackType":0,"stackLimit":0,"stackDurationRefreshPolicy":0,"stackPeriodResetPolicy":0,"stackExpirationPolicy":0,"stackOverflowPolicy":0,"ongoingRequiredTags":{"_tags":[]},"cancelOnAbilityEnd":false,"healSourceType":0,"healFixedValue":2.0,"healFormula":"","healMMCType":0,"healSetByCallerKey":"","healMMCCaptureAttribute":202,"healMMCAttributeSource":0,"healMMCCoefficient":1.0,"healMMCUseSnapshot":true,"healMultiplyByStackCount":false,"healCalculationType":0}</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
           <t>{"outputNodeGuid":"426755b7-c39a-4524-9cb5-960a31a19c10","outputPortName":"每周期执行","inputNodeGuid":"a8c2d6c0-65f1-4bed-8a6a-70197e84bb56","inputPortName":"输入"}</t>
         </is>
       </c>
+      <c r="H5"/>
     </row>
     <row r="6">
       <c r="A6"/>
       <c r="B6"/>
       <c r="C6"/>
       <c r="D6"/>
-      <c r="E6"/>
-      <c r="F6">
+      <c r="E6">
         <v>14</v>
       </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>{"guid":"d086a8c9-8557-4a61-8fd2-64b3c1e543a3","nodeType":14,"position":{"x":1148.666748046875,"y":208.00001525878907},"targetType":1,"requiredTags":{"_tags":[]},"immunityTags":{"_tags":[]},"destroyWithNode":false,"positionSource":0,"positionBindingName":"head","textType":1,"fixedText":"","contextDataKey":"Heal","textColor":{"r":0.04063582420349121,"g":1.0,"b":0.0,"a":1.0},"criticalColor":{"r":1.0,"g":0.5,"b":0.0,"a":1.0},"missColor":{"r":0.5,"g":0.5,"b":0.5,"a":1.0},"fontSize":45.0,"criticalFontSize":60.0,"duration":1.5,"offset":{"x":0.0,"y":0.0},"moveDirection":{"x":0.0,"y":1.0}}</t>
+        </is>
+      </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>{"guid":"d086a8c9-8557-4a61-8fd2-64b3c1e543a3","nodeType":14,"position":{"x":1148.800048828125,"y":208.0},"targetType":1,"requiredTags":{"_tags":[]},"immunityTags":{"_tags":[]},"destroyWithNode":false,"positionSource":0,"positionBindingName":"head","textType":1,"fixedText":"","contextDataKey":"Heal","textColor":{"r":0.04063582420349121,"g":1.0,"b":0.0,"a":1.0},"criticalColor":{"r":1.0,"g":0.5,"b":0.0,"a":1.0},"missColor":{"r":0.5,"g":0.5,"b":0.5,"a":1.0},"fontSize":45.0,"criticalFontSize":60.0,"duration":1.5,"offset":{"x":0.0,"y":0.0},"moveDirection":{"x":0.0,"y":1.0}}</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr">
-        <is>
           <t>{"outputNodeGuid":"a8c2d6c0-65f1-4bed-8a6a-70197e84bb56","outputPortName":"完成效果","inputNodeGuid":"d086a8c9-8557-4a61-8fd2-64b3c1e543a3","inputPortName":"输入"}</t>
         </is>
       </c>
+      <c r="H6"/>
     </row>
     <row r="7">
       <c r="A7"/>
       <c r="B7"/>
       <c r="C7"/>
       <c r="D7"/>
-      <c r="E7"/>
-      <c r="F7">
-        <v>0</v>
+      <c r="E7">
+        <v>10</v>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>{"guid":"7eefd9ae-c57e-439d-b1b6-e7f4e52f2f6f","nodeType":10,"position":{"x":370.6666564941406,"y":484.6666564941406},"targetType":1,"assetTags":{"_tags":[]},"grantedTags":{"_tags":[{"_name":"CD.BeRecBlood","_hashCode":-1099994396,"_shortName":"被动回血","_ancestorHashCodes":[-1137859925],"_ancestorNames":["CD"]}]},"applicationRequiredTags":{"_tags":[]},"applicationImmunityTags":{"_tags":[]},"removeGameEffectsWithTags":{"_tags":[]},"durationType":1,"duration":"3","isPeriodic":false,"period":"1","executeOnApplication":false,"attributeModifiers":[],"stackType":0,"stackLimit":0,"stackDurationRefreshPolicy":0,"stackPeriodResetPolicy":0,"stackExpirationPolicy":0,"stackOverflowPolicy":0,"ongoingRequiredTags":{"_tags":[]},"cancelOnAbilityEnd":false,"cooldownType":0,"maxCharges":2,"chargeTime":"10"}</t>
+        </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>{"guid":"d5809887-df6e-4604-bd09-36cef191ce83","nodeType":0,"position":{"x":210.39999389648438,"y":114.39999389648438},"targetType":1,"skillId":1009,"assetTags":{"_tags":[]},"cancelAbilitiesWithTags":{"_tags":[]},"blockAbilitiesWithTags":{"_tags":[]},"activationOwnedTags":{"_tags":[]},"activationRequiredTags":{"_tags":[]},"activationBlockedTags":{"_tags":[]},"ongoingBlockedTags":{"_tags":[]},"eventOutputPorts":[{"eventType":2,"customEventTag":""}]}</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr">
-        <is>
           <t>{"outputNodeGuid":"d5809887-df6e-4604-bd09-36cef191ce83","outputPortName":"激活","inputNodeGuid":"426755b7-c39a-4524-9cb5-960a31a19c10","inputPortName":"输入"}</t>
         </is>
       </c>
+      <c r="H7"/>
     </row>
     <row r="8">
       <c r="A8"/>
       <c r="B8"/>
       <c r="C8"/>
       <c r="D8"/>
-      <c r="E8"/>
-      <c r="F8">
-        <v>10</v>
+      <c r="E8">
+        <v>11</v>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>{"guid":"426755b7-c39a-4524-9cb5-960a31a19c10","nodeType":11,"position":{"x":587.3333740234375,"y":114.66667175292969},"targetType":1,"assetTags":{"_tags":[]},"grantedTags":{"_tags":[]},"applicationRequiredTags":{"_tags":[]},"applicationImmunityTags":{"_tags":[]},"removeGameEffectsWithTags":{"_tags":[]},"durationType":2,"duration":"10","isPeriodic":true,"period":"1","executeOnApplication":false,"attributeModifiers":[],"stackType":1,"stackLimit":1,"stackDurationRefreshPolicy":0,"stackPeriodResetPolicy":0,"stackExpirationPolicy":0,"stackOverflowPolicy":0,"ongoingRequiredTags":{"_tags":[{"_name":"CD.BeRecBlood","_hashCode":-1099994396,"_shortName":"被动回血","_ancestorHashCodes":[-1137859925],"_ancestorNames":["CD"]}]},"cancelOnAbilityEnd":true,"buffId":0}</t>
+        </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>{"guid":"7eefd9ae-c57e-439d-b1b6-e7f4e52f2f6f","nodeType":10,"position":{"x":370.4000244140625,"y":484.79998779296877},"targetType":1,"assetTags":{"_tags":[]},"grantedTags":{"_tags":[{"_name":"CD.BeRecBlood","_hashCode":-1099994396,"_shortName":"被动回血","_ancestorHashCodes":[-1137859925],"_ancestorNames":["CD"]}]},"applicationRequiredTags":{"_tags":[]},"applicationImmunityTags":{"_tags":[]},"removeGameEffectsWithTags":{"_tags":[]},"durationType":1,"duration":"3","isPeriodic":false,"period":"1","executeOnApplication":false,"attributeModifiers":[],"stackType":0,"stackLimit":0,"stackDurationRefreshPolicy":0,"stackPeriodResetPolicy":0,"stackExpirationPolicy":0,"stackOverflowPolicy":0,"ongoingRequiredTags":{"_tags":[]},"cancelOnAbilityEnd":false,"cooldownType":0,"maxCharges":2,"chargeTime":"10"}</t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr">
-        <is>
           <t>{"outputNodeGuid":"7eefd9ae-c57e-439d-b1b6-e7f4e52f2f6f","outputPortName":"完成效果","inputNodeGuid":"426755b7-c39a-4524-9cb5-960a31a19c10","inputPortName":"输入"}</t>
         </is>
       </c>
+      <c r="H8"/>
     </row>
     <row r="9">
       <c r="A9"/>
       <c r="B9"/>
       <c r="C9"/>
       <c r="D9"/>
-      <c r="E9"/>
-      <c r="F9">
-        <v>11</v>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>{"guid":"426755b7-c39a-4524-9cb5-960a31a19c10","nodeType":11,"position":{"x":587.2000122070313,"y":114.39999389648438},"targetType":1,"assetTags":{"_tags":[]},"grantedTags":{"_tags":[]},"applicationRequiredTags":{"_tags":[]},"applicationImmunityTags":{"_tags":[]},"removeGameEffectsWithTags":{"_tags":[]},"durationType":2,"duration":"10","isPeriodic":true,"period":"1","executeOnApplication":false,"attributeModifiers":[],"stackType":1,"stackLimit":1,"stackDurationRefreshPolicy":0,"stackPeriodResetPolicy":0,"stackExpirationPolicy":0,"stackOverflowPolicy":0,"ongoingRequiredTags":{"_tags":[{"_name":"CD.BeRecBlood","_hashCode":-1099994396,"_shortName":"被动回血","_ancestorHashCodes":[-1137859925],"_ancestorNames":["CD"]}]},"cancelOnAbilityEnd":true,"buffId":0}</t>
-        </is>
-      </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>{"outputNodeGuid":"d5809887-df6e-4604-bd09-36cef191ce83","outputPortName":"受到伤害时","inputNodeGuid":"7eefd9ae-c57e-439d-b1b6-e7f4e52f2f6f","inputPortName":"输入"}</t>
-        </is>
-      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>{"guid":"d5809887-df6e-4604-bd09-36cef191ce83","nodeType":0,"position":{"x":210.66668701171876,"y":114.66667175292969},"targetType":1,"skillId":2001,"assetTags":{"_tags":[]},"cancelAbilitiesWithTags":{"_tags":[]},"blockAbilitiesWithTags":{"_tags":[]},"activationOwnedTags":{"_tags":[]},"activationRequiredTags":{"_tags":[]},"activationBlockedTags":{"_tags":[]},"ongoingBlockedTags":{"_tags":[]},"eventOutputPorts":[{"eventType":2,"customEventTag":""}]}</t>
+        </is>
+      </c>
+      <c r="G9"/>
+      <c r="H9"/>
     </row>
     <row r="10">
       <c r="A10"/>
       <c r="B10">
-        <v>2</v>
+        <v>1002</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Skill_Blood</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
           <t>Blood</t>
         </is>
       </c>
-      <c r="E10"/>
-      <c r="F10">
+      <c r="D10"/>
+      <c r="E10">
         <v>20</v>
       </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>{"guid":"432ff1e3-b18d-476d-af80-d39ddc07402a","nodeType":20,"position":{"x":-472.0,"y":-2380.800048828125},"targetType":1,"skeletonDataAsset":{"instanceID":44398},"animationName":"Attack_02","animationDuration":"22","isAnimationLooping":false,"timeEffects":[{"triggerTime":7,"portId":"de0ba361-3aba-4ef0-bb07-9b418fcae591"},{"triggerTime":22,"portId":"97dc121c-84b7-4f94-9997-02e0e5b2ea6c"}],"timeCues":[{"startTime":7,"endTime":48,"portId":"8dea1941-c520-4f9a-aee0-40932c8542ef"}]}</t>
+        </is>
+      </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>{"guid":"432ff1e3-b18d-476d-af80-d39ddc07402a","nodeType":20,"position":{"x":-472.0,"y":-2380.800048828125},"targetType":1,"skeletonDataAsset":{"instanceID":44398},"animationName":"Attack_02","animationDuration":"22","isAnimationLooping":false,"timeEffects":[{"triggerTime":7,"portId":"de0ba361-3aba-4ef0-bb07-9b418fcae591"},{"triggerTime":22,"portId":"97dc121c-84b7-4f94-9997-02e0e5b2ea6c"}],"timeCues":[{"startTime":7,"endTime":48,"portId":"8dea1941-c520-4f9a-aee0-40932c8542ef"}]}</t>
-        </is>
-      </c>
-      <c r="H10" t="inlineStr">
-        <is>
           <t>{"outputNodeGuid":"432ff1e3-b18d-476d-af80-d39ddc07402a","outputPortName":"8dea1941-c520-4f9a-aee0-40932c8542ef","inputNodeGuid":"cde57fb8-b693-4da8-a4a8-fd61e56c5dcd","inputPortName":"输入"}</t>
         </is>
       </c>
+      <c r="H10"/>
     </row>
     <row r="11">
       <c r="A11"/>
       <c r="B11"/>
       <c r="C11"/>
       <c r="D11"/>
-      <c r="E11"/>
-      <c r="F11">
+      <c r="E11">
         <v>12</v>
       </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>{"guid":"cde57fb8-b693-4da8-a4a8-fd61e56c5dcd","nodeType":12,"position":{"x":677.5999755859375,"y":-1998.4000244140625},"targetType":1,"requiredTags":{"_tags":[]},"immunityTags":{"_tags":[]},"destroyWithNode":false,"positionSource":0,"particlePrefab":{"instanceID":45538},"particleBindingName":"down","particleOffset":{"x":0.0,"y":0.0,"z":0.0},"particleScale":{"x":1.0,"y":1.0,"z":1.0},"attachToTarget":false,"particleLoop":false}</t>
+        </is>
+      </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>{"guid":"cde57fb8-b693-4da8-a4a8-fd61e56c5dcd","nodeType":12,"position":{"x":677.5999755859375,"y":-1998.4000244140625},"targetType":1,"requiredTags":{"_tags":[]},"immunityTags":{"_tags":[]},"destroyWithNode":false,"positionSource":0,"particlePrefab":{"instanceID":45538},"particleBindingName":"down","particleOffset":{"x":0.0,"y":0.0,"z":0.0},"particleScale":{"x":1.0,"y":1.0,"z":1.0},"attachToTarget":false,"particleLoop":false}</t>
-        </is>
-      </c>
-      <c r="H11" t="inlineStr">
-        <is>
           <t>{"outputNodeGuid":"356907e0-1488-4128-bfcc-7ff73cfc3330","outputPortName":"动画","inputNodeGuid":"432ff1e3-b18d-476d-af80-d39ddc07402a","inputPortName":"输入"}</t>
         </is>
       </c>
+      <c r="H11"/>
     </row>
     <row r="12">
       <c r="A12"/>
       <c r="B12"/>
       <c r="C12"/>
       <c r="D12"/>
-      <c r="E12"/>
-      <c r="F12">
+      <c r="E12">
         <v>3</v>
       </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>{"guid":"9d6f459d-b588-4b64-843b-1b71e8f299ae","nodeType":3,"position":{"x":-1186.4000244140625,"y":-2019.199951171875},"targetType":1,"assetTags":{"_tags":[]},"grantedTags":{"_tags":[]},"applicationRequiredTags":{"_tags":[]},"applicationImmunityTags":{"_tags":[]},"removeGameEffectsWithTags":{"_tags":[]},"durationType":0,"duration":"0","isPeriodic":false,"period":"1","executeOnApplication":false,"attributeModifiers":[{"attrType":100,"operation":0,"magnitudeSourceType":0,"fixedValue":10.0,"formula":"","mmcType":0,"setByCallerKey":"","mmcCaptureAttribute":200,"mmcAttributeSource":0,"mmcCoefficient":1.0,"mmcUseSnapshot":true}],"stackType":0,"stackLimit":0,"stackDurationRefreshPolicy":0,"stackPeriodResetPolicy":0,"stackExpirationPolicy":0,"stackOverflowPolicy":0,"ongoingRequiredTags":{"_tags":[]},"cancelOnAbilityEnd":true}</t>
+        </is>
+      </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>{"guid":"9d6f459d-b588-4b64-843b-1b71e8f299ae","nodeType":3,"position":{"x":-1186.4000244140625,"y":-2019.199951171875},"targetType":1,"assetTags":{"_tags":[]},"grantedTags":{"_tags":[]},"applicationRequiredTags":{"_tags":[]},"applicationImmunityTags":{"_tags":[]},"removeGameEffectsWithTags":{"_tags":[]},"durationType":0,"duration":"0","isPeriodic":false,"period":"1","executeOnApplication":false,"attributeModifiers":[{"attrType":100,"operation":0,"magnitudeSourceType":0,"fixedValue":10.0,"formula":"","mmcType":0,"setByCallerKey":"","mmcCaptureAttribute":200,"mmcAttributeSource":0,"mmcCoefficient":1.0,"mmcUseSnapshot":true}],"stackType":0,"stackLimit":0,"stackDurationRefreshPolicy":0,"stackPeriodResetPolicy":0,"stackExpirationPolicy":0,"stackOverflowPolicy":0,"ongoingRequiredTags":{"_tags":[]},"cancelOnAbilityEnd":true}</t>
-        </is>
-      </c>
-      <c r="H12" t="inlineStr">
-        <is>
           <t>{"outputNodeGuid":"356907e0-1488-4128-bfcc-7ff73cfc3330","outputPortName":"冷却","inputNodeGuid":"c28fb88d-51b1-47b2-be59-859e0ac638e3","inputPortName":"输入"}</t>
         </is>
       </c>
+      <c r="H12"/>
     </row>
     <row r="13">
       <c r="A13"/>
       <c r="B13"/>
       <c r="C13"/>
       <c r="D13"/>
-      <c r="E13"/>
-      <c r="F13">
+      <c r="E13">
         <v>10</v>
       </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>{"guid":"c28fb88d-51b1-47b2-be59-859e0ac638e3","nodeType":10,"position":{"x":-1186.4000244140625,"y":-1825.5999755859375},"targetType":1,"assetTags":{"_tags":[]},"grantedTags":{"_tags":[{"_name":"CD.Blood","_hashCode":-1868013560,"_shortName":"流血","_ancestorHashCodes":[-1137859925],"_ancestorNames":["CD"]}]},"applicationRequiredTags":{"_tags":[]},"applicationImmunityTags":{"_tags":[]},"removeGameEffectsWithTags":{"_tags":[]},"durationType":1,"duration":"3","isPeriodic":false,"period":"1","executeOnApplication":false,"attributeModifiers":[],"stackType":0,"stackLimit":0,"stackDurationRefreshPolicy":0,"stackPeriodResetPolicy":0,"stackExpirationPolicy":0,"stackOverflowPolicy":0,"ongoingRequiredTags":{"_tags":[]},"cancelOnAbilityEnd":false,"cooldownType":0,"maxCharges":2,"chargeTime":"10"}</t>
+        </is>
+      </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>{"guid":"c28fb88d-51b1-47b2-be59-859e0ac638e3","nodeType":10,"position":{"x":-1186.4000244140625,"y":-1825.5999755859375},"targetType":1,"assetTags":{"_tags":[]},"grantedTags":{"_tags":[{"_name":"CD.Blood","_hashCode":-1868013560,"_shortName":"流血","_ancestorHashCodes":[-1137859925],"_ancestorNames":["CD"]}]},"applicationRequiredTags":{"_tags":[]},"applicationImmunityTags":{"_tags":[]},"removeGameEffectsWithTags":{"_tags":[]},"durationType":1,"duration":"3","isPeriodic":false,"period":"1","executeOnApplication":false,"attributeModifiers":[],"stackType":0,"stackLimit":0,"stackDurationRefreshPolicy":0,"stackPeriodResetPolicy":0,"stackExpirationPolicy":0,"stackOverflowPolicy":0,"ongoingRequiredTags":{"_tags":[]},"cancelOnAbilityEnd":false,"cooldownType":0,"maxCharges":2,"chargeTime":"10"}</t>
-        </is>
-      </c>
-      <c r="H13" t="inlineStr">
-        <is>
           <t>{"outputNodeGuid":"356907e0-1488-4128-bfcc-7ff73cfc3330","outputPortName":"消耗","inputNodeGuid":"9d6f459d-b588-4b64-843b-1b71e8f299ae","inputPortName":"输入"}</t>
         </is>
       </c>
+      <c r="H13"/>
     </row>
     <row r="14">
       <c r="A14"/>
       <c r="B14"/>
       <c r="C14"/>
       <c r="D14"/>
-      <c r="E14"/>
-      <c r="F14">
+      <c r="E14">
         <v>14</v>
       </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>{"guid":"c353e286-8ef0-460a-b917-887f2aeb390a","nodeType":14,"position":{"x":383.20001220703127,"y":-1531.199951171875},"targetType":1,"requiredTags":{"_tags":[]},"immunityTags":{"_tags":[]},"destroyWithNode":false,"positionSource":2,"positionBindingName":"head","textType":0,"fixedText":"","contextDataKey":"DamageResult","textColor":{"r":1.0,"g":0.0,"b":0.0,"a":1.0},"criticalColor":{"r":1.0,"g":0.5,"b":0.0,"a":1.0},"missColor":{"r":0.5,"g":0.5,"b":0.5,"a":1.0},"fontSize":45.0,"criticalFontSize":60.0,"duration":1.5,"offset":{"x":0.0,"y":0.0},"moveDirection":{"x":0.0,"y":1.0}}</t>
+        </is>
+      </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>{"guid":"c353e286-8ef0-460a-b917-887f2aeb390a","nodeType":14,"position":{"x":383.20001220703127,"y":-1531.199951171875},"targetType":1,"requiredTags":{"_tags":[]},"immunityTags":{"_tags":[]},"destroyWithNode":false,"positionSource":2,"positionBindingName":"head","textType":0,"fixedText":"","contextDataKey":"DamageResult","textColor":{"r":1.0,"g":0.0,"b":0.0,"a":1.0},"criticalColor":{"r":1.0,"g":0.5,"b":0.0,"a":1.0},"missColor":{"r":0.5,"g":0.5,"b":0.5,"a":1.0},"fontSize":45.0,"criticalFontSize":60.0,"duration":1.5,"offset":{"x":0.0,"y":0.0},"moveDirection":{"x":0.0,"y":1.0}}</t>
-        </is>
-      </c>
-      <c r="H14" t="inlineStr">
-        <is>
           <t>{"outputNodeGuid":"432ff1e3-b18d-476d-af80-d39ddc07402a","outputPortName":"de0ba361-3aba-4ef0-bb07-9b418fcae591","inputNodeGuid":"e33ab94c-1496-4d6a-ba5e-1afd38bb0c30","inputPortName":"输入"}</t>
         </is>
       </c>
+      <c r="H14"/>
     </row>
     <row r="15">
       <c r="A15"/>
       <c r="B15"/>
       <c r="C15"/>
       <c r="D15"/>
-      <c r="E15"/>
-      <c r="F15">
+      <c r="E15">
         <v>0</v>
       </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>{"guid":"356907e0-1488-4128-bfcc-7ff73cfc3330","nodeType":0,"position":{"x":-878.4000244140625,"y":-1853.5999755859375},"targetType":1,"skillId":1002,"assetTags":{"_tags":[]},"cancelAbilitiesWithTags":{"_tags":[]},"blockAbilitiesWithTags":{"_tags":[]},"activationOwnedTags":{"_tags":[]},"activationRequiredTags":{"_tags":[]},"activationBlockedTags":{"_tags":[{"_name":"CD.Blood","_hashCode":-1868013560,"_shortName":"流血","_ancestorHashCodes":[-1137859925],"_ancestorNames":["CD"]}]},"ongoingBlockedTags":{"_tags":[]},"eventOutputPorts":[]}</t>
+        </is>
+      </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>{"guid":"356907e0-1488-4128-bfcc-7ff73cfc3330","nodeType":0,"position":{"x":-878.4000244140625,"y":-1853.5999755859375},"targetType":1,"skillId":1002,"assetTags":{"_tags":[]},"cancelAbilitiesWithTags":{"_tags":[]},"blockAbilitiesWithTags":{"_tags":[]},"activationOwnedTags":{"_tags":[]},"activationRequiredTags":{"_tags":[]},"activationBlockedTags":{"_tags":[{"_name":"CD.Blood","_hashCode":-1868013560,"_shortName":"流血","_ancestorHashCodes":[-1137859925],"_ancestorNames":["CD"]}]},"ongoingBlockedTags":{"_tags":[]},"eventOutputPorts":[]}</t>
-        </is>
-      </c>
-      <c r="H15" t="inlineStr">
-        <is>
           <t>{"outputNodeGuid":"f8947676-1084-4228-b991-1509cc7fe851","outputPortName":"完成效果","inputNodeGuid":"c353e286-8ef0-460a-b917-887f2aeb390a","inputPortName":"输入"}</t>
         </is>
       </c>
+      <c r="H15"/>
     </row>
     <row r="16">
       <c r="A16"/>
       <c r="B16"/>
       <c r="C16"/>
       <c r="D16"/>
-      <c r="E16"/>
-      <c r="F16">
+      <c r="E16">
         <v>7</v>
       </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>{"guid":"011aad56-e96c-41eb-9d85-e793d74a40bb","nodeType":7,"position":{"x":677.5999755859375,"y":-1879.199951171875},"targetType":1,"endType":0}</t>
+        </is>
+      </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>{"guid":"011aad56-e96c-41eb-9d85-e793d74a40bb","nodeType":7,"position":{"x":677.5999755859375,"y":-1879.199951171875},"targetType":1,"endType":0}</t>
-        </is>
-      </c>
-      <c r="H16" t="inlineStr">
-        <is>
           <t>{"outputNodeGuid":"e33ab94c-1496-4d6a-ba5e-1afd38bb0c30","outputPortName":"对每个目标","inputNodeGuid":"cb1df36f-5729-423e-9d1a-287db5a433f0","inputPortName":"输入"}</t>
         </is>
       </c>
+      <c r="H16"/>
     </row>
     <row r="17">
       <c r="A17"/>
       <c r="B17"/>
       <c r="C17"/>
       <c r="D17"/>
-      <c r="E17"/>
-      <c r="F17">
+      <c r="E17">
         <v>1</v>
       </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>{"guid":"f8947676-1084-4228-b991-1509cc7fe851","nodeType":1,"position":{"x":195.20001220703126,"y":-1761.5999755859375},"targetType":0,"assetTags":{"_tags":[]},"grantedTags":{"_tags":[]},"applicationRequiredTags":{"_tags":[]},"applicationImmunityTags":{"_tags":[]},"removeGameEffectsWithTags":{"_tags":[]},"durationType":0,"duration":"0","isPeriodic":false,"period":"1","executeOnApplication":false,"attributeModifiers":[],"stackType":0,"stackLimit":0,"stackDurationRefreshPolicy":0,"stackPeriodResetPolicy":0,"stackExpirationPolicy":0,"stackOverflowPolicy":0,"ongoingRequiredTags":{"_tags":[]},"cancelOnAbilityEnd":true,"damageType":0,"damageSourceType":0,"damageFixedValue":3.0,"damageFormula":"","damageMMCType":0,"damageSetByCallerKey":"","damageMMCCaptureAttribute":200,"damageMMCAttributeSource":0,"damageMMCCoefficient":1.0,"damageMMCUseSnapshot":true,"damageMultiplyByStackCount":true,"damageCalculationType":0}</t>
+        </is>
+      </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>{"guid":"f8947676-1084-4228-b991-1509cc7fe851","nodeType":1,"position":{"x":195.20001220703126,"y":-1761.5999755859375},"targetType":0,"assetTags":{"_tags":[]},"grantedTags":{"_tags":[]},"applicationRequiredTags":{"_tags":[]},"applicationImmunityTags":{"_tags":[]},"removeGameEffectsWithTags":{"_tags":[]},"durationType":0,"duration":"0","isPeriodic":false,"period":"1","executeOnApplication":false,"attributeModifiers":[],"stackType":0,"stackLimit":0,"stackDurationRefreshPolicy":0,"stackPeriodResetPolicy":0,"stackExpirationPolicy":0,"stackOverflowPolicy":0,"ongoingRequiredTags":{"_tags":[]},"cancelOnAbilityEnd":true,"damageType":0,"damageSourceType":0,"damageFixedValue":3.0,"damageFormula":"","damageMMCType":0,"damageSetByCallerKey":"","damageMMCCaptureAttribute":200,"damageMMCAttributeSource":0,"damageMMCCoefficient":1.0,"damageMMCUseSnapshot":true,"damageMultiplyByStackCount":true,"damageCalculationType":0}</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr">
-        <is>
           <t>{"outputNodeGuid":"cb1df36f-5729-423e-9d1a-287db5a433f0","outputPortName":"每周期执行","inputNodeGuid":"f8947676-1084-4228-b991-1509cc7fe851","inputPortName":"输入"}</t>
         </is>
       </c>
+      <c r="H17"/>
     </row>
     <row r="18">
       <c r="A18"/>
       <c r="B18"/>
       <c r="C18"/>
       <c r="D18"/>
-      <c r="E18"/>
-      <c r="F18">
+      <c r="E18">
         <v>11</v>
       </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>{"guid":"cb1df36f-5729-423e-9d1a-287db5a433f0","nodeType":11,"position":{"x":-160.8000030517578,"y":-1761.5999755859375},"targetType":0,"assetTags":{"_tags":[{"_name":"Buff.DeBuff.Dot","_hashCode":-637848644,"_shortName":"Dot","_ancestorHashCodes":[937056111,321157895],"_ancestorNames":["Buff","Buff.DeBuff"]}]},"grantedTags":{"_tags":[]},"applicationRequiredTags":{"_tags":[]},"applicationImmunityTags":{"_tags":[]},"removeGameEffectsWithTags":{"_tags":[]},"durationType":1,"duration":"10","isPeriodic":true,"period":"1","executeOnApplication":false,"attributeModifiers":[],"stackType":1,"stackLimit":3,"stackDurationRefreshPolicy":0,"stackPeriodResetPolicy":1,"stackExpirationPolicy":0,"stackOverflowPolicy":0,"ongoingRequiredTags":{"_tags":[]},"cancelOnAbilityEnd":false,"buffId":0}</t>
+        </is>
+      </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>{"guid":"cb1df36f-5729-423e-9d1a-287db5a433f0","nodeType":11,"position":{"x":-160.8000030517578,"y":-1761.5999755859375},"targetType":0,"assetTags":{"_tags":[{"_name":"Buff.DeBuff.Dot","_hashCode":-637848644,"_shortName":"Dot","_ancestorHashCodes":[937056111,321157895],"_ancestorNames":["Buff","Buff.DeBuff"]}]},"grantedTags":{"_tags":[]},"applicationRequiredTags":{"_tags":[]},"applicationImmunityTags":{"_tags":[]},"removeGameEffectsWithTags":{"_tags":[]},"durationType":1,"duration":"10","isPeriodic":true,"period":"1","executeOnApplication":false,"attributeModifiers":[],"stackType":1,"stackLimit":3,"stackDurationRefreshPolicy":0,"stackPeriodResetPolicy":1,"stackExpirationPolicy":0,"stackOverflowPolicy":0,"ongoingRequiredTags":{"_tags":[]},"cancelOnAbilityEnd":false,"buffId":0}</t>
-        </is>
-      </c>
-      <c r="H18" t="inlineStr">
-        <is>
           <t>{"outputNodeGuid":"432ff1e3-b18d-476d-af80-d39ddc07402a","outputPortName":"97dc121c-84b7-4f94-9997-02e0e5b2ea6c","inputNodeGuid":"011aad56-e96c-41eb-9d85-e793d74a40bb","inputPortName":"输入"}</t>
         </is>
       </c>
+      <c r="H18"/>
     </row>
     <row r="19">
       <c r="A19"/>
       <c r="B19"/>
       <c r="C19"/>
       <c r="D19"/>
-      <c r="E19"/>
-      <c r="F19">
+      <c r="E19">
         <v>4</v>
       </c>
-      <c r="G19" t="inlineStr">
+      <c r="F19" t="inlineStr">
         <is>
           <t>{"guid":"e33ab94c-1496-4d6a-ba5e-1afd38bb0c30","nodeType":4,"position":{"x":-452.0,"y":-1786.4000244140625},"targetType":1,"searchShapeType":1,"searchLineType":0,"positionSource":0,"positionBindingName":"center","searchCircleRadius":5.0,"searchSectorRadius":2.0,"searchSectorAngle":180.0,"searchLineDirectionOffsetAngle":0.0,"searchLineDirectionWidth":1.0,"searchLineDirectionLength":10.0,"lineStartPositionSource":0,"lineStartBindingName":"","lineEndPositionSource":1,"lineEndBindingName":"","searchLineBetweenWidth":1.0,"searchLineAbsoluteAngle":0.0,"searchLineAbsoluteWidth":1.0,"searchLineAbsoluteLength":10.0,"maxTargets":999,"searchTargetTags":{"_tags":[{"_name":"unitType.monster","_hashCode":-2021655864,"_shortName":"monster","_ancestorHashCodes":[1600484460],"_ancestorNames":["unitType"]}]},"searchExcludeTags":{"_tags":[]}}</t>
         </is>
       </c>
+      <c r="G19"/>
       <c r="H19"/>
     </row>
     <row r="20">
       <c r="A20"/>
       <c r="B20">
+        <v>7001</v>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>FireCircle</t>
+        </is>
+      </c>
+      <c r="D20"/>
+      <c r="E20">
         <v>3</v>
       </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>Skill_FireCircle</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>FireCircle</t>
-        </is>
-      </c>
-      <c r="E20"/>
-      <c r="F20">
-        <v>3</v>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>{"guid":"9d6f459d-b588-4b64-843b-1b71e8f299ae","nodeType":3,"position":{"x":-1186.6666259765625,"y":-2011.3333740234375},"targetType":1,"assetTags":{"_tags":[]},"grantedTags":{"_tags":[]},"applicationRequiredTags":{"_tags":[]},"applicationImmunityTags":{"_tags":[]},"removeGameEffectsWithTags":{"_tags":[]},"durationType":0,"duration":"0","isPeriodic":false,"period":"1","executeOnApplication":false,"attributeModifiers":[{"attrType":100,"operation":0,"magnitudeSourceType":0,"fixedValue":10.0,"formula":"","mmcType":0,"setByCallerKey":"","mmcCaptureAttribute":200,"mmcAttributeSource":0,"mmcCoefficient":1.0,"mmcUseSnapshot":true}],"stackType":0,"stackLimit":0,"stackDurationRefreshPolicy":0,"stackPeriodResetPolicy":0,"stackExpirationPolicy":0,"stackOverflowPolicy":0,"ongoingRequiredTags":{"_tags":[]},"cancelOnAbilityEnd":true}</t>
+        </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>{"guid":"9d6f459d-b588-4b64-843b-1b71e8f299ae","nodeType":3,"position":{"x":-1186.4000244140625,"y":-2011.199951171875},"targetType":1,"assetTags":{"_tags":[]},"grantedTags":{"_tags":[]},"applicationRequiredTags":{"_tags":[]},"applicationImmunityTags":{"_tags":[]},"removeGameEffectsWithTags":{"_tags":[]},"durationType":0,"duration":"0","isPeriodic":false,"period":"1","executeOnApplication":false,"attributeModifiers":[{"attrType":100,"operation":0,"magnitudeSourceType":0,"fixedValue":10.0,"formula":"","mmcType":0,"setByCallerKey":"","mmcCaptureAttribute":200,"mmcAttributeSource":0,"mmcCoefficient":1.0,"mmcUseSnapshot":true}],"stackType":0,"stackLimit":0,"stackDurationRefreshPolicy":0,"stackPeriodResetPolicy":0,"stackExpirationPolicy":0,"stackOverflowPolicy":0,"ongoingRequiredTags":{"_tags":[]},"cancelOnAbilityEnd":true}</t>
-        </is>
-      </c>
-      <c r="H20" t="inlineStr">
-        <is>
           <t>{"outputNodeGuid":"356907e0-1488-4128-bfcc-7ff73cfc3330","outputPortName":"动画","inputNodeGuid":"432ff1e3-b18d-476d-af80-d39ddc07402a","inputPortName":"输入"}</t>
         </is>
       </c>
+      <c r="H20"/>
     </row>
     <row r="21">
       <c r="A21"/>
       <c r="B21"/>
       <c r="C21"/>
       <c r="D21"/>
-      <c r="E21"/>
-      <c r="F21">
-        <v>0</v>
+      <c r="E21">
+        <v>1</v>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>{"guid":"eae41233-d297-46fe-a6c8-0b5c876fbb2a","nodeType":1,"position":{"x":46.66668701171875,"y":-1808.666748046875},"targetType":0,"assetTags":{"_tags":[]},"grantedTags":{"_tags":[]},"applicationRequiredTags":{"_tags":[]},"applicationImmunityTags":{"_tags":[]},"removeGameEffectsWithTags":{"_tags":[]},"durationType":0,"duration":"0","isPeriodic":false,"period":"1","executeOnApplication":false,"attributeModifiers":[],"stackType":0,"stackLimit":0,"stackDurationRefreshPolicy":0,"stackPeriodResetPolicy":0,"stackExpirationPolicy":0,"stackOverflowPolicy":0,"ongoingRequiredTags":{"_tags":[]},"cancelOnAbilityEnd":true,"damageType":0,"damageSourceType":0,"damageFixedValue":10.0,"damageFormula":"","damageMMCType":0,"damageSetByCallerKey":"","damageMMCCaptureAttribute":200,"damageMMCAttributeSource":0,"damageMMCCoefficient":1.0,"damageMMCUseSnapshot":true,"damageMultiplyByStackCount":false,"damageCalculationType":0}</t>
+        </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>{"guid":"356907e0-1488-4128-bfcc-7ff73cfc3330","nodeType":0,"position":{"x":-878.4000244140625,"y":-1853.5999755859375},"targetType":1,"skillId":1004,"assetTags":{"_tags":[]},"cancelAbilitiesWithTags":{"_tags":[]},"blockAbilitiesWithTags":{"_tags":[]},"activationOwnedTags":{"_tags":[]},"activationRequiredTags":{"_tags":[]},"activationBlockedTags":{"_tags":[{"_name":"CD.FireCircle","_hashCode":1979572373,"_shortName":"旋风斩","_ancestorHashCodes":[-1137859925],"_ancestorNames":["CD"]}]},"ongoingBlockedTags":{"_tags":[]},"eventOutputPorts":[]}</t>
-        </is>
-      </c>
-      <c r="H21" t="inlineStr">
-        <is>
           <t>{"outputNodeGuid":"356907e0-1488-4128-bfcc-7ff73cfc3330","outputPortName":"冷却","inputNodeGuid":"c28fb88d-51b1-47b2-be59-859e0ac638e3","inputPortName":"输入"}</t>
         </is>
       </c>
+      <c r="H21"/>
     </row>
     <row r="22">
       <c r="A22"/>
       <c r="B22"/>
       <c r="C22"/>
       <c r="D22"/>
-      <c r="E22"/>
-      <c r="F22">
+      <c r="E22">
         <v>14</v>
       </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>{"guid":"2d7e41c4-8e90-4b61-879c-4b2e5b9486db","nodeType":14,"position":{"x":408.6666564941406,"y":-1747.3333740234375},"targetType":1,"requiredTags":{"_tags":[]},"immunityTags":{"_tags":[]},"destroyWithNode":false,"positionSource":2,"positionBindingName":"head","textType":0,"fixedText":"","contextDataKey":"DamageResult","textColor":{"r":0.0,"g":0.323091983795166,"b":1.0,"a":1.0},"criticalColor":{"r":1.0,"g":0.5,"b":0.0,"a":1.0},"missColor":{"r":0.5,"g":0.5,"b":0.5,"a":1.0},"fontSize":45.0,"criticalFontSize":60.0,"duration":1.5,"offset":{"x":0.0,"y":0.0},"moveDirection":{"x":0.0,"y":1.0}}</t>
+        </is>
+      </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>{"guid":"764289ea-065e-4f48-afc0-0f6963d18d57","nodeType":14,"position":{"x":492.0,"y":-1539.199951171875},"targetType":1,"requiredTags":{"_tags":[]},"immunityTags":{"_tags":[]},"destroyWithNode":false,"positionSource":2,"positionBindingName":"head","textType":0,"fixedText":"","contextDataKey":"DamageResult","textColor":{"r":1.0,"g":0.0,"b":0.0,"a":1.0},"criticalColor":{"r":1.0,"g":0.5,"b":0.0,"a":1.0},"missColor":{"r":0.5,"g":0.5,"b":0.5,"a":1.0},"fontSize":45.0,"criticalFontSize":60.0,"duration":1.5,"offset":{"x":0.0,"y":0.0},"moveDirection":{"x":0.0,"y":1.0}}</t>
-        </is>
-      </c>
-      <c r="H22" t="inlineStr">
-        <is>
           <t>{"outputNodeGuid":"356907e0-1488-4128-bfcc-7ff73cfc3330","outputPortName":"消耗","inputNodeGuid":"9d6f459d-b588-4b64-843b-1b71e8f299ae","inputPortName":"输入"}</t>
         </is>
       </c>
+      <c r="H22"/>
     </row>
     <row r="23">
       <c r="A23"/>
       <c r="B23"/>
       <c r="C23"/>
       <c r="D23"/>
-      <c r="E23"/>
-      <c r="F23">
-        <v>1</v>
+      <c r="E23">
+        <v>10</v>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>{"guid":"c28fb88d-51b1-47b2-be59-859e0ac638e3","nodeType":10,"position":{"x":-1186.6666259765625,"y":-1747.3333740234375},"targetType":1,"assetTags":{"_tags":[]},"grantedTags":{"_tags":[{"_name":"CD.RuFood","_hashCode":-1710429436,"_shortName":"火球术","_ancestorHashCodes":[-1137859925],"_ancestorNames":["CD"]}]},"applicationRequiredTags":{"_tags":[]},"applicationImmunityTags":{"_tags":[]},"removeGameEffectsWithTags":{"_tags":[]},"durationType":1,"duration":"1","isPeriodic":false,"period":"1","executeOnApplication":false,"attributeModifiers":[],"stackType":0,"stackLimit":0,"stackDurationRefreshPolicy":0,"stackPeriodResetPolicy":0,"stackExpirationPolicy":0,"stackOverflowPolicy":0,"ongoingRequiredTags":{"_tags":[]},"cancelOnAbilityEnd":false,"cooldownType":0,"maxCharges":2,"chargeTime":"10"}</t>
+        </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>{"guid":"a32d1135-94db-4f81-95ba-9d5f105ef8d0","nodeType":1,"position":{"x":308.79998779296877,"y":-1720.0},"targetType":0,"assetTags":{"_tags":[]},"grantedTags":{"_tags":[]},"applicationRequiredTags":{"_tags":[]},"applicationImmunityTags":{"_tags":[]},"removeGameEffectsWithTags":{"_tags":[]},"durationType":0,"duration":"0","isPeriodic":false,"period":"1","executeOnApplication":false,"attributeModifiers":[],"stackType":0,"stackLimit":0,"stackDurationRefreshPolicy":0,"stackPeriodResetPolicy":0,"stackExpirationPolicy":0,"stackOverflowPolicy":0,"ongoingRequiredTags":{"_tags":[]},"cancelOnAbilityEnd":true,"damageType":0,"damageSourceType":0,"damageFixedValue":1.0,"damageFormula":"","damageMMCType":0,"damageSetByCallerKey":"","damageMMCCaptureAttribute":200,"damageMMCAttributeSource":0,"damageMMCCoefficient":1.0,"damageMMCUseSnapshot":true,"damageMultiplyByStackCount":false,"damageCalculationType":0}</t>
-        </is>
-      </c>
-      <c r="H23" t="inlineStr">
-        <is>
-          <t>{"outputNodeGuid":"356907e0-1488-4128-bfcc-7ff73cfc3330","outputPortName":"激活","inputNodeGuid":"d8847c3e-459e-4589-a96b-37ebb5ec458b","inputPortName":"输入"}</t>
-        </is>
-      </c>
+          <t>{"outputNodeGuid":"432ff1e3-b18d-476d-af80-d39ddc07402a","outputPortName":"de0ba361-3aba-4ef0-bb07-9b418fcae591","inputNodeGuid":"90bacd9f-d882-4bba-aaa8-41ed993ac3ff","inputPortName":"输入"}</t>
+        </is>
+      </c>
+      <c r="H23"/>
     </row>
     <row r="24">
       <c r="A24"/>
       <c r="B24"/>
       <c r="C24"/>
       <c r="D24"/>
-      <c r="E24"/>
-      <c r="F24">
-        <v>20</v>
+      <c r="E24">
+        <v>7</v>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>{"guid":"3aafa9a5-4766-4204-91ab-d797aeb3c0e1","nodeType":7,"position":{"x":580.6666259765625,"y":-1987.3333740234375},"targetType":1,"endType":0}</t>
+        </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>{"guid":"432ff1e3-b18d-476d-af80-d39ddc07402a","nodeType":20,"position":{"x":-452.0,"y":-2375.199951171875},"targetType":1,"skeletonDataAsset":{"instanceID":44398},"animationName":"Skill_attack_1011","animationDuration":"12","isAnimationLooping":true,"timeEffects":[{"triggerTime":250,"portId":"f41c85e0-7f26-494e-9ffc-4a06c980f811"}],"timeCues":[{"startTime":0,"endTime":255,"portId":"8dea1941-c520-4f9a-aee0-40932c8542ef"}]}</t>
-        </is>
-      </c>
-      <c r="H24" t="inlineStr">
-        <is>
-          <t>{"outputNodeGuid":"d8847c3e-459e-4589-a96b-37ebb5ec458b","outputPortName":"每周期执行","inputNodeGuid":"e33ab94c-1496-4d6a-ba5e-1afd38bb0c30","inputPortName":"输入"}</t>
-        </is>
-      </c>
+          <t>{"outputNodeGuid":"90bacd9f-d882-4bba-aaa8-41ed993ac3ff","outputPortName":"碰撞时","inputNodeGuid":"eae41233-d297-46fe-a6c8-0b5c876fbb2a","inputPortName":"输入"}</t>
+        </is>
+      </c>
+      <c r="H24"/>
     </row>
     <row r="25">
       <c r="A25"/>
       <c r="B25"/>
       <c r="C25"/>
       <c r="D25"/>
-      <c r="E25"/>
-      <c r="F25">
-        <v>12</v>
+      <c r="E25">
+        <v>20</v>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>{"guid":"432ff1e3-b18d-476d-af80-d39ddc07402a","nodeType":20,"position":{"x":-491.33331298828127,"y":-2478.66650390625},"targetType":1,"skeletonDataAsset":{"instanceID":44578},"animationName":"Attack","animationDuration":"24","isAnimationLooping":false,"timeEffects":[{"triggerTime":11,"portId":"de0ba361-3aba-4ef0-bb07-9b418fcae591"},{"triggerTime":24,"portId":"7ecf9fe6-7c5e-46ae-bade-7922214225e2"}],"timeCues":[]}</t>
+        </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>{"guid":"cde57fb8-b693-4da8-a4a8-fd61e56c5dcd","nodeType":12,"position":{"x":677.5999755859375,"y":-1998.4000244140625},"targetType":1,"requiredTags":{"_tags":[]},"immunityTags":{"_tags":[]},"destroyWithNode":true,"positionSource":0,"particlePrefab":{"instanceID":45710},"particleBindingName":"down","particleOffset":{"x":0.0,"y":0.0,"z":0.0},"particleScale":{"x":1.0,"y":1.0,"z":1.0},"attachToTarget":true,"particleLoop":true}</t>
-        </is>
-      </c>
-      <c r="H25" t="inlineStr">
-        <is>
-          <t>{"outputNodeGuid":"e33ab94c-1496-4d6a-ba5e-1afd38bb0c30","outputPortName":"对每个目标","inputNodeGuid":"a32d1135-94db-4f81-95ba-9d5f105ef8d0","inputPortName":"输入"}</t>
-        </is>
-      </c>
+          <t>{"outputNodeGuid":"eae41233-d297-46fe-a6c8-0b5c876fbb2a","outputPortName":"完成效果","inputNodeGuid":"2d7e41c4-8e90-4b61-879c-4b2e5b9486db","inputPortName":"输入"}</t>
+        </is>
+      </c>
+      <c r="H25"/>
     </row>
     <row r="26">
       <c r="A26"/>
       <c r="B26"/>
       <c r="C26"/>
       <c r="D26"/>
-      <c r="E26"/>
-      <c r="F26">
-        <v>10</v>
+      <c r="E26">
+        <v>0</v>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>{"guid":"356907e0-1488-4128-bfcc-7ff73cfc3330","nodeType":0,"position":{"x":-878.6666259765625,"y":-1853.3333740234375},"targetType":1,"skillId":1004,"assetTags":{"_tags":[]},"cancelAbilitiesWithTags":{"_tags":[]},"blockAbilitiesWithTags":{"_tags":[]},"activationOwnedTags":{"_tags":[]},"activationRequiredTags":{"_tags":[]},"activationBlockedTags":{"_tags":[{"_name":"CD.Wind","_hashCode":1982736573,"_shortName":"Wind","_ancestorHashCodes":[-1137859925],"_ancestorNames":["CD"]}]},"ongoingBlockedTags":{"_tags":[{"_name":"Buff.DeBuff.Stun","_hashCode":1791562953,"_shortName":"Stun","_ancestorHashCodes":[937056111,321157895],"_ancestorNames":["Buff","Buff.DeBuff"]}]},"eventOutputPorts":[]}</t>
+        </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>{"guid":"c28fb88d-51b1-47b2-be59-859e0ac638e3","nodeType":10,"position":{"x":-1186.4000244140625,"y":-1747.199951171875},"targetType":1,"assetTags":{"_tags":[]},"grantedTags":{"_tags":[{"_name":"CD.FireCircle","_hashCode":1979572373,"_shortName":"旋风斩","_ancestorHashCodes":[-1137859925],"_ancestorNames":["CD"]}]},"applicationRequiredTags":{"_tags":[]},"applicationImmunityTags":{"_tags":[]},"removeGameEffectsWithTags":{"_tags":[]},"durationType":1,"duration":"15","isPeriodic":false,"period":"1","executeOnApplication":false,"attributeModifiers":[],"stackType":0,"stackLimit":0,"stackDurationRefreshPolicy":0,"stackPeriodResetPolicy":0,"stackExpirationPolicy":0,"stackOverflowPolicy":0,"ongoingRequiredTags":{"_tags":[]},"cancelOnAbilityEnd":false,"cooldownType":0,"maxCharges":2,"chargeTime":"10"}</t>
-        </is>
-      </c>
-      <c r="H26" t="inlineStr">
-        <is>
-          <t>{"outputNodeGuid":"a32d1135-94db-4f81-95ba-9d5f105ef8d0","outputPortName":"完成效果","inputNodeGuid":"764289ea-065e-4f48-afc0-0f6963d18d57","inputPortName":"输入"}</t>
-        </is>
-      </c>
+          <t>{"outputNodeGuid":"432ff1e3-b18d-476d-af80-d39ddc07402a","outputPortName":"7ecf9fe6-7c5e-46ae-bade-7922214225e2","inputNodeGuid":"3aafa9a5-4766-4204-91ab-d797aeb3c0e1","inputPortName":"输入"}</t>
+        </is>
+      </c>
+      <c r="H26"/>
     </row>
     <row r="27">
       <c r="A27"/>
       <c r="B27"/>
       <c r="C27"/>
       <c r="D27"/>
-      <c r="E27"/>
-      <c r="F27">
-        <v>7</v>
-      </c>
-      <c r="G27" t="inlineStr">
-        <is>
-          <t>{"guid":"f73ba91e-a76b-456c-b19c-a5176809d5f5","nodeType":7,"position":{"x":700.0,"y":-1856.800048828125},"targetType":1,"endType":0}</t>
-        </is>
-      </c>
-      <c r="H27" t="inlineStr">
-        <is>
-          <t>{"outputNodeGuid":"432ff1e3-b18d-476d-af80-d39ddc07402a","outputPortName":"8dea1941-c520-4f9a-aee0-40932c8542ef","inputNodeGuid":"cde57fb8-b693-4da8-a4a8-fd61e56c5dcd","inputPortName":"输入"}</t>
-        </is>
-      </c>
+      <c r="E27">
+        <v>8</v>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>{"guid":"90bacd9f-d882-4bba-aaa8-41ed993ac3ff","nodeType":8,"position":{"x":-401.33331298828127,"y":-1826.666748046875},"targetType":2,"assetTags":{"_tags":[]},"grantedTags":{"_tags":[]},"applicationRequiredTags":{"_tags":[]},"applicationImmunityTags":{"_tags":[]},"removeGameEffectsWithTags":{"_tags":[]},"durationType":2,"duration":"0","isPeriodic":false,"period":"1","executeOnApplication":false,"attributeModifiers":[],"stackType":0,"stackLimit":0,"stackDurationRefreshPolicy":0,"stackPeriodResetPolicy":0,"stackExpirationPolicy":0,"stackOverflowPolicy":0,"ongoingRequiredTags":{"_tags":[]},"cancelOnAbilityEnd":false,"launchPositionSource":0,"launchBindingName":"center","targetPositionSource":1,"targetBindingName":"center","projectileTargetType":0,"flyOver":false,"offsetAngle":0.0,"curveHeight":0.0,"projectilePrefab":{"instanceID":45446},"speed":3.0,"maxDistance":10.0,"collisionRadius":0.5,"isPiercing":false,"maxPierceCount":1,"collisionTargetTags":{"_tags":[]},"collisionExcludeTags":{"_tags":[]}}</t>
+        </is>
+      </c>
+      <c r="G27"/>
+      <c r="H27"/>
     </row>
     <row r="28">
       <c r="A28"/>
-      <c r="B28"/>
-      <c r="C28"/>
+      <c r="B28">
+        <v>1005</v>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>God</t>
+        </is>
+      </c>
       <c r="D28"/>
-      <c r="E28"/>
-      <c r="F28">
-        <v>4</v>
+      <c r="E28">
+        <v>3</v>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>{"guid":"9d6f459d-b588-4b64-843b-1b71e8f299ae","nodeType":3,"position":{"x":-1186.4000244140625,"y":-2011.199951171875},"targetType":1,"assetTags":{"_tags":[]},"grantedTags":{"_tags":[]},"applicationRequiredTags":{"_tags":[]},"applicationImmunityTags":{"_tags":[]},"removeGameEffectsWithTags":{"_tags":[]},"durationType":0,"duration":"0","isPeriodic":false,"period":"1","executeOnApplication":false,"attributeModifiers":[{"attrType":100,"operation":0,"magnitudeSourceType":0,"fixedValue":10.0,"formula":"","mmcType":0,"setByCallerKey":"","mmcCaptureAttribute":200,"mmcAttributeSource":0,"mmcCoefficient":1.0,"mmcUseSnapshot":true}],"stackType":0,"stackLimit":0,"stackDurationRefreshPolicy":0,"stackPeriodResetPolicy":0,"stackExpirationPolicy":0,"stackOverflowPolicy":0,"ongoingRequiredTags":{"_tags":[]},"cancelOnAbilityEnd":true}</t>
+        </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>{"guid":"e33ab94c-1496-4d6a-ba5e-1afd38bb0c30","nodeType":4,"position":{"x":27.20001220703125,"y":-1769.5999755859375},"targetType":1,"searchShapeType":0,"searchLineType":0,"positionSource":0,"positionBindingName":"center","searchCircleRadius":2.5,"searchSectorRadius":2.0,"searchSectorAngle":180.0,"searchLineDirectionOffsetAngle":0.0,"searchLineDirectionWidth":1.0,"searchLineDirectionLength":10.0,"lineStartPositionSource":0,"lineStartBindingName":"","lineEndPositionSource":1,"lineEndBindingName":"","searchLineBetweenWidth":1.0,"searchLineAbsoluteAngle":0.0,"searchLineAbsoluteWidth":1.0,"searchLineAbsoluteLength":10.0,"maxTargets":999,"searchTargetTags":{"_tags":[{"_name":"unitType.monster","_hashCode":-2021655864,"_shortName":"monster","_ancestorHashCodes":[1600484460],"_ancestorNames":["unitType"]}]},"searchExcludeTags":{"_tags":[]}}</t>
-        </is>
-      </c>
-      <c r="H28" t="inlineStr">
-        <is>
-          <t>{"outputNodeGuid":"432ff1e3-b18d-476d-af80-d39ddc07402a","outputPortName":"f41c85e0-7f26-494e-9ffc-4a06c980f811","inputNodeGuid":"f73ba91e-a76b-456c-b19c-a5176809d5f5","inputPortName":"输入"}</t>
-        </is>
-      </c>
+          <t>{"outputNodeGuid":"356907e0-1488-4128-bfcc-7ff73cfc3330","outputPortName":"动画","inputNodeGuid":"432ff1e3-b18d-476d-af80-d39ddc07402a","inputPortName":"输入"}</t>
+        </is>
+      </c>
+      <c r="H28"/>
     </row>
     <row r="29">
       <c r="A29"/>
       <c r="B29"/>
       <c r="C29"/>
       <c r="D29"/>
-      <c r="E29"/>
-      <c r="F29">
-        <v>21</v>
+      <c r="E29">
+        <v>7</v>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>{"guid":"f73ba91e-a76b-456c-b19c-a5176809d5f5","nodeType":7,"position":{"x":700.0,"y":-1856.800048828125},"targetType":1,"endType":0}</t>
+        </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>{"guid":"d8847c3e-459e-4589-a96b-37ebb5ec458b","nodeType":21,"position":{"x":-308.79998779296877,"y":-1769.5999755859375},"targetType":1,"assetTags":{"_tags":[]},"grantedTags":{"_tags":[]},"applicationRequiredTags":{"_tags":[]},"applicationImmunityTags":{"_tags":[]},"removeGameEffectsWithTags":{"_tags":[]},"durationType":2,"duration":"0","isPeriodic":true,"period":"0.3","executeOnApplication":false,"attributeModifiers":[],"stackType":0,"stackLimit":0,"stackDurationRefreshPolicy":0,"stackPeriodResetPolicy":0,"stackExpirationPolicy":0,"stackOverflowPolicy":0,"ongoingRequiredTags":{"_tags":[]},"cancelOnAbilityEnd":true}</t>
+          <t>{"outputNodeGuid":"356907e0-1488-4128-bfcc-7ff73cfc3330","outputPortName":"冷却","inputNodeGuid":"c28fb88d-51b1-47b2-be59-859e0ac638e3","inputPortName":"输入"}</t>
         </is>
       </c>
       <c r="H29"/>
     </row>
     <row r="30">
       <c r="A30"/>
-      <c r="B30">
-        <v>4</v>
-      </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>Skill_God</t>
-        </is>
-      </c>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>God</t>
-        </is>
-      </c>
-      <c r="E30"/>
-      <c r="F30">
-        <v>3</v>
+      <c r="B30"/>
+      <c r="C30"/>
+      <c r="D30"/>
+      <c r="E30">
+        <v>20</v>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>{"guid":"432ff1e3-b18d-476d-af80-d39ddc07402a","nodeType":20,"position":{"x":-502.3999938964844,"y":-2384.0},"targetType":1,"skeletonDataAsset":{"instanceID":44398},"animationName":"Skill_attack_1009","animationDuration":"25","isAnimationLooping":false,"timeEffects":[{"triggerTime":4,"portId":"de0ba361-3aba-4ef0-bb07-9b418fcae591"},{"triggerTime":25,"portId":"f41c85e0-7f26-494e-9ffc-4a06c980f811"}],"timeCues":[{"startTime":0,"endTime":75,"portId":"8dea1941-c520-4f9a-aee0-40932c8542ef"}]}</t>
+        </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>{"guid":"9d6f459d-b588-4b64-843b-1b71e8f299ae","nodeType":3,"position":{"x":-1186.4000244140625,"y":-2011.199951171875},"targetType":1,"assetTags":{"_tags":[]},"grantedTags":{"_tags":[]},"applicationRequiredTags":{"_tags":[]},"applicationImmunityTags":{"_tags":[]},"removeGameEffectsWithTags":{"_tags":[]},"durationType":0,"duration":"0","isPeriodic":false,"period":"1","executeOnApplication":false,"attributeModifiers":[{"attrType":100,"operation":0,"magnitudeSourceType":0,"fixedValue":10.0,"formula":"","mmcType":0,"setByCallerKey":"","mmcCaptureAttribute":200,"mmcAttributeSource":0,"mmcCoefficient":1.0,"mmcUseSnapshot":true}],"stackType":0,"stackLimit":0,"stackDurationRefreshPolicy":0,"stackPeriodResetPolicy":0,"stackExpirationPolicy":0,"stackOverflowPolicy":0,"ongoingRequiredTags":{"_tags":[]},"cancelOnAbilityEnd":true}</t>
-        </is>
-      </c>
-      <c r="H30" t="inlineStr">
-        <is>
-          <t>{"outputNodeGuid":"356907e0-1488-4128-bfcc-7ff73cfc3330","outputPortName":"动画","inputNodeGuid":"432ff1e3-b18d-476d-af80-d39ddc07402a","inputPortName":"输入"}</t>
-        </is>
-      </c>
+          <t>{"outputNodeGuid":"356907e0-1488-4128-bfcc-7ff73cfc3330","outputPortName":"消耗","inputNodeGuid":"9d6f459d-b588-4b64-843b-1b71e8f299ae","inputPortName":"输入"}</t>
+        </is>
+      </c>
+      <c r="H30"/>
     </row>
     <row r="31">
       <c r="A31"/>
       <c r="B31"/>
       <c r="C31"/>
       <c r="D31"/>
-      <c r="E31"/>
-      <c r="F31">
-        <v>7</v>
+      <c r="E31">
+        <v>12</v>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>{"guid":"cde57fb8-b693-4da8-a4a8-fd61e56c5dcd","nodeType":12,"position":{"x":677.5999755859375,"y":-1998.4000244140625},"targetType":1,"requiredTags":{"_tags":[]},"immunityTags":{"_tags":[]},"destroyWithNode":false,"positionSource":0,"particlePrefab":{"instanceID":45540},"particleBindingName":"down","particleOffset":{"x":0.0,"y":0.0,"z":0.0},"particleScale":{"x":1.0,"y":1.0,"z":1.0},"attachToTarget":false,"particleLoop":false}</t>
+        </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>{"guid":"f73ba91e-a76b-456c-b19c-a5176809d5f5","nodeType":7,"position":{"x":700.0,"y":-1856.800048828125},"targetType":1,"endType":0}</t>
-        </is>
-      </c>
-      <c r="H31" t="inlineStr">
-        <is>
-          <t>{"outputNodeGuid":"356907e0-1488-4128-bfcc-7ff73cfc3330","outputPortName":"冷却","inputNodeGuid":"c28fb88d-51b1-47b2-be59-859e0ac638e3","inputPortName":"输入"}</t>
-        </is>
-      </c>
+          <t>{"outputNodeGuid":"432ff1e3-b18d-476d-af80-d39ddc07402a","outputPortName":"f41c85e0-7f26-494e-9ffc-4a06c980f811","inputNodeGuid":"f73ba91e-a76b-456c-b19c-a5176809d5f5","inputPortName":"输入"}</t>
+        </is>
+      </c>
+      <c r="H31"/>
     </row>
     <row r="32">
       <c r="A32"/>
       <c r="B32"/>
       <c r="C32"/>
       <c r="D32"/>
-      <c r="E32"/>
-      <c r="F32">
-        <v>20</v>
+      <c r="E32">
+        <v>0</v>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>{"guid":"356907e0-1488-4128-bfcc-7ff73cfc3330","nodeType":0,"position":{"x":-878.4000244140625,"y":-1853.5999755859375},"targetType":1,"skillId":1006,"assetTags":{"_tags":[]},"cancelAbilitiesWithTags":{"_tags":[]},"blockAbilitiesWithTags":{"_tags":[]},"activationOwnedTags":{"_tags":[]},"activationRequiredTags":{"_tags":[]},"activationBlockedTags":{"_tags":[{"_name":"CD.RecBlood","_hashCode":1163914435,"_shortName":"回血","_ancestorHashCodes":[-1137859925],"_ancestorNames":["CD"]}]},"ongoingBlockedTags":{"_tags":[]},"eventOutputPorts":[]}</t>
+        </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>{"guid":"432ff1e3-b18d-476d-af80-d39ddc07402a","nodeType":20,"position":{"x":-502.3999938964844,"y":-2384.0},"targetType":1,"skeletonDataAsset":{"instanceID":44398},"animationName":"Skill_attack_1009","animationDuration":"25","isAnimationLooping":false,"timeEffects":[{"triggerTime":4,"portId":"de0ba361-3aba-4ef0-bb07-9b418fcae591"},{"triggerTime":25,"portId":"f41c85e0-7f26-494e-9ffc-4a06c980f811"}],"timeCues":[{"startTime":0,"endTime":75,"portId":"8dea1941-c520-4f9a-aee0-40932c8542ef"}]}</t>
-        </is>
-      </c>
-      <c r="H32" t="inlineStr">
-        <is>
-          <t>{"outputNodeGuid":"356907e0-1488-4128-bfcc-7ff73cfc3330","outputPortName":"消耗","inputNodeGuid":"9d6f459d-b588-4b64-843b-1b71e8f299ae","inputPortName":"输入"}</t>
-        </is>
-      </c>
+          <t>{"outputNodeGuid":"432ff1e3-b18d-476d-af80-d39ddc07402a","outputPortName":"de0ba361-3aba-4ef0-bb07-9b418fcae591","inputNodeGuid":"e33ab94c-1496-4d6a-ba5e-1afd38bb0c30","inputPortName":"输入"}</t>
+        </is>
+      </c>
+      <c r="H32"/>
     </row>
     <row r="33">
       <c r="A33"/>
       <c r="B33"/>
       <c r="C33"/>
       <c r="D33"/>
-      <c r="E33"/>
-      <c r="F33">
-        <v>12</v>
+      <c r="E33">
+        <v>10</v>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>{"guid":"c28fb88d-51b1-47b2-be59-859e0ac638e3","nodeType":10,"position":{"x":-1186.4000244140625,"y":-1747.199951171875},"targetType":1,"assetTags":{"_tags":[]},"grantedTags":{"_tags":[{"_name":"CD.God","_hashCode":810112138,"_shortName":"神罗天正","_ancestorHashCodes":[-1137859925],"_ancestorNames":["CD"]}]},"applicationRequiredTags":{"_tags":[]},"applicationImmunityTags":{"_tags":[]},"removeGameEffectsWithTags":{"_tags":[]},"durationType":1,"duration":"5","isPeriodic":false,"period":"1","executeOnApplication":false,"attributeModifiers":[],"stackType":0,"stackLimit":0,"stackDurationRefreshPolicy":0,"stackPeriodResetPolicy":0,"stackExpirationPolicy":0,"stackOverflowPolicy":0,"ongoingRequiredTags":{"_tags":[]},"cancelOnAbilityEnd":false,"cooldownType":0,"maxCharges":2,"chargeTime":"10"}</t>
+        </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>{"guid":"cde57fb8-b693-4da8-a4a8-fd61e56c5dcd","nodeType":12,"position":{"x":677.5999755859375,"y":-1998.4000244140625},"targetType":1,"requiredTags":{"_tags":[]},"immunityTags":{"_tags":[]},"destroyWithNode":false,"positionSource":0,"particlePrefab":{"instanceID":45540},"particleBindingName":"down","particleOffset":{"x":0.0,"y":0.0,"z":0.0},"particleScale":{"x":1.0,"y":1.0,"z":1.0},"attachToTarget":false,"particleLoop":false}</t>
-        </is>
-      </c>
-      <c r="H33" t="inlineStr">
-        <is>
-          <t>{"outputNodeGuid":"432ff1e3-b18d-476d-af80-d39ddc07402a","outputPortName":"f41c85e0-7f26-494e-9ffc-4a06c980f811","inputNodeGuid":"f73ba91e-a76b-456c-b19c-a5176809d5f5","inputPortName":"输入"}</t>
-        </is>
-      </c>
+          <t>{"outputNodeGuid":"432ff1e3-b18d-476d-af80-d39ddc07402a","outputPortName":"8dea1941-c520-4f9a-aee0-40932c8542ef","inputNodeGuid":"cde57fb8-b693-4da8-a4a8-fd61e56c5dcd","inputPortName":"输入"}</t>
+        </is>
+      </c>
+      <c r="H33"/>
     </row>
     <row r="34">
       <c r="A34"/>
       <c r="B34"/>
       <c r="C34"/>
       <c r="D34"/>
-      <c r="E34"/>
-      <c r="F34">
-        <v>0</v>
+      <c r="E34">
+        <v>22</v>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>{"guid":"091ecddb-f80b-4c00-aa06-f9bc718618d2","nodeType":22,"position":{"x":-93.60000610351563,"y":-1708.800048828125},"targetType":0,"assetTags":{"_tags":[]},"grantedTags":{"_tags":[]},"applicationRequiredTags":{"_tags":[]},"applicationImmunityTags":{"_tags":[]},"removeGameEffectsWithTags":{"_tags":[]},"durationType":1,"duration":"0.5","isPeriodic":false,"period":"1","executeOnApplication":false,"attributeModifiers":[],"stackType":0,"stackLimit":0,"stackDurationRefreshPolicy":0,"stackPeriodResetPolicy":0,"stackExpirationPolicy":0,"stackOverflowPolicy":0,"ongoingRequiredTags":{"_tags":[]},"cancelOnAbilityEnd":false,"displaceType":1,"speed":10.0,"distance":3.0,"minDistance":0.5,"pointSource":0,"pointBindingName":""}</t>
+        </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>{"guid":"356907e0-1488-4128-bfcc-7ff73cfc3330","nodeType":0,"position":{"x":-878.4000244140625,"y":-1853.5999755859375},"targetType":1,"skillId":1006,"assetTags":{"_tags":[]},"cancelAbilitiesWithTags":{"_tags":[]},"blockAbilitiesWithTags":{"_tags":[]},"activationOwnedTags":{"_tags":[]},"activationRequiredTags":{"_tags":[]},"activationBlockedTags":{"_tags":[{"_name":"CD.RecBlood","_hashCode":1163914435,"_shortName":"回血","_ancestorHashCodes":[-1137859925],"_ancestorNames":["CD"]}]},"ongoingBlockedTags":{"_tags":[]},"eventOutputPorts":[]}</t>
-        </is>
-      </c>
-      <c r="H34" t="inlineStr">
-        <is>
-          <t>{"outputNodeGuid":"432ff1e3-b18d-476d-af80-d39ddc07402a","outputPortName":"de0ba361-3aba-4ef0-bb07-9b418fcae591","inputNodeGuid":"e33ab94c-1496-4d6a-ba5e-1afd38bb0c30","inputPortName":"输入"}</t>
-        </is>
-      </c>
+          <t>{"outputNodeGuid":"e33ab94c-1496-4d6a-ba5e-1afd38bb0c30","outputPortName":"对每个目标","inputNodeGuid":"091ecddb-f80b-4c00-aa06-f9bc718618d2","inputPortName":"输入"}</t>
+        </is>
+      </c>
+      <c r="H34"/>
     </row>
     <row r="35">
       <c r="A35"/>
       <c r="B35"/>
       <c r="C35"/>
       <c r="D35"/>
-      <c r="E35"/>
-      <c r="F35">
-        <v>10</v>
-      </c>
-      <c r="G35" t="inlineStr">
-        <is>
-          <t>{"guid":"c28fb88d-51b1-47b2-be59-859e0ac638e3","nodeType":10,"position":{"x":-1186.4000244140625,"y":-1747.199951171875},"targetType":1,"assetTags":{"_tags":[]},"grantedTags":{"_tags":[{"_name":"CD.God","_hashCode":810112138,"_shortName":"神罗天正","_ancestorHashCodes":[-1137859925],"_ancestorNames":["CD"]}]},"applicationRequiredTags":{"_tags":[]},"applicationImmunityTags":{"_tags":[]},"removeGameEffectsWithTags":{"_tags":[]},"durationType":1,"duration":"5","isPeriodic":false,"period":"1","executeOnApplication":false,"attributeModifiers":[],"stackType":0,"stackLimit":0,"stackDurationRefreshPolicy":0,"stackPeriodResetPolicy":0,"stackExpirationPolicy":0,"stackOverflowPolicy":0,"ongoingRequiredTags":{"_tags":[]},"cancelOnAbilityEnd":false,"cooldownType":0,"maxCharges":2,"chargeTime":"10"}</t>
-        </is>
-      </c>
-      <c r="H35" t="inlineStr">
-        <is>
-          <t>{"outputNodeGuid":"432ff1e3-b18d-476d-af80-d39ddc07402a","outputPortName":"8dea1941-c520-4f9a-aee0-40932c8542ef","inputNodeGuid":"cde57fb8-b693-4da8-a4a8-fd61e56c5dcd","inputPortName":"输入"}</t>
-        </is>
-      </c>
+      <c r="E35">
+        <v>4</v>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>{"guid":"e33ab94c-1496-4d6a-ba5e-1afd38bb0c30","nodeType":4,"position":{"x":-452.0,"y":-1786.4000244140625},"targetType":1,"searchShapeType":0,"searchLineType":0,"positionSource":0,"positionBindingName":"center","searchCircleRadius":4.0,"searchSectorRadius":2.0,"searchSectorAngle":180.0,"searchLineDirectionOffsetAngle":0.0,"searchLineDirectionWidth":1.0,"searchLineDirectionLength":10.0,"lineStartPositionSource":0,"lineStartBindingName":"","lineEndPositionSource":1,"lineEndBindingName":"","searchLineBetweenWidth":1.0,"searchLineAbsoluteAngle":0.0,"searchLineAbsoluteWidth":1.0,"searchLineAbsoluteLength":10.0,"maxTargets":999,"searchTargetTags":{"_tags":[{"_name":"unitType.boss","_hashCode":-2067207703,"_shortName":"boss","_ancestorHashCodes":[1600484460],"_ancestorNames":["unitType"]}]},"searchExcludeTags":{"_tags":[]}}</t>
+        </is>
+      </c>
+      <c r="G35"/>
+      <c r="H35"/>
     </row>
     <row r="36">
       <c r="A36"/>
-      <c r="B36"/>
-      <c r="C36"/>
+      <c r="B36">
+        <v>1007</v>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>RecBlood</t>
+        </is>
+      </c>
       <c r="D36"/>
-      <c r="E36"/>
-      <c r="F36">
-        <v>22</v>
+      <c r="E36">
+        <v>3</v>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>{"guid":"9d6f459d-b588-4b64-843b-1b71e8f299ae","nodeType":3,"position":{"x":-1186.4000244140625,"y":-2019.199951171875},"targetType":1,"assetTags":{"_tags":[]},"grantedTags":{"_tags":[]},"applicationRequiredTags":{"_tags":[]},"applicationImmunityTags":{"_tags":[]},"removeGameEffectsWithTags":{"_tags":[]},"durationType":0,"duration":"0","isPeriodic":false,"period":"1","executeOnApplication":false,"attributeModifiers":[{"attrType":100,"operation":0,"magnitudeSourceType":0,"fixedValue":10.0,"formula":"","mmcType":0,"setByCallerKey":"","mmcCaptureAttribute":200,"mmcAttributeSource":0,"mmcCoefficient":1.0,"mmcUseSnapshot":true}],"stackType":0,"stackLimit":0,"stackDurationRefreshPolicy":0,"stackPeriodResetPolicy":0,"stackExpirationPolicy":0,"stackOverflowPolicy":0,"ongoingRequiredTags":{"_tags":[]},"cancelOnAbilityEnd":true}</t>
+        </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>{"guid":"091ecddb-f80b-4c00-aa06-f9bc718618d2","nodeType":22,"position":{"x":-93.60000610351563,"y":-1708.800048828125},"targetType":0,"assetTags":{"_tags":[]},"grantedTags":{"_tags":[]},"applicationRequiredTags":{"_tags":[]},"applicationImmunityTags":{"_tags":[]},"removeGameEffectsWithTags":{"_tags":[]},"durationType":1,"duration":"0.5","isPeriodic":false,"period":"1","executeOnApplication":false,"attributeModifiers":[],"stackType":0,"stackLimit":0,"stackDurationRefreshPolicy":0,"stackPeriodResetPolicy":0,"stackExpirationPolicy":0,"stackOverflowPolicy":0,"ongoingRequiredTags":{"_tags":[]},"cancelOnAbilityEnd":false,"displaceType":1,"speed":10.0,"distance":3.0,"minDistance":0.5,"pointSource":0,"pointBindingName":""}</t>
-        </is>
-      </c>
-      <c r="H36" t="inlineStr">
-        <is>
-          <t>{"outputNodeGuid":"e33ab94c-1496-4d6a-ba5e-1afd38bb0c30","outputPortName":"对每个目标","inputNodeGuid":"091ecddb-f80b-4c00-aa06-f9bc718618d2","inputPortName":"输入"}</t>
-        </is>
-      </c>
+          <t>{"outputNodeGuid":"356907e0-1488-4128-bfcc-7ff73cfc3330","outputPortName":"冷却","inputNodeGuid":"c28fb88d-51b1-47b2-be59-859e0ac638e3","inputPortName":"输入"}</t>
+        </is>
+      </c>
+      <c r="H36"/>
     </row>
     <row r="37">
       <c r="A37"/>
       <c r="B37"/>
       <c r="C37"/>
       <c r="D37"/>
-      <c r="E37"/>
-      <c r="F37">
-        <v>4</v>
+      <c r="E37">
+        <v>2</v>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>{"guid":"5fb21a71-2fff-4477-b79b-4c1a8bc10f9a","nodeType":2,"position":{"x":-571.2000122070313,"y":-1987.199951171875},"targetType":1,"assetTags":{"_tags":[]},"grantedTags":{"_tags":[]},"applicationRequiredTags":{"_tags":[]},"applicationImmunityTags":{"_tags":[]},"removeGameEffectsWithTags":{"_tags":[]},"durationType":0,"duration":"0","isPeriodic":false,"period":"1","executeOnApplication":false,"attributeModifiers":[],"stackType":0,"stackLimit":0,"stackDurationRefreshPolicy":0,"stackPeriodResetPolicy":0,"stackExpirationPolicy":0,"stackOverflowPolicy":0,"ongoingRequiredTags":{"_tags":[]},"cancelOnAbilityEnd":false,"healSourceType":0,"healFixedValue":10.0,"healFormula":"","healMMCType":0,"healSetByCallerKey":"","healMMCCaptureAttribute":202,"healMMCAttributeSource":0,"healMMCCoefficient":1.0,"healMMCUseSnapshot":true,"healMultiplyByStackCount":false,"healCalculationType":0}</t>
+        </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>{"guid":"e33ab94c-1496-4d6a-ba5e-1afd38bb0c30","nodeType":4,"position":{"x":-452.0,"y":-1786.4000244140625},"targetType":1,"searchShapeType":0,"searchLineType":0,"positionSource":0,"positionBindingName":"center","searchCircleRadius":4.0,"searchSectorRadius":2.0,"searchSectorAngle":180.0,"searchLineDirectionOffsetAngle":0.0,"searchLineDirectionWidth":1.0,"searchLineDirectionLength":10.0,"lineStartPositionSource":0,"lineStartBindingName":"","lineEndPositionSource":1,"lineEndBindingName":"","searchLineBetweenWidth":1.0,"searchLineAbsoluteAngle":0.0,"searchLineAbsoluteWidth":1.0,"searchLineAbsoluteLength":10.0,"maxTargets":999,"searchTargetTags":{"_tags":[{"_name":"unitType.boss","_hashCode":-2067207703,"_shortName":"boss","_ancestorHashCodes":[1600484460],"_ancestorNames":["unitType"]}]},"searchExcludeTags":{"_tags":[]}}</t>
+          <t>{"outputNodeGuid":"356907e0-1488-4128-bfcc-7ff73cfc3330","outputPortName":"消耗","inputNodeGuid":"9d6f459d-b588-4b64-843b-1b71e8f299ae","inputPortName":"输入"}</t>
         </is>
       </c>
       <c r="H37"/>
     </row>
     <row r="38">
       <c r="A38"/>
-      <c r="B38">
-        <v>5</v>
-      </c>
-      <c r="C38" t="inlineStr">
-        <is>
-          <t>Skill_RecBlood</t>
-        </is>
-      </c>
-      <c r="D38" t="inlineStr">
-        <is>
-          <t>RecBlood</t>
-        </is>
-      </c>
-      <c r="E38"/>
-      <c r="F38">
-        <v>3</v>
+      <c r="B38"/>
+      <c r="C38"/>
+      <c r="D38"/>
+      <c r="E38">
+        <v>7</v>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>{"guid":"011aad56-e96c-41eb-9d85-e793d74a40bb","nodeType":7,"position":{"x":-333.6000061035156,"y":-1780.0},"targetType":1,"endType":0}</t>
+        </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>{"guid":"9d6f459d-b588-4b64-843b-1b71e8f299ae","nodeType":3,"position":{"x":-1186.4000244140625,"y":-2019.199951171875},"targetType":1,"assetTags":{"_tags":[]},"grantedTags":{"_tags":[]},"applicationRequiredTags":{"_tags":[]},"applicationImmunityTags":{"_tags":[]},"removeGameEffectsWithTags":{"_tags":[]},"durationType":0,"duration":"0","isPeriodic":false,"period":"1","executeOnApplication":false,"attributeModifiers":[{"attrType":100,"operation":0,"magnitudeSourceType":0,"fixedValue":10.0,"formula":"","mmcType":0,"setByCallerKey":"","mmcCaptureAttribute":200,"mmcAttributeSource":0,"mmcCoefficient":1.0,"mmcUseSnapshot":true}],"stackType":0,"stackLimit":0,"stackDurationRefreshPolicy":0,"stackPeriodResetPolicy":0,"stackExpirationPolicy":0,"stackOverflowPolicy":0,"ongoingRequiredTags":{"_tags":[]},"cancelOnAbilityEnd":true}</t>
-        </is>
-      </c>
-      <c r="H38" t="inlineStr">
-        <is>
-          <t>{"outputNodeGuid":"356907e0-1488-4128-bfcc-7ff73cfc3330","outputPortName":"冷却","inputNodeGuid":"c28fb88d-51b1-47b2-be59-859e0ac638e3","inputPortName":"输入"}</t>
-        </is>
-      </c>
+          <t>{"outputNodeGuid":"356907e0-1488-4128-bfcc-7ff73cfc3330","outputPortName":"激活","inputNodeGuid":"5fb21a71-2fff-4477-b79b-4c1a8bc10f9a","inputPortName":"输入"}</t>
+        </is>
+      </c>
+      <c r="H38"/>
     </row>
     <row r="39">
       <c r="A39"/>
       <c r="B39"/>
       <c r="C39"/>
       <c r="D39"/>
-      <c r="E39"/>
-      <c r="F39">
-        <v>2</v>
+      <c r="E39">
+        <v>10</v>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>{"guid":"c28fb88d-51b1-47b2-be59-859e0ac638e3","nodeType":10,"position":{"x":-1223.199951171875,"y":-1826.4000244140625},"targetType":1,"assetTags":{"_tags":[]},"grantedTags":{"_tags":[{"_name":"CD.RecBlood","_hashCode":1163914435,"_shortName":"回血","_ancestorHashCodes":[-1137859925],"_ancestorNames":["CD"]}]},"applicationRequiredTags":{"_tags":[]},"applicationImmunityTags":{"_tags":[]},"removeGameEffectsWithTags":{"_tags":[]},"durationType":1,"duration":"3","isPeriodic":false,"period":"1","executeOnApplication":false,"attributeModifiers":[],"stackType":0,"stackLimit":0,"stackDurationRefreshPolicy":0,"stackPeriodResetPolicy":0,"stackExpirationPolicy":0,"stackOverflowPolicy":0,"ongoingRequiredTags":{"_tags":[]},"cancelOnAbilityEnd":false,"cooldownType":0,"maxCharges":2,"chargeTime":"10"}</t>
+        </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>{"guid":"5fb21a71-2fff-4477-b79b-4c1a8bc10f9a","nodeType":2,"position":{"x":-571.2000122070313,"y":-1987.199951171875},"targetType":1,"assetTags":{"_tags":[]},"grantedTags":{"_tags":[]},"applicationRequiredTags":{"_tags":[]},"applicationImmunityTags":{"_tags":[]},"removeGameEffectsWithTags":{"_tags":[]},"durationType":0,"duration":"0","isPeriodic":false,"period":"1","executeOnApplication":false,"attributeModifiers":[],"stackType":0,"stackLimit":0,"stackDurationRefreshPolicy":0,"stackPeriodResetPolicy":0,"stackExpirationPolicy":0,"stackOverflowPolicy":0,"ongoingRequiredTags":{"_tags":[]},"cancelOnAbilityEnd":false,"healSourceType":0,"healFixedValue":10.0,"healFormula":"","healMMCType":0,"healSetByCallerKey":"","healMMCCaptureAttribute":202,"healMMCAttributeSource":0,"healMMCCoefficient":1.0,"healMMCUseSnapshot":true,"healMultiplyByStackCount":false,"healCalculationType":0}</t>
-        </is>
-      </c>
-      <c r="H39" t="inlineStr">
-        <is>
-          <t>{"outputNodeGuid":"356907e0-1488-4128-bfcc-7ff73cfc3330","outputPortName":"消耗","inputNodeGuid":"9d6f459d-b588-4b64-843b-1b71e8f299ae","inputPortName":"输入"}</t>
-        </is>
-      </c>
+          <t>{"outputNodeGuid":"5fb21a71-2fff-4477-b79b-4c1a8bc10f9a","outputPortName":"初始效果","inputNodeGuid":"cde57fb8-b693-4da8-a4a8-fd61e56c5dcd","inputPortName":"输入"}</t>
+        </is>
+      </c>
+      <c r="H39"/>
     </row>
     <row r="40">
       <c r="A40"/>
       <c r="B40"/>
       <c r="C40"/>
       <c r="D40"/>
-      <c r="E40"/>
-      <c r="F40">
-        <v>7</v>
+      <c r="E40">
+        <v>0</v>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>{"guid":"356907e0-1488-4128-bfcc-7ff73cfc3330","nodeType":0,"position":{"x":-902.4000244140625,"y":-1844.0},"targetType":1,"skillId":1008,"assetTags":{"_tags":[]},"cancelAbilitiesWithTags":{"_tags":[]},"blockAbilitiesWithTags":{"_tags":[]},"activationOwnedTags":{"_tags":[]},"activationRequiredTags":{"_tags":[]},"activationBlockedTags":{"_tags":[{"_name":"CD.RecBlood","_hashCode":1163914435,"_shortName":"回血","_ancestorHashCodes":[-1137859925],"_ancestorNames":["CD"]}]},"ongoingBlockedTags":{"_tags":[]},"eventOutputPorts":[]}</t>
+        </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>{"guid":"011aad56-e96c-41eb-9d85-e793d74a40bb","nodeType":7,"position":{"x":-333.6000061035156,"y":-1780.0},"targetType":1,"endType":0}</t>
-        </is>
-      </c>
-      <c r="H40" t="inlineStr">
-        <is>
-          <t>{"outputNodeGuid":"356907e0-1488-4128-bfcc-7ff73cfc3330","outputPortName":"激活","inputNodeGuid":"5fb21a71-2fff-4477-b79b-4c1a8bc10f9a","inputPortName":"输入"}</t>
-        </is>
-      </c>
+          <t>{"outputNodeGuid":"5fb21a71-2fff-4477-b79b-4c1a8bc10f9a","outputPortName":"完成效果","inputNodeGuid":"011aad56-e96c-41eb-9d85-e793d74a40bb","inputPortName":"输入"}</t>
+        </is>
+      </c>
+      <c r="H40"/>
     </row>
     <row r="41">
       <c r="A41"/>
       <c r="B41"/>
       <c r="C41"/>
       <c r="D41"/>
-      <c r="E41"/>
-      <c r="F41">
-        <v>10</v>
+      <c r="E41">
+        <v>12</v>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>{"guid":"cde57fb8-b693-4da8-a4a8-fd61e56c5dcd","nodeType":12,"position":{"x":-304.0,"y":-2072.0},"targetType":1,"requiredTags":{"_tags":[]},"immunityTags":{"_tags":[]},"destroyWithNode":false,"positionSource":0,"particlePrefab":{"instanceID":45360},"particleBindingName":"down","particleOffset":{"x":0.0,"y":0.0,"z":0.0},"particleScale":{"x":1.0,"y":1.0,"z":1.0},"attachToTarget":false,"particleLoop":false}</t>
+        </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>{"guid":"c28fb88d-51b1-47b2-be59-859e0ac638e3","nodeType":10,"position":{"x":-1223.199951171875,"y":-1826.4000244140625},"targetType":1,"assetTags":{"_tags":[]},"grantedTags":{"_tags":[{"_name":"CD.RecBlood","_hashCode":1163914435,"_shortName":"回血","_ancestorHashCodes":[-1137859925],"_ancestorNames":["CD"]}]},"applicationRequiredTags":{"_tags":[]},"applicationImmunityTags":{"_tags":[]},"removeGameEffectsWithTags":{"_tags":[]},"durationType":1,"duration":"3","isPeriodic":false,"period":"1","executeOnApplication":false,"attributeModifiers":[],"stackType":0,"stackLimit":0,"stackDurationRefreshPolicy":0,"stackPeriodResetPolicy":0,"stackExpirationPolicy":0,"stackOverflowPolicy":0,"ongoingRequiredTags":{"_tags":[]},"cancelOnAbilityEnd":false,"cooldownType":0,"maxCharges":2,"chargeTime":"10"}</t>
-        </is>
-      </c>
-      <c r="H41" t="inlineStr">
-        <is>
-          <t>{"outputNodeGuid":"5fb21a71-2fff-4477-b79b-4c1a8bc10f9a","outputPortName":"初始效果","inputNodeGuid":"cde57fb8-b693-4da8-a4a8-fd61e56c5dcd","inputPortName":"输入"}</t>
-        </is>
-      </c>
+          <t>{"outputNodeGuid":"5fb21a71-2fff-4477-b79b-4c1a8bc10f9a","outputPortName":"完成效果","inputNodeGuid":"becb4d53-8a9e-4dc0-95a3-618d1e79ecc7","inputPortName":"输入"}</t>
+        </is>
+      </c>
+      <c r="H41"/>
     </row>
     <row r="42">
       <c r="A42"/>
       <c r="B42"/>
       <c r="C42"/>
       <c r="D42"/>
-      <c r="E42"/>
-      <c r="F42">
-        <v>0</v>
-      </c>
-      <c r="G42" t="inlineStr">
-        <is>
-          <t>{"guid":"356907e0-1488-4128-bfcc-7ff73cfc3330","nodeType":0,"position":{"x":-902.4000244140625,"y":-1844.0},"targetType":1,"skillId":1008,"assetTags":{"_tags":[]},"cancelAbilitiesWithTags":{"_tags":[]},"blockAbilitiesWithTags":{"_tags":[]},"activationOwnedTags":{"_tags":[]},"activationRequiredTags":{"_tags":[]},"activationBlockedTags":{"_tags":[{"_name":"CD.RecBlood","_hashCode":1163914435,"_shortName":"回血","_ancestorHashCodes":[-1137859925],"_ancestorNames":["CD"]}]},"ongoingBlockedTags":{"_tags":[]},"eventOutputPorts":[]}</t>
-        </is>
-      </c>
-      <c r="H42" t="inlineStr">
-        <is>
-          <t>{"outputNodeGuid":"5fb21a71-2fff-4477-b79b-4c1a8bc10f9a","outputPortName":"完成效果","inputNodeGuid":"011aad56-e96c-41eb-9d85-e793d74a40bb","inputPortName":"输入"}</t>
-        </is>
-      </c>
+      <c r="E42">
+        <v>14</v>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>{"guid":"becb4d53-8a9e-4dc0-95a3-618d1e79ecc7","nodeType":14,"position":{"x":-313.6000061035156,"y":-1951.199951171875},"targetType":1,"requiredTags":{"_tags":[]},"immunityTags":{"_tags":[]},"destroyWithNode":false,"positionSource":2,"positionBindingName":"head","textType":1,"fixedText":"","contextDataKey":"Heal","textColor":{"r":0.0,"g":1.0,"b":0.10971927642822266,"a":1.0},"criticalColor":{"r":1.0,"g":0.5,"b":0.0,"a":1.0},"missColor":{"r":0.5,"g":0.5,"b":0.5,"a":1.0},"fontSize":45.0,"criticalFontSize":60.0,"duration":1.5,"offset":{"x":0.0,"y":0.0},"moveDirection":{"x":0.0,"y":1.0}}</t>
+        </is>
+      </c>
+      <c r="G42"/>
+      <c r="H42"/>
     </row>
     <row r="43">
       <c r="A43"/>
-      <c r="B43"/>
-      <c r="C43"/>
+      <c r="B43">
+        <v>1003</v>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>RuFood</t>
+        </is>
+      </c>
       <c r="D43"/>
-      <c r="E43"/>
-      <c r="F43">
-        <v>12</v>
+      <c r="E43">
+        <v>4</v>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>{"guid":"e33ab94c-1496-4d6a-ba5e-1afd38bb0c30","nodeType":4,"position":{"x":-452.0,"y":-1786.4000244140625},"targetType":1,"searchShapeType":0,"searchLineType":0,"positionSource":0,"positionBindingName":"center","searchCircleRadius":2.5,"searchSectorRadius":2.0,"searchSectorAngle":180.0,"searchLineDirectionOffsetAngle":0.0,"searchLineDirectionWidth":1.0,"searchLineDirectionLength":10.0,"lineStartPositionSource":0,"lineStartBindingName":"","lineEndPositionSource":1,"lineEndBindingName":"","searchLineBetweenWidth":1.0,"searchLineAbsoluteAngle":0.0,"searchLineAbsoluteWidth":1.0,"searchLineAbsoluteLength":10.0,"maxTargets":999,"searchTargetTags":{"_tags":[{"_name":"unitType.boss","_hashCode":-2067207703,"_shortName":"boss","_ancestorHashCodes":[1600484460],"_ancestorNames":["unitType"]}]},"searchExcludeTags":{"_tags":[]}}</t>
+        </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>{"guid":"cde57fb8-b693-4da8-a4a8-fd61e56c5dcd","nodeType":12,"position":{"x":-304.0,"y":-2072.0},"targetType":1,"requiredTags":{"_tags":[]},"immunityTags":{"_tags":[]},"destroyWithNode":false,"positionSource":0,"particlePrefab":{"instanceID":45360},"particleBindingName":"down","particleOffset":{"x":0.0,"y":0.0,"z":0.0},"particleScale":{"x":1.0,"y":1.0,"z":1.0},"attachToTarget":false,"particleLoop":false}</t>
-        </is>
-      </c>
-      <c r="H43" t="inlineStr">
-        <is>
-          <t>{"outputNodeGuid":"5fb21a71-2fff-4477-b79b-4c1a8bc10f9a","outputPortName":"完成效果","inputNodeGuid":"becb4d53-8a9e-4dc0-95a3-618d1e79ecc7","inputPortName":"输入"}</t>
-        </is>
-      </c>
+          <t>{"outputNodeGuid":"356907e0-1488-4128-bfcc-7ff73cfc3330","outputPortName":"动画","inputNodeGuid":"432ff1e3-b18d-476d-af80-d39ddc07402a","inputPortName":"输入"}</t>
+        </is>
+      </c>
+      <c r="H43"/>
     </row>
     <row r="44">
       <c r="A44"/>
       <c r="B44"/>
       <c r="C44"/>
       <c r="D44"/>
-      <c r="E44"/>
-      <c r="F44">
-        <v>14</v>
+      <c r="E44">
+        <v>3</v>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>{"guid":"9d6f459d-b588-4b64-843b-1b71e8f299ae","nodeType":3,"position":{"x":-1186.4000244140625,"y":-2011.199951171875},"targetType":1,"assetTags":{"_tags":[]},"grantedTags":{"_tags":[]},"applicationRequiredTags":{"_tags":[]},"applicationImmunityTags":{"_tags":[]},"removeGameEffectsWithTags":{"_tags":[]},"durationType":0,"duration":"0","isPeriodic":false,"period":"1","executeOnApplication":false,"attributeModifiers":[{"attrType":100,"operation":0,"magnitudeSourceType":0,"fixedValue":10.0,"formula":"","mmcType":0,"setByCallerKey":"","mmcCaptureAttribute":200,"mmcAttributeSource":0,"mmcCoefficient":1.0,"mmcUseSnapshot":true}],"stackType":0,"stackLimit":0,"stackDurationRefreshPolicy":0,"stackPeriodResetPolicy":0,"stackExpirationPolicy":0,"stackOverflowPolicy":0,"ongoingRequiredTags":{"_tags":[]},"cancelOnAbilityEnd":true}</t>
+        </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>{"guid":"becb4d53-8a9e-4dc0-95a3-618d1e79ecc7","nodeType":14,"position":{"x":-313.6000061035156,"y":-1951.199951171875},"targetType":1,"requiredTags":{"_tags":[]},"immunityTags":{"_tags":[]},"destroyWithNode":false,"positionSource":2,"positionBindingName":"head","textType":1,"fixedText":"","contextDataKey":"Heal","textColor":{"r":0.0,"g":1.0,"b":0.10971927642822266,"a":1.0},"criticalColor":{"r":1.0,"g":0.5,"b":0.0,"a":1.0},"missColor":{"r":0.5,"g":0.5,"b":0.5,"a":1.0},"fontSize":45.0,"criticalFontSize":60.0,"duration":1.5,"offset":{"x":0.0,"y":0.0},"moveDirection":{"x":0.0,"y":1.0}}</t>
+          <t>{"outputNodeGuid":"356907e0-1488-4128-bfcc-7ff73cfc3330","outputPortName":"冷却","inputNodeGuid":"c28fb88d-51b1-47b2-be59-859e0ac638e3","inputPortName":"输入"}</t>
         </is>
       </c>
       <c r="H44"/>
     </row>
     <row r="45">
       <c r="A45"/>
-      <c r="B45">
-        <v>6</v>
-      </c>
-      <c r="C45" t="inlineStr">
-        <is>
-          <t>Skill_RuFood</t>
-        </is>
-      </c>
-      <c r="D45" t="inlineStr">
-        <is>
-          <t>RuFood</t>
-        </is>
-      </c>
-      <c r="E45"/>
-      <c r="F45">
-        <v>3</v>
+      <c r="B45"/>
+      <c r="C45"/>
+      <c r="D45"/>
+      <c r="E45">
+        <v>10</v>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>{"guid":"c28fb88d-51b1-47b2-be59-859e0ac638e3","nodeType":10,"position":{"x":-1186.4000244140625,"y":-1747.199951171875},"targetType":1,"assetTags":{"_tags":[]},"grantedTags":{"_tags":[{"_name":"CD.Wind","_hashCode":-1394424629,"_shortName":"践踏","_ancestorHashCodes":[-1137859925],"_ancestorNames":["CD"]}]},"applicationRequiredTags":{"_tags":[]},"applicationImmunityTags":{"_tags":[]},"removeGameEffectsWithTags":{"_tags":[]},"durationType":1,"duration":"5","isPeriodic":false,"period":"1","executeOnApplication":false,"attributeModifiers":[],"stackType":0,"stackLimit":0,"stackDurationRefreshPolicy":0,"stackPeriodResetPolicy":0,"stackExpirationPolicy":0,"stackOverflowPolicy":0,"ongoingRequiredTags":{"_tags":[]},"cancelOnAbilityEnd":false,"cooldownType":0,"maxCharges":2,"chargeTime":"10"}</t>
+        </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>{"guid":"9d6f459d-b588-4b64-843b-1b71e8f299ae","nodeType":3,"position":{"x":-1186.4000244140625,"y":-2011.199951171875},"targetType":1,"assetTags":{"_tags":[]},"grantedTags":{"_tags":[]},"applicationRequiredTags":{"_tags":[]},"applicationImmunityTags":{"_tags":[]},"removeGameEffectsWithTags":{"_tags":[]},"durationType":0,"duration":"0","isPeriodic":false,"period":"1","executeOnApplication":false,"attributeModifiers":[{"attrType":100,"operation":0,"magnitudeSourceType":0,"fixedValue":10.0,"formula":"","mmcType":0,"setByCallerKey":"","mmcCaptureAttribute":200,"mmcAttributeSource":0,"mmcCoefficient":1.0,"mmcUseSnapshot":true}],"stackType":0,"stackLimit":0,"stackDurationRefreshPolicy":0,"stackPeriodResetPolicy":0,"stackExpirationPolicy":0,"stackOverflowPolicy":0,"ongoingRequiredTags":{"_tags":[]},"cancelOnAbilityEnd":true}</t>
-        </is>
-      </c>
-      <c r="H45" t="inlineStr">
-        <is>
-          <t>{"outputNodeGuid":"356907e0-1488-4128-bfcc-7ff73cfc3330","outputPortName":"动画","inputNodeGuid":"432ff1e3-b18d-476d-af80-d39ddc07402a","inputPortName":"输入"}</t>
-        </is>
-      </c>
+          <t>{"outputNodeGuid":"356907e0-1488-4128-bfcc-7ff73cfc3330","outputPortName":"消耗","inputNodeGuid":"9d6f459d-b588-4b64-843b-1b71e8f299ae","inputPortName":"输入"}</t>
+        </is>
+      </c>
+      <c r="H45"/>
     </row>
     <row r="46">
       <c r="A46"/>
       <c r="B46"/>
       <c r="C46"/>
       <c r="D46"/>
-      <c r="E46"/>
-      <c r="F46">
-        <v>1</v>
+      <c r="E46">
+        <v>0</v>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>{"guid":"356907e0-1488-4128-bfcc-7ff73cfc3330","nodeType":0,"position":{"x":-878.4000244140625,"y":-1853.5999755859375},"targetType":1,"skillId":1003,"assetTags":{"_tags":[]},"cancelAbilitiesWithTags":{"_tags":[]},"blockAbilitiesWithTags":{"_tags":[]},"activationOwnedTags":{"_tags":[]},"activationRequiredTags":{"_tags":[]},"activationBlockedTags":{"_tags":[{"_name":"CD.Wind","_hashCode":-1394424629,"_shortName":"践踏","_ancestorHashCodes":[-1137859925],"_ancestorNames":["CD"]}]},"ongoingBlockedTags":{"_tags":[]},"eventOutputPorts":[]}</t>
+        </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>{"guid":"eae41233-d297-46fe-a6c8-0b5c876fbb2a","nodeType":1,"position":{"x":46.399993896484378,"y":-1808.800048828125},"targetType":0,"assetTags":{"_tags":[]},"grantedTags":{"_tags":[]},"applicationRequiredTags":{"_tags":[]},"applicationImmunityTags":{"_tags":[]},"removeGameEffectsWithTags":{"_tags":[]},"durationType":0,"duration":"0","isPeriodic":false,"period":"1","executeOnApplication":false,"attributeModifiers":[],"stackType":0,"stackLimit":0,"stackDurationRefreshPolicy":0,"stackPeriodResetPolicy":0,"stackExpirationPolicy":0,"stackOverflowPolicy":0,"ongoingRequiredTags":{"_tags":[]},"cancelOnAbilityEnd":true,"damageType":0,"damageSourceType":0,"damageFixedValue":10.0,"damageFormula":"","damageMMCType":0,"damageSetByCallerKey":"","damageMMCCaptureAttribute":200,"damageMMCAttributeSource":0,"damageMMCCoefficient":1.0,"damageMMCUseSnapshot":true,"damageMultiplyByStackCount":false,"damageCalculationType":0}</t>
-        </is>
-      </c>
-      <c r="H46" t="inlineStr">
-        <is>
-          <t>{"outputNodeGuid":"356907e0-1488-4128-bfcc-7ff73cfc3330","outputPortName":"冷却","inputNodeGuid":"c28fb88d-51b1-47b2-be59-859e0ac638e3","inputPortName":"输入"}</t>
-        </is>
-      </c>
+          <t>{"outputNodeGuid":"e33ab94c-1496-4d6a-ba5e-1afd38bb0c30","outputPortName":"对每个目标","inputNodeGuid":"cb1df36f-5729-423e-9d1a-287db5a433f0","inputPortName":"输入"}</t>
+        </is>
+      </c>
+      <c r="H46"/>
     </row>
     <row r="47">
       <c r="A47"/>
       <c r="B47"/>
       <c r="C47"/>
       <c r="D47"/>
-      <c r="E47"/>
-      <c r="F47">
-        <v>14</v>
+      <c r="E47">
+        <v>12</v>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>{"guid":"cde57fb8-b693-4da8-a4a8-fd61e56c5dcd","nodeType":12,"position":{"x":677.5999755859375,"y":-1998.4000244140625},"targetType":1,"requiredTags":{"_tags":[]},"immunityTags":{"_tags":[]},"destroyWithNode":false,"positionSource":0,"particlePrefab":{"instanceID":45504},"particleBindingName":"down","particleOffset":{"x":0.0,"y":0.0,"z":0.0},"particleScale":{"x":1.0,"y":1.0,"z":1.0},"attachToTarget":false,"particleLoop":false}</t>
+        </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>{"guid":"2d7e41c4-8e90-4b61-879c-4b2e5b9486db","nodeType":14,"position":{"x":408.79998779296877,"y":-1747.199951171875},"targetType":1,"requiredTags":{"_tags":[]},"immunityTags":{"_tags":[]},"destroyWithNode":false,"positionSource":2,"positionBindingName":"head","textType":0,"fixedText":"","contextDataKey":"DamageResult","textColor":{"r":0.0,"g":0.323091983795166,"b":1.0,"a":1.0},"criticalColor":{"r":1.0,"g":0.5,"b":0.0,"a":1.0},"missColor":{"r":0.5,"g":0.5,"b":0.5,"a":1.0},"fontSize":45.0,"criticalFontSize":60.0,"duration":1.5,"offset":{"x":0.0,"y":0.0},"moveDirection":{"x":0.0,"y":1.0}}</t>
-        </is>
-      </c>
-      <c r="H47" t="inlineStr">
-        <is>
-          <t>{"outputNodeGuid":"356907e0-1488-4128-bfcc-7ff73cfc3330","outputPortName":"消耗","inputNodeGuid":"9d6f459d-b588-4b64-843b-1b71e8f299ae","inputPortName":"输入"}</t>
-        </is>
-      </c>
+          <t>{"outputNodeGuid":"cb1df36f-5729-423e-9d1a-287db5a433f0","outputPortName":"初始效果","inputNodeGuid":"93ec5a43-cc34-4e4a-acb3-39da2f2c3010","inputPortName":"输入"}</t>
+        </is>
+      </c>
+      <c r="H47"/>
     </row>
     <row r="48">
       <c r="A48"/>
       <c r="B48"/>
       <c r="C48"/>
       <c r="D48"/>
-      <c r="E48"/>
-      <c r="F48">
-        <v>10</v>
+      <c r="E48">
+        <v>20</v>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>{"guid":"432ff1e3-b18d-476d-af80-d39ddc07402a","nodeType":20,"position":{"x":-452.0,"y":-2375.199951171875},"targetType":1,"skeletonDataAsset":{"instanceID":44398},"animationName":"Skill_attack_1005","animationDuration":"16","isAnimationLooping":false,"timeEffects":[{"triggerTime":7,"portId":"de0ba361-3aba-4ef0-bb07-9b418fcae591"},{"triggerTime":16,"portId":"f41c85e0-7f26-494e-9ffc-4a06c980f811"}],"timeCues":[{"startTime":6,"endTime":55,"portId":"8dea1941-c520-4f9a-aee0-40932c8542ef"}]}</t>
+        </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>{"guid":"c28fb88d-51b1-47b2-be59-859e0ac638e3","nodeType":10,"position":{"x":-1186.4000244140625,"y":-1747.199951171875},"targetType":1,"assetTags":{"_tags":[]},"grantedTags":{"_tags":[{"_name":"CD.RuFood","_hashCode":-1710429436,"_shortName":"火球术","_ancestorHashCodes":[-1137859925],"_ancestorNames":["CD"]}]},"applicationRequiredTags":{"_tags":[]},"applicationImmunityTags":{"_tags":[]},"removeGameEffectsWithTags":{"_tags":[]},"durationType":1,"duration":"1","isPeriodic":false,"period":"1","executeOnApplication":false,"attributeModifiers":[],"stackType":0,"stackLimit":0,"stackDurationRefreshPolicy":0,"stackPeriodResetPolicy":0,"stackExpirationPolicy":0,"stackOverflowPolicy":0,"ongoingRequiredTags":{"_tags":[]},"cancelOnAbilityEnd":false,"cooldownType":0,"maxCharges":2,"chargeTime":"10"}</t>
-        </is>
-      </c>
-      <c r="H48" t="inlineStr">
-        <is>
-          <t>{"outputNodeGuid":"432ff1e3-b18d-476d-af80-d39ddc07402a","outputPortName":"de0ba361-3aba-4ef0-bb07-9b418fcae591","inputNodeGuid":"90bacd9f-d882-4bba-aaa8-41ed993ac3ff","inputPortName":"输入"}</t>
-        </is>
-      </c>
+          <t>{"outputNodeGuid":"432ff1e3-b18d-476d-af80-d39ddc07402a","outputPortName":"f41c85e0-7f26-494e-9ffc-4a06c980f811","inputNodeGuid":"f73ba91e-a76b-456c-b19c-a5176809d5f5","inputPortName":"输入"}</t>
+        </is>
+      </c>
+      <c r="H48"/>
     </row>
     <row r="49">
       <c r="A49"/>
       <c r="B49"/>
       <c r="C49"/>
       <c r="D49"/>
-      <c r="E49"/>
-      <c r="F49">
-        <v>0</v>
+      <c r="E49">
+        <v>7</v>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>{"guid":"f73ba91e-a76b-456c-b19c-a5176809d5f5","nodeType":7,"position":{"x":700.0,"y":-1856.800048828125},"targetType":1,"endType":0}</t>
+        </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>{"guid":"356907e0-1488-4128-bfcc-7ff73cfc3330","nodeType":0,"position":{"x":-878.4000244140625,"y":-1853.5999755859375},"targetType":1,"skillId":1004,"assetTags":{"_tags":[]},"cancelAbilitiesWithTags":{"_tags":[]},"blockAbilitiesWithTags":{"_tags":[]},"activationOwnedTags":{"_tags":[]},"activationRequiredTags":{"_tags":[]},"activationBlockedTags":{"_tags":[{"_name":"CD.RuFood","_hashCode":-1710429436,"_shortName":"火球术","_ancestorHashCodes":[-1137859925],"_ancestorNames":["CD"]}]},"ongoingBlockedTags":{"_tags":[{"_name":"Buff.DeBuff.Stun","_hashCode":1791562953,"_shortName":"Stun","_ancestorHashCodes":[937056111,321157895],"_ancestorNames":["Buff","Buff.DeBuff"]}]},"eventOutputPorts":[]}</t>
-        </is>
-      </c>
-      <c r="H49" t="inlineStr">
-        <is>
-          <t>{"outputNodeGuid":"90bacd9f-d882-4bba-aaa8-41ed993ac3ff","outputPortName":"碰撞时","inputNodeGuid":"eae41233-d297-46fe-a6c8-0b5c876fbb2a","inputPortName":"输入"}</t>
-        </is>
-      </c>
+          <t>{"outputNodeGuid":"432ff1e3-b18d-476d-af80-d39ddc07402a","outputPortName":"de0ba361-3aba-4ef0-bb07-9b418fcae591","inputNodeGuid":"e33ab94c-1496-4d6a-ba5e-1afd38bb0c30","inputPortName":"输入"}</t>
+        </is>
+      </c>
+      <c r="H49"/>
     </row>
     <row r="50">
       <c r="A50"/>
       <c r="B50"/>
       <c r="C50"/>
       <c r="D50"/>
-      <c r="E50"/>
-      <c r="F50">
-        <v>7</v>
+      <c r="E50">
+        <v>11</v>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>{"guid":"cb1df36f-5729-423e-9d1a-287db5a433f0","nodeType":11,"position":{"x":18.399993896484376,"y":-1786.4000244140625},"targetType":0,"assetTags":{"_tags":[{"_name":"Buff.DeBuff.Stun","_hashCode":1791562953,"_shortName":"Stun","_ancestorHashCodes":[937056111,321157895],"_ancestorNames":["Buff","Buff.DeBuff"]}]},"grantedTags":{"_tags":[{"_name":"Buff.DeBuff.Stun","_hashCode":1791562953,"_shortName":"Stun","_ancestorHashCodes":[937056111,321157895],"_ancestorNames":["Buff","Buff.DeBuff"]}]},"applicationRequiredTags":{"_tags":[]},"applicationImmunityTags":{"_tags":[]},"removeGameEffectsWithTags":{"_tags":[]},"durationType":1,"duration":"4","isPeriodic":false,"period":"1","executeOnApplication":false,"attributeModifiers":[],"stackType":1,"stackLimit":1,"stackDurationRefreshPolicy":0,"stackPeriodResetPolicy":1,"stackExpirationPolicy":0,"stackOverflowPolicy":0,"ongoingRequiredTags":{"_tags":[]},"cancelOnAbilityEnd":false,"buffId":0}</t>
+        </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>{"guid":"3aafa9a5-4766-4204-91ab-d797aeb3c0e1","nodeType":7,"position":{"x":580.7999877929688,"y":-1987.199951171875},"targetType":1,"endType":0}</t>
-        </is>
-      </c>
-      <c r="H50" t="inlineStr">
-        <is>
-          <t>{"outputNodeGuid":"eae41233-d297-46fe-a6c8-0b5c876fbb2a","outputPortName":"完成效果","inputNodeGuid":"2d7e41c4-8e90-4b61-879c-4b2e5b9486db","inputPortName":"输入"}</t>
-        </is>
-      </c>
+          <t>{"outputNodeGuid":"432ff1e3-b18d-476d-af80-d39ddc07402a","outputPortName":"8dea1941-c520-4f9a-aee0-40932c8542ef","inputNodeGuid":"cde57fb8-b693-4da8-a4a8-fd61e56c5dcd","inputPortName":"输入"}</t>
+        </is>
+      </c>
+      <c r="H50"/>
     </row>
     <row r="51">
       <c r="A51"/>
       <c r="B51"/>
       <c r="C51"/>
       <c r="D51"/>
-      <c r="E51"/>
-      <c r="F51">
-        <v>20</v>
-      </c>
-      <c r="G51" t="inlineStr">
-        <is>
-          <t>{"guid":"432ff1e3-b18d-476d-af80-d39ddc07402a","nodeType":20,"position":{"x":-491.20001220703127,"y":-2478.39990234375},"targetType":1,"skeletonDataAsset":{"instanceID":44578},"animationName":"Attack","animationDuration":"24","isAnimationLooping":false,"timeEffects":[{"triggerTime":11,"portId":"de0ba361-3aba-4ef0-bb07-9b418fcae591"},{"triggerTime":24,"portId":"7ecf9fe6-7c5e-46ae-bade-7922214225e2"}],"timeCues":[]}</t>
-        </is>
-      </c>
-      <c r="H51" t="inlineStr">
-        <is>
-          <t>{"outputNodeGuid":"432ff1e3-b18d-476d-af80-d39ddc07402a","outputPortName":"7ecf9fe6-7c5e-46ae-bade-7922214225e2","inputNodeGuid":"3aafa9a5-4766-4204-91ab-d797aeb3c0e1","inputPortName":"输入"}</t>
-        </is>
-      </c>
+      <c r="E51">
+        <v>12</v>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>{"guid":"93ec5a43-cc34-4e4a-acb3-39da2f2c3010","nodeType":12,"position":{"x":468.79998779296877,"y":-1749.5999755859375},"targetType":1,"requiredTags":{"_tags":[]},"immunityTags":{"_tags":[]},"destroyWithNode":true,"positionSource":2,"particlePrefab":{"instanceID":45630},"particleBindingName":"head","particleOffset":{"x":0.0,"y":0.0,"z":0.0},"particleScale":{"x":1.0,"y":1.0,"z":1.0},"attachToTarget":true,"particleLoop":true}</t>
+        </is>
+      </c>
+      <c r="G51"/>
+      <c r="H51"/>
     </row>
     <row r="52">
       <c r="A52"/>
-      <c r="B52"/>
-      <c r="C52"/>
+      <c r="B52">
+        <v>1009</v>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>SpeedUp</t>
+        </is>
+      </c>
       <c r="D52"/>
-      <c r="E52"/>
-      <c r="F52">
-        <v>8</v>
+      <c r="E52">
+        <v>3</v>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>{"guid":"9d6f459d-b588-4b64-843b-1b71e8f299ae","nodeType":3,"position":{"x":-1186.6666259765625,"y":-2011.3333740234375},"targetType":1,"assetTags":{"_tags":[]},"grantedTags":{"_tags":[]},"applicationRequiredTags":{"_tags":[]},"applicationImmunityTags":{"_tags":[]},"removeGameEffectsWithTags":{"_tags":[]},"durationType":0,"duration":"0","isPeriodic":false,"period":"1","executeOnApplication":false,"attributeModifiers":[{"attrType":100,"operation":0,"magnitudeSourceType":0,"fixedValue":10.0,"formula":"","mmcType":0,"setByCallerKey":"","mmcCaptureAttribute":200,"mmcAttributeSource":0,"mmcCoefficient":1.0,"mmcUseSnapshot":true}],"stackType":0,"stackLimit":0,"stackDurationRefreshPolicy":0,"stackPeriodResetPolicy":0,"stackExpirationPolicy":0,"stackOverflowPolicy":0,"ongoingRequiredTags":{"_tags":[]},"cancelOnAbilityEnd":true}</t>
+        </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>{"guid":"90bacd9f-d882-4bba-aaa8-41ed993ac3ff","nodeType":8,"position":{"x":-401.6000061035156,"y":-1826.4000244140625},"targetType":2,"assetTags":{"_tags":[]},"grantedTags":{"_tags":[]},"applicationRequiredTags":{"_tags":[]},"applicationImmunityTags":{"_tags":[]},"removeGameEffectsWithTags":{"_tags":[]},"durationType":2,"duration":"0","isPeriodic":false,"period":"1","executeOnApplication":false,"attributeModifiers":[],"stackType":0,"stackLimit":0,"stackDurationRefreshPolicy":0,"stackPeriodResetPolicy":0,"stackExpirationPolicy":0,"stackOverflowPolicy":0,"ongoingRequiredTags":{"_tags":[]},"cancelOnAbilityEnd":false,"launchPositionSource":0,"launchBindingName":"center","targetPositionSource":1,"targetBindingName":"center","projectileTargetType":0,"flyOver":true,"offsetAngle":0.0,"curveHeight":0.0,"projectilePrefab":{"instanceID":45446},"speed":3.0,"maxDistance":10.0,"collisionRadius":0.5,"isPiercing":false,"maxPierceCount":1,"collisionTargetTags":{"_tags":[]},"collisionExcludeTags":{"_tags":[]}}</t>
+          <t>{"outputNodeGuid":"356907e0-1488-4128-bfcc-7ff73cfc3330","outputPortName":"动画","inputNodeGuid":"432ff1e3-b18d-476d-af80-d39ddc07402a","inputPortName":"输入"}</t>
         </is>
       </c>
       <c r="H52"/>
     </row>
     <row r="53">
       <c r="A53"/>
-      <c r="B53">
+      <c r="B53"/>
+      <c r="C53"/>
+      <c r="D53"/>
+      <c r="E53">
         <v>7</v>
       </c>
-      <c r="C53" t="inlineStr">
-        <is>
-          <t>Skill_SpeedUp</t>
-        </is>
-      </c>
-      <c r="D53" t="inlineStr">
-        <is>
-          <t>SpeedUp</t>
-        </is>
-      </c>
-      <c r="E53"/>
-      <c r="F53">
-        <v>3</v>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>{"guid":"f73ba91e-a76b-456c-b19c-a5176809d5f5","nodeType":7,"position":{"x":700.0,"y":-1856.666748046875},"targetType":1,"endType":0}</t>
+        </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>{"guid":"9d6f459d-b588-4b64-843b-1b71e8f299ae","nodeType":3,"position":{"x":-1186.4000244140625,"y":-2011.199951171875},"targetType":1,"assetTags":{"_tags":[]},"grantedTags":{"_tags":[]},"applicationRequiredTags":{"_tags":[]},"applicationImmunityTags":{"_tags":[]},"removeGameEffectsWithTags":{"_tags":[]},"durationType":0,"duration":"0","isPeriodic":false,"period":"1","executeOnApplication":false,"attributeModifiers":[{"attrType":100,"operation":0,"magnitudeSourceType":0,"fixedValue":10.0,"formula":"","mmcType":0,"setByCallerKey":"","mmcCaptureAttribute":200,"mmcAttributeSource":0,"mmcCoefficient":1.0,"mmcUseSnapshot":true}],"stackType":0,"stackLimit":0,"stackDurationRefreshPolicy":0,"stackPeriodResetPolicy":0,"stackExpirationPolicy":0,"stackOverflowPolicy":0,"ongoingRequiredTags":{"_tags":[]},"cancelOnAbilityEnd":true}</t>
-        </is>
-      </c>
-      <c r="H53" t="inlineStr">
-        <is>
-          <t>{"outputNodeGuid":"356907e0-1488-4128-bfcc-7ff73cfc3330","outputPortName":"动画","inputNodeGuid":"432ff1e3-b18d-476d-af80-d39ddc07402a","inputPortName":"输入"}</t>
-        </is>
-      </c>
+          <t>{"outputNodeGuid":"356907e0-1488-4128-bfcc-7ff73cfc3330","outputPortName":"冷却","inputNodeGuid":"c28fb88d-51b1-47b2-be59-859e0ac638e3","inputPortName":"输入"}</t>
+        </is>
+      </c>
+      <c r="H53"/>
     </row>
     <row r="54">
       <c r="A54"/>
       <c r="B54"/>
       <c r="C54"/>
       <c r="D54"/>
-      <c r="E54"/>
-      <c r="F54">
-        <v>7</v>
+      <c r="E54">
+        <v>20</v>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>{"guid":"432ff1e3-b18d-476d-af80-d39ddc07402a","nodeType":20,"position":{"x":-502.6666564941406,"y":-2384.0},"targetType":1,"skeletonDataAsset":{"instanceID":44398},"animationName":"Skill_attack_1009","animationDuration":"25","isAnimationLooping":false,"timeEffects":[{"triggerTime":25,"portId":"f41c85e0-7f26-494e-9ffc-4a06c980f811"}],"timeCues":[]}</t>
+        </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>{"guid":"f73ba91e-a76b-456c-b19c-a5176809d5f5","nodeType":7,"position":{"x":700.0,"y":-1856.800048828125},"targetType":1,"endType":0}</t>
-        </is>
-      </c>
-      <c r="H54" t="inlineStr">
-        <is>
-          <t>{"outputNodeGuid":"356907e0-1488-4128-bfcc-7ff73cfc3330","outputPortName":"冷却","inputNodeGuid":"c28fb88d-51b1-47b2-be59-859e0ac638e3","inputPortName":"输入"}</t>
-        </is>
-      </c>
+          <t>{"outputNodeGuid":"356907e0-1488-4128-bfcc-7ff73cfc3330","outputPortName":"消耗","inputNodeGuid":"9d6f459d-b588-4b64-843b-1b71e8f299ae","inputPortName":"输入"}</t>
+        </is>
+      </c>
+      <c r="H54"/>
     </row>
     <row r="55">
       <c r="A55"/>
       <c r="B55"/>
       <c r="C55"/>
       <c r="D55"/>
-      <c r="E55"/>
-      <c r="F55">
-        <v>20</v>
+      <c r="E55">
+        <v>10</v>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>{"guid":"c28fb88d-51b1-47b2-be59-859e0ac638e3","nodeType":10,"position":{"x":-1186.6666259765625,"y":-1747.3333740234375},"targetType":1,"assetTags":{"_tags":[]},"grantedTags":{"_tags":[{"_name":"CD.SpeedUp","_hashCode":-605747253,"_shortName":"急速","_ancestorHashCodes":[-1137859925],"_ancestorNames":["CD"]}]},"applicationRequiredTags":{"_tags":[]},"applicationImmunityTags":{"_tags":[]},"removeGameEffectsWithTags":{"_tags":[]},"durationType":1,"duration":"10","isPeriodic":false,"period":"1","executeOnApplication":false,"attributeModifiers":[],"stackType":0,"stackLimit":0,"stackDurationRefreshPolicy":0,"stackPeriodResetPolicy":0,"stackExpirationPolicy":0,"stackOverflowPolicy":0,"ongoingRequiredTags":{"_tags":[]},"cancelOnAbilityEnd":false,"cooldownType":0,"maxCharges":2,"chargeTime":"10"}</t>
+        </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>{"guid":"432ff1e3-b18d-476d-af80-d39ddc07402a","nodeType":20,"position":{"x":-502.3999938964844,"y":-2384.0},"targetType":1,"skeletonDataAsset":{"instanceID":44398},"animationName":"Skill_attack_1009","animationDuration":"25","isAnimationLooping":false,"timeEffects":[{"triggerTime":25,"portId":"f41c85e0-7f26-494e-9ffc-4a06c980f811"}],"timeCues":[]}</t>
-        </is>
-      </c>
-      <c r="H55" t="inlineStr">
-        <is>
-          <t>{"outputNodeGuid":"356907e0-1488-4128-bfcc-7ff73cfc3330","outputPortName":"消耗","inputNodeGuid":"9d6f459d-b588-4b64-843b-1b71e8f299ae","inputPortName":"输入"}</t>
-        </is>
-      </c>
+          <t>{"outputNodeGuid":"432ff1e3-b18d-476d-af80-d39ddc07402a","outputPortName":"f41c85e0-7f26-494e-9ffc-4a06c980f811","inputNodeGuid":"f73ba91e-a76b-456c-b19c-a5176809d5f5","inputPortName":"输入"}</t>
+        </is>
+      </c>
+      <c r="H55"/>
     </row>
     <row r="56">
       <c r="A56"/>
       <c r="B56"/>
       <c r="C56"/>
       <c r="D56"/>
-      <c r="E56"/>
-      <c r="F56">
-        <v>10</v>
+      <c r="E56">
+        <v>11</v>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>{"guid":"632c75e2-152b-4376-8e9e-62c0e74f92d0","nodeType":11,"position":{"x":-514.6666259765625,"y":-1880.0},"targetType":1,"assetTags":{"_tags":[]},"grantedTags":{"_tags":[]},"applicationRequiredTags":{"_tags":[]},"applicationImmunityTags":{"_tags":[]},"removeGameEffectsWithTags":{"_tags":[]},"durationType":1,"duration":"7","isPeriodic":false,"period":"1","executeOnApplication":false,"attributeModifiers":[{"attrType":300,"operation":0,"magnitudeSourceType":0,"fixedValue":10.0,"formula":"","mmcType":0,"setByCallerKey":"","mmcCaptureAttribute":200,"mmcAttributeSource":0,"mmcCoefficient":1.0,"mmcUseSnapshot":true}],"stackType":2,"stackLimit":1,"stackDurationRefreshPolicy":0,"stackPeriodResetPolicy":0,"stackExpirationPolicy":0,"stackOverflowPolicy":0,"ongoingRequiredTags":{"_tags":[]},"cancelOnAbilityEnd":false,"buffId":0}</t>
+        </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>{"guid":"c28fb88d-51b1-47b2-be59-859e0ac638e3","nodeType":10,"position":{"x":-1186.4000244140625,"y":-1747.199951171875},"targetType":1,"assetTags":{"_tags":[]},"grantedTags":{"_tags":[{"_name":"CD.SpeedUp","_hashCode":-605747253,"_shortName":"急速","_ancestorHashCodes":[-1137859925],"_ancestorNames":["CD"]}]},"applicationRequiredTags":{"_tags":[]},"applicationImmunityTags":{"_tags":[]},"removeGameEffectsWithTags":{"_tags":[]},"durationType":1,"duration":"10","isPeriodic":false,"period":"1","executeOnApplication":false,"attributeModifiers":[],"stackType":0,"stackLimit":0,"stackDurationRefreshPolicy":0,"stackPeriodResetPolicy":0,"stackExpirationPolicy":0,"stackOverflowPolicy":0,"ongoingRequiredTags":{"_tags":[]},"cancelOnAbilityEnd":false,"cooldownType":0,"maxCharges":2,"chargeTime":"10"}</t>
-        </is>
-      </c>
-      <c r="H56" t="inlineStr">
-        <is>
-          <t>{"outputNodeGuid":"432ff1e3-b18d-476d-af80-d39ddc07402a","outputPortName":"f41c85e0-7f26-494e-9ffc-4a06c980f811","inputNodeGuid":"f73ba91e-a76b-456c-b19c-a5176809d5f5","inputPortName":"输入"}</t>
-        </is>
-      </c>
+          <t>{"outputNodeGuid":"356907e0-1488-4128-bfcc-7ff73cfc3330","outputPortName":"激活","inputNodeGuid":"632c75e2-152b-4376-8e9e-62c0e74f92d0","inputPortName":"输入"}</t>
+        </is>
+      </c>
+      <c r="H56"/>
     </row>
     <row r="57">
       <c r="A57"/>
       <c r="B57"/>
       <c r="C57"/>
       <c r="D57"/>
-      <c r="E57"/>
-      <c r="F57">
+      <c r="E57">
         <v>0</v>
       </c>
-      <c r="G57" t="inlineStr">
-        <is>
-          <t>{"guid":"356907e0-1488-4128-bfcc-7ff73cfc3330","nodeType":0,"position":{"x":-878.4000244140625,"y":-1853.5999755859375},"targetType":1,"skillId":0,"assetTags":{"_tags":[]},"cancelAbilitiesWithTags":{"_tags":[]},"blockAbilitiesWithTags":{"_tags":[]},"activationOwnedTags":{"_tags":[]},"activationRequiredTags":{"_tags":[]},"activationBlockedTags":{"_tags":[{"_name":"CD.SpeedUp","_hashCode":-605747253,"_shortName":"急速","_ancestorHashCodes":[-1137859925],"_ancestorNames":["CD"]}]},"ongoingBlockedTags":{"_tags":[]},"eventOutputPorts":[]}</t>
-        </is>
-      </c>
-      <c r="H57" t="inlineStr">
-        <is>
-          <t>{"outputNodeGuid":"356907e0-1488-4128-bfcc-7ff73cfc3330","outputPortName":"激活","inputNodeGuid":"632c75e2-152b-4376-8e9e-62c0e74f92d0","inputPortName":"输入"}</t>
-        </is>
-      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>{"guid":"356907e0-1488-4128-bfcc-7ff73cfc3330","nodeType":0,"position":{"x":-878.6666259765625,"y":-1853.3333740234375},"targetType":1,"skillId":1009,"assetTags":{"_tags":[]},"cancelAbilitiesWithTags":{"_tags":[]},"blockAbilitiesWithTags":{"_tags":[]},"activationOwnedTags":{"_tags":[]},"activationRequiredTags":{"_tags":[]},"activationBlockedTags":{"_tags":[{"_name":"CD.SpeedUp","_hashCode":-605747253,"_shortName":"急速","_ancestorHashCodes":[-1137859925],"_ancestorNames":["CD"]}]},"ongoingBlockedTags":{"_tags":[]},"eventOutputPorts":[]}</t>
+        </is>
+      </c>
+      <c r="G57"/>
+      <c r="H57"/>
     </row>
     <row r="58">
       <c r="A58"/>
-      <c r="B58"/>
-      <c r="C58"/>
+      <c r="B58">
+        <v>1001</v>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>Sweep</t>
+        </is>
+      </c>
       <c r="D58"/>
-      <c r="E58"/>
-      <c r="F58">
-        <v>11</v>
+      <c r="E58">
+        <v>14</v>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>{"guid":"c353e286-8ef0-460a-b917-887f2aeb390a","nodeType":14,"position":{"x":178.39999389648438,"y":-1786.4000244140625},"targetType":1,"requiredTags":{"_tags":[]},"immunityTags":{"_tags":[]},"destroyWithNode":false,"positionSource":2,"positionBindingName":"head","textType":0,"fixedText":"","contextDataKey":"DamageResult","textColor":{"r":1.0,"g":0.0,"b":0.0,"a":1.0},"criticalColor":{"r":1.0,"g":0.5,"b":0.0,"a":1.0},"missColor":{"r":0.5,"g":0.5,"b":0.5,"a":1.0},"fontSize":45.0,"criticalFontSize":60.0,"duration":1.5,"offset":{"x":0.0,"y":0.0},"moveDirection":{"x":0.0,"y":1.0}}</t>
+        </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>{"guid":"632c75e2-152b-4376-8e9e-62c0e74f92d0","nodeType":11,"position":{"x":-514.4000244140625,"y":-1880.0},"targetType":1,"assetTags":{"_tags":[]},"grantedTags":{"_tags":[]},"applicationRequiredTags":{"_tags":[]},"applicationImmunityTags":{"_tags":[]},"removeGameEffectsWithTags":{"_tags":[]},"durationType":1,"duration":"7","isPeriodic":false,"period":"1","executeOnApplication":false,"attributeModifiers":[{"attrType":300,"operation":0,"magnitudeSourceType":0,"fixedValue":10.0,"formula":"","mmcType":0,"setByCallerKey":"","mmcCaptureAttribute":200,"mmcAttributeSource":0,"mmcCoefficient":1.0,"mmcUseSnapshot":true}],"stackType":2,"stackLimit":1,"stackDurationRefreshPolicy":0,"stackPeriodResetPolicy":0,"stackExpirationPolicy":0,"stackOverflowPolicy":0,"ongoingRequiredTags":{"_tags":[]},"cancelOnAbilityEnd":false,"buffId":0}</t>
+          <t>{"outputNodeGuid":"432ff1e3-b18d-476d-af80-d39ddc07402a","outputPortName":"8dea1941-c520-4f9a-aee0-40932c8542ef","inputNodeGuid":"cde57fb8-b693-4da8-a4a8-fd61e56c5dcd","inputPortName":"输入"}</t>
         </is>
       </c>
       <c r="H58"/>
     </row>
     <row r="59">
       <c r="A59"/>
-      <c r="B59">
-        <v>8</v>
-      </c>
-      <c r="C59" t="inlineStr">
-        <is>
-          <t>Skill_Sweep</t>
-        </is>
-      </c>
-      <c r="D59" t="inlineStr">
-        <is>
-          <t>Sweep</t>
-        </is>
-      </c>
-      <c r="E59"/>
-      <c r="F59">
-        <v>14</v>
+      <c r="B59"/>
+      <c r="C59"/>
+      <c r="D59"/>
+      <c r="E59">
+        <v>0</v>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>{"guid":"356907e0-1488-4128-bfcc-7ff73cfc3330","nodeType":0,"position":{"x":-878.4000244140625,"y":-1853.5999755859375},"targetType":1,"skillId":1001,"assetTags":{"_tags":[]},"cancelAbilitiesWithTags":{"_tags":[]},"blockAbilitiesWithTags":{"_tags":[]},"activationOwnedTags":{"_tags":[]},"activationRequiredTags":{"_tags":[]},"activationBlockedTags":{"_tags":[{"_name":"CD.Sweep","_hashCode":2090173402,"_shortName":"横扫","_ancestorHashCodes":[-1137859925],"_ancestorNames":["CD"]}]},"ongoingBlockedTags":{"_tags":[]},"eventOutputPorts":[]}</t>
+        </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>{"guid":"c353e286-8ef0-460a-b917-887f2aeb390a","nodeType":14,"position":{"x":178.39999389648438,"y":-1786.4000244140625},"targetType":1,"requiredTags":{"_tags":[]},"immunityTags":{"_tags":[]},"destroyWithNode":false,"positionSource":2,"positionBindingName":"head","textType":0,"fixedText":"","contextDataKey":"DamageResult","textColor":{"r":1.0,"g":0.0,"b":0.0,"a":1.0},"criticalColor":{"r":1.0,"g":0.5,"b":0.0,"a":1.0},"missColor":{"r":0.5,"g":0.5,"b":0.5,"a":1.0},"fontSize":45.0,"criticalFontSize":60.0,"duration":1.5,"offset":{"x":0.0,"y":0.0},"moveDirection":{"x":0.0,"y":1.0}}</t>
-        </is>
-      </c>
-      <c r="H59" t="inlineStr">
-        <is>
-          <t>{"outputNodeGuid":"432ff1e3-b18d-476d-af80-d39ddc07402a","outputPortName":"8dea1941-c520-4f9a-aee0-40932c8542ef","inputNodeGuid":"cde57fb8-b693-4da8-a4a8-fd61e56c5dcd","inputPortName":"输入"}</t>
-        </is>
-      </c>
+          <t>{"outputNodeGuid":"356907e0-1488-4128-bfcc-7ff73cfc3330","outputPortName":"动画","inputNodeGuid":"432ff1e3-b18d-476d-af80-d39ddc07402a","inputPortName":"输入"}</t>
+        </is>
+      </c>
+      <c r="H59"/>
     </row>
     <row r="60">
       <c r="A60"/>
       <c r="B60"/>
       <c r="C60"/>
       <c r="D60"/>
-      <c r="E60"/>
-      <c r="F60">
-        <v>0</v>
+      <c r="E60">
+        <v>10</v>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>{"guid":"c28fb88d-51b1-47b2-be59-859e0ac638e3","nodeType":10,"position":{"x":-1186.4000244140625,"y":-1747.199951171875},"targetType":1,"assetTags":{"_tags":[]},"grantedTags":{"_tags":[{"_name":"CD.Sweep","_hashCode":2090173402,"_shortName":"横扫","_ancestorHashCodes":[-1137859925],"_ancestorNames":["CD"]}]},"applicationRequiredTags":{"_tags":[]},"applicationImmunityTags":{"_tags":[]},"removeGameEffectsWithTags":{"_tags":[]},"durationType":1,"duration":"1","isPeriodic":false,"period":"1","executeOnApplication":false,"attributeModifiers":[],"stackType":0,"stackLimit":0,"stackDurationRefreshPolicy":0,"stackPeriodResetPolicy":0,"stackExpirationPolicy":0,"stackOverflowPolicy":0,"ongoingRequiredTags":{"_tags":[]},"cancelOnAbilityEnd":false,"cooldownType":0,"maxCharges":2,"chargeTime":"10"}</t>
+        </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>{"guid":"356907e0-1488-4128-bfcc-7ff73cfc3330","nodeType":0,"position":{"x":-878.4000244140625,"y":-1853.5999755859375},"targetType":1,"skillId":1001,"assetTags":{"_tags":[]},"cancelAbilitiesWithTags":{"_tags":[]},"blockAbilitiesWithTags":{"_tags":[]},"activationOwnedTags":{"_tags":[]},"activationRequiredTags":{"_tags":[]},"activationBlockedTags":{"_tags":[{"_name":"CD.Sweep","_hashCode":2090173402,"_shortName":"横扫","_ancestorHashCodes":[-1137859925],"_ancestorNames":["CD"]}]},"ongoingBlockedTags":{"_tags":[]},"eventOutputPorts":[]}</t>
-        </is>
-      </c>
-      <c r="H60" t="inlineStr">
-        <is>
-          <t>{"outputNodeGuid":"356907e0-1488-4128-bfcc-7ff73cfc3330","outputPortName":"动画","inputNodeGuid":"432ff1e3-b18d-476d-af80-d39ddc07402a","inputPortName":"输入"}</t>
-        </is>
-      </c>
+          <t>{"outputNodeGuid":"356907e0-1488-4128-bfcc-7ff73cfc3330","outputPortName":"冷却","inputNodeGuid":"c28fb88d-51b1-47b2-be59-859e0ac638e3","inputPortName":"输入"}</t>
+        </is>
+      </c>
+      <c r="H60"/>
     </row>
     <row r="61">
       <c r="A61"/>
       <c r="B61"/>
       <c r="C61"/>
       <c r="D61"/>
-      <c r="E61"/>
-      <c r="F61">
-        <v>10</v>
+      <c r="E61">
+        <v>7</v>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>{"guid":"2cfdacd2-0186-49dd-b177-4eb8c0ad87bd","nodeType":7,"position":{"x":689.5999755859375,"y":-1860.800048828125},"targetType":1,"endType":0}</t>
+        </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>{"guid":"c28fb88d-51b1-47b2-be59-859e0ac638e3","nodeType":10,"position":{"x":-1186.4000244140625,"y":-1747.199951171875},"targetType":1,"assetTags":{"_tags":[]},"grantedTags":{"_tags":[{"_name":"CD.Sweep","_hashCode":2090173402,"_shortName":"横扫","_ancestorHashCodes":[-1137859925],"_ancestorNames":["CD"]}]},"applicationRequiredTags":{"_tags":[]},"applicationImmunityTags":{"_tags":[]},"removeGameEffectsWithTags":{"_tags":[]},"durationType":1,"duration":"1","isPeriodic":false,"period":"1","executeOnApplication":false,"attributeModifiers":[],"stackType":0,"stackLimit":0,"stackDurationRefreshPolicy":0,"stackPeriodResetPolicy":0,"stackExpirationPolicy":0,"stackOverflowPolicy":0,"ongoingRequiredTags":{"_tags":[]},"cancelOnAbilityEnd":false,"cooldownType":0,"maxCharges":2,"chargeTime":"10"}</t>
-        </is>
-      </c>
-      <c r="H61" t="inlineStr">
-        <is>
-          <t>{"outputNodeGuid":"356907e0-1488-4128-bfcc-7ff73cfc3330","outputPortName":"冷却","inputNodeGuid":"c28fb88d-51b1-47b2-be59-859e0ac638e3","inputPortName":"输入"}</t>
-        </is>
-      </c>
+          <t>{"outputNodeGuid":"356907e0-1488-4128-bfcc-7ff73cfc3330","outputPortName":"消耗","inputNodeGuid":"9d6f459d-b588-4b64-843b-1b71e8f299ae","inputPortName":"输入"}</t>
+        </is>
+      </c>
+      <c r="H61"/>
     </row>
     <row r="62">
       <c r="A62"/>
       <c r="B62"/>
       <c r="C62"/>
       <c r="D62"/>
-      <c r="E62"/>
-      <c r="F62">
-        <v>7</v>
+      <c r="E62">
+        <v>3</v>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>{"guid":"9d6f459d-b588-4b64-843b-1b71e8f299ae","nodeType":3,"position":{"x":-1186.4000244140625,"y":-2019.199951171875},"targetType":1,"assetTags":{"_tags":[]},"grantedTags":{"_tags":[]},"applicationRequiredTags":{"_tags":[]},"applicationImmunityTags":{"_tags":[]},"removeGameEffectsWithTags":{"_tags":[]},"durationType":0,"duration":"0","isPeriodic":false,"period":"1","executeOnApplication":false,"attributeModifiers":[{"attrType":100,"operation":0,"magnitudeSourceType":0,"fixedValue":10.0,"formula":"","mmcType":0,"setByCallerKey":"","mmcCaptureAttribute":200,"mmcAttributeSource":0,"mmcCoefficient":1.0,"mmcUseSnapshot":true}],"stackType":0,"stackLimit":0,"stackDurationRefreshPolicy":0,"stackPeriodResetPolicy":0,"stackExpirationPolicy":0,"stackOverflowPolicy":0,"ongoingRequiredTags":{"_tags":[]},"cancelOnAbilityEnd":true}</t>
+        </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>{"guid":"2cfdacd2-0186-49dd-b177-4eb8c0ad87bd","nodeType":7,"position":{"x":689.5999755859375,"y":-1860.800048828125},"targetType":1,"endType":0}</t>
-        </is>
-      </c>
-      <c r="H62" t="inlineStr">
-        <is>
-          <t>{"outputNodeGuid":"356907e0-1488-4128-bfcc-7ff73cfc3330","outputPortName":"消耗","inputNodeGuid":"9d6f459d-b588-4b64-843b-1b71e8f299ae","inputPortName":"输入"}</t>
-        </is>
-      </c>
+          <t>{"outputNodeGuid":"432ff1e3-b18d-476d-af80-d39ddc07402a","outputPortName":"de0ba361-3aba-4ef0-bb07-9b418fcae591","inputNodeGuid":"e33ab94c-1496-4d6a-ba5e-1afd38bb0c30","inputPortName":"输入"}</t>
+        </is>
+      </c>
+      <c r="H62"/>
     </row>
     <row r="63">
       <c r="A63"/>
       <c r="B63"/>
       <c r="C63"/>
       <c r="D63"/>
-      <c r="E63"/>
-      <c r="F63">
-        <v>3</v>
+      <c r="E63">
+        <v>1</v>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>{"guid":"f8947676-1084-4228-b991-1509cc7fe851","nodeType":1,"position":{"x":-100.0,"y":-1680.800048828125},"targetType":0,"assetTags":{"_tags":[]},"grantedTags":{"_tags":[]},"applicationRequiredTags":{"_tags":[]},"applicationImmunityTags":{"_tags":[]},"removeGameEffectsWithTags":{"_tags":[]},"durationType":0,"duration":"0","isPeriodic":false,"period":"1","executeOnApplication":false,"attributeModifiers":[],"stackType":0,"stackLimit":0,"stackDurationRefreshPolicy":0,"stackPeriodResetPolicy":0,"stackExpirationPolicy":0,"stackOverflowPolicy":0,"ongoingRequiredTags":{"_tags":[]},"cancelOnAbilityEnd":true,"damageType":0,"damageSourceType":0,"damageFixedValue":10.0,"damageFormula":"","damageMMCType":0,"damageSetByCallerKey":"","damageMMCCaptureAttribute":200,"damageMMCAttributeSource":0,"damageMMCCoefficient":1.0,"damageMMCUseSnapshot":true,"damageMultiplyByStackCount":false,"damageCalculationType":0}</t>
+        </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>{"guid":"9d6f459d-b588-4b64-843b-1b71e8f299ae","nodeType":3,"position":{"x":-1186.4000244140625,"y":-2019.199951171875},"targetType":1,"assetTags":{"_tags":[]},"grantedTags":{"_tags":[]},"applicationRequiredTags":{"_tags":[]},"applicationImmunityTags":{"_tags":[]},"removeGameEffectsWithTags":{"_tags":[]},"durationType":0,"duration":"0","isPeriodic":false,"period":"1","executeOnApplication":false,"attributeModifiers":[{"attrType":100,"operation":0,"magnitudeSourceType":0,"fixedValue":10.0,"formula":"","mmcType":0,"setByCallerKey":"","mmcCaptureAttribute":200,"mmcAttributeSource":0,"mmcCoefficient":1.0,"mmcUseSnapshot":true}],"stackType":0,"stackLimit":0,"stackDurationRefreshPolicy":0,"stackPeriodResetPolicy":0,"stackExpirationPolicy":0,"stackOverflowPolicy":0,"ongoingRequiredTags":{"_tags":[]},"cancelOnAbilityEnd":true}</t>
-        </is>
-      </c>
-      <c r="H63" t="inlineStr">
-        <is>
-          <t>{"outputNodeGuid":"432ff1e3-b18d-476d-af80-d39ddc07402a","outputPortName":"de0ba361-3aba-4ef0-bb07-9b418fcae591","inputNodeGuid":"e33ab94c-1496-4d6a-ba5e-1afd38bb0c30","inputPortName":"输入"}</t>
-        </is>
-      </c>
+          <t>{"outputNodeGuid":"e33ab94c-1496-4d6a-ba5e-1afd38bb0c30","outputPortName":"对每个目标","inputNodeGuid":"f8947676-1084-4228-b991-1509cc7fe851","inputPortName":"输入"}</t>
+        </is>
+      </c>
+      <c r="H63"/>
     </row>
     <row r="64">
       <c r="A64"/>
       <c r="B64"/>
       <c r="C64"/>
       <c r="D64"/>
-      <c r="E64"/>
-      <c r="F64">
-        <v>1</v>
+      <c r="E64">
+        <v>20</v>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>{"guid":"432ff1e3-b18d-476d-af80-d39ddc07402a","nodeType":20,"position":{"x":-452.0,"y":-2406.39990234375},"targetType":1,"skeletonDataAsset":{"instanceID":44398},"animationName":"Attack_01","animationDuration":"18","isAnimationLooping":false,"timeEffects":[{"triggerTime":7,"portId":"de0ba361-3aba-4ef0-bb07-9b418fcae591"},{"triggerTime":18,"portId":"84e238a8-5baf-470e-829f-186695064945"}],"timeCues":[{"startTime":7,"endTime":48,"portId":"8dea1941-c520-4f9a-aee0-40932c8542ef"}]}</t>
+        </is>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>{"guid":"f8947676-1084-4228-b991-1509cc7fe851","nodeType":1,"position":{"x":-100.0,"y":-1680.800048828125},"targetType":0,"assetTags":{"_tags":[]},"grantedTags":{"_tags":[]},"applicationRequiredTags":{"_tags":[]},"applicationImmunityTags":{"_tags":[]},"removeGameEffectsWithTags":{"_tags":[]},"durationType":0,"duration":"0","isPeriodic":false,"period":"1","executeOnApplication":false,"attributeModifiers":[],"stackType":0,"stackLimit":0,"stackDurationRefreshPolicy":0,"stackPeriodResetPolicy":0,"stackExpirationPolicy":0,"stackOverflowPolicy":0,"ongoingRequiredTags":{"_tags":[]},"cancelOnAbilityEnd":true,"damageType":0,"damageSourceType":0,"damageFixedValue":10.0,"damageFormula":"","damageMMCType":0,"damageSetByCallerKey":"","damageMMCCaptureAttribute":200,"damageMMCAttributeSource":0,"damageMMCCoefficient":1.0,"damageMMCUseSnapshot":true,"damageMultiplyByStackCount":false,"damageCalculationType":0}</t>
-        </is>
-      </c>
-      <c r="H64" t="inlineStr">
-        <is>
-          <t>{"outputNodeGuid":"e33ab94c-1496-4d6a-ba5e-1afd38bb0c30","outputPortName":"对每个目标","inputNodeGuid":"f8947676-1084-4228-b991-1509cc7fe851","inputPortName":"输入"}</t>
-        </is>
-      </c>
+          <t>{"outputNodeGuid":"f8947676-1084-4228-b991-1509cc7fe851","outputPortName":"完成效果","inputNodeGuid":"c353e286-8ef0-460a-b917-887f2aeb390a","inputPortName":"输入"}</t>
+        </is>
+      </c>
+      <c r="H64"/>
     </row>
     <row r="65">
       <c r="A65"/>
       <c r="B65"/>
       <c r="C65"/>
       <c r="D65"/>
-      <c r="E65"/>
-      <c r="F65">
-        <v>20</v>
+      <c r="E65">
+        <v>4</v>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>{"guid":"e33ab94c-1496-4d6a-ba5e-1afd38bb0c30","nodeType":4,"position":{"x":-452.0,"y":-1786.4000244140625},"targetType":1,"searchShapeType":1,"searchLineType":0,"positionSource":0,"positionBindingName":"center","searchCircleRadius":5.0,"searchSectorRadius":2.0,"searchSectorAngle":180.0,"searchLineDirectionOffsetAngle":0.0,"searchLineDirectionWidth":1.0,"searchLineDirectionLength":10.0,"lineStartPositionSource":0,"lineStartBindingName":"","lineEndPositionSource":1,"lineEndBindingName":"","searchLineBetweenWidth":1.0,"searchLineAbsoluteAngle":0.0,"searchLineAbsoluteWidth":1.0,"searchLineAbsoluteLength":10.0,"maxTargets":999,"searchTargetTags":{"_tags":[{"_name":"unitType.boss","_hashCode":-2067207703,"_shortName":"boss","_ancestorHashCodes":[1600484460],"_ancestorNames":["unitType"]}]},"searchExcludeTags":{"_tags":[]}}</t>
+        </is>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>{"guid":"432ff1e3-b18d-476d-af80-d39ddc07402a","nodeType":20,"position":{"x":-452.0,"y":-2406.39990234375},"targetType":1,"skeletonDataAsset":{"instanceID":44398},"animationName":"Attack_01","animationDuration":"18","isAnimationLooping":false,"timeEffects":[{"triggerTime":7,"portId":"de0ba361-3aba-4ef0-bb07-9b418fcae591"},{"triggerTime":18,"portId":"84e238a8-5baf-470e-829f-186695064945"}],"timeCues":[{"startTime":7,"endTime":48,"portId":"8dea1941-c520-4f9a-aee0-40932c8542ef"}]}</t>
-        </is>
-      </c>
-      <c r="H65" t="inlineStr">
-        <is>
-          <t>{"outputNodeGuid":"f8947676-1084-4228-b991-1509cc7fe851","outputPortName":"完成效果","inputNodeGuid":"c353e286-8ef0-460a-b917-887f2aeb390a","inputPortName":"输入"}</t>
-        </is>
-      </c>
+          <t>{"outputNodeGuid":"432ff1e3-b18d-476d-af80-d39ddc07402a","outputPortName":"84e238a8-5baf-470e-829f-186695064945","inputNodeGuid":"2cfdacd2-0186-49dd-b177-4eb8c0ad87bd","inputPortName":"输入"}</t>
+        </is>
+      </c>
+      <c r="H65"/>
     </row>
     <row r="66">
       <c r="A66"/>
       <c r="B66"/>
       <c r="C66"/>
       <c r="D66"/>
-      <c r="E66"/>
-      <c r="F66">
-        <v>4</v>
-      </c>
-      <c r="G66" t="inlineStr">
-        <is>
-          <t>{"guid":"e33ab94c-1496-4d6a-ba5e-1afd38bb0c30","nodeType":4,"position":{"x":-452.0,"y":-1786.4000244140625},"targetType":1,"searchShapeType":1,"searchLineType":0,"positionSource":0,"positionBindingName":"center","searchCircleRadius":5.0,"searchSectorRadius":2.0,"searchSectorAngle":180.0,"searchLineDirectionOffsetAngle":0.0,"searchLineDirectionWidth":1.0,"searchLineDirectionLength":10.0,"lineStartPositionSource":0,"lineStartBindingName":"","lineEndPositionSource":1,"lineEndBindingName":"","searchLineBetweenWidth":1.0,"searchLineAbsoluteAngle":0.0,"searchLineAbsoluteWidth":1.0,"searchLineAbsoluteLength":10.0,"maxTargets":999,"searchTargetTags":{"_tags":[{"_name":"unitType.boss","_hashCode":-2067207703,"_shortName":"boss","_ancestorHashCodes":[1600484460],"_ancestorNames":["unitType"]}]},"searchExcludeTags":{"_tags":[]}}</t>
-        </is>
-      </c>
-      <c r="H66" t="inlineStr">
-        <is>
-          <t>{"outputNodeGuid":"432ff1e3-b18d-476d-af80-d39ddc07402a","outputPortName":"84e238a8-5baf-470e-829f-186695064945","inputNodeGuid":"2cfdacd2-0186-49dd-b177-4eb8c0ad87bd","inputPortName":"输入"}</t>
-        </is>
-      </c>
+      <c r="E66">
+        <v>12</v>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>{"guid":"cde57fb8-b693-4da8-a4a8-fd61e56c5dcd","nodeType":12,"position":{"x":677.5999755859375,"y":-1998.4000244140625},"targetType":1,"requiredTags":{"_tags":[]},"immunityTags":{"_tags":[]},"destroyWithNode":false,"positionSource":0,"particlePrefab":{"instanceID":45538},"particleBindingName":"down","particleOffset":{"x":0.0,"y":0.0,"z":0.0},"particleScale":{"x":1.0,"y":1.0,"z":1.0},"attachToTarget":false,"particleLoop":false}</t>
+        </is>
+      </c>
+      <c r="G66"/>
+      <c r="H66"/>
     </row>
     <row r="67">
       <c r="A67"/>
-      <c r="B67"/>
-      <c r="C67"/>
+      <c r="B67">
+        <v>1008</v>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>ThreeFire</t>
+        </is>
+      </c>
       <c r="D67"/>
-      <c r="E67"/>
-      <c r="F67">
-        <v>12</v>
+      <c r="E67">
+        <v>7</v>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>{"guid":"2cfdacd2-0186-49dd-b177-4eb8c0ad87bd","nodeType":7,"position":{"x":689.5999755859375,"y":-1860.800048828125},"targetType":1,"endType":0}</t>
+        </is>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>{"guid":"cde57fb8-b693-4da8-a4a8-fd61e56c5dcd","nodeType":12,"position":{"x":677.5999755859375,"y":-1998.4000244140625},"targetType":1,"requiredTags":{"_tags":[]},"immunityTags":{"_tags":[]},"destroyWithNode":false,"positionSource":0,"particlePrefab":{"instanceID":45538},"particleBindingName":"down","particleOffset":{"x":0.0,"y":0.0,"z":0.0},"particleScale":{"x":1.0,"y":1.0,"z":1.0},"attachToTarget":false,"particleLoop":false}</t>
+          <t>{"outputNodeGuid":"356907e0-1488-4128-bfcc-7ff73cfc3330","outputPortName":"动画","inputNodeGuid":"432ff1e3-b18d-476d-af80-d39ddc07402a","inputPortName":"输入"}</t>
         </is>
       </c>
       <c r="H67"/>
     </row>
     <row r="68">
       <c r="A68"/>
-      <c r="B68">
-        <v>9</v>
-      </c>
-      <c r="C68" t="inlineStr">
-        <is>
-          <t>Skill_ThreeFire</t>
-        </is>
-      </c>
-      <c r="D68" t="inlineStr">
-        <is>
-          <t>ThreeFire</t>
-        </is>
-      </c>
-      <c r="E68"/>
-      <c r="F68">
-        <v>7</v>
+      <c r="B68"/>
+      <c r="C68"/>
+      <c r="D68"/>
+      <c r="E68">
+        <v>3</v>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>{"guid":"9d6f459d-b588-4b64-843b-1b71e8f299ae","nodeType":3,"position":{"x":-1186.4000244140625,"y":-2019.199951171875},"targetType":1,"assetTags":{"_tags":[]},"grantedTags":{"_tags":[]},"applicationRequiredTags":{"_tags":[]},"applicationImmunityTags":{"_tags":[]},"removeGameEffectsWithTags":{"_tags":[]},"durationType":0,"duration":"0","isPeriodic":false,"period":"1","executeOnApplication":false,"attributeModifiers":[{"attrType":100,"operation":0,"magnitudeSourceType":0,"fixedValue":10.0,"formula":"","mmcType":0,"setByCallerKey":"","mmcCaptureAttribute":200,"mmcAttributeSource":0,"mmcCoefficient":1.0,"mmcUseSnapshot":true}],"stackType":0,"stackLimit":0,"stackDurationRefreshPolicy":0,"stackPeriodResetPolicy":0,"stackExpirationPolicy":0,"stackOverflowPolicy":0,"ongoingRequiredTags":{"_tags":[]},"cancelOnAbilityEnd":true}</t>
+        </is>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>{"guid":"2cfdacd2-0186-49dd-b177-4eb8c0ad87bd","nodeType":7,"position":{"x":689.5999755859375,"y":-1860.800048828125},"targetType":1,"endType":0}</t>
-        </is>
-      </c>
-      <c r="H68" t="inlineStr">
-        <is>
-          <t>{"outputNodeGuid":"356907e0-1488-4128-bfcc-7ff73cfc3330","outputPortName":"动画","inputNodeGuid":"432ff1e3-b18d-476d-af80-d39ddc07402a","inputPortName":"输入"}</t>
-        </is>
-      </c>
+          <t>{"outputNodeGuid":"356907e0-1488-4128-bfcc-7ff73cfc3330","outputPortName":"冷却","inputNodeGuid":"c28fb88d-51b1-47b2-be59-859e0ac638e3","inputPortName":"输入"}</t>
+        </is>
+      </c>
+      <c r="H68"/>
     </row>
     <row r="69">
       <c r="A69"/>
       <c r="B69"/>
       <c r="C69"/>
       <c r="D69"/>
-      <c r="E69"/>
-      <c r="F69">
-        <v>3</v>
+      <c r="E69">
+        <v>20</v>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>{"guid":"432ff1e3-b18d-476d-af80-d39ddc07402a","nodeType":20,"position":{"x":-452.0,"y":-2406.39990234375},"targetType":1,"skeletonDataAsset":{"instanceID":44398},"animationName":"Attack_01","animationDuration":"18","isAnimationLooping":false,"timeEffects":[{"triggerTime":7,"portId":"de0ba361-3aba-4ef0-bb07-9b418fcae591"},{"triggerTime":18,"portId":"84e238a8-5baf-470e-829f-186695064945"}],"timeCues":[]}</t>
+        </is>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>{"guid":"9d6f459d-b588-4b64-843b-1b71e8f299ae","nodeType":3,"position":{"x":-1186.4000244140625,"y":-2019.199951171875},"targetType":1,"assetTags":{"_tags":[]},"grantedTags":{"_tags":[]},"applicationRequiredTags":{"_tags":[]},"applicationImmunityTags":{"_tags":[]},"removeGameEffectsWithTags":{"_tags":[]},"durationType":0,"duration":"0","isPeriodic":false,"period":"1","executeOnApplication":false,"attributeModifiers":[{"attrType":100,"operation":0,"magnitudeSourceType":0,"fixedValue":10.0,"formula":"","mmcType":0,"setByCallerKey":"","mmcCaptureAttribute":200,"mmcAttributeSource":0,"mmcCoefficient":1.0,"mmcUseSnapshot":true}],"stackType":0,"stackLimit":0,"stackDurationRefreshPolicy":0,"stackPeriodResetPolicy":0,"stackExpirationPolicy":0,"stackOverflowPolicy":0,"ongoingRequiredTags":{"_tags":[]},"cancelOnAbilityEnd":true}</t>
-        </is>
-      </c>
-      <c r="H69" t="inlineStr">
-        <is>
-          <t>{"outputNodeGuid":"356907e0-1488-4128-bfcc-7ff73cfc3330","outputPortName":"冷却","inputNodeGuid":"c28fb88d-51b1-47b2-be59-859e0ac638e3","inputPortName":"输入"}</t>
-        </is>
-      </c>
+          <t>{"outputNodeGuid":"356907e0-1488-4128-bfcc-7ff73cfc3330","outputPortName":"消耗","inputNodeGuid":"9d6f459d-b588-4b64-843b-1b71e8f299ae","inputPortName":"输入"}</t>
+        </is>
+      </c>
+      <c r="H69"/>
     </row>
     <row r="70">
       <c r="A70"/>
       <c r="B70"/>
       <c r="C70"/>
       <c r="D70"/>
-      <c r="E70"/>
-      <c r="F70">
-        <v>20</v>
+      <c r="E70">
+        <v>10</v>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>{"guid":"c28fb88d-51b1-47b2-be59-859e0ac638e3","nodeType":10,"position":{"x":-1186.4000244140625,"y":-1747.199951171875},"targetType":1,"assetTags":{"_tags":[]},"grantedTags":{"_tags":[{"_name":"CD.ThreeFire","_hashCode":-1656226246,"_shortName":"三火球","_ancestorHashCodes":[-1137859925],"_ancestorNames":["CD"]}]},"applicationRequiredTags":{"_tags":[]},"applicationImmunityTags":{"_tags":[]},"removeGameEffectsWithTags":{"_tags":[]},"durationType":1,"duration":"1","isPeriodic":false,"period":"1","executeOnApplication":false,"attributeModifiers":[],"stackType":0,"stackLimit":0,"stackDurationRefreshPolicy":0,"stackPeriodResetPolicy":0,"stackExpirationPolicy":0,"stackOverflowPolicy":0,"ongoingRequiredTags":{"_tags":[]},"cancelOnAbilityEnd":false,"cooldownType":0,"maxCharges":2,"chargeTime":"10"}</t>
+        </is>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>{"guid":"432ff1e3-b18d-476d-af80-d39ddc07402a","nodeType":20,"position":{"x":-452.0,"y":-2406.39990234375},"targetType":1,"skeletonDataAsset":{"instanceID":44398},"animationName":"Attack_01","animationDuration":"18","isAnimationLooping":false,"timeEffects":[{"triggerTime":7,"portId":"de0ba361-3aba-4ef0-bb07-9b418fcae591"},{"triggerTime":18,"portId":"84e238a8-5baf-470e-829f-186695064945"}],"timeCues":[]}</t>
-        </is>
-      </c>
-      <c r="H70" t="inlineStr">
-        <is>
-          <t>{"outputNodeGuid":"356907e0-1488-4128-bfcc-7ff73cfc3330","outputPortName":"消耗","inputNodeGuid":"9d6f459d-b588-4b64-843b-1b71e8f299ae","inputPortName":"输入"}</t>
-        </is>
-      </c>
+          <t>{"outputNodeGuid":"f8947676-1084-4228-b991-1509cc7fe851","outputPortName":"完成效果","inputNodeGuid":"c353e286-8ef0-460a-b917-887f2aeb390a","inputPortName":"输入"}</t>
+        </is>
+      </c>
+      <c r="H70"/>
     </row>
     <row r="71">
       <c r="A71"/>
       <c r="B71"/>
       <c r="C71"/>
       <c r="D71"/>
-      <c r="E71"/>
-      <c r="F71">
-        <v>10</v>
+      <c r="E71">
+        <v>0</v>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>{"guid":"356907e0-1488-4128-bfcc-7ff73cfc3330","nodeType":0,"position":{"x":-878.4000244140625,"y":-1853.5999755859375},"targetType":1,"skillId":1010,"assetTags":{"_tags":[]},"cancelAbilitiesWithTags":{"_tags":[]},"blockAbilitiesWithTags":{"_tags":[]},"activationOwnedTags":{"_tags":[]},"activationRequiredTags":{"_tags":[]},"activationBlockedTags":{"_tags":[{"_name":"CD.ThreeFire","_hashCode":-1656226246,"_shortName":"三火球","_ancestorHashCodes":[-1137859925],"_ancestorNames":["CD"]}]},"ongoingBlockedTags":{"_tags":[]},"eventOutputPorts":[]}</t>
+        </is>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>{"guid":"c28fb88d-51b1-47b2-be59-859e0ac638e3","nodeType":10,"position":{"x":-1186.4000244140625,"y":-1747.199951171875},"targetType":1,"assetTags":{"_tags":[]},"grantedTags":{"_tags":[{"_name":"CD.ThreeFire","_hashCode":-1656226246,"_shortName":"三火球","_ancestorHashCodes":[-1137859925],"_ancestorNames":["CD"]}]},"applicationRequiredTags":{"_tags":[]},"applicationImmunityTags":{"_tags":[]},"removeGameEffectsWithTags":{"_tags":[]},"durationType":1,"duration":"1","isPeriodic":false,"period":"1","executeOnApplication":false,"attributeModifiers":[],"stackType":0,"stackLimit":0,"stackDurationRefreshPolicy":0,"stackPeriodResetPolicy":0,"stackExpirationPolicy":0,"stackOverflowPolicy":0,"ongoingRequiredTags":{"_tags":[]},"cancelOnAbilityEnd":false,"cooldownType":0,"maxCharges":2,"chargeTime":"10"}</t>
-        </is>
-      </c>
-      <c r="H71" t="inlineStr">
-        <is>
-          <t>{"outputNodeGuid":"f8947676-1084-4228-b991-1509cc7fe851","outputPortName":"完成效果","inputNodeGuid":"c353e286-8ef0-460a-b917-887f2aeb390a","inputPortName":"输入"}</t>
-        </is>
-      </c>
+          <t>{"outputNodeGuid":"ce857360-de7e-4457-b348-9c124ce98879","outputPortName":"碰撞时","inputNodeGuid":"f8947676-1084-4228-b991-1509cc7fe851","inputPortName":"输入"}</t>
+        </is>
+      </c>
+      <c r="H71"/>
     </row>
     <row r="72">
       <c r="A72"/>
       <c r="B72"/>
       <c r="C72"/>
       <c r="D72"/>
-      <c r="E72"/>
-      <c r="F72">
-        <v>0</v>
+      <c r="E72">
+        <v>14</v>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>{"guid":"c353e286-8ef0-460a-b917-887f2aeb390a","nodeType":14,"position":{"x":839.199951171875,"y":-1583.199951171875},"targetType":1,"requiredTags":{"_tags":[]},"immunityTags":{"_tags":[]},"destroyWithNode":false,"positionSource":2,"positionBindingName":"head","textType":0,"fixedText":"","contextDataKey":"DamageResult","textColor":{"r":1.0,"g":0.0,"b":0.0,"a":1.0},"criticalColor":{"r":1.0,"g":0.5,"b":0.0,"a":1.0},"missColor":{"r":0.5,"g":0.5,"b":0.5,"a":1.0},"fontSize":45.0,"criticalFontSize":60.0,"duration":1.5,"offset":{"x":0.0,"y":0.0},"moveDirection":{"x":0.0,"y":1.0}}</t>
+        </is>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>{"guid":"356907e0-1488-4128-bfcc-7ff73cfc3330","nodeType":0,"position":{"x":-878.4000244140625,"y":-1853.5999755859375},"targetType":1,"skillId":1010,"assetTags":{"_tags":[]},"cancelAbilitiesWithTags":{"_tags":[]},"blockAbilitiesWithTags":{"_tags":[]},"activationOwnedTags":{"_tags":[]},"activationRequiredTags":{"_tags":[]},"activationBlockedTags":{"_tags":[{"_name":"CD.ThreeFire","_hashCode":-1656226246,"_shortName":"三火球","_ancestorHashCodes":[-1137859925],"_ancestorNames":["CD"]}]},"ongoingBlockedTags":{"_tags":[]},"eventOutputPorts":[]}</t>
-        </is>
-      </c>
-      <c r="H72" t="inlineStr">
-        <is>
-          <t>{"outputNodeGuid":"ce857360-de7e-4457-b348-9c124ce98879","outputPortName":"碰撞时","inputNodeGuid":"f8947676-1084-4228-b991-1509cc7fe851","inputPortName":"输入"}</t>
-        </is>
-      </c>
+          <t>{"outputNodeGuid":"9a695e91-e218-425e-82ed-1e157bf1b014","outputPortName":"碰撞时","inputNodeGuid":"f8947676-1084-4228-b991-1509cc7fe851","inputPortName":"输入"}</t>
+        </is>
+      </c>
+      <c r="H72"/>
     </row>
     <row r="73">
       <c r="A73"/>
       <c r="B73"/>
       <c r="C73"/>
       <c r="D73"/>
-      <c r="E73"/>
-      <c r="F73">
-        <v>14</v>
+      <c r="E73">
+        <v>1</v>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>{"guid":"f8947676-1084-4228-b991-1509cc7fe851","nodeType":1,"position":{"x":614.4000244140625,"y":-1583.199951171875},"targetType":0,"assetTags":{"_tags":[]},"grantedTags":{"_tags":[]},"applicationRequiredTags":{"_tags":[]},"applicationImmunityTags":{"_tags":[]},"removeGameEffectsWithTags":{"_tags":[]},"durationType":0,"duration":"0","isPeriodic":false,"period":"1","executeOnApplication":false,"attributeModifiers":[],"stackType":0,"stackLimit":0,"stackDurationRefreshPolicy":0,"stackPeriodResetPolicy":0,"stackExpirationPolicy":0,"stackOverflowPolicy":0,"ongoingRequiredTags":{"_tags":[]},"cancelOnAbilityEnd":true,"damageType":0,"damageSourceType":0,"damageFixedValue":10.0,"damageFormula":"","damageMMCType":0,"damageSetByCallerKey":"","damageMMCCaptureAttribute":200,"damageMMCAttributeSource":0,"damageMMCCoefficient":1.0,"damageMMCUseSnapshot":true,"damageMultiplyByStackCount":false,"damageCalculationType":0}</t>
+        </is>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>{"guid":"c353e286-8ef0-460a-b917-887f2aeb390a","nodeType":14,"position":{"x":839.199951171875,"y":-1583.199951171875},"targetType":1,"requiredTags":{"_tags":[]},"immunityTags":{"_tags":[]},"destroyWithNode":false,"positionSource":2,"positionBindingName":"head","textType":0,"fixedText":"","contextDataKey":"DamageResult","textColor":{"r":1.0,"g":0.0,"b":0.0,"a":1.0},"criticalColor":{"r":1.0,"g":0.5,"b":0.0,"a":1.0},"missColor":{"r":0.5,"g":0.5,"b":0.5,"a":1.0},"fontSize":45.0,"criticalFontSize":60.0,"duration":1.5,"offset":{"x":0.0,"y":0.0},"moveDirection":{"x":0.0,"y":1.0}}</t>
-        </is>
-      </c>
-      <c r="H73" t="inlineStr">
-        <is>
-          <t>{"outputNodeGuid":"9a695e91-e218-425e-82ed-1e157bf1b014","outputPortName":"碰撞时","inputNodeGuid":"f8947676-1084-4228-b991-1509cc7fe851","inputPortName":"输入"}</t>
-        </is>
-      </c>
+          <t>{"outputNodeGuid":"d897a922-5756-42cf-ac65-90a48c1e5a17","outputPortName":"碰撞时","inputNodeGuid":"f8947676-1084-4228-b991-1509cc7fe851","inputPortName":"输入"}</t>
+        </is>
+      </c>
+      <c r="H73"/>
     </row>
     <row r="74">
       <c r="A74"/>
       <c r="B74"/>
       <c r="C74"/>
       <c r="D74"/>
-      <c r="E74"/>
-      <c r="F74">
-        <v>1</v>
+      <c r="E74">
+        <v>8</v>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>{"guid":"ce857360-de7e-4457-b348-9c124ce98879","nodeType":8,"position":{"x":202.39999389648438,"y":-1649.5999755859375},"targetType":2,"assetTags":{"_tags":[]},"grantedTags":{"_tags":[]},"applicationRequiredTags":{"_tags":[]},"applicationImmunityTags":{"_tags":[]},"removeGameEffectsWithTags":{"_tags":[]},"durationType":2,"duration":"0","isPeriodic":false,"period":"1","executeOnApplication":false,"attributeModifiers":[],"stackType":0,"stackLimit":0,"stackDurationRefreshPolicy":0,"stackPeriodResetPolicy":0,"stackExpirationPolicy":0,"stackOverflowPolicy":0,"ongoingRequiredTags":{"_tags":[]},"cancelOnAbilityEnd":false,"launchPositionSource":0,"launchBindingName":"center","targetPositionSource":2,"targetBindingName":"center","projectileTargetType":0,"flyOver":true,"offsetAngle":30.0,"curveHeight":0.0,"projectilePrefab":{"instanceID":45344},"speed":10.0,"maxDistance":10.0,"collisionRadius":0.5,"isPiercing":false,"maxPierceCount":1,"collisionTargetTags":{"_tags":[]},"collisionExcludeTags":{"_tags":[]}}</t>
+        </is>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>{"guid":"f8947676-1084-4228-b991-1509cc7fe851","nodeType":1,"position":{"x":614.4000244140625,"y":-1583.199951171875},"targetType":0,"assetTags":{"_tags":[]},"grantedTags":{"_tags":[]},"applicationRequiredTags":{"_tags":[]},"applicationImmunityTags":{"_tags":[]},"removeGameEffectsWithTags":{"_tags":[]},"durationType":0,"duration":"0","isPeriodic":false,"period":"1","executeOnApplication":false,"attributeModifiers":[],"stackType":0,"stackLimit":0,"stackDurationRefreshPolicy":0,"stackPeriodResetPolicy":0,"stackExpirationPolicy":0,"stackOverflowPolicy":0,"ongoingRequiredTags":{"_tags":[]},"cancelOnAbilityEnd":true,"damageType":0,"damageSourceType":0,"damageFixedValue":10.0,"damageFormula":"","damageMMCType":0,"damageSetByCallerKey":"","damageMMCCaptureAttribute":200,"damageMMCAttributeSource":0,"damageMMCCoefficient":1.0,"damageMMCUseSnapshot":true,"damageMultiplyByStackCount":false,"damageCalculationType":0}</t>
-        </is>
-      </c>
-      <c r="H74" t="inlineStr">
-        <is>
-          <t>{"outputNodeGuid":"d897a922-5756-42cf-ac65-90a48c1e5a17","outputPortName":"碰撞时","inputNodeGuid":"f8947676-1084-4228-b991-1509cc7fe851","inputPortName":"输入"}</t>
-        </is>
-      </c>
+          <t>{"outputNodeGuid":"432ff1e3-b18d-476d-af80-d39ddc07402a","outputPortName":"84e238a8-5baf-470e-829f-186695064945","inputNodeGuid":"2cfdacd2-0186-49dd-b177-4eb8c0ad87bd","inputPortName":"输入"}</t>
+        </is>
+      </c>
+      <c r="H74"/>
     </row>
     <row r="75">
       <c r="A75"/>
       <c r="B75"/>
       <c r="C75"/>
       <c r="D75"/>
-      <c r="E75"/>
-      <c r="F75">
+      <c r="E75">
         <v>8</v>
       </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>{"guid":"9a695e91-e218-425e-82ed-1e157bf1b014","nodeType":8,"position":{"x":184.79998779296876,"y":-1475.199951171875},"targetType":2,"assetTags":{"_tags":[]},"grantedTags":{"_tags":[]},"applicationRequiredTags":{"_tags":[]},"applicationImmunityTags":{"_tags":[]},"removeGameEffectsWithTags":{"_tags":[]},"durationType":2,"duration":"0","isPeriodic":false,"period":"1","executeOnApplication":false,"attributeModifiers":[],"stackType":0,"stackLimit":0,"stackDurationRefreshPolicy":0,"stackPeriodResetPolicy":0,"stackExpirationPolicy":0,"stackOverflowPolicy":0,"ongoingRequiredTags":{"_tags":[]},"cancelOnAbilityEnd":false,"launchPositionSource":0,"launchBindingName":"center","targetPositionSource":2,"targetBindingName":"center","projectileTargetType":0,"flyOver":true,"offsetAngle":0.0,"curveHeight":0.0,"projectilePrefab":{"instanceID":45344},"speed":10.0,"maxDistance":10.0,"collisionRadius":0.5,"isPiercing":false,"maxPierceCount":1,"collisionTargetTags":{"_tags":[]},"collisionExcludeTags":{"_tags":[]}}</t>
+        </is>
+      </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>{"guid":"ce857360-de7e-4457-b348-9c124ce98879","nodeType":8,"position":{"x":202.39999389648438,"y":-1649.5999755859375},"targetType":2,"assetTags":{"_tags":[]},"grantedTags":{"_tags":[]},"applicationRequiredTags":{"_tags":[]},"applicationImmunityTags":{"_tags":[]},"removeGameEffectsWithTags":{"_tags":[]},"durationType":2,"duration":"0","isPeriodic":false,"period":"1","executeOnApplication":false,"attributeModifiers":[],"stackType":0,"stackLimit":0,"stackDurationRefreshPolicy":0,"stackPeriodResetPolicy":0,"stackExpirationPolicy":0,"stackOverflowPolicy":0,"ongoingRequiredTags":{"_tags":[]},"cancelOnAbilityEnd":false,"launchPositionSource":0,"launchBindingName":"center","targetPositionSource":2,"targetBindingName":"center","projectileTargetType":0,"flyOver":true,"offsetAngle":30.0,"curveHeight":0.0,"projectilePrefab":{"instanceID":45344},"speed":10.0,"maxDistance":10.0,"collisionRadius":0.5,"isPiercing":false,"maxPierceCount":1,"collisionTargetTags":{"_tags":[]},"collisionExcludeTags":{"_tags":[]}}</t>
-        </is>
-      </c>
-      <c r="H75" t="inlineStr">
-        <is>
-          <t>{"outputNodeGuid":"432ff1e3-b18d-476d-af80-d39ddc07402a","outputPortName":"84e238a8-5baf-470e-829f-186695064945","inputNodeGuid":"2cfdacd2-0186-49dd-b177-4eb8c0ad87bd","inputPortName":"输入"}</t>
-        </is>
-      </c>
+          <t>{"outputNodeGuid":"432ff1e3-b18d-476d-af80-d39ddc07402a","outputPortName":"de0ba361-3aba-4ef0-bb07-9b418fcae591","inputNodeGuid":"ce857360-de7e-4457-b348-9c124ce98879","inputPortName":"输入"}</t>
+        </is>
+      </c>
+      <c r="H75"/>
     </row>
     <row r="76">
       <c r="A76"/>
       <c r="B76"/>
       <c r="C76"/>
       <c r="D76"/>
-      <c r="E76"/>
-      <c r="F76">
+      <c r="E76">
         <v>8</v>
       </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>{"guid":"d897a922-5756-42cf-ac65-90a48c1e5a17","nodeType":8,"position":{"x":173.60000610351563,"y":-1327.199951171875},"targetType":2,"assetTags":{"_tags":[]},"grantedTags":{"_tags":[]},"applicationRequiredTags":{"_tags":[]},"applicationImmunityTags":{"_tags":[]},"removeGameEffectsWithTags":{"_tags":[]},"durationType":2,"duration":"0","isPeriodic":false,"period":"1","executeOnApplication":false,"attributeModifiers":[],"stackType":0,"stackLimit":0,"stackDurationRefreshPolicy":0,"stackPeriodResetPolicy":0,"stackExpirationPolicy":0,"stackOverflowPolicy":0,"ongoingRequiredTags":{"_tags":[]},"cancelOnAbilityEnd":false,"launchPositionSource":0,"launchBindingName":"center","targetPositionSource":2,"targetBindingName":"center","projectileTargetType":0,"flyOver":true,"offsetAngle":-30.0,"curveHeight":0.0,"projectilePrefab":{"instanceID":45344},"speed":10.0,"maxDistance":10.0,"collisionRadius":0.5,"isPiercing":false,"maxPierceCount":1,"collisionTargetTags":{"_tags":[]},"collisionExcludeTags":{"_tags":[]}}</t>
+        </is>
+      </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>{"guid":"9a695e91-e218-425e-82ed-1e157bf1b014","nodeType":8,"position":{"x":184.79998779296876,"y":-1475.199951171875},"targetType":2,"assetTags":{"_tags":[]},"grantedTags":{"_tags":[]},"applicationRequiredTags":{"_tags":[]},"applicationImmunityTags":{"_tags":[]},"removeGameEffectsWithTags":{"_tags":[]},"durationType":2,"duration":"0","isPeriodic":false,"period":"1","executeOnApplication":false,"attributeModifiers":[],"stackType":0,"stackLimit":0,"stackDurationRefreshPolicy":0,"stackPeriodResetPolicy":0,"stackExpirationPolicy":0,"stackOverflowPolicy":0,"ongoingRequiredTags":{"_tags":[]},"cancelOnAbilityEnd":false,"launchPositionSource":0,"launchBindingName":"center","targetPositionSource":2,"targetBindingName":"center","projectileTargetType":0,"flyOver":true,"offsetAngle":0.0,"curveHeight":0.0,"projectilePrefab":{"instanceID":45344},"speed":10.0,"maxDistance":10.0,"collisionRadius":0.5,"isPiercing":false,"maxPierceCount":1,"collisionTargetTags":{"_tags":[]},"collisionExcludeTags":{"_tags":[]}}</t>
-        </is>
-      </c>
-      <c r="H76" t="inlineStr">
-        <is>
-          <t>{"outputNodeGuid":"432ff1e3-b18d-476d-af80-d39ddc07402a","outputPortName":"de0ba361-3aba-4ef0-bb07-9b418fcae591","inputNodeGuid":"ce857360-de7e-4457-b348-9c124ce98879","inputPortName":"输入"}</t>
-        </is>
-      </c>
+          <t>{"outputNodeGuid":"432ff1e3-b18d-476d-af80-d39ddc07402a","outputPortName":"de0ba361-3aba-4ef0-bb07-9b418fcae591","inputNodeGuid":"9a695e91-e218-425e-82ed-1e157bf1b014","inputPortName":"输入"}</t>
+        </is>
+      </c>
+      <c r="H76"/>
     </row>
     <row r="77">
       <c r="A77"/>
@@ -2551,391 +2469,383 @@
       <c r="C77"/>
       <c r="D77"/>
       <c r="E77"/>
-      <c r="F77">
-        <v>8</v>
-      </c>
+      <c r="F77"/>
       <c r="G77" t="inlineStr">
         <is>
-          <t>{"guid":"d897a922-5756-42cf-ac65-90a48c1e5a17","nodeType":8,"position":{"x":173.60000610351563,"y":-1327.199951171875},"targetType":2,"assetTags":{"_tags":[]},"grantedTags":{"_tags":[]},"applicationRequiredTags":{"_tags":[]},"applicationImmunityTags":{"_tags":[]},"removeGameEffectsWithTags":{"_tags":[]},"durationType":2,"duration":"0","isPeriodic":false,"period":"1","executeOnApplication":false,"attributeModifiers":[],"stackType":0,"stackLimit":0,"stackDurationRefreshPolicy":0,"stackPeriodResetPolicy":0,"stackExpirationPolicy":0,"stackOverflowPolicy":0,"ongoingRequiredTags":{"_tags":[]},"cancelOnAbilityEnd":false,"launchPositionSource":0,"launchBindingName":"center","targetPositionSource":2,"targetBindingName":"center","projectileTargetType":0,"flyOver":true,"offsetAngle":-30.0,"curveHeight":0.0,"projectilePrefab":{"instanceID":45344},"speed":10.0,"maxDistance":10.0,"collisionRadius":0.5,"isPiercing":false,"maxPierceCount":1,"collisionTargetTags":{"_tags":[]},"collisionExcludeTags":{"_tags":[]}}</t>
-        </is>
-      </c>
-      <c r="H77" t="inlineStr">
-        <is>
-          <t>{"outputNodeGuid":"432ff1e3-b18d-476d-af80-d39ddc07402a","outputPortName":"de0ba361-3aba-4ef0-bb07-9b418fcae591","inputNodeGuid":"9a695e91-e218-425e-82ed-1e157bf1b014","inputPortName":"输入"}</t>
-        </is>
-      </c>
+          <t>{"outputNodeGuid":"432ff1e3-b18d-476d-af80-d39ddc07402a","outputPortName":"de0ba361-3aba-4ef0-bb07-9b418fcae591","inputNodeGuid":"d897a922-5756-42cf-ac65-90a48c1e5a17","inputPortName":"输入"}</t>
+        </is>
+      </c>
+      <c r="H77"/>
     </row>
     <row r="78">
       <c r="A78"/>
-      <c r="B78"/>
-      <c r="C78"/>
+      <c r="B78">
+        <v>1006</v>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>Wan</t>
+        </is>
+      </c>
       <c r="D78"/>
-      <c r="E78"/>
-      <c r="F78"/>
-      <c r="G78"/>
-      <c r="H78" t="inlineStr">
-        <is>
-          <t>{"outputNodeGuid":"432ff1e3-b18d-476d-af80-d39ddc07402a","outputPortName":"de0ba361-3aba-4ef0-bb07-9b418fcae591","inputNodeGuid":"d897a922-5756-42cf-ac65-90a48c1e5a17","inputPortName":"输入"}</t>
-        </is>
-      </c>
+      <c r="E78">
+        <v>3</v>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>{"guid":"9d6f459d-b588-4b64-843b-1b71e8f299ae","nodeType":3,"position":{"x":-1186.4000244140625,"y":-2011.199951171875},"targetType":1,"assetTags":{"_tags":[]},"grantedTags":{"_tags":[]},"applicationRequiredTags":{"_tags":[]},"applicationImmunityTags":{"_tags":[]},"removeGameEffectsWithTags":{"_tags":[]},"durationType":0,"duration":"0","isPeriodic":false,"period":"1","executeOnApplication":false,"attributeModifiers":[{"attrType":100,"operation":0,"magnitudeSourceType":0,"fixedValue":10.0,"formula":"","mmcType":0,"setByCallerKey":"","mmcCaptureAttribute":200,"mmcAttributeSource":0,"mmcCoefficient":1.0,"mmcUseSnapshot":true}],"stackType":0,"stackLimit":0,"stackDurationRefreshPolicy":0,"stackPeriodResetPolicy":0,"stackExpirationPolicy":0,"stackOverflowPolicy":0,"ongoingRequiredTags":{"_tags":[]},"cancelOnAbilityEnd":true}</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>{"outputNodeGuid":"356907e0-1488-4128-bfcc-7ff73cfc3330","outputPortName":"动画","inputNodeGuid":"432ff1e3-b18d-476d-af80-d39ddc07402a","inputPortName":"输入"}</t>
+        </is>
+      </c>
+      <c r="H78"/>
     </row>
     <row r="79">
       <c r="A79"/>
-      <c r="B79">
-        <v>10</v>
-      </c>
-      <c r="C79" t="inlineStr">
-        <is>
-          <t>Skill_Wan</t>
-        </is>
-      </c>
-      <c r="D79" t="inlineStr">
-        <is>
-          <t>Wan</t>
-        </is>
-      </c>
-      <c r="E79"/>
-      <c r="F79">
-        <v>3</v>
+      <c r="B79"/>
+      <c r="C79"/>
+      <c r="D79"/>
+      <c r="E79">
+        <v>7</v>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>{"guid":"f73ba91e-a76b-456c-b19c-a5176809d5f5","nodeType":7,"position":{"x":700.0,"y":-1856.800048828125},"targetType":1,"endType":0}</t>
+        </is>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>{"guid":"9d6f459d-b588-4b64-843b-1b71e8f299ae","nodeType":3,"position":{"x":-1186.4000244140625,"y":-2011.199951171875},"targetType":1,"assetTags":{"_tags":[]},"grantedTags":{"_tags":[]},"applicationRequiredTags":{"_tags":[]},"applicationImmunityTags":{"_tags":[]},"removeGameEffectsWithTags":{"_tags":[]},"durationType":0,"duration":"0","isPeriodic":false,"period":"1","executeOnApplication":false,"attributeModifiers":[{"attrType":100,"operation":0,"magnitudeSourceType":0,"fixedValue":10.0,"formula":"","mmcType":0,"setByCallerKey":"","mmcCaptureAttribute":200,"mmcAttributeSource":0,"mmcCoefficient":1.0,"mmcUseSnapshot":true}],"stackType":0,"stackLimit":0,"stackDurationRefreshPolicy":0,"stackPeriodResetPolicy":0,"stackExpirationPolicy":0,"stackOverflowPolicy":0,"ongoingRequiredTags":{"_tags":[]},"cancelOnAbilityEnd":true}</t>
-        </is>
-      </c>
-      <c r="H79" t="inlineStr">
-        <is>
-          <t>{"outputNodeGuid":"356907e0-1488-4128-bfcc-7ff73cfc3330","outputPortName":"动画","inputNodeGuid":"432ff1e3-b18d-476d-af80-d39ddc07402a","inputPortName":"输入"}</t>
-        </is>
-      </c>
+          <t>{"outputNodeGuid":"356907e0-1488-4128-bfcc-7ff73cfc3330","outputPortName":"冷却","inputNodeGuid":"c28fb88d-51b1-47b2-be59-859e0ac638e3","inputPortName":"输入"}</t>
+        </is>
+      </c>
+      <c r="H79"/>
     </row>
     <row r="80">
       <c r="A80"/>
       <c r="B80"/>
       <c r="C80"/>
       <c r="D80"/>
-      <c r="E80"/>
-      <c r="F80">
-        <v>7</v>
+      <c r="E80">
+        <v>20</v>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>{"guid":"432ff1e3-b18d-476d-af80-d39ddc07402a","nodeType":20,"position":{"x":-502.3999938964844,"y":-2384.0},"targetType":1,"skeletonDataAsset":{"instanceID":44398},"animationName":"Skill_attack_1009","animationDuration":"25","isAnimationLooping":false,"timeEffects":[{"triggerTime":4,"portId":"de0ba361-3aba-4ef0-bb07-9b418fcae591"},{"triggerTime":25,"portId":"f41c85e0-7f26-494e-9ffc-4a06c980f811"}],"timeCues":[{"startTime":0,"endTime":75,"portId":"8dea1941-c520-4f9a-aee0-40932c8542ef"}]}</t>
+        </is>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>{"guid":"f73ba91e-a76b-456c-b19c-a5176809d5f5","nodeType":7,"position":{"x":700.0,"y":-1856.800048828125},"targetType":1,"endType":0}</t>
-        </is>
-      </c>
-      <c r="H80" t="inlineStr">
-        <is>
-          <t>{"outputNodeGuid":"356907e0-1488-4128-bfcc-7ff73cfc3330","outputPortName":"冷却","inputNodeGuid":"c28fb88d-51b1-47b2-be59-859e0ac638e3","inputPortName":"输入"}</t>
-        </is>
-      </c>
+          <t>{"outputNodeGuid":"356907e0-1488-4128-bfcc-7ff73cfc3330","outputPortName":"消耗","inputNodeGuid":"9d6f459d-b588-4b64-843b-1b71e8f299ae","inputPortName":"输入"}</t>
+        </is>
+      </c>
+      <c r="H80"/>
     </row>
     <row r="81">
       <c r="A81"/>
       <c r="B81"/>
       <c r="C81"/>
       <c r="D81"/>
-      <c r="E81"/>
-      <c r="F81">
-        <v>20</v>
+      <c r="E81">
+        <v>22</v>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>{"guid":"091ecddb-f80b-4c00-aa06-f9bc718618d2","nodeType":22,"position":{"x":-93.60000610351563,"y":-1708.800048828125},"targetType":0,"assetTags":{"_tags":[]},"grantedTags":{"_tags":[]},"applicationRequiredTags":{"_tags":[]},"applicationImmunityTags":{"_tags":[]},"removeGameEffectsWithTags":{"_tags":[]},"durationType":1,"duration":"0.5","isPeriodic":false,"period":"1","executeOnApplication":false,"attributeModifiers":[],"stackType":0,"stackLimit":0,"stackDurationRefreshPolicy":0,"stackPeriodResetPolicy":0,"stackExpirationPolicy":0,"stackOverflowPolicy":0,"ongoingRequiredTags":{"_tags":[]},"cancelOnAbilityEnd":false,"displaceType":0,"speed":10.0,"distance":3.0,"minDistance":0.5,"pointSource":0,"pointBindingName":""}</t>
+        </is>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>{"guid":"432ff1e3-b18d-476d-af80-d39ddc07402a","nodeType":20,"position":{"x":-502.3999938964844,"y":-2384.0},"targetType":1,"skeletonDataAsset":{"instanceID":44398},"animationName":"Skill_attack_1009","animationDuration":"25","isAnimationLooping":false,"timeEffects":[{"triggerTime":4,"portId":"de0ba361-3aba-4ef0-bb07-9b418fcae591"},{"triggerTime":25,"portId":"f41c85e0-7f26-494e-9ffc-4a06c980f811"}],"timeCues":[{"startTime":0,"endTime":75,"portId":"8dea1941-c520-4f9a-aee0-40932c8542ef"}]}</t>
-        </is>
-      </c>
-      <c r="H81" t="inlineStr">
-        <is>
-          <t>{"outputNodeGuid":"356907e0-1488-4128-bfcc-7ff73cfc3330","outputPortName":"消耗","inputNodeGuid":"9d6f459d-b588-4b64-843b-1b71e8f299ae","inputPortName":"输入"}</t>
-        </is>
-      </c>
+          <t>{"outputNodeGuid":"432ff1e3-b18d-476d-af80-d39ddc07402a","outputPortName":"f41c85e0-7f26-494e-9ffc-4a06c980f811","inputNodeGuid":"f73ba91e-a76b-456c-b19c-a5176809d5f5","inputPortName":"输入"}</t>
+        </is>
+      </c>
+      <c r="H81"/>
     </row>
     <row r="82">
       <c r="A82"/>
       <c r="B82"/>
       <c r="C82"/>
       <c r="D82"/>
-      <c r="E82"/>
-      <c r="F82">
-        <v>22</v>
+      <c r="E82">
+        <v>10</v>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>{"guid":"c28fb88d-51b1-47b2-be59-859e0ac638e3","nodeType":10,"position":{"x":-1186.4000244140625,"y":-1747.199951171875},"targetType":1,"assetTags":{"_tags":[]},"grantedTags":{"_tags":[{"_name":"CD.Wan","_hashCode":87403585,"_shortName":"Wan","_ancestorHashCodes":[-1137859925],"_ancestorNames":["CD"]}]},"applicationRequiredTags":{"_tags":[]},"applicationImmunityTags":{"_tags":[]},"removeGameEffectsWithTags":{"_tags":[]},"durationType":1,"duration":"5","isPeriodic":false,"period":"1","executeOnApplication":false,"attributeModifiers":[],"stackType":0,"stackLimit":0,"stackDurationRefreshPolicy":0,"stackPeriodResetPolicy":0,"stackExpirationPolicy":0,"stackOverflowPolicy":0,"ongoingRequiredTags":{"_tags":[]},"cancelOnAbilityEnd":false,"cooldownType":0,"maxCharges":2,"chargeTime":"10"}</t>
+        </is>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>{"guid":"091ecddb-f80b-4c00-aa06-f9bc718618d2","nodeType":22,"position":{"x":-93.60000610351563,"y":-1708.800048828125},"targetType":0,"assetTags":{"_tags":[]},"grantedTags":{"_tags":[]},"applicationRequiredTags":{"_tags":[]},"applicationImmunityTags":{"_tags":[]},"removeGameEffectsWithTags":{"_tags":[]},"durationType":1,"duration":"0.5","isPeriodic":false,"period":"1","executeOnApplication":false,"attributeModifiers":[],"stackType":0,"stackLimit":0,"stackDurationRefreshPolicy":0,"stackPeriodResetPolicy":0,"stackExpirationPolicy":0,"stackOverflowPolicy":0,"ongoingRequiredTags":{"_tags":[]},"cancelOnAbilityEnd":false,"displaceType":0,"speed":10.0,"distance":3.0,"minDistance":0.5,"pointSource":0,"pointBindingName":""}</t>
-        </is>
-      </c>
-      <c r="H82" t="inlineStr">
-        <is>
-          <t>{"outputNodeGuid":"432ff1e3-b18d-476d-af80-d39ddc07402a","outputPortName":"f41c85e0-7f26-494e-9ffc-4a06c980f811","inputNodeGuid":"f73ba91e-a76b-456c-b19c-a5176809d5f5","inputPortName":"输入"}</t>
-        </is>
-      </c>
+          <t>{"outputNodeGuid":"432ff1e3-b18d-476d-af80-d39ddc07402a","outputPortName":"de0ba361-3aba-4ef0-bb07-9b418fcae591","inputNodeGuid":"e33ab94c-1496-4d6a-ba5e-1afd38bb0c30","inputPortName":"输入"}</t>
+        </is>
+      </c>
+      <c r="H82"/>
     </row>
     <row r="83">
       <c r="A83"/>
       <c r="B83"/>
       <c r="C83"/>
       <c r="D83"/>
-      <c r="E83"/>
-      <c r="F83">
-        <v>10</v>
+      <c r="E83">
+        <v>12</v>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>{"guid":"cde57fb8-b693-4da8-a4a8-fd61e56c5dcd","nodeType":12,"position":{"x":677.5999755859375,"y":-1998.4000244140625},"targetType":1,"requiredTags":{"_tags":[]},"immunityTags":{"_tags":[]},"destroyWithNode":false,"positionSource":0,"particlePrefab":{"instanceID":45418},"particleBindingName":"down","particleOffset":{"x":0.0,"y":0.0,"z":0.0},"particleScale":{"x":1.0,"y":1.0,"z":1.0},"attachToTarget":false,"particleLoop":false}</t>
+        </is>
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>{"guid":"c28fb88d-51b1-47b2-be59-859e0ac638e3","nodeType":10,"position":{"x":-1186.4000244140625,"y":-1747.199951171875},"targetType":1,"assetTags":{"_tags":[]},"grantedTags":{"_tags":[{"_name":"CD.Wan","_hashCode":87403585,"_shortName":"Wan","_ancestorHashCodes":[-1137859925],"_ancestorNames":["CD"]}]},"applicationRequiredTags":{"_tags":[]},"applicationImmunityTags":{"_tags":[]},"removeGameEffectsWithTags":{"_tags":[]},"durationType":1,"duration":"5","isPeriodic":false,"period":"1","executeOnApplication":false,"attributeModifiers":[],"stackType":0,"stackLimit":0,"stackDurationRefreshPolicy":0,"stackPeriodResetPolicy":0,"stackExpirationPolicy":0,"stackOverflowPolicy":0,"ongoingRequiredTags":{"_tags":[]},"cancelOnAbilityEnd":false,"cooldownType":0,"maxCharges":2,"chargeTime":"10"}</t>
-        </is>
-      </c>
-      <c r="H83" t="inlineStr">
-        <is>
-          <t>{"outputNodeGuid":"432ff1e3-b18d-476d-af80-d39ddc07402a","outputPortName":"de0ba361-3aba-4ef0-bb07-9b418fcae591","inputNodeGuid":"e33ab94c-1496-4d6a-ba5e-1afd38bb0c30","inputPortName":"输入"}</t>
-        </is>
-      </c>
+          <t>{"outputNodeGuid":"432ff1e3-b18d-476d-af80-d39ddc07402a","outputPortName":"8dea1941-c520-4f9a-aee0-40932c8542ef","inputNodeGuid":"cde57fb8-b693-4da8-a4a8-fd61e56c5dcd","inputPortName":"输入"}</t>
+        </is>
+      </c>
+      <c r="H83"/>
     </row>
     <row r="84">
       <c r="A84"/>
       <c r="B84"/>
       <c r="C84"/>
       <c r="D84"/>
-      <c r="E84"/>
-      <c r="F84">
-        <v>12</v>
+      <c r="E84">
+        <v>0</v>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>{"guid":"356907e0-1488-4128-bfcc-7ff73cfc3330","nodeType":0,"position":{"x":-878.4000244140625,"y":-1853.5999755859375},"targetType":1,"skillId":1007,"assetTags":{"_tags":[]},"cancelAbilitiesWithTags":{"_tags":[]},"blockAbilitiesWithTags":{"_tags":[]},"activationOwnedTags":{"_tags":[]},"activationRequiredTags":{"_tags":[]},"activationBlockedTags":{"_tags":[{"_name":"CD.Wan","_hashCode":87403585,"_shortName":"Wan","_ancestorHashCodes":[-1137859925],"_ancestorNames":["CD"]}]},"ongoingBlockedTags":{"_tags":[]},"eventOutputPorts":[]}</t>
+        </is>
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>{"guid":"cde57fb8-b693-4da8-a4a8-fd61e56c5dcd","nodeType":12,"position":{"x":677.5999755859375,"y":-1998.4000244140625},"targetType":1,"requiredTags":{"_tags":[]},"immunityTags":{"_tags":[]},"destroyWithNode":false,"positionSource":0,"particlePrefab":{"instanceID":45418},"particleBindingName":"down","particleOffset":{"x":0.0,"y":0.0,"z":0.0},"particleScale":{"x":1.0,"y":1.0,"z":1.0},"attachToTarget":false,"particleLoop":false}</t>
-        </is>
-      </c>
-      <c r="H84" t="inlineStr">
-        <is>
-          <t>{"outputNodeGuid":"432ff1e3-b18d-476d-af80-d39ddc07402a","outputPortName":"8dea1941-c520-4f9a-aee0-40932c8542ef","inputNodeGuid":"cde57fb8-b693-4da8-a4a8-fd61e56c5dcd","inputPortName":"输入"}</t>
-        </is>
-      </c>
+          <t>{"outputNodeGuid":"e33ab94c-1496-4d6a-ba5e-1afd38bb0c30","outputPortName":"对每个目标","inputNodeGuid":"091ecddb-f80b-4c00-aa06-f9bc718618d2","inputPortName":"输入"}</t>
+        </is>
+      </c>
+      <c r="H84"/>
     </row>
     <row r="85">
       <c r="A85"/>
       <c r="B85"/>
       <c r="C85"/>
       <c r="D85"/>
-      <c r="E85"/>
-      <c r="F85">
-        <v>0</v>
-      </c>
-      <c r="G85" t="inlineStr">
-        <is>
-          <t>{"guid":"356907e0-1488-4128-bfcc-7ff73cfc3330","nodeType":0,"position":{"x":-878.4000244140625,"y":-1853.5999755859375},"targetType":1,"skillId":1007,"assetTags":{"_tags":[]},"cancelAbilitiesWithTags":{"_tags":[]},"blockAbilitiesWithTags":{"_tags":[]},"activationOwnedTags":{"_tags":[]},"activationRequiredTags":{"_tags":[]},"activationBlockedTags":{"_tags":[{"_name":"CD.Wan","_hashCode":87403585,"_shortName":"Wan","_ancestorHashCodes":[-1137859925],"_ancestorNames":["CD"]}]},"ongoingBlockedTags":{"_tags":[]},"eventOutputPorts":[]}</t>
-        </is>
-      </c>
-      <c r="H85" t="inlineStr">
-        <is>
-          <t>{"outputNodeGuid":"e33ab94c-1496-4d6a-ba5e-1afd38bb0c30","outputPortName":"对每个目标","inputNodeGuid":"091ecddb-f80b-4c00-aa06-f9bc718618d2","inputPortName":"输入"}</t>
-        </is>
-      </c>
+      <c r="E85">
+        <v>4</v>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>{"guid":"e33ab94c-1496-4d6a-ba5e-1afd38bb0c30","nodeType":4,"position":{"x":-452.0,"y":-1786.4000244140625},"targetType":1,"searchShapeType":0,"searchLineType":0,"positionSource":0,"positionBindingName":"center","searchCircleRadius":4.0,"searchSectorRadius":2.0,"searchSectorAngle":180.0,"searchLineDirectionOffsetAngle":0.0,"searchLineDirectionWidth":1.0,"searchLineDirectionLength":10.0,"lineStartPositionSource":0,"lineStartBindingName":"","lineEndPositionSource":1,"lineEndBindingName":"","searchLineBetweenWidth":1.0,"searchLineAbsoluteAngle":0.0,"searchLineAbsoluteWidth":1.0,"searchLineAbsoluteLength":10.0,"maxTargets":999,"searchTargetTags":{"_tags":[{"_name":"unitType.boss","_hashCode":-2067207703,"_shortName":"boss","_ancestorHashCodes":[1600484460],"_ancestorNames":["unitType"]}]},"searchExcludeTags":{"_tags":[]}}</t>
+        </is>
+      </c>
+      <c r="G85"/>
+      <c r="H85"/>
     </row>
     <row r="86">
       <c r="A86"/>
-      <c r="B86"/>
-      <c r="C86"/>
+      <c r="B86">
+        <v>1004</v>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>Wind</t>
+        </is>
+      </c>
       <c r="D86"/>
-      <c r="E86"/>
-      <c r="F86">
-        <v>4</v>
+      <c r="E86">
+        <v>3</v>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>{"guid":"9d6f459d-b588-4b64-843b-1b71e8f299ae","nodeType":3,"position":{"x":-1186.4000244140625,"y":-2011.199951171875},"targetType":1,"assetTags":{"_tags":[]},"grantedTags":{"_tags":[]},"applicationRequiredTags":{"_tags":[]},"applicationImmunityTags":{"_tags":[]},"removeGameEffectsWithTags":{"_tags":[]},"durationType":0,"duration":"0","isPeriodic":false,"period":"1","executeOnApplication":false,"attributeModifiers":[{"attrType":100,"operation":0,"magnitudeSourceType":0,"fixedValue":10.0,"formula":"","mmcType":0,"setByCallerKey":"","mmcCaptureAttribute":200,"mmcAttributeSource":0,"mmcCoefficient":1.0,"mmcUseSnapshot":true}],"stackType":0,"stackLimit":0,"stackDurationRefreshPolicy":0,"stackPeriodResetPolicy":0,"stackExpirationPolicy":0,"stackOverflowPolicy":0,"ongoingRequiredTags":{"_tags":[]},"cancelOnAbilityEnd":true}</t>
+        </is>
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>{"guid":"e33ab94c-1496-4d6a-ba5e-1afd38bb0c30","nodeType":4,"position":{"x":-452.0,"y":-1786.4000244140625},"targetType":1,"searchShapeType":0,"searchLineType":0,"positionSource":0,"positionBindingName":"center","searchCircleRadius":4.0,"searchSectorRadius":2.0,"searchSectorAngle":180.0,"searchLineDirectionOffsetAngle":0.0,"searchLineDirectionWidth":1.0,"searchLineDirectionLength":10.0,"lineStartPositionSource":0,"lineStartBindingName":"","lineEndPositionSource":1,"lineEndBindingName":"","searchLineBetweenWidth":1.0,"searchLineAbsoluteAngle":0.0,"searchLineAbsoluteWidth":1.0,"searchLineAbsoluteLength":10.0,"maxTargets":999,"searchTargetTags":{"_tags":[{"_name":"unitType.boss","_hashCode":-2067207703,"_shortName":"boss","_ancestorHashCodes":[1600484460],"_ancestorNames":["unitType"]}]},"searchExcludeTags":{"_tags":[]}}</t>
+          <t>{"outputNodeGuid":"356907e0-1488-4128-bfcc-7ff73cfc3330","outputPortName":"动画","inputNodeGuid":"432ff1e3-b18d-476d-af80-d39ddc07402a","inputPortName":"输入"}</t>
         </is>
       </c>
       <c r="H86"/>
     </row>
     <row r="87">
       <c r="A87"/>
-      <c r="B87">
-        <v>11</v>
-      </c>
-      <c r="C87" t="inlineStr">
-        <is>
-          <t>Skill_Wind</t>
-        </is>
-      </c>
-      <c r="D87" t="inlineStr">
-        <is>
-          <t>Wind</t>
-        </is>
-      </c>
-      <c r="E87"/>
-      <c r="F87">
-        <v>4</v>
+      <c r="B87"/>
+      <c r="C87"/>
+      <c r="D87"/>
+      <c r="E87">
+        <v>0</v>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>{"guid":"356907e0-1488-4128-bfcc-7ff73cfc3330","nodeType":0,"position":{"x":-878.4000244140625,"y":-1853.5999755859375},"targetType":1,"skillId":1004,"assetTags":{"_tags":[]},"cancelAbilitiesWithTags":{"_tags":[]},"blockAbilitiesWithTags":{"_tags":[]},"activationOwnedTags":{"_tags":[]},"activationRequiredTags":{"_tags":[]},"activationBlockedTags":{"_tags":[{"_name":"CD.FireCircle","_hashCode":522143731,"_shortName":"FireCircle","_ancestorHashCodes":[-1137859925],"_ancestorNames":["CD"]}]},"ongoingBlockedTags":{"_tags":[]},"eventOutputPorts":[]}</t>
+        </is>
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>{"guid":"e33ab94c-1496-4d6a-ba5e-1afd38bb0c30","nodeType":4,"position":{"x":-452.0,"y":-1786.4000244140625},"targetType":1,"searchShapeType":0,"searchLineType":0,"positionSource":0,"positionBindingName":"center","searchCircleRadius":2.5,"searchSectorRadius":2.0,"searchSectorAngle":180.0,"searchLineDirectionOffsetAngle":0.0,"searchLineDirectionWidth":1.0,"searchLineDirectionLength":10.0,"lineStartPositionSource":0,"lineStartBindingName":"","lineEndPositionSource":1,"lineEndBindingName":"","searchLineBetweenWidth":1.0,"searchLineAbsoluteAngle":0.0,"searchLineAbsoluteWidth":1.0,"searchLineAbsoluteLength":10.0,"maxTargets":999,"searchTargetTags":{"_tags":[{"_name":"unitType.boss","_hashCode":-2067207703,"_shortName":"boss","_ancestorHashCodes":[1600484460],"_ancestorNames":["unitType"]}]},"searchExcludeTags":{"_tags":[]}}</t>
-        </is>
-      </c>
-      <c r="H87" t="inlineStr">
-        <is>
-          <t>{"outputNodeGuid":"356907e0-1488-4128-bfcc-7ff73cfc3330","outputPortName":"动画","inputNodeGuid":"432ff1e3-b18d-476d-af80-d39ddc07402a","inputPortName":"输入"}</t>
-        </is>
-      </c>
+          <t>{"outputNodeGuid":"356907e0-1488-4128-bfcc-7ff73cfc3330","outputPortName":"冷却","inputNodeGuid":"c28fb88d-51b1-47b2-be59-859e0ac638e3","inputPortName":"输入"}</t>
+        </is>
+      </c>
+      <c r="H87"/>
     </row>
     <row r="88">
       <c r="A88"/>
       <c r="B88"/>
       <c r="C88"/>
       <c r="D88"/>
-      <c r="E88"/>
-      <c r="F88">
-        <v>3</v>
+      <c r="E88">
+        <v>14</v>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>{"guid":"764289ea-065e-4f48-afc0-0f6963d18d57","nodeType":14,"position":{"x":492.0,"y":-1539.199951171875},"targetType":1,"requiredTags":{"_tags":[]},"immunityTags":{"_tags":[]},"destroyWithNode":false,"positionSource":2,"positionBindingName":"head","textType":0,"fixedText":"","contextDataKey":"DamageResult","textColor":{"r":1.0,"g":0.0,"b":0.0,"a":1.0},"criticalColor":{"r":1.0,"g":0.5,"b":0.0,"a":1.0},"missColor":{"r":0.5,"g":0.5,"b":0.5,"a":1.0},"fontSize":45.0,"criticalFontSize":60.0,"duration":1.5,"offset":{"x":0.0,"y":0.0},"moveDirection":{"x":0.0,"y":1.0}}</t>
+        </is>
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>{"guid":"9d6f459d-b588-4b64-843b-1b71e8f299ae","nodeType":3,"position":{"x":-1186.4000244140625,"y":-2011.199951171875},"targetType":1,"assetTags":{"_tags":[]},"grantedTags":{"_tags":[]},"applicationRequiredTags":{"_tags":[]},"applicationImmunityTags":{"_tags":[]},"removeGameEffectsWithTags":{"_tags":[]},"durationType":0,"duration":"0","isPeriodic":false,"period":"1","executeOnApplication":false,"attributeModifiers":[{"attrType":100,"operation":0,"magnitudeSourceType":0,"fixedValue":10.0,"formula":"","mmcType":0,"setByCallerKey":"","mmcCaptureAttribute":200,"mmcAttributeSource":0,"mmcCoefficient":1.0,"mmcUseSnapshot":true}],"stackType":0,"stackLimit":0,"stackDurationRefreshPolicy":0,"stackPeriodResetPolicy":0,"stackExpirationPolicy":0,"stackOverflowPolicy":0,"ongoingRequiredTags":{"_tags":[]},"cancelOnAbilityEnd":true}</t>
-        </is>
-      </c>
-      <c r="H88" t="inlineStr">
-        <is>
-          <t>{"outputNodeGuid":"356907e0-1488-4128-bfcc-7ff73cfc3330","outputPortName":"冷却","inputNodeGuid":"c28fb88d-51b1-47b2-be59-859e0ac638e3","inputPortName":"输入"}</t>
-        </is>
-      </c>
+          <t>{"outputNodeGuid":"356907e0-1488-4128-bfcc-7ff73cfc3330","outputPortName":"消耗","inputNodeGuid":"9d6f459d-b588-4b64-843b-1b71e8f299ae","inputPortName":"输入"}</t>
+        </is>
+      </c>
+      <c r="H88"/>
     </row>
     <row r="89">
       <c r="A89"/>
       <c r="B89"/>
       <c r="C89"/>
       <c r="D89"/>
-      <c r="E89"/>
-      <c r="F89">
-        <v>10</v>
+      <c r="E89">
+        <v>1</v>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>{"guid":"a32d1135-94db-4f81-95ba-9d5f105ef8d0","nodeType":1,"position":{"x":308.79998779296877,"y":-1720.0},"targetType":0,"assetTags":{"_tags":[]},"grantedTags":{"_tags":[]},"applicationRequiredTags":{"_tags":[]},"applicationImmunityTags":{"_tags":[]},"removeGameEffectsWithTags":{"_tags":[]},"durationType":0,"duration":"0","isPeriodic":false,"period":"1","executeOnApplication":false,"attributeModifiers":[],"stackType":0,"stackLimit":0,"stackDurationRefreshPolicy":0,"stackPeriodResetPolicy":0,"stackExpirationPolicy":0,"stackOverflowPolicy":0,"ongoingRequiredTags":{"_tags":[]},"cancelOnAbilityEnd":true,"damageType":0,"damageSourceType":0,"damageFixedValue":1.0,"damageFormula":"","damageMMCType":0,"damageSetByCallerKey":"","damageMMCCaptureAttribute":200,"damageMMCAttributeSource":0,"damageMMCCoefficient":1.0,"damageMMCUseSnapshot":true,"damageMultiplyByStackCount":false,"damageCalculationType":0}</t>
+        </is>
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>{"guid":"c28fb88d-51b1-47b2-be59-859e0ac638e3","nodeType":10,"position":{"x":-1186.4000244140625,"y":-1747.199951171875},"targetType":1,"assetTags":{"_tags":[]},"grantedTags":{"_tags":[{"_name":"CD.Wind","_hashCode":-1394424629,"_shortName":"践踏","_ancestorHashCodes":[-1137859925],"_ancestorNames":["CD"]}]},"applicationRequiredTags":{"_tags":[]},"applicationImmunityTags":{"_tags":[]},"removeGameEffectsWithTags":{"_tags":[]},"durationType":1,"duration":"5","isPeriodic":false,"period":"1","executeOnApplication":false,"attributeModifiers":[],"stackType":0,"stackLimit":0,"stackDurationRefreshPolicy":0,"stackPeriodResetPolicy":0,"stackExpirationPolicy":0,"stackOverflowPolicy":0,"ongoingRequiredTags":{"_tags":[]},"cancelOnAbilityEnd":false,"cooldownType":0,"maxCharges":2,"chargeTime":"10"}</t>
-        </is>
-      </c>
-      <c r="H89" t="inlineStr">
-        <is>
-          <t>{"outputNodeGuid":"356907e0-1488-4128-bfcc-7ff73cfc3330","outputPortName":"消耗","inputNodeGuid":"9d6f459d-b588-4b64-843b-1b71e8f299ae","inputPortName":"输入"}</t>
-        </is>
-      </c>
+          <t>{"outputNodeGuid":"356907e0-1488-4128-bfcc-7ff73cfc3330","outputPortName":"激活","inputNodeGuid":"d8847c3e-459e-4589-a96b-37ebb5ec458b","inputPortName":"输入"}</t>
+        </is>
+      </c>
+      <c r="H89"/>
     </row>
     <row r="90">
       <c r="A90"/>
       <c r="B90"/>
       <c r="C90"/>
       <c r="D90"/>
-      <c r="E90"/>
-      <c r="F90">
-        <v>0</v>
+      <c r="E90">
+        <v>20</v>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>{"guid":"432ff1e3-b18d-476d-af80-d39ddc07402a","nodeType":20,"position":{"x":-452.0,"y":-2375.199951171875},"targetType":1,"skeletonDataAsset":{"instanceID":44398},"animationName":"Skill_attack_1011","animationDuration":"12","isAnimationLooping":true,"timeEffects":[{"triggerTime":250,"portId":"f41c85e0-7f26-494e-9ffc-4a06c980f811"}],"timeCues":[{"startTime":0,"endTime":255,"portId":"8dea1941-c520-4f9a-aee0-40932c8542ef"}]}</t>
+        </is>
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>{"guid":"356907e0-1488-4128-bfcc-7ff73cfc3330","nodeType":0,"position":{"x":-878.4000244140625,"y":-1853.5999755859375},"targetType":1,"skillId":1003,"assetTags":{"_tags":[]},"cancelAbilitiesWithTags":{"_tags":[]},"blockAbilitiesWithTags":{"_tags":[]},"activationOwnedTags":{"_tags":[]},"activationRequiredTags":{"_tags":[]},"activationBlockedTags":{"_tags":[{"_name":"CD.Wind","_hashCode":-1394424629,"_shortName":"践踏","_ancestorHashCodes":[-1137859925],"_ancestorNames":["CD"]}]},"ongoingBlockedTags":{"_tags":[]},"eventOutputPorts":[]}</t>
-        </is>
-      </c>
-      <c r="H90" t="inlineStr">
-        <is>
-          <t>{"outputNodeGuid":"e33ab94c-1496-4d6a-ba5e-1afd38bb0c30","outputPortName":"对每个目标","inputNodeGuid":"cb1df36f-5729-423e-9d1a-287db5a433f0","inputPortName":"输入"}</t>
-        </is>
-      </c>
+          <t>{"outputNodeGuid":"d8847c3e-459e-4589-a96b-37ebb5ec458b","outputPortName":"每周期执行","inputNodeGuid":"e33ab94c-1496-4d6a-ba5e-1afd38bb0c30","inputPortName":"输入"}</t>
+        </is>
+      </c>
+      <c r="H90"/>
     </row>
     <row r="91">
       <c r="A91"/>
       <c r="B91"/>
       <c r="C91"/>
       <c r="D91"/>
-      <c r="E91"/>
-      <c r="F91">
+      <c r="E91">
         <v>12</v>
       </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>{"guid":"cde57fb8-b693-4da8-a4a8-fd61e56c5dcd","nodeType":12,"position":{"x":677.5999755859375,"y":-1998.4000244140625},"targetType":1,"requiredTags":{"_tags":[]},"immunityTags":{"_tags":[]},"destroyWithNode":true,"positionSource":0,"particlePrefab":{"instanceID":45710},"particleBindingName":"down","particleOffset":{"x":0.0,"y":0.0,"z":0.0},"particleScale":{"x":1.0,"y":1.0,"z":1.0},"attachToTarget":true,"particleLoop":true}</t>
+        </is>
+      </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>{"guid":"cde57fb8-b693-4da8-a4a8-fd61e56c5dcd","nodeType":12,"position":{"x":677.5999755859375,"y":-1998.4000244140625},"targetType":1,"requiredTags":{"_tags":[]},"immunityTags":{"_tags":[]},"destroyWithNode":false,"positionSource":0,"particlePrefab":{"instanceID":45504},"particleBindingName":"down","particleOffset":{"x":0.0,"y":0.0,"z":0.0},"particleScale":{"x":1.0,"y":1.0,"z":1.0},"attachToTarget":false,"particleLoop":false}</t>
-        </is>
-      </c>
-      <c r="H91" t="inlineStr">
-        <is>
-          <t>{"outputNodeGuid":"cb1df36f-5729-423e-9d1a-287db5a433f0","outputPortName":"初始效果","inputNodeGuid":"93ec5a43-cc34-4e4a-acb3-39da2f2c3010","inputPortName":"输入"}</t>
-        </is>
-      </c>
+          <t>{"outputNodeGuid":"e33ab94c-1496-4d6a-ba5e-1afd38bb0c30","outputPortName":"对每个目标","inputNodeGuid":"a32d1135-94db-4f81-95ba-9d5f105ef8d0","inputPortName":"输入"}</t>
+        </is>
+      </c>
+      <c r="H91"/>
     </row>
     <row r="92">
       <c r="A92"/>
       <c r="B92"/>
       <c r="C92"/>
       <c r="D92"/>
-      <c r="E92"/>
-      <c r="F92">
-        <v>20</v>
+      <c r="E92">
+        <v>10</v>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>{"guid":"c28fb88d-51b1-47b2-be59-859e0ac638e3","nodeType":10,"position":{"x":-1186.4000244140625,"y":-1747.199951171875},"targetType":1,"assetTags":{"_tags":[]},"grantedTags":{"_tags":[{"_name":"CD.FireCircle","_hashCode":1979572373,"_shortName":"旋风斩","_ancestorHashCodes":[-1137859925],"_ancestorNames":["CD"]}]},"applicationRequiredTags":{"_tags":[]},"applicationImmunityTags":{"_tags":[]},"removeGameEffectsWithTags":{"_tags":[]},"durationType":1,"duration":"15","isPeriodic":false,"period":"1","executeOnApplication":false,"attributeModifiers":[],"stackType":0,"stackLimit":0,"stackDurationRefreshPolicy":0,"stackPeriodResetPolicy":0,"stackExpirationPolicy":0,"stackOverflowPolicy":0,"ongoingRequiredTags":{"_tags":[]},"cancelOnAbilityEnd":false,"cooldownType":0,"maxCharges":2,"chargeTime":"10"}</t>
+        </is>
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>{"guid":"432ff1e3-b18d-476d-af80-d39ddc07402a","nodeType":20,"position":{"x":-452.0,"y":-2375.199951171875},"targetType":1,"skeletonDataAsset":{"instanceID":44398},"animationName":"Skill_attack_1005","animationDuration":"16","isAnimationLooping":false,"timeEffects":[{"triggerTime":7,"portId":"de0ba361-3aba-4ef0-bb07-9b418fcae591"},{"triggerTime":16,"portId":"f41c85e0-7f26-494e-9ffc-4a06c980f811"}],"timeCues":[{"startTime":6,"endTime":55,"portId":"8dea1941-c520-4f9a-aee0-40932c8542ef"}]}</t>
-        </is>
-      </c>
-      <c r="H92" t="inlineStr">
-        <is>
-          <t>{"outputNodeGuid":"432ff1e3-b18d-476d-af80-d39ddc07402a","outputPortName":"f41c85e0-7f26-494e-9ffc-4a06c980f811","inputNodeGuid":"f73ba91e-a76b-456c-b19c-a5176809d5f5","inputPortName":"输入"}</t>
-        </is>
-      </c>
+          <t>{"outputNodeGuid":"a32d1135-94db-4f81-95ba-9d5f105ef8d0","outputPortName":"完成效果","inputNodeGuid":"764289ea-065e-4f48-afc0-0f6963d18d57","inputPortName":"输入"}</t>
+        </is>
+      </c>
+      <c r="H92"/>
     </row>
     <row r="93">
       <c r="A93"/>
       <c r="B93"/>
       <c r="C93"/>
       <c r="D93"/>
-      <c r="E93"/>
-      <c r="F93">
+      <c r="E93">
         <v>7</v>
       </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>{"guid":"f73ba91e-a76b-456c-b19c-a5176809d5f5","nodeType":7,"position":{"x":700.0,"y":-1856.800048828125},"targetType":1,"endType":0}</t>
+        </is>
+      </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>{"guid":"f73ba91e-a76b-456c-b19c-a5176809d5f5","nodeType":7,"position":{"x":700.0,"y":-1856.800048828125},"targetType":1,"endType":0}</t>
-        </is>
-      </c>
-      <c r="H93" t="inlineStr">
-        <is>
-          <t>{"outputNodeGuid":"432ff1e3-b18d-476d-af80-d39ddc07402a","outputPortName":"de0ba361-3aba-4ef0-bb07-9b418fcae591","inputNodeGuid":"e33ab94c-1496-4d6a-ba5e-1afd38bb0c30","inputPortName":"输入"}</t>
-        </is>
-      </c>
+          <t>{"outputNodeGuid":"432ff1e3-b18d-476d-af80-d39ddc07402a","outputPortName":"8dea1941-c520-4f9a-aee0-40932c8542ef","inputNodeGuid":"cde57fb8-b693-4da8-a4a8-fd61e56c5dcd","inputPortName":"输入"}</t>
+        </is>
+      </c>
+      <c r="H93"/>
     </row>
     <row r="94">
       <c r="A94"/>
       <c r="B94"/>
       <c r="C94"/>
       <c r="D94"/>
-      <c r="E94"/>
-      <c r="F94">
-        <v>11</v>
+      <c r="E94">
+        <v>4</v>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>{"guid":"e33ab94c-1496-4d6a-ba5e-1afd38bb0c30","nodeType":4,"position":{"x":27.20001220703125,"y":-1769.5999755859375},"targetType":1,"searchShapeType":0,"searchLineType":0,"positionSource":0,"positionBindingName":"center","searchCircleRadius":2.5,"searchSectorRadius":2.0,"searchSectorAngle":180.0,"searchLineDirectionOffsetAngle":0.0,"searchLineDirectionWidth":1.0,"searchLineDirectionLength":10.0,"lineStartPositionSource":0,"lineStartBindingName":"","lineEndPositionSource":1,"lineEndBindingName":"","searchLineBetweenWidth":1.0,"searchLineAbsoluteAngle":0.0,"searchLineAbsoluteWidth":1.0,"searchLineAbsoluteLength":10.0,"maxTargets":999,"searchTargetTags":{"_tags":[{"_name":"unitType.monster","_hashCode":-2021655864,"_shortName":"monster","_ancestorHashCodes":[1600484460],"_ancestorNames":["unitType"]}]},"searchExcludeTags":{"_tags":[]}}</t>
+        </is>
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>{"guid":"cb1df36f-5729-423e-9d1a-287db5a433f0","nodeType":11,"position":{"x":18.399993896484376,"y":-1786.4000244140625},"targetType":0,"assetTags":{"_tags":[{"_name":"Buff.DeBuff.Stun","_hashCode":1791562953,"_shortName":"Stun","_ancestorHashCodes":[937056111,321157895],"_ancestorNames":["Buff","Buff.DeBuff"]}]},"grantedTags":{"_tags":[{"_name":"Buff.DeBuff.Stun","_hashCode":1791562953,"_shortName":"Stun","_ancestorHashCodes":[937056111,321157895],"_ancestorNames":["Buff","Buff.DeBuff"]}]},"applicationRequiredTags":{"_tags":[]},"applicationImmunityTags":{"_tags":[]},"removeGameEffectsWithTags":{"_tags":[]},"durationType":1,"duration":"4","isPeriodic":false,"period":"1","executeOnApplication":false,"attributeModifiers":[],"stackType":1,"stackLimit":1,"stackDurationRefreshPolicy":0,"stackPeriodResetPolicy":1,"stackExpirationPolicy":0,"stackOverflowPolicy":0,"ongoingRequiredTags":{"_tags":[]},"cancelOnAbilityEnd":false,"buffId":0}</t>
-        </is>
-      </c>
-      <c r="H94" t="inlineStr">
-        <is>
-          <t>{"outputNodeGuid":"432ff1e3-b18d-476d-af80-d39ddc07402a","outputPortName":"8dea1941-c520-4f9a-aee0-40932c8542ef","inputNodeGuid":"cde57fb8-b693-4da8-a4a8-fd61e56c5dcd","inputPortName":"输入"}</t>
-        </is>
-      </c>
+          <t>{"outputNodeGuid":"432ff1e3-b18d-476d-af80-d39ddc07402a","outputPortName":"f41c85e0-7f26-494e-9ffc-4a06c980f811","inputNodeGuid":"f73ba91e-a76b-456c-b19c-a5176809d5f5","inputPortName":"输入"}</t>
+        </is>
+      </c>
+      <c r="H94"/>
     </row>
     <row r="95">
       <c r="A95"/>
       <c r="B95"/>
       <c r="C95"/>
       <c r="D95"/>
-      <c r="E95"/>
-      <c r="F95">
-        <v>12</v>
-      </c>
-      <c r="G95" t="inlineStr">
-        <is>
-          <t>{"guid":"93ec5a43-cc34-4e4a-acb3-39da2f2c3010","nodeType":12,"position":{"x":468.79998779296877,"y":-1749.5999755859375},"targetType":1,"requiredTags":{"_tags":[]},"immunityTags":{"_tags":[]},"destroyWithNode":true,"positionSource":2,"particlePrefab":{"instanceID":45630},"particleBindingName":"head","particleOffset":{"x":0.0,"y":0.0,"z":0.0},"particleScale":{"x":1.0,"y":1.0,"z":1.0},"attachToTarget":true,"particleLoop":true}</t>
-        </is>
-      </c>
+      <c r="E95">
+        <v>21</v>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>{"guid":"d8847c3e-459e-4589-a96b-37ebb5ec458b","nodeType":21,"position":{"x":-308.79998779296877,"y":-1769.5999755859375},"targetType":1,"assetTags":{"_tags":[]},"grantedTags":{"_tags":[]},"applicationRequiredTags":{"_tags":[]},"applicationImmunityTags":{"_tags":[]},"removeGameEffectsWithTags":{"_tags":[]},"durationType":2,"duration":"0","isPeriodic":true,"period":"0.3","executeOnApplication":false,"attributeModifiers":[],"stackType":0,"stackLimit":0,"stackDurationRefreshPolicy":0,"stackPeriodResetPolicy":0,"stackExpirationPolicy":0,"stackOverflowPolicy":0,"ongoingRequiredTags":{"_tags":[]},"cancelOnAbilityEnd":true}</t>
+        </is>
+      </c>
+      <c r="G95"/>
       <c r="H95"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:H12" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:G12" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <mergeCells count="2">
-    <mergeCell ref="F1:G1"/>
-    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="E2:F2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Luban/MiniTemplate/Datas/#SkillGraph.xlsx
+++ b/Luban/MiniTemplate/Datas/#SkillGraph.xlsx
@@ -1119,7 +1119,7 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>{"guid":"432ff1e3-b18d-476d-af80-d39ddc07402a","nodeType":20,"position":{"x":-472.0,"y":-2380.800048828125},"targetType":1,"skeletonDataAsset":{"instanceID":44398},"animationName":"Attack_02","animationDuration":"22","isAnimationLooping":false,"timeEffects":[{"triggerTime":7,"portId":"de0ba361-3aba-4ef0-bb07-9b418fcae591"},{"triggerTime":22,"portId":"97dc121c-84b7-4f94-9997-02e0e5b2ea6c"}],"timeCues":[{"startTime":7,"endTime":48,"portId":"8dea1941-c520-4f9a-aee0-40932c8542ef"}]}</t>
+          <t>{"guid":"432ff1e3-b18d-476d-af80-d39ddc07402a","nodeType":20,"position":{"x":-472.0,"y":-2380.800048828125},"targetType":1,"skeletonDataAsset":{"instanceID":45010},"animationName":"Attack_02","animationDuration":"22","isAnimationLooping":false,"timeEffects":[{"triggerTime":7,"portId":"de0ba361-3aba-4ef0-bb07-9b418fcae591"},{"triggerTime":22,"portId":"97dc121c-84b7-4f94-9997-02e0e5b2ea6c"}],"timeCues":[{"startTime":7,"endTime":48,"portId":"8dea1941-c520-4f9a-aee0-40932c8542ef"}]}</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
@@ -1139,7 +1139,7 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>{"guid":"cde57fb8-b693-4da8-a4a8-fd61e56c5dcd","nodeType":12,"position":{"x":677.5999755859375,"y":-1998.4000244140625},"targetType":1,"requiredTags":{"_tags":[]},"immunityTags":{"_tags":[]},"destroyWithNode":false,"positionSource":0,"particlePrefab":{"instanceID":45538},"particleBindingName":"down","particleOffset":{"x":0.0,"y":0.0,"z":0.0},"particleScale":{"x":1.0,"y":1.0,"z":1.0},"attachToTarget":false,"particleLoop":false}</t>
+          <t>{"guid":"cde57fb8-b693-4da8-a4a8-fd61e56c5dcd","nodeType":12,"position":{"x":677.5999755859375,"y":-1998.4000244140625},"targetType":1,"requiredTags":{"_tags":[]},"immunityTags":{"_tags":[]},"destroyWithNode":false,"positionSource":0,"particlePrefab":{"instanceID":46158},"particleBindingName":"down","particleOffset":{"x":0.0,"y":0.0,"z":0.0},"particleScale":{"x":1.0,"y":1.0,"z":1.0},"attachToTarget":false,"particleLoop":false}</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
@@ -1421,7 +1421,7 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>{"guid":"432ff1e3-b18d-476d-af80-d39ddc07402a","nodeType":20,"position":{"x":-491.33331298828127,"y":-2478.66650390625},"targetType":1,"skeletonDataAsset":{"instanceID":44578},"animationName":"Attack","animationDuration":"24","isAnimationLooping":false,"timeEffects":[{"triggerTime":11,"portId":"de0ba361-3aba-4ef0-bb07-9b418fcae591"},{"triggerTime":24,"portId":"7ecf9fe6-7c5e-46ae-bade-7922214225e2"}],"timeCues":[]}</t>
+          <t>{"guid":"432ff1e3-b18d-476d-af80-d39ddc07402a","nodeType":20,"position":{"x":-491.33331298828127,"y":-2478.66650390625},"targetType":1,"skeletonDataAsset":{"instanceID":45190},"animationName":"Attack","animationDuration":"24","isAnimationLooping":false,"timeEffects":[{"triggerTime":11,"portId":"de0ba361-3aba-4ef0-bb07-9b418fcae591"},{"triggerTime":24,"portId":"7ecf9fe6-7c5e-46ae-bade-7922214225e2"}],"timeCues":[]}</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
@@ -1461,7 +1461,7 @@
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>{"guid":"90bacd9f-d882-4bba-aaa8-41ed993ac3ff","nodeType":8,"position":{"x":-401.33331298828127,"y":-1826.666748046875},"targetType":2,"assetTags":{"_tags":[]},"grantedTags":{"_tags":[]},"applicationRequiredTags":{"_tags":[]},"applicationImmunityTags":{"_tags":[]},"removeGameEffectsWithTags":{"_tags":[]},"durationType":2,"duration":"0","isPeriodic":false,"period":"1","executeOnApplication":false,"attributeModifiers":[],"stackType":0,"stackLimit":0,"stackDurationRefreshPolicy":0,"stackPeriodResetPolicy":0,"stackExpirationPolicy":0,"stackOverflowPolicy":0,"ongoingRequiredTags":{"_tags":[]},"cancelOnAbilityEnd":false,"launchPositionSource":0,"launchBindingName":"center","targetPositionSource":1,"targetBindingName":"center","projectileTargetType":0,"flyOver":false,"offsetAngle":0.0,"curveHeight":0.0,"projectilePrefab":{"instanceID":45446},"speed":3.0,"maxDistance":10.0,"collisionRadius":0.5,"isPiercing":false,"maxPierceCount":1,"collisionTargetTags":{"_tags":[]},"collisionExcludeTags":{"_tags":[]}}</t>
+          <t>{"guid":"90bacd9f-d882-4bba-aaa8-41ed993ac3ff","nodeType":8,"position":{"x":-401.33331298828127,"y":-1826.666748046875},"targetType":2,"assetTags":{"_tags":[]},"grantedTags":{"_tags":[]},"applicationRequiredTags":{"_tags":[]},"applicationImmunityTags":{"_tags":[]},"removeGameEffectsWithTags":{"_tags":[]},"durationType":2,"duration":"0","isPeriodic":false,"period":"1","executeOnApplication":false,"attributeModifiers":[],"stackType":0,"stackLimit":0,"stackDurationRefreshPolicy":0,"stackPeriodResetPolicy":0,"stackExpirationPolicy":0,"stackOverflowPolicy":0,"ongoingRequiredTags":{"_tags":[]},"cancelOnAbilityEnd":false,"launchPositionSource":0,"launchBindingName":"center","targetPositionSource":1,"targetBindingName":"center","projectileTargetType":0,"flyOver":false,"offsetAngle":0.0,"curveHeight":0.0,"projectilePrefab":{"instanceID":46064},"speed":3.0,"maxDistance":10.0,"collisionRadius":0.5,"isPiercing":false,"maxPierceCount":1,"collisionTargetTags":{"_tags":[]},"collisionExcludeTags":{"_tags":[]}}</t>
         </is>
       </c>
       <c r="G27"/>
@@ -1523,7 +1523,7 @@
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>{"guid":"432ff1e3-b18d-476d-af80-d39ddc07402a","nodeType":20,"position":{"x":-502.3999938964844,"y":-2384.0},"targetType":1,"skeletonDataAsset":{"instanceID":44398},"animationName":"Skill_attack_1009","animationDuration":"25","isAnimationLooping":false,"timeEffects":[{"triggerTime":4,"portId":"de0ba361-3aba-4ef0-bb07-9b418fcae591"},{"triggerTime":25,"portId":"f41c85e0-7f26-494e-9ffc-4a06c980f811"}],"timeCues":[{"startTime":0,"endTime":75,"portId":"8dea1941-c520-4f9a-aee0-40932c8542ef"}]}</t>
+          <t>{"guid":"432ff1e3-b18d-476d-af80-d39ddc07402a","nodeType":20,"position":{"x":-502.3999938964844,"y":-2384.0},"targetType":1,"skeletonDataAsset":{"instanceID":45010},"animationName":"Skill_attack_1009","animationDuration":"25","isAnimationLooping":false,"timeEffects":[{"triggerTime":4,"portId":"de0ba361-3aba-4ef0-bb07-9b418fcae591"},{"triggerTime":25,"portId":"f41c85e0-7f26-494e-9ffc-4a06c980f811"}],"timeCues":[{"startTime":0,"endTime":75,"portId":"8dea1941-c520-4f9a-aee0-40932c8542ef"}]}</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
@@ -1543,7 +1543,7 @@
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>{"guid":"cde57fb8-b693-4da8-a4a8-fd61e56c5dcd","nodeType":12,"position":{"x":677.5999755859375,"y":-1998.4000244140625},"targetType":1,"requiredTags":{"_tags":[]},"immunityTags":{"_tags":[]},"destroyWithNode":false,"positionSource":0,"particlePrefab":{"instanceID":45540},"particleBindingName":"down","particleOffset":{"x":0.0,"y":0.0,"z":0.0},"particleScale":{"x":1.0,"y":1.0,"z":1.0},"attachToTarget":false,"particleLoop":false}</t>
+          <t>{"guid":"cde57fb8-b693-4da8-a4a8-fd61e56c5dcd","nodeType":12,"position":{"x":677.5999755859375,"y":-1998.4000244140625},"targetType":1,"requiredTags":{"_tags":[]},"immunityTags":{"_tags":[]},"destroyWithNode":false,"positionSource":0,"particlePrefab":{"instanceID":46160},"particleBindingName":"down","particleOffset":{"x":0.0,"y":0.0,"z":0.0},"particleScale":{"x":1.0,"y":1.0,"z":1.0},"attachToTarget":false,"particleLoop":false}</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
@@ -1745,7 +1745,7 @@
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>{"guid":"cde57fb8-b693-4da8-a4a8-fd61e56c5dcd","nodeType":12,"position":{"x":-304.0,"y":-2072.0},"targetType":1,"requiredTags":{"_tags":[]},"immunityTags":{"_tags":[]},"destroyWithNode":false,"positionSource":0,"particlePrefab":{"instanceID":45360},"particleBindingName":"down","particleOffset":{"x":0.0,"y":0.0,"z":0.0},"particleScale":{"x":1.0,"y":1.0,"z":1.0},"attachToTarget":false,"particleLoop":false}</t>
+          <t>{"guid":"cde57fb8-b693-4da8-a4a8-fd61e56c5dcd","nodeType":12,"position":{"x":-304.0,"y":-2072.0},"targetType":1,"requiredTags":{"_tags":[]},"immunityTags":{"_tags":[]},"destroyWithNode":false,"positionSource":0,"particlePrefab":{"instanceID":45978},"particleBindingName":"down","particleOffset":{"x":0.0,"y":0.0,"z":0.0},"particleScale":{"x":1.0,"y":1.0,"z":1.0},"attachToTarget":false,"particleLoop":false}</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
@@ -1867,7 +1867,7 @@
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>{"guid":"cde57fb8-b693-4da8-a4a8-fd61e56c5dcd","nodeType":12,"position":{"x":677.5999755859375,"y":-1998.4000244140625},"targetType":1,"requiredTags":{"_tags":[]},"immunityTags":{"_tags":[]},"destroyWithNode":false,"positionSource":0,"particlePrefab":{"instanceID":45504},"particleBindingName":"down","particleOffset":{"x":0.0,"y":0.0,"z":0.0},"particleScale":{"x":1.0,"y":1.0,"z":1.0},"attachToTarget":false,"particleLoop":false}</t>
+          <t>{"guid":"cde57fb8-b693-4da8-a4a8-fd61e56c5dcd","nodeType":12,"position":{"x":677.5999755859375,"y":-1998.4000244140625},"targetType":1,"requiredTags":{"_tags":[]},"immunityTags":{"_tags":[]},"destroyWithNode":false,"positionSource":0,"particlePrefab":{"instanceID":46122},"particleBindingName":"down","particleOffset":{"x":0.0,"y":0.0,"z":0.0},"particleScale":{"x":1.0,"y":1.0,"z":1.0},"attachToTarget":false,"particleLoop":false}</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
@@ -1887,7 +1887,7 @@
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>{"guid":"432ff1e3-b18d-476d-af80-d39ddc07402a","nodeType":20,"position":{"x":-452.0,"y":-2375.199951171875},"targetType":1,"skeletonDataAsset":{"instanceID":44398},"animationName":"Skill_attack_1005","animationDuration":"16","isAnimationLooping":false,"timeEffects":[{"triggerTime":7,"portId":"de0ba361-3aba-4ef0-bb07-9b418fcae591"},{"triggerTime":16,"portId":"f41c85e0-7f26-494e-9ffc-4a06c980f811"}],"timeCues":[{"startTime":6,"endTime":55,"portId":"8dea1941-c520-4f9a-aee0-40932c8542ef"}]}</t>
+          <t>{"guid":"432ff1e3-b18d-476d-af80-d39ddc07402a","nodeType":20,"position":{"x":-452.0,"y":-2375.199951171875},"targetType":1,"skeletonDataAsset":{"instanceID":45010},"animationName":"Skill_attack_1005","animationDuration":"16","isAnimationLooping":false,"timeEffects":[{"triggerTime":7,"portId":"de0ba361-3aba-4ef0-bb07-9b418fcae591"},{"triggerTime":16,"portId":"f41c85e0-7f26-494e-9ffc-4a06c980f811"}],"timeCues":[{"startTime":6,"endTime":55,"portId":"8dea1941-c520-4f9a-aee0-40932c8542ef"}]}</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
@@ -1947,7 +1947,7 @@
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>{"guid":"93ec5a43-cc34-4e4a-acb3-39da2f2c3010","nodeType":12,"position":{"x":468.79998779296877,"y":-1749.5999755859375},"targetType":1,"requiredTags":{"_tags":[]},"immunityTags":{"_tags":[]},"destroyWithNode":true,"positionSource":2,"particlePrefab":{"instanceID":45630},"particleBindingName":"head","particleOffset":{"x":0.0,"y":0.0,"z":0.0},"particleScale":{"x":1.0,"y":1.0,"z":1.0},"attachToTarget":true,"particleLoop":true}</t>
+          <t>{"guid":"93ec5a43-cc34-4e4a-acb3-39da2f2c3010","nodeType":12,"position":{"x":468.79998779296877,"y":-1749.5999755859375},"targetType":1,"requiredTags":{"_tags":[]},"immunityTags":{"_tags":[]},"destroyWithNode":true,"positionSource":2,"particlePrefab":{"instanceID":46250},"particleBindingName":"head","particleOffset":{"x":0.0,"y":0.0,"z":0.0},"particleScale":{"x":1.0,"y":1.0,"z":1.0},"attachToTarget":true,"particleLoop":true}</t>
         </is>
       </c>
       <c r="G51"/>
@@ -2009,7 +2009,7 @@
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>{"guid":"432ff1e3-b18d-476d-af80-d39ddc07402a","nodeType":20,"position":{"x":-502.6666564941406,"y":-2384.0},"targetType":1,"skeletonDataAsset":{"instanceID":44398},"animationName":"Skill_attack_1009","animationDuration":"25","isAnimationLooping":false,"timeEffects":[{"triggerTime":25,"portId":"f41c85e0-7f26-494e-9ffc-4a06c980f811"}],"timeCues":[]}</t>
+          <t>{"guid":"432ff1e3-b18d-476d-af80-d39ddc07402a","nodeType":20,"position":{"x":-502.6666564941406,"y":-2384.0},"targetType":1,"skeletonDataAsset":{"instanceID":45010},"animationName":"Skill_attack_1009","animationDuration":"25","isAnimationLooping":false,"timeEffects":[{"triggerTime":25,"portId":"f41c85e0-7f26-494e-9ffc-4a06c980f811"}],"timeCues":[]}</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
@@ -2211,7 +2211,7 @@
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>{"guid":"432ff1e3-b18d-476d-af80-d39ddc07402a","nodeType":20,"position":{"x":-452.0,"y":-2406.39990234375},"targetType":1,"skeletonDataAsset":{"instanceID":44398},"animationName":"Attack_01","animationDuration":"18","isAnimationLooping":false,"timeEffects":[{"triggerTime":7,"portId":"de0ba361-3aba-4ef0-bb07-9b418fcae591"},{"triggerTime":18,"portId":"84e238a8-5baf-470e-829f-186695064945"}],"timeCues":[{"startTime":7,"endTime":48,"portId":"8dea1941-c520-4f9a-aee0-40932c8542ef"}]}</t>
+          <t>{"guid":"432ff1e3-b18d-476d-af80-d39ddc07402a","nodeType":20,"position":{"x":-452.0,"y":-2406.39990234375},"targetType":1,"skeletonDataAsset":{"instanceID":45010},"animationName":"Attack_01","animationDuration":"18","isAnimationLooping":false,"timeEffects":[{"triggerTime":7,"portId":"de0ba361-3aba-4ef0-bb07-9b418fcae591"},{"triggerTime":18,"portId":"84e238a8-5baf-470e-829f-186695064945"}],"timeCues":[{"startTime":7,"endTime":48,"portId":"8dea1941-c520-4f9a-aee0-40932c8542ef"}]}</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
@@ -2251,7 +2251,7 @@
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>{"guid":"cde57fb8-b693-4da8-a4a8-fd61e56c5dcd","nodeType":12,"position":{"x":677.5999755859375,"y":-1998.4000244140625},"targetType":1,"requiredTags":{"_tags":[]},"immunityTags":{"_tags":[]},"destroyWithNode":false,"positionSource":0,"particlePrefab":{"instanceID":45538},"particleBindingName":"down","particleOffset":{"x":0.0,"y":0.0,"z":0.0},"particleScale":{"x":1.0,"y":1.0,"z":1.0},"attachToTarget":false,"particleLoop":false}</t>
+          <t>{"guid":"cde57fb8-b693-4da8-a4a8-fd61e56c5dcd","nodeType":12,"position":{"x":677.5999755859375,"y":-1998.4000244140625},"targetType":1,"requiredTags":{"_tags":[]},"immunityTags":{"_tags":[]},"destroyWithNode":false,"positionSource":0,"particlePrefab":{"instanceID":46158},"particleBindingName":"down","particleOffset":{"x":0.0,"y":0.0,"z":0.0},"particleScale":{"x":1.0,"y":1.0,"z":1.0},"attachToTarget":false,"particleLoop":false}</t>
         </is>
       </c>
       <c r="G66"/>
@@ -2313,7 +2313,7 @@
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>{"guid":"432ff1e3-b18d-476d-af80-d39ddc07402a","nodeType":20,"position":{"x":-452.0,"y":-2406.39990234375},"targetType":1,"skeletonDataAsset":{"instanceID":44398},"animationName":"Attack_01","animationDuration":"18","isAnimationLooping":false,"timeEffects":[{"triggerTime":7,"portId":"de0ba361-3aba-4ef0-bb07-9b418fcae591"},{"triggerTime":18,"portId":"84e238a8-5baf-470e-829f-186695064945"}],"timeCues":[]}</t>
+          <t>{"guid":"432ff1e3-b18d-476d-af80-d39ddc07402a","nodeType":20,"position":{"x":-452.0,"y":-2406.39990234375},"targetType":1,"skeletonDataAsset":{"instanceID":45010},"animationName":"Attack_01","animationDuration":"18","isAnimationLooping":false,"timeEffects":[{"triggerTime":7,"portId":"de0ba361-3aba-4ef0-bb07-9b418fcae591"},{"triggerTime":18,"portId":"84e238a8-5baf-470e-829f-186695064945"}],"timeCues":[]}</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
@@ -2413,7 +2413,7 @@
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>{"guid":"ce857360-de7e-4457-b348-9c124ce98879","nodeType":8,"position":{"x":202.39999389648438,"y":-1649.5999755859375},"targetType":2,"assetTags":{"_tags":[]},"grantedTags":{"_tags":[]},"applicationRequiredTags":{"_tags":[]},"applicationImmunityTags":{"_tags":[]},"removeGameEffectsWithTags":{"_tags":[]},"durationType":2,"duration":"0","isPeriodic":false,"period":"1","executeOnApplication":false,"attributeModifiers":[],"stackType":0,"stackLimit":0,"stackDurationRefreshPolicy":0,"stackPeriodResetPolicy":0,"stackExpirationPolicy":0,"stackOverflowPolicy":0,"ongoingRequiredTags":{"_tags":[]},"cancelOnAbilityEnd":false,"launchPositionSource":0,"launchBindingName":"center","targetPositionSource":2,"targetBindingName":"center","projectileTargetType":0,"flyOver":true,"offsetAngle":30.0,"curveHeight":0.0,"projectilePrefab":{"instanceID":45344},"speed":10.0,"maxDistance":10.0,"collisionRadius":0.5,"isPiercing":false,"maxPierceCount":1,"collisionTargetTags":{"_tags":[]},"collisionExcludeTags":{"_tags":[]}}</t>
+          <t>{"guid":"ce857360-de7e-4457-b348-9c124ce98879","nodeType":8,"position":{"x":202.39999389648438,"y":-1649.5999755859375},"targetType":2,"assetTags":{"_tags":[]},"grantedTags":{"_tags":[]},"applicationRequiredTags":{"_tags":[]},"applicationImmunityTags":{"_tags":[]},"removeGameEffectsWithTags":{"_tags":[]},"durationType":2,"duration":"0","isPeriodic":false,"period":"1","executeOnApplication":false,"attributeModifiers":[],"stackType":0,"stackLimit":0,"stackDurationRefreshPolicy":0,"stackPeriodResetPolicy":0,"stackExpirationPolicy":0,"stackOverflowPolicy":0,"ongoingRequiredTags":{"_tags":[]},"cancelOnAbilityEnd":false,"launchPositionSource":0,"launchBindingName":"center","targetPositionSource":2,"targetBindingName":"center","projectileTargetType":0,"flyOver":true,"offsetAngle":30.0,"curveHeight":0.0,"projectilePrefab":{"instanceID":45962},"speed":10.0,"maxDistance":10.0,"collisionRadius":0.5,"isPiercing":false,"maxPierceCount":1,"collisionTargetTags":{"_tags":[]},"collisionExcludeTags":{"_tags":[]}}</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
@@ -2433,7 +2433,7 @@
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>{"guid":"9a695e91-e218-425e-82ed-1e157bf1b014","nodeType":8,"position":{"x":184.79998779296876,"y":-1475.199951171875},"targetType":2,"assetTags":{"_tags":[]},"grantedTags":{"_tags":[]},"applicationRequiredTags":{"_tags":[]},"applicationImmunityTags":{"_tags":[]},"removeGameEffectsWithTags":{"_tags":[]},"durationType":2,"duration":"0","isPeriodic":false,"period":"1","executeOnApplication":false,"attributeModifiers":[],"stackType":0,"stackLimit":0,"stackDurationRefreshPolicy":0,"stackPeriodResetPolicy":0,"stackExpirationPolicy":0,"stackOverflowPolicy":0,"ongoingRequiredTags":{"_tags":[]},"cancelOnAbilityEnd":false,"launchPositionSource":0,"launchBindingName":"center","targetPositionSource":2,"targetBindingName":"center","projectileTargetType":0,"flyOver":true,"offsetAngle":0.0,"curveHeight":0.0,"projectilePrefab":{"instanceID":45344},"speed":10.0,"maxDistance":10.0,"collisionRadius":0.5,"isPiercing":false,"maxPierceCount":1,"collisionTargetTags":{"_tags":[]},"collisionExcludeTags":{"_tags":[]}}</t>
+          <t>{"guid":"9a695e91-e218-425e-82ed-1e157bf1b014","nodeType":8,"position":{"x":184.79998779296876,"y":-1475.199951171875},"targetType":2,"assetTags":{"_tags":[]},"grantedTags":{"_tags":[]},"applicationRequiredTags":{"_tags":[]},"applicationImmunityTags":{"_tags":[]},"removeGameEffectsWithTags":{"_tags":[]},"durationType":2,"duration":"0","isPeriodic":false,"period":"1","executeOnApplication":false,"attributeModifiers":[],"stackType":0,"stackLimit":0,"stackDurationRefreshPolicy":0,"stackPeriodResetPolicy":0,"stackExpirationPolicy":0,"stackOverflowPolicy":0,"ongoingRequiredTags":{"_tags":[]},"cancelOnAbilityEnd":false,"launchPositionSource":0,"launchBindingName":"center","targetPositionSource":2,"targetBindingName":"center","projectileTargetType":0,"flyOver":true,"offsetAngle":0.0,"curveHeight":0.0,"projectilePrefab":{"instanceID":45962},"speed":10.0,"maxDistance":10.0,"collisionRadius":0.5,"isPiercing":false,"maxPierceCount":1,"collisionTargetTags":{"_tags":[]},"collisionExcludeTags":{"_tags":[]}}</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
@@ -2453,7 +2453,7 @@
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>{"guid":"d897a922-5756-42cf-ac65-90a48c1e5a17","nodeType":8,"position":{"x":173.60000610351563,"y":-1327.199951171875},"targetType":2,"assetTags":{"_tags":[]},"grantedTags":{"_tags":[]},"applicationRequiredTags":{"_tags":[]},"applicationImmunityTags":{"_tags":[]},"removeGameEffectsWithTags":{"_tags":[]},"durationType":2,"duration":"0","isPeriodic":false,"period":"1","executeOnApplication":false,"attributeModifiers":[],"stackType":0,"stackLimit":0,"stackDurationRefreshPolicy":0,"stackPeriodResetPolicy":0,"stackExpirationPolicy":0,"stackOverflowPolicy":0,"ongoingRequiredTags":{"_tags":[]},"cancelOnAbilityEnd":false,"launchPositionSource":0,"launchBindingName":"center","targetPositionSource":2,"targetBindingName":"center","projectileTargetType":0,"flyOver":true,"offsetAngle":-30.0,"curveHeight":0.0,"projectilePrefab":{"instanceID":45344},"speed":10.0,"maxDistance":10.0,"collisionRadius":0.5,"isPiercing":false,"maxPierceCount":1,"collisionTargetTags":{"_tags":[]},"collisionExcludeTags":{"_tags":[]}}</t>
+          <t>{"guid":"d897a922-5756-42cf-ac65-90a48c1e5a17","nodeType":8,"position":{"x":173.60000610351563,"y":-1327.199951171875},"targetType":2,"assetTags":{"_tags":[]},"grantedTags":{"_tags":[]},"applicationRequiredTags":{"_tags":[]},"applicationImmunityTags":{"_tags":[]},"removeGameEffectsWithTags":{"_tags":[]},"durationType":2,"duration":"0","isPeriodic":false,"period":"1","executeOnApplication":false,"attributeModifiers":[],"stackType":0,"stackLimit":0,"stackDurationRefreshPolicy":0,"stackPeriodResetPolicy":0,"stackExpirationPolicy":0,"stackOverflowPolicy":0,"ongoingRequiredTags":{"_tags":[]},"cancelOnAbilityEnd":false,"launchPositionSource":0,"launchBindingName":"center","targetPositionSource":2,"targetBindingName":"center","projectileTargetType":0,"flyOver":true,"offsetAngle":-30.0,"curveHeight":0.0,"projectilePrefab":{"instanceID":45962},"speed":10.0,"maxDistance":10.0,"collisionRadius":0.5,"isPiercing":false,"maxPierceCount":1,"collisionTargetTags":{"_tags":[]},"collisionExcludeTags":{"_tags":[]}}</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
@@ -2533,7 +2533,7 @@
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>{"guid":"432ff1e3-b18d-476d-af80-d39ddc07402a","nodeType":20,"position":{"x":-502.3999938964844,"y":-2384.0},"targetType":1,"skeletonDataAsset":{"instanceID":44398},"animationName":"Skill_attack_1009","animationDuration":"25","isAnimationLooping":false,"timeEffects":[{"triggerTime":4,"portId":"de0ba361-3aba-4ef0-bb07-9b418fcae591"},{"triggerTime":25,"portId":"f41c85e0-7f26-494e-9ffc-4a06c980f811"}],"timeCues":[{"startTime":0,"endTime":75,"portId":"8dea1941-c520-4f9a-aee0-40932c8542ef"}]}</t>
+          <t>{"guid":"432ff1e3-b18d-476d-af80-d39ddc07402a","nodeType":20,"position":{"x":-502.3999938964844,"y":-2384.0},"targetType":1,"skeletonDataAsset":{"instanceID":45010},"animationName":"Skill_attack_1009","animationDuration":"25","isAnimationLooping":false,"timeEffects":[{"triggerTime":4,"portId":"de0ba361-3aba-4ef0-bb07-9b418fcae591"},{"triggerTime":25,"portId":"f41c85e0-7f26-494e-9ffc-4a06c980f811"}],"timeCues":[{"startTime":0,"endTime":75,"portId":"8dea1941-c520-4f9a-aee0-40932c8542ef"}]}</t>
         </is>
       </c>
       <c r="G80" t="inlineStr">
@@ -2593,7 +2593,7 @@
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>{"guid":"cde57fb8-b693-4da8-a4a8-fd61e56c5dcd","nodeType":12,"position":{"x":677.5999755859375,"y":-1998.4000244140625},"targetType":1,"requiredTags":{"_tags":[]},"immunityTags":{"_tags":[]},"destroyWithNode":false,"positionSource":0,"particlePrefab":{"instanceID":45418},"particleBindingName":"down","particleOffset":{"x":0.0,"y":0.0,"z":0.0},"particleScale":{"x":1.0,"y":1.0,"z":1.0},"attachToTarget":false,"particleLoop":false}</t>
+          <t>{"guid":"cde57fb8-b693-4da8-a4a8-fd61e56c5dcd","nodeType":12,"position":{"x":677.5999755859375,"y":-1998.4000244140625},"targetType":1,"requiredTags":{"_tags":[]},"immunityTags":{"_tags":[]},"destroyWithNode":false,"positionSource":0,"particlePrefab":{"instanceID":46036},"particleBindingName":"down","particleOffset":{"x":0.0,"y":0.0,"z":0.0},"particleScale":{"x":1.0,"y":1.0,"z":1.0},"attachToTarget":false,"particleLoop":false}</t>
         </is>
       </c>
       <c r="G83" t="inlineStr">
@@ -2735,7 +2735,7 @@
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>{"guid":"432ff1e3-b18d-476d-af80-d39ddc07402a","nodeType":20,"position":{"x":-452.0,"y":-2375.199951171875},"targetType":1,"skeletonDataAsset":{"instanceID":44398},"animationName":"Skill_attack_1011","animationDuration":"12","isAnimationLooping":true,"timeEffects":[{"triggerTime":250,"portId":"f41c85e0-7f26-494e-9ffc-4a06c980f811"}],"timeCues":[{"startTime":0,"endTime":255,"portId":"8dea1941-c520-4f9a-aee0-40932c8542ef"}]}</t>
+          <t>{"guid":"432ff1e3-b18d-476d-af80-d39ddc07402a","nodeType":20,"position":{"x":-452.0,"y":-2375.199951171875},"targetType":1,"skeletonDataAsset":{"instanceID":45010},"animationName":"Skill_attack_1011","animationDuration":"12","isAnimationLooping":true,"timeEffects":[{"triggerTime":250,"portId":"f41c85e0-7f26-494e-9ffc-4a06c980f811"}],"timeCues":[{"startTime":0,"endTime":255,"portId":"8dea1941-c520-4f9a-aee0-40932c8542ef"}]}</t>
         </is>
       </c>
       <c r="G90" t="inlineStr">
@@ -2755,7 +2755,7 @@
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>{"guid":"cde57fb8-b693-4da8-a4a8-fd61e56c5dcd","nodeType":12,"position":{"x":677.5999755859375,"y":-1998.4000244140625},"targetType":1,"requiredTags":{"_tags":[]},"immunityTags":{"_tags":[]},"destroyWithNode":true,"positionSource":0,"particlePrefab":{"instanceID":45710},"particleBindingName":"down","particleOffset":{"x":0.0,"y":0.0,"z":0.0},"particleScale":{"x":1.0,"y":1.0,"z":1.0},"attachToTarget":true,"particleLoop":true}</t>
+          <t>{"guid":"cde57fb8-b693-4da8-a4a8-fd61e56c5dcd","nodeType":12,"position":{"x":677.5999755859375,"y":-1998.4000244140625},"targetType":1,"requiredTags":{"_tags":[]},"immunityTags":{"_tags":[]},"destroyWithNode":true,"positionSource":0,"particlePrefab":{"instanceID":46330},"particleBindingName":"down","particleOffset":{"x":0.0,"y":0.0,"z":0.0},"particleScale":{"x":1.0,"y":1.0,"z":1.0},"attachToTarget":true,"particleLoop":true}</t>
         </is>
       </c>
       <c r="G91" t="inlineStr">

--- a/Luban/MiniTemplate/Datas/#SkillGraph.xlsx
+++ b/Luban/MiniTemplate/Datas/#SkillGraph.xlsx
@@ -2655,7 +2655,7 @@
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>{"guid":"9d6f459d-b588-4b64-843b-1b71e8f299ae","nodeType":3,"position":{"x":-1186.4000244140625,"y":-2011.199951171875},"targetType":1,"assetTags":{"_tags":[]},"grantedTags":{"_tags":[]},"applicationRequiredTags":{"_tags":[]},"applicationImmunityTags":{"_tags":[]},"removeGameEffectsWithTags":{"_tags":[]},"durationType":0,"duration":"0","isPeriodic":false,"period":"1","executeOnApplication":false,"attributeModifiers":[{"attrType":100,"operation":0,"magnitudeSourceType":0,"fixedValue":10.0,"formula":"","mmcType":0,"setByCallerKey":"","mmcCaptureAttribute":200,"mmcAttributeSource":0,"mmcCoefficient":1.0,"mmcUseSnapshot":true}],"stackType":0,"stackLimit":0,"stackDurationRefreshPolicy":0,"stackPeriodResetPolicy":0,"stackExpirationPolicy":0,"stackOverflowPolicy":0,"ongoingRequiredTags":{"_tags":[]},"cancelOnAbilityEnd":true}</t>
+          <t>{"guid":"9d6f459d-b588-4b64-843b-1b71e8f299ae","nodeType":3,"position":{"x":-1186.6666259765625,"y":-2011.3333740234375},"targetType":1,"assetTags":{"_tags":[]},"grantedTags":{"_tags":[]},"applicationRequiredTags":{"_tags":[]},"applicationImmunityTags":{"_tags":[]},"removeGameEffectsWithTags":{"_tags":[]},"durationType":0,"duration":"0","isPeriodic":false,"period":"1","executeOnApplication":false,"attributeModifiers":[{"attrType":100,"operation":0,"magnitudeSourceType":0,"fixedValue":10.0,"formula":"","mmcType":0,"setByCallerKey":"","mmcCaptureAttribute":200,"mmcAttributeSource":0,"mmcCoefficient":1.0,"mmcUseSnapshot":true}],"stackType":0,"stackLimit":0,"stackDurationRefreshPolicy":0,"stackPeriodResetPolicy":0,"stackExpirationPolicy":0,"stackOverflowPolicy":0,"ongoingRequiredTags":{"_tags":[]},"cancelOnAbilityEnd":true}</t>
         </is>
       </c>
       <c r="G86" t="inlineStr">
@@ -2675,7 +2675,7 @@
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>{"guid":"356907e0-1488-4128-bfcc-7ff73cfc3330","nodeType":0,"position":{"x":-878.4000244140625,"y":-1853.5999755859375},"targetType":1,"skillId":1004,"assetTags":{"_tags":[]},"cancelAbilitiesWithTags":{"_tags":[]},"blockAbilitiesWithTags":{"_tags":[]},"activationOwnedTags":{"_tags":[]},"activationRequiredTags":{"_tags":[]},"activationBlockedTags":{"_tags":[{"_name":"CD.FireCircle","_hashCode":522143731,"_shortName":"FireCircle","_ancestorHashCodes":[-1137859925],"_ancestorNames":["CD"]}]},"ongoingBlockedTags":{"_tags":[]},"eventOutputPorts":[]}</t>
+          <t>{"guid":"356907e0-1488-4128-bfcc-7ff73cfc3330","nodeType":0,"position":{"x":-878.6666259765625,"y":-1853.3333740234375},"targetType":1,"skillId":1004,"assetTags":{"_tags":[]},"cancelAbilitiesWithTags":{"_tags":[]},"blockAbilitiesWithTags":{"_tags":[]},"activationOwnedTags":{"_tags":[]},"activationRequiredTags":{"_tags":[]},"activationBlockedTags":{"_tags":[{"_name":"CD.FireCircle","_hashCode":522143731,"_shortName":"FireCircle","_ancestorHashCodes":[-1137859925],"_ancestorNames":["CD"]}]},"ongoingBlockedTags":{"_tags":[]},"eventOutputPorts":[]}</t>
         </is>
       </c>
       <c r="G87" t="inlineStr">
@@ -2695,7 +2695,7 @@
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>{"guid":"764289ea-065e-4f48-afc0-0f6963d18d57","nodeType":14,"position":{"x":492.0,"y":-1539.199951171875},"targetType":1,"requiredTags":{"_tags":[]},"immunityTags":{"_tags":[]},"destroyWithNode":false,"positionSource":2,"positionBindingName":"head","textType":0,"fixedText":"","contextDataKey":"DamageResult","textColor":{"r":1.0,"g":0.0,"b":0.0,"a":1.0},"criticalColor":{"r":1.0,"g":0.5,"b":0.0,"a":1.0},"missColor":{"r":0.5,"g":0.5,"b":0.5,"a":1.0},"fontSize":45.0,"criticalFontSize":60.0,"duration":1.5,"offset":{"x":0.0,"y":0.0},"moveDirection":{"x":0.0,"y":1.0}}</t>
+          <t>{"guid":"764289ea-065e-4f48-afc0-0f6963d18d57","nodeType":14,"position":{"x":492.0000305175781,"y":-1539.3333740234375},"targetType":1,"requiredTags":{"_tags":[]},"immunityTags":{"_tags":[]},"destroyWithNode":false,"positionSource":2,"positionBindingName":"head","textType":0,"fixedText":"","contextDataKey":"DamageResult","textColor":{"r":1.0,"g":0.0,"b":0.0,"a":1.0},"criticalColor":{"r":1.0,"g":0.5,"b":0.0,"a":1.0},"missColor":{"r":0.5,"g":0.5,"b":0.5,"a":1.0},"fontSize":45.0,"criticalFontSize":60.0,"duration":1.5,"offset":{"x":0.0,"y":0.0},"moveDirection":{"x":0.0,"y":1.0}}</t>
         </is>
       </c>
       <c r="G88" t="inlineStr">
@@ -2715,7 +2715,7 @@
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>{"guid":"a32d1135-94db-4f81-95ba-9d5f105ef8d0","nodeType":1,"position":{"x":308.79998779296877,"y":-1720.0},"targetType":0,"assetTags":{"_tags":[]},"grantedTags":{"_tags":[]},"applicationRequiredTags":{"_tags":[]},"applicationImmunityTags":{"_tags":[]},"removeGameEffectsWithTags":{"_tags":[]},"durationType":0,"duration":"0","isPeriodic":false,"period":"1","executeOnApplication":false,"attributeModifiers":[],"stackType":0,"stackLimit":0,"stackDurationRefreshPolicy":0,"stackPeriodResetPolicy":0,"stackExpirationPolicy":0,"stackOverflowPolicy":0,"ongoingRequiredTags":{"_tags":[]},"cancelOnAbilityEnd":true,"damageType":0,"damageSourceType":0,"damageFixedValue":1.0,"damageFormula":"","damageMMCType":0,"damageSetByCallerKey":"","damageMMCCaptureAttribute":200,"damageMMCAttributeSource":0,"damageMMCCoefficient":1.0,"damageMMCUseSnapshot":true,"damageMultiplyByStackCount":false,"damageCalculationType":0}</t>
+          <t>{"guid":"a32d1135-94db-4f81-95ba-9d5f105ef8d0","nodeType":1,"position":{"x":308.6666564941406,"y":-1720.0},"targetType":0,"assetTags":{"_tags":[]},"grantedTags":{"_tags":[]},"applicationRequiredTags":{"_tags":[]},"applicationImmunityTags":{"_tags":[]},"removeGameEffectsWithTags":{"_tags":[]},"durationType":0,"duration":"0","isPeriodic":false,"period":"1","executeOnApplication":false,"attributeModifiers":[],"stackType":0,"stackLimit":0,"stackDurationRefreshPolicy":0,"stackPeriodResetPolicy":0,"stackExpirationPolicy":0,"stackOverflowPolicy":0,"ongoingRequiredTags":{"_tags":[]},"cancelOnAbilityEnd":true,"damageType":0,"damageSourceType":0,"damageFixedValue":1.0,"damageFormula":"","damageMMCType":0,"damageSetByCallerKey":"","damageMMCCaptureAttribute":200,"damageMMCAttributeSource":0,"damageMMCCoefficient":1.0,"damageMMCUseSnapshot":true,"damageMultiplyByStackCount":false,"damageCalculationType":0}</t>
         </is>
       </c>
       <c r="G89" t="inlineStr">
@@ -2735,7 +2735,7 @@
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>{"guid":"432ff1e3-b18d-476d-af80-d39ddc07402a","nodeType":20,"position":{"x":-452.0,"y":-2375.199951171875},"targetType":1,"skeletonDataAsset":{"instanceID":45010},"animationName":"Skill_attack_1011","animationDuration":"12","isAnimationLooping":true,"timeEffects":[{"triggerTime":250,"portId":"f41c85e0-7f26-494e-9ffc-4a06c980f811"}],"timeCues":[{"startTime":0,"endTime":255,"portId":"8dea1941-c520-4f9a-aee0-40932c8542ef"}]}</t>
+          <t>{"guid":"432ff1e3-b18d-476d-af80-d39ddc07402a","nodeType":20,"position":{"x":-452.0,"y":-2375.333251953125},"targetType":1,"skeletonDataAsset":{"instanceID":45010},"animationName":"Skill_attack_1011","animationDuration":"12","isAnimationLooping":true,"timeEffects":[{"triggerTime":250,"portId":"f41c85e0-7f26-494e-9ffc-4a06c980f811"}],"timeCues":[{"startTime":0,"endTime":255,"portId":"8dea1941-c520-4f9a-aee0-40932c8542ef"}]}</t>
         </is>
       </c>
       <c r="G90" t="inlineStr">
@@ -2755,7 +2755,7 @@
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>{"guid":"cde57fb8-b693-4da8-a4a8-fd61e56c5dcd","nodeType":12,"position":{"x":677.5999755859375,"y":-1998.4000244140625},"targetType":1,"requiredTags":{"_tags":[]},"immunityTags":{"_tags":[]},"destroyWithNode":true,"positionSource":0,"particlePrefab":{"instanceID":46330},"particleBindingName":"down","particleOffset":{"x":0.0,"y":0.0,"z":0.0},"particleScale":{"x":1.0,"y":1.0,"z":1.0},"attachToTarget":true,"particleLoop":true}</t>
+          <t>{"guid":"cde57fb8-b693-4da8-a4a8-fd61e56c5dcd","nodeType":12,"position":{"x":677.3333740234375,"y":-1998.666748046875},"targetType":1,"requiredTags":{"_tags":[]},"immunityTags":{"_tags":[]},"destroyWithNode":true,"positionSource":0,"particlePrefab":{"instanceID":46330},"particleBindingName":"down","particleOffset":{"x":0.0,"y":0.0,"z":0.0},"particleScale":{"x":1.0,"y":1.0,"z":1.0},"attachToTarget":true,"particleLoop":true}</t>
         </is>
       </c>
       <c r="G91" t="inlineStr">
@@ -2775,7 +2775,7 @@
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>{"guid":"c28fb88d-51b1-47b2-be59-859e0ac638e3","nodeType":10,"position":{"x":-1186.4000244140625,"y":-1747.199951171875},"targetType":1,"assetTags":{"_tags":[]},"grantedTags":{"_tags":[{"_name":"CD.FireCircle","_hashCode":1979572373,"_shortName":"旋风斩","_ancestorHashCodes":[-1137859925],"_ancestorNames":["CD"]}]},"applicationRequiredTags":{"_tags":[]},"applicationImmunityTags":{"_tags":[]},"removeGameEffectsWithTags":{"_tags":[]},"durationType":1,"duration":"15","isPeriodic":false,"period":"1","executeOnApplication":false,"attributeModifiers":[],"stackType":0,"stackLimit":0,"stackDurationRefreshPolicy":0,"stackPeriodResetPolicy":0,"stackExpirationPolicy":0,"stackOverflowPolicy":0,"ongoingRequiredTags":{"_tags":[]},"cancelOnAbilityEnd":false,"cooldownType":0,"maxCharges":2,"chargeTime":"10"}</t>
+          <t>{"guid":"c28fb88d-51b1-47b2-be59-859e0ac638e3","nodeType":10,"position":{"x":-1186.6666259765625,"y":-1747.3333740234375},"targetType":1,"assetTags":{"_tags":[]},"grantedTags":{"_tags":[{"_name":"CD.FireCircle","_hashCode":1979572373,"_shortName":"旋风斩","_ancestorHashCodes":[-1137859925],"_ancestorNames":["CD"]}]},"applicationRequiredTags":{"_tags":[]},"applicationImmunityTags":{"_tags":[]},"removeGameEffectsWithTags":{"_tags":[]},"durationType":1,"duration":"15","isPeriodic":false,"period":"1","executeOnApplication":false,"attributeModifiers":[],"stackType":0,"stackLimit":0,"stackDurationRefreshPolicy":0,"stackPeriodResetPolicy":0,"stackExpirationPolicy":0,"stackOverflowPolicy":0,"ongoingRequiredTags":{"_tags":[]},"cancelOnAbilityEnd":false,"cooldownType":0,"maxCharges":2,"chargeTime":"10"}</t>
         </is>
       </c>
       <c r="G92" t="inlineStr">
@@ -2795,7 +2795,7 @@
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>{"guid":"f73ba91e-a76b-456c-b19c-a5176809d5f5","nodeType":7,"position":{"x":700.0,"y":-1856.800048828125},"targetType":1,"endType":0}</t>
+          <t>{"guid":"f73ba91e-a76b-456c-b19c-a5176809d5f5","nodeType":7,"position":{"x":700.0,"y":-1856.666748046875},"targetType":1,"endType":0}</t>
         </is>
       </c>
       <c r="G93" t="inlineStr">
@@ -2815,7 +2815,7 @@
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>{"guid":"e33ab94c-1496-4d6a-ba5e-1afd38bb0c30","nodeType":4,"position":{"x":27.20001220703125,"y":-1769.5999755859375},"targetType":1,"searchShapeType":0,"searchLineType":0,"positionSource":0,"positionBindingName":"center","searchCircleRadius":2.5,"searchSectorRadius":2.0,"searchSectorAngle":180.0,"searchLineDirectionOffsetAngle":0.0,"searchLineDirectionWidth":1.0,"searchLineDirectionLength":10.0,"lineStartPositionSource":0,"lineStartBindingName":"","lineEndPositionSource":1,"lineEndBindingName":"","searchLineBetweenWidth":1.0,"searchLineAbsoluteAngle":0.0,"searchLineAbsoluteWidth":1.0,"searchLineAbsoluteLength":10.0,"maxTargets":999,"searchTargetTags":{"_tags":[{"_name":"unitType.monster","_hashCode":-2021655864,"_shortName":"monster","_ancestorHashCodes":[1600484460],"_ancestorNames":["unitType"]}]},"searchExcludeTags":{"_tags":[]}}</t>
+          <t>{"guid":"e33ab94c-1496-4d6a-ba5e-1afd38bb0c30","nodeType":4,"position":{"x":27.333343505859376,"y":-1769.3333740234375},"targetType":1,"searchShapeType":0,"searchLineType":0,"positionSource":0,"positionBindingName":"center","searchCircleRadius":2.5,"searchSectorRadius":2.0,"searchSectorAngle":180.0,"searchLineDirectionOffsetAngle":0.0,"searchLineDirectionWidth":1.0,"searchLineDirectionLength":10.0,"lineStartPositionSource":0,"lineStartBindingName":"","lineEndPositionSource":1,"lineEndBindingName":"","searchLineBetweenWidth":1.0,"searchLineAbsoluteAngle":0.0,"searchLineAbsoluteWidth":1.0,"searchLineAbsoluteLength":10.0,"maxTargets":999,"searchTargetTags":{"_tags":[{"_name":"unitType.monster","_hashCode":-2021655864,"_shortName":"monster","_ancestorHashCodes":[1600484460],"_ancestorNames":["unitType"]}]},"searchExcludeTags":{"_tags":[]}}</t>
         </is>
       </c>
       <c r="G94" t="inlineStr">
@@ -2835,7 +2835,7 @@
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>{"guid":"d8847c3e-459e-4589-a96b-37ebb5ec458b","nodeType":21,"position":{"x":-308.79998779296877,"y":-1769.5999755859375},"targetType":1,"assetTags":{"_tags":[]},"grantedTags":{"_tags":[]},"applicationRequiredTags":{"_tags":[]},"applicationImmunityTags":{"_tags":[]},"removeGameEffectsWithTags":{"_tags":[]},"durationType":2,"duration":"0","isPeriodic":true,"period":"0.3","executeOnApplication":false,"attributeModifiers":[],"stackType":0,"stackLimit":0,"stackDurationRefreshPolicy":0,"stackPeriodResetPolicy":0,"stackExpirationPolicy":0,"stackOverflowPolicy":0,"ongoingRequiredTags":{"_tags":[]},"cancelOnAbilityEnd":true}</t>
+          <t>{"guid":"d8847c3e-459e-4589-a96b-37ebb5ec458b","nodeType":21,"position":{"x":-308.6666564941406,"y":-1769.3333740234375},"targetType":1,"assetTags":{"_tags":[]},"grantedTags":{"_tags":[]},"applicationRequiredTags":{"_tags":[]},"applicationImmunityTags":{"_tags":[]},"removeGameEffectsWithTags":{"_tags":[]},"durationType":2,"duration":"0","isPeriodic":true,"period":"0.3","executeOnApplication":false,"attributeModifiers":[],"stackType":0,"stackLimit":0,"stackDurationRefreshPolicy":0,"stackPeriodResetPolicy":0,"stackExpirationPolicy":0,"stackOverflowPolicy":0,"ongoingRequiredTags":{"_tags":[]},"cancelOnAbilityEnd":true}</t>
         </is>
       </c>
       <c r="G95"/>

--- a/Luban/MiniTemplate/Datas/#SkillGraph.xlsx
+++ b/Luban/MiniTemplate/Datas/#SkillGraph.xlsx
@@ -1623,7 +1623,7 @@
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>{"guid":"e33ab94c-1496-4d6a-ba5e-1afd38bb0c30","nodeType":4,"position":{"x":-452.0,"y":-1786.4000244140625},"targetType":1,"searchShapeType":0,"searchLineType":0,"positionSource":0,"positionBindingName":"center","searchCircleRadius":4.0,"searchSectorRadius":2.0,"searchSectorAngle":180.0,"searchLineDirectionOffsetAngle":0.0,"searchLineDirectionWidth":1.0,"searchLineDirectionLength":10.0,"lineStartPositionSource":0,"lineStartBindingName":"","lineEndPositionSource":1,"lineEndBindingName":"","searchLineBetweenWidth":1.0,"searchLineAbsoluteAngle":0.0,"searchLineAbsoluteWidth":1.0,"searchLineAbsoluteLength":10.0,"maxTargets":999,"searchTargetTags":{"_tags":[{"_name":"unitType.boss","_hashCode":-2067207703,"_shortName":"boss","_ancestorHashCodes":[1600484460],"_ancestorNames":["unitType"]}]},"searchExcludeTags":{"_tags":[]}}</t>
+          <t>{"guid":"e33ab94c-1496-4d6a-ba5e-1afd38bb0c30","nodeType":4,"position":{"x":-452.0,"y":-1786.4000244140625},"targetType":1,"searchShapeType":0,"searchLineType":0,"positionSource":0,"positionBindingName":"center","searchCircleRadius":4.0,"searchSectorRadius":2.0,"searchSectorAngle":180.0,"searchLineDirectionOffsetAngle":0.0,"searchLineDirectionWidth":1.0,"searchLineDirectionLength":10.0,"lineStartPositionSource":0,"lineStartBindingName":"","lineEndPositionSource":1,"lineEndBindingName":"","searchLineBetweenWidth":1.0,"searchLineAbsoluteAngle":0.0,"searchLineAbsoluteWidth":1.0,"searchLineAbsoluteLength":10.0,"maxTargets":999,"searchTargetTags":{"_tags":[{"_name":"unitType.monster","_hashCode":-2021655864,"_shortName":"monster","_ancestorHashCodes":[1600484460],"_ancestorNames":["unitType"]}]},"searchExcludeTags":{"_tags":[]}}</t>
         </is>
       </c>
       <c r="G35"/>
@@ -1787,7 +1787,7 @@
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>{"guid":"e33ab94c-1496-4d6a-ba5e-1afd38bb0c30","nodeType":4,"position":{"x":-452.0,"y":-1786.4000244140625},"targetType":1,"searchShapeType":0,"searchLineType":0,"positionSource":0,"positionBindingName":"center","searchCircleRadius":2.5,"searchSectorRadius":2.0,"searchSectorAngle":180.0,"searchLineDirectionOffsetAngle":0.0,"searchLineDirectionWidth":1.0,"searchLineDirectionLength":10.0,"lineStartPositionSource":0,"lineStartBindingName":"","lineEndPositionSource":1,"lineEndBindingName":"","searchLineBetweenWidth":1.0,"searchLineAbsoluteAngle":0.0,"searchLineAbsoluteWidth":1.0,"searchLineAbsoluteLength":10.0,"maxTargets":999,"searchTargetTags":{"_tags":[{"_name":"unitType.boss","_hashCode":-2067207703,"_shortName":"boss","_ancestorHashCodes":[1600484460],"_ancestorNames":["unitType"]}]},"searchExcludeTags":{"_tags":[]}}</t>
+          <t>{"guid":"e33ab94c-1496-4d6a-ba5e-1afd38bb0c30","nodeType":4,"position":{"x":-452.0,"y":-1786.4000244140625},"targetType":1,"searchShapeType":0,"searchLineType":0,"positionSource":0,"positionBindingName":"center","searchCircleRadius":2.5,"searchSectorRadius":2.0,"searchSectorAngle":180.0,"searchLineDirectionOffsetAngle":0.0,"searchLineDirectionWidth":1.0,"searchLineDirectionLength":10.0,"lineStartPositionSource":0,"lineStartBindingName":"","lineEndPositionSource":1,"lineEndBindingName":"","searchLineBetweenWidth":1.0,"searchLineAbsoluteAngle":0.0,"searchLineAbsoluteWidth":1.0,"searchLineAbsoluteLength":10.0,"maxTargets":999,"searchTargetTags":{"_tags":[{"_name":"unitType.monster","_hashCode":-2021655864,"_shortName":"monster","_ancestorHashCodes":[1600484460],"_ancestorNames":["unitType"]}]},"searchExcludeTags":{"_tags":[]}}</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
@@ -2231,7 +2231,7 @@
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>{"guid":"e33ab94c-1496-4d6a-ba5e-1afd38bb0c30","nodeType":4,"position":{"x":-452.0,"y":-1786.4000244140625},"targetType":1,"searchShapeType":1,"searchLineType":0,"positionSource":0,"positionBindingName":"center","searchCircleRadius":5.0,"searchSectorRadius":2.0,"searchSectorAngle":180.0,"searchLineDirectionOffsetAngle":0.0,"searchLineDirectionWidth":1.0,"searchLineDirectionLength":10.0,"lineStartPositionSource":0,"lineStartBindingName":"","lineEndPositionSource":1,"lineEndBindingName":"","searchLineBetweenWidth":1.0,"searchLineAbsoluteAngle":0.0,"searchLineAbsoluteWidth":1.0,"searchLineAbsoluteLength":10.0,"maxTargets":999,"searchTargetTags":{"_tags":[{"_name":"unitType.boss","_hashCode":-2067207703,"_shortName":"boss","_ancestorHashCodes":[1600484460],"_ancestorNames":["unitType"]}]},"searchExcludeTags":{"_tags":[]}}</t>
+          <t>{"guid":"e33ab94c-1496-4d6a-ba5e-1afd38bb0c30","nodeType":4,"position":{"x":-452.0,"y":-1786.4000244140625},"targetType":1,"searchShapeType":1,"searchLineType":0,"positionSource":0,"positionBindingName":"center","searchCircleRadius":5.0,"searchSectorRadius":2.0,"searchSectorAngle":180.0,"searchLineDirectionOffsetAngle":0.0,"searchLineDirectionWidth":1.0,"searchLineDirectionLength":10.0,"lineStartPositionSource":0,"lineStartBindingName":"","lineEndPositionSource":1,"lineEndBindingName":"","searchLineBetweenWidth":1.0,"searchLineAbsoluteAngle":0.0,"searchLineAbsoluteWidth":1.0,"searchLineAbsoluteLength":10.0,"maxTargets":999,"searchTargetTags":{"_tags":[{"_name":"unitType.monster","_hashCode":-2021655864,"_shortName":"monster","_ancestorHashCodes":[1600484460],"_ancestorNames":["unitType"]}]},"searchExcludeTags":{"_tags":[]}}</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
@@ -2273,7 +2273,7 @@
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>{"guid":"2cfdacd2-0186-49dd-b177-4eb8c0ad87bd","nodeType":7,"position":{"x":689.5999755859375,"y":-1860.800048828125},"targetType":1,"endType":0}</t>
+          <t>{"guid":"2cfdacd2-0186-49dd-b177-4eb8c0ad87bd","nodeType":7,"position":{"x":689.3333740234375,"y":-1860.666748046875},"targetType":1,"endType":0}</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
@@ -2293,7 +2293,7 @@
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>{"guid":"9d6f459d-b588-4b64-843b-1b71e8f299ae","nodeType":3,"position":{"x":-1186.4000244140625,"y":-2019.199951171875},"targetType":1,"assetTags":{"_tags":[]},"grantedTags":{"_tags":[]},"applicationRequiredTags":{"_tags":[]},"applicationImmunityTags":{"_tags":[]},"removeGameEffectsWithTags":{"_tags":[]},"durationType":0,"duration":"0","isPeriodic":false,"period":"1","executeOnApplication":false,"attributeModifiers":[{"attrType":100,"operation":0,"magnitudeSourceType":0,"fixedValue":10.0,"formula":"","mmcType":0,"setByCallerKey":"","mmcCaptureAttribute":200,"mmcAttributeSource":0,"mmcCoefficient":1.0,"mmcUseSnapshot":true}],"stackType":0,"stackLimit":0,"stackDurationRefreshPolicy":0,"stackPeriodResetPolicy":0,"stackExpirationPolicy":0,"stackOverflowPolicy":0,"ongoingRequiredTags":{"_tags":[]},"cancelOnAbilityEnd":true}</t>
+          <t>{"guid":"9d6f459d-b588-4b64-843b-1b71e8f299ae","nodeType":3,"position":{"x":-1186.6666259765625,"y":-2019.3333740234375},"targetType":1,"assetTags":{"_tags":[]},"grantedTags":{"_tags":[]},"applicationRequiredTags":{"_tags":[]},"applicationImmunityTags":{"_tags":[]},"removeGameEffectsWithTags":{"_tags":[]},"durationType":0,"duration":"0","isPeriodic":false,"period":"1","executeOnApplication":false,"attributeModifiers":[{"attrType":100,"operation":0,"magnitudeSourceType":0,"fixedValue":10.0,"formula":"","mmcType":0,"setByCallerKey":"","mmcCaptureAttribute":200,"mmcAttributeSource":0,"mmcCoefficient":1.0,"mmcUseSnapshot":true}],"stackType":0,"stackLimit":0,"stackDurationRefreshPolicy":0,"stackPeriodResetPolicy":0,"stackExpirationPolicy":0,"stackOverflowPolicy":0,"ongoingRequiredTags":{"_tags":[]},"cancelOnAbilityEnd":true}</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
@@ -2313,7 +2313,7 @@
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>{"guid":"432ff1e3-b18d-476d-af80-d39ddc07402a","nodeType":20,"position":{"x":-452.0,"y":-2406.39990234375},"targetType":1,"skeletonDataAsset":{"instanceID":45010},"animationName":"Attack_01","animationDuration":"18","isAnimationLooping":false,"timeEffects":[{"triggerTime":7,"portId":"de0ba361-3aba-4ef0-bb07-9b418fcae591"},{"triggerTime":18,"portId":"84e238a8-5baf-470e-829f-186695064945"}],"timeCues":[]}</t>
+          <t>{"guid":"432ff1e3-b18d-476d-af80-d39ddc07402a","nodeType":20,"position":{"x":-452.0,"y":-2406.66650390625},"targetType":1,"skeletonDataAsset":{"instanceID":45010},"animationName":"Attack_01","animationDuration":"18","isAnimationLooping":false,"timeEffects":[{"triggerTime":7,"portId":"de0ba361-3aba-4ef0-bb07-9b418fcae591"},{"triggerTime":18,"portId":"84e238a8-5baf-470e-829f-186695064945"}],"timeCues":[]}</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
@@ -2333,7 +2333,7 @@
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>{"guid":"c28fb88d-51b1-47b2-be59-859e0ac638e3","nodeType":10,"position":{"x":-1186.4000244140625,"y":-1747.199951171875},"targetType":1,"assetTags":{"_tags":[]},"grantedTags":{"_tags":[{"_name":"CD.ThreeFire","_hashCode":-1656226246,"_shortName":"三火球","_ancestorHashCodes":[-1137859925],"_ancestorNames":["CD"]}]},"applicationRequiredTags":{"_tags":[]},"applicationImmunityTags":{"_tags":[]},"removeGameEffectsWithTags":{"_tags":[]},"durationType":1,"duration":"1","isPeriodic":false,"period":"1","executeOnApplication":false,"attributeModifiers":[],"stackType":0,"stackLimit":0,"stackDurationRefreshPolicy":0,"stackPeriodResetPolicy":0,"stackExpirationPolicy":0,"stackOverflowPolicy":0,"ongoingRequiredTags":{"_tags":[]},"cancelOnAbilityEnd":false,"cooldownType":0,"maxCharges":2,"chargeTime":"10"}</t>
+          <t>{"guid":"c28fb88d-51b1-47b2-be59-859e0ac638e3","nodeType":10,"position":{"x":-1186.6666259765625,"y":-1747.3333740234375},"targetType":1,"assetTags":{"_tags":[]},"grantedTags":{"_tags":[{"_name":"CD.ThreeFire","_hashCode":-1656226246,"_shortName":"三火球","_ancestorHashCodes":[-1137859925],"_ancestorNames":["CD"]}]},"applicationRequiredTags":{"_tags":[]},"applicationImmunityTags":{"_tags":[]},"removeGameEffectsWithTags":{"_tags":[]},"durationType":1,"duration":"1","isPeriodic":false,"period":"1","executeOnApplication":false,"attributeModifiers":[],"stackType":0,"stackLimit":0,"stackDurationRefreshPolicy":0,"stackPeriodResetPolicy":0,"stackExpirationPolicy":0,"stackOverflowPolicy":0,"ongoingRequiredTags":{"_tags":[]},"cancelOnAbilityEnd":false,"cooldownType":0,"maxCharges":2,"chargeTime":"10"}</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
@@ -2353,7 +2353,7 @@
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>{"guid":"356907e0-1488-4128-bfcc-7ff73cfc3330","nodeType":0,"position":{"x":-878.4000244140625,"y":-1853.5999755859375},"targetType":1,"skillId":1010,"assetTags":{"_tags":[]},"cancelAbilitiesWithTags":{"_tags":[]},"blockAbilitiesWithTags":{"_tags":[]},"activationOwnedTags":{"_tags":[]},"activationRequiredTags":{"_tags":[]},"activationBlockedTags":{"_tags":[{"_name":"CD.ThreeFire","_hashCode":-1656226246,"_shortName":"三火球","_ancestorHashCodes":[-1137859925],"_ancestorNames":["CD"]}]},"ongoingBlockedTags":{"_tags":[]},"eventOutputPorts":[]}</t>
+          <t>{"guid":"356907e0-1488-4128-bfcc-7ff73cfc3330","nodeType":0,"position":{"x":-878.6666259765625,"y":-1853.3333740234375},"targetType":1,"skillId":1010,"assetTags":{"_tags":[]},"cancelAbilitiesWithTags":{"_tags":[]},"blockAbilitiesWithTags":{"_tags":[]},"activationOwnedTags":{"_tags":[]},"activationRequiredTags":{"_tags":[]},"activationBlockedTags":{"_tags":[{"_name":"CD.ThreeFire","_hashCode":-1656226246,"_shortName":"三火球","_ancestorHashCodes":[-1137859925],"_ancestorNames":["CD"]}]},"ongoingBlockedTags":{"_tags":[]},"eventOutputPorts":[]}</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
@@ -2373,7 +2373,7 @@
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>{"guid":"c353e286-8ef0-460a-b917-887f2aeb390a","nodeType":14,"position":{"x":839.199951171875,"y":-1583.199951171875},"targetType":1,"requiredTags":{"_tags":[]},"immunityTags":{"_tags":[]},"destroyWithNode":false,"positionSource":2,"positionBindingName":"head","textType":0,"fixedText":"","contextDataKey":"DamageResult","textColor":{"r":1.0,"g":0.0,"b":0.0,"a":1.0},"criticalColor":{"r":1.0,"g":0.5,"b":0.0,"a":1.0},"missColor":{"r":0.5,"g":0.5,"b":0.5,"a":1.0},"fontSize":45.0,"criticalFontSize":60.0,"duration":1.5,"offset":{"x":0.0,"y":0.0},"moveDirection":{"x":0.0,"y":1.0}}</t>
+          <t>{"guid":"c353e286-8ef0-460a-b917-887f2aeb390a","nodeType":14,"position":{"x":839.3333740234375,"y":-1583.3333740234375},"targetType":1,"requiredTags":{"_tags":[]},"immunityTags":{"_tags":[]},"destroyWithNode":false,"positionSource":2,"positionBindingName":"head","textType":0,"fixedText":"","contextDataKey":"DamageResult","textColor":{"r":1.0,"g":0.0,"b":0.0,"a":1.0},"criticalColor":{"r":1.0,"g":0.5,"b":0.0,"a":1.0},"missColor":{"r":0.5,"g":0.5,"b":0.5,"a":1.0},"fontSize":45.0,"criticalFontSize":60.0,"duration":1.5,"offset":{"x":0.0,"y":0.0},"moveDirection":{"x":0.0,"y":1.0}}</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
@@ -2393,7 +2393,7 @@
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>{"guid":"f8947676-1084-4228-b991-1509cc7fe851","nodeType":1,"position":{"x":614.4000244140625,"y":-1583.199951171875},"targetType":0,"assetTags":{"_tags":[]},"grantedTags":{"_tags":[]},"applicationRequiredTags":{"_tags":[]},"applicationImmunityTags":{"_tags":[]},"removeGameEffectsWithTags":{"_tags":[]},"durationType":0,"duration":"0","isPeriodic":false,"period":"1","executeOnApplication":false,"attributeModifiers":[],"stackType":0,"stackLimit":0,"stackDurationRefreshPolicy":0,"stackPeriodResetPolicy":0,"stackExpirationPolicy":0,"stackOverflowPolicy":0,"ongoingRequiredTags":{"_tags":[]},"cancelOnAbilityEnd":true,"damageType":0,"damageSourceType":0,"damageFixedValue":10.0,"damageFormula":"","damageMMCType":0,"damageSetByCallerKey":"","damageMMCCaptureAttribute":200,"damageMMCAttributeSource":0,"damageMMCCoefficient":1.0,"damageMMCUseSnapshot":true,"damageMultiplyByStackCount":false,"damageCalculationType":0}</t>
+          <t>{"guid":"f8947676-1084-4228-b991-1509cc7fe851","nodeType":1,"position":{"x":614.6666259765625,"y":-1583.3333740234375},"targetType":0,"assetTags":{"_tags":[]},"grantedTags":{"_tags":[]},"applicationRequiredTags":{"_tags":[]},"applicationImmunityTags":{"_tags":[]},"removeGameEffectsWithTags":{"_tags":[]},"durationType":0,"duration":"0","isPeriodic":false,"period":"1","executeOnApplication":false,"attributeModifiers":[],"stackType":0,"stackLimit":0,"stackDurationRefreshPolicy":0,"stackPeriodResetPolicy":0,"stackExpirationPolicy":0,"stackOverflowPolicy":0,"ongoingRequiredTags":{"_tags":[]},"cancelOnAbilityEnd":true,"damageType":0,"damageSourceType":0,"damageFixedValue":10.0,"damageFormula":"","damageMMCType":0,"damageSetByCallerKey":"","damageMMCCaptureAttribute":200,"damageMMCAttributeSource":0,"damageMMCCoefficient":1.0,"damageMMCUseSnapshot":true,"damageMultiplyByStackCount":false,"damageCalculationType":0}</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
@@ -2413,7 +2413,7 @@
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>{"guid":"ce857360-de7e-4457-b348-9c124ce98879","nodeType":8,"position":{"x":202.39999389648438,"y":-1649.5999755859375},"targetType":2,"assetTags":{"_tags":[]},"grantedTags":{"_tags":[]},"applicationRequiredTags":{"_tags":[]},"applicationImmunityTags":{"_tags":[]},"removeGameEffectsWithTags":{"_tags":[]},"durationType":2,"duration":"0","isPeriodic":false,"period":"1","executeOnApplication":false,"attributeModifiers":[],"stackType":0,"stackLimit":0,"stackDurationRefreshPolicy":0,"stackPeriodResetPolicy":0,"stackExpirationPolicy":0,"stackOverflowPolicy":0,"ongoingRequiredTags":{"_tags":[]},"cancelOnAbilityEnd":false,"launchPositionSource":0,"launchBindingName":"center","targetPositionSource":2,"targetBindingName":"center","projectileTargetType":0,"flyOver":true,"offsetAngle":30.0,"curveHeight":0.0,"projectilePrefab":{"instanceID":45962},"speed":10.0,"maxDistance":10.0,"collisionRadius":0.5,"isPiercing":false,"maxPierceCount":1,"collisionTargetTags":{"_tags":[]},"collisionExcludeTags":{"_tags":[]}}</t>
+          <t>{"guid":"ce857360-de7e-4457-b348-9c124ce98879","nodeType":8,"position":{"x":202.66668701171876,"y":-1649.3333740234375},"targetType":2,"assetTags":{"_tags":[]},"grantedTags":{"_tags":[]},"applicationRequiredTags":{"_tags":[]},"applicationImmunityTags":{"_tags":[]},"removeGameEffectsWithTags":{"_tags":[]},"durationType":2,"duration":"0","isPeriodic":false,"period":"1","executeOnApplication":false,"attributeModifiers":[],"stackType":0,"stackLimit":0,"stackDurationRefreshPolicy":0,"stackPeriodResetPolicy":0,"stackExpirationPolicy":0,"stackOverflowPolicy":0,"ongoingRequiredTags":{"_tags":[]},"cancelOnAbilityEnd":false,"launchPositionSource":0,"launchBindingName":"center","targetPositionSource":2,"targetBindingName":"center","projectileTargetType":0,"flyOver":true,"offsetAngle":30.0,"curveHeight":0.0,"projectilePrefab":{"instanceID":45962},"speed":10.0,"maxDistance":10.0,"collisionRadius":0.5,"isPiercing":false,"maxPierceCount":1,"collisionTargetTags":{"_tags":[]},"collisionExcludeTags":{"_tags":[]}}</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
@@ -2433,7 +2433,7 @@
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>{"guid":"9a695e91-e218-425e-82ed-1e157bf1b014","nodeType":8,"position":{"x":184.79998779296876,"y":-1475.199951171875},"targetType":2,"assetTags":{"_tags":[]},"grantedTags":{"_tags":[]},"applicationRequiredTags":{"_tags":[]},"applicationImmunityTags":{"_tags":[]},"removeGameEffectsWithTags":{"_tags":[]},"durationType":2,"duration":"0","isPeriodic":false,"period":"1","executeOnApplication":false,"attributeModifiers":[],"stackType":0,"stackLimit":0,"stackDurationRefreshPolicy":0,"stackPeriodResetPolicy":0,"stackExpirationPolicy":0,"stackOverflowPolicy":0,"ongoingRequiredTags":{"_tags":[]},"cancelOnAbilityEnd":false,"launchPositionSource":0,"launchBindingName":"center","targetPositionSource":2,"targetBindingName":"center","projectileTargetType":0,"flyOver":true,"offsetAngle":0.0,"curveHeight":0.0,"projectilePrefab":{"instanceID":45962},"speed":10.0,"maxDistance":10.0,"collisionRadius":0.5,"isPiercing":false,"maxPierceCount":1,"collisionTargetTags":{"_tags":[]},"collisionExcludeTags":{"_tags":[]}}</t>
+          <t>{"guid":"9a695e91-e218-425e-82ed-1e157bf1b014","nodeType":8,"position":{"x":184.66668701171876,"y":-1475.3333740234375},"targetType":2,"assetTags":{"_tags":[]},"grantedTags":{"_tags":[]},"applicationRequiredTags":{"_tags":[]},"applicationImmunityTags":{"_tags":[]},"removeGameEffectsWithTags":{"_tags":[]},"durationType":2,"duration":"0","isPeriodic":false,"period":"1","executeOnApplication":false,"attributeModifiers":[],"stackType":0,"stackLimit":0,"stackDurationRefreshPolicy":0,"stackPeriodResetPolicy":0,"stackExpirationPolicy":0,"stackOverflowPolicy":0,"ongoingRequiredTags":{"_tags":[]},"cancelOnAbilityEnd":false,"launchPositionSource":0,"launchBindingName":"center","targetPositionSource":2,"targetBindingName":"center","projectileTargetType":0,"flyOver":true,"offsetAngle":0.0,"curveHeight":0.0,"projectilePrefab":{"instanceID":45962},"speed":10.0,"maxDistance":10.0,"collisionRadius":0.5,"isPiercing":false,"maxPierceCount":1,"collisionTargetTags":{"_tags":[]},"collisionExcludeTags":{"_tags":[]}}</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
@@ -2453,7 +2453,7 @@
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>{"guid":"d897a922-5756-42cf-ac65-90a48c1e5a17","nodeType":8,"position":{"x":173.60000610351563,"y":-1327.199951171875},"targetType":2,"assetTags":{"_tags":[]},"grantedTags":{"_tags":[]},"applicationRequiredTags":{"_tags":[]},"applicationImmunityTags":{"_tags":[]},"removeGameEffectsWithTags":{"_tags":[]},"durationType":2,"duration":"0","isPeriodic":false,"period":"1","executeOnApplication":false,"attributeModifiers":[],"stackType":0,"stackLimit":0,"stackDurationRefreshPolicy":0,"stackPeriodResetPolicy":0,"stackExpirationPolicy":0,"stackOverflowPolicy":0,"ongoingRequiredTags":{"_tags":[]},"cancelOnAbilityEnd":false,"launchPositionSource":0,"launchBindingName":"center","targetPositionSource":2,"targetBindingName":"center","projectileTargetType":0,"flyOver":true,"offsetAngle":-30.0,"curveHeight":0.0,"projectilePrefab":{"instanceID":45962},"speed":10.0,"maxDistance":10.0,"collisionRadius":0.5,"isPiercing":false,"maxPierceCount":1,"collisionTargetTags":{"_tags":[]},"collisionExcludeTags":{"_tags":[]}}</t>
+          <t>{"guid":"d897a922-5756-42cf-ac65-90a48c1e5a17","nodeType":8,"position":{"x":173.33334350585938,"y":-1327.3333740234375},"targetType":2,"assetTags":{"_tags":[]},"grantedTags":{"_tags":[]},"applicationRequiredTags":{"_tags":[]},"applicationImmunityTags":{"_tags":[]},"removeGameEffectsWithTags":{"_tags":[]},"durationType":2,"duration":"0","isPeriodic":false,"period":"1","executeOnApplication":false,"attributeModifiers":[],"stackType":0,"stackLimit":0,"stackDurationRefreshPolicy":0,"stackPeriodResetPolicy":0,"stackExpirationPolicy":0,"stackOverflowPolicy":0,"ongoingRequiredTags":{"_tags":[]},"cancelOnAbilityEnd":false,"launchPositionSource":0,"launchBindingName":"center","targetPositionSource":2,"targetBindingName":"center","projectileTargetType":0,"flyOver":true,"offsetAngle":-30.0,"curveHeight":0.0,"projectilePrefab":{"instanceID":45962},"speed":10.0,"maxDistance":10.0,"collisionRadius":0.5,"isPiercing":false,"maxPierceCount":1,"collisionTargetTags":{"_tags":[]},"collisionExcludeTags":{"_tags":[]}}</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
@@ -2633,7 +2633,7 @@
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>{"guid":"e33ab94c-1496-4d6a-ba5e-1afd38bb0c30","nodeType":4,"position":{"x":-452.0,"y":-1786.4000244140625},"targetType":1,"searchShapeType":0,"searchLineType":0,"positionSource":0,"positionBindingName":"center","searchCircleRadius":4.0,"searchSectorRadius":2.0,"searchSectorAngle":180.0,"searchLineDirectionOffsetAngle":0.0,"searchLineDirectionWidth":1.0,"searchLineDirectionLength":10.0,"lineStartPositionSource":0,"lineStartBindingName":"","lineEndPositionSource":1,"lineEndBindingName":"","searchLineBetweenWidth":1.0,"searchLineAbsoluteAngle":0.0,"searchLineAbsoluteWidth":1.0,"searchLineAbsoluteLength":10.0,"maxTargets":999,"searchTargetTags":{"_tags":[{"_name":"unitType.boss","_hashCode":-2067207703,"_shortName":"boss","_ancestorHashCodes":[1600484460],"_ancestorNames":["unitType"]}]},"searchExcludeTags":{"_tags":[]}}</t>
+          <t>{"guid":"e33ab94c-1496-4d6a-ba5e-1afd38bb0c30","nodeType":4,"position":{"x":-452.0,"y":-1786.4000244140625},"targetType":1,"searchShapeType":0,"searchLineType":0,"positionSource":0,"positionBindingName":"center","searchCircleRadius":4.0,"searchSectorRadius":2.0,"searchSectorAngle":180.0,"searchLineDirectionOffsetAngle":0.0,"searchLineDirectionWidth":1.0,"searchLineDirectionLength":10.0,"lineStartPositionSource":0,"lineStartBindingName":"","lineEndPositionSource":1,"lineEndBindingName":"","searchLineBetweenWidth":1.0,"searchLineAbsoluteAngle":0.0,"searchLineAbsoluteWidth":1.0,"searchLineAbsoluteLength":10.0,"maxTargets":999,"searchTargetTags":{"_tags":[{"_name":"unitType.monster","_hashCode":-2021655864,"_shortName":"monster","_ancestorHashCodes":[1600484460],"_ancestorNames":["unitType"]}]},"searchExcludeTags":{"_tags":[]}}</t>
         </is>
       </c>
       <c r="G85"/>

--- a/Luban/MiniTemplate/Datas/#SkillGraph.xlsx
+++ b/Luban/MiniTemplate/Datas/#SkillGraph.xlsx
@@ -1115,11 +1115,11 @@
       </c>
       <c r="D10"/>
       <c r="E10">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>{"guid":"432ff1e3-b18d-476d-af80-d39ddc07402a","nodeType":20,"position":{"x":-472.0,"y":-2380.800048828125},"targetType":1,"skeletonDataAsset":{"instanceID":45010},"animationName":"Attack_02","animationDuration":"22","isAnimationLooping":false,"timeEffects":[{"triggerTime":7,"portId":"de0ba361-3aba-4ef0-bb07-9b418fcae591"},{"triggerTime":22,"portId":"97dc121c-84b7-4f94-9997-02e0e5b2ea6c"}],"timeCues":[{"startTime":7,"endTime":48,"portId":"8dea1941-c520-4f9a-aee0-40932c8542ef"}]}</t>
+          <t>{"guid":"cde57fb8-b693-4da8-a4a8-fd61e56c5dcd","nodeType":12,"position":{"x":677.5999755859375,"y":-1998.4000244140625},"targetType":1,"requiredTags":{"_tags":[]},"immunityTags":{"_tags":[]},"destroyWithNode":false,"positionSource":0,"particlePrefab":{"instanceID":46090},"particleBindingName":"down","particleOffset":{"x":0.0,"y":0.0,"z":0.0},"particleScale":{"x":1.0,"y":1.0,"z":1.0},"attachToTarget":false,"particleLoop":false}</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
@@ -1135,11 +1135,11 @@
       <c r="C11"/>
       <c r="D11"/>
       <c r="E11">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>{"guid":"cde57fb8-b693-4da8-a4a8-fd61e56c5dcd","nodeType":12,"position":{"x":677.5999755859375,"y":-1998.4000244140625},"targetType":1,"requiredTags":{"_tags":[]},"immunityTags":{"_tags":[]},"destroyWithNode":false,"positionSource":0,"particlePrefab":{"instanceID":46158},"particleBindingName":"down","particleOffset":{"x":0.0,"y":0.0,"z":0.0},"particleScale":{"x":1.0,"y":1.0,"z":1.0},"attachToTarget":false,"particleLoop":false}</t>
+          <t>{"guid":"9d6f459d-b588-4b64-843b-1b71e8f299ae","nodeType":3,"position":{"x":-1186.4000244140625,"y":-2019.199951171875},"targetType":1,"assetTags":{"_tags":[]},"grantedTags":{"_tags":[]},"applicationRequiredTags":{"_tags":[]},"applicationImmunityTags":{"_tags":[]},"removeGameEffectsWithTags":{"_tags":[]},"durationType":0,"duration":"0","isPeriodic":false,"period":"1","executeOnApplication":false,"attributeModifiers":[{"attrType":100,"operation":0,"magnitudeSourceType":0,"fixedValue":10.0,"formula":"","mmcType":0,"setByCallerKey":"","mmcCaptureAttribute":200,"mmcAttributeSource":0,"mmcCoefficient":1.0,"mmcUseSnapshot":true}],"stackType":0,"stackLimit":0,"stackDurationRefreshPolicy":0,"stackPeriodResetPolicy":0,"stackExpirationPolicy":0,"stackOverflowPolicy":0,"ongoingRequiredTags":{"_tags":[]},"cancelOnAbilityEnd":true}</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
@@ -1155,11 +1155,11 @@
       <c r="C12"/>
       <c r="D12"/>
       <c r="E12">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>{"guid":"9d6f459d-b588-4b64-843b-1b71e8f299ae","nodeType":3,"position":{"x":-1186.4000244140625,"y":-2019.199951171875},"targetType":1,"assetTags":{"_tags":[]},"grantedTags":{"_tags":[]},"applicationRequiredTags":{"_tags":[]},"applicationImmunityTags":{"_tags":[]},"removeGameEffectsWithTags":{"_tags":[]},"durationType":0,"duration":"0","isPeriodic":false,"period":"1","executeOnApplication":false,"attributeModifiers":[{"attrType":100,"operation":0,"magnitudeSourceType":0,"fixedValue":10.0,"formula":"","mmcType":0,"setByCallerKey":"","mmcCaptureAttribute":200,"mmcAttributeSource":0,"mmcCoefficient":1.0,"mmcUseSnapshot":true}],"stackType":0,"stackLimit":0,"stackDurationRefreshPolicy":0,"stackPeriodResetPolicy":0,"stackExpirationPolicy":0,"stackOverflowPolicy":0,"ongoingRequiredTags":{"_tags":[]},"cancelOnAbilityEnd":true}</t>
+          <t>{"guid":"c28fb88d-51b1-47b2-be59-859e0ac638e3","nodeType":10,"position":{"x":-1186.4000244140625,"y":-1825.5999755859375},"targetType":1,"assetTags":{"_tags":[]},"grantedTags":{"_tags":[{"_name":"CD.流血","_hashCode":-1868013560,"_shortName":"流血","_ancestorHashCodes":[-1137859925],"_ancestorNames":["CD"]}]},"applicationRequiredTags":{"_tags":[]},"applicationImmunityTags":{"_tags":[]},"removeGameEffectsWithTags":{"_tags":[]},"durationType":1,"duration":"3","isPeriodic":false,"period":"1","executeOnApplication":false,"attributeModifiers":[],"stackType":0,"stackLimit":0,"stackDurationRefreshPolicy":0,"stackPeriodResetPolicy":0,"stackExpirationPolicy":0,"stackOverflowPolicy":0,"ongoingRequiredTags":{"_tags":[]},"cancelOnAbilityEnd":false,"cooldownType":0,"maxCharges":2,"chargeTime":"10"}</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
@@ -1175,11 +1175,11 @@
       <c r="C13"/>
       <c r="D13"/>
       <c r="E13">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>{"guid":"c28fb88d-51b1-47b2-be59-859e0ac638e3","nodeType":10,"position":{"x":-1186.4000244140625,"y":-1825.5999755859375},"targetType":1,"assetTags":{"_tags":[]},"grantedTags":{"_tags":[{"_name":"CD.Blood","_hashCode":-1868013560,"_shortName":"流血","_ancestorHashCodes":[-1137859925],"_ancestorNames":["CD"]}]},"applicationRequiredTags":{"_tags":[]},"applicationImmunityTags":{"_tags":[]},"removeGameEffectsWithTags":{"_tags":[]},"durationType":1,"duration":"3","isPeriodic":false,"period":"1","executeOnApplication":false,"attributeModifiers":[],"stackType":0,"stackLimit":0,"stackDurationRefreshPolicy":0,"stackPeriodResetPolicy":0,"stackExpirationPolicy":0,"stackOverflowPolicy":0,"ongoingRequiredTags":{"_tags":[]},"cancelOnAbilityEnd":false,"cooldownType":0,"maxCharges":2,"chargeTime":"10"}</t>
+          <t>{"guid":"c353e286-8ef0-460a-b917-887f2aeb390a","nodeType":14,"position":{"x":383.20001220703127,"y":-1531.199951171875},"targetType":1,"requiredTags":{"_tags":[]},"immunityTags":{"_tags":[]},"destroyWithNode":false,"positionSource":2,"positionBindingName":"head","textType":0,"fixedText":"","contextDataKey":"DamageResult","textColor":{"r":1.0,"g":0.0,"b":0.0,"a":1.0},"criticalColor":{"r":1.0,"g":0.5,"b":0.0,"a":1.0},"missColor":{"r":0.5,"g":0.5,"b":0.5,"a":1.0},"fontSize":45.0,"criticalFontSize":60.0,"duration":1.5,"offset":{"x":0.0,"y":0.0},"moveDirection":{"x":0.0,"y":1.0}}</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
@@ -1195,11 +1195,11 @@
       <c r="C14"/>
       <c r="D14"/>
       <c r="E14">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>{"guid":"c353e286-8ef0-460a-b917-887f2aeb390a","nodeType":14,"position":{"x":383.20001220703127,"y":-1531.199951171875},"targetType":1,"requiredTags":{"_tags":[]},"immunityTags":{"_tags":[]},"destroyWithNode":false,"positionSource":2,"positionBindingName":"head","textType":0,"fixedText":"","contextDataKey":"DamageResult","textColor":{"r":1.0,"g":0.0,"b":0.0,"a":1.0},"criticalColor":{"r":1.0,"g":0.5,"b":0.0,"a":1.0},"missColor":{"r":0.5,"g":0.5,"b":0.5,"a":1.0},"fontSize":45.0,"criticalFontSize":60.0,"duration":1.5,"offset":{"x":0.0,"y":0.0},"moveDirection":{"x":0.0,"y":1.0}}</t>
+          <t>{"guid":"356907e0-1488-4128-bfcc-7ff73cfc3330","nodeType":0,"position":{"x":-878.4000244140625,"y":-1853.5999755859375},"targetType":1,"skillId":1002,"assetTags":{"_tags":[]},"cancelAbilitiesWithTags":{"_tags":[]},"blockAbilitiesWithTags":{"_tags":[]},"activationOwnedTags":{"_tags":[]},"activationRequiredTags":{"_tags":[]},"activationBlockedTags":{"_tags":[{"_name":"CD.Blood","_hashCode":274000851,"_shortName":"Blood","_ancestorHashCodes":[-1137859925],"_ancestorNames":["CD"]}]},"ongoingBlockedTags":{"_tags":[]},"eventOutputPorts":[]}</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
@@ -1215,11 +1215,11 @@
       <c r="C15"/>
       <c r="D15"/>
       <c r="E15">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>{"guid":"356907e0-1488-4128-bfcc-7ff73cfc3330","nodeType":0,"position":{"x":-878.4000244140625,"y":-1853.5999755859375},"targetType":1,"skillId":1002,"assetTags":{"_tags":[]},"cancelAbilitiesWithTags":{"_tags":[]},"blockAbilitiesWithTags":{"_tags":[]},"activationOwnedTags":{"_tags":[]},"activationRequiredTags":{"_tags":[]},"activationBlockedTags":{"_tags":[{"_name":"CD.Blood","_hashCode":-1868013560,"_shortName":"流血","_ancestorHashCodes":[-1137859925],"_ancestorNames":["CD"]}]},"ongoingBlockedTags":{"_tags":[]},"eventOutputPorts":[]}</t>
+          <t>{"guid":"011aad56-e96c-41eb-9d85-e793d74a40bb","nodeType":7,"position":{"x":677.5999755859375,"y":-1879.199951171875},"targetType":1,"endType":0}</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
@@ -1235,11 +1235,11 @@
       <c r="C16"/>
       <c r="D16"/>
       <c r="E16">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>{"guid":"011aad56-e96c-41eb-9d85-e793d74a40bb","nodeType":7,"position":{"x":677.5999755859375,"y":-1879.199951171875},"targetType":1,"endType":0}</t>
+          <t>{"guid":"f8947676-1084-4228-b991-1509cc7fe851","nodeType":1,"position":{"x":195.20001220703126,"y":-1761.5999755859375},"targetType":0,"assetTags":{"_tags":[]},"grantedTags":{"_tags":[]},"applicationRequiredTags":{"_tags":[]},"applicationImmunityTags":{"_tags":[]},"removeGameEffectsWithTags":{"_tags":[]},"durationType":0,"duration":"0","isPeriodic":false,"period":"1","executeOnApplication":false,"attributeModifiers":[],"stackType":0,"stackLimit":0,"stackDurationRefreshPolicy":0,"stackPeriodResetPolicy":0,"stackExpirationPolicy":0,"stackOverflowPolicy":0,"ongoingRequiredTags":{"_tags":[]},"cancelOnAbilityEnd":true,"damageType":0,"damageSourceType":0,"damageFixedValue":3.0,"damageFormula":"","damageMMCType":0,"damageSetByCallerKey":"","damageMMCCaptureAttribute":200,"damageMMCAttributeSource":0,"damageMMCCoefficient":1.0,"damageMMCUseSnapshot":true,"damageMultiplyByStackCount":true,"damageCalculationType":0}</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
@@ -1255,11 +1255,11 @@
       <c r="C17"/>
       <c r="D17"/>
       <c r="E17">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>{"guid":"f8947676-1084-4228-b991-1509cc7fe851","nodeType":1,"position":{"x":195.20001220703126,"y":-1761.5999755859375},"targetType":0,"assetTags":{"_tags":[]},"grantedTags":{"_tags":[]},"applicationRequiredTags":{"_tags":[]},"applicationImmunityTags":{"_tags":[]},"removeGameEffectsWithTags":{"_tags":[]},"durationType":0,"duration":"0","isPeriodic":false,"period":"1","executeOnApplication":false,"attributeModifiers":[],"stackType":0,"stackLimit":0,"stackDurationRefreshPolicy":0,"stackPeriodResetPolicy":0,"stackExpirationPolicy":0,"stackOverflowPolicy":0,"ongoingRequiredTags":{"_tags":[]},"cancelOnAbilityEnd":true,"damageType":0,"damageSourceType":0,"damageFixedValue":3.0,"damageFormula":"","damageMMCType":0,"damageSetByCallerKey":"","damageMMCCaptureAttribute":200,"damageMMCAttributeSource":0,"damageMMCCoefficient":1.0,"damageMMCUseSnapshot":true,"damageMultiplyByStackCount":true,"damageCalculationType":0}</t>
+          <t>{"guid":"cb1df36f-5729-423e-9d1a-287db5a433f0","nodeType":11,"position":{"x":-160.8000030517578,"y":-1761.5999755859375},"targetType":0,"assetTags":{"_tags":[{"_name":"Buff.DeBuff.Dot","_hashCode":-637848644,"_shortName":"Dot","_ancestorHashCodes":[937056111,321157895],"_ancestorNames":["Buff","Buff.DeBuff"]}]},"grantedTags":{"_tags":[]},"applicationRequiredTags":{"_tags":[]},"applicationImmunityTags":{"_tags":[]},"removeGameEffectsWithTags":{"_tags":[]},"durationType":1,"duration":"10","isPeriodic":true,"period":"1","executeOnApplication":false,"attributeModifiers":[],"stackType":1,"stackLimit":3,"stackDurationRefreshPolicy":0,"stackPeriodResetPolicy":1,"stackExpirationPolicy":0,"stackOverflowPolicy":0,"ongoingRequiredTags":{"_tags":[]},"cancelOnAbilityEnd":false,"buffId":0}</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
@@ -1275,11 +1275,11 @@
       <c r="C18"/>
       <c r="D18"/>
       <c r="E18">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>{"guid":"cb1df36f-5729-423e-9d1a-287db5a433f0","nodeType":11,"position":{"x":-160.8000030517578,"y":-1761.5999755859375},"targetType":0,"assetTags":{"_tags":[{"_name":"Buff.DeBuff.Dot","_hashCode":-637848644,"_shortName":"Dot","_ancestorHashCodes":[937056111,321157895],"_ancestorNames":["Buff","Buff.DeBuff"]}]},"grantedTags":{"_tags":[]},"applicationRequiredTags":{"_tags":[]},"applicationImmunityTags":{"_tags":[]},"removeGameEffectsWithTags":{"_tags":[]},"durationType":1,"duration":"10","isPeriodic":true,"period":"1","executeOnApplication":false,"attributeModifiers":[],"stackType":1,"stackLimit":3,"stackDurationRefreshPolicy":0,"stackPeriodResetPolicy":1,"stackExpirationPolicy":0,"stackOverflowPolicy":0,"ongoingRequiredTags":{"_tags":[]},"cancelOnAbilityEnd":false,"buffId":0}</t>
+          <t>{"guid":"e33ab94c-1496-4d6a-ba5e-1afd38bb0c30","nodeType":4,"position":{"x":-452.0,"y":-1786.4000244140625},"targetType":1,"searchShapeType":1,"searchLineType":0,"positionSource":0,"positionBindingName":"center","searchCircleRadius":5.0,"searchSectorRadius":2.0,"searchSectorAngle":180.0,"searchLineDirectionOffsetAngle":0.0,"searchLineDirectionWidth":1.0,"searchLineDirectionLength":10.0,"lineStartPositionSource":0,"lineStartBindingName":"","lineEndPositionSource":1,"lineEndBindingName":"","searchLineBetweenWidth":1.0,"searchLineAbsoluteAngle":0.0,"searchLineAbsoluteWidth":1.0,"searchLineAbsoluteLength":10.0,"maxTargets":999,"searchTargetTags":{"_tags":[{"_name":"unitType.monster","_hashCode":-2021655864,"_shortName":"monster","_ancestorHashCodes":[1600484460],"_ancestorNames":["unitType"]}]},"searchExcludeTags":{"_tags":[]}}</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
@@ -1295,11 +1295,11 @@
       <c r="C19"/>
       <c r="D19"/>
       <c r="E19">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>{"guid":"e33ab94c-1496-4d6a-ba5e-1afd38bb0c30","nodeType":4,"position":{"x":-452.0,"y":-1786.4000244140625},"targetType":1,"searchShapeType":1,"searchLineType":0,"positionSource":0,"positionBindingName":"center","searchCircleRadius":5.0,"searchSectorRadius":2.0,"searchSectorAngle":180.0,"searchLineDirectionOffsetAngle":0.0,"searchLineDirectionWidth":1.0,"searchLineDirectionLength":10.0,"lineStartPositionSource":0,"lineStartBindingName":"","lineEndPositionSource":1,"lineEndBindingName":"","searchLineBetweenWidth":1.0,"searchLineAbsoluteAngle":0.0,"searchLineAbsoluteWidth":1.0,"searchLineAbsoluteLength":10.0,"maxTargets":999,"searchTargetTags":{"_tags":[{"_name":"unitType.monster","_hashCode":-2021655864,"_shortName":"monster","_ancestorHashCodes":[1600484460],"_ancestorNames":["unitType"]}]},"searchExcludeTags":{"_tags":[]}}</t>
+          <t>{"guid":"432ff1e3-b18d-476d-af80-d39ddc07402a","nodeType":20,"position":{"x":-472.0,"y":-2380.800048828125},"targetType":1,"skeletonDataAsset":{"instanceID":45056},"animationName":"Attack_02","animationDuration":"22","isAnimationLooping":false,"timeEffects":[{"triggerTime":7,"portId":"de0ba361-3aba-4ef0-bb07-9b418fcae591"},{"triggerTime":22,"portId":"97dc121c-84b7-4f94-9997-02e0e5b2ea6c"}],"timeCues":[{"startTime":7,"endTime":48,"portId":"8dea1941-c520-4f9a-aee0-40932c8542ef"}]}</t>
         </is>
       </c>
       <c r="G19"/>
@@ -1421,7 +1421,7 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>{"guid":"432ff1e3-b18d-476d-af80-d39ddc07402a","nodeType":20,"position":{"x":-491.33331298828127,"y":-2478.66650390625},"targetType":1,"skeletonDataAsset":{"instanceID":45190},"animationName":"Attack","animationDuration":"24","isAnimationLooping":false,"timeEffects":[{"triggerTime":11,"portId":"de0ba361-3aba-4ef0-bb07-9b418fcae591"},{"triggerTime":24,"portId":"7ecf9fe6-7c5e-46ae-bade-7922214225e2"}],"timeCues":[]}</t>
+          <t>{"guid":"432ff1e3-b18d-476d-af80-d39ddc07402a","nodeType":20,"position":{"x":-491.33331298828127,"y":-2478.66650390625},"targetType":1,"skeletonDataAsset":{"instanceID":45200},"animationName":"Attack","animationDuration":"24","isAnimationLooping":false,"timeEffects":[{"triggerTime":11,"portId":"de0ba361-3aba-4ef0-bb07-9b418fcae591"},{"triggerTime":24,"portId":"7ecf9fe6-7c5e-46ae-bade-7922214225e2"}],"timeCues":[]}</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
@@ -1437,11 +1437,11 @@
       <c r="C26"/>
       <c r="D26"/>
       <c r="E26">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>{"guid":"356907e0-1488-4128-bfcc-7ff73cfc3330","nodeType":0,"position":{"x":-878.6666259765625,"y":-1853.3333740234375},"targetType":1,"skillId":1004,"assetTags":{"_tags":[]},"cancelAbilitiesWithTags":{"_tags":[]},"blockAbilitiesWithTags":{"_tags":[]},"activationOwnedTags":{"_tags":[]},"activationRequiredTags":{"_tags":[]},"activationBlockedTags":{"_tags":[{"_name":"CD.Wind","_hashCode":1982736573,"_shortName":"Wind","_ancestorHashCodes":[-1137859925],"_ancestorNames":["CD"]}]},"ongoingBlockedTags":{"_tags":[{"_name":"Buff.DeBuff.Stun","_hashCode":1791562953,"_shortName":"Stun","_ancestorHashCodes":[937056111,321157895],"_ancestorNames":["Buff","Buff.DeBuff"]}]},"eventOutputPorts":[]}</t>
+          <t>{"guid":"90bacd9f-d882-4bba-aaa8-41ed993ac3ff","nodeType":8,"position":{"x":-401.33331298828127,"y":-1826.666748046875},"targetType":2,"assetTags":{"_tags":[]},"grantedTags":{"_tags":[]},"applicationRequiredTags":{"_tags":[]},"applicationImmunityTags":{"_tags":[]},"removeGameEffectsWithTags":{"_tags":[]},"durationType":2,"duration":"0","isPeriodic":false,"period":"1","executeOnApplication":false,"attributeModifiers":[],"stackType":0,"stackLimit":0,"stackDurationRefreshPolicy":0,"stackPeriodResetPolicy":0,"stackExpirationPolicy":0,"stackOverflowPolicy":0,"ongoingRequiredTags":{"_tags":[]},"cancelOnAbilityEnd":false,"launchPositionSource":0,"launchBindingName":"center","targetPositionSource":1,"targetBindingName":"center","projectileTargetType":0,"flyOver":false,"offsetAngle":0.0,"curveHeight":0.0,"projectilePrefab":{"instanceID":45996},"speed":3.0,"maxDistance":10.0,"collisionRadius":0.5,"isPiercing":false,"maxPierceCount":1,"collisionTargetTags":{"_tags":[]},"collisionExcludeTags":{"_tags":[]}}</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
@@ -1457,11 +1457,11 @@
       <c r="C27"/>
       <c r="D27"/>
       <c r="E27">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>{"guid":"90bacd9f-d882-4bba-aaa8-41ed993ac3ff","nodeType":8,"position":{"x":-401.33331298828127,"y":-1826.666748046875},"targetType":2,"assetTags":{"_tags":[]},"grantedTags":{"_tags":[]},"applicationRequiredTags":{"_tags":[]},"applicationImmunityTags":{"_tags":[]},"removeGameEffectsWithTags":{"_tags":[]},"durationType":2,"duration":"0","isPeriodic":false,"period":"1","executeOnApplication":false,"attributeModifiers":[],"stackType":0,"stackLimit":0,"stackDurationRefreshPolicy":0,"stackPeriodResetPolicy":0,"stackExpirationPolicy":0,"stackOverflowPolicy":0,"ongoingRequiredTags":{"_tags":[]},"cancelOnAbilityEnd":false,"launchPositionSource":0,"launchBindingName":"center","targetPositionSource":1,"targetBindingName":"center","projectileTargetType":0,"flyOver":false,"offsetAngle":0.0,"curveHeight":0.0,"projectilePrefab":{"instanceID":46064},"speed":3.0,"maxDistance":10.0,"collisionRadius":0.5,"isPiercing":false,"maxPierceCount":1,"collisionTargetTags":{"_tags":[]},"collisionExcludeTags":{"_tags":[]}}</t>
+          <t>{"guid":"356907e0-1488-4128-bfcc-7ff73cfc3330","nodeType":0,"position":{"x":-878.6666259765625,"y":-1853.3333740234375},"targetType":1,"skillId":1004,"assetTags":{"_tags":[]},"cancelAbilitiesWithTags":{"_tags":[]},"blockAbilitiesWithTags":{"_tags":[]},"activationOwnedTags":{"_tags":[]},"activationRequiredTags":{"_tags":[]},"activationBlockedTags":{"_tags":[{"_name":"CD.Wind","_hashCode":1982736573,"_shortName":"Wind","_ancestorHashCodes":[-1137859925],"_ancestorNames":["CD"]}]},"ongoingBlockedTags":{"_tags":[{"_name":"Buff.DeBuff.Stun","_hashCode":1791562953,"_shortName":"Stun","_ancestorHashCodes":[937056111,321157895],"_ancestorNames":["Buff","Buff.DeBuff"]}]},"eventOutputPorts":[]}</t>
         </is>
       </c>
       <c r="G27"/>
@@ -1483,7 +1483,7 @@
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>{"guid":"9d6f459d-b588-4b64-843b-1b71e8f299ae","nodeType":3,"position":{"x":-1186.4000244140625,"y":-2011.199951171875},"targetType":1,"assetTags":{"_tags":[]},"grantedTags":{"_tags":[]},"applicationRequiredTags":{"_tags":[]},"applicationImmunityTags":{"_tags":[]},"removeGameEffectsWithTags":{"_tags":[]},"durationType":0,"duration":"0","isPeriodic":false,"period":"1","executeOnApplication":false,"attributeModifiers":[{"attrType":100,"operation":0,"magnitudeSourceType":0,"fixedValue":10.0,"formula":"","mmcType":0,"setByCallerKey":"","mmcCaptureAttribute":200,"mmcAttributeSource":0,"mmcCoefficient":1.0,"mmcUseSnapshot":true}],"stackType":0,"stackLimit":0,"stackDurationRefreshPolicy":0,"stackPeriodResetPolicy":0,"stackExpirationPolicy":0,"stackOverflowPolicy":0,"ongoingRequiredTags":{"_tags":[]},"cancelOnAbilityEnd":true}</t>
+          <t>{"guid":"9d6f459d-b588-4b64-843b-1b71e8f299ae","nodeType":3,"position":{"x":-1186.6666259765625,"y":-2011.3333740234375},"targetType":1,"assetTags":{"_tags":[]},"grantedTags":{"_tags":[]},"applicationRequiredTags":{"_tags":[]},"applicationImmunityTags":{"_tags":[]},"removeGameEffectsWithTags":{"_tags":[]},"durationType":0,"duration":"0","isPeriodic":false,"period":"1","executeOnApplication":false,"attributeModifiers":[{"attrType":100,"operation":0,"magnitudeSourceType":0,"fixedValue":10.0,"formula":"","mmcType":0,"setByCallerKey":"","mmcCaptureAttribute":200,"mmcAttributeSource":0,"mmcCoefficient":1.0,"mmcUseSnapshot":true}],"stackType":0,"stackLimit":0,"stackDurationRefreshPolicy":0,"stackPeriodResetPolicy":0,"stackExpirationPolicy":0,"stackOverflowPolicy":0,"ongoingRequiredTags":{"_tags":[]},"cancelOnAbilityEnd":true}</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
@@ -1503,7 +1503,7 @@
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>{"guid":"f73ba91e-a76b-456c-b19c-a5176809d5f5","nodeType":7,"position":{"x":700.0,"y":-1856.800048828125},"targetType":1,"endType":0}</t>
+          <t>{"guid":"f73ba91e-a76b-456c-b19c-a5176809d5f5","nodeType":7,"position":{"x":700.0,"y":-1856.666748046875},"targetType":1,"endType":0}</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
@@ -1519,11 +1519,11 @@
       <c r="C30"/>
       <c r="D30"/>
       <c r="E30">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>{"guid":"432ff1e3-b18d-476d-af80-d39ddc07402a","nodeType":20,"position":{"x":-502.3999938964844,"y":-2384.0},"targetType":1,"skeletonDataAsset":{"instanceID":45010},"animationName":"Skill_attack_1009","animationDuration":"25","isAnimationLooping":false,"timeEffects":[{"triggerTime":4,"portId":"de0ba361-3aba-4ef0-bb07-9b418fcae591"},{"triggerTime":25,"portId":"f41c85e0-7f26-494e-9ffc-4a06c980f811"}],"timeCues":[{"startTime":0,"endTime":75,"portId":"8dea1941-c520-4f9a-aee0-40932c8542ef"}]}</t>
+          <t>{"guid":"cde57fb8-b693-4da8-a4a8-fd61e56c5dcd","nodeType":12,"position":{"x":677.3333740234375,"y":-1998.666748046875},"targetType":1,"requiredTags":{"_tags":[]},"immunityTags":{"_tags":[]},"destroyWithNode":false,"positionSource":0,"particlePrefab":{"instanceID":46092},"particleBindingName":"down","particleOffset":{"x":0.0,"y":0.0,"z":0.0},"particleScale":{"x":1.0,"y":1.0,"z":1.0},"attachToTarget":false,"particleLoop":false}</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
@@ -1539,11 +1539,11 @@
       <c r="C31"/>
       <c r="D31"/>
       <c r="E31">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>{"guid":"cde57fb8-b693-4da8-a4a8-fd61e56c5dcd","nodeType":12,"position":{"x":677.5999755859375,"y":-1998.4000244140625},"targetType":1,"requiredTags":{"_tags":[]},"immunityTags":{"_tags":[]},"destroyWithNode":false,"positionSource":0,"particlePrefab":{"instanceID":46160},"particleBindingName":"down","particleOffset":{"x":0.0,"y":0.0,"z":0.0},"particleScale":{"x":1.0,"y":1.0,"z":1.0},"attachToTarget":false,"particleLoop":false}</t>
+          <t>{"guid":"356907e0-1488-4128-bfcc-7ff73cfc3330","nodeType":0,"position":{"x":-878.6666259765625,"y":-1853.3333740234375},"targetType":1,"skillId":1005,"assetTags":{"_tags":[]},"cancelAbilitiesWithTags":{"_tags":[]},"blockAbilitiesWithTags":{"_tags":[]},"activationOwnedTags":{"_tags":[]},"activationRequiredTags":{"_tags":[]},"activationBlockedTags":{"_tags":[{"_name":"CD.RecBlood","_hashCode":1043024739,"_shortName":"RecBlood","_ancestorHashCodes":[-1137859925],"_ancestorNames":["CD"]}]},"ongoingBlockedTags":{"_tags":[]},"eventOutputPorts":[]}</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
@@ -1559,11 +1559,11 @@
       <c r="C32"/>
       <c r="D32"/>
       <c r="E32">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>{"guid":"356907e0-1488-4128-bfcc-7ff73cfc3330","nodeType":0,"position":{"x":-878.4000244140625,"y":-1853.5999755859375},"targetType":1,"skillId":1006,"assetTags":{"_tags":[]},"cancelAbilitiesWithTags":{"_tags":[]},"blockAbilitiesWithTags":{"_tags":[]},"activationOwnedTags":{"_tags":[]},"activationRequiredTags":{"_tags":[]},"activationBlockedTags":{"_tags":[{"_name":"CD.RecBlood","_hashCode":1163914435,"_shortName":"回血","_ancestorHashCodes":[-1137859925],"_ancestorNames":["CD"]}]},"ongoingBlockedTags":{"_tags":[]},"eventOutputPorts":[]}</t>
+          <t>{"guid":"c28fb88d-51b1-47b2-be59-859e0ac638e3","nodeType":10,"position":{"x":-1186.6666259765625,"y":-1747.3333740234375},"targetType":1,"assetTags":{"_tags":[]},"grantedTags":{"_tags":[{"_name":"CD.神罗天正","_hashCode":810112138,"_shortName":"神罗天正","_ancestorHashCodes":[-1137859925],"_ancestorNames":["CD"]}]},"applicationRequiredTags":{"_tags":[]},"applicationImmunityTags":{"_tags":[]},"removeGameEffectsWithTags":{"_tags":[]},"durationType":1,"duration":"5","isPeriodic":false,"period":"1","executeOnApplication":false,"attributeModifiers":[],"stackType":0,"stackLimit":0,"stackDurationRefreshPolicy":0,"stackPeriodResetPolicy":0,"stackExpirationPolicy":0,"stackOverflowPolicy":0,"ongoingRequiredTags":{"_tags":[]},"cancelOnAbilityEnd":false,"cooldownType":0,"maxCharges":2,"chargeTime":"10"}</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
@@ -1579,11 +1579,11 @@
       <c r="C33"/>
       <c r="D33"/>
       <c r="E33">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>{"guid":"c28fb88d-51b1-47b2-be59-859e0ac638e3","nodeType":10,"position":{"x":-1186.4000244140625,"y":-1747.199951171875},"targetType":1,"assetTags":{"_tags":[]},"grantedTags":{"_tags":[{"_name":"CD.God","_hashCode":810112138,"_shortName":"神罗天正","_ancestorHashCodes":[-1137859925],"_ancestorNames":["CD"]}]},"applicationRequiredTags":{"_tags":[]},"applicationImmunityTags":{"_tags":[]},"removeGameEffectsWithTags":{"_tags":[]},"durationType":1,"duration":"5","isPeriodic":false,"period":"1","executeOnApplication":false,"attributeModifiers":[],"stackType":0,"stackLimit":0,"stackDurationRefreshPolicy":0,"stackPeriodResetPolicy":0,"stackExpirationPolicy":0,"stackOverflowPolicy":0,"ongoingRequiredTags":{"_tags":[]},"cancelOnAbilityEnd":false,"cooldownType":0,"maxCharges":2,"chargeTime":"10"}</t>
+          <t>{"guid":"091ecddb-f80b-4c00-aa06-f9bc718618d2","nodeType":22,"position":{"x":-93.33332824707031,"y":-1708.666748046875},"targetType":0,"assetTags":{"_tags":[]},"grantedTags":{"_tags":[]},"applicationRequiredTags":{"_tags":[]},"applicationImmunityTags":{"_tags":[]},"removeGameEffectsWithTags":{"_tags":[]},"durationType":1,"duration":"0.5","isPeriodic":false,"period":"1","executeOnApplication":false,"attributeModifiers":[],"stackType":0,"stackLimit":0,"stackDurationRefreshPolicy":0,"stackPeriodResetPolicy":0,"stackExpirationPolicy":0,"stackOverflowPolicy":0,"ongoingRequiredTags":{"_tags":[]},"cancelOnAbilityEnd":false,"displaceType":1,"speed":10.0,"distance":3.0,"minDistance":0.5,"pointSource":0,"pointBindingName":""}</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
@@ -1599,11 +1599,11 @@
       <c r="C34"/>
       <c r="D34"/>
       <c r="E34">
-        <v>22</v>
+        <v>4</v>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>{"guid":"091ecddb-f80b-4c00-aa06-f9bc718618d2","nodeType":22,"position":{"x":-93.60000610351563,"y":-1708.800048828125},"targetType":0,"assetTags":{"_tags":[]},"grantedTags":{"_tags":[]},"applicationRequiredTags":{"_tags":[]},"applicationImmunityTags":{"_tags":[]},"removeGameEffectsWithTags":{"_tags":[]},"durationType":1,"duration":"0.5","isPeriodic":false,"period":"1","executeOnApplication":false,"attributeModifiers":[],"stackType":0,"stackLimit":0,"stackDurationRefreshPolicy":0,"stackPeriodResetPolicy":0,"stackExpirationPolicy":0,"stackOverflowPolicy":0,"ongoingRequiredTags":{"_tags":[]},"cancelOnAbilityEnd":false,"displaceType":1,"speed":10.0,"distance":3.0,"minDistance":0.5,"pointSource":0,"pointBindingName":""}</t>
+          <t>{"guid":"e33ab94c-1496-4d6a-ba5e-1afd38bb0c30","nodeType":4,"position":{"x":-452.0,"y":-1786.666748046875},"targetType":1,"searchShapeType":0,"searchLineType":0,"positionSource":0,"positionBindingName":"center","searchCircleRadius":4.0,"searchSectorRadius":2.0,"searchSectorAngle":180.0,"searchLineDirectionOffsetAngle":0.0,"searchLineDirectionWidth":1.0,"searchLineDirectionLength":10.0,"lineStartPositionSource":0,"lineStartBindingName":"","lineEndPositionSource":1,"lineEndBindingName":"","searchLineBetweenWidth":1.0,"searchLineAbsoluteAngle":0.0,"searchLineAbsoluteWidth":1.0,"searchLineAbsoluteLength":10.0,"maxTargets":999,"searchTargetTags":{"_tags":[{"_name":"unitType.monster","_hashCode":-2021655864,"_shortName":"monster","_ancestorHashCodes":[1600484460],"_ancestorNames":["unitType"]}]},"searchExcludeTags":{"_tags":[]}}</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
@@ -1619,11 +1619,11 @@
       <c r="C35"/>
       <c r="D35"/>
       <c r="E35">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>{"guid":"e33ab94c-1496-4d6a-ba5e-1afd38bb0c30","nodeType":4,"position":{"x":-452.0,"y":-1786.4000244140625},"targetType":1,"searchShapeType":0,"searchLineType":0,"positionSource":0,"positionBindingName":"center","searchCircleRadius":4.0,"searchSectorRadius":2.0,"searchSectorAngle":180.0,"searchLineDirectionOffsetAngle":0.0,"searchLineDirectionWidth":1.0,"searchLineDirectionLength":10.0,"lineStartPositionSource":0,"lineStartBindingName":"","lineEndPositionSource":1,"lineEndBindingName":"","searchLineBetweenWidth":1.0,"searchLineAbsoluteAngle":0.0,"searchLineAbsoluteWidth":1.0,"searchLineAbsoluteLength":10.0,"maxTargets":999,"searchTargetTags":{"_tags":[{"_name":"unitType.monster","_hashCode":-2021655864,"_shortName":"monster","_ancestorHashCodes":[1600484460],"_ancestorNames":["unitType"]}]},"searchExcludeTags":{"_tags":[]}}</t>
+          <t>{"guid":"432ff1e3-b18d-476d-af80-d39ddc07402a","nodeType":20,"position":{"x":-646.0,"y":-2456.0},"targetType":1,"skeletonDataAsset":{"instanceID":45056},"animationName":"Skill_attack_1009","animationDuration":"25","isAnimationLooping":false,"timeEffects":[{"triggerTime":4,"portId":"de0ba361-3aba-4ef0-bb07-9b418fcae591"},{"triggerTime":25,"portId":"f41c85e0-7f26-494e-9ffc-4a06c980f811"}],"timeCues":[{"startTime":0,"endTime":75,"portId":"8dea1941-c520-4f9a-aee0-40932c8542ef"}]}</t>
         </is>
       </c>
       <c r="G35"/>
@@ -1725,7 +1725,7 @@
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>{"guid":"356907e0-1488-4128-bfcc-7ff73cfc3330","nodeType":0,"position":{"x":-902.4000244140625,"y":-1844.0},"targetType":1,"skillId":1008,"assetTags":{"_tags":[]},"cancelAbilitiesWithTags":{"_tags":[]},"blockAbilitiesWithTags":{"_tags":[]},"activationOwnedTags":{"_tags":[]},"activationRequiredTags":{"_tags":[]},"activationBlockedTags":{"_tags":[{"_name":"CD.RecBlood","_hashCode":1163914435,"_shortName":"回血","_ancestorHashCodes":[-1137859925],"_ancestorNames":["CD"]}]},"ongoingBlockedTags":{"_tags":[]},"eventOutputPorts":[]}</t>
+          <t>{"guid":"356907e0-1488-4128-bfcc-7ff73cfc3330","nodeType":0,"position":{"x":-902.4000244140625,"y":-1844.0},"targetType":1,"skillId":1007,"assetTags":{"_tags":[]},"cancelAbilitiesWithTags":{"_tags":[]},"blockAbilitiesWithTags":{"_tags":[]},"activationOwnedTags":{"_tags":[]},"activationRequiredTags":{"_tags":[]},"activationBlockedTags":{"_tags":[{"_name":"CD.RecBlood","_hashCode":1163914435,"_shortName":"回血","_ancestorHashCodes":[-1137859925],"_ancestorNames":["CD"]}]},"ongoingBlockedTags":{"_tags":[]},"eventOutputPorts":[]}</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
@@ -1745,7 +1745,7 @@
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>{"guid":"cde57fb8-b693-4da8-a4a8-fd61e56c5dcd","nodeType":12,"position":{"x":-304.0,"y":-2072.0},"targetType":1,"requiredTags":{"_tags":[]},"immunityTags":{"_tags":[]},"destroyWithNode":false,"positionSource":0,"particlePrefab":{"instanceID":45978},"particleBindingName":"down","particleOffset":{"x":0.0,"y":0.0,"z":0.0},"particleScale":{"x":1.0,"y":1.0,"z":1.0},"attachToTarget":false,"particleLoop":false}</t>
+          <t>{"guid":"cde57fb8-b693-4da8-a4a8-fd61e56c5dcd","nodeType":12,"position":{"x":-304.0,"y":-2072.0},"targetType":1,"requiredTags":{"_tags":[]},"immunityTags":{"_tags":[]},"destroyWithNode":false,"positionSource":0,"particlePrefab":{"instanceID":45910},"particleBindingName":"down","particleOffset":{"x":0.0,"y":0.0,"z":0.0},"particleScale":{"x":1.0,"y":1.0,"z":1.0},"attachToTarget":false,"particleLoop":false}</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
@@ -1783,11 +1783,11 @@
       </c>
       <c r="D43"/>
       <c r="E43">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>{"guid":"e33ab94c-1496-4d6a-ba5e-1afd38bb0c30","nodeType":4,"position":{"x":-452.0,"y":-1786.4000244140625},"targetType":1,"searchShapeType":0,"searchLineType":0,"positionSource":0,"positionBindingName":"center","searchCircleRadius":2.5,"searchSectorRadius":2.0,"searchSectorAngle":180.0,"searchLineDirectionOffsetAngle":0.0,"searchLineDirectionWidth":1.0,"searchLineDirectionLength":10.0,"lineStartPositionSource":0,"lineStartBindingName":"","lineEndPositionSource":1,"lineEndBindingName":"","searchLineBetweenWidth":1.0,"searchLineAbsoluteAngle":0.0,"searchLineAbsoluteWidth":1.0,"searchLineAbsoluteLength":10.0,"maxTargets":999,"searchTargetTags":{"_tags":[{"_name":"unitType.monster","_hashCode":-2021655864,"_shortName":"monster","_ancestorHashCodes":[1600484460],"_ancestorNames":["unitType"]}]},"searchExcludeTags":{"_tags":[]}}</t>
+          <t>{"guid":"9d6f459d-b588-4b64-843b-1b71e8f299ae","nodeType":3,"position":{"x":-1186.4000244140625,"y":-2011.199951171875},"targetType":1,"assetTags":{"_tags":[]},"grantedTags":{"_tags":[]},"applicationRequiredTags":{"_tags":[]},"applicationImmunityTags":{"_tags":[]},"removeGameEffectsWithTags":{"_tags":[]},"durationType":0,"duration":"0","isPeriodic":false,"period":"1","executeOnApplication":false,"attributeModifiers":[{"attrType":100,"operation":0,"magnitudeSourceType":0,"fixedValue":10.0,"formula":"","mmcType":0,"setByCallerKey":"","mmcCaptureAttribute":200,"mmcAttributeSource":0,"mmcCoefficient":1.0,"mmcUseSnapshot":true}],"stackType":0,"stackLimit":0,"stackDurationRefreshPolicy":0,"stackPeriodResetPolicy":0,"stackExpirationPolicy":0,"stackOverflowPolicy":0,"ongoingRequiredTags":{"_tags":[]},"cancelOnAbilityEnd":true}</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
@@ -1803,11 +1803,11 @@
       <c r="C44"/>
       <c r="D44"/>
       <c r="E44">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>{"guid":"9d6f459d-b588-4b64-843b-1b71e8f299ae","nodeType":3,"position":{"x":-1186.4000244140625,"y":-2011.199951171875},"targetType":1,"assetTags":{"_tags":[]},"grantedTags":{"_tags":[]},"applicationRequiredTags":{"_tags":[]},"applicationImmunityTags":{"_tags":[]},"removeGameEffectsWithTags":{"_tags":[]},"durationType":0,"duration":"0","isPeriodic":false,"period":"1","executeOnApplication":false,"attributeModifiers":[{"attrType":100,"operation":0,"magnitudeSourceType":0,"fixedValue":10.0,"formula":"","mmcType":0,"setByCallerKey":"","mmcCaptureAttribute":200,"mmcAttributeSource":0,"mmcCoefficient":1.0,"mmcUseSnapshot":true}],"stackType":0,"stackLimit":0,"stackDurationRefreshPolicy":0,"stackPeriodResetPolicy":0,"stackExpirationPolicy":0,"stackOverflowPolicy":0,"ongoingRequiredTags":{"_tags":[]},"cancelOnAbilityEnd":true}</t>
+          <t>{"guid":"c28fb88d-51b1-47b2-be59-859e0ac638e3","nodeType":10,"position":{"x":-1186.4000244140625,"y":-1747.199951171875},"targetType":1,"assetTags":{"_tags":[]},"grantedTags":{"_tags":[{"_name":"CD.践踏","_hashCode":-1394424629,"_shortName":"践踏","_ancestorHashCodes":[-1137859925],"_ancestorNames":["CD"]}]},"applicationRequiredTags":{"_tags":[]},"applicationImmunityTags":{"_tags":[]},"removeGameEffectsWithTags":{"_tags":[]},"durationType":1,"duration":"5","isPeriodic":false,"period":"1","executeOnApplication":false,"attributeModifiers":[],"stackType":0,"stackLimit":0,"stackDurationRefreshPolicy":0,"stackPeriodResetPolicy":0,"stackExpirationPolicy":0,"stackOverflowPolicy":0,"ongoingRequiredTags":{"_tags":[]},"cancelOnAbilityEnd":false,"cooldownType":0,"maxCharges":2,"chargeTime":"10"}</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
@@ -1823,11 +1823,11 @@
       <c r="C45"/>
       <c r="D45"/>
       <c r="E45">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>{"guid":"c28fb88d-51b1-47b2-be59-859e0ac638e3","nodeType":10,"position":{"x":-1186.4000244140625,"y":-1747.199951171875},"targetType":1,"assetTags":{"_tags":[]},"grantedTags":{"_tags":[{"_name":"CD.Wind","_hashCode":-1394424629,"_shortName":"践踏","_ancestorHashCodes":[-1137859925],"_ancestorNames":["CD"]}]},"applicationRequiredTags":{"_tags":[]},"applicationImmunityTags":{"_tags":[]},"removeGameEffectsWithTags":{"_tags":[]},"durationType":1,"duration":"5","isPeriodic":false,"period":"1","executeOnApplication":false,"attributeModifiers":[],"stackType":0,"stackLimit":0,"stackDurationRefreshPolicy":0,"stackPeriodResetPolicy":0,"stackExpirationPolicy":0,"stackOverflowPolicy":0,"ongoingRequiredTags":{"_tags":[]},"cancelOnAbilityEnd":false,"cooldownType":0,"maxCharges":2,"chargeTime":"10"}</t>
+          <t>{"guid":"356907e0-1488-4128-bfcc-7ff73cfc3330","nodeType":0,"position":{"x":-878.4000244140625,"y":-1853.5999755859375},"targetType":1,"skillId":1003,"assetTags":{"_tags":[]},"cancelAbilitiesWithTags":{"_tags":[]},"blockAbilitiesWithTags":{"_tags":[]},"activationOwnedTags":{"_tags":[]},"activationRequiredTags":{"_tags":[]},"activationBlockedTags":{"_tags":[{"_name":"CD.RuFood","_hashCode":-1045902856,"_shortName":"RuFood","_ancestorHashCodes":[-1137859925],"_ancestorNames":["CD"]}]},"ongoingBlockedTags":{"_tags":[]},"eventOutputPorts":[]}</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
@@ -1843,11 +1843,11 @@
       <c r="C46"/>
       <c r="D46"/>
       <c r="E46">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>{"guid":"356907e0-1488-4128-bfcc-7ff73cfc3330","nodeType":0,"position":{"x":-878.4000244140625,"y":-1853.5999755859375},"targetType":1,"skillId":1003,"assetTags":{"_tags":[]},"cancelAbilitiesWithTags":{"_tags":[]},"blockAbilitiesWithTags":{"_tags":[]},"activationOwnedTags":{"_tags":[]},"activationRequiredTags":{"_tags":[]},"activationBlockedTags":{"_tags":[{"_name":"CD.Wind","_hashCode":-1394424629,"_shortName":"践踏","_ancestorHashCodes":[-1137859925],"_ancestorNames":["CD"]}]},"ongoingBlockedTags":{"_tags":[]},"eventOutputPorts":[]}</t>
+          <t>{"guid":"cde57fb8-b693-4da8-a4a8-fd61e56c5dcd","nodeType":12,"position":{"x":677.5999755859375,"y":-1998.4000244140625},"targetType":1,"requiredTags":{"_tags":[]},"immunityTags":{"_tags":[]},"destroyWithNode":false,"positionSource":0,"particlePrefab":{"instanceID":46054},"particleBindingName":"down","particleOffset":{"x":0.0,"y":0.0,"z":0.0},"particleScale":{"x":1.0,"y":1.0,"z":1.0},"attachToTarget":false,"particleLoop":false}</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
@@ -1863,11 +1863,11 @@
       <c r="C47"/>
       <c r="D47"/>
       <c r="E47">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>{"guid":"cde57fb8-b693-4da8-a4a8-fd61e56c5dcd","nodeType":12,"position":{"x":677.5999755859375,"y":-1998.4000244140625},"targetType":1,"requiredTags":{"_tags":[]},"immunityTags":{"_tags":[]},"destroyWithNode":false,"positionSource":0,"particlePrefab":{"instanceID":46122},"particleBindingName":"down","particleOffset":{"x":0.0,"y":0.0,"z":0.0},"particleScale":{"x":1.0,"y":1.0,"z":1.0},"attachToTarget":false,"particleLoop":false}</t>
+          <t>{"guid":"f73ba91e-a76b-456c-b19c-a5176809d5f5","nodeType":7,"position":{"x":700.0,"y":-1856.800048828125},"targetType":1,"endType":0}</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
@@ -1883,11 +1883,11 @@
       <c r="C48"/>
       <c r="D48"/>
       <c r="E48">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>{"guid":"432ff1e3-b18d-476d-af80-d39ddc07402a","nodeType":20,"position":{"x":-452.0,"y":-2375.199951171875},"targetType":1,"skeletonDataAsset":{"instanceID":45010},"animationName":"Skill_attack_1005","animationDuration":"16","isAnimationLooping":false,"timeEffects":[{"triggerTime":7,"portId":"de0ba361-3aba-4ef0-bb07-9b418fcae591"},{"triggerTime":16,"portId":"f41c85e0-7f26-494e-9ffc-4a06c980f811"}],"timeCues":[{"startTime":6,"endTime":55,"portId":"8dea1941-c520-4f9a-aee0-40932c8542ef"}]}</t>
+          <t>{"guid":"93ec5a43-cc34-4e4a-acb3-39da2f2c3010","nodeType":12,"position":{"x":468.79998779296877,"y":-1749.5999755859375},"targetType":1,"requiredTags":{"_tags":[]},"immunityTags":{"_tags":[]},"destroyWithNode":true,"positionSource":2,"particlePrefab":{"instanceID":46182},"particleBindingName":"head","particleOffset":{"x":0.0,"y":0.0,"z":0.0},"particleScale":{"x":1.0,"y":1.0,"z":1.0},"attachToTarget":true,"particleLoop":true}</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
@@ -1903,11 +1903,11 @@
       <c r="C49"/>
       <c r="D49"/>
       <c r="E49">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>{"guid":"f73ba91e-a76b-456c-b19c-a5176809d5f5","nodeType":7,"position":{"x":700.0,"y":-1856.800048828125},"targetType":1,"endType":0}</t>
+          <t>{"guid":"cb1df36f-5729-423e-9d1a-287db5a433f0","nodeType":11,"position":{"x":18.399993896484376,"y":-1786.4000244140625},"targetType":0,"assetTags":{"_tags":[{"_name":"Buff.DeBuff.Stun","_hashCode":1791562953,"_shortName":"Stun","_ancestorHashCodes":[937056111,321157895],"_ancestorNames":["Buff","Buff.DeBuff"]}]},"grantedTags":{"_tags":[{"_name":"Buff.DeBuff.Stun","_hashCode":1791562953,"_shortName":"Stun","_ancestorHashCodes":[937056111,321157895],"_ancestorNames":["Buff","Buff.DeBuff"]}]},"applicationRequiredTags":{"_tags":[]},"applicationImmunityTags":{"_tags":[]},"removeGameEffectsWithTags":{"_tags":[]},"durationType":1,"duration":"4","isPeriodic":false,"period":"1","executeOnApplication":false,"attributeModifiers":[],"stackType":1,"stackLimit":1,"stackDurationRefreshPolicy":0,"stackPeriodResetPolicy":1,"stackExpirationPolicy":0,"stackOverflowPolicy":0,"ongoingRequiredTags":{"_tags":[]},"cancelOnAbilityEnd":false,"buffId":0}</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
@@ -1923,11 +1923,11 @@
       <c r="C50"/>
       <c r="D50"/>
       <c r="E50">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>{"guid":"cb1df36f-5729-423e-9d1a-287db5a433f0","nodeType":11,"position":{"x":18.399993896484376,"y":-1786.4000244140625},"targetType":0,"assetTags":{"_tags":[{"_name":"Buff.DeBuff.Stun","_hashCode":1791562953,"_shortName":"Stun","_ancestorHashCodes":[937056111,321157895],"_ancestorNames":["Buff","Buff.DeBuff"]}]},"grantedTags":{"_tags":[{"_name":"Buff.DeBuff.Stun","_hashCode":1791562953,"_shortName":"Stun","_ancestorHashCodes":[937056111,321157895],"_ancestorNames":["Buff","Buff.DeBuff"]}]},"applicationRequiredTags":{"_tags":[]},"applicationImmunityTags":{"_tags":[]},"removeGameEffectsWithTags":{"_tags":[]},"durationType":1,"duration":"4","isPeriodic":false,"period":"1","executeOnApplication":false,"attributeModifiers":[],"stackType":1,"stackLimit":1,"stackDurationRefreshPolicy":0,"stackPeriodResetPolicy":1,"stackExpirationPolicy":0,"stackOverflowPolicy":0,"ongoingRequiredTags":{"_tags":[]},"cancelOnAbilityEnd":false,"buffId":0}</t>
+          <t>{"guid":"e33ab94c-1496-4d6a-ba5e-1afd38bb0c30","nodeType":4,"position":{"x":-452.0,"y":-1786.4000244140625},"targetType":1,"searchShapeType":0,"searchLineType":0,"positionSource":0,"positionBindingName":"center","searchCircleRadius":2.5,"searchSectorRadius":2.0,"searchSectorAngle":180.0,"searchLineDirectionOffsetAngle":0.0,"searchLineDirectionWidth":1.0,"searchLineDirectionLength":10.0,"lineStartPositionSource":0,"lineStartBindingName":"","lineEndPositionSource":1,"lineEndBindingName":"","searchLineBetweenWidth":1.0,"searchLineAbsoluteAngle":0.0,"searchLineAbsoluteWidth":1.0,"searchLineAbsoluteLength":10.0,"maxTargets":999,"searchTargetTags":{"_tags":[{"_name":"unitType.monster","_hashCode":-2021655864,"_shortName":"monster","_ancestorHashCodes":[1600484460],"_ancestorNames":["unitType"]}]},"searchExcludeTags":{"_tags":[]}}</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
@@ -1943,11 +1943,11 @@
       <c r="C51"/>
       <c r="D51"/>
       <c r="E51">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>{"guid":"93ec5a43-cc34-4e4a-acb3-39da2f2c3010","nodeType":12,"position":{"x":468.79998779296877,"y":-1749.5999755859375},"targetType":1,"requiredTags":{"_tags":[]},"immunityTags":{"_tags":[]},"destroyWithNode":true,"positionSource":2,"particlePrefab":{"instanceID":46250},"particleBindingName":"head","particleOffset":{"x":0.0,"y":0.0,"z":0.0},"particleScale":{"x":1.0,"y":1.0,"z":1.0},"attachToTarget":true,"particleLoop":true}</t>
+          <t>{"guid":"432ff1e3-b18d-476d-af80-d39ddc07402a","nodeType":20,"position":{"x":-452.0,"y":-2375.199951171875},"targetType":1,"skeletonDataAsset":{"instanceID":45056},"animationName":"Skill_attack_1005","animationDuration":"16","isAnimationLooping":false,"timeEffects":[{"triggerTime":7,"portId":"de0ba361-3aba-4ef0-bb07-9b418fcae591"},{"triggerTime":16,"portId":"f41c85e0-7f26-494e-9ffc-4a06c980f811"}],"timeCues":[{"startTime":6,"endTime":55,"portId":"8dea1941-c520-4f9a-aee0-40932c8542ef"}]}</t>
         </is>
       </c>
       <c r="G51"/>
@@ -2009,7 +2009,7 @@
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>{"guid":"432ff1e3-b18d-476d-af80-d39ddc07402a","nodeType":20,"position":{"x":-502.6666564941406,"y":-2384.0},"targetType":1,"skeletonDataAsset":{"instanceID":45010},"animationName":"Skill_attack_1009","animationDuration":"25","isAnimationLooping":false,"timeEffects":[{"triggerTime":25,"portId":"f41c85e0-7f26-494e-9ffc-4a06c980f811"}],"timeCues":[]}</t>
+          <t>{"guid":"432ff1e3-b18d-476d-af80-d39ddc07402a","nodeType":20,"position":{"x":-502.6666564941406,"y":-2384.0},"targetType":1,"skeletonDataAsset":{"instanceID":45056},"animationName":"Stand","animationDuration":"24","isAnimationLooping":false,"timeEffects":[{"triggerTime":25,"portId":"f41c85e0-7f26-494e-9ffc-4a06c980f811"}],"timeCues":[]}</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
@@ -2111,7 +2111,7 @@
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>{"guid":"356907e0-1488-4128-bfcc-7ff73cfc3330","nodeType":0,"position":{"x":-878.4000244140625,"y":-1853.5999755859375},"targetType":1,"skillId":1001,"assetTags":{"_tags":[]},"cancelAbilitiesWithTags":{"_tags":[]},"blockAbilitiesWithTags":{"_tags":[]},"activationOwnedTags":{"_tags":[]},"activationRequiredTags":{"_tags":[]},"activationBlockedTags":{"_tags":[{"_name":"CD.Sweep","_hashCode":2090173402,"_shortName":"横扫","_ancestorHashCodes":[-1137859925],"_ancestorNames":["CD"]}]},"ongoingBlockedTags":{"_tags":[]},"eventOutputPorts":[]}</t>
+          <t>{"guid":"356907e0-1488-4128-bfcc-7ff73cfc3330","nodeType":0,"position":{"x":-878.4000244140625,"y":-1853.5999755859375},"targetType":1,"skillId":1001,"assetTags":{"_tags":[]},"cancelAbilitiesWithTags":{"_tags":[]},"blockAbilitiesWithTags":{"_tags":[]},"activationOwnedTags":{"_tags":[]},"activationRequiredTags":{"_tags":[]},"activationBlockedTags":{"_tags":[{"_name":"CD.Sweep","_hashCode":-303359587,"_shortName":"Sweep","_ancestorHashCodes":[-1137859925],"_ancestorNames":["CD"]}]},"ongoingBlockedTags":{"_tags":[]},"eventOutputPorts":[]}</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
@@ -2131,7 +2131,7 @@
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>{"guid":"c28fb88d-51b1-47b2-be59-859e0ac638e3","nodeType":10,"position":{"x":-1186.4000244140625,"y":-1747.199951171875},"targetType":1,"assetTags":{"_tags":[]},"grantedTags":{"_tags":[{"_name":"CD.Sweep","_hashCode":2090173402,"_shortName":"横扫","_ancestorHashCodes":[-1137859925],"_ancestorNames":["CD"]}]},"applicationRequiredTags":{"_tags":[]},"applicationImmunityTags":{"_tags":[]},"removeGameEffectsWithTags":{"_tags":[]},"durationType":1,"duration":"1","isPeriodic":false,"period":"1","executeOnApplication":false,"attributeModifiers":[],"stackType":0,"stackLimit":0,"stackDurationRefreshPolicy":0,"stackPeriodResetPolicy":0,"stackExpirationPolicy":0,"stackOverflowPolicy":0,"ongoingRequiredTags":{"_tags":[]},"cancelOnAbilityEnd":false,"cooldownType":0,"maxCharges":2,"chargeTime":"10"}</t>
+          <t>{"guid":"c28fb88d-51b1-47b2-be59-859e0ac638e3","nodeType":10,"position":{"x":-1186.4000244140625,"y":-1747.199951171875},"targetType":1,"assetTags":{"_tags":[]},"grantedTags":{"_tags":[{"_name":"CD.横扫","_hashCode":2090173402,"_shortName":"横扫","_ancestorHashCodes":[-1137859925],"_ancestorNames":["CD"]}]},"applicationRequiredTags":{"_tags":[]},"applicationImmunityTags":{"_tags":[]},"removeGameEffectsWithTags":{"_tags":[]},"durationType":1,"duration":"1","isPeriodic":false,"period":"1","executeOnApplication":false,"attributeModifiers":[],"stackType":0,"stackLimit":0,"stackDurationRefreshPolicy":0,"stackPeriodResetPolicy":0,"stackExpirationPolicy":0,"stackOverflowPolicy":0,"ongoingRequiredTags":{"_tags":[]},"cancelOnAbilityEnd":false,"cooldownType":0,"maxCharges":2,"chargeTime":"10"}</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
@@ -2207,11 +2207,11 @@
       <c r="C64"/>
       <c r="D64"/>
       <c r="E64">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>{"guid":"432ff1e3-b18d-476d-af80-d39ddc07402a","nodeType":20,"position":{"x":-452.0,"y":-2406.39990234375},"targetType":1,"skeletonDataAsset":{"instanceID":45010},"animationName":"Attack_01","animationDuration":"18","isAnimationLooping":false,"timeEffects":[{"triggerTime":7,"portId":"de0ba361-3aba-4ef0-bb07-9b418fcae591"},{"triggerTime":18,"portId":"84e238a8-5baf-470e-829f-186695064945"}],"timeCues":[{"startTime":7,"endTime":48,"portId":"8dea1941-c520-4f9a-aee0-40932c8542ef"}]}</t>
+          <t>{"guid":"cde57fb8-b693-4da8-a4a8-fd61e56c5dcd","nodeType":12,"position":{"x":677.5999755859375,"y":-1998.4000244140625},"targetType":1,"requiredTags":{"_tags":[]},"immunityTags":{"_tags":[]},"destroyWithNode":false,"positionSource":0,"particlePrefab":{"instanceID":46090},"particleBindingName":"down","particleOffset":{"x":0.0,"y":0.0,"z":0.0},"particleScale":{"x":1.0,"y":1.0,"z":1.0},"attachToTarget":false,"particleLoop":false}</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
@@ -2247,11 +2247,11 @@
       <c r="C66"/>
       <c r="D66"/>
       <c r="E66">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>{"guid":"cde57fb8-b693-4da8-a4a8-fd61e56c5dcd","nodeType":12,"position":{"x":677.5999755859375,"y":-1998.4000244140625},"targetType":1,"requiredTags":{"_tags":[]},"immunityTags":{"_tags":[]},"destroyWithNode":false,"positionSource":0,"particlePrefab":{"instanceID":46158},"particleBindingName":"down","particleOffset":{"x":0.0,"y":0.0,"z":0.0},"particleScale":{"x":1.0,"y":1.0,"z":1.0},"attachToTarget":false,"particleLoop":false}</t>
+          <t>{"guid":"432ff1e3-b18d-476d-af80-d39ddc07402a","nodeType":20,"position":{"x":-452.0,"y":-2406.39990234375},"targetType":1,"skeletonDataAsset":{"instanceID":45056},"animationName":"Attack_01","animationDuration":"18","isAnimationLooping":false,"timeEffects":[{"triggerTime":7,"portId":"de0ba361-3aba-4ef0-bb07-9b418fcae591"},{"triggerTime":18,"portId":"84e238a8-5baf-470e-829f-186695064945"}],"timeCues":[{"startTime":7,"endTime":48,"portId":"8dea1941-c520-4f9a-aee0-40932c8542ef"}]}</t>
         </is>
       </c>
       <c r="G66"/>
@@ -2273,7 +2273,7 @@
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>{"guid":"2cfdacd2-0186-49dd-b177-4eb8c0ad87bd","nodeType":7,"position":{"x":689.3333740234375,"y":-1860.666748046875},"targetType":1,"endType":0}</t>
+          <t>{"guid":"2cfdacd2-0186-49dd-b177-4eb8c0ad87bd","nodeType":7,"position":{"x":689.5999755859375,"y":-1860.800048828125},"targetType":1,"endType":0}</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
@@ -2293,7 +2293,7 @@
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>{"guid":"9d6f459d-b588-4b64-843b-1b71e8f299ae","nodeType":3,"position":{"x":-1186.6666259765625,"y":-2019.3333740234375},"targetType":1,"assetTags":{"_tags":[]},"grantedTags":{"_tags":[]},"applicationRequiredTags":{"_tags":[]},"applicationImmunityTags":{"_tags":[]},"removeGameEffectsWithTags":{"_tags":[]},"durationType":0,"duration":"0","isPeriodic":false,"period":"1","executeOnApplication":false,"attributeModifiers":[{"attrType":100,"operation":0,"magnitudeSourceType":0,"fixedValue":10.0,"formula":"","mmcType":0,"setByCallerKey":"","mmcCaptureAttribute":200,"mmcAttributeSource":0,"mmcCoefficient":1.0,"mmcUseSnapshot":true}],"stackType":0,"stackLimit":0,"stackDurationRefreshPolicy":0,"stackPeriodResetPolicy":0,"stackExpirationPolicy":0,"stackOverflowPolicy":0,"ongoingRequiredTags":{"_tags":[]},"cancelOnAbilityEnd":true}</t>
+          <t>{"guid":"9d6f459d-b588-4b64-843b-1b71e8f299ae","nodeType":3,"position":{"x":-1186.4000244140625,"y":-2019.199951171875},"targetType":1,"assetTags":{"_tags":[]},"grantedTags":{"_tags":[]},"applicationRequiredTags":{"_tags":[]},"applicationImmunityTags":{"_tags":[]},"removeGameEffectsWithTags":{"_tags":[]},"durationType":0,"duration":"0","isPeriodic":false,"period":"1","executeOnApplication":false,"attributeModifiers":[{"attrType":100,"operation":0,"magnitudeSourceType":0,"fixedValue":10.0,"formula":"","mmcType":0,"setByCallerKey":"","mmcCaptureAttribute":200,"mmcAttributeSource":0,"mmcCoefficient":1.0,"mmcUseSnapshot":true}],"stackType":0,"stackLimit":0,"stackDurationRefreshPolicy":0,"stackPeriodResetPolicy":0,"stackExpirationPolicy":0,"stackOverflowPolicy":0,"ongoingRequiredTags":{"_tags":[]},"cancelOnAbilityEnd":true}</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
@@ -2313,7 +2313,7 @@
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>{"guid":"432ff1e3-b18d-476d-af80-d39ddc07402a","nodeType":20,"position":{"x":-452.0,"y":-2406.66650390625},"targetType":1,"skeletonDataAsset":{"instanceID":45010},"animationName":"Attack_01","animationDuration":"18","isAnimationLooping":false,"timeEffects":[{"triggerTime":7,"portId":"de0ba361-3aba-4ef0-bb07-9b418fcae591"},{"triggerTime":18,"portId":"84e238a8-5baf-470e-829f-186695064945"}],"timeCues":[]}</t>
+          <t>{"guid":"432ff1e3-b18d-476d-af80-d39ddc07402a","nodeType":20,"position":{"x":-452.0,"y":-2406.39990234375},"targetType":1,"skeletonDataAsset":{"instanceID":45056},"animationName":"Attack_01","animationDuration":"18","isAnimationLooping":false,"timeEffects":[{"triggerTime":7,"portId":"de0ba361-3aba-4ef0-bb07-9b418fcae591"},{"triggerTime":18,"portId":"84e238a8-5baf-470e-829f-186695064945"}],"timeCues":[]}</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
@@ -2333,7 +2333,7 @@
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>{"guid":"c28fb88d-51b1-47b2-be59-859e0ac638e3","nodeType":10,"position":{"x":-1186.6666259765625,"y":-1747.3333740234375},"targetType":1,"assetTags":{"_tags":[]},"grantedTags":{"_tags":[{"_name":"CD.ThreeFire","_hashCode":-1656226246,"_shortName":"三火球","_ancestorHashCodes":[-1137859925],"_ancestorNames":["CD"]}]},"applicationRequiredTags":{"_tags":[]},"applicationImmunityTags":{"_tags":[]},"removeGameEffectsWithTags":{"_tags":[]},"durationType":1,"duration":"1","isPeriodic":false,"period":"1","executeOnApplication":false,"attributeModifiers":[],"stackType":0,"stackLimit":0,"stackDurationRefreshPolicy":0,"stackPeriodResetPolicy":0,"stackExpirationPolicy":0,"stackOverflowPolicy":0,"ongoingRequiredTags":{"_tags":[]},"cancelOnAbilityEnd":false,"cooldownType":0,"maxCharges":2,"chargeTime":"10"}</t>
+          <t>{"guid":"c28fb88d-51b1-47b2-be59-859e0ac638e3","nodeType":10,"position":{"x":-1186.4000244140625,"y":-1747.199951171875},"targetType":1,"assetTags":{"_tags":[]},"grantedTags":{"_tags":[{"_name":"CD.三火球","_hashCode":-1656226246,"_shortName":"三火球","_ancestorHashCodes":[-1137859925],"_ancestorNames":["CD"]}]},"applicationRequiredTags":{"_tags":[]},"applicationImmunityTags":{"_tags":[]},"removeGameEffectsWithTags":{"_tags":[]},"durationType":1,"duration":"1","isPeriodic":false,"period":"1","executeOnApplication":false,"attributeModifiers":[],"stackType":0,"stackLimit":0,"stackDurationRefreshPolicy":0,"stackPeriodResetPolicy":0,"stackExpirationPolicy":0,"stackOverflowPolicy":0,"ongoingRequiredTags":{"_tags":[]},"cancelOnAbilityEnd":false,"cooldownType":0,"maxCharges":2,"chargeTime":"10"}</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
@@ -2353,7 +2353,7 @@
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>{"guid":"356907e0-1488-4128-bfcc-7ff73cfc3330","nodeType":0,"position":{"x":-878.6666259765625,"y":-1853.3333740234375},"targetType":1,"skillId":1010,"assetTags":{"_tags":[]},"cancelAbilitiesWithTags":{"_tags":[]},"blockAbilitiesWithTags":{"_tags":[]},"activationOwnedTags":{"_tags":[]},"activationRequiredTags":{"_tags":[]},"activationBlockedTags":{"_tags":[{"_name":"CD.ThreeFire","_hashCode":-1656226246,"_shortName":"三火球","_ancestorHashCodes":[-1137859925],"_ancestorNames":["CD"]}]},"ongoingBlockedTags":{"_tags":[]},"eventOutputPorts":[]}</t>
+          <t>{"guid":"356907e0-1488-4128-bfcc-7ff73cfc3330","nodeType":0,"position":{"x":-878.4000244140625,"y":-1853.5999755859375},"targetType":1,"skillId":1008,"assetTags":{"_tags":[]},"cancelAbilitiesWithTags":{"_tags":[]},"blockAbilitiesWithTags":{"_tags":[]},"activationOwnedTags":{"_tags":[]},"activationRequiredTags":{"_tags":[]},"activationBlockedTags":{"_tags":[{"_name":"CD.ThreeFire","_hashCode":960327319,"_shortName":"ThreeFire","_ancestorHashCodes":[-1137859925],"_ancestorNames":["CD"]}]},"ongoingBlockedTags":{"_tags":[]},"eventOutputPorts":[]}</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
@@ -2373,7 +2373,7 @@
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>{"guid":"c353e286-8ef0-460a-b917-887f2aeb390a","nodeType":14,"position":{"x":839.3333740234375,"y":-1583.3333740234375},"targetType":1,"requiredTags":{"_tags":[]},"immunityTags":{"_tags":[]},"destroyWithNode":false,"positionSource":2,"positionBindingName":"head","textType":0,"fixedText":"","contextDataKey":"DamageResult","textColor":{"r":1.0,"g":0.0,"b":0.0,"a":1.0},"criticalColor":{"r":1.0,"g":0.5,"b":0.0,"a":1.0},"missColor":{"r":0.5,"g":0.5,"b":0.5,"a":1.0},"fontSize":45.0,"criticalFontSize":60.0,"duration":1.5,"offset":{"x":0.0,"y":0.0},"moveDirection":{"x":0.0,"y":1.0}}</t>
+          <t>{"guid":"c353e286-8ef0-460a-b917-887f2aeb390a","nodeType":14,"position":{"x":839.199951171875,"y":-1583.199951171875},"targetType":1,"requiredTags":{"_tags":[]},"immunityTags":{"_tags":[]},"destroyWithNode":false,"positionSource":2,"positionBindingName":"head","textType":0,"fixedText":"","contextDataKey":"DamageResult","textColor":{"r":1.0,"g":0.0,"b":0.0,"a":1.0},"criticalColor":{"r":1.0,"g":0.5,"b":0.0,"a":1.0},"missColor":{"r":0.5,"g":0.5,"b":0.5,"a":1.0},"fontSize":45.0,"criticalFontSize":60.0,"duration":1.5,"offset":{"x":0.0,"y":0.0},"moveDirection":{"x":0.0,"y":1.0}}</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
@@ -2393,7 +2393,7 @@
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>{"guid":"f8947676-1084-4228-b991-1509cc7fe851","nodeType":1,"position":{"x":614.6666259765625,"y":-1583.3333740234375},"targetType":0,"assetTags":{"_tags":[]},"grantedTags":{"_tags":[]},"applicationRequiredTags":{"_tags":[]},"applicationImmunityTags":{"_tags":[]},"removeGameEffectsWithTags":{"_tags":[]},"durationType":0,"duration":"0","isPeriodic":false,"period":"1","executeOnApplication":false,"attributeModifiers":[],"stackType":0,"stackLimit":0,"stackDurationRefreshPolicy":0,"stackPeriodResetPolicy":0,"stackExpirationPolicy":0,"stackOverflowPolicy":0,"ongoingRequiredTags":{"_tags":[]},"cancelOnAbilityEnd":true,"damageType":0,"damageSourceType":0,"damageFixedValue":10.0,"damageFormula":"","damageMMCType":0,"damageSetByCallerKey":"","damageMMCCaptureAttribute":200,"damageMMCAttributeSource":0,"damageMMCCoefficient":1.0,"damageMMCUseSnapshot":true,"damageMultiplyByStackCount":false,"damageCalculationType":0}</t>
+          <t>{"guid":"f8947676-1084-4228-b991-1509cc7fe851","nodeType":1,"position":{"x":614.4000244140625,"y":-1583.199951171875},"targetType":0,"assetTags":{"_tags":[]},"grantedTags":{"_tags":[]},"applicationRequiredTags":{"_tags":[]},"applicationImmunityTags":{"_tags":[]},"removeGameEffectsWithTags":{"_tags":[]},"durationType":0,"duration":"0","isPeriodic":false,"period":"1","executeOnApplication":false,"attributeModifiers":[],"stackType":0,"stackLimit":0,"stackDurationRefreshPolicy":0,"stackPeriodResetPolicy":0,"stackExpirationPolicy":0,"stackOverflowPolicy":0,"ongoingRequiredTags":{"_tags":[]},"cancelOnAbilityEnd":true,"damageType":0,"damageSourceType":0,"damageFixedValue":10.0,"damageFormula":"","damageMMCType":0,"damageSetByCallerKey":"","damageMMCCaptureAttribute":200,"damageMMCAttributeSource":0,"damageMMCCoefficient":1.0,"damageMMCUseSnapshot":true,"damageMultiplyByStackCount":false,"damageCalculationType":0}</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
@@ -2413,7 +2413,7 @@
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>{"guid":"ce857360-de7e-4457-b348-9c124ce98879","nodeType":8,"position":{"x":202.66668701171876,"y":-1649.3333740234375},"targetType":2,"assetTags":{"_tags":[]},"grantedTags":{"_tags":[]},"applicationRequiredTags":{"_tags":[]},"applicationImmunityTags":{"_tags":[]},"removeGameEffectsWithTags":{"_tags":[]},"durationType":2,"duration":"0","isPeriodic":false,"period":"1","executeOnApplication":false,"attributeModifiers":[],"stackType":0,"stackLimit":0,"stackDurationRefreshPolicy":0,"stackPeriodResetPolicy":0,"stackExpirationPolicy":0,"stackOverflowPolicy":0,"ongoingRequiredTags":{"_tags":[]},"cancelOnAbilityEnd":false,"launchPositionSource":0,"launchBindingName":"center","targetPositionSource":2,"targetBindingName":"center","projectileTargetType":0,"flyOver":true,"offsetAngle":30.0,"curveHeight":0.0,"projectilePrefab":{"instanceID":45962},"speed":10.0,"maxDistance":10.0,"collisionRadius":0.5,"isPiercing":false,"maxPierceCount":1,"collisionTargetTags":{"_tags":[]},"collisionExcludeTags":{"_tags":[]}}</t>
+          <t>{"guid":"ce857360-de7e-4457-b348-9c124ce98879","nodeType":8,"position":{"x":202.39999389648438,"y":-1649.5999755859375},"targetType":2,"assetTags":{"_tags":[]},"grantedTags":{"_tags":[]},"applicationRequiredTags":{"_tags":[]},"applicationImmunityTags":{"_tags":[]},"removeGameEffectsWithTags":{"_tags":[]},"durationType":2,"duration":"0","isPeriodic":false,"period":"1","executeOnApplication":false,"attributeModifiers":[],"stackType":0,"stackLimit":0,"stackDurationRefreshPolicy":0,"stackPeriodResetPolicy":0,"stackExpirationPolicy":0,"stackOverflowPolicy":0,"ongoingRequiredTags":{"_tags":[]},"cancelOnAbilityEnd":false,"launchPositionSource":0,"launchBindingName":"center","targetPositionSource":2,"targetBindingName":"center","projectileTargetType":0,"flyOver":true,"offsetAngle":30.0,"curveHeight":0.0,"projectilePrefab":{"instanceID":45894},"speed":10.0,"maxDistance":10.0,"collisionRadius":0.5,"isPiercing":false,"maxPierceCount":1,"collisionTargetTags":{"_tags":[]},"collisionExcludeTags":{"_tags":[]}}</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
@@ -2433,7 +2433,7 @@
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>{"guid":"9a695e91-e218-425e-82ed-1e157bf1b014","nodeType":8,"position":{"x":184.66668701171876,"y":-1475.3333740234375},"targetType":2,"assetTags":{"_tags":[]},"grantedTags":{"_tags":[]},"applicationRequiredTags":{"_tags":[]},"applicationImmunityTags":{"_tags":[]},"removeGameEffectsWithTags":{"_tags":[]},"durationType":2,"duration":"0","isPeriodic":false,"period":"1","executeOnApplication":false,"attributeModifiers":[],"stackType":0,"stackLimit":0,"stackDurationRefreshPolicy":0,"stackPeriodResetPolicy":0,"stackExpirationPolicy":0,"stackOverflowPolicy":0,"ongoingRequiredTags":{"_tags":[]},"cancelOnAbilityEnd":false,"launchPositionSource":0,"launchBindingName":"center","targetPositionSource":2,"targetBindingName":"center","projectileTargetType":0,"flyOver":true,"offsetAngle":0.0,"curveHeight":0.0,"projectilePrefab":{"instanceID":45962},"speed":10.0,"maxDistance":10.0,"collisionRadius":0.5,"isPiercing":false,"maxPierceCount":1,"collisionTargetTags":{"_tags":[]},"collisionExcludeTags":{"_tags":[]}}</t>
+          <t>{"guid":"9a695e91-e218-425e-82ed-1e157bf1b014","nodeType":8,"position":{"x":184.79998779296876,"y":-1475.199951171875},"targetType":2,"assetTags":{"_tags":[]},"grantedTags":{"_tags":[]},"applicationRequiredTags":{"_tags":[]},"applicationImmunityTags":{"_tags":[]},"removeGameEffectsWithTags":{"_tags":[]},"durationType":2,"duration":"0","isPeriodic":false,"period":"1","executeOnApplication":false,"attributeModifiers":[],"stackType":0,"stackLimit":0,"stackDurationRefreshPolicy":0,"stackPeriodResetPolicy":0,"stackExpirationPolicy":0,"stackOverflowPolicy":0,"ongoingRequiredTags":{"_tags":[]},"cancelOnAbilityEnd":false,"launchPositionSource":0,"launchBindingName":"center","targetPositionSource":2,"targetBindingName":"center","projectileTargetType":0,"flyOver":true,"offsetAngle":0.0,"curveHeight":0.0,"projectilePrefab":{"instanceID":45894},"speed":10.0,"maxDistance":10.0,"collisionRadius":0.5,"isPiercing":false,"maxPierceCount":1,"collisionTargetTags":{"_tags":[]},"collisionExcludeTags":{"_tags":[]}}</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
@@ -2453,7 +2453,7 @@
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>{"guid":"d897a922-5756-42cf-ac65-90a48c1e5a17","nodeType":8,"position":{"x":173.33334350585938,"y":-1327.3333740234375},"targetType":2,"assetTags":{"_tags":[]},"grantedTags":{"_tags":[]},"applicationRequiredTags":{"_tags":[]},"applicationImmunityTags":{"_tags":[]},"removeGameEffectsWithTags":{"_tags":[]},"durationType":2,"duration":"0","isPeriodic":false,"period":"1","executeOnApplication":false,"attributeModifiers":[],"stackType":0,"stackLimit":0,"stackDurationRefreshPolicy":0,"stackPeriodResetPolicy":0,"stackExpirationPolicy":0,"stackOverflowPolicy":0,"ongoingRequiredTags":{"_tags":[]},"cancelOnAbilityEnd":false,"launchPositionSource":0,"launchBindingName":"center","targetPositionSource":2,"targetBindingName":"center","projectileTargetType":0,"flyOver":true,"offsetAngle":-30.0,"curveHeight":0.0,"projectilePrefab":{"instanceID":45962},"speed":10.0,"maxDistance":10.0,"collisionRadius":0.5,"isPiercing":false,"maxPierceCount":1,"collisionTargetTags":{"_tags":[]},"collisionExcludeTags":{"_tags":[]}}</t>
+          <t>{"guid":"d897a922-5756-42cf-ac65-90a48c1e5a17","nodeType":8,"position":{"x":173.60000610351563,"y":-1327.199951171875},"targetType":2,"assetTags":{"_tags":[]},"grantedTags":{"_tags":[]},"applicationRequiredTags":{"_tags":[]},"applicationImmunityTags":{"_tags":[]},"removeGameEffectsWithTags":{"_tags":[]},"durationType":2,"duration":"0","isPeriodic":false,"period":"1","executeOnApplication":false,"attributeModifiers":[],"stackType":0,"stackLimit":0,"stackDurationRefreshPolicy":0,"stackPeriodResetPolicy":0,"stackExpirationPolicy":0,"stackOverflowPolicy":0,"ongoingRequiredTags":{"_tags":[]},"cancelOnAbilityEnd":false,"launchPositionSource":0,"launchBindingName":"center","targetPositionSource":2,"targetBindingName":"center","projectileTargetType":0,"flyOver":true,"offsetAngle":-30.0,"curveHeight":0.0,"projectilePrefab":{"instanceID":45894},"speed":10.0,"maxDistance":10.0,"collisionRadius":0.5,"isPiercing":false,"maxPierceCount":1,"collisionTargetTags":{"_tags":[]},"collisionExcludeTags":{"_tags":[]}}</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
@@ -2529,11 +2529,11 @@
       <c r="C80"/>
       <c r="D80"/>
       <c r="E80">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>{"guid":"432ff1e3-b18d-476d-af80-d39ddc07402a","nodeType":20,"position":{"x":-502.3999938964844,"y":-2384.0},"targetType":1,"skeletonDataAsset":{"instanceID":45010},"animationName":"Skill_attack_1009","animationDuration":"25","isAnimationLooping":false,"timeEffects":[{"triggerTime":4,"portId":"de0ba361-3aba-4ef0-bb07-9b418fcae591"},{"triggerTime":25,"portId":"f41c85e0-7f26-494e-9ffc-4a06c980f811"}],"timeCues":[{"startTime":0,"endTime":75,"portId":"8dea1941-c520-4f9a-aee0-40932c8542ef"}]}</t>
+          <t>{"guid":"091ecddb-f80b-4c00-aa06-f9bc718618d2","nodeType":22,"position":{"x":-93.60000610351563,"y":-1708.800048828125},"targetType":0,"assetTags":{"_tags":[]},"grantedTags":{"_tags":[]},"applicationRequiredTags":{"_tags":[]},"applicationImmunityTags":{"_tags":[]},"removeGameEffectsWithTags":{"_tags":[]},"durationType":1,"duration":"0.5","isPeriodic":false,"period":"1","executeOnApplication":false,"attributeModifiers":[],"stackType":0,"stackLimit":0,"stackDurationRefreshPolicy":0,"stackPeriodResetPolicy":0,"stackExpirationPolicy":0,"stackOverflowPolicy":0,"ongoingRequiredTags":{"_tags":[]},"cancelOnAbilityEnd":false,"displaceType":0,"speed":10.0,"distance":3.0,"minDistance":0.5,"pointSource":0,"pointBindingName":""}</t>
         </is>
       </c>
       <c r="G80" t="inlineStr">
@@ -2549,11 +2549,11 @@
       <c r="C81"/>
       <c r="D81"/>
       <c r="E81">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>{"guid":"091ecddb-f80b-4c00-aa06-f9bc718618d2","nodeType":22,"position":{"x":-93.60000610351563,"y":-1708.800048828125},"targetType":0,"assetTags":{"_tags":[]},"grantedTags":{"_tags":[]},"applicationRequiredTags":{"_tags":[]},"applicationImmunityTags":{"_tags":[]},"removeGameEffectsWithTags":{"_tags":[]},"durationType":1,"duration":"0.5","isPeriodic":false,"period":"1","executeOnApplication":false,"attributeModifiers":[],"stackType":0,"stackLimit":0,"stackDurationRefreshPolicy":0,"stackPeriodResetPolicy":0,"stackExpirationPolicy":0,"stackOverflowPolicy":0,"ongoingRequiredTags":{"_tags":[]},"cancelOnAbilityEnd":false,"displaceType":0,"speed":10.0,"distance":3.0,"minDistance":0.5,"pointSource":0,"pointBindingName":""}</t>
+          <t>{"guid":"c28fb88d-51b1-47b2-be59-859e0ac638e3","nodeType":10,"position":{"x":-1186.4000244140625,"y":-1747.199951171875},"targetType":1,"assetTags":{"_tags":[]},"grantedTags":{"_tags":[{"_name":"CD.万象天引","_hashCode":-531853721,"_shortName":"万象天引","_ancestorHashCodes":[-1137859925],"_ancestorNames":["CD"]}]},"applicationRequiredTags":{"_tags":[]},"applicationImmunityTags":{"_tags":[]},"removeGameEffectsWithTags":{"_tags":[]},"durationType":1,"duration":"5","isPeriodic":false,"period":"1","executeOnApplication":false,"attributeModifiers":[],"stackType":0,"stackLimit":0,"stackDurationRefreshPolicy":0,"stackPeriodResetPolicy":0,"stackExpirationPolicy":0,"stackOverflowPolicy":0,"ongoingRequiredTags":{"_tags":[]},"cancelOnAbilityEnd":false,"cooldownType":0,"maxCharges":2,"chargeTime":"10"}</t>
         </is>
       </c>
       <c r="G81" t="inlineStr">
@@ -2569,11 +2569,11 @@
       <c r="C82"/>
       <c r="D82"/>
       <c r="E82">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>{"guid":"c28fb88d-51b1-47b2-be59-859e0ac638e3","nodeType":10,"position":{"x":-1186.4000244140625,"y":-1747.199951171875},"targetType":1,"assetTags":{"_tags":[]},"grantedTags":{"_tags":[{"_name":"CD.Wan","_hashCode":87403585,"_shortName":"Wan","_ancestorHashCodes":[-1137859925],"_ancestorNames":["CD"]}]},"applicationRequiredTags":{"_tags":[]},"applicationImmunityTags":{"_tags":[]},"removeGameEffectsWithTags":{"_tags":[]},"durationType":1,"duration":"5","isPeriodic":false,"period":"1","executeOnApplication":false,"attributeModifiers":[],"stackType":0,"stackLimit":0,"stackDurationRefreshPolicy":0,"stackPeriodResetPolicy":0,"stackExpirationPolicy":0,"stackOverflowPolicy":0,"ongoingRequiredTags":{"_tags":[]},"cancelOnAbilityEnd":false,"cooldownType":0,"maxCharges":2,"chargeTime":"10"}</t>
+          <t>{"guid":"cde57fb8-b693-4da8-a4a8-fd61e56c5dcd","nodeType":12,"position":{"x":677.5999755859375,"y":-1998.4000244140625},"targetType":1,"requiredTags":{"_tags":[]},"immunityTags":{"_tags":[]},"destroyWithNode":false,"positionSource":0,"particlePrefab":{"instanceID":45968},"particleBindingName":"down","particleOffset":{"x":0.0,"y":0.0,"z":0.0},"particleScale":{"x":1.0,"y":1.0,"z":1.0},"attachToTarget":false,"particleLoop":false}</t>
         </is>
       </c>
       <c r="G82" t="inlineStr">
@@ -2589,11 +2589,11 @@
       <c r="C83"/>
       <c r="D83"/>
       <c r="E83">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>{"guid":"cde57fb8-b693-4da8-a4a8-fd61e56c5dcd","nodeType":12,"position":{"x":677.5999755859375,"y":-1998.4000244140625},"targetType":1,"requiredTags":{"_tags":[]},"immunityTags":{"_tags":[]},"destroyWithNode":false,"positionSource":0,"particlePrefab":{"instanceID":46036},"particleBindingName":"down","particleOffset":{"x":0.0,"y":0.0,"z":0.0},"particleScale":{"x":1.0,"y":1.0,"z":1.0},"attachToTarget":false,"particleLoop":false}</t>
+          <t>{"guid":"356907e0-1488-4128-bfcc-7ff73cfc3330","nodeType":0,"position":{"x":-878.4000244140625,"y":-1853.5999755859375},"targetType":1,"skillId":1006,"assetTags":{"_tags":[]},"cancelAbilitiesWithTags":{"_tags":[]},"blockAbilitiesWithTags":{"_tags":[]},"activationOwnedTags":{"_tags":[]},"activationRequiredTags":{"_tags":[]},"activationBlockedTags":{"_tags":[{"_name":"CD.Wan","_hashCode":87403585,"_shortName":"Wan","_ancestorHashCodes":[-1137859925],"_ancestorNames":["CD"]}]},"ongoingBlockedTags":{"_tags":[]},"eventOutputPorts":[]}</t>
         </is>
       </c>
       <c r="G83" t="inlineStr">
@@ -2609,11 +2609,11 @@
       <c r="C84"/>
       <c r="D84"/>
       <c r="E84">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>{"guid":"356907e0-1488-4128-bfcc-7ff73cfc3330","nodeType":0,"position":{"x":-878.4000244140625,"y":-1853.5999755859375},"targetType":1,"skillId":1007,"assetTags":{"_tags":[]},"cancelAbilitiesWithTags":{"_tags":[]},"blockAbilitiesWithTags":{"_tags":[]},"activationOwnedTags":{"_tags":[]},"activationRequiredTags":{"_tags":[]},"activationBlockedTags":{"_tags":[{"_name":"CD.Wan","_hashCode":87403585,"_shortName":"Wan","_ancestorHashCodes":[-1137859925],"_ancestorNames":["CD"]}]},"ongoingBlockedTags":{"_tags":[]},"eventOutputPorts":[]}</t>
+          <t>{"guid":"e33ab94c-1496-4d6a-ba5e-1afd38bb0c30","nodeType":4,"position":{"x":-452.0,"y":-1786.4000244140625},"targetType":1,"searchShapeType":0,"searchLineType":0,"positionSource":0,"positionBindingName":"center","searchCircleRadius":4.0,"searchSectorRadius":2.0,"searchSectorAngle":180.0,"searchLineDirectionOffsetAngle":0.0,"searchLineDirectionWidth":1.0,"searchLineDirectionLength":10.0,"lineStartPositionSource":0,"lineStartBindingName":"","lineEndPositionSource":1,"lineEndBindingName":"","searchLineBetweenWidth":1.0,"searchLineAbsoluteAngle":0.0,"searchLineAbsoluteWidth":1.0,"searchLineAbsoluteLength":10.0,"maxTargets":999,"searchTargetTags":{"_tags":[{"_name":"unitType.monster","_hashCode":-2021655864,"_shortName":"monster","_ancestorHashCodes":[1600484460],"_ancestorNames":["unitType"]}]},"searchExcludeTags":{"_tags":[]}}</t>
         </is>
       </c>
       <c r="G84" t="inlineStr">
@@ -2629,11 +2629,11 @@
       <c r="C85"/>
       <c r="D85"/>
       <c r="E85">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>{"guid":"e33ab94c-1496-4d6a-ba5e-1afd38bb0c30","nodeType":4,"position":{"x":-452.0,"y":-1786.4000244140625},"targetType":1,"searchShapeType":0,"searchLineType":0,"positionSource":0,"positionBindingName":"center","searchCircleRadius":4.0,"searchSectorRadius":2.0,"searchSectorAngle":180.0,"searchLineDirectionOffsetAngle":0.0,"searchLineDirectionWidth":1.0,"searchLineDirectionLength":10.0,"lineStartPositionSource":0,"lineStartBindingName":"","lineEndPositionSource":1,"lineEndBindingName":"","searchLineBetweenWidth":1.0,"searchLineAbsoluteAngle":0.0,"searchLineAbsoluteWidth":1.0,"searchLineAbsoluteLength":10.0,"maxTargets":999,"searchTargetTags":{"_tags":[{"_name":"unitType.monster","_hashCode":-2021655864,"_shortName":"monster","_ancestorHashCodes":[1600484460],"_ancestorNames":["unitType"]}]},"searchExcludeTags":{"_tags":[]}}</t>
+          <t>{"guid":"432ff1e3-b18d-476d-af80-d39ddc07402a","nodeType":20,"position":{"x":-502.3999938964844,"y":-2384.0},"targetType":1,"skeletonDataAsset":{"instanceID":45056},"animationName":"Skill_attack_1009","animationDuration":"25","isAnimationLooping":false,"timeEffects":[{"triggerTime":4,"portId":"de0ba361-3aba-4ef0-bb07-9b418fcae591"},{"triggerTime":25,"portId":"f41c85e0-7f26-494e-9ffc-4a06c980f811"}],"timeCues":[{"startTime":0,"endTime":75,"portId":"8dea1941-c520-4f9a-aee0-40932c8542ef"}]}</t>
         </is>
       </c>
       <c r="G85"/>
@@ -2655,7 +2655,7 @@
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>{"guid":"9d6f459d-b588-4b64-843b-1b71e8f299ae","nodeType":3,"position":{"x":-1186.6666259765625,"y":-2011.3333740234375},"targetType":1,"assetTags":{"_tags":[]},"grantedTags":{"_tags":[]},"applicationRequiredTags":{"_tags":[]},"applicationImmunityTags":{"_tags":[]},"removeGameEffectsWithTags":{"_tags":[]},"durationType":0,"duration":"0","isPeriodic":false,"period":"1","executeOnApplication":false,"attributeModifiers":[{"attrType":100,"operation":0,"magnitudeSourceType":0,"fixedValue":10.0,"formula":"","mmcType":0,"setByCallerKey":"","mmcCaptureAttribute":200,"mmcAttributeSource":0,"mmcCoefficient":1.0,"mmcUseSnapshot":true}],"stackType":0,"stackLimit":0,"stackDurationRefreshPolicy":0,"stackPeriodResetPolicy":0,"stackExpirationPolicy":0,"stackOverflowPolicy":0,"ongoingRequiredTags":{"_tags":[]},"cancelOnAbilityEnd":true}</t>
+          <t>{"guid":"9d6f459d-b588-4b64-843b-1b71e8f299ae","nodeType":3,"position":{"x":-1186.4000244140625,"y":-2011.199951171875},"targetType":1,"assetTags":{"_tags":[]},"grantedTags":{"_tags":[]},"applicationRequiredTags":{"_tags":[]},"applicationImmunityTags":{"_tags":[]},"removeGameEffectsWithTags":{"_tags":[]},"durationType":0,"duration":"0","isPeriodic":false,"period":"1","executeOnApplication":false,"attributeModifiers":[{"attrType":100,"operation":0,"magnitudeSourceType":0,"fixedValue":10.0,"formula":"","mmcType":0,"setByCallerKey":"","mmcCaptureAttribute":200,"mmcAttributeSource":0,"mmcCoefficient":1.0,"mmcUseSnapshot":true}],"stackType":0,"stackLimit":0,"stackDurationRefreshPolicy":0,"stackPeriodResetPolicy":0,"stackExpirationPolicy":0,"stackOverflowPolicy":0,"ongoingRequiredTags":{"_tags":[]},"cancelOnAbilityEnd":true}</t>
         </is>
       </c>
       <c r="G86" t="inlineStr">
@@ -2675,7 +2675,7 @@
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>{"guid":"356907e0-1488-4128-bfcc-7ff73cfc3330","nodeType":0,"position":{"x":-878.6666259765625,"y":-1853.3333740234375},"targetType":1,"skillId":1004,"assetTags":{"_tags":[]},"cancelAbilitiesWithTags":{"_tags":[]},"blockAbilitiesWithTags":{"_tags":[]},"activationOwnedTags":{"_tags":[]},"activationRequiredTags":{"_tags":[]},"activationBlockedTags":{"_tags":[{"_name":"CD.FireCircle","_hashCode":522143731,"_shortName":"FireCircle","_ancestorHashCodes":[-1137859925],"_ancestorNames":["CD"]}]},"ongoingBlockedTags":{"_tags":[]},"eventOutputPorts":[]}</t>
+          <t>{"guid":"356907e0-1488-4128-bfcc-7ff73cfc3330","nodeType":0,"position":{"x":-878.4000244140625,"y":-1853.5999755859375},"targetType":1,"skillId":1004,"assetTags":{"_tags":[]},"cancelAbilitiesWithTags":{"_tags":[]},"blockAbilitiesWithTags":{"_tags":[]},"activationOwnedTags":{"_tags":[]},"activationRequiredTags":{"_tags":[]},"activationBlockedTags":{"_tags":[{"_name":"CD.Wind","_hashCode":1982736573,"_shortName":"Wind","_ancestorHashCodes":[-1137859925],"_ancestorNames":["CD"]}]},"ongoingBlockedTags":{"_tags":[]},"eventOutputPorts":[]}</t>
         </is>
       </c>
       <c r="G87" t="inlineStr">
@@ -2695,7 +2695,7 @@
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>{"guid":"764289ea-065e-4f48-afc0-0f6963d18d57","nodeType":14,"position":{"x":492.0000305175781,"y":-1539.3333740234375},"targetType":1,"requiredTags":{"_tags":[]},"immunityTags":{"_tags":[]},"destroyWithNode":false,"positionSource":2,"positionBindingName":"head","textType":0,"fixedText":"","contextDataKey":"DamageResult","textColor":{"r":1.0,"g":0.0,"b":0.0,"a":1.0},"criticalColor":{"r":1.0,"g":0.5,"b":0.0,"a":1.0},"missColor":{"r":0.5,"g":0.5,"b":0.5,"a":1.0},"fontSize":45.0,"criticalFontSize":60.0,"duration":1.5,"offset":{"x":0.0,"y":0.0},"moveDirection":{"x":0.0,"y":1.0}}</t>
+          <t>{"guid":"764289ea-065e-4f48-afc0-0f6963d18d57","nodeType":14,"position":{"x":492.0,"y":-1539.199951171875},"targetType":1,"requiredTags":{"_tags":[]},"immunityTags":{"_tags":[]},"destroyWithNode":false,"positionSource":2,"positionBindingName":"head","textType":0,"fixedText":"","contextDataKey":"DamageResult","textColor":{"r":1.0,"g":0.0,"b":0.0,"a":1.0},"criticalColor":{"r":1.0,"g":0.5,"b":0.0,"a":1.0},"missColor":{"r":0.5,"g":0.5,"b":0.5,"a":1.0},"fontSize":45.0,"criticalFontSize":60.0,"duration":1.5,"offset":{"x":0.0,"y":0.0},"moveDirection":{"x":0.0,"y":1.0}}</t>
         </is>
       </c>
       <c r="G88" t="inlineStr">
@@ -2715,7 +2715,7 @@
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>{"guid":"a32d1135-94db-4f81-95ba-9d5f105ef8d0","nodeType":1,"position":{"x":308.6666564941406,"y":-1720.0},"targetType":0,"assetTags":{"_tags":[]},"grantedTags":{"_tags":[]},"applicationRequiredTags":{"_tags":[]},"applicationImmunityTags":{"_tags":[]},"removeGameEffectsWithTags":{"_tags":[]},"durationType":0,"duration":"0","isPeriodic":false,"period":"1","executeOnApplication":false,"attributeModifiers":[],"stackType":0,"stackLimit":0,"stackDurationRefreshPolicy":0,"stackPeriodResetPolicy":0,"stackExpirationPolicy":0,"stackOverflowPolicy":0,"ongoingRequiredTags":{"_tags":[]},"cancelOnAbilityEnd":true,"damageType":0,"damageSourceType":0,"damageFixedValue":1.0,"damageFormula":"","damageMMCType":0,"damageSetByCallerKey":"","damageMMCCaptureAttribute":200,"damageMMCAttributeSource":0,"damageMMCCoefficient":1.0,"damageMMCUseSnapshot":true,"damageMultiplyByStackCount":false,"damageCalculationType":0}</t>
+          <t>{"guid":"a32d1135-94db-4f81-95ba-9d5f105ef8d0","nodeType":1,"position":{"x":308.79998779296877,"y":-1720.0},"targetType":0,"assetTags":{"_tags":[]},"grantedTags":{"_tags":[]},"applicationRequiredTags":{"_tags":[]},"applicationImmunityTags":{"_tags":[]},"removeGameEffectsWithTags":{"_tags":[]},"durationType":0,"duration":"0","isPeriodic":false,"period":"1","executeOnApplication":false,"attributeModifiers":[],"stackType":0,"stackLimit":0,"stackDurationRefreshPolicy":0,"stackPeriodResetPolicy":0,"stackExpirationPolicy":0,"stackOverflowPolicy":0,"ongoingRequiredTags":{"_tags":[]},"cancelOnAbilityEnd":true,"damageType":0,"damageSourceType":0,"damageFixedValue":1.0,"damageFormula":"","damageMMCType":0,"damageSetByCallerKey":"","damageMMCCaptureAttribute":200,"damageMMCAttributeSource":0,"damageMMCCoefficient":1.0,"damageMMCUseSnapshot":true,"damageMultiplyByStackCount":false,"damageCalculationType":0}</t>
         </is>
       </c>
       <c r="G89" t="inlineStr">
@@ -2731,11 +2731,11 @@
       <c r="C90"/>
       <c r="D90"/>
       <c r="E90">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>{"guid":"432ff1e3-b18d-476d-af80-d39ddc07402a","nodeType":20,"position":{"x":-452.0,"y":-2375.333251953125},"targetType":1,"skeletonDataAsset":{"instanceID":45010},"animationName":"Skill_attack_1011","animationDuration":"12","isAnimationLooping":true,"timeEffects":[{"triggerTime":250,"portId":"f41c85e0-7f26-494e-9ffc-4a06c980f811"}],"timeCues":[{"startTime":0,"endTime":255,"portId":"8dea1941-c520-4f9a-aee0-40932c8542ef"}]}</t>
+          <t>{"guid":"cde57fb8-b693-4da8-a4a8-fd61e56c5dcd","nodeType":12,"position":{"x":677.5999755859375,"y":-1998.4000244140625},"targetType":1,"requiredTags":{"_tags":[]},"immunityTags":{"_tags":[]},"destroyWithNode":true,"positionSource":0,"particlePrefab":{"instanceID":46262},"particleBindingName":"down","particleOffset":{"x":0.0,"y":0.0,"z":0.0},"particleScale":{"x":1.0,"y":1.0,"z":1.0},"attachToTarget":true,"particleLoop":true}</t>
         </is>
       </c>
       <c r="G90" t="inlineStr">
@@ -2751,11 +2751,11 @@
       <c r="C91"/>
       <c r="D91"/>
       <c r="E91">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>{"guid":"cde57fb8-b693-4da8-a4a8-fd61e56c5dcd","nodeType":12,"position":{"x":677.3333740234375,"y":-1998.666748046875},"targetType":1,"requiredTags":{"_tags":[]},"immunityTags":{"_tags":[]},"destroyWithNode":true,"positionSource":0,"particlePrefab":{"instanceID":46330},"particleBindingName":"down","particleOffset":{"x":0.0,"y":0.0,"z":0.0},"particleScale":{"x":1.0,"y":1.0,"z":1.0},"attachToTarget":true,"particleLoop":true}</t>
+          <t>{"guid":"c28fb88d-51b1-47b2-be59-859e0ac638e3","nodeType":10,"position":{"x":-1186.4000244140625,"y":-1747.199951171875},"targetType":1,"assetTags":{"_tags":[]},"grantedTags":{"_tags":[{"_name":"CD.旋风斩","_hashCode":1979572373,"_shortName":"旋风斩","_ancestorHashCodes":[-1137859925],"_ancestorNames":["CD"]}]},"applicationRequiredTags":{"_tags":[]},"applicationImmunityTags":{"_tags":[]},"removeGameEffectsWithTags":{"_tags":[]},"durationType":1,"duration":"15","isPeriodic":false,"period":"1","executeOnApplication":false,"attributeModifiers":[],"stackType":0,"stackLimit":0,"stackDurationRefreshPolicy":0,"stackPeriodResetPolicy":0,"stackExpirationPolicy":0,"stackOverflowPolicy":0,"ongoingRequiredTags":{"_tags":[]},"cancelOnAbilityEnd":false,"cooldownType":0,"maxCharges":2,"chargeTime":"10"}</t>
         </is>
       </c>
       <c r="G91" t="inlineStr">
@@ -2771,11 +2771,11 @@
       <c r="C92"/>
       <c r="D92"/>
       <c r="E92">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>{"guid":"c28fb88d-51b1-47b2-be59-859e0ac638e3","nodeType":10,"position":{"x":-1186.6666259765625,"y":-1747.3333740234375},"targetType":1,"assetTags":{"_tags":[]},"grantedTags":{"_tags":[{"_name":"CD.FireCircle","_hashCode":1979572373,"_shortName":"旋风斩","_ancestorHashCodes":[-1137859925],"_ancestorNames":["CD"]}]},"applicationRequiredTags":{"_tags":[]},"applicationImmunityTags":{"_tags":[]},"removeGameEffectsWithTags":{"_tags":[]},"durationType":1,"duration":"15","isPeriodic":false,"period":"1","executeOnApplication":false,"attributeModifiers":[],"stackType":0,"stackLimit":0,"stackDurationRefreshPolicy":0,"stackPeriodResetPolicy":0,"stackExpirationPolicy":0,"stackOverflowPolicy":0,"ongoingRequiredTags":{"_tags":[]},"cancelOnAbilityEnd":false,"cooldownType":0,"maxCharges":2,"chargeTime":"10"}</t>
+          <t>{"guid":"f73ba91e-a76b-456c-b19c-a5176809d5f5","nodeType":7,"position":{"x":700.0,"y":-1856.800048828125},"targetType":1,"endType":0}</t>
         </is>
       </c>
       <c r="G92" t="inlineStr">
@@ -2791,11 +2791,11 @@
       <c r="C93"/>
       <c r="D93"/>
       <c r="E93">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>{"guid":"f73ba91e-a76b-456c-b19c-a5176809d5f5","nodeType":7,"position":{"x":700.0,"y":-1856.666748046875},"targetType":1,"endType":0}</t>
+          <t>{"guid":"d8847c3e-459e-4589-a96b-37ebb5ec458b","nodeType":21,"position":{"x":-308.79998779296877,"y":-1769.5999755859375},"targetType":1,"assetTags":{"_tags":[]},"grantedTags":{"_tags":[]},"applicationRequiredTags":{"_tags":[]},"applicationImmunityTags":{"_tags":[]},"removeGameEffectsWithTags":{"_tags":[]},"durationType":2,"duration":"0","isPeriodic":true,"period":"0.3","executeOnApplication":false,"attributeModifiers":[],"stackType":0,"stackLimit":0,"stackDurationRefreshPolicy":0,"stackPeriodResetPolicy":0,"stackExpirationPolicy":0,"stackOverflowPolicy":0,"ongoingRequiredTags":{"_tags":[]},"cancelOnAbilityEnd":true}</t>
         </is>
       </c>
       <c r="G93" t="inlineStr">
@@ -2815,7 +2815,7 @@
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>{"guid":"e33ab94c-1496-4d6a-ba5e-1afd38bb0c30","nodeType":4,"position":{"x":27.333343505859376,"y":-1769.3333740234375},"targetType":1,"searchShapeType":0,"searchLineType":0,"positionSource":0,"positionBindingName":"center","searchCircleRadius":2.5,"searchSectorRadius":2.0,"searchSectorAngle":180.0,"searchLineDirectionOffsetAngle":0.0,"searchLineDirectionWidth":1.0,"searchLineDirectionLength":10.0,"lineStartPositionSource":0,"lineStartBindingName":"","lineEndPositionSource":1,"lineEndBindingName":"","searchLineBetweenWidth":1.0,"searchLineAbsoluteAngle":0.0,"searchLineAbsoluteWidth":1.0,"searchLineAbsoluteLength":10.0,"maxTargets":999,"searchTargetTags":{"_tags":[{"_name":"unitType.monster","_hashCode":-2021655864,"_shortName":"monster","_ancestorHashCodes":[1600484460],"_ancestorNames":["unitType"]}]},"searchExcludeTags":{"_tags":[]}}</t>
+          <t>{"guid":"e33ab94c-1496-4d6a-ba5e-1afd38bb0c30","nodeType":4,"position":{"x":27.20001220703125,"y":-1769.5999755859375},"targetType":1,"searchShapeType":0,"searchLineType":0,"positionSource":0,"positionBindingName":"center","searchCircleRadius":2.5,"searchSectorRadius":2.0,"searchSectorAngle":180.0,"searchLineDirectionOffsetAngle":0.0,"searchLineDirectionWidth":1.0,"searchLineDirectionLength":10.0,"lineStartPositionSource":0,"lineStartBindingName":"","lineEndPositionSource":1,"lineEndBindingName":"","searchLineBetweenWidth":1.0,"searchLineAbsoluteAngle":0.0,"searchLineAbsoluteWidth":1.0,"searchLineAbsoluteLength":10.0,"maxTargets":999,"searchTargetTags":{"_tags":[{"_name":"unitType.monster","_hashCode":-2021655864,"_shortName":"monster","_ancestorHashCodes":[1600484460],"_ancestorNames":["unitType"]}]},"searchExcludeTags":{"_tags":[]}}</t>
         </is>
       </c>
       <c r="G94" t="inlineStr">
@@ -2831,11 +2831,11 @@
       <c r="C95"/>
       <c r="D95"/>
       <c r="E95">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>{"guid":"d8847c3e-459e-4589-a96b-37ebb5ec458b","nodeType":21,"position":{"x":-308.6666564941406,"y":-1769.3333740234375},"targetType":1,"assetTags":{"_tags":[]},"grantedTags":{"_tags":[]},"applicationRequiredTags":{"_tags":[]},"applicationImmunityTags":{"_tags":[]},"removeGameEffectsWithTags":{"_tags":[]},"durationType":2,"duration":"0","isPeriodic":true,"period":"0.3","executeOnApplication":false,"attributeModifiers":[],"stackType":0,"stackLimit":0,"stackDurationRefreshPolicy":0,"stackPeriodResetPolicy":0,"stackExpirationPolicy":0,"stackOverflowPolicy":0,"ongoingRequiredTags":{"_tags":[]},"cancelOnAbilityEnd":true}</t>
+          <t>{"guid":"432ff1e3-b18d-476d-af80-d39ddc07402a","nodeType":20,"position":{"x":-452.0,"y":-2375.199951171875},"targetType":1,"skeletonDataAsset":{"instanceID":45056},"animationName":"Skill_attack_1011","animationDuration":"12","isAnimationLooping":true,"timeEffects":[{"triggerTime":250,"portId":"f41c85e0-7f26-494e-9ffc-4a06c980f811"}],"timeCues":[{"startTime":0,"endTime":255,"portId":"8dea1941-c520-4f9a-aee0-40932c8542ef"}]}</t>
         </is>
       </c>
       <c r="G95"/>

--- a/Luban/MiniTemplate/Datas/#SkillGraph.xlsx
+++ b/Luban/MiniTemplate/Datas/#SkillGraph.xlsx
@@ -1159,7 +1159,7 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>{"guid":"c28fb88d-51b1-47b2-be59-859e0ac638e3","nodeType":10,"position":{"x":-1186.4000244140625,"y":-1825.5999755859375},"targetType":1,"assetTags":{"_tags":[]},"grantedTags":{"_tags":[{"_name":"CD.流血","_hashCode":-1868013560,"_shortName":"流血","_ancestorHashCodes":[-1137859925],"_ancestorNames":["CD"]}]},"applicationRequiredTags":{"_tags":[]},"applicationImmunityTags":{"_tags":[]},"removeGameEffectsWithTags":{"_tags":[]},"durationType":1,"duration":"3","isPeriodic":false,"period":"1","executeOnApplication":false,"attributeModifiers":[],"stackType":0,"stackLimit":0,"stackDurationRefreshPolicy":0,"stackPeriodResetPolicy":0,"stackExpirationPolicy":0,"stackOverflowPolicy":0,"ongoingRequiredTags":{"_tags":[]},"cancelOnAbilityEnd":false,"cooldownType":0,"maxCharges":2,"chargeTime":"10"}</t>
+          <t>{"guid":"c28fb88d-51b1-47b2-be59-859e0ac638e3","nodeType":10,"position":{"x":-1186.4000244140625,"y":-1825.5999755859375},"targetType":1,"assetTags":{"_tags":[]},"grantedTags":{"_tags":[{"_name":"CD.Blood","_hashCode":274000851,"_shortName":"Blood","_ancestorHashCodes":[-1137859925],"_ancestorNames":["CD"]}]},"applicationRequiredTags":{"_tags":[]},"applicationImmunityTags":{"_tags":[]},"removeGameEffectsWithTags":{"_tags":[]},"durationType":1,"duration":"3","isPeriodic":false,"period":"1","executeOnApplication":false,"attributeModifiers":[],"stackType":0,"stackLimit":0,"stackDurationRefreshPolicy":0,"stackPeriodResetPolicy":0,"stackExpirationPolicy":0,"stackOverflowPolicy":0,"ongoingRequiredTags":{"_tags":[]},"cancelOnAbilityEnd":false,"cooldownType":0,"maxCharges":2,"chargeTime":"10"}</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
@@ -1377,11 +1377,11 @@
       <c r="C23"/>
       <c r="D23"/>
       <c r="E23">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>{"guid":"c28fb88d-51b1-47b2-be59-859e0ac638e3","nodeType":10,"position":{"x":-1186.6666259765625,"y":-1747.3333740234375},"targetType":1,"assetTags":{"_tags":[]},"grantedTags":{"_tags":[{"_name":"CD.RuFood","_hashCode":-1710429436,"_shortName":"火球术","_ancestorHashCodes":[-1137859925],"_ancestorNames":["CD"]}]},"applicationRequiredTags":{"_tags":[]},"applicationImmunityTags":{"_tags":[]},"removeGameEffectsWithTags":{"_tags":[]},"durationType":1,"duration":"1","isPeriodic":false,"period":"1","executeOnApplication":false,"attributeModifiers":[],"stackType":0,"stackLimit":0,"stackDurationRefreshPolicy":0,"stackPeriodResetPolicy":0,"stackExpirationPolicy":0,"stackOverflowPolicy":0,"ongoingRequiredTags":{"_tags":[]},"cancelOnAbilityEnd":false,"cooldownType":0,"maxCharges":2,"chargeTime":"10"}</t>
+          <t>{"guid":"3aafa9a5-4766-4204-91ab-d797aeb3c0e1","nodeType":7,"position":{"x":580.6666259765625,"y":-1987.3333740234375},"targetType":1,"endType":0}</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
@@ -1397,11 +1397,11 @@
       <c r="C24"/>
       <c r="D24"/>
       <c r="E24">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>{"guid":"3aafa9a5-4766-4204-91ab-d797aeb3c0e1","nodeType":7,"position":{"x":580.6666259765625,"y":-1987.3333740234375},"targetType":1,"endType":0}</t>
+          <t>{"guid":"432ff1e3-b18d-476d-af80-d39ddc07402a","nodeType":20,"position":{"x":-491.33331298828127,"y":-2478.66650390625},"targetType":1,"skeletonDataAsset":{"instanceID":45200},"animationName":"Attack","animationDuration":"24","isAnimationLooping":false,"timeEffects":[{"triggerTime":11,"portId":"de0ba361-3aba-4ef0-bb07-9b418fcae591"},{"triggerTime":24,"portId":"7ecf9fe6-7c5e-46ae-bade-7922214225e2"}],"timeCues":[]}</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
@@ -1417,11 +1417,11 @@
       <c r="C25"/>
       <c r="D25"/>
       <c r="E25">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>{"guid":"432ff1e3-b18d-476d-af80-d39ddc07402a","nodeType":20,"position":{"x":-491.33331298828127,"y":-2478.66650390625},"targetType":1,"skeletonDataAsset":{"instanceID":45200},"animationName":"Attack","animationDuration":"24","isAnimationLooping":false,"timeEffects":[{"triggerTime":11,"portId":"de0ba361-3aba-4ef0-bb07-9b418fcae591"},{"triggerTime":24,"portId":"7ecf9fe6-7c5e-46ae-bade-7922214225e2"}],"timeCues":[]}</t>
+          <t>{"guid":"90bacd9f-d882-4bba-aaa8-41ed993ac3ff","nodeType":8,"position":{"x":-401.33331298828127,"y":-1826.666748046875},"targetType":2,"assetTags":{"_tags":[]},"grantedTags":{"_tags":[]},"applicationRequiredTags":{"_tags":[]},"applicationImmunityTags":{"_tags":[]},"removeGameEffectsWithTags":{"_tags":[]},"durationType":2,"duration":"0","isPeriodic":false,"period":"1","executeOnApplication":false,"attributeModifiers":[],"stackType":0,"stackLimit":0,"stackDurationRefreshPolicy":0,"stackPeriodResetPolicy":0,"stackExpirationPolicy":0,"stackOverflowPolicy":0,"ongoingRequiredTags":{"_tags":[]},"cancelOnAbilityEnd":false,"launchPositionSource":0,"launchBindingName":"center","targetPositionSource":1,"targetBindingName":"center","projectileTargetType":0,"flyOver":false,"offsetAngle":0.0,"curveHeight":0.0,"projectilePrefab":{"instanceID":45996},"speed":3.0,"maxDistance":10.0,"collisionRadius":0.5,"isPiercing":false,"maxPierceCount":1,"collisionTargetTags":{"_tags":[]},"collisionExcludeTags":{"_tags":[]}}</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
@@ -1437,11 +1437,11 @@
       <c r="C26"/>
       <c r="D26"/>
       <c r="E26">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>{"guid":"90bacd9f-d882-4bba-aaa8-41ed993ac3ff","nodeType":8,"position":{"x":-401.33331298828127,"y":-1826.666748046875},"targetType":2,"assetTags":{"_tags":[]},"grantedTags":{"_tags":[]},"applicationRequiredTags":{"_tags":[]},"applicationImmunityTags":{"_tags":[]},"removeGameEffectsWithTags":{"_tags":[]},"durationType":2,"duration":"0","isPeriodic":false,"period":"1","executeOnApplication":false,"attributeModifiers":[],"stackType":0,"stackLimit":0,"stackDurationRefreshPolicy":0,"stackPeriodResetPolicy":0,"stackExpirationPolicy":0,"stackOverflowPolicy":0,"ongoingRequiredTags":{"_tags":[]},"cancelOnAbilityEnd":false,"launchPositionSource":0,"launchBindingName":"center","targetPositionSource":1,"targetBindingName":"center","projectileTargetType":0,"flyOver":false,"offsetAngle":0.0,"curveHeight":0.0,"projectilePrefab":{"instanceID":45996},"speed":3.0,"maxDistance":10.0,"collisionRadius":0.5,"isPiercing":false,"maxPierceCount":1,"collisionTargetTags":{"_tags":[]},"collisionExcludeTags":{"_tags":[]}}</t>
+          <t>{"guid":"356907e0-1488-4128-bfcc-7ff73cfc3330","nodeType":0,"position":{"x":-878.6666259765625,"y":-1853.3333740234375},"targetType":1,"skillId":1004,"assetTags":{"_tags":[]},"cancelAbilitiesWithTags":{"_tags":[]},"blockAbilitiesWithTags":{"_tags":[]},"activationOwnedTags":{"_tags":[]},"activationRequiredTags":{"_tags":[]},"activationBlockedTags":{"_tags":[{"_name":"CD.Wind","_hashCode":1982736573,"_shortName":"Wind","_ancestorHashCodes":[-1137859925],"_ancestorNames":["CD"]}]},"ongoingBlockedTags":{"_tags":[{"_name":"Buff.DeBuff.Stun","_hashCode":1791562953,"_shortName":"Stun","_ancestorHashCodes":[937056111,321157895],"_ancestorNames":["Buff","Buff.DeBuff"]}]},"eventOutputPorts":[]}</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
@@ -1457,11 +1457,11 @@
       <c r="C27"/>
       <c r="D27"/>
       <c r="E27">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>{"guid":"356907e0-1488-4128-bfcc-7ff73cfc3330","nodeType":0,"position":{"x":-878.6666259765625,"y":-1853.3333740234375},"targetType":1,"skillId":1004,"assetTags":{"_tags":[]},"cancelAbilitiesWithTags":{"_tags":[]},"blockAbilitiesWithTags":{"_tags":[]},"activationOwnedTags":{"_tags":[]},"activationRequiredTags":{"_tags":[]},"activationBlockedTags":{"_tags":[{"_name":"CD.Wind","_hashCode":1982736573,"_shortName":"Wind","_ancestorHashCodes":[-1137859925],"_ancestorNames":["CD"]}]},"ongoingBlockedTags":{"_tags":[{"_name":"Buff.DeBuff.Stun","_hashCode":1791562953,"_shortName":"Stun","_ancestorHashCodes":[937056111,321157895],"_ancestorNames":["Buff","Buff.DeBuff"]}]},"eventOutputPorts":[]}</t>
+          <t>{"guid":"c28fb88d-51b1-47b2-be59-859e0ac638e3","nodeType":10,"position":{"x":-1220.6666259765625,"y":-1747.3333740234375},"targetType":1,"assetTags":{"_tags":[]},"grantedTags":{"_tags":[{"_name":"CD.FireCircle","_hashCode":522143731,"_shortName":"FireCircle","_ancestorHashCodes":[-1137859925],"_ancestorNames":["CD"]}]},"applicationRequiredTags":{"_tags":[]},"applicationImmunityTags":{"_tags":[]},"removeGameEffectsWithTags":{"_tags":[]},"durationType":1,"duration":"1","isPeriodic":false,"period":"1","executeOnApplication":false,"attributeModifiers":[],"stackType":0,"stackLimit":0,"stackDurationRefreshPolicy":0,"stackPeriodResetPolicy":0,"stackExpirationPolicy":0,"stackOverflowPolicy":0,"ongoingRequiredTags":{"_tags":[]},"cancelOnAbilityEnd":false,"cooldownType":0,"maxCharges":2,"chargeTime":"10"}</t>
         </is>
       </c>
       <c r="G27"/>
@@ -1563,7 +1563,7 @@
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>{"guid":"c28fb88d-51b1-47b2-be59-859e0ac638e3","nodeType":10,"position":{"x":-1186.6666259765625,"y":-1747.3333740234375},"targetType":1,"assetTags":{"_tags":[]},"grantedTags":{"_tags":[{"_name":"CD.神罗天正","_hashCode":810112138,"_shortName":"神罗天正","_ancestorHashCodes":[-1137859925],"_ancestorNames":["CD"]}]},"applicationRequiredTags":{"_tags":[]},"applicationImmunityTags":{"_tags":[]},"removeGameEffectsWithTags":{"_tags":[]},"durationType":1,"duration":"5","isPeriodic":false,"period":"1","executeOnApplication":false,"attributeModifiers":[],"stackType":0,"stackLimit":0,"stackDurationRefreshPolicy":0,"stackPeriodResetPolicy":0,"stackExpirationPolicy":0,"stackOverflowPolicy":0,"ongoingRequiredTags":{"_tags":[]},"cancelOnAbilityEnd":false,"cooldownType":0,"maxCharges":2,"chargeTime":"10"}</t>
+          <t>{"guid":"c28fb88d-51b1-47b2-be59-859e0ac638e3","nodeType":10,"position":{"x":-1186.6666259765625,"y":-1747.3333740234375},"targetType":1,"assetTags":{"_tags":[]},"grantedTags":{"_tags":[{"_name":"CD.God","_hashCode":1317201809,"_shortName":"God","_ancestorHashCodes":[-1137859925],"_ancestorNames":["CD"]}]},"applicationRequiredTags":{"_tags":[]},"applicationImmunityTags":{"_tags":[]},"removeGameEffectsWithTags":{"_tags":[]},"durationType":1,"duration":"5","isPeriodic":false,"period":"1","executeOnApplication":false,"attributeModifiers":[],"stackType":0,"stackLimit":0,"stackDurationRefreshPolicy":0,"stackPeriodResetPolicy":0,"stackExpirationPolicy":0,"stackOverflowPolicy":0,"ongoingRequiredTags":{"_tags":[]},"cancelOnAbilityEnd":false,"cooldownType":0,"maxCharges":2,"chargeTime":"10"}</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
@@ -1807,7 +1807,7 @@
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>{"guid":"c28fb88d-51b1-47b2-be59-859e0ac638e3","nodeType":10,"position":{"x":-1186.4000244140625,"y":-1747.199951171875},"targetType":1,"assetTags":{"_tags":[]},"grantedTags":{"_tags":[{"_name":"CD.践踏","_hashCode":-1394424629,"_shortName":"践踏","_ancestorHashCodes":[-1137859925],"_ancestorNames":["CD"]}]},"applicationRequiredTags":{"_tags":[]},"applicationImmunityTags":{"_tags":[]},"removeGameEffectsWithTags":{"_tags":[]},"durationType":1,"duration":"5","isPeriodic":false,"period":"1","executeOnApplication":false,"attributeModifiers":[],"stackType":0,"stackLimit":0,"stackDurationRefreshPolicy":0,"stackPeriodResetPolicy":0,"stackExpirationPolicy":0,"stackOverflowPolicy":0,"ongoingRequiredTags":{"_tags":[]},"cancelOnAbilityEnd":false,"cooldownType":0,"maxCharges":2,"chargeTime":"10"}</t>
+          <t>{"guid":"c28fb88d-51b1-47b2-be59-859e0ac638e3","nodeType":10,"position":{"x":-1186.4000244140625,"y":-1747.199951171875},"targetType":1,"assetTags":{"_tags":[]},"grantedTags":{"_tags":[{"_name":"CD.RuFood","_hashCode":-1045902856,"_shortName":"RuFood","_ancestorHashCodes":[-1137859925],"_ancestorNames":["CD"]}]},"applicationRequiredTags":{"_tags":[]},"applicationImmunityTags":{"_tags":[]},"removeGameEffectsWithTags":{"_tags":[]},"durationType":1,"duration":"5","isPeriodic":false,"period":"1","executeOnApplication":false,"attributeModifiers":[],"stackType":0,"stackLimit":0,"stackDurationRefreshPolicy":0,"stackPeriodResetPolicy":0,"stackExpirationPolicy":0,"stackOverflowPolicy":0,"ongoingRequiredTags":{"_tags":[]},"cancelOnAbilityEnd":false,"cooldownType":0,"maxCharges":2,"chargeTime":"10"}</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
@@ -2091,7 +2091,7 @@
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>{"guid":"c353e286-8ef0-460a-b917-887f2aeb390a","nodeType":14,"position":{"x":178.39999389648438,"y":-1786.4000244140625},"targetType":1,"requiredTags":{"_tags":[]},"immunityTags":{"_tags":[]},"destroyWithNode":false,"positionSource":2,"positionBindingName":"head","textType":0,"fixedText":"","contextDataKey":"DamageResult","textColor":{"r":1.0,"g":0.0,"b":0.0,"a":1.0},"criticalColor":{"r":1.0,"g":0.5,"b":0.0,"a":1.0},"missColor":{"r":0.5,"g":0.5,"b":0.5,"a":1.0},"fontSize":45.0,"criticalFontSize":60.0,"duration":1.5,"offset":{"x":0.0,"y":0.0},"moveDirection":{"x":0.0,"y":1.0}}</t>
+          <t>{"guid":"c353e286-8ef0-460a-b917-887f2aeb390a","nodeType":14,"position":{"x":178.66668701171876,"y":-1786.666748046875},"targetType":1,"requiredTags":{"_tags":[]},"immunityTags":{"_tags":[]},"destroyWithNode":false,"positionSource":2,"positionBindingName":"head","textType":0,"fixedText":"","contextDataKey":"DamageResult","textColor":{"r":1.0,"g":0.0,"b":0.0,"a":1.0},"criticalColor":{"r":1.0,"g":0.5,"b":0.0,"a":1.0},"missColor":{"r":0.5,"g":0.5,"b":0.5,"a":1.0},"fontSize":45.0,"criticalFontSize":60.0,"duration":1.5,"offset":{"x":0.0,"y":0.0},"moveDirection":{"x":0.0,"y":1.0}}</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
@@ -2107,11 +2107,11 @@
       <c r="C59"/>
       <c r="D59"/>
       <c r="E59">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>{"guid":"356907e0-1488-4128-bfcc-7ff73cfc3330","nodeType":0,"position":{"x":-878.4000244140625,"y":-1853.5999755859375},"targetType":1,"skillId":1001,"assetTags":{"_tags":[]},"cancelAbilitiesWithTags":{"_tags":[]},"blockAbilitiesWithTags":{"_tags":[]},"activationOwnedTags":{"_tags":[]},"activationRequiredTags":{"_tags":[]},"activationBlockedTags":{"_tags":[{"_name":"CD.Sweep","_hashCode":-303359587,"_shortName":"Sweep","_ancestorHashCodes":[-1137859925],"_ancestorNames":["CD"]}]},"ongoingBlockedTags":{"_tags":[]},"eventOutputPorts":[]}</t>
+          <t>{"guid":"2cfdacd2-0186-49dd-b177-4eb8c0ad87bd","nodeType":7,"position":{"x":689.3333740234375,"y":-1860.666748046875},"targetType":1,"endType":0}</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
@@ -2127,11 +2127,11 @@
       <c r="C60"/>
       <c r="D60"/>
       <c r="E60">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>{"guid":"c28fb88d-51b1-47b2-be59-859e0ac638e3","nodeType":10,"position":{"x":-1186.4000244140625,"y":-1747.199951171875},"targetType":1,"assetTags":{"_tags":[]},"grantedTags":{"_tags":[{"_name":"CD.横扫","_hashCode":2090173402,"_shortName":"横扫","_ancestorHashCodes":[-1137859925],"_ancestorNames":["CD"]}]},"applicationRequiredTags":{"_tags":[]},"applicationImmunityTags":{"_tags":[]},"removeGameEffectsWithTags":{"_tags":[]},"durationType":1,"duration":"1","isPeriodic":false,"period":"1","executeOnApplication":false,"attributeModifiers":[],"stackType":0,"stackLimit":0,"stackDurationRefreshPolicy":0,"stackPeriodResetPolicy":0,"stackExpirationPolicy":0,"stackOverflowPolicy":0,"ongoingRequiredTags":{"_tags":[]},"cancelOnAbilityEnd":false,"cooldownType":0,"maxCharges":2,"chargeTime":"10"}</t>
+          <t>{"guid":"f8947676-1084-4228-b991-1509cc7fe851","nodeType":1,"position":{"x":-99.99998474121094,"y":-1680.666748046875},"targetType":0,"assetTags":{"_tags":[]},"grantedTags":{"_tags":[]},"applicationRequiredTags":{"_tags":[]},"applicationImmunityTags":{"_tags":[]},"removeGameEffectsWithTags":{"_tags":[]},"durationType":0,"duration":"0","isPeriodic":false,"period":"1","executeOnApplication":false,"attributeModifiers":[],"stackType":0,"stackLimit":0,"stackDurationRefreshPolicy":0,"stackPeriodResetPolicy":0,"stackExpirationPolicy":0,"stackOverflowPolicy":0,"ongoingRequiredTags":{"_tags":[]},"cancelOnAbilityEnd":true,"damageType":0,"damageSourceType":0,"damageFixedValue":10.0,"damageFormula":"","damageMMCType":0,"damageSetByCallerKey":"","damageMMCCaptureAttribute":200,"damageMMCAttributeSource":0,"damageMMCCoefficient":1.0,"damageMMCUseSnapshot":true,"damageMultiplyByStackCount":false,"damageCalculationType":0}</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
@@ -2147,11 +2147,11 @@
       <c r="C61"/>
       <c r="D61"/>
       <c r="E61">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>{"guid":"2cfdacd2-0186-49dd-b177-4eb8c0ad87bd","nodeType":7,"position":{"x":689.5999755859375,"y":-1860.800048828125},"targetType":1,"endType":0}</t>
+          <t>{"guid":"cde57fb8-b693-4da8-a4a8-fd61e56c5dcd","nodeType":12,"position":{"x":677.3333740234375,"y":-1998.666748046875},"targetType":1,"requiredTags":{"_tags":[]},"immunityTags":{"_tags":[]},"destroyWithNode":false,"positionSource":0,"particlePrefab":{"instanceID":46090},"particleBindingName":"down","particleOffset":{"x":0.0,"y":0.0,"z":0.0},"particleScale":{"x":1.0,"y":1.0,"z":1.0},"attachToTarget":false,"particleLoop":false}</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
@@ -2167,11 +2167,11 @@
       <c r="C62"/>
       <c r="D62"/>
       <c r="E62">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>{"guid":"9d6f459d-b588-4b64-843b-1b71e8f299ae","nodeType":3,"position":{"x":-1186.4000244140625,"y":-2019.199951171875},"targetType":1,"assetTags":{"_tags":[]},"grantedTags":{"_tags":[]},"applicationRequiredTags":{"_tags":[]},"applicationImmunityTags":{"_tags":[]},"removeGameEffectsWithTags":{"_tags":[]},"durationType":0,"duration":"0","isPeriodic":false,"period":"1","executeOnApplication":false,"attributeModifiers":[{"attrType":100,"operation":0,"magnitudeSourceType":0,"fixedValue":10.0,"formula":"","mmcType":0,"setByCallerKey":"","mmcCaptureAttribute":200,"mmcAttributeSource":0,"mmcCoefficient":1.0,"mmcUseSnapshot":true}],"stackType":0,"stackLimit":0,"stackDurationRefreshPolicy":0,"stackPeriodResetPolicy":0,"stackExpirationPolicy":0,"stackOverflowPolicy":0,"ongoingRequiredTags":{"_tags":[]},"cancelOnAbilityEnd":true}</t>
+          <t>{"guid":"e33ab94c-1496-4d6a-ba5e-1afd38bb0c30","nodeType":4,"position":{"x":-452.0,"y":-1786.666748046875},"targetType":1,"searchShapeType":1,"searchLineType":0,"positionSource":0,"positionBindingName":"center","searchCircleRadius":5.0,"searchSectorRadius":2.0,"searchSectorAngle":180.0,"searchLineDirectionOffsetAngle":0.0,"searchLineDirectionWidth":1.0,"searchLineDirectionLength":10.0,"lineStartPositionSource":0,"lineStartBindingName":"","lineEndPositionSource":1,"lineEndBindingName":"","searchLineBetweenWidth":1.0,"searchLineAbsoluteAngle":0.0,"searchLineAbsoluteWidth":1.0,"searchLineAbsoluteLength":10.0,"maxTargets":999,"searchTargetTags":{"_tags":[{"_name":"unitType.monster","_hashCode":-2021655864,"_shortName":"monster","_ancestorHashCodes":[1600484460],"_ancestorNames":["unitType"]}]},"searchExcludeTags":{"_tags":[]}}</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
@@ -2187,11 +2187,11 @@
       <c r="C63"/>
       <c r="D63"/>
       <c r="E63">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>{"guid":"f8947676-1084-4228-b991-1509cc7fe851","nodeType":1,"position":{"x":-100.0,"y":-1680.800048828125},"targetType":0,"assetTags":{"_tags":[]},"grantedTags":{"_tags":[]},"applicationRequiredTags":{"_tags":[]},"applicationImmunityTags":{"_tags":[]},"removeGameEffectsWithTags":{"_tags":[]},"durationType":0,"duration":"0","isPeriodic":false,"period":"1","executeOnApplication":false,"attributeModifiers":[],"stackType":0,"stackLimit":0,"stackDurationRefreshPolicy":0,"stackPeriodResetPolicy":0,"stackExpirationPolicy":0,"stackOverflowPolicy":0,"ongoingRequiredTags":{"_tags":[]},"cancelOnAbilityEnd":true,"damageType":0,"damageSourceType":0,"damageFixedValue":10.0,"damageFormula":"","damageMMCType":0,"damageSetByCallerKey":"","damageMMCCaptureAttribute":200,"damageMMCAttributeSource":0,"damageMMCCoefficient":1.0,"damageMMCUseSnapshot":true,"damageMultiplyByStackCount":false,"damageCalculationType":0}</t>
+          <t>{"guid":"432ff1e3-b18d-476d-af80-d39ddc07402a","nodeType":20,"position":{"x":-452.0,"y":-2406.66650390625},"targetType":1,"skeletonDataAsset":{"instanceID":45056},"animationName":"Attack_01","animationDuration":"18","isAnimationLooping":false,"timeEffects":[{"triggerTime":7,"portId":"de0ba361-3aba-4ef0-bb07-9b418fcae591"},{"triggerTime":18,"portId":"84e238a8-5baf-470e-829f-186695064945"}],"timeCues":[{"startTime":7,"endTime":48,"portId":"8dea1941-c520-4f9a-aee0-40932c8542ef"}]}</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
@@ -2207,11 +2207,11 @@
       <c r="C64"/>
       <c r="D64"/>
       <c r="E64">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>{"guid":"cde57fb8-b693-4da8-a4a8-fd61e56c5dcd","nodeType":12,"position":{"x":677.5999755859375,"y":-1998.4000244140625},"targetType":1,"requiredTags":{"_tags":[]},"immunityTags":{"_tags":[]},"destroyWithNode":false,"positionSource":0,"particlePrefab":{"instanceID":46090},"particleBindingName":"down","particleOffset":{"x":0.0,"y":0.0,"z":0.0},"particleScale":{"x":1.0,"y":1.0,"z":1.0},"attachToTarget":false,"particleLoop":false}</t>
+          <t>{"guid":"356907e0-1488-4128-bfcc-7ff73cfc3330","nodeType":0,"position":{"x":-878.6666259765625,"y":-1853.3333740234375},"targetType":1,"skillId":1001,"assetTags":{"_tags":[]},"cancelAbilitiesWithTags":{"_tags":[]},"blockAbilitiesWithTags":{"_tags":[]},"activationOwnedTags":{"_tags":[]},"activationRequiredTags":{"_tags":[]},"activationBlockedTags":{"_tags":[{"_name":"CD.Sweep","_hashCode":-303359587,"_shortName":"Sweep","_ancestorHashCodes":[-1137859925],"_ancestorNames":["CD"]}]},"ongoingBlockedTags":{"_tags":[]},"eventOutputPorts":[]}</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
@@ -2227,11 +2227,11 @@
       <c r="C65"/>
       <c r="D65"/>
       <c r="E65">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>{"guid":"e33ab94c-1496-4d6a-ba5e-1afd38bb0c30","nodeType":4,"position":{"x":-452.0,"y":-1786.4000244140625},"targetType":1,"searchShapeType":1,"searchLineType":0,"positionSource":0,"positionBindingName":"center","searchCircleRadius":5.0,"searchSectorRadius":2.0,"searchSectorAngle":180.0,"searchLineDirectionOffsetAngle":0.0,"searchLineDirectionWidth":1.0,"searchLineDirectionLength":10.0,"lineStartPositionSource":0,"lineStartBindingName":"","lineEndPositionSource":1,"lineEndBindingName":"","searchLineBetweenWidth":1.0,"searchLineAbsoluteAngle":0.0,"searchLineAbsoluteWidth":1.0,"searchLineAbsoluteLength":10.0,"maxTargets":999,"searchTargetTags":{"_tags":[{"_name":"unitType.monster","_hashCode":-2021655864,"_shortName":"monster","_ancestorHashCodes":[1600484460],"_ancestorNames":["unitType"]}]},"searchExcludeTags":{"_tags":[]}}</t>
+          <t>{"guid":"c28fb88d-51b1-47b2-be59-859e0ac638e3","nodeType":10,"position":{"x":-1186.6666259765625,"y":-1747.3333740234375},"targetType":1,"assetTags":{"_tags":[]},"grantedTags":{"_tags":[{"_name":"CD.Sweep","_hashCode":-303359587,"_shortName":"Sweep","_ancestorHashCodes":[-1137859925],"_ancestorNames":["CD"]}]},"applicationRequiredTags":{"_tags":[]},"applicationImmunityTags":{"_tags":[]},"removeGameEffectsWithTags":{"_tags":[]},"durationType":1,"duration":"1","isPeriodic":false,"period":"1","executeOnApplication":false,"attributeModifiers":[],"stackType":0,"stackLimit":0,"stackDurationRefreshPolicy":0,"stackPeriodResetPolicy":0,"stackExpirationPolicy":0,"stackOverflowPolicy":0,"ongoingRequiredTags":{"_tags":[]},"cancelOnAbilityEnd":false,"cooldownType":0,"maxCharges":2,"chargeTime":"10"}</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
@@ -2247,11 +2247,11 @@
       <c r="C66"/>
       <c r="D66"/>
       <c r="E66">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>{"guid":"432ff1e3-b18d-476d-af80-d39ddc07402a","nodeType":20,"position":{"x":-452.0,"y":-2406.39990234375},"targetType":1,"skeletonDataAsset":{"instanceID":45056},"animationName":"Attack_01","animationDuration":"18","isAnimationLooping":false,"timeEffects":[{"triggerTime":7,"portId":"de0ba361-3aba-4ef0-bb07-9b418fcae591"},{"triggerTime":18,"portId":"84e238a8-5baf-470e-829f-186695064945"}],"timeCues":[{"startTime":7,"endTime":48,"portId":"8dea1941-c520-4f9a-aee0-40932c8542ef"}]}</t>
+          <t>{"guid":"9d6f459d-b588-4b64-843b-1b71e8f299ae","nodeType":3,"position":{"x":-1186.6666259765625,"y":-2019.3333740234375},"targetType":1,"assetTags":{"_tags":[]},"grantedTags":{"_tags":[]},"applicationRequiredTags":{"_tags":[]},"applicationImmunityTags":{"_tags":[]},"removeGameEffectsWithTags":{"_tags":[]},"durationType":0,"duration":"0","isPeriodic":false,"period":"1","executeOnApplication":false,"attributeModifiers":[{"attrType":100,"operation":0,"magnitudeSourceType":0,"fixedValue":-10.0,"formula":"","mmcType":0,"setByCallerKey":"","mmcCaptureAttribute":200,"mmcAttributeSource":0,"mmcCoefficient":1.0,"mmcUseSnapshot":true}],"stackType":0,"stackLimit":0,"stackDurationRefreshPolicy":0,"stackPeriodResetPolicy":0,"stackExpirationPolicy":0,"stackOverflowPolicy":0,"ongoingRequiredTags":{"_tags":[]},"cancelOnAbilityEnd":true}</t>
         </is>
       </c>
       <c r="G66"/>
@@ -2269,11 +2269,11 @@
       </c>
       <c r="D67"/>
       <c r="E67">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>{"guid":"2cfdacd2-0186-49dd-b177-4eb8c0ad87bd","nodeType":7,"position":{"x":689.5999755859375,"y":-1860.800048828125},"targetType":1,"endType":0}</t>
+          <t>{"guid":"c353e286-8ef0-460a-b917-887f2aeb390a","nodeType":14,"position":{"x":1677.3333740234375,"y":-2239.333251953125},"targetType":1,"requiredTags":{"_tags":[]},"immunityTags":{"_tags":[]},"destroyWithNode":false,"positionSource":2,"positionBindingName":"head","textType":0,"fixedText":"","contextDataKey":"DamageResult","textColor":{"r":1.0,"g":0.0,"b":0.0,"a":1.0},"criticalColor":{"r":1.0,"g":0.5,"b":0.0,"a":1.0},"missColor":{"r":0.5,"g":0.5,"b":0.5,"a":1.0},"fontSize":45.0,"criticalFontSize":60.0,"duration":1.5,"offset":{"x":0.0,"y":0.0},"moveDirection":{"x":0.0,"y":1.0}}</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
@@ -2289,11 +2289,11 @@
       <c r="C68"/>
       <c r="D68"/>
       <c r="E68">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>{"guid":"9d6f459d-b588-4b64-843b-1b71e8f299ae","nodeType":3,"position":{"x":-1186.4000244140625,"y":-2019.199951171875},"targetType":1,"assetTags":{"_tags":[]},"grantedTags":{"_tags":[]},"applicationRequiredTags":{"_tags":[]},"applicationImmunityTags":{"_tags":[]},"removeGameEffectsWithTags":{"_tags":[]},"durationType":0,"duration":"0","isPeriodic":false,"period":"1","executeOnApplication":false,"attributeModifiers":[{"attrType":100,"operation":0,"magnitudeSourceType":0,"fixedValue":10.0,"formula":"","mmcType":0,"setByCallerKey":"","mmcCaptureAttribute":200,"mmcAttributeSource":0,"mmcCoefficient":1.0,"mmcUseSnapshot":true}],"stackType":0,"stackLimit":0,"stackDurationRefreshPolicy":0,"stackPeriodResetPolicy":0,"stackExpirationPolicy":0,"stackOverflowPolicy":0,"ongoingRequiredTags":{"_tags":[]},"cancelOnAbilityEnd":true}</t>
+          <t>{"guid":"f8947676-1084-4228-b991-1509cc7fe851","nodeType":1,"position":{"x":1452.666748046875,"y":-2239.333251953125},"targetType":0,"assetTags":{"_tags":[]},"grantedTags":{"_tags":[]},"applicationRequiredTags":{"_tags":[]},"applicationImmunityTags":{"_tags":[]},"removeGameEffectsWithTags":{"_tags":[]},"durationType":0,"duration":"0","isPeriodic":false,"period":"1","executeOnApplication":false,"attributeModifiers":[],"stackType":0,"stackLimit":0,"stackDurationRefreshPolicy":0,"stackPeriodResetPolicy":0,"stackExpirationPolicy":0,"stackOverflowPolicy":0,"ongoingRequiredTags":{"_tags":[]},"cancelOnAbilityEnd":true,"damageType":0,"damageSourceType":0,"damageFixedValue":10.0,"damageFormula":"","damageMMCType":0,"damageSetByCallerKey":"","damageMMCCaptureAttribute":200,"damageMMCAttributeSource":0,"damageMMCCoefficient":1.0,"damageMMCUseSnapshot":true,"damageMultiplyByStackCount":false,"damageCalculationType":0}</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
@@ -2309,11 +2309,11 @@
       <c r="C69"/>
       <c r="D69"/>
       <c r="E69">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>{"guid":"432ff1e3-b18d-476d-af80-d39ddc07402a","nodeType":20,"position":{"x":-452.0,"y":-2406.39990234375},"targetType":1,"skeletonDataAsset":{"instanceID":45056},"animationName":"Attack_01","animationDuration":"18","isAnimationLooping":false,"timeEffects":[{"triggerTime":7,"portId":"de0ba361-3aba-4ef0-bb07-9b418fcae591"},{"triggerTime":18,"portId":"84e238a8-5baf-470e-829f-186695064945"}],"timeCues":[]}</t>
+          <t>{"guid":"2cfdacd2-0186-49dd-b177-4eb8c0ad87bd","nodeType":7,"position":{"x":1052.666748046875,"y":-2551.333251953125},"targetType":1,"endType":0}</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
@@ -2329,11 +2329,11 @@
       <c r="C70"/>
       <c r="D70"/>
       <c r="E70">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>{"guid":"c28fb88d-51b1-47b2-be59-859e0ac638e3","nodeType":10,"position":{"x":-1186.4000244140625,"y":-1747.199951171875},"targetType":1,"assetTags":{"_tags":[]},"grantedTags":{"_tags":[{"_name":"CD.三火球","_hashCode":-1656226246,"_shortName":"三火球","_ancestorHashCodes":[-1137859925],"_ancestorNames":["CD"]}]},"applicationRequiredTags":{"_tags":[]},"applicationImmunityTags":{"_tags":[]},"removeGameEffectsWithTags":{"_tags":[]},"durationType":1,"duration":"1","isPeriodic":false,"period":"1","executeOnApplication":false,"attributeModifiers":[],"stackType":0,"stackLimit":0,"stackDurationRefreshPolicy":0,"stackPeriodResetPolicy":0,"stackExpirationPolicy":0,"stackOverflowPolicy":0,"ongoingRequiredTags":{"_tags":[]},"cancelOnAbilityEnd":false,"cooldownType":0,"maxCharges":2,"chargeTime":"10"}</t>
+          <t>{"guid":"9d6f459d-b588-4b64-843b-1b71e8f299ae","nodeType":3,"position":{"x":-1144.0,"y":-2405.333251953125},"targetType":1,"assetTags":{"_tags":[]},"grantedTags":{"_tags":[]},"applicationRequiredTags":{"_tags":[]},"applicationImmunityTags":{"_tags":[]},"removeGameEffectsWithTags":{"_tags":[]},"durationType":0,"duration":"0","isPeriodic":false,"period":"1","executeOnApplication":false,"attributeModifiers":[{"attrType":100,"operation":0,"magnitudeSourceType":0,"fixedValue":10.0,"formula":"","mmcType":0,"setByCallerKey":"","mmcCaptureAttribute":200,"mmcAttributeSource":0,"mmcCoefficient":1.0,"mmcUseSnapshot":true}],"stackType":0,"stackLimit":0,"stackDurationRefreshPolicy":0,"stackPeriodResetPolicy":0,"stackExpirationPolicy":0,"stackOverflowPolicy":0,"ongoingRequiredTags":{"_tags":[]},"cancelOnAbilityEnd":true}</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
@@ -2349,11 +2349,11 @@
       <c r="C71"/>
       <c r="D71"/>
       <c r="E71">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>{"guid":"356907e0-1488-4128-bfcc-7ff73cfc3330","nodeType":0,"position":{"x":-878.4000244140625,"y":-1853.5999755859375},"targetType":1,"skillId":1008,"assetTags":{"_tags":[]},"cancelAbilitiesWithTags":{"_tags":[]},"blockAbilitiesWithTags":{"_tags":[]},"activationOwnedTags":{"_tags":[]},"activationRequiredTags":{"_tags":[]},"activationBlockedTags":{"_tags":[{"_name":"CD.ThreeFire","_hashCode":960327319,"_shortName":"ThreeFire","_ancestorHashCodes":[-1137859925],"_ancestorNames":["CD"]}]},"ongoingBlockedTags":{"_tags":[]},"eventOutputPorts":[]}</t>
+          <t>{"guid":"c28fb88d-51b1-47b2-be59-859e0ac638e3","nodeType":10,"position":{"x":-1067.3333740234375,"y":-2188.66650390625},"targetType":1,"assetTags":{"_tags":[]},"grantedTags":{"_tags":[{"_name":"CD.ThreeFire","_hashCode":960327319,"_shortName":"ThreeFire","_ancestorHashCodes":[-1137859925],"_ancestorNames":["CD"]}]},"applicationRequiredTags":{"_tags":[]},"applicationImmunityTags":{"_tags":[]},"removeGameEffectsWithTags":{"_tags":[]},"durationType":1,"duration":"1","isPeriodic":false,"period":"1","executeOnApplication":false,"attributeModifiers":[],"stackType":0,"stackLimit":0,"stackDurationRefreshPolicy":0,"stackPeriodResetPolicy":0,"stackExpirationPolicy":0,"stackOverflowPolicy":0,"ongoingRequiredTags":{"_tags":[]},"cancelOnAbilityEnd":false,"cooldownType":0,"maxCharges":2,"chargeTime":"10"}</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
@@ -2369,11 +2369,11 @@
       <c r="C72"/>
       <c r="D72"/>
       <c r="E72">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>{"guid":"c353e286-8ef0-460a-b917-887f2aeb390a","nodeType":14,"position":{"x":839.199951171875,"y":-1583.199951171875},"targetType":1,"requiredTags":{"_tags":[]},"immunityTags":{"_tags":[]},"destroyWithNode":false,"positionSource":2,"positionBindingName":"head","textType":0,"fixedText":"","contextDataKey":"DamageResult","textColor":{"r":1.0,"g":0.0,"b":0.0,"a":1.0},"criticalColor":{"r":1.0,"g":0.5,"b":0.0,"a":1.0},"missColor":{"r":0.5,"g":0.5,"b":0.5,"a":1.0},"fontSize":45.0,"criticalFontSize":60.0,"duration":1.5,"offset":{"x":0.0,"y":0.0},"moveDirection":{"x":0.0,"y":1.0}}</t>
+          <t>{"guid":"356907e0-1488-4128-bfcc-7ff73cfc3330","nodeType":0,"position":{"x":-746.6666259765625,"y":-2405.333251953125},"targetType":1,"skillId":1008,"assetTags":{"_tags":[]},"cancelAbilitiesWithTags":{"_tags":[]},"blockAbilitiesWithTags":{"_tags":[]},"activationOwnedTags":{"_tags":[]},"activationRequiredTags":{"_tags":[]},"activationBlockedTags":{"_tags":[{"_name":"CD.ThreeFire","_hashCode":960327319,"_shortName":"ThreeFire","_ancestorHashCodes":[-1137859925],"_ancestorNames":["CD"]}]},"ongoingBlockedTags":{"_tags":[]},"eventOutputPorts":[]}</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
@@ -2389,11 +2389,11 @@
       <c r="C73"/>
       <c r="D73"/>
       <c r="E73">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>{"guid":"f8947676-1084-4228-b991-1509cc7fe851","nodeType":1,"position":{"x":614.4000244140625,"y":-1583.199951171875},"targetType":0,"assetTags":{"_tags":[]},"grantedTags":{"_tags":[]},"applicationRequiredTags":{"_tags":[]},"applicationImmunityTags":{"_tags":[]},"removeGameEffectsWithTags":{"_tags":[]},"durationType":0,"duration":"0","isPeriodic":false,"period":"1","executeOnApplication":false,"attributeModifiers":[],"stackType":0,"stackLimit":0,"stackDurationRefreshPolicy":0,"stackPeriodResetPolicy":0,"stackExpirationPolicy":0,"stackOverflowPolicy":0,"ongoingRequiredTags":{"_tags":[]},"cancelOnAbilityEnd":true,"damageType":0,"damageSourceType":0,"damageFixedValue":10.0,"damageFormula":"","damageMMCType":0,"damageSetByCallerKey":"","damageMMCCaptureAttribute":200,"damageMMCAttributeSource":0,"damageMMCCoefficient":1.0,"damageMMCUseSnapshot":true,"damageMultiplyByStackCount":false,"damageCalculationType":0}</t>
+          <t>{"guid":"432ff1e3-b18d-476d-af80-d39ddc07402a","nodeType":20,"position":{"x":-238.66665649414063,"y":-2405.333251953125},"targetType":1,"skeletonDataAsset":{"instanceID":45056},"animationName":"Attack_01","animationDuration":"18","isAnimationLooping":false,"timeEffects":[{"triggerTime":7,"portId":"de0ba361-3aba-4ef0-bb07-9b418fcae591"},{"triggerTime":18,"portId":"84e238a8-5baf-470e-829f-186695064945"}],"timeCues":[]}</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
@@ -2413,7 +2413,7 @@
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>{"guid":"ce857360-de7e-4457-b348-9c124ce98879","nodeType":8,"position":{"x":202.39999389648438,"y":-1649.5999755859375},"targetType":2,"assetTags":{"_tags":[]},"grantedTags":{"_tags":[]},"applicationRequiredTags":{"_tags":[]},"applicationImmunityTags":{"_tags":[]},"removeGameEffectsWithTags":{"_tags":[]},"durationType":2,"duration":"0","isPeriodic":false,"period":"1","executeOnApplication":false,"attributeModifiers":[],"stackType":0,"stackLimit":0,"stackDurationRefreshPolicy":0,"stackPeriodResetPolicy":0,"stackExpirationPolicy":0,"stackOverflowPolicy":0,"ongoingRequiredTags":{"_tags":[]},"cancelOnAbilityEnd":false,"launchPositionSource":0,"launchBindingName":"center","targetPositionSource":2,"targetBindingName":"center","projectileTargetType":0,"flyOver":true,"offsetAngle":30.0,"curveHeight":0.0,"projectilePrefab":{"instanceID":45894},"speed":10.0,"maxDistance":10.0,"collisionRadius":0.5,"isPiercing":false,"maxPierceCount":1,"collisionTargetTags":{"_tags":[]},"collisionExcludeTags":{"_tags":[]}}</t>
+          <t>{"guid":"ce857360-de7e-4457-b348-9c124ce98879","nodeType":8,"position":{"x":1040.666748046875,"y":-2305.333251953125},"targetType":2,"assetTags":{"_tags":[]},"grantedTags":{"_tags":[]},"applicationRequiredTags":{"_tags":[]},"applicationImmunityTags":{"_tags":[]},"removeGameEffectsWithTags":{"_tags":[]},"durationType":2,"duration":"0","isPeriodic":false,"period":"1","executeOnApplication":false,"attributeModifiers":[],"stackType":0,"stackLimit":0,"stackDurationRefreshPolicy":0,"stackPeriodResetPolicy":0,"stackExpirationPolicy":0,"stackOverflowPolicy":0,"ongoingRequiredTags":{"_tags":[]},"cancelOnAbilityEnd":false,"launchPositionSource":0,"launchBindingName":"center","targetPositionSource":1,"targetBindingName":"center","projectileTargetType":0,"flyOver":true,"offsetAngle":30.0,"curveHeight":0.0,"projectilePrefab":{"instanceID":45894},"speed":10.0,"maxDistance":10.0,"collisionRadius":0.5,"isPiercing":false,"maxPierceCount":1,"collisionTargetTags":{"_tags":[]},"collisionExcludeTags":{"_tags":[]}}</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
@@ -2433,7 +2433,7 @@
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>{"guid":"9a695e91-e218-425e-82ed-1e157bf1b014","nodeType":8,"position":{"x":184.79998779296876,"y":-1475.199951171875},"targetType":2,"assetTags":{"_tags":[]},"grantedTags":{"_tags":[]},"applicationRequiredTags":{"_tags":[]},"applicationImmunityTags":{"_tags":[]},"removeGameEffectsWithTags":{"_tags":[]},"durationType":2,"duration":"0","isPeriodic":false,"period":"1","executeOnApplication":false,"attributeModifiers":[],"stackType":0,"stackLimit":0,"stackDurationRefreshPolicy":0,"stackPeriodResetPolicy":0,"stackExpirationPolicy":0,"stackOverflowPolicy":0,"ongoingRequiredTags":{"_tags":[]},"cancelOnAbilityEnd":false,"launchPositionSource":0,"launchBindingName":"center","targetPositionSource":2,"targetBindingName":"center","projectileTargetType":0,"flyOver":true,"offsetAngle":0.0,"curveHeight":0.0,"projectilePrefab":{"instanceID":45894},"speed":10.0,"maxDistance":10.0,"collisionRadius":0.5,"isPiercing":false,"maxPierceCount":1,"collisionTargetTags":{"_tags":[]},"collisionExcludeTags":{"_tags":[]}}</t>
+          <t>{"guid":"9a695e91-e218-425e-82ed-1e157bf1b014","nodeType":8,"position":{"x":1022.666748046875,"y":-2131.333251953125},"targetType":2,"assetTags":{"_tags":[]},"grantedTags":{"_tags":[]},"applicationRequiredTags":{"_tags":[]},"applicationImmunityTags":{"_tags":[]},"removeGameEffectsWithTags":{"_tags":[]},"durationType":2,"duration":"0","isPeriodic":false,"period":"1","executeOnApplication":false,"attributeModifiers":[],"stackType":0,"stackLimit":0,"stackDurationRefreshPolicy":0,"stackPeriodResetPolicy":0,"stackExpirationPolicy":0,"stackOverflowPolicy":0,"ongoingRequiredTags":{"_tags":[]},"cancelOnAbilityEnd":false,"launchPositionSource":0,"launchBindingName":"center","targetPositionSource":1,"targetBindingName":"center","projectileTargetType":0,"flyOver":true,"offsetAngle":0.0,"curveHeight":0.0,"projectilePrefab":{"instanceID":45894},"speed":10.0,"maxDistance":10.0,"collisionRadius":0.5,"isPiercing":false,"maxPierceCount":1,"collisionTargetTags":{"_tags":[]},"collisionExcludeTags":{"_tags":[]}}</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
@@ -2453,7 +2453,7 @@
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>{"guid":"d897a922-5756-42cf-ac65-90a48c1e5a17","nodeType":8,"position":{"x":173.60000610351563,"y":-1327.199951171875},"targetType":2,"assetTags":{"_tags":[]},"grantedTags":{"_tags":[]},"applicationRequiredTags":{"_tags":[]},"applicationImmunityTags":{"_tags":[]},"removeGameEffectsWithTags":{"_tags":[]},"durationType":2,"duration":"0","isPeriodic":false,"period":"1","executeOnApplication":false,"attributeModifiers":[],"stackType":0,"stackLimit":0,"stackDurationRefreshPolicy":0,"stackPeriodResetPolicy":0,"stackExpirationPolicy":0,"stackOverflowPolicy":0,"ongoingRequiredTags":{"_tags":[]},"cancelOnAbilityEnd":false,"launchPositionSource":0,"launchBindingName":"center","targetPositionSource":2,"targetBindingName":"center","projectileTargetType":0,"flyOver":true,"offsetAngle":-30.0,"curveHeight":0.0,"projectilePrefab":{"instanceID":45894},"speed":10.0,"maxDistance":10.0,"collisionRadius":0.5,"isPiercing":false,"maxPierceCount":1,"collisionTargetTags":{"_tags":[]},"collisionExcludeTags":{"_tags":[]}}</t>
+          <t>{"guid":"d897a922-5756-42cf-ac65-90a48c1e5a17","nodeType":8,"position":{"x":1022.666748046875,"y":-1978.0},"targetType":2,"assetTags":{"_tags":[]},"grantedTags":{"_tags":[]},"applicationRequiredTags":{"_tags":[]},"applicationImmunityTags":{"_tags":[]},"removeGameEffectsWithTags":{"_tags":[]},"durationType":2,"duration":"0","isPeriodic":false,"period":"1","executeOnApplication":false,"attributeModifiers":[],"stackType":0,"stackLimit":0,"stackDurationRefreshPolicy":0,"stackPeriodResetPolicy":0,"stackExpirationPolicy":0,"stackOverflowPolicy":0,"ongoingRequiredTags":{"_tags":[]},"cancelOnAbilityEnd":false,"launchPositionSource":0,"launchBindingName":"center","targetPositionSource":1,"targetBindingName":"center","projectileTargetType":0,"flyOver":true,"offsetAngle":-30.0,"curveHeight":0.0,"projectilePrefab":{"instanceID":45894},"speed":10.0,"maxDistance":10.0,"collisionRadius":0.5,"isPiercing":false,"maxPierceCount":1,"collisionTargetTags":{"_tags":[]},"collisionExcludeTags":{"_tags":[]}}</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
@@ -2553,7 +2553,7 @@
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>{"guid":"c28fb88d-51b1-47b2-be59-859e0ac638e3","nodeType":10,"position":{"x":-1186.4000244140625,"y":-1747.199951171875},"targetType":1,"assetTags":{"_tags":[]},"grantedTags":{"_tags":[{"_name":"CD.万象天引","_hashCode":-531853721,"_shortName":"万象天引","_ancestorHashCodes":[-1137859925],"_ancestorNames":["CD"]}]},"applicationRequiredTags":{"_tags":[]},"applicationImmunityTags":{"_tags":[]},"removeGameEffectsWithTags":{"_tags":[]},"durationType":1,"duration":"5","isPeriodic":false,"period":"1","executeOnApplication":false,"attributeModifiers":[],"stackType":0,"stackLimit":0,"stackDurationRefreshPolicy":0,"stackPeriodResetPolicy":0,"stackExpirationPolicy":0,"stackOverflowPolicy":0,"ongoingRequiredTags":{"_tags":[]},"cancelOnAbilityEnd":false,"cooldownType":0,"maxCharges":2,"chargeTime":"10"}</t>
+          <t>{"guid":"c28fb88d-51b1-47b2-be59-859e0ac638e3","nodeType":10,"position":{"x":-1186.4000244140625,"y":-1747.199951171875},"targetType":1,"assetTags":{"_tags":[]},"grantedTags":{"_tags":[{"_name":"CD.Wan","_hashCode":87403585,"_shortName":"Wan","_ancestorHashCodes":[-1137859925],"_ancestorNames":["CD"]}]},"applicationRequiredTags":{"_tags":[]},"applicationImmunityTags":{"_tags":[]},"removeGameEffectsWithTags":{"_tags":[]},"durationType":1,"duration":"5","isPeriodic":false,"period":"1","executeOnApplication":false,"attributeModifiers":[],"stackType":0,"stackLimit":0,"stackDurationRefreshPolicy":0,"stackPeriodResetPolicy":0,"stackExpirationPolicy":0,"stackOverflowPolicy":0,"ongoingRequiredTags":{"_tags":[]},"cancelOnAbilityEnd":false,"cooldownType":0,"maxCharges":2,"chargeTime":"10"}</t>
         </is>
       </c>
       <c r="G81" t="inlineStr">
@@ -2755,7 +2755,7 @@
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>{"guid":"c28fb88d-51b1-47b2-be59-859e0ac638e3","nodeType":10,"position":{"x":-1186.4000244140625,"y":-1747.199951171875},"targetType":1,"assetTags":{"_tags":[]},"grantedTags":{"_tags":[{"_name":"CD.旋风斩","_hashCode":1979572373,"_shortName":"旋风斩","_ancestorHashCodes":[-1137859925],"_ancestorNames":["CD"]}]},"applicationRequiredTags":{"_tags":[]},"applicationImmunityTags":{"_tags":[]},"removeGameEffectsWithTags":{"_tags":[]},"durationType":1,"duration":"15","isPeriodic":false,"period":"1","executeOnApplication":false,"attributeModifiers":[],"stackType":0,"stackLimit":0,"stackDurationRefreshPolicy":0,"stackPeriodResetPolicy":0,"stackExpirationPolicy":0,"stackOverflowPolicy":0,"ongoingRequiredTags":{"_tags":[]},"cancelOnAbilityEnd":false,"cooldownType":0,"maxCharges":2,"chargeTime":"10"}</t>
+          <t>{"guid":"c28fb88d-51b1-47b2-be59-859e0ac638e3","nodeType":10,"position":{"x":-1186.4000244140625,"y":-1747.199951171875},"targetType":1,"assetTags":{"_tags":[]},"grantedTags":{"_tags":[{"_name":"CD.Wind","_hashCode":1982736573,"_shortName":"Wind","_ancestorHashCodes":[-1137859925],"_ancestorNames":["CD"]}]},"applicationRequiredTags":{"_tags":[]},"applicationImmunityTags":{"_tags":[]},"removeGameEffectsWithTags":{"_tags":[]},"durationType":1,"duration":"15","isPeriodic":false,"period":"1","executeOnApplication":false,"attributeModifiers":[],"stackType":0,"stackLimit":0,"stackDurationRefreshPolicy":0,"stackPeriodResetPolicy":0,"stackExpirationPolicy":0,"stackOverflowPolicy":0,"ongoingRequiredTags":{"_tags":[]},"cancelOnAbilityEnd":false,"cooldownType":0,"maxCharges":2,"chargeTime":"10"}</t>
         </is>
       </c>
       <c r="G91" t="inlineStr">

--- a/Luban/MiniTemplate/Datas/#SkillGraph.xlsx
+++ b/Luban/MiniTemplate/Datas/#SkillGraph.xlsx
@@ -1195,11 +1195,11 @@
       <c r="C14"/>
       <c r="D14"/>
       <c r="E14">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>{"guid":"356907e0-1488-4128-bfcc-7ff73cfc3330","nodeType":0,"position":{"x":-878.4000244140625,"y":-1853.5999755859375},"targetType":1,"skillId":1002,"assetTags":{"_tags":[]},"cancelAbilitiesWithTags":{"_tags":[]},"blockAbilitiesWithTags":{"_tags":[]},"activationOwnedTags":{"_tags":[]},"activationRequiredTags":{"_tags":[]},"activationBlockedTags":{"_tags":[{"_name":"CD.Blood","_hashCode":274000851,"_shortName":"Blood","_ancestorHashCodes":[-1137859925],"_ancestorNames":["CD"]}]},"ongoingBlockedTags":{"_tags":[]},"eventOutputPorts":[]}</t>
+          <t>{"guid":"011aad56-e96c-41eb-9d85-e793d74a40bb","nodeType":7,"position":{"x":677.5999755859375,"y":-1879.199951171875},"targetType":1,"endType":0}</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
@@ -1215,11 +1215,11 @@
       <c r="C15"/>
       <c r="D15"/>
       <c r="E15">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>{"guid":"011aad56-e96c-41eb-9d85-e793d74a40bb","nodeType":7,"position":{"x":677.5999755859375,"y":-1879.199951171875},"targetType":1,"endType":0}</t>
+          <t>{"guid":"f8947676-1084-4228-b991-1509cc7fe851","nodeType":1,"position":{"x":195.20001220703126,"y":-1761.5999755859375},"targetType":0,"assetTags":{"_tags":[]},"grantedTags":{"_tags":[]},"applicationRequiredTags":{"_tags":[]},"applicationImmunityTags":{"_tags":[]},"removeGameEffectsWithTags":{"_tags":[]},"durationType":0,"duration":"0","isPeriodic":false,"period":"1","executeOnApplication":false,"attributeModifiers":[],"stackType":0,"stackLimit":0,"stackDurationRefreshPolicy":0,"stackPeriodResetPolicy":0,"stackExpirationPolicy":0,"stackOverflowPolicy":0,"ongoingRequiredTags":{"_tags":[]},"cancelOnAbilityEnd":true,"damageType":0,"damageSourceType":0,"damageFixedValue":3.0,"damageFormula":"","damageMMCType":0,"damageSetByCallerKey":"","damageMMCCaptureAttribute":200,"damageMMCAttributeSource":0,"damageMMCCoefficient":1.0,"damageMMCUseSnapshot":true,"damageMultiplyByStackCount":true,"damageCalculationType":0}</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
@@ -1235,11 +1235,11 @@
       <c r="C16"/>
       <c r="D16"/>
       <c r="E16">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>{"guid":"f8947676-1084-4228-b991-1509cc7fe851","nodeType":1,"position":{"x":195.20001220703126,"y":-1761.5999755859375},"targetType":0,"assetTags":{"_tags":[]},"grantedTags":{"_tags":[]},"applicationRequiredTags":{"_tags":[]},"applicationImmunityTags":{"_tags":[]},"removeGameEffectsWithTags":{"_tags":[]},"durationType":0,"duration":"0","isPeriodic":false,"period":"1","executeOnApplication":false,"attributeModifiers":[],"stackType":0,"stackLimit":0,"stackDurationRefreshPolicy":0,"stackPeriodResetPolicy":0,"stackExpirationPolicy":0,"stackOverflowPolicy":0,"ongoingRequiredTags":{"_tags":[]},"cancelOnAbilityEnd":true,"damageType":0,"damageSourceType":0,"damageFixedValue":3.0,"damageFormula":"","damageMMCType":0,"damageSetByCallerKey":"","damageMMCCaptureAttribute":200,"damageMMCAttributeSource":0,"damageMMCCoefficient":1.0,"damageMMCUseSnapshot":true,"damageMultiplyByStackCount":true,"damageCalculationType":0}</t>
+          <t>{"guid":"cb1df36f-5729-423e-9d1a-287db5a433f0","nodeType":11,"position":{"x":-160.8000030517578,"y":-1761.5999755859375},"targetType":0,"assetTags":{"_tags":[{"_name":"Buff.DeBuff.Dot","_hashCode":-637848644,"_shortName":"Dot","_ancestorHashCodes":[937056111,321157895],"_ancestorNames":["Buff","Buff.DeBuff"]}]},"grantedTags":{"_tags":[]},"applicationRequiredTags":{"_tags":[]},"applicationImmunityTags":{"_tags":[]},"removeGameEffectsWithTags":{"_tags":[]},"durationType":1,"duration":"10","isPeriodic":true,"period":"1","executeOnApplication":false,"attributeModifiers":[],"stackType":1,"stackLimit":3,"stackDurationRefreshPolicy":0,"stackPeriodResetPolicy":1,"stackExpirationPolicy":0,"stackOverflowPolicy":0,"ongoingRequiredTags":{"_tags":[]},"cancelOnAbilityEnd":false,"buffId":0}</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
@@ -1255,11 +1255,11 @@
       <c r="C17"/>
       <c r="D17"/>
       <c r="E17">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>{"guid":"cb1df36f-5729-423e-9d1a-287db5a433f0","nodeType":11,"position":{"x":-160.8000030517578,"y":-1761.5999755859375},"targetType":0,"assetTags":{"_tags":[{"_name":"Buff.DeBuff.Dot","_hashCode":-637848644,"_shortName":"Dot","_ancestorHashCodes":[937056111,321157895],"_ancestorNames":["Buff","Buff.DeBuff"]}]},"grantedTags":{"_tags":[]},"applicationRequiredTags":{"_tags":[]},"applicationImmunityTags":{"_tags":[]},"removeGameEffectsWithTags":{"_tags":[]},"durationType":1,"duration":"10","isPeriodic":true,"period":"1","executeOnApplication":false,"attributeModifiers":[],"stackType":1,"stackLimit":3,"stackDurationRefreshPolicy":0,"stackPeriodResetPolicy":1,"stackExpirationPolicy":0,"stackOverflowPolicy":0,"ongoingRequiredTags":{"_tags":[]},"cancelOnAbilityEnd":false,"buffId":0}</t>
+          <t>{"guid":"e33ab94c-1496-4d6a-ba5e-1afd38bb0c30","nodeType":4,"position":{"x":-452.0,"y":-1786.4000244140625},"targetType":1,"searchShapeType":1,"searchLineType":0,"positionSource":0,"positionBindingName":"center","searchCircleRadius":5.0,"searchSectorRadius":2.0,"searchSectorAngle":180.0,"searchLineDirectionOffsetAngle":0.0,"searchLineDirectionWidth":1.0,"searchLineDirectionLength":10.0,"lineStartPositionSource":0,"lineStartBindingName":"","lineEndPositionSource":1,"lineEndBindingName":"","searchLineBetweenWidth":1.0,"searchLineAbsoluteAngle":0.0,"searchLineAbsoluteWidth":1.0,"searchLineAbsoluteLength":10.0,"maxTargets":999,"searchTargetTags":{"_tags":[{"_name":"unitType.monster","_hashCode":-2021655864,"_shortName":"monster","_ancestorHashCodes":[1600484460],"_ancestorNames":["unitType"]}]},"searchExcludeTags":{"_tags":[]}}</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
@@ -1275,11 +1275,11 @@
       <c r="C18"/>
       <c r="D18"/>
       <c r="E18">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>{"guid":"e33ab94c-1496-4d6a-ba5e-1afd38bb0c30","nodeType":4,"position":{"x":-452.0,"y":-1786.4000244140625},"targetType":1,"searchShapeType":1,"searchLineType":0,"positionSource":0,"positionBindingName":"center","searchCircleRadius":5.0,"searchSectorRadius":2.0,"searchSectorAngle":180.0,"searchLineDirectionOffsetAngle":0.0,"searchLineDirectionWidth":1.0,"searchLineDirectionLength":10.0,"lineStartPositionSource":0,"lineStartBindingName":"","lineEndPositionSource":1,"lineEndBindingName":"","searchLineBetweenWidth":1.0,"searchLineAbsoluteAngle":0.0,"searchLineAbsoluteWidth":1.0,"searchLineAbsoluteLength":10.0,"maxTargets":999,"searchTargetTags":{"_tags":[{"_name":"unitType.monster","_hashCode":-2021655864,"_shortName":"monster","_ancestorHashCodes":[1600484460],"_ancestorNames":["unitType"]}]},"searchExcludeTags":{"_tags":[]}}</t>
+          <t>{"guid":"432ff1e3-b18d-476d-af80-d39ddc07402a","nodeType":20,"position":{"x":-472.0,"y":-2380.800048828125},"targetType":1,"skeletonDataAsset":{"instanceID":45056},"animationName":"Attack_02","animationDuration":"22","isAnimationLooping":false,"timeEffects":[{"triggerTime":7,"portId":"de0ba361-3aba-4ef0-bb07-9b418fcae591"},{"triggerTime":22,"portId":"97dc121c-84b7-4f94-9997-02e0e5b2ea6c"}],"timeCues":[{"startTime":7,"endTime":48,"portId":"8dea1941-c520-4f9a-aee0-40932c8542ef"}]}</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
@@ -1295,11 +1295,11 @@
       <c r="C19"/>
       <c r="D19"/>
       <c r="E19">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>{"guid":"432ff1e3-b18d-476d-af80-d39ddc07402a","nodeType":20,"position":{"x":-472.0,"y":-2380.800048828125},"targetType":1,"skeletonDataAsset":{"instanceID":45056},"animationName":"Attack_02","animationDuration":"22","isAnimationLooping":false,"timeEffects":[{"triggerTime":7,"portId":"de0ba361-3aba-4ef0-bb07-9b418fcae591"},{"triggerTime":22,"portId":"97dc121c-84b7-4f94-9997-02e0e5b2ea6c"}],"timeCues":[{"startTime":7,"endTime":48,"portId":"8dea1941-c520-4f9a-aee0-40932c8542ef"}]}</t>
+          <t>{"guid":"356907e0-1488-4128-bfcc-7ff73cfc3330","nodeType":0,"position":{"x":-878.4000244140625,"y":-1853.5999755859375},"targetType":1,"skillId":1002,"assetTags":{"_tags":[]},"cancelAbilitiesWithTags":{"_tags":[]},"blockAbilitiesWithTags":{"_tags":[]},"activationOwnedTags":{"_tags":[{"_name":"Skill.Running","_hashCode":-51601538,"_shortName":"Running","_ancestorHashCodes":[1312877309],"_ancestorNames":["Skill"]}]},"activationRequiredTags":{"_tags":[]},"activationBlockedTags":{"_tags":[{"_name":"CD.Blood","_hashCode":274000851,"_shortName":"Blood","_ancestorHashCodes":[-1137859925],"_ancestorNames":["CD"]},{"_name":"Skill.Running","_hashCode":-51601538,"_shortName":"Running","_ancestorHashCodes":[1312877309],"_ancestorNames":["Skill"]}]},"ongoingBlockedTags":{"_tags":[]},"eventOutputPorts":[]}</t>
         </is>
       </c>
       <c r="G19"/>
@@ -1539,11 +1539,11 @@
       <c r="C31"/>
       <c r="D31"/>
       <c r="E31">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>{"guid":"356907e0-1488-4128-bfcc-7ff73cfc3330","nodeType":0,"position":{"x":-878.6666259765625,"y":-1853.3333740234375},"targetType":1,"skillId":1005,"assetTags":{"_tags":[]},"cancelAbilitiesWithTags":{"_tags":[]},"blockAbilitiesWithTags":{"_tags":[]},"activationOwnedTags":{"_tags":[]},"activationRequiredTags":{"_tags":[]},"activationBlockedTags":{"_tags":[{"_name":"CD.RecBlood","_hashCode":1043024739,"_shortName":"RecBlood","_ancestorHashCodes":[-1137859925],"_ancestorNames":["CD"]}]},"ongoingBlockedTags":{"_tags":[]},"eventOutputPorts":[]}</t>
+          <t>{"guid":"c28fb88d-51b1-47b2-be59-859e0ac638e3","nodeType":10,"position":{"x":-1186.6666259765625,"y":-1747.3333740234375},"targetType":1,"assetTags":{"_tags":[]},"grantedTags":{"_tags":[{"_name":"CD.God","_hashCode":1317201809,"_shortName":"God","_ancestorHashCodes":[-1137859925],"_ancestorNames":["CD"]}]},"applicationRequiredTags":{"_tags":[]},"applicationImmunityTags":{"_tags":[]},"removeGameEffectsWithTags":{"_tags":[]},"durationType":1,"duration":"5","isPeriodic":false,"period":"1","executeOnApplication":false,"attributeModifiers":[],"stackType":0,"stackLimit":0,"stackDurationRefreshPolicy":0,"stackPeriodResetPolicy":0,"stackExpirationPolicy":0,"stackOverflowPolicy":0,"ongoingRequiredTags":{"_tags":[]},"cancelOnAbilityEnd":false,"cooldownType":0,"maxCharges":2,"chargeTime":"10"}</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
@@ -1559,11 +1559,11 @@
       <c r="C32"/>
       <c r="D32"/>
       <c r="E32">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>{"guid":"c28fb88d-51b1-47b2-be59-859e0ac638e3","nodeType":10,"position":{"x":-1186.6666259765625,"y":-1747.3333740234375},"targetType":1,"assetTags":{"_tags":[]},"grantedTags":{"_tags":[{"_name":"CD.God","_hashCode":1317201809,"_shortName":"God","_ancestorHashCodes":[-1137859925],"_ancestorNames":["CD"]}]},"applicationRequiredTags":{"_tags":[]},"applicationImmunityTags":{"_tags":[]},"removeGameEffectsWithTags":{"_tags":[]},"durationType":1,"duration":"5","isPeriodic":false,"period":"1","executeOnApplication":false,"attributeModifiers":[],"stackType":0,"stackLimit":0,"stackDurationRefreshPolicy":0,"stackPeriodResetPolicy":0,"stackExpirationPolicy":0,"stackOverflowPolicy":0,"ongoingRequiredTags":{"_tags":[]},"cancelOnAbilityEnd":false,"cooldownType":0,"maxCharges":2,"chargeTime":"10"}</t>
+          <t>{"guid":"091ecddb-f80b-4c00-aa06-f9bc718618d2","nodeType":22,"position":{"x":-93.33332824707031,"y":-1708.666748046875},"targetType":0,"assetTags":{"_tags":[]},"grantedTags":{"_tags":[]},"applicationRequiredTags":{"_tags":[]},"applicationImmunityTags":{"_tags":[]},"removeGameEffectsWithTags":{"_tags":[]},"durationType":1,"duration":"0.5","isPeriodic":false,"period":"1","executeOnApplication":false,"attributeModifiers":[],"stackType":0,"stackLimit":0,"stackDurationRefreshPolicy":0,"stackPeriodResetPolicy":0,"stackExpirationPolicy":0,"stackOverflowPolicy":0,"ongoingRequiredTags":{"_tags":[]},"cancelOnAbilityEnd":false,"displaceType":1,"speed":10.0,"distance":3.0,"minDistance":0.5,"pointSource":0,"pointBindingName":""}</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
@@ -1579,11 +1579,11 @@
       <c r="C33"/>
       <c r="D33"/>
       <c r="E33">
-        <v>22</v>
+        <v>4</v>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>{"guid":"091ecddb-f80b-4c00-aa06-f9bc718618d2","nodeType":22,"position":{"x":-93.33332824707031,"y":-1708.666748046875},"targetType":0,"assetTags":{"_tags":[]},"grantedTags":{"_tags":[]},"applicationRequiredTags":{"_tags":[]},"applicationImmunityTags":{"_tags":[]},"removeGameEffectsWithTags":{"_tags":[]},"durationType":1,"duration":"0.5","isPeriodic":false,"period":"1","executeOnApplication":false,"attributeModifiers":[],"stackType":0,"stackLimit":0,"stackDurationRefreshPolicy":0,"stackPeriodResetPolicy":0,"stackExpirationPolicy":0,"stackOverflowPolicy":0,"ongoingRequiredTags":{"_tags":[]},"cancelOnAbilityEnd":false,"displaceType":1,"speed":10.0,"distance":3.0,"minDistance":0.5,"pointSource":0,"pointBindingName":""}</t>
+          <t>{"guid":"e33ab94c-1496-4d6a-ba5e-1afd38bb0c30","nodeType":4,"position":{"x":-452.0,"y":-1786.666748046875},"targetType":1,"searchShapeType":0,"searchLineType":0,"positionSource":0,"positionBindingName":"center","searchCircleRadius":4.0,"searchSectorRadius":2.0,"searchSectorAngle":180.0,"searchLineDirectionOffsetAngle":0.0,"searchLineDirectionWidth":1.0,"searchLineDirectionLength":10.0,"lineStartPositionSource":0,"lineStartBindingName":"","lineEndPositionSource":1,"lineEndBindingName":"","searchLineBetweenWidth":1.0,"searchLineAbsoluteAngle":0.0,"searchLineAbsoluteWidth":1.0,"searchLineAbsoluteLength":10.0,"maxTargets":999,"searchTargetTags":{"_tags":[{"_name":"unitType.monster","_hashCode":-2021655864,"_shortName":"monster","_ancestorHashCodes":[1600484460],"_ancestorNames":["unitType"]}]},"searchExcludeTags":{"_tags":[]}}</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
@@ -1599,11 +1599,11 @@
       <c r="C34"/>
       <c r="D34"/>
       <c r="E34">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>{"guid":"e33ab94c-1496-4d6a-ba5e-1afd38bb0c30","nodeType":4,"position":{"x":-452.0,"y":-1786.666748046875},"targetType":1,"searchShapeType":0,"searchLineType":0,"positionSource":0,"positionBindingName":"center","searchCircleRadius":4.0,"searchSectorRadius":2.0,"searchSectorAngle":180.0,"searchLineDirectionOffsetAngle":0.0,"searchLineDirectionWidth":1.0,"searchLineDirectionLength":10.0,"lineStartPositionSource":0,"lineStartBindingName":"","lineEndPositionSource":1,"lineEndBindingName":"","searchLineBetweenWidth":1.0,"searchLineAbsoluteAngle":0.0,"searchLineAbsoluteWidth":1.0,"searchLineAbsoluteLength":10.0,"maxTargets":999,"searchTargetTags":{"_tags":[{"_name":"unitType.monster","_hashCode":-2021655864,"_shortName":"monster","_ancestorHashCodes":[1600484460],"_ancestorNames":["unitType"]}]},"searchExcludeTags":{"_tags":[]}}</t>
+          <t>{"guid":"432ff1e3-b18d-476d-af80-d39ddc07402a","nodeType":20,"position":{"x":-646.0,"y":-2456.0},"targetType":1,"skeletonDataAsset":{"instanceID":45056},"animationName":"Skill_attack_1009","animationDuration":"25","isAnimationLooping":false,"timeEffects":[{"triggerTime":4,"portId":"de0ba361-3aba-4ef0-bb07-9b418fcae591"},{"triggerTime":25,"portId":"f41c85e0-7f26-494e-9ffc-4a06c980f811"}],"timeCues":[{"startTime":0,"endTime":75,"portId":"8dea1941-c520-4f9a-aee0-40932c8542ef"}]}</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
@@ -1619,11 +1619,11 @@
       <c r="C35"/>
       <c r="D35"/>
       <c r="E35">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>{"guid":"432ff1e3-b18d-476d-af80-d39ddc07402a","nodeType":20,"position":{"x":-646.0,"y":-2456.0},"targetType":1,"skeletonDataAsset":{"instanceID":45056},"animationName":"Skill_attack_1009","animationDuration":"25","isAnimationLooping":false,"timeEffects":[{"triggerTime":4,"portId":"de0ba361-3aba-4ef0-bb07-9b418fcae591"},{"triggerTime":25,"portId":"f41c85e0-7f26-494e-9ffc-4a06c980f811"}],"timeCues":[{"startTime":0,"endTime":75,"portId":"8dea1941-c520-4f9a-aee0-40932c8542ef"}]}</t>
+          <t>{"guid":"356907e0-1488-4128-bfcc-7ff73cfc3330","nodeType":0,"position":{"x":-878.6666259765625,"y":-1853.3333740234375},"targetType":1,"skillId":1005,"assetTags":{"_tags":[]},"cancelAbilitiesWithTags":{"_tags":[]},"blockAbilitiesWithTags":{"_tags":[]},"activationOwnedTags":{"_tags":[{"_name":"Skill.Running","_hashCode":-51601538,"_shortName":"Running","_ancestorHashCodes":[1312877309],"_ancestorNames":["Skill"]}]},"activationRequiredTags":{"_tags":[]},"activationBlockedTags":{"_tags":[{"_name":"CD.RecBlood","_hashCode":1043024739,"_shortName":"RecBlood","_ancestorHashCodes":[-1137859925],"_ancestorNames":["CD"]},{"_name":"Skill.Running","_hashCode":-51601538,"_shortName":"Running","_ancestorHashCodes":[1312877309],"_ancestorNames":["Skill"]}]},"ongoingBlockedTags":{"_tags":[]},"eventOutputPorts":[]}</t>
         </is>
       </c>
       <c r="G35"/>
@@ -1823,11 +1823,11 @@
       <c r="C45"/>
       <c r="D45"/>
       <c r="E45">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>{"guid":"356907e0-1488-4128-bfcc-7ff73cfc3330","nodeType":0,"position":{"x":-878.4000244140625,"y":-1853.5999755859375},"targetType":1,"skillId":1003,"assetTags":{"_tags":[]},"cancelAbilitiesWithTags":{"_tags":[]},"blockAbilitiesWithTags":{"_tags":[]},"activationOwnedTags":{"_tags":[]},"activationRequiredTags":{"_tags":[]},"activationBlockedTags":{"_tags":[{"_name":"CD.RuFood","_hashCode":-1045902856,"_shortName":"RuFood","_ancestorHashCodes":[-1137859925],"_ancestorNames":["CD"]}]},"ongoingBlockedTags":{"_tags":[]},"eventOutputPorts":[]}</t>
+          <t>{"guid":"cde57fb8-b693-4da8-a4a8-fd61e56c5dcd","nodeType":12,"position":{"x":677.5999755859375,"y":-1998.4000244140625},"targetType":1,"requiredTags":{"_tags":[]},"immunityTags":{"_tags":[]},"destroyWithNode":false,"positionSource":0,"particlePrefab":{"instanceID":46054},"particleBindingName":"down","particleOffset":{"x":0.0,"y":0.0,"z":0.0},"particleScale":{"x":1.0,"y":1.0,"z":1.0},"attachToTarget":false,"particleLoop":false}</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
@@ -1843,11 +1843,11 @@
       <c r="C46"/>
       <c r="D46"/>
       <c r="E46">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>{"guid":"cde57fb8-b693-4da8-a4a8-fd61e56c5dcd","nodeType":12,"position":{"x":677.5999755859375,"y":-1998.4000244140625},"targetType":1,"requiredTags":{"_tags":[]},"immunityTags":{"_tags":[]},"destroyWithNode":false,"positionSource":0,"particlePrefab":{"instanceID":46054},"particleBindingName":"down","particleOffset":{"x":0.0,"y":0.0,"z":0.0},"particleScale":{"x":1.0,"y":1.0,"z":1.0},"attachToTarget":false,"particleLoop":false}</t>
+          <t>{"guid":"f73ba91e-a76b-456c-b19c-a5176809d5f5","nodeType":7,"position":{"x":700.0,"y":-1856.800048828125},"targetType":1,"endType":0}</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
@@ -1863,11 +1863,11 @@
       <c r="C47"/>
       <c r="D47"/>
       <c r="E47">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>{"guid":"f73ba91e-a76b-456c-b19c-a5176809d5f5","nodeType":7,"position":{"x":700.0,"y":-1856.800048828125},"targetType":1,"endType":0}</t>
+          <t>{"guid":"93ec5a43-cc34-4e4a-acb3-39da2f2c3010","nodeType":12,"position":{"x":468.79998779296877,"y":-1749.5999755859375},"targetType":1,"requiredTags":{"_tags":[]},"immunityTags":{"_tags":[]},"destroyWithNode":true,"positionSource":2,"particlePrefab":{"instanceID":46182},"particleBindingName":"head","particleOffset":{"x":0.0,"y":0.0,"z":0.0},"particleScale":{"x":1.0,"y":1.0,"z":1.0},"attachToTarget":true,"particleLoop":true}</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
@@ -1883,11 +1883,11 @@
       <c r="C48"/>
       <c r="D48"/>
       <c r="E48">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>{"guid":"93ec5a43-cc34-4e4a-acb3-39da2f2c3010","nodeType":12,"position":{"x":468.79998779296877,"y":-1749.5999755859375},"targetType":1,"requiredTags":{"_tags":[]},"immunityTags":{"_tags":[]},"destroyWithNode":true,"positionSource":2,"particlePrefab":{"instanceID":46182},"particleBindingName":"head","particleOffset":{"x":0.0,"y":0.0,"z":0.0},"particleScale":{"x":1.0,"y":1.0,"z":1.0},"attachToTarget":true,"particleLoop":true}</t>
+          <t>{"guid":"cb1df36f-5729-423e-9d1a-287db5a433f0","nodeType":11,"position":{"x":18.399993896484376,"y":-1786.4000244140625},"targetType":0,"assetTags":{"_tags":[{"_name":"Buff.DeBuff.Stun","_hashCode":1791562953,"_shortName":"Stun","_ancestorHashCodes":[937056111,321157895],"_ancestorNames":["Buff","Buff.DeBuff"]}]},"grantedTags":{"_tags":[{"_name":"Buff.DeBuff.Stun","_hashCode":1791562953,"_shortName":"Stun","_ancestorHashCodes":[937056111,321157895],"_ancestorNames":["Buff","Buff.DeBuff"]}]},"applicationRequiredTags":{"_tags":[]},"applicationImmunityTags":{"_tags":[]},"removeGameEffectsWithTags":{"_tags":[]},"durationType":1,"duration":"4","isPeriodic":false,"period":"1","executeOnApplication":false,"attributeModifiers":[],"stackType":1,"stackLimit":1,"stackDurationRefreshPolicy":0,"stackPeriodResetPolicy":1,"stackExpirationPolicy":0,"stackOverflowPolicy":0,"ongoingRequiredTags":{"_tags":[]},"cancelOnAbilityEnd":false,"buffId":0}</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
@@ -1903,11 +1903,11 @@
       <c r="C49"/>
       <c r="D49"/>
       <c r="E49">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>{"guid":"cb1df36f-5729-423e-9d1a-287db5a433f0","nodeType":11,"position":{"x":18.399993896484376,"y":-1786.4000244140625},"targetType":0,"assetTags":{"_tags":[{"_name":"Buff.DeBuff.Stun","_hashCode":1791562953,"_shortName":"Stun","_ancestorHashCodes":[937056111,321157895],"_ancestorNames":["Buff","Buff.DeBuff"]}]},"grantedTags":{"_tags":[{"_name":"Buff.DeBuff.Stun","_hashCode":1791562953,"_shortName":"Stun","_ancestorHashCodes":[937056111,321157895],"_ancestorNames":["Buff","Buff.DeBuff"]}]},"applicationRequiredTags":{"_tags":[]},"applicationImmunityTags":{"_tags":[]},"removeGameEffectsWithTags":{"_tags":[]},"durationType":1,"duration":"4","isPeriodic":false,"period":"1","executeOnApplication":false,"attributeModifiers":[],"stackType":1,"stackLimit":1,"stackDurationRefreshPolicy":0,"stackPeriodResetPolicy":1,"stackExpirationPolicy":0,"stackOverflowPolicy":0,"ongoingRequiredTags":{"_tags":[]},"cancelOnAbilityEnd":false,"buffId":0}</t>
+          <t>{"guid":"e33ab94c-1496-4d6a-ba5e-1afd38bb0c30","nodeType":4,"position":{"x":-452.0,"y":-1786.4000244140625},"targetType":1,"searchShapeType":0,"searchLineType":0,"positionSource":0,"positionBindingName":"center","searchCircleRadius":2.5,"searchSectorRadius":2.0,"searchSectorAngle":180.0,"searchLineDirectionOffsetAngle":0.0,"searchLineDirectionWidth":1.0,"searchLineDirectionLength":10.0,"lineStartPositionSource":0,"lineStartBindingName":"","lineEndPositionSource":1,"lineEndBindingName":"","searchLineBetweenWidth":1.0,"searchLineAbsoluteAngle":0.0,"searchLineAbsoluteWidth":1.0,"searchLineAbsoluteLength":10.0,"maxTargets":999,"searchTargetTags":{"_tags":[{"_name":"unitType.monster","_hashCode":-2021655864,"_shortName":"monster","_ancestorHashCodes":[1600484460],"_ancestorNames":["unitType"]}]},"searchExcludeTags":{"_tags":[]}}</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
@@ -1923,11 +1923,11 @@
       <c r="C50"/>
       <c r="D50"/>
       <c r="E50">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>{"guid":"e33ab94c-1496-4d6a-ba5e-1afd38bb0c30","nodeType":4,"position":{"x":-452.0,"y":-1786.4000244140625},"targetType":1,"searchShapeType":0,"searchLineType":0,"positionSource":0,"positionBindingName":"center","searchCircleRadius":2.5,"searchSectorRadius":2.0,"searchSectorAngle":180.0,"searchLineDirectionOffsetAngle":0.0,"searchLineDirectionWidth":1.0,"searchLineDirectionLength":10.0,"lineStartPositionSource":0,"lineStartBindingName":"","lineEndPositionSource":1,"lineEndBindingName":"","searchLineBetweenWidth":1.0,"searchLineAbsoluteAngle":0.0,"searchLineAbsoluteWidth":1.0,"searchLineAbsoluteLength":10.0,"maxTargets":999,"searchTargetTags":{"_tags":[{"_name":"unitType.monster","_hashCode":-2021655864,"_shortName":"monster","_ancestorHashCodes":[1600484460],"_ancestorNames":["unitType"]}]},"searchExcludeTags":{"_tags":[]}}</t>
+          <t>{"guid":"432ff1e3-b18d-476d-af80-d39ddc07402a","nodeType":20,"position":{"x":-452.0,"y":-2375.199951171875},"targetType":1,"skeletonDataAsset":{"instanceID":45056},"animationName":"Skill_attack_1005","animationDuration":"16","isAnimationLooping":false,"timeEffects":[{"triggerTime":7,"portId":"de0ba361-3aba-4ef0-bb07-9b418fcae591"},{"triggerTime":16,"portId":"f41c85e0-7f26-494e-9ffc-4a06c980f811"}],"timeCues":[{"startTime":6,"endTime":55,"portId":"8dea1941-c520-4f9a-aee0-40932c8542ef"}]}</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
@@ -1943,11 +1943,11 @@
       <c r="C51"/>
       <c r="D51"/>
       <c r="E51">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>{"guid":"432ff1e3-b18d-476d-af80-d39ddc07402a","nodeType":20,"position":{"x":-452.0,"y":-2375.199951171875},"targetType":1,"skeletonDataAsset":{"instanceID":45056},"animationName":"Skill_attack_1005","animationDuration":"16","isAnimationLooping":false,"timeEffects":[{"triggerTime":7,"portId":"de0ba361-3aba-4ef0-bb07-9b418fcae591"},{"triggerTime":16,"portId":"f41c85e0-7f26-494e-9ffc-4a06c980f811"}],"timeCues":[{"startTime":6,"endTime":55,"portId":"8dea1941-c520-4f9a-aee0-40932c8542ef"}]}</t>
+          <t>{"guid":"356907e0-1488-4128-bfcc-7ff73cfc3330","nodeType":0,"position":{"x":-878.4000244140625,"y":-1853.5999755859375},"targetType":1,"skillId":1003,"assetTags":{"_tags":[]},"cancelAbilitiesWithTags":{"_tags":[]},"blockAbilitiesWithTags":{"_tags":[]},"activationOwnedTags":{"_tags":[{"_name":"Skill.Running","_hashCode":-51601538,"_shortName":"Running","_ancestorHashCodes":[1312877309],"_ancestorNames":["Skill"]}]},"activationRequiredTags":{"_tags":[]},"activationBlockedTags":{"_tags":[{"_name":"CD.RuFood","_hashCode":-1045902856,"_shortName":"RuFood","_ancestorHashCodes":[-1137859925],"_ancestorNames":["CD"]},{"_name":"Skill.Running","_hashCode":-51601538,"_shortName":"Running","_ancestorHashCodes":[1312877309],"_ancestorNames":["Skill"]}]},"ongoingBlockedTags":{"_tags":[]},"eventOutputPorts":[]}</t>
         </is>
       </c>
       <c r="G51"/>
@@ -2087,11 +2087,11 @@
       </c>
       <c r="D58"/>
       <c r="E58">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>{"guid":"c353e286-8ef0-460a-b917-887f2aeb390a","nodeType":14,"position":{"x":178.66668701171876,"y":-1786.666748046875},"targetType":1,"requiredTags":{"_tags":[]},"immunityTags":{"_tags":[]},"destroyWithNode":false,"positionSource":2,"positionBindingName":"head","textType":0,"fixedText":"","contextDataKey":"DamageResult","textColor":{"r":1.0,"g":0.0,"b":0.0,"a":1.0},"criticalColor":{"r":1.0,"g":0.5,"b":0.0,"a":1.0},"missColor":{"r":0.5,"g":0.5,"b":0.5,"a":1.0},"fontSize":45.0,"criticalFontSize":60.0,"duration":1.5,"offset":{"x":0.0,"y":0.0},"moveDirection":{"x":0.0,"y":1.0}}</t>
+          <t>{"guid":"356907e0-1488-4128-bfcc-7ff73cfc3330","nodeType":0,"position":{"x":-797.3333740234375,"y":-2479.333251953125},"targetType":1,"skillId":1001,"assetTags":{"_tags":[]},"cancelAbilitiesWithTags":{"_tags":[]},"blockAbilitiesWithTags":{"_tags":[]},"activationOwnedTags":{"_tags":[]},"activationRequiredTags":{"_tags":[]},"activationBlockedTags":{"_tags":[{"_name":"CD.Sweep","_hashCode":-303359587,"_shortName":"Sweep","_ancestorHashCodes":[-1137859925],"_ancestorNames":["CD"]}]},"ongoingBlockedTags":{"_tags":[]},"eventOutputPorts":[]}</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
@@ -2107,11 +2107,11 @@
       <c r="C59"/>
       <c r="D59"/>
       <c r="E59">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>{"guid":"2cfdacd2-0186-49dd-b177-4eb8c0ad87bd","nodeType":7,"position":{"x":689.3333740234375,"y":-1860.666748046875},"targetType":1,"endType":0}</t>
+          <t>{"guid":"c28fb88d-51b1-47b2-be59-859e0ac638e3","nodeType":10,"position":{"x":-1130.6666259765625,"y":-2232.0},"targetType":1,"assetTags":{"_tags":[]},"grantedTags":{"_tags":[{"_name":"CD.Sweep","_hashCode":-303359587,"_shortName":"Sweep","_ancestorHashCodes":[-1137859925],"_ancestorNames":["CD"]}]},"applicationRequiredTags":{"_tags":[]},"applicationImmunityTags":{"_tags":[]},"removeGameEffectsWithTags":{"_tags":[]},"durationType":1,"duration":"1","isPeriodic":false,"period":"1","executeOnApplication":false,"attributeModifiers":[],"stackType":0,"stackLimit":0,"stackDurationRefreshPolicy":0,"stackPeriodResetPolicy":0,"stackExpirationPolicy":0,"stackOverflowPolicy":0,"ongoingRequiredTags":{"_tags":[]},"cancelOnAbilityEnd":false,"cooldownType":0,"maxCharges":2,"chargeTime":"10"}</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
@@ -2127,11 +2127,11 @@
       <c r="C60"/>
       <c r="D60"/>
       <c r="E60">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>{"guid":"f8947676-1084-4228-b991-1509cc7fe851","nodeType":1,"position":{"x":-99.99998474121094,"y":-1680.666748046875},"targetType":0,"assetTags":{"_tags":[]},"grantedTags":{"_tags":[]},"applicationRequiredTags":{"_tags":[]},"applicationImmunityTags":{"_tags":[]},"removeGameEffectsWithTags":{"_tags":[]},"durationType":0,"duration":"0","isPeriodic":false,"period":"1","executeOnApplication":false,"attributeModifiers":[],"stackType":0,"stackLimit":0,"stackDurationRefreshPolicy":0,"stackPeriodResetPolicy":0,"stackExpirationPolicy":0,"stackOverflowPolicy":0,"ongoingRequiredTags":{"_tags":[]},"cancelOnAbilityEnd":true,"damageType":0,"damageSourceType":0,"damageFixedValue":10.0,"damageFormula":"","damageMMCType":0,"damageSetByCallerKey":"","damageMMCCaptureAttribute":200,"damageMMCAttributeSource":0,"damageMMCCoefficient":1.0,"damageMMCUseSnapshot":true,"damageMultiplyByStackCount":false,"damageCalculationType":0}</t>
+          <t>{"guid":"9d6f459d-b588-4b64-843b-1b71e8f299ae","nodeType":3,"position":{"x":-1130.6666259765625,"y":-2479.333251953125},"targetType":1,"assetTags":{"_tags":[]},"grantedTags":{"_tags":[]},"applicationRequiredTags":{"_tags":[]},"applicationImmunityTags":{"_tags":[]},"removeGameEffectsWithTags":{"_tags":[]},"durationType":0,"duration":"0","isPeriodic":false,"period":"1","executeOnApplication":false,"attributeModifiers":[{"attrType":100,"operation":0,"magnitudeSourceType":0,"fixedValue":-10.0,"formula":"","mmcType":0,"setByCallerKey":"","mmcCaptureAttribute":200,"mmcAttributeSource":0,"mmcCoefficient":1.0,"mmcUseSnapshot":true}],"stackType":0,"stackLimit":0,"stackDurationRefreshPolicy":0,"stackPeriodResetPolicy":0,"stackExpirationPolicy":0,"stackOverflowPolicy":0,"ongoingRequiredTags":{"_tags":[]},"cancelOnAbilityEnd":true}</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
@@ -2147,11 +2147,11 @@
       <c r="C61"/>
       <c r="D61"/>
       <c r="E61">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>{"guid":"cde57fb8-b693-4da8-a4a8-fd61e56c5dcd","nodeType":12,"position":{"x":677.3333740234375,"y":-1998.666748046875},"targetType":1,"requiredTags":{"_tags":[]},"immunityTags":{"_tags":[]},"destroyWithNode":false,"positionSource":0,"particlePrefab":{"instanceID":46090},"particleBindingName":"down","particleOffset":{"x":0.0,"y":0.0,"z":0.0},"particleScale":{"x":1.0,"y":1.0,"z":1.0},"attachToTarget":false,"particleLoop":false}</t>
+          <t>{"guid":"90235058-7c6f-4b61-b2c4-3cee99d3a11e","nodeType":0,"position":{"x":-797.3333740234375,"y":-2221.333251953125},"targetType":1,"skillId":0,"assetTags":{"_tags":[]},"cancelAbilitiesWithTags":{"_tags":[]},"blockAbilitiesWithTags":{"_tags":[]},"activationOwnedTags":{"_tags":[]},"activationRequiredTags":{"_tags":[]},"activationBlockedTags":{"_tags":[]},"ongoingBlockedTags":{"_tags":[]},"eventOutputPorts":[]}</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
@@ -2167,11 +2167,11 @@
       <c r="C62"/>
       <c r="D62"/>
       <c r="E62">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>{"guid":"e33ab94c-1496-4d6a-ba5e-1afd38bb0c30","nodeType":4,"position":{"x":-452.0,"y":-1786.666748046875},"targetType":1,"searchShapeType":1,"searchLineType":0,"positionSource":0,"positionBindingName":"center","searchCircleRadius":5.0,"searchSectorRadius":2.0,"searchSectorAngle":180.0,"searchLineDirectionOffsetAngle":0.0,"searchLineDirectionWidth":1.0,"searchLineDirectionLength":10.0,"lineStartPositionSource":0,"lineStartBindingName":"","lineEndPositionSource":1,"lineEndBindingName":"","searchLineBetweenWidth":1.0,"searchLineAbsoluteAngle":0.0,"searchLineAbsoluteWidth":1.0,"searchLineAbsoluteLength":10.0,"maxTargets":999,"searchTargetTags":{"_tags":[{"_name":"unitType.monster","_hashCode":-2021655864,"_shortName":"monster","_ancestorHashCodes":[1600484460],"_ancestorNames":["unitType"]}]},"searchExcludeTags":{"_tags":[]}}</t>
+          <t>{"guid":"432ff1e3-b18d-476d-af80-d39ddc07402a","nodeType":20,"position":{"x":-416.6666564941406,"y":-2824.66650390625},"targetType":1,"skeletonDataAsset":{"instanceID":45056},"animationName":"Skill_attack_1001","animationDuration":"18","isAnimationLooping":true,"timeEffects":[{"triggerTime":7,"portId":"de0ba361-3aba-4ef0-bb07-9b418fcae591"},{"triggerTime":18,"portId":"84e238a8-5baf-470e-829f-186695064945"}],"timeCues":[{"startTime":7,"endTime":48,"portId":"8dea1941-c520-4f9a-aee0-40932c8542ef"}]}</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
@@ -2187,11 +2187,11 @@
       <c r="C63"/>
       <c r="D63"/>
       <c r="E63">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>{"guid":"432ff1e3-b18d-476d-af80-d39ddc07402a","nodeType":20,"position":{"x":-452.0,"y":-2406.66650390625},"targetType":1,"skeletonDataAsset":{"instanceID":45056},"animationName":"Attack_01","animationDuration":"18","isAnimationLooping":false,"timeEffects":[{"triggerTime":7,"portId":"de0ba361-3aba-4ef0-bb07-9b418fcae591"},{"triggerTime":18,"portId":"84e238a8-5baf-470e-829f-186695064945"}],"timeCues":[{"startTime":7,"endTime":48,"portId":"8dea1941-c520-4f9a-aee0-40932c8542ef"}]}</t>
+          <t>{"guid":"2cfdacd2-0186-49dd-b177-4eb8c0ad87bd","nodeType":7,"position":{"x":731.3333740234375,"y":-2080.0},"targetType":1,"endType":0}</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
@@ -2207,11 +2207,11 @@
       <c r="C64"/>
       <c r="D64"/>
       <c r="E64">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>{"guid":"356907e0-1488-4128-bfcc-7ff73cfc3330","nodeType":0,"position":{"x":-878.6666259765625,"y":-1853.3333740234375},"targetType":1,"skillId":1001,"assetTags":{"_tags":[]},"cancelAbilitiesWithTags":{"_tags":[]},"blockAbilitiesWithTags":{"_tags":[]},"activationOwnedTags":{"_tags":[]},"activationRequiredTags":{"_tags":[]},"activationBlockedTags":{"_tags":[{"_name":"CD.Sweep","_hashCode":-303359587,"_shortName":"Sweep","_ancestorHashCodes":[-1137859925],"_ancestorNames":["CD"]}]},"ongoingBlockedTags":{"_tags":[]},"eventOutputPorts":[]}</t>
+          <t>{"guid":"e33ab94c-1496-4d6a-ba5e-1afd38bb0c30","nodeType":4,"position":{"x":731.3333740234375,"y":-2344.0},"targetType":1,"searchShapeType":1,"searchLineType":0,"positionSource":0,"positionBindingName":"center","searchCircleRadius":5.0,"searchSectorRadius":2.0,"searchSectorAngle":180.0,"searchLineDirectionOffsetAngle":0.0,"searchLineDirectionWidth":1.0,"searchLineDirectionLength":10.0,"lineStartPositionSource":0,"lineStartBindingName":"","lineEndPositionSource":1,"lineEndBindingName":"","searchLineBetweenWidth":1.0,"searchLineAbsoluteAngle":0.0,"searchLineAbsoluteWidth":1.0,"searchLineAbsoluteLength":10.0,"maxTargets":999,"searchTargetTags":{"_tags":[{"_name":"unitType.monster","_hashCode":-2021655864,"_shortName":"monster","_ancestorHashCodes":[1600484460],"_ancestorNames":["unitType"]}]},"searchExcludeTags":{"_tags":[]}}</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
@@ -2227,11 +2227,11 @@
       <c r="C65"/>
       <c r="D65"/>
       <c r="E65">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>{"guid":"c28fb88d-51b1-47b2-be59-859e0ac638e3","nodeType":10,"position":{"x":-1186.6666259765625,"y":-1747.3333740234375},"targetType":1,"assetTags":{"_tags":[]},"grantedTags":{"_tags":[{"_name":"CD.Sweep","_hashCode":-303359587,"_shortName":"Sweep","_ancestorHashCodes":[-1137859925],"_ancestorNames":["CD"]}]},"applicationRequiredTags":{"_tags":[]},"applicationImmunityTags":{"_tags":[]},"removeGameEffectsWithTags":{"_tags":[]},"durationType":1,"duration":"1","isPeriodic":false,"period":"1","executeOnApplication":false,"attributeModifiers":[],"stackType":0,"stackLimit":0,"stackDurationRefreshPolicy":0,"stackPeriodResetPolicy":0,"stackExpirationPolicy":0,"stackOverflowPolicy":0,"ongoingRequiredTags":{"_tags":[]},"cancelOnAbilityEnd":false,"cooldownType":0,"maxCharges":2,"chargeTime":"10"}</t>
+          <t>{"guid":"cde57fb8-b693-4da8-a4a8-fd61e56c5dcd","nodeType":12,"position":{"x":731.3333740234375,"y":-2488.66650390625},"targetType":1,"requiredTags":{"_tags":[]},"immunityTags":{"_tags":[]},"destroyWithNode":false,"positionSource":0,"particlePrefab":{"instanceID":46090},"particleBindingName":"down","particleOffset":{"x":0.0,"y":0.0,"z":0.0},"particleScale":{"x":1.0,"y":1.0,"z":1.0},"attachToTarget":false,"particleLoop":false}</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
@@ -2247,11 +2247,11 @@
       <c r="C66"/>
       <c r="D66"/>
       <c r="E66">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>{"guid":"9d6f459d-b588-4b64-843b-1b71e8f299ae","nodeType":3,"position":{"x":-1186.6666259765625,"y":-2019.3333740234375},"targetType":1,"assetTags":{"_tags":[]},"grantedTags":{"_tags":[]},"applicationRequiredTags":{"_tags":[]},"applicationImmunityTags":{"_tags":[]},"removeGameEffectsWithTags":{"_tags":[]},"durationType":0,"duration":"0","isPeriodic":false,"period":"1","executeOnApplication":false,"attributeModifiers":[{"attrType":100,"operation":0,"magnitudeSourceType":0,"fixedValue":-10.0,"formula":"","mmcType":0,"setByCallerKey":"","mmcCaptureAttribute":200,"mmcAttributeSource":0,"mmcCoefficient":1.0,"mmcUseSnapshot":true}],"stackType":0,"stackLimit":0,"stackDurationRefreshPolicy":0,"stackPeriodResetPolicy":0,"stackExpirationPolicy":0,"stackOverflowPolicy":0,"ongoingRequiredTags":{"_tags":[]},"cancelOnAbilityEnd":true}</t>
+          <t>{"guid":"f8947676-1084-4228-b991-1509cc7fe851","nodeType":1,"position":{"x":994.666748046875,"y":-2344.0},"targetType":0,"assetTags":{"_tags":[]},"grantedTags":{"_tags":[]},"applicationRequiredTags":{"_tags":[]},"applicationImmunityTags":{"_tags":[]},"removeGameEffectsWithTags":{"_tags":[]},"durationType":0,"duration":"0","isPeriodic":false,"period":"1","executeOnApplication":false,"attributeModifiers":[],"stackType":0,"stackLimit":0,"stackDurationRefreshPolicy":0,"stackPeriodResetPolicy":0,"stackExpirationPolicy":0,"stackOverflowPolicy":0,"ongoingRequiredTags":{"_tags":[]},"cancelOnAbilityEnd":true,"damageType":0,"damageSourceType":0,"damageFixedValue":10.0,"damageFormula":"","damageMMCType":0,"damageSetByCallerKey":"","damageMMCCaptureAttribute":200,"damageMMCAttributeSource":0,"damageMMCCoefficient":1.0,"damageMMCUseSnapshot":true,"damageMultiplyByStackCount":false,"damageCalculationType":0}</t>
         </is>
       </c>
       <c r="G66"/>
@@ -2259,46 +2259,42 @@
     </row>
     <row r="67">
       <c r="A67"/>
-      <c r="B67">
-        <v>1008</v>
-      </c>
-      <c r="C67" t="inlineStr">
-        <is>
-          <t>ThreeFire</t>
-        </is>
-      </c>
+      <c r="B67"/>
+      <c r="C67"/>
       <c r="D67"/>
       <c r="E67">
         <v>14</v>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>{"guid":"c353e286-8ef0-460a-b917-887f2aeb390a","nodeType":14,"position":{"x":1677.3333740234375,"y":-2239.333251953125},"targetType":1,"requiredTags":{"_tags":[]},"immunityTags":{"_tags":[]},"destroyWithNode":false,"positionSource":2,"positionBindingName":"head","textType":0,"fixedText":"","contextDataKey":"DamageResult","textColor":{"r":1.0,"g":0.0,"b":0.0,"a":1.0},"criticalColor":{"r":1.0,"g":0.5,"b":0.0,"a":1.0},"missColor":{"r":0.5,"g":0.5,"b":0.5,"a":1.0},"fontSize":45.0,"criticalFontSize":60.0,"duration":1.5,"offset":{"x":0.0,"y":0.0},"moveDirection":{"x":0.0,"y":1.0}}</t>
-        </is>
-      </c>
-      <c r="G67" t="inlineStr">
-        <is>
-          <t>{"outputNodeGuid":"356907e0-1488-4128-bfcc-7ff73cfc3330","outputPortName":"动画","inputNodeGuid":"432ff1e3-b18d-476d-af80-d39ddc07402a","inputPortName":"输入"}</t>
-        </is>
-      </c>
+          <t>{"guid":"c353e286-8ef0-460a-b917-887f2aeb390a","nodeType":14,"position":{"x":1190.0,"y":-2344.0},"targetType":1,"requiredTags":{"_tags":[]},"immunityTags":{"_tags":[]},"destroyWithNode":false,"positionSource":2,"positionBindingName":"head","textType":0,"fixedText":"","contextDataKey":"DamageResult","textColor":{"r":1.0,"g":0.0,"b":0.0,"a":1.0},"criticalColor":{"r":1.0,"g":0.5,"b":0.0,"a":1.0},"missColor":{"r":0.5,"g":0.5,"b":0.5,"a":1.0},"fontSize":45.0,"criticalFontSize":60.0,"duration":1.5,"offset":{"x":0.0,"y":0.0},"moveDirection":{"x":0.0,"y":1.0}}</t>
+        </is>
+      </c>
+      <c r="G67"/>
       <c r="H67"/>
     </row>
     <row r="68">
       <c r="A68"/>
-      <c r="B68"/>
-      <c r="C68"/>
+      <c r="B68">
+        <v>1008</v>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>ThreeFire</t>
+        </is>
+      </c>
       <c r="D68"/>
       <c r="E68">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>{"guid":"f8947676-1084-4228-b991-1509cc7fe851","nodeType":1,"position":{"x":1452.666748046875,"y":-2239.333251953125},"targetType":0,"assetTags":{"_tags":[]},"grantedTags":{"_tags":[]},"applicationRequiredTags":{"_tags":[]},"applicationImmunityTags":{"_tags":[]},"removeGameEffectsWithTags":{"_tags":[]},"durationType":0,"duration":"0","isPeriodic":false,"period":"1","executeOnApplication":false,"attributeModifiers":[],"stackType":0,"stackLimit":0,"stackDurationRefreshPolicy":0,"stackPeriodResetPolicy":0,"stackExpirationPolicy":0,"stackOverflowPolicy":0,"ongoingRequiredTags":{"_tags":[]},"cancelOnAbilityEnd":true,"damageType":0,"damageSourceType":0,"damageFixedValue":10.0,"damageFormula":"","damageMMCType":0,"damageSetByCallerKey":"","damageMMCCaptureAttribute":200,"damageMMCAttributeSource":0,"damageMMCCoefficient":1.0,"damageMMCUseSnapshot":true,"damageMultiplyByStackCount":false,"damageCalculationType":0}</t>
+          <t>{"guid":"c353e286-8ef0-460a-b917-887f2aeb390a","nodeType":14,"position":{"x":1677.3333740234375,"y":-2239.333251953125},"targetType":1,"requiredTags":{"_tags":[]},"immunityTags":{"_tags":[]},"destroyWithNode":false,"positionSource":2,"positionBindingName":"head","textType":0,"fixedText":"","contextDataKey":"DamageResult","textColor":{"r":1.0,"g":0.0,"b":0.0,"a":1.0},"criticalColor":{"r":1.0,"g":0.5,"b":0.0,"a":1.0},"missColor":{"r":0.5,"g":0.5,"b":0.5,"a":1.0},"fontSize":45.0,"criticalFontSize":60.0,"duration":1.5,"offset":{"x":0.0,"y":0.0},"moveDirection":{"x":0.0,"y":1.0}}</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>{"outputNodeGuid":"356907e0-1488-4128-bfcc-7ff73cfc3330","outputPortName":"冷却","inputNodeGuid":"c28fb88d-51b1-47b2-be59-859e0ac638e3","inputPortName":"输入"}</t>
+          <t>{"outputNodeGuid":"356907e0-1488-4128-bfcc-7ff73cfc3330","outputPortName":"动画","inputNodeGuid":"432ff1e3-b18d-476d-af80-d39ddc07402a","inputPortName":"输入"}</t>
         </is>
       </c>
       <c r="H68"/>
@@ -2309,16 +2305,16 @@
       <c r="C69"/>
       <c r="D69"/>
       <c r="E69">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>{"guid":"2cfdacd2-0186-49dd-b177-4eb8c0ad87bd","nodeType":7,"position":{"x":1052.666748046875,"y":-2551.333251953125},"targetType":1,"endType":0}</t>
+          <t>{"guid":"f8947676-1084-4228-b991-1509cc7fe851","nodeType":1,"position":{"x":1452.666748046875,"y":-2239.333251953125},"targetType":0,"assetTags":{"_tags":[]},"grantedTags":{"_tags":[]},"applicationRequiredTags":{"_tags":[]},"applicationImmunityTags":{"_tags":[]},"removeGameEffectsWithTags":{"_tags":[]},"durationType":0,"duration":"0","isPeriodic":false,"period":"1","executeOnApplication":false,"attributeModifiers":[],"stackType":0,"stackLimit":0,"stackDurationRefreshPolicy":0,"stackPeriodResetPolicy":0,"stackExpirationPolicy":0,"stackOverflowPolicy":0,"ongoingRequiredTags":{"_tags":[]},"cancelOnAbilityEnd":true,"damageType":0,"damageSourceType":0,"damageFixedValue":10.0,"damageFormula":"","damageMMCType":0,"damageSetByCallerKey":"","damageMMCCaptureAttribute":200,"damageMMCAttributeSource":0,"damageMMCCoefficient":1.0,"damageMMCUseSnapshot":true,"damageMultiplyByStackCount":false,"damageCalculationType":0}</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>{"outputNodeGuid":"356907e0-1488-4128-bfcc-7ff73cfc3330","outputPortName":"消耗","inputNodeGuid":"9d6f459d-b588-4b64-843b-1b71e8f299ae","inputPortName":"输入"}</t>
+          <t>{"outputNodeGuid":"356907e0-1488-4128-bfcc-7ff73cfc3330","outputPortName":"冷却","inputNodeGuid":"c28fb88d-51b1-47b2-be59-859e0ac638e3","inputPortName":"输入"}</t>
         </is>
       </c>
       <c r="H69"/>
@@ -2329,16 +2325,16 @@
       <c r="C70"/>
       <c r="D70"/>
       <c r="E70">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>{"guid":"9d6f459d-b588-4b64-843b-1b71e8f299ae","nodeType":3,"position":{"x":-1144.0,"y":-2405.333251953125},"targetType":1,"assetTags":{"_tags":[]},"grantedTags":{"_tags":[]},"applicationRequiredTags":{"_tags":[]},"applicationImmunityTags":{"_tags":[]},"removeGameEffectsWithTags":{"_tags":[]},"durationType":0,"duration":"0","isPeriodic":false,"period":"1","executeOnApplication":false,"attributeModifiers":[{"attrType":100,"operation":0,"magnitudeSourceType":0,"fixedValue":10.0,"formula":"","mmcType":0,"setByCallerKey":"","mmcCaptureAttribute":200,"mmcAttributeSource":0,"mmcCoefficient":1.0,"mmcUseSnapshot":true}],"stackType":0,"stackLimit":0,"stackDurationRefreshPolicy":0,"stackPeriodResetPolicy":0,"stackExpirationPolicy":0,"stackOverflowPolicy":0,"ongoingRequiredTags":{"_tags":[]},"cancelOnAbilityEnd":true}</t>
+          <t>{"guid":"2cfdacd2-0186-49dd-b177-4eb8c0ad87bd","nodeType":7,"position":{"x":1052.666748046875,"y":-2551.333251953125},"targetType":1,"endType":0}</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>{"outputNodeGuid":"f8947676-1084-4228-b991-1509cc7fe851","outputPortName":"完成效果","inputNodeGuid":"c353e286-8ef0-460a-b917-887f2aeb390a","inputPortName":"输入"}</t>
+          <t>{"outputNodeGuid":"356907e0-1488-4128-bfcc-7ff73cfc3330","outputPortName":"消耗","inputNodeGuid":"9d6f459d-b588-4b64-843b-1b71e8f299ae","inputPortName":"输入"}</t>
         </is>
       </c>
       <c r="H70"/>
@@ -2349,16 +2345,16 @@
       <c r="C71"/>
       <c r="D71"/>
       <c r="E71">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>{"guid":"c28fb88d-51b1-47b2-be59-859e0ac638e3","nodeType":10,"position":{"x":-1067.3333740234375,"y":-2188.66650390625},"targetType":1,"assetTags":{"_tags":[]},"grantedTags":{"_tags":[{"_name":"CD.ThreeFire","_hashCode":960327319,"_shortName":"ThreeFire","_ancestorHashCodes":[-1137859925],"_ancestorNames":["CD"]}]},"applicationRequiredTags":{"_tags":[]},"applicationImmunityTags":{"_tags":[]},"removeGameEffectsWithTags":{"_tags":[]},"durationType":1,"duration":"1","isPeriodic":false,"period":"1","executeOnApplication":false,"attributeModifiers":[],"stackType":0,"stackLimit":0,"stackDurationRefreshPolicy":0,"stackPeriodResetPolicy":0,"stackExpirationPolicy":0,"stackOverflowPolicy":0,"ongoingRequiredTags":{"_tags":[]},"cancelOnAbilityEnd":false,"cooldownType":0,"maxCharges":2,"chargeTime":"10"}</t>
+          <t>{"guid":"9d6f459d-b588-4b64-843b-1b71e8f299ae","nodeType":3,"position":{"x":-1144.0,"y":-2405.333251953125},"targetType":1,"assetTags":{"_tags":[]},"grantedTags":{"_tags":[]},"applicationRequiredTags":{"_tags":[]},"applicationImmunityTags":{"_tags":[]},"removeGameEffectsWithTags":{"_tags":[]},"durationType":0,"duration":"0","isPeriodic":false,"period":"1","executeOnApplication":false,"attributeModifiers":[{"attrType":100,"operation":0,"magnitudeSourceType":0,"fixedValue":10.0,"formula":"","mmcType":0,"setByCallerKey":"","mmcCaptureAttribute":200,"mmcAttributeSource":0,"mmcCoefficient":1.0,"mmcUseSnapshot":true}],"stackType":0,"stackLimit":0,"stackDurationRefreshPolicy":0,"stackPeriodResetPolicy":0,"stackExpirationPolicy":0,"stackOverflowPolicy":0,"ongoingRequiredTags":{"_tags":[]},"cancelOnAbilityEnd":true}</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>{"outputNodeGuid":"ce857360-de7e-4457-b348-9c124ce98879","outputPortName":"碰撞时","inputNodeGuid":"f8947676-1084-4228-b991-1509cc7fe851","inputPortName":"输入"}</t>
+          <t>{"outputNodeGuid":"f8947676-1084-4228-b991-1509cc7fe851","outputPortName":"完成效果","inputNodeGuid":"c353e286-8ef0-460a-b917-887f2aeb390a","inputPortName":"输入"}</t>
         </is>
       </c>
       <c r="H71"/>
@@ -2369,16 +2365,16 @@
       <c r="C72"/>
       <c r="D72"/>
       <c r="E72">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>{"guid":"356907e0-1488-4128-bfcc-7ff73cfc3330","nodeType":0,"position":{"x":-746.6666259765625,"y":-2405.333251953125},"targetType":1,"skillId":1008,"assetTags":{"_tags":[]},"cancelAbilitiesWithTags":{"_tags":[]},"blockAbilitiesWithTags":{"_tags":[]},"activationOwnedTags":{"_tags":[]},"activationRequiredTags":{"_tags":[]},"activationBlockedTags":{"_tags":[{"_name":"CD.ThreeFire","_hashCode":960327319,"_shortName":"ThreeFire","_ancestorHashCodes":[-1137859925],"_ancestorNames":["CD"]}]},"ongoingBlockedTags":{"_tags":[]},"eventOutputPorts":[]}</t>
+          <t>{"guid":"c28fb88d-51b1-47b2-be59-859e0ac638e3","nodeType":10,"position":{"x":-1067.3333740234375,"y":-2188.66650390625},"targetType":1,"assetTags":{"_tags":[]},"grantedTags":{"_tags":[{"_name":"CD.ThreeFire","_hashCode":960327319,"_shortName":"ThreeFire","_ancestorHashCodes":[-1137859925],"_ancestorNames":["CD"]}]},"applicationRequiredTags":{"_tags":[]},"applicationImmunityTags":{"_tags":[]},"removeGameEffectsWithTags":{"_tags":[]},"durationType":1,"duration":"1","isPeriodic":false,"period":"1","executeOnApplication":false,"attributeModifiers":[],"stackType":0,"stackLimit":0,"stackDurationRefreshPolicy":0,"stackPeriodResetPolicy":0,"stackExpirationPolicy":0,"stackOverflowPolicy":0,"ongoingRequiredTags":{"_tags":[]},"cancelOnAbilityEnd":false,"cooldownType":0,"maxCharges":2,"chargeTime":"10"}</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>{"outputNodeGuid":"9a695e91-e218-425e-82ed-1e157bf1b014","outputPortName":"碰撞时","inputNodeGuid":"f8947676-1084-4228-b991-1509cc7fe851","inputPortName":"输入"}</t>
+          <t>{"outputNodeGuid":"ce857360-de7e-4457-b348-9c124ce98879","outputPortName":"碰撞时","inputNodeGuid":"f8947676-1084-4228-b991-1509cc7fe851","inputPortName":"输入"}</t>
         </is>
       </c>
       <c r="H72"/>
@@ -2389,16 +2385,16 @@
       <c r="C73"/>
       <c r="D73"/>
       <c r="E73">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>{"guid":"432ff1e3-b18d-476d-af80-d39ddc07402a","nodeType":20,"position":{"x":-238.66665649414063,"y":-2405.333251953125},"targetType":1,"skeletonDataAsset":{"instanceID":45056},"animationName":"Attack_01","animationDuration":"18","isAnimationLooping":false,"timeEffects":[{"triggerTime":7,"portId":"de0ba361-3aba-4ef0-bb07-9b418fcae591"},{"triggerTime":18,"portId":"84e238a8-5baf-470e-829f-186695064945"}],"timeCues":[]}</t>
+          <t>{"guid":"356907e0-1488-4128-bfcc-7ff73cfc3330","nodeType":0,"position":{"x":-746.6666259765625,"y":-2405.333251953125},"targetType":1,"skillId":1008,"assetTags":{"_tags":[]},"cancelAbilitiesWithTags":{"_tags":[]},"blockAbilitiesWithTags":{"_tags":[]},"activationOwnedTags":{"_tags":[]},"activationRequiredTags":{"_tags":[]},"activationBlockedTags":{"_tags":[{"_name":"CD.ThreeFire","_hashCode":960327319,"_shortName":"ThreeFire","_ancestorHashCodes":[-1137859925],"_ancestorNames":["CD"]}]},"ongoingBlockedTags":{"_tags":[]},"eventOutputPorts":[]}</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>{"outputNodeGuid":"d897a922-5756-42cf-ac65-90a48c1e5a17","outputPortName":"碰撞时","inputNodeGuid":"f8947676-1084-4228-b991-1509cc7fe851","inputPortName":"输入"}</t>
+          <t>{"outputNodeGuid":"9a695e91-e218-425e-82ed-1e157bf1b014","outputPortName":"碰撞时","inputNodeGuid":"f8947676-1084-4228-b991-1509cc7fe851","inputPortName":"输入"}</t>
         </is>
       </c>
       <c r="H73"/>
@@ -2409,16 +2405,16 @@
       <c r="C74"/>
       <c r="D74"/>
       <c r="E74">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>{"guid":"ce857360-de7e-4457-b348-9c124ce98879","nodeType":8,"position":{"x":1040.666748046875,"y":-2305.333251953125},"targetType":2,"assetTags":{"_tags":[]},"grantedTags":{"_tags":[]},"applicationRequiredTags":{"_tags":[]},"applicationImmunityTags":{"_tags":[]},"removeGameEffectsWithTags":{"_tags":[]},"durationType":2,"duration":"0","isPeriodic":false,"period":"1","executeOnApplication":false,"attributeModifiers":[],"stackType":0,"stackLimit":0,"stackDurationRefreshPolicy":0,"stackPeriodResetPolicy":0,"stackExpirationPolicy":0,"stackOverflowPolicy":0,"ongoingRequiredTags":{"_tags":[]},"cancelOnAbilityEnd":false,"launchPositionSource":0,"launchBindingName":"center","targetPositionSource":1,"targetBindingName":"center","projectileTargetType":0,"flyOver":true,"offsetAngle":30.0,"curveHeight":0.0,"projectilePrefab":{"instanceID":45894},"speed":10.0,"maxDistance":10.0,"collisionRadius":0.5,"isPiercing":false,"maxPierceCount":1,"collisionTargetTags":{"_tags":[]},"collisionExcludeTags":{"_tags":[]}}</t>
+          <t>{"guid":"432ff1e3-b18d-476d-af80-d39ddc07402a","nodeType":20,"position":{"x":-238.66665649414063,"y":-2405.333251953125},"targetType":1,"skeletonDataAsset":{"instanceID":45056},"animationName":"Attack_01","animationDuration":"18","isAnimationLooping":false,"timeEffects":[{"triggerTime":7,"portId":"de0ba361-3aba-4ef0-bb07-9b418fcae591"},{"triggerTime":18,"portId":"84e238a8-5baf-470e-829f-186695064945"}],"timeCues":[]}</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>{"outputNodeGuid":"432ff1e3-b18d-476d-af80-d39ddc07402a","outputPortName":"84e238a8-5baf-470e-829f-186695064945","inputNodeGuid":"2cfdacd2-0186-49dd-b177-4eb8c0ad87bd","inputPortName":"输入"}</t>
+          <t>{"outputNodeGuid":"d897a922-5756-42cf-ac65-90a48c1e5a17","outputPortName":"碰撞时","inputNodeGuid":"f8947676-1084-4228-b991-1509cc7fe851","inputPortName":"输入"}</t>
         </is>
       </c>
       <c r="H74"/>
@@ -2433,12 +2429,12 @@
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>{"guid":"9a695e91-e218-425e-82ed-1e157bf1b014","nodeType":8,"position":{"x":1022.666748046875,"y":-2131.333251953125},"targetType":2,"assetTags":{"_tags":[]},"grantedTags":{"_tags":[]},"applicationRequiredTags":{"_tags":[]},"applicationImmunityTags":{"_tags":[]},"removeGameEffectsWithTags":{"_tags":[]},"durationType":2,"duration":"0","isPeriodic":false,"period":"1","executeOnApplication":false,"attributeModifiers":[],"stackType":0,"stackLimit":0,"stackDurationRefreshPolicy":0,"stackPeriodResetPolicy":0,"stackExpirationPolicy":0,"stackOverflowPolicy":0,"ongoingRequiredTags":{"_tags":[]},"cancelOnAbilityEnd":false,"launchPositionSource":0,"launchBindingName":"center","targetPositionSource":1,"targetBindingName":"center","projectileTargetType":0,"flyOver":true,"offsetAngle":0.0,"curveHeight":0.0,"projectilePrefab":{"instanceID":45894},"speed":10.0,"maxDistance":10.0,"collisionRadius":0.5,"isPiercing":false,"maxPierceCount":1,"collisionTargetTags":{"_tags":[]},"collisionExcludeTags":{"_tags":[]}}</t>
+          <t>{"guid":"ce857360-de7e-4457-b348-9c124ce98879","nodeType":8,"position":{"x":1040.666748046875,"y":-2305.333251953125},"targetType":2,"assetTags":{"_tags":[]},"grantedTags":{"_tags":[]},"applicationRequiredTags":{"_tags":[]},"applicationImmunityTags":{"_tags":[]},"removeGameEffectsWithTags":{"_tags":[]},"durationType":2,"duration":"0","isPeriodic":false,"period":"1","executeOnApplication":false,"attributeModifiers":[],"stackType":0,"stackLimit":0,"stackDurationRefreshPolicy":0,"stackPeriodResetPolicy":0,"stackExpirationPolicy":0,"stackOverflowPolicy":0,"ongoingRequiredTags":{"_tags":[]},"cancelOnAbilityEnd":false,"launchPositionSource":0,"launchBindingName":"center","targetPositionSource":1,"targetBindingName":"center","projectileTargetType":0,"flyOver":true,"offsetAngle":30.0,"curveHeight":0.0,"projectilePrefab":{"instanceID":45894},"speed":10.0,"maxDistance":10.0,"collisionRadius":0.5,"isPiercing":false,"maxPierceCount":1,"collisionTargetTags":{"_tags":[]},"collisionExcludeTags":{"_tags":[]}}</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>{"outputNodeGuid":"432ff1e3-b18d-476d-af80-d39ddc07402a","outputPortName":"de0ba361-3aba-4ef0-bb07-9b418fcae591","inputNodeGuid":"ce857360-de7e-4457-b348-9c124ce98879","inputPortName":"输入"}</t>
+          <t>{"outputNodeGuid":"432ff1e3-b18d-476d-af80-d39ddc07402a","outputPortName":"84e238a8-5baf-470e-829f-186695064945","inputNodeGuid":"2cfdacd2-0186-49dd-b177-4eb8c0ad87bd","inputPortName":"输入"}</t>
         </is>
       </c>
       <c r="H75"/>
@@ -2453,12 +2449,12 @@
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>{"guid":"d897a922-5756-42cf-ac65-90a48c1e5a17","nodeType":8,"position":{"x":1022.666748046875,"y":-1978.0},"targetType":2,"assetTags":{"_tags":[]},"grantedTags":{"_tags":[]},"applicationRequiredTags":{"_tags":[]},"applicationImmunityTags":{"_tags":[]},"removeGameEffectsWithTags":{"_tags":[]},"durationType":2,"duration":"0","isPeriodic":false,"period":"1","executeOnApplication":false,"attributeModifiers":[],"stackType":0,"stackLimit":0,"stackDurationRefreshPolicy":0,"stackPeriodResetPolicy":0,"stackExpirationPolicy":0,"stackOverflowPolicy":0,"ongoingRequiredTags":{"_tags":[]},"cancelOnAbilityEnd":false,"launchPositionSource":0,"launchBindingName":"center","targetPositionSource":1,"targetBindingName":"center","projectileTargetType":0,"flyOver":true,"offsetAngle":-30.0,"curveHeight":0.0,"projectilePrefab":{"instanceID":45894},"speed":10.0,"maxDistance":10.0,"collisionRadius":0.5,"isPiercing":false,"maxPierceCount":1,"collisionTargetTags":{"_tags":[]},"collisionExcludeTags":{"_tags":[]}}</t>
+          <t>{"guid":"9a695e91-e218-425e-82ed-1e157bf1b014","nodeType":8,"position":{"x":1022.666748046875,"y":-2131.333251953125},"targetType":2,"assetTags":{"_tags":[]},"grantedTags":{"_tags":[]},"applicationRequiredTags":{"_tags":[]},"applicationImmunityTags":{"_tags":[]},"removeGameEffectsWithTags":{"_tags":[]},"durationType":2,"duration":"0","isPeriodic":false,"period":"1","executeOnApplication":false,"attributeModifiers":[],"stackType":0,"stackLimit":0,"stackDurationRefreshPolicy":0,"stackPeriodResetPolicy":0,"stackExpirationPolicy":0,"stackOverflowPolicy":0,"ongoingRequiredTags":{"_tags":[]},"cancelOnAbilityEnd":false,"launchPositionSource":0,"launchBindingName":"center","targetPositionSource":1,"targetBindingName":"center","projectileTargetType":0,"flyOver":true,"offsetAngle":0.0,"curveHeight":0.0,"projectilePrefab":{"instanceID":45894},"speed":10.0,"maxDistance":10.0,"collisionRadius":0.5,"isPiercing":false,"maxPierceCount":1,"collisionTargetTags":{"_tags":[]},"collisionExcludeTags":{"_tags":[]}}</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>{"outputNodeGuid":"432ff1e3-b18d-476d-af80-d39ddc07402a","outputPortName":"de0ba361-3aba-4ef0-bb07-9b418fcae591","inputNodeGuid":"9a695e91-e218-425e-82ed-1e157bf1b014","inputPortName":"输入"}</t>
+          <t>{"outputNodeGuid":"432ff1e3-b18d-476d-af80-d39ddc07402a","outputPortName":"de0ba361-3aba-4ef0-bb07-9b418fcae591","inputNodeGuid":"ce857360-de7e-4457-b348-9c124ce98879","inputPortName":"输入"}</t>
         </is>
       </c>
       <c r="H76"/>
@@ -2468,57 +2464,57 @@
       <c r="B77"/>
       <c r="C77"/>
       <c r="D77"/>
-      <c r="E77"/>
-      <c r="F77"/>
+      <c r="E77">
+        <v>8</v>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>{"guid":"d897a922-5756-42cf-ac65-90a48c1e5a17","nodeType":8,"position":{"x":1022.666748046875,"y":-1978.0},"targetType":2,"assetTags":{"_tags":[]},"grantedTags":{"_tags":[]},"applicationRequiredTags":{"_tags":[]},"applicationImmunityTags":{"_tags":[]},"removeGameEffectsWithTags":{"_tags":[]},"durationType":2,"duration":"0","isPeriodic":false,"period":"1","executeOnApplication":false,"attributeModifiers":[],"stackType":0,"stackLimit":0,"stackDurationRefreshPolicy":0,"stackPeriodResetPolicy":0,"stackExpirationPolicy":0,"stackOverflowPolicy":0,"ongoingRequiredTags":{"_tags":[]},"cancelOnAbilityEnd":false,"launchPositionSource":0,"launchBindingName":"center","targetPositionSource":1,"targetBindingName":"center","projectileTargetType":0,"flyOver":true,"offsetAngle":-30.0,"curveHeight":0.0,"projectilePrefab":{"instanceID":45894},"speed":10.0,"maxDistance":10.0,"collisionRadius":0.5,"isPiercing":false,"maxPierceCount":1,"collisionTargetTags":{"_tags":[]},"collisionExcludeTags":{"_tags":[]}}</t>
+        </is>
+      </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>{"outputNodeGuid":"432ff1e3-b18d-476d-af80-d39ddc07402a","outputPortName":"de0ba361-3aba-4ef0-bb07-9b418fcae591","inputNodeGuid":"d897a922-5756-42cf-ac65-90a48c1e5a17","inputPortName":"输入"}</t>
+          <t>{"outputNodeGuid":"432ff1e3-b18d-476d-af80-d39ddc07402a","outputPortName":"de0ba361-3aba-4ef0-bb07-9b418fcae591","inputNodeGuid":"9a695e91-e218-425e-82ed-1e157bf1b014","inputPortName":"输入"}</t>
         </is>
       </c>
       <c r="H77"/>
     </row>
     <row r="78">
       <c r="A78"/>
-      <c r="B78">
-        <v>1006</v>
-      </c>
-      <c r="C78" t="inlineStr">
-        <is>
-          <t>Wan</t>
-        </is>
-      </c>
+      <c r="B78"/>
+      <c r="C78"/>
       <c r="D78"/>
-      <c r="E78">
-        <v>3</v>
-      </c>
-      <c r="F78" t="inlineStr">
-        <is>
-          <t>{"guid":"9d6f459d-b588-4b64-843b-1b71e8f299ae","nodeType":3,"position":{"x":-1186.4000244140625,"y":-2011.199951171875},"targetType":1,"assetTags":{"_tags":[]},"grantedTags":{"_tags":[]},"applicationRequiredTags":{"_tags":[]},"applicationImmunityTags":{"_tags":[]},"removeGameEffectsWithTags":{"_tags":[]},"durationType":0,"duration":"0","isPeriodic":false,"period":"1","executeOnApplication":false,"attributeModifiers":[{"attrType":100,"operation":0,"magnitudeSourceType":0,"fixedValue":10.0,"formula":"","mmcType":0,"setByCallerKey":"","mmcCaptureAttribute":200,"mmcAttributeSource":0,"mmcCoefficient":1.0,"mmcUseSnapshot":true}],"stackType":0,"stackLimit":0,"stackDurationRefreshPolicy":0,"stackPeriodResetPolicy":0,"stackExpirationPolicy":0,"stackOverflowPolicy":0,"ongoingRequiredTags":{"_tags":[]},"cancelOnAbilityEnd":true}</t>
-        </is>
-      </c>
+      <c r="E78"/>
+      <c r="F78"/>
       <c r="G78" t="inlineStr">
         <is>
-          <t>{"outputNodeGuid":"356907e0-1488-4128-bfcc-7ff73cfc3330","outputPortName":"动画","inputNodeGuid":"432ff1e3-b18d-476d-af80-d39ddc07402a","inputPortName":"输入"}</t>
+          <t>{"outputNodeGuid":"432ff1e3-b18d-476d-af80-d39ddc07402a","outputPortName":"de0ba361-3aba-4ef0-bb07-9b418fcae591","inputNodeGuid":"d897a922-5756-42cf-ac65-90a48c1e5a17","inputPortName":"输入"}</t>
         </is>
       </c>
       <c r="H78"/>
     </row>
     <row r="79">
       <c r="A79"/>
-      <c r="B79"/>
-      <c r="C79"/>
+      <c r="B79">
+        <v>1006</v>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>Wan</t>
+        </is>
+      </c>
       <c r="D79"/>
       <c r="E79">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>{"guid":"f73ba91e-a76b-456c-b19c-a5176809d5f5","nodeType":7,"position":{"x":700.0,"y":-1856.800048828125},"targetType":1,"endType":0}</t>
+          <t>{"guid":"9d6f459d-b588-4b64-843b-1b71e8f299ae","nodeType":3,"position":{"x":-1186.4000244140625,"y":-2011.199951171875},"targetType":1,"assetTags":{"_tags":[]},"grantedTags":{"_tags":[]},"applicationRequiredTags":{"_tags":[]},"applicationImmunityTags":{"_tags":[]},"removeGameEffectsWithTags":{"_tags":[]},"durationType":0,"duration":"0","isPeriodic":false,"period":"1","executeOnApplication":false,"attributeModifiers":[{"attrType":100,"operation":0,"magnitudeSourceType":0,"fixedValue":10.0,"formula":"","mmcType":0,"setByCallerKey":"","mmcCaptureAttribute":200,"mmcAttributeSource":0,"mmcCoefficient":1.0,"mmcUseSnapshot":true}],"stackType":0,"stackLimit":0,"stackDurationRefreshPolicy":0,"stackPeriodResetPolicy":0,"stackExpirationPolicy":0,"stackOverflowPolicy":0,"ongoingRequiredTags":{"_tags":[]},"cancelOnAbilityEnd":true}</t>
         </is>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>{"outputNodeGuid":"356907e0-1488-4128-bfcc-7ff73cfc3330","outputPortName":"冷却","inputNodeGuid":"c28fb88d-51b1-47b2-be59-859e0ac638e3","inputPortName":"输入"}</t>
+          <t>{"outputNodeGuid":"356907e0-1488-4128-bfcc-7ff73cfc3330","outputPortName":"动画","inputNodeGuid":"432ff1e3-b18d-476d-af80-d39ddc07402a","inputPortName":"输入"}</t>
         </is>
       </c>
       <c r="H79"/>
@@ -2529,16 +2525,16 @@
       <c r="C80"/>
       <c r="D80"/>
       <c r="E80">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>{"guid":"091ecddb-f80b-4c00-aa06-f9bc718618d2","nodeType":22,"position":{"x":-93.60000610351563,"y":-1708.800048828125},"targetType":0,"assetTags":{"_tags":[]},"grantedTags":{"_tags":[]},"applicationRequiredTags":{"_tags":[]},"applicationImmunityTags":{"_tags":[]},"removeGameEffectsWithTags":{"_tags":[]},"durationType":1,"duration":"0.5","isPeriodic":false,"period":"1","executeOnApplication":false,"attributeModifiers":[],"stackType":0,"stackLimit":0,"stackDurationRefreshPolicy":0,"stackPeriodResetPolicy":0,"stackExpirationPolicy":0,"stackOverflowPolicy":0,"ongoingRequiredTags":{"_tags":[]},"cancelOnAbilityEnd":false,"displaceType":0,"speed":10.0,"distance":3.0,"minDistance":0.5,"pointSource":0,"pointBindingName":""}</t>
+          <t>{"guid":"f73ba91e-a76b-456c-b19c-a5176809d5f5","nodeType":7,"position":{"x":700.0,"y":-1856.800048828125},"targetType":1,"endType":0}</t>
         </is>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>{"outputNodeGuid":"356907e0-1488-4128-bfcc-7ff73cfc3330","outputPortName":"消耗","inputNodeGuid":"9d6f459d-b588-4b64-843b-1b71e8f299ae","inputPortName":"输入"}</t>
+          <t>{"outputNodeGuid":"356907e0-1488-4128-bfcc-7ff73cfc3330","outputPortName":"冷却","inputNodeGuid":"c28fb88d-51b1-47b2-be59-859e0ac638e3","inputPortName":"输入"}</t>
         </is>
       </c>
       <c r="H80"/>
@@ -2549,16 +2545,16 @@
       <c r="C81"/>
       <c r="D81"/>
       <c r="E81">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>{"guid":"c28fb88d-51b1-47b2-be59-859e0ac638e3","nodeType":10,"position":{"x":-1186.4000244140625,"y":-1747.199951171875},"targetType":1,"assetTags":{"_tags":[]},"grantedTags":{"_tags":[{"_name":"CD.Wan","_hashCode":87403585,"_shortName":"Wan","_ancestorHashCodes":[-1137859925],"_ancestorNames":["CD"]}]},"applicationRequiredTags":{"_tags":[]},"applicationImmunityTags":{"_tags":[]},"removeGameEffectsWithTags":{"_tags":[]},"durationType":1,"duration":"5","isPeriodic":false,"period":"1","executeOnApplication":false,"attributeModifiers":[],"stackType":0,"stackLimit":0,"stackDurationRefreshPolicy":0,"stackPeriodResetPolicy":0,"stackExpirationPolicy":0,"stackOverflowPolicy":0,"ongoingRequiredTags":{"_tags":[]},"cancelOnAbilityEnd":false,"cooldownType":0,"maxCharges":2,"chargeTime":"10"}</t>
+          <t>{"guid":"091ecddb-f80b-4c00-aa06-f9bc718618d2","nodeType":22,"position":{"x":-93.60000610351563,"y":-1708.800048828125},"targetType":0,"assetTags":{"_tags":[]},"grantedTags":{"_tags":[]},"applicationRequiredTags":{"_tags":[]},"applicationImmunityTags":{"_tags":[]},"removeGameEffectsWithTags":{"_tags":[]},"durationType":1,"duration":"0.5","isPeriodic":false,"period":"1","executeOnApplication":false,"attributeModifiers":[],"stackType":0,"stackLimit":0,"stackDurationRefreshPolicy":0,"stackPeriodResetPolicy":0,"stackExpirationPolicy":0,"stackOverflowPolicy":0,"ongoingRequiredTags":{"_tags":[]},"cancelOnAbilityEnd":false,"displaceType":0,"speed":10.0,"distance":3.0,"minDistance":0.5,"pointSource":0,"pointBindingName":""}</t>
         </is>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>{"outputNodeGuid":"432ff1e3-b18d-476d-af80-d39ddc07402a","outputPortName":"f41c85e0-7f26-494e-9ffc-4a06c980f811","inputNodeGuid":"f73ba91e-a76b-456c-b19c-a5176809d5f5","inputPortName":"输入"}</t>
+          <t>{"outputNodeGuid":"356907e0-1488-4128-bfcc-7ff73cfc3330","outputPortName":"消耗","inputNodeGuid":"9d6f459d-b588-4b64-843b-1b71e8f299ae","inputPortName":"输入"}</t>
         </is>
       </c>
       <c r="H81"/>
@@ -2569,16 +2565,16 @@
       <c r="C82"/>
       <c r="D82"/>
       <c r="E82">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>{"guid":"cde57fb8-b693-4da8-a4a8-fd61e56c5dcd","nodeType":12,"position":{"x":677.5999755859375,"y":-1998.4000244140625},"targetType":1,"requiredTags":{"_tags":[]},"immunityTags":{"_tags":[]},"destroyWithNode":false,"positionSource":0,"particlePrefab":{"instanceID":45968},"particleBindingName":"down","particleOffset":{"x":0.0,"y":0.0,"z":0.0},"particleScale":{"x":1.0,"y":1.0,"z":1.0},"attachToTarget":false,"particleLoop":false}</t>
+          <t>{"guid":"c28fb88d-51b1-47b2-be59-859e0ac638e3","nodeType":10,"position":{"x":-1186.4000244140625,"y":-1747.199951171875},"targetType":1,"assetTags":{"_tags":[]},"grantedTags":{"_tags":[{"_name":"CD.Wan","_hashCode":87403585,"_shortName":"Wan","_ancestorHashCodes":[-1137859925],"_ancestorNames":["CD"]}]},"applicationRequiredTags":{"_tags":[]},"applicationImmunityTags":{"_tags":[]},"removeGameEffectsWithTags":{"_tags":[]},"durationType":1,"duration":"5","isPeriodic":false,"period":"1","executeOnApplication":false,"attributeModifiers":[],"stackType":0,"stackLimit":0,"stackDurationRefreshPolicy":0,"stackPeriodResetPolicy":0,"stackExpirationPolicy":0,"stackOverflowPolicy":0,"ongoingRequiredTags":{"_tags":[]},"cancelOnAbilityEnd":false,"cooldownType":0,"maxCharges":2,"chargeTime":"10"}</t>
         </is>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>{"outputNodeGuid":"432ff1e3-b18d-476d-af80-d39ddc07402a","outputPortName":"de0ba361-3aba-4ef0-bb07-9b418fcae591","inputNodeGuid":"e33ab94c-1496-4d6a-ba5e-1afd38bb0c30","inputPortName":"输入"}</t>
+          <t>{"outputNodeGuid":"432ff1e3-b18d-476d-af80-d39ddc07402a","outputPortName":"f41c85e0-7f26-494e-9ffc-4a06c980f811","inputNodeGuid":"f73ba91e-a76b-456c-b19c-a5176809d5f5","inputPortName":"输入"}</t>
         </is>
       </c>
       <c r="H82"/>
@@ -2589,16 +2585,16 @@
       <c r="C83"/>
       <c r="D83"/>
       <c r="E83">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>{"guid":"356907e0-1488-4128-bfcc-7ff73cfc3330","nodeType":0,"position":{"x":-878.4000244140625,"y":-1853.5999755859375},"targetType":1,"skillId":1006,"assetTags":{"_tags":[]},"cancelAbilitiesWithTags":{"_tags":[]},"blockAbilitiesWithTags":{"_tags":[]},"activationOwnedTags":{"_tags":[]},"activationRequiredTags":{"_tags":[]},"activationBlockedTags":{"_tags":[{"_name":"CD.Wan","_hashCode":87403585,"_shortName":"Wan","_ancestorHashCodes":[-1137859925],"_ancestorNames":["CD"]}]},"ongoingBlockedTags":{"_tags":[]},"eventOutputPorts":[]}</t>
+          <t>{"guid":"cde57fb8-b693-4da8-a4a8-fd61e56c5dcd","nodeType":12,"position":{"x":677.5999755859375,"y":-1998.4000244140625},"targetType":1,"requiredTags":{"_tags":[]},"immunityTags":{"_tags":[]},"destroyWithNode":false,"positionSource":0,"particlePrefab":{"instanceID":45968},"particleBindingName":"down","particleOffset":{"x":0.0,"y":0.0,"z":0.0},"particleScale":{"x":1.0,"y":1.0,"z":1.0},"attachToTarget":false,"particleLoop":false}</t>
         </is>
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>{"outputNodeGuid":"432ff1e3-b18d-476d-af80-d39ddc07402a","outputPortName":"8dea1941-c520-4f9a-aee0-40932c8542ef","inputNodeGuid":"cde57fb8-b693-4da8-a4a8-fd61e56c5dcd","inputPortName":"输入"}</t>
+          <t>{"outputNodeGuid":"432ff1e3-b18d-476d-af80-d39ddc07402a","outputPortName":"de0ba361-3aba-4ef0-bb07-9b418fcae591","inputNodeGuid":"e33ab94c-1496-4d6a-ba5e-1afd38bb0c30","inputPortName":"输入"}</t>
         </is>
       </c>
       <c r="H83"/>
@@ -2618,7 +2614,7 @@
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>{"outputNodeGuid":"e33ab94c-1496-4d6a-ba5e-1afd38bb0c30","outputPortName":"对每个目标","inputNodeGuid":"091ecddb-f80b-4c00-aa06-f9bc718618d2","inputPortName":"输入"}</t>
+          <t>{"outputNodeGuid":"432ff1e3-b18d-476d-af80-d39ddc07402a","outputPortName":"8dea1941-c520-4f9a-aee0-40932c8542ef","inputNodeGuid":"cde57fb8-b693-4da8-a4a8-fd61e56c5dcd","inputPortName":"输入"}</t>
         </is>
       </c>
       <c r="H84"/>
@@ -2636,51 +2632,51 @@
           <t>{"guid":"432ff1e3-b18d-476d-af80-d39ddc07402a","nodeType":20,"position":{"x":-502.3999938964844,"y":-2384.0},"targetType":1,"skeletonDataAsset":{"instanceID":45056},"animationName":"Skill_attack_1009","animationDuration":"25","isAnimationLooping":false,"timeEffects":[{"triggerTime":4,"portId":"de0ba361-3aba-4ef0-bb07-9b418fcae591"},{"triggerTime":25,"portId":"f41c85e0-7f26-494e-9ffc-4a06c980f811"}],"timeCues":[{"startTime":0,"endTime":75,"portId":"8dea1941-c520-4f9a-aee0-40932c8542ef"}]}</t>
         </is>
       </c>
-      <c r="G85"/>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>{"outputNodeGuid":"e33ab94c-1496-4d6a-ba5e-1afd38bb0c30","outputPortName":"对每个目标","inputNodeGuid":"091ecddb-f80b-4c00-aa06-f9bc718618d2","inputPortName":"输入"}</t>
+        </is>
+      </c>
       <c r="H85"/>
     </row>
     <row r="86">
       <c r="A86"/>
-      <c r="B86">
-        <v>1004</v>
-      </c>
-      <c r="C86" t="inlineStr">
-        <is>
-          <t>Wind</t>
-        </is>
-      </c>
+      <c r="B86"/>
+      <c r="C86"/>
       <c r="D86"/>
       <c r="E86">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>{"guid":"9d6f459d-b588-4b64-843b-1b71e8f299ae","nodeType":3,"position":{"x":-1186.4000244140625,"y":-2011.199951171875},"targetType":1,"assetTags":{"_tags":[]},"grantedTags":{"_tags":[]},"applicationRequiredTags":{"_tags":[]},"applicationImmunityTags":{"_tags":[]},"removeGameEffectsWithTags":{"_tags":[]},"durationType":0,"duration":"0","isPeriodic":false,"period":"1","executeOnApplication":false,"attributeModifiers":[{"attrType":100,"operation":0,"magnitudeSourceType":0,"fixedValue":10.0,"formula":"","mmcType":0,"setByCallerKey":"","mmcCaptureAttribute":200,"mmcAttributeSource":0,"mmcCoefficient":1.0,"mmcUseSnapshot":true}],"stackType":0,"stackLimit":0,"stackDurationRefreshPolicy":0,"stackPeriodResetPolicy":0,"stackExpirationPolicy":0,"stackOverflowPolicy":0,"ongoingRequiredTags":{"_tags":[]},"cancelOnAbilityEnd":true}</t>
-        </is>
-      </c>
-      <c r="G86" t="inlineStr">
-        <is>
-          <t>{"outputNodeGuid":"356907e0-1488-4128-bfcc-7ff73cfc3330","outputPortName":"动画","inputNodeGuid":"432ff1e3-b18d-476d-af80-d39ddc07402a","inputPortName":"输入"}</t>
-        </is>
-      </c>
+          <t>{"guid":"356907e0-1488-4128-bfcc-7ff73cfc3330","nodeType":0,"position":{"x":-878.4000244140625,"y":-1853.5999755859375},"targetType":1,"skillId":1006,"assetTags":{"_tags":[]},"cancelAbilitiesWithTags":{"_tags":[]},"blockAbilitiesWithTags":{"_tags":[]},"activationOwnedTags":{"_tags":[{"_name":"Skill.Running","_hashCode":-51601538,"_shortName":"Running","_ancestorHashCodes":[1312877309],"_ancestorNames":["Skill"]}]},"activationRequiredTags":{"_tags":[]},"activationBlockedTags":{"_tags":[{"_name":"CD.Wan","_hashCode":87403585,"_shortName":"Wan","_ancestorHashCodes":[-1137859925],"_ancestorNames":["CD"]},{"_name":"Skill.Running","_hashCode":-51601538,"_shortName":"Running","_ancestorHashCodes":[1312877309],"_ancestorNames":["Skill"]}]},"ongoingBlockedTags":{"_tags":[]},"eventOutputPorts":[]}</t>
+        </is>
+      </c>
+      <c r="G86"/>
       <c r="H86"/>
     </row>
     <row r="87">
       <c r="A87"/>
-      <c r="B87"/>
-      <c r="C87"/>
+      <c r="B87">
+        <v>1004</v>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>Wind</t>
+        </is>
+      </c>
       <c r="D87"/>
       <c r="E87">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>{"guid":"356907e0-1488-4128-bfcc-7ff73cfc3330","nodeType":0,"position":{"x":-878.4000244140625,"y":-1853.5999755859375},"targetType":1,"skillId":1004,"assetTags":{"_tags":[]},"cancelAbilitiesWithTags":{"_tags":[]},"blockAbilitiesWithTags":{"_tags":[]},"activationOwnedTags":{"_tags":[]},"activationRequiredTags":{"_tags":[]},"activationBlockedTags":{"_tags":[{"_name":"CD.Wind","_hashCode":1982736573,"_shortName":"Wind","_ancestorHashCodes":[-1137859925],"_ancestorNames":["CD"]}]},"ongoingBlockedTags":{"_tags":[]},"eventOutputPorts":[]}</t>
+          <t>{"guid":"9d6f459d-b588-4b64-843b-1b71e8f299ae","nodeType":3,"position":{"x":-1186.4000244140625,"y":-2011.199951171875},"targetType":1,"assetTags":{"_tags":[]},"grantedTags":{"_tags":[]},"applicationRequiredTags":{"_tags":[]},"applicationImmunityTags":{"_tags":[]},"removeGameEffectsWithTags":{"_tags":[]},"durationType":0,"duration":"0","isPeriodic":false,"period":"1","executeOnApplication":false,"attributeModifiers":[{"attrType":100,"operation":0,"magnitudeSourceType":0,"fixedValue":10.0,"formula":"","mmcType":0,"setByCallerKey":"","mmcCaptureAttribute":200,"mmcAttributeSource":0,"mmcCoefficient":1.0,"mmcUseSnapshot":true}],"stackType":0,"stackLimit":0,"stackDurationRefreshPolicy":0,"stackPeriodResetPolicy":0,"stackExpirationPolicy":0,"stackOverflowPolicy":0,"ongoingRequiredTags":{"_tags":[]},"cancelOnAbilityEnd":true}</t>
         </is>
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>{"outputNodeGuid":"356907e0-1488-4128-bfcc-7ff73cfc3330","outputPortName":"冷却","inputNodeGuid":"c28fb88d-51b1-47b2-be59-859e0ac638e3","inputPortName":"输入"}</t>
+          <t>{"outputNodeGuid":"356907e0-1488-4128-bfcc-7ff73cfc3330","outputPortName":"动画","inputNodeGuid":"432ff1e3-b18d-476d-af80-d39ddc07402a","inputPortName":"输入"}</t>
         </is>
       </c>
       <c r="H87"/>
@@ -2700,7 +2696,7 @@
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>{"outputNodeGuid":"356907e0-1488-4128-bfcc-7ff73cfc3330","outputPortName":"消耗","inputNodeGuid":"9d6f459d-b588-4b64-843b-1b71e8f299ae","inputPortName":"输入"}</t>
+          <t>{"outputNodeGuid":"356907e0-1488-4128-bfcc-7ff73cfc3330","outputPortName":"冷却","inputNodeGuid":"c28fb88d-51b1-47b2-be59-859e0ac638e3","inputPortName":"输入"}</t>
         </is>
       </c>
       <c r="H88"/>
@@ -2720,7 +2716,7 @@
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>{"outputNodeGuid":"356907e0-1488-4128-bfcc-7ff73cfc3330","outputPortName":"激活","inputNodeGuid":"d8847c3e-459e-4589-a96b-37ebb5ec458b","inputPortName":"输入"}</t>
+          <t>{"outputNodeGuid":"356907e0-1488-4128-bfcc-7ff73cfc3330","outputPortName":"消耗","inputNodeGuid":"9d6f459d-b588-4b64-843b-1b71e8f299ae","inputPortName":"输入"}</t>
         </is>
       </c>
       <c r="H89"/>
@@ -2740,7 +2736,7 @@
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>{"outputNodeGuid":"d8847c3e-459e-4589-a96b-37ebb5ec458b","outputPortName":"每周期执行","inputNodeGuid":"e33ab94c-1496-4d6a-ba5e-1afd38bb0c30","inputPortName":"输入"}</t>
+          <t>{"outputNodeGuid":"356907e0-1488-4128-bfcc-7ff73cfc3330","outputPortName":"激活","inputNodeGuid":"d8847c3e-459e-4589-a96b-37ebb5ec458b","inputPortName":"输入"}</t>
         </is>
       </c>
       <c r="H90"/>
@@ -2760,7 +2756,7 @@
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>{"outputNodeGuid":"e33ab94c-1496-4d6a-ba5e-1afd38bb0c30","outputPortName":"对每个目标","inputNodeGuid":"a32d1135-94db-4f81-95ba-9d5f105ef8d0","inputPortName":"输入"}</t>
+          <t>{"outputNodeGuid":"d8847c3e-459e-4589-a96b-37ebb5ec458b","outputPortName":"每周期执行","inputNodeGuid":"e33ab94c-1496-4d6a-ba5e-1afd38bb0c30","inputPortName":"输入"}</t>
         </is>
       </c>
       <c r="H91"/>
@@ -2780,7 +2776,7 @@
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>{"outputNodeGuid":"a32d1135-94db-4f81-95ba-9d5f105ef8d0","outputPortName":"完成效果","inputNodeGuid":"764289ea-065e-4f48-afc0-0f6963d18d57","inputPortName":"输入"}</t>
+          <t>{"outputNodeGuid":"e33ab94c-1496-4d6a-ba5e-1afd38bb0c30","outputPortName":"对每个目标","inputNodeGuid":"a32d1135-94db-4f81-95ba-9d5f105ef8d0","inputPortName":"输入"}</t>
         </is>
       </c>
       <c r="H92"/>
@@ -2800,7 +2796,7 @@
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>{"outputNodeGuid":"432ff1e3-b18d-476d-af80-d39ddc07402a","outputPortName":"8dea1941-c520-4f9a-aee0-40932c8542ef","inputNodeGuid":"cde57fb8-b693-4da8-a4a8-fd61e56c5dcd","inputPortName":"输入"}</t>
+          <t>{"outputNodeGuid":"a32d1135-94db-4f81-95ba-9d5f105ef8d0","outputPortName":"完成效果","inputNodeGuid":"764289ea-065e-4f48-afc0-0f6963d18d57","inputPortName":"输入"}</t>
         </is>
       </c>
       <c r="H93"/>
@@ -2820,7 +2816,7 @@
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>{"outputNodeGuid":"432ff1e3-b18d-476d-af80-d39ddc07402a","outputPortName":"f41c85e0-7f26-494e-9ffc-4a06c980f811","inputNodeGuid":"f73ba91e-a76b-456c-b19c-a5176809d5f5","inputPortName":"输入"}</t>
+          <t>{"outputNodeGuid":"432ff1e3-b18d-476d-af80-d39ddc07402a","outputPortName":"8dea1941-c520-4f9a-aee0-40932c8542ef","inputNodeGuid":"cde57fb8-b693-4da8-a4a8-fd61e56c5dcd","inputPortName":"输入"}</t>
         </is>
       </c>
       <c r="H94"/>
@@ -2838,8 +2834,28 @@
           <t>{"guid":"432ff1e3-b18d-476d-af80-d39ddc07402a","nodeType":20,"position":{"x":-452.0,"y":-2375.199951171875},"targetType":1,"skeletonDataAsset":{"instanceID":45056},"animationName":"Skill_attack_1011","animationDuration":"12","isAnimationLooping":true,"timeEffects":[{"triggerTime":250,"portId":"f41c85e0-7f26-494e-9ffc-4a06c980f811"}],"timeCues":[{"startTime":0,"endTime":255,"portId":"8dea1941-c520-4f9a-aee0-40932c8542ef"}]}</t>
         </is>
       </c>
-      <c r="G95"/>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>{"outputNodeGuid":"432ff1e3-b18d-476d-af80-d39ddc07402a","outputPortName":"f41c85e0-7f26-494e-9ffc-4a06c980f811","inputNodeGuid":"f73ba91e-a76b-456c-b19c-a5176809d5f5","inputPortName":"输入"}</t>
+        </is>
+      </c>
       <c r="H95"/>
+    </row>
+    <row r="96">
+      <c r="A96"/>
+      <c r="B96"/>
+      <c r="C96"/>
+      <c r="D96"/>
+      <c r="E96">
+        <v>0</v>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>{"guid":"356907e0-1488-4128-bfcc-7ff73cfc3330","nodeType":0,"position":{"x":-878.4000244140625,"y":-1853.5999755859375},"targetType":1,"skillId":1004,"assetTags":{"_tags":[]},"cancelAbilitiesWithTags":{"_tags":[]},"blockAbilitiesWithTags":{"_tags":[]},"activationOwnedTags":{"_tags":[{"_name":"Skill.Running","_hashCode":-51601538,"_shortName":"Running","_ancestorHashCodes":[1312877309],"_ancestorNames":["Skill"]}]},"activationRequiredTags":{"_tags":[]},"activationBlockedTags":{"_tags":[{"_name":"CD.Wind","_hashCode":1982736573,"_shortName":"Wind","_ancestorHashCodes":[-1137859925],"_ancestorNames":["CD"]},{"_name":"Skill.Running","_hashCode":-51601538,"_shortName":"Running","_ancestorHashCodes":[1312877309],"_ancestorNames":["Skill"]}]},"ongoingBlockedTags":{"_tags":[]},"eventOutputPorts":[]}</t>
+        </is>
+      </c>
+      <c r="G96"/>
+      <c r="H96"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:G12" xr:uid="{00000000-0009-0000-0000-000000000000}"/>

--- a/Luban/MiniTemplate/Datas/#SkillGraph.xlsx
+++ b/Luban/MiniTemplate/Datas/#SkillGraph.xlsx
@@ -1421,7 +1421,7 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>{"guid":"90bacd9f-d882-4bba-aaa8-41ed993ac3ff","nodeType":8,"position":{"x":-401.33331298828127,"y":-1826.666748046875},"targetType":2,"assetTags":{"_tags":[]},"grantedTags":{"_tags":[]},"applicationRequiredTags":{"_tags":[]},"applicationImmunityTags":{"_tags":[]},"removeGameEffectsWithTags":{"_tags":[]},"durationType":2,"duration":"0","isPeriodic":false,"period":"1","executeOnApplication":false,"attributeModifiers":[],"stackType":0,"stackLimit":0,"stackDurationRefreshPolicy":0,"stackPeriodResetPolicy":0,"stackExpirationPolicy":0,"stackOverflowPolicy":0,"ongoingRequiredTags":{"_tags":[]},"cancelOnAbilityEnd":false,"launchPositionSource":0,"launchBindingName":"center","targetPositionSource":1,"targetBindingName":"center","projectileTargetType":0,"flyOver":false,"offsetAngle":0.0,"curveHeight":0.0,"projectilePrefab":{"instanceID":45996},"speed":3.0,"maxDistance":10.0,"collisionRadius":0.5,"isPiercing":false,"maxPierceCount":1,"collisionTargetTags":{"_tags":[]},"collisionExcludeTags":{"_tags":[]}}</t>
+          <t>{"guid":"90bacd9f-d882-4bba-aaa8-41ed993ac3ff","nodeType":8,"position":{"x":-401.33331298828127,"y":-1826.666748046875},"targetType":2,"assetTags":{"_tags":[]},"grantedTags":{"_tags":[]},"applicationRequiredTags":{"_tags":[]},"applicationImmunityTags":{"_tags":[]},"removeGameEffectsWithTags":{"_tags":[]},"durationType":2,"duration":"0","isPeriodic":false,"period":"1","executeOnApplication":false,"attributeModifiers":[],"stackType":0,"stackLimit":0,"stackDurationRefreshPolicy":0,"stackPeriodResetPolicy":0,"stackExpirationPolicy":0,"stackOverflowPolicy":0,"ongoingRequiredTags":{"_tags":[]},"cancelOnAbilityEnd":false,"launchPositionSource":0,"launchBindingName":"center","targetPositionSource":1,"targetBindingName":"center","projectileTargetType":0,"flyOver":false,"offsetAngle":0.0,"curveHeight":0.0,"projectilePrefab":{"instanceID":45996},"speed":3.0,"maxDistance":10.0,"collisionRadius":0.5,"isPiercing":false,"maxPierceCount":1,"collisionTargetTags":{"_tags":[]},"collisionExcludeTags":{"_tags":[]},"isBouncing":false,"bounceTargetMode":0,"maxBounceCount":3,"bounceSearchRadius":10.0,"canBounceToSameTarget":false,"bounceAngleOffset":0.0}</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
@@ -1437,11 +1437,11 @@
       <c r="C26"/>
       <c r="D26"/>
       <c r="E26">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>{"guid":"356907e0-1488-4128-bfcc-7ff73cfc3330","nodeType":0,"position":{"x":-878.6666259765625,"y":-1853.3333740234375},"targetType":1,"skillId":1004,"assetTags":{"_tags":[]},"cancelAbilitiesWithTags":{"_tags":[]},"blockAbilitiesWithTags":{"_tags":[]},"activationOwnedTags":{"_tags":[]},"activationRequiredTags":{"_tags":[]},"activationBlockedTags":{"_tags":[{"_name":"CD.Wind","_hashCode":1982736573,"_shortName":"Wind","_ancestorHashCodes":[-1137859925],"_ancestorNames":["CD"]}]},"ongoingBlockedTags":{"_tags":[{"_name":"Buff.DeBuff.Stun","_hashCode":1791562953,"_shortName":"Stun","_ancestorHashCodes":[937056111,321157895],"_ancestorNames":["Buff","Buff.DeBuff"]}]},"eventOutputPorts":[]}</t>
+          <t>{"guid":"c28fb88d-51b1-47b2-be59-859e0ac638e3","nodeType":10,"position":{"x":-1220.6666259765625,"y":-1747.3333740234375},"targetType":1,"assetTags":{"_tags":[]},"grantedTags":{"_tags":[{"_name":"CD.FireCircle","_hashCode":522143731,"_shortName":"FireCircle","_ancestorHashCodes":[-1137859925],"_ancestorNames":["CD"]}]},"applicationRequiredTags":{"_tags":[]},"applicationImmunityTags":{"_tags":[]},"removeGameEffectsWithTags":{"_tags":[]},"durationType":1,"duration":"1","isPeriodic":false,"period":"1","executeOnApplication":false,"attributeModifiers":[],"stackType":0,"stackLimit":0,"stackDurationRefreshPolicy":0,"stackPeriodResetPolicy":0,"stackExpirationPolicy":0,"stackOverflowPolicy":0,"ongoingRequiredTags":{"_tags":[]},"cancelOnAbilityEnd":false,"cooldownType":0,"maxCharges":2,"chargeTime":"10"}</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
@@ -1457,11 +1457,11 @@
       <c r="C27"/>
       <c r="D27"/>
       <c r="E27">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>{"guid":"c28fb88d-51b1-47b2-be59-859e0ac638e3","nodeType":10,"position":{"x":-1220.6666259765625,"y":-1747.3333740234375},"targetType":1,"assetTags":{"_tags":[]},"grantedTags":{"_tags":[{"_name":"CD.FireCircle","_hashCode":522143731,"_shortName":"FireCircle","_ancestorHashCodes":[-1137859925],"_ancestorNames":["CD"]}]},"applicationRequiredTags":{"_tags":[]},"applicationImmunityTags":{"_tags":[]},"removeGameEffectsWithTags":{"_tags":[]},"durationType":1,"duration":"1","isPeriodic":false,"period":"1","executeOnApplication":false,"attributeModifiers":[],"stackType":0,"stackLimit":0,"stackDurationRefreshPolicy":0,"stackPeriodResetPolicy":0,"stackExpirationPolicy":0,"stackOverflowPolicy":0,"ongoingRequiredTags":{"_tags":[]},"cancelOnAbilityEnd":false,"cooldownType":0,"maxCharges":2,"chargeTime":"10"}</t>
+          <t>{"guid":"356907e0-1488-4128-bfcc-7ff73cfc3330","nodeType":0,"position":{"x":-880.6666259765625,"y":-1851.3333740234375},"targetType":1,"skillId":7001,"assetTags":{"_tags":[]},"cancelAbilitiesWithTags":{"_tags":[]},"blockAbilitiesWithTags":{"_tags":[]},"activationOwnedTags":{"_tags":[]},"activationRequiredTags":{"_tags":[]},"activationBlockedTags":{"_tags":[{"_name":"CD.Wind","_hashCode":1982736573,"_shortName":"Wind","_ancestorHashCodes":[-1137859925],"_ancestorNames":["CD"]}]},"ongoingBlockedTags":{"_tags":[{"_name":"Buff.DeBuff.Stun","_hashCode":1791562953,"_shortName":"Stun","_ancestorHashCodes":[937056111,321157895],"_ancestorNames":["Buff","Buff.DeBuff"]}]},"eventOutputPorts":[]}</t>
         </is>
       </c>
       <c r="G27"/>
@@ -1470,11 +1470,11 @@
     <row r="28">
       <c r="A28"/>
       <c r="B28">
-        <v>1005</v>
+        <v>1010</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>God</t>
+          <t>FireCircle2</t>
         </is>
       </c>
       <c r="D28"/>
@@ -1483,7 +1483,7 @@
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>{"guid":"9d6f459d-b588-4b64-843b-1b71e8f299ae","nodeType":3,"position":{"x":-1186.6666259765625,"y":-2011.3333740234375},"targetType":1,"assetTags":{"_tags":[]},"grantedTags":{"_tags":[]},"applicationRequiredTags":{"_tags":[]},"applicationImmunityTags":{"_tags":[]},"removeGameEffectsWithTags":{"_tags":[]},"durationType":0,"duration":"0","isPeriodic":false,"period":"1","executeOnApplication":false,"attributeModifiers":[{"attrType":100,"operation":0,"magnitudeSourceType":0,"fixedValue":10.0,"formula":"","mmcType":0,"setByCallerKey":"","mmcCaptureAttribute":200,"mmcAttributeSource":0,"mmcCoefficient":1.0,"mmcUseSnapshot":true}],"stackType":0,"stackLimit":0,"stackDurationRefreshPolicy":0,"stackPeriodResetPolicy":0,"stackExpirationPolicy":0,"stackOverflowPolicy":0,"ongoingRequiredTags":{"_tags":[]},"cancelOnAbilityEnd":true}</t>
+          <t>{"guid":"9d6f459d-b588-4b64-843b-1b71e8f299ae","nodeType":3,"position":{"x":-1186.6666259765625,"y":-2011.3333740234375},"targetType":1,"assetTags":{"_tags":[]},"grantedTags":{"_tags":[]},"applicationRequiredTags":{"_tags":[]},"applicationImmunityTags":{"_tags":[]},"removeGameEffectsWithTags":{"_tags":[]},"durationType":0,"duration":"0","isPeriodic":false,"period":"1","executeOnApplication":false,"attributeModifiers":[{"attrType":100,"operation":0,"magnitudeSourceType":0,"fixedValue":-10.0,"formula":"","mmcType":0,"setByCallerKey":"","mmcCaptureAttribute":200,"mmcAttributeSource":0,"mmcCoefficient":1.0,"mmcUseSnapshot":true}],"stackType":0,"stackLimit":0,"stackDurationRefreshPolicy":0,"stackPeriodResetPolicy":0,"stackExpirationPolicy":0,"stackOverflowPolicy":0,"ongoingRequiredTags":{"_tags":[]},"cancelOnAbilityEnd":true}</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
@@ -1499,11 +1499,11 @@
       <c r="C29"/>
       <c r="D29"/>
       <c r="E29">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>{"guid":"f73ba91e-a76b-456c-b19c-a5176809d5f5","nodeType":7,"position":{"x":700.0,"y":-1856.666748046875},"targetType":1,"endType":0}</t>
+          <t>{"guid":"eae41233-d297-46fe-a6c8-0b5c876fbb2a","nodeType":1,"position":{"x":46.66668701171875,"y":-1808.666748046875},"targetType":0,"assetTags":{"_tags":[]},"grantedTags":{"_tags":[]},"applicationRequiredTags":{"_tags":[]},"applicationImmunityTags":{"_tags":[]},"removeGameEffectsWithTags":{"_tags":[]},"durationType":0,"duration":"0","isPeriodic":false,"period":"1","executeOnApplication":false,"attributeModifiers":[],"stackType":0,"stackLimit":0,"stackDurationRefreshPolicy":0,"stackPeriodResetPolicy":0,"stackExpirationPolicy":0,"stackOverflowPolicy":0,"ongoingRequiredTags":{"_tags":[]},"cancelOnAbilityEnd":true,"damageType":0,"damageSourceType":0,"damageFixedValue":10.0,"damageFormula":"","damageMMCType":0,"damageSetByCallerKey":"","damageMMCCaptureAttribute":200,"damageMMCAttributeSource":0,"damageMMCCoefficient":1.0,"damageMMCUseSnapshot":true,"damageMultiplyByStackCount":false,"damageCalculationType":0}</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
@@ -1519,11 +1519,11 @@
       <c r="C30"/>
       <c r="D30"/>
       <c r="E30">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>{"guid":"cde57fb8-b693-4da8-a4a8-fd61e56c5dcd","nodeType":12,"position":{"x":677.3333740234375,"y":-1998.666748046875},"targetType":1,"requiredTags":{"_tags":[]},"immunityTags":{"_tags":[]},"destroyWithNode":false,"positionSource":0,"particlePrefab":{"instanceID":46092},"particleBindingName":"down","particleOffset":{"x":0.0,"y":0.0,"z":0.0},"particleScale":{"x":1.0,"y":1.0,"z":1.0},"attachToTarget":false,"particleLoop":false}</t>
+          <t>{"guid":"2d7e41c4-8e90-4b61-879c-4b2e5b9486db","nodeType":14,"position":{"x":408.6666564941406,"y":-1747.3333740234375},"targetType":1,"requiredTags":{"_tags":[]},"immunityTags":{"_tags":[]},"destroyWithNode":false,"positionSource":2,"positionBindingName":"head","textType":0,"fixedText":"","contextDataKey":"DamageResult","textColor":{"r":0.0,"g":0.323091983795166,"b":1.0,"a":1.0},"criticalColor":{"r":1.0,"g":0.5,"b":0.0,"a":1.0},"missColor":{"r":0.5,"g":0.5,"b":0.5,"a":1.0},"fontSize":45.0,"criticalFontSize":60.0,"duration":1.5,"offset":{"x":0.0,"y":0.0},"moveDirection":{"x":0.0,"y":1.0}}</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
@@ -1539,16 +1539,16 @@
       <c r="C31"/>
       <c r="D31"/>
       <c r="E31">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>{"guid":"c28fb88d-51b1-47b2-be59-859e0ac638e3","nodeType":10,"position":{"x":-1186.6666259765625,"y":-1747.3333740234375},"targetType":1,"assetTags":{"_tags":[]},"grantedTags":{"_tags":[{"_name":"CD.God","_hashCode":1317201809,"_shortName":"God","_ancestorHashCodes":[-1137859925],"_ancestorNames":["CD"]}]},"applicationRequiredTags":{"_tags":[]},"applicationImmunityTags":{"_tags":[]},"removeGameEffectsWithTags":{"_tags":[]},"durationType":1,"duration":"5","isPeriodic":false,"period":"1","executeOnApplication":false,"attributeModifiers":[],"stackType":0,"stackLimit":0,"stackDurationRefreshPolicy":0,"stackPeriodResetPolicy":0,"stackExpirationPolicy":0,"stackOverflowPolicy":0,"ongoingRequiredTags":{"_tags":[]},"cancelOnAbilityEnd":false,"cooldownType":0,"maxCharges":2,"chargeTime":"10"}</t>
+          <t>{"guid":"3aafa9a5-4766-4204-91ab-d797aeb3c0e1","nodeType":7,"position":{"x":580.6666259765625,"y":-1987.3333740234375},"targetType":1,"endType":0}</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>{"outputNodeGuid":"432ff1e3-b18d-476d-af80-d39ddc07402a","outputPortName":"f41c85e0-7f26-494e-9ffc-4a06c980f811","inputNodeGuid":"f73ba91e-a76b-456c-b19c-a5176809d5f5","inputPortName":"输入"}</t>
+          <t>{"outputNodeGuid":"432ff1e3-b18d-476d-af80-d39ddc07402a","outputPortName":"de0ba361-3aba-4ef0-bb07-9b418fcae591","inputNodeGuid":"90bacd9f-d882-4bba-aaa8-41ed993ac3ff","inputPortName":"输入"}</t>
         </is>
       </c>
       <c r="H31"/>
@@ -1559,16 +1559,16 @@
       <c r="C32"/>
       <c r="D32"/>
       <c r="E32">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>{"guid":"091ecddb-f80b-4c00-aa06-f9bc718618d2","nodeType":22,"position":{"x":-93.33332824707031,"y":-1708.666748046875},"targetType":0,"assetTags":{"_tags":[]},"grantedTags":{"_tags":[]},"applicationRequiredTags":{"_tags":[]},"applicationImmunityTags":{"_tags":[]},"removeGameEffectsWithTags":{"_tags":[]},"durationType":1,"duration":"0.5","isPeriodic":false,"period":"1","executeOnApplication":false,"attributeModifiers":[],"stackType":0,"stackLimit":0,"stackDurationRefreshPolicy":0,"stackPeriodResetPolicy":0,"stackExpirationPolicy":0,"stackOverflowPolicy":0,"ongoingRequiredTags":{"_tags":[]},"cancelOnAbilityEnd":false,"displaceType":1,"speed":10.0,"distance":3.0,"minDistance":0.5,"pointSource":0,"pointBindingName":""}</t>
+          <t>{"guid":"432ff1e3-b18d-476d-af80-d39ddc07402a","nodeType":20,"position":{"x":-491.33331298828127,"y":-2478.66650390625},"targetType":1,"skeletonDataAsset":{"instanceID":45056},"animationName":"Attack_01","animationDuration":"18","isAnimationLooping":false,"timeEffects":[{"triggerTime":11,"portId":"de0ba361-3aba-4ef0-bb07-9b418fcae591"},{"triggerTime":24,"portId":"7ecf9fe6-7c5e-46ae-bade-7922214225e2"}],"timeCues":[]}</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>{"outputNodeGuid":"432ff1e3-b18d-476d-af80-d39ddc07402a","outputPortName":"de0ba361-3aba-4ef0-bb07-9b418fcae591","inputNodeGuid":"e33ab94c-1496-4d6a-ba5e-1afd38bb0c30","inputPortName":"输入"}</t>
+          <t>{"outputNodeGuid":"90bacd9f-d882-4bba-aaa8-41ed993ac3ff","outputPortName":"碰撞时","inputNodeGuid":"eae41233-d297-46fe-a6c8-0b5c876fbb2a","inputPortName":"输入"}</t>
         </is>
       </c>
       <c r="H32"/>
@@ -1579,16 +1579,16 @@
       <c r="C33"/>
       <c r="D33"/>
       <c r="E33">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>{"guid":"e33ab94c-1496-4d6a-ba5e-1afd38bb0c30","nodeType":4,"position":{"x":-452.0,"y":-1786.666748046875},"targetType":1,"searchShapeType":0,"searchLineType":0,"positionSource":0,"positionBindingName":"center","searchCircleRadius":4.0,"searchSectorRadius":2.0,"searchSectorAngle":180.0,"searchLineDirectionOffsetAngle":0.0,"searchLineDirectionWidth":1.0,"searchLineDirectionLength":10.0,"lineStartPositionSource":0,"lineStartBindingName":"","lineEndPositionSource":1,"lineEndBindingName":"","searchLineBetweenWidth":1.0,"searchLineAbsoluteAngle":0.0,"searchLineAbsoluteWidth":1.0,"searchLineAbsoluteLength":10.0,"maxTargets":999,"searchTargetTags":{"_tags":[{"_name":"unitType.monster","_hashCode":-2021655864,"_shortName":"monster","_ancestorHashCodes":[1600484460],"_ancestorNames":["unitType"]}]},"searchExcludeTags":{"_tags":[]}}</t>
+          <t>{"guid":"c28fb88d-51b1-47b2-be59-859e0ac638e3","nodeType":10,"position":{"x":-1220.6666259765625,"y":-1747.3333740234375},"targetType":1,"assetTags":{"_tags":[]},"grantedTags":{"_tags":[{"_name":"CD.FireCircle","_hashCode":522143731,"_shortName":"FireCircle","_ancestorHashCodes":[-1137859925],"_ancestorNames":["CD"]}]},"applicationRequiredTags":{"_tags":[]},"applicationImmunityTags":{"_tags":[]},"removeGameEffectsWithTags":{"_tags":[]},"durationType":1,"duration":"1","isPeriodic":false,"period":"1","executeOnApplication":false,"attributeModifiers":[],"stackType":0,"stackLimit":0,"stackDurationRefreshPolicy":0,"stackPeriodResetPolicy":0,"stackExpirationPolicy":0,"stackOverflowPolicy":0,"ongoingRequiredTags":{"_tags":[]},"cancelOnAbilityEnd":false,"cooldownType":0,"maxCharges":2,"chargeTime":"10"}</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>{"outputNodeGuid":"432ff1e3-b18d-476d-af80-d39ddc07402a","outputPortName":"8dea1941-c520-4f9a-aee0-40932c8542ef","inputNodeGuid":"cde57fb8-b693-4da8-a4a8-fd61e56c5dcd","inputPortName":"输入"}</t>
+          <t>{"outputNodeGuid":"eae41233-d297-46fe-a6c8-0b5c876fbb2a","outputPortName":"完成效果","inputNodeGuid":"2d7e41c4-8e90-4b61-879c-4b2e5b9486db","inputPortName":"输入"}</t>
         </is>
       </c>
       <c r="H33"/>
@@ -1599,16 +1599,16 @@
       <c r="C34"/>
       <c r="D34"/>
       <c r="E34">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>{"guid":"432ff1e3-b18d-476d-af80-d39ddc07402a","nodeType":20,"position":{"x":-646.0,"y":-2456.0},"targetType":1,"skeletonDataAsset":{"instanceID":45056},"animationName":"Skill_attack_1009","animationDuration":"25","isAnimationLooping":false,"timeEffects":[{"triggerTime":4,"portId":"de0ba361-3aba-4ef0-bb07-9b418fcae591"},{"triggerTime":25,"portId":"f41c85e0-7f26-494e-9ffc-4a06c980f811"}],"timeCues":[{"startTime":0,"endTime":75,"portId":"8dea1941-c520-4f9a-aee0-40932c8542ef"}]}</t>
+          <t>{"guid":"356907e0-1488-4128-bfcc-7ff73cfc3330","nodeType":0,"position":{"x":-878.6666259765625,"y":-1851.3333740234375},"targetType":1,"skillId":1010,"assetTags":{"_tags":[]},"cancelAbilitiesWithTags":{"_tags":[]},"blockAbilitiesWithTags":{"_tags":[]},"activationOwnedTags":{"_tags":[]},"activationRequiredTags":{"_tags":[]},"activationBlockedTags":{"_tags":[{"_name":"CD.FireCircle","_hashCode":522143731,"_shortName":"FireCircle","_ancestorHashCodes":[-1137859925],"_ancestorNames":["CD"]}]},"ongoingBlockedTags":{"_tags":[]},"eventOutputPorts":[]}</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>{"outputNodeGuid":"e33ab94c-1496-4d6a-ba5e-1afd38bb0c30","outputPortName":"对每个目标","inputNodeGuid":"091ecddb-f80b-4c00-aa06-f9bc718618d2","inputPortName":"输入"}</t>
+          <t>{"outputNodeGuid":"432ff1e3-b18d-476d-af80-d39ddc07402a","outputPortName":"7ecf9fe6-7c5e-46ae-bade-7922214225e2","inputNodeGuid":"3aafa9a5-4766-4204-91ab-d797aeb3c0e1","inputPortName":"输入"}</t>
         </is>
       </c>
       <c r="H34"/>
@@ -1619,11 +1619,11 @@
       <c r="C35"/>
       <c r="D35"/>
       <c r="E35">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>{"guid":"356907e0-1488-4128-bfcc-7ff73cfc3330","nodeType":0,"position":{"x":-878.6666259765625,"y":-1853.3333740234375},"targetType":1,"skillId":1005,"assetTags":{"_tags":[]},"cancelAbilitiesWithTags":{"_tags":[]},"blockAbilitiesWithTags":{"_tags":[]},"activationOwnedTags":{"_tags":[{"_name":"Skill.Running","_hashCode":-51601538,"_shortName":"Running","_ancestorHashCodes":[1312877309],"_ancestorNames":["Skill"]}]},"activationRequiredTags":{"_tags":[]},"activationBlockedTags":{"_tags":[{"_name":"CD.RecBlood","_hashCode":1043024739,"_shortName":"RecBlood","_ancestorHashCodes":[-1137859925],"_ancestorNames":["CD"]},{"_name":"Skill.Running","_hashCode":-51601538,"_shortName":"Running","_ancestorHashCodes":[1312877309],"_ancestorNames":["Skill"]}]},"ongoingBlockedTags":{"_tags":[]},"eventOutputPorts":[]}</t>
+          <t>{"guid":"90bacd9f-d882-4bba-aaa8-41ed993ac3ff","nodeType":8,"position":{"x":-400.6666564941406,"y":-1836.666748046875},"targetType":2,"assetTags":{"_tags":[]},"grantedTags":{"_tags":[]},"applicationRequiredTags":{"_tags":[]},"applicationImmunityTags":{"_tags":[]},"removeGameEffectsWithTags":{"_tags":[]},"durationType":2,"duration":"0","isPeriodic":false,"period":"1","executeOnApplication":false,"attributeModifiers":[],"stackType":0,"stackLimit":0,"stackDurationRefreshPolicy":0,"stackPeriodResetPolicy":0,"stackExpirationPolicy":0,"stackOverflowPolicy":0,"ongoingRequiredTags":{"_tags":[]},"cancelOnAbilityEnd":false,"launchPositionSource":0,"launchBindingName":"center","targetPositionSource":1,"targetBindingName":"center","projectileTargetType":0,"flyOver":false,"offsetAngle":0.0,"curveHeight":0.0,"projectilePrefab":{"instanceID":45996},"speed":3.0,"maxDistance":10.0,"collisionRadius":0.5,"isPiercing":false,"maxPierceCount":1,"collisionTargetTags":{"_tags":[]},"collisionExcludeTags":{"_tags":[]},"isBouncing":true,"bounceTargetMode":1,"maxBounceCount":2,"bounceSearchRadius":10.0,"canBounceToSameTarget":false,"bounceAngleOffset":50.0}</t>
         </is>
       </c>
       <c r="G35"/>
@@ -1632,11 +1632,11 @@
     <row r="36">
       <c r="A36"/>
       <c r="B36">
-        <v>1007</v>
+        <v>1005</v>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>RecBlood</t>
+          <t>God</t>
         </is>
       </c>
       <c r="D36"/>
@@ -1645,12 +1645,12 @@
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>{"guid":"9d6f459d-b588-4b64-843b-1b71e8f299ae","nodeType":3,"position":{"x":-1186.4000244140625,"y":-2019.199951171875},"targetType":1,"assetTags":{"_tags":[]},"grantedTags":{"_tags":[]},"applicationRequiredTags":{"_tags":[]},"applicationImmunityTags":{"_tags":[]},"removeGameEffectsWithTags":{"_tags":[]},"durationType":0,"duration":"0","isPeriodic":false,"period":"1","executeOnApplication":false,"attributeModifiers":[{"attrType":100,"operation":0,"magnitudeSourceType":0,"fixedValue":10.0,"formula":"","mmcType":0,"setByCallerKey":"","mmcCaptureAttribute":200,"mmcAttributeSource":0,"mmcCoefficient":1.0,"mmcUseSnapshot":true}],"stackType":0,"stackLimit":0,"stackDurationRefreshPolicy":0,"stackPeriodResetPolicy":0,"stackExpirationPolicy":0,"stackOverflowPolicy":0,"ongoingRequiredTags":{"_tags":[]},"cancelOnAbilityEnd":true}</t>
+          <t>{"guid":"9d6f459d-b588-4b64-843b-1b71e8f299ae","nodeType":3,"position":{"x":-1186.6666259765625,"y":-2011.3333740234375},"targetType":1,"assetTags":{"_tags":[]},"grantedTags":{"_tags":[]},"applicationRequiredTags":{"_tags":[]},"applicationImmunityTags":{"_tags":[]},"removeGameEffectsWithTags":{"_tags":[]},"durationType":0,"duration":"0","isPeriodic":false,"period":"1","executeOnApplication":false,"attributeModifiers":[{"attrType":100,"operation":0,"magnitudeSourceType":0,"fixedValue":10.0,"formula":"","mmcType":0,"setByCallerKey":"","mmcCaptureAttribute":200,"mmcAttributeSource":0,"mmcCoefficient":1.0,"mmcUseSnapshot":true}],"stackType":0,"stackLimit":0,"stackDurationRefreshPolicy":0,"stackPeriodResetPolicy":0,"stackExpirationPolicy":0,"stackOverflowPolicy":0,"ongoingRequiredTags":{"_tags":[]},"cancelOnAbilityEnd":true}</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>{"outputNodeGuid":"356907e0-1488-4128-bfcc-7ff73cfc3330","outputPortName":"冷却","inputNodeGuid":"c28fb88d-51b1-47b2-be59-859e0ac638e3","inputPortName":"输入"}</t>
+          <t>{"outputNodeGuid":"356907e0-1488-4128-bfcc-7ff73cfc3330","outputPortName":"动画","inputNodeGuid":"432ff1e3-b18d-476d-af80-d39ddc07402a","inputPortName":"输入"}</t>
         </is>
       </c>
       <c r="H36"/>
@@ -1661,16 +1661,16 @@
       <c r="C37"/>
       <c r="D37"/>
       <c r="E37">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>{"guid":"5fb21a71-2fff-4477-b79b-4c1a8bc10f9a","nodeType":2,"position":{"x":-571.2000122070313,"y":-1987.199951171875},"targetType":1,"assetTags":{"_tags":[]},"grantedTags":{"_tags":[]},"applicationRequiredTags":{"_tags":[]},"applicationImmunityTags":{"_tags":[]},"removeGameEffectsWithTags":{"_tags":[]},"durationType":0,"duration":"0","isPeriodic":false,"period":"1","executeOnApplication":false,"attributeModifiers":[],"stackType":0,"stackLimit":0,"stackDurationRefreshPolicy":0,"stackPeriodResetPolicy":0,"stackExpirationPolicy":0,"stackOverflowPolicy":0,"ongoingRequiredTags":{"_tags":[]},"cancelOnAbilityEnd":false,"healSourceType":0,"healFixedValue":10.0,"healFormula":"","healMMCType":0,"healSetByCallerKey":"","healMMCCaptureAttribute":202,"healMMCAttributeSource":0,"healMMCCoefficient":1.0,"healMMCUseSnapshot":true,"healMultiplyByStackCount":false,"healCalculationType":0}</t>
+          <t>{"guid":"f73ba91e-a76b-456c-b19c-a5176809d5f5","nodeType":7,"position":{"x":700.0,"y":-1856.666748046875},"targetType":1,"endType":0}</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>{"outputNodeGuid":"356907e0-1488-4128-bfcc-7ff73cfc3330","outputPortName":"消耗","inputNodeGuid":"9d6f459d-b588-4b64-843b-1b71e8f299ae","inputPortName":"输入"}</t>
+          <t>{"outputNodeGuid":"356907e0-1488-4128-bfcc-7ff73cfc3330","outputPortName":"冷却","inputNodeGuid":"c28fb88d-51b1-47b2-be59-859e0ac638e3","inputPortName":"输入"}</t>
         </is>
       </c>
       <c r="H37"/>
@@ -1681,16 +1681,16 @@
       <c r="C38"/>
       <c r="D38"/>
       <c r="E38">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>{"guid":"011aad56-e96c-41eb-9d85-e793d74a40bb","nodeType":7,"position":{"x":-333.6000061035156,"y":-1780.0},"targetType":1,"endType":0}</t>
+          <t>{"guid":"cde57fb8-b693-4da8-a4a8-fd61e56c5dcd","nodeType":12,"position":{"x":677.3333740234375,"y":-1998.666748046875},"targetType":1,"requiredTags":{"_tags":[]},"immunityTags":{"_tags":[]},"destroyWithNode":false,"positionSource":0,"particlePrefab":{"instanceID":46092},"particleBindingName":"down","particleOffset":{"x":0.0,"y":0.0,"z":0.0},"particleScale":{"x":1.0,"y":1.0,"z":1.0},"attachToTarget":false,"particleLoop":false}</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>{"outputNodeGuid":"356907e0-1488-4128-bfcc-7ff73cfc3330","outputPortName":"激活","inputNodeGuid":"5fb21a71-2fff-4477-b79b-4c1a8bc10f9a","inputPortName":"输入"}</t>
+          <t>{"outputNodeGuid":"356907e0-1488-4128-bfcc-7ff73cfc3330","outputPortName":"消耗","inputNodeGuid":"9d6f459d-b588-4b64-843b-1b71e8f299ae","inputPortName":"输入"}</t>
         </is>
       </c>
       <c r="H38"/>
@@ -1705,12 +1705,12 @@
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>{"guid":"c28fb88d-51b1-47b2-be59-859e0ac638e3","nodeType":10,"position":{"x":-1223.199951171875,"y":-1826.4000244140625},"targetType":1,"assetTags":{"_tags":[]},"grantedTags":{"_tags":[{"_name":"CD.RecBlood","_hashCode":1163914435,"_shortName":"回血","_ancestorHashCodes":[-1137859925],"_ancestorNames":["CD"]}]},"applicationRequiredTags":{"_tags":[]},"applicationImmunityTags":{"_tags":[]},"removeGameEffectsWithTags":{"_tags":[]},"durationType":1,"duration":"3","isPeriodic":false,"period":"1","executeOnApplication":false,"attributeModifiers":[],"stackType":0,"stackLimit":0,"stackDurationRefreshPolicy":0,"stackPeriodResetPolicy":0,"stackExpirationPolicy":0,"stackOverflowPolicy":0,"ongoingRequiredTags":{"_tags":[]},"cancelOnAbilityEnd":false,"cooldownType":0,"maxCharges":2,"chargeTime":"10"}</t>
+          <t>{"guid":"c28fb88d-51b1-47b2-be59-859e0ac638e3","nodeType":10,"position":{"x":-1186.6666259765625,"y":-1747.3333740234375},"targetType":1,"assetTags":{"_tags":[]},"grantedTags":{"_tags":[{"_name":"CD.God","_hashCode":1317201809,"_shortName":"God","_ancestorHashCodes":[-1137859925],"_ancestorNames":["CD"]}]},"applicationRequiredTags":{"_tags":[]},"applicationImmunityTags":{"_tags":[]},"removeGameEffectsWithTags":{"_tags":[]},"durationType":1,"duration":"5","isPeriodic":false,"period":"1","executeOnApplication":false,"attributeModifiers":[],"stackType":0,"stackLimit":0,"stackDurationRefreshPolicy":0,"stackPeriodResetPolicy":0,"stackExpirationPolicy":0,"stackOverflowPolicy":0,"ongoingRequiredTags":{"_tags":[]},"cancelOnAbilityEnd":false,"cooldownType":0,"maxCharges":2,"chargeTime":"10"}</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>{"outputNodeGuid":"5fb21a71-2fff-4477-b79b-4c1a8bc10f9a","outputPortName":"初始效果","inputNodeGuid":"cde57fb8-b693-4da8-a4a8-fd61e56c5dcd","inputPortName":"输入"}</t>
+          <t>{"outputNodeGuid":"432ff1e3-b18d-476d-af80-d39ddc07402a","outputPortName":"f41c85e0-7f26-494e-9ffc-4a06c980f811","inputNodeGuid":"f73ba91e-a76b-456c-b19c-a5176809d5f5","inputPortName":"输入"}</t>
         </is>
       </c>
       <c r="H39"/>
@@ -1721,16 +1721,16 @@
       <c r="C40"/>
       <c r="D40"/>
       <c r="E40">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>{"guid":"356907e0-1488-4128-bfcc-7ff73cfc3330","nodeType":0,"position":{"x":-902.4000244140625,"y":-1844.0},"targetType":1,"skillId":1007,"assetTags":{"_tags":[]},"cancelAbilitiesWithTags":{"_tags":[]},"blockAbilitiesWithTags":{"_tags":[]},"activationOwnedTags":{"_tags":[]},"activationRequiredTags":{"_tags":[]},"activationBlockedTags":{"_tags":[{"_name":"CD.RecBlood","_hashCode":1163914435,"_shortName":"回血","_ancestorHashCodes":[-1137859925],"_ancestorNames":["CD"]}]},"ongoingBlockedTags":{"_tags":[]},"eventOutputPorts":[]}</t>
+          <t>{"guid":"091ecddb-f80b-4c00-aa06-f9bc718618d2","nodeType":22,"position":{"x":-93.33332824707031,"y":-1708.666748046875},"targetType":0,"assetTags":{"_tags":[]},"grantedTags":{"_tags":[]},"applicationRequiredTags":{"_tags":[]},"applicationImmunityTags":{"_tags":[]},"removeGameEffectsWithTags":{"_tags":[]},"durationType":1,"duration":"0.5","isPeriodic":false,"period":"1","executeOnApplication":false,"attributeModifiers":[],"stackType":0,"stackLimit":0,"stackDurationRefreshPolicy":0,"stackPeriodResetPolicy":0,"stackExpirationPolicy":0,"stackOverflowPolicy":0,"ongoingRequiredTags":{"_tags":[]},"cancelOnAbilityEnd":false,"displaceType":1,"speed":10.0,"distance":3.0,"minDistance":0.5,"pointSource":0,"pointBindingName":""}</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>{"outputNodeGuid":"5fb21a71-2fff-4477-b79b-4c1a8bc10f9a","outputPortName":"完成效果","inputNodeGuid":"011aad56-e96c-41eb-9d85-e793d74a40bb","inputPortName":"输入"}</t>
+          <t>{"outputNodeGuid":"432ff1e3-b18d-476d-af80-d39ddc07402a","outputPortName":"de0ba361-3aba-4ef0-bb07-9b418fcae591","inputNodeGuid":"e33ab94c-1496-4d6a-ba5e-1afd38bb0c30","inputPortName":"输入"}</t>
         </is>
       </c>
       <c r="H40"/>
@@ -1741,16 +1741,16 @@
       <c r="C41"/>
       <c r="D41"/>
       <c r="E41">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>{"guid":"cde57fb8-b693-4da8-a4a8-fd61e56c5dcd","nodeType":12,"position":{"x":-304.0,"y":-2072.0},"targetType":1,"requiredTags":{"_tags":[]},"immunityTags":{"_tags":[]},"destroyWithNode":false,"positionSource":0,"particlePrefab":{"instanceID":45910},"particleBindingName":"down","particleOffset":{"x":0.0,"y":0.0,"z":0.0},"particleScale":{"x":1.0,"y":1.0,"z":1.0},"attachToTarget":false,"particleLoop":false}</t>
+          <t>{"guid":"e33ab94c-1496-4d6a-ba5e-1afd38bb0c30","nodeType":4,"position":{"x":-452.0,"y":-1786.666748046875},"targetType":1,"searchShapeType":0,"searchLineType":0,"positionSource":0,"positionBindingName":"center","searchCircleRadius":4.0,"searchSectorRadius":2.0,"searchSectorAngle":180.0,"searchLineDirectionOffsetAngle":0.0,"searchLineDirectionWidth":1.0,"searchLineDirectionLength":10.0,"lineStartPositionSource":0,"lineStartBindingName":"","lineEndPositionSource":1,"lineEndBindingName":"","searchLineBetweenWidth":1.0,"searchLineAbsoluteAngle":0.0,"searchLineAbsoluteWidth":1.0,"searchLineAbsoluteLength":10.0,"maxTargets":999,"searchTargetTags":{"_tags":[{"_name":"unitType.monster","_hashCode":-2021655864,"_shortName":"monster","_ancestorHashCodes":[1600484460],"_ancestorNames":["unitType"]}]},"searchExcludeTags":{"_tags":[]}}</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>{"outputNodeGuid":"5fb21a71-2fff-4477-b79b-4c1a8bc10f9a","outputPortName":"完成效果","inputNodeGuid":"becb4d53-8a9e-4dc0-95a3-618d1e79ecc7","inputPortName":"输入"}</t>
+          <t>{"outputNodeGuid":"432ff1e3-b18d-476d-af80-d39ddc07402a","outputPortName":"8dea1941-c520-4f9a-aee0-40932c8542ef","inputNodeGuid":"cde57fb8-b693-4da8-a4a8-fd61e56c5dcd","inputPortName":"输入"}</t>
         </is>
       </c>
       <c r="H41"/>
@@ -1761,53 +1761,53 @@
       <c r="C42"/>
       <c r="D42"/>
       <c r="E42">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>{"guid":"becb4d53-8a9e-4dc0-95a3-618d1e79ecc7","nodeType":14,"position":{"x":-313.6000061035156,"y":-1951.199951171875},"targetType":1,"requiredTags":{"_tags":[]},"immunityTags":{"_tags":[]},"destroyWithNode":false,"positionSource":2,"positionBindingName":"head","textType":1,"fixedText":"","contextDataKey":"Heal","textColor":{"r":0.0,"g":1.0,"b":0.10971927642822266,"a":1.0},"criticalColor":{"r":1.0,"g":0.5,"b":0.0,"a":1.0},"missColor":{"r":0.5,"g":0.5,"b":0.5,"a":1.0},"fontSize":45.0,"criticalFontSize":60.0,"duration":1.5,"offset":{"x":0.0,"y":0.0},"moveDirection":{"x":0.0,"y":1.0}}</t>
-        </is>
-      </c>
-      <c r="G42"/>
+          <t>{"guid":"432ff1e3-b18d-476d-af80-d39ddc07402a","nodeType":20,"position":{"x":-646.0,"y":-2456.0},"targetType":1,"skeletonDataAsset":{"instanceID":45056},"animationName":"Skill_attack_1009","animationDuration":"25","isAnimationLooping":false,"timeEffects":[{"triggerTime":4,"portId":"de0ba361-3aba-4ef0-bb07-9b418fcae591"},{"triggerTime":25,"portId":"f41c85e0-7f26-494e-9ffc-4a06c980f811"}],"timeCues":[{"startTime":0,"endTime":75,"portId":"8dea1941-c520-4f9a-aee0-40932c8542ef"}]}</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>{"outputNodeGuid":"e33ab94c-1496-4d6a-ba5e-1afd38bb0c30","outputPortName":"对每个目标","inputNodeGuid":"091ecddb-f80b-4c00-aa06-f9bc718618d2","inputPortName":"输入"}</t>
+        </is>
+      </c>
       <c r="H42"/>
     </row>
     <row r="43">
       <c r="A43"/>
-      <c r="B43">
-        <v>1003</v>
-      </c>
-      <c r="C43" t="inlineStr">
-        <is>
-          <t>RuFood</t>
-        </is>
-      </c>
+      <c r="B43"/>
+      <c r="C43"/>
       <c r="D43"/>
       <c r="E43">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>{"guid":"9d6f459d-b588-4b64-843b-1b71e8f299ae","nodeType":3,"position":{"x":-1186.4000244140625,"y":-2011.199951171875},"targetType":1,"assetTags":{"_tags":[]},"grantedTags":{"_tags":[]},"applicationRequiredTags":{"_tags":[]},"applicationImmunityTags":{"_tags":[]},"removeGameEffectsWithTags":{"_tags":[]},"durationType":0,"duration":"0","isPeriodic":false,"period":"1","executeOnApplication":false,"attributeModifiers":[{"attrType":100,"operation":0,"magnitudeSourceType":0,"fixedValue":10.0,"formula":"","mmcType":0,"setByCallerKey":"","mmcCaptureAttribute":200,"mmcAttributeSource":0,"mmcCoefficient":1.0,"mmcUseSnapshot":true}],"stackType":0,"stackLimit":0,"stackDurationRefreshPolicy":0,"stackPeriodResetPolicy":0,"stackExpirationPolicy":0,"stackOverflowPolicy":0,"ongoingRequiredTags":{"_tags":[]},"cancelOnAbilityEnd":true}</t>
-        </is>
-      </c>
-      <c r="G43" t="inlineStr">
-        <is>
-          <t>{"outputNodeGuid":"356907e0-1488-4128-bfcc-7ff73cfc3330","outputPortName":"动画","inputNodeGuid":"432ff1e3-b18d-476d-af80-d39ddc07402a","inputPortName":"输入"}</t>
-        </is>
-      </c>
+          <t>{"guid":"356907e0-1488-4128-bfcc-7ff73cfc3330","nodeType":0,"position":{"x":-878.6666259765625,"y":-1853.3333740234375},"targetType":1,"skillId":1005,"assetTags":{"_tags":[]},"cancelAbilitiesWithTags":{"_tags":[]},"blockAbilitiesWithTags":{"_tags":[]},"activationOwnedTags":{"_tags":[{"_name":"Skill.Running","_hashCode":-51601538,"_shortName":"Running","_ancestorHashCodes":[1312877309],"_ancestorNames":["Skill"]}]},"activationRequiredTags":{"_tags":[]},"activationBlockedTags":{"_tags":[{"_name":"CD.RecBlood","_hashCode":1043024739,"_shortName":"RecBlood","_ancestorHashCodes":[-1137859925],"_ancestorNames":["CD"]},{"_name":"Skill.Running","_hashCode":-51601538,"_shortName":"Running","_ancestorHashCodes":[1312877309],"_ancestorNames":["Skill"]}]},"ongoingBlockedTags":{"_tags":[]},"eventOutputPorts":[]}</t>
+        </is>
+      </c>
+      <c r="G43"/>
       <c r="H43"/>
     </row>
     <row r="44">
       <c r="A44"/>
-      <c r="B44"/>
-      <c r="C44"/>
+      <c r="B44">
+        <v>1007</v>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>RecBlood</t>
+        </is>
+      </c>
       <c r="D44"/>
       <c r="E44">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>{"guid":"c28fb88d-51b1-47b2-be59-859e0ac638e3","nodeType":10,"position":{"x":-1186.4000244140625,"y":-1747.199951171875},"targetType":1,"assetTags":{"_tags":[]},"grantedTags":{"_tags":[{"_name":"CD.RuFood","_hashCode":-1045902856,"_shortName":"RuFood","_ancestorHashCodes":[-1137859925],"_ancestorNames":["CD"]}]},"applicationRequiredTags":{"_tags":[]},"applicationImmunityTags":{"_tags":[]},"removeGameEffectsWithTags":{"_tags":[]},"durationType":1,"duration":"5","isPeriodic":false,"period":"1","executeOnApplication":false,"attributeModifiers":[],"stackType":0,"stackLimit":0,"stackDurationRefreshPolicy":0,"stackPeriodResetPolicy":0,"stackExpirationPolicy":0,"stackOverflowPolicy":0,"ongoingRequiredTags":{"_tags":[]},"cancelOnAbilityEnd":false,"cooldownType":0,"maxCharges":2,"chargeTime":"10"}</t>
+          <t>{"guid":"9d6f459d-b588-4b64-843b-1b71e8f299ae","nodeType":3,"position":{"x":-1186.4000244140625,"y":-2019.199951171875},"targetType":1,"assetTags":{"_tags":[]},"grantedTags":{"_tags":[]},"applicationRequiredTags":{"_tags":[]},"applicationImmunityTags":{"_tags":[]},"removeGameEffectsWithTags":{"_tags":[]},"durationType":0,"duration":"0","isPeriodic":false,"period":"1","executeOnApplication":false,"attributeModifiers":[{"attrType":100,"operation":0,"magnitudeSourceType":0,"fixedValue":10.0,"formula":"","mmcType":0,"setByCallerKey":"","mmcCaptureAttribute":200,"mmcAttributeSource":0,"mmcCoefficient":1.0,"mmcUseSnapshot":true}],"stackType":0,"stackLimit":0,"stackDurationRefreshPolicy":0,"stackPeriodResetPolicy":0,"stackExpirationPolicy":0,"stackOverflowPolicy":0,"ongoingRequiredTags":{"_tags":[]},"cancelOnAbilityEnd":true}</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
@@ -1823,11 +1823,11 @@
       <c r="C45"/>
       <c r="D45"/>
       <c r="E45">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>{"guid":"cde57fb8-b693-4da8-a4a8-fd61e56c5dcd","nodeType":12,"position":{"x":677.5999755859375,"y":-1998.4000244140625},"targetType":1,"requiredTags":{"_tags":[]},"immunityTags":{"_tags":[]},"destroyWithNode":false,"positionSource":0,"particlePrefab":{"instanceID":46054},"particleBindingName":"down","particleOffset":{"x":0.0,"y":0.0,"z":0.0},"particleScale":{"x":1.0,"y":1.0,"z":1.0},"attachToTarget":false,"particleLoop":false}</t>
+          <t>{"guid":"5fb21a71-2fff-4477-b79b-4c1a8bc10f9a","nodeType":2,"position":{"x":-571.2000122070313,"y":-1987.199951171875},"targetType":1,"assetTags":{"_tags":[]},"grantedTags":{"_tags":[]},"applicationRequiredTags":{"_tags":[]},"applicationImmunityTags":{"_tags":[]},"removeGameEffectsWithTags":{"_tags":[]},"durationType":0,"duration":"0","isPeriodic":false,"period":"1","executeOnApplication":false,"attributeModifiers":[],"stackType":0,"stackLimit":0,"stackDurationRefreshPolicy":0,"stackPeriodResetPolicy":0,"stackExpirationPolicy":0,"stackOverflowPolicy":0,"ongoingRequiredTags":{"_tags":[]},"cancelOnAbilityEnd":false,"healSourceType":0,"healFixedValue":10.0,"healFormula":"","healMMCType":0,"healSetByCallerKey":"","healMMCCaptureAttribute":202,"healMMCAttributeSource":0,"healMMCCoefficient":1.0,"healMMCUseSnapshot":true,"healMultiplyByStackCount":false,"healCalculationType":0}</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
@@ -1847,12 +1847,12 @@
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>{"guid":"f73ba91e-a76b-456c-b19c-a5176809d5f5","nodeType":7,"position":{"x":700.0,"y":-1856.800048828125},"targetType":1,"endType":0}</t>
+          <t>{"guid":"011aad56-e96c-41eb-9d85-e793d74a40bb","nodeType":7,"position":{"x":-333.6000061035156,"y":-1780.0},"targetType":1,"endType":0}</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>{"outputNodeGuid":"e33ab94c-1496-4d6a-ba5e-1afd38bb0c30","outputPortName":"对每个目标","inputNodeGuid":"cb1df36f-5729-423e-9d1a-287db5a433f0","inputPortName":"输入"}</t>
+          <t>{"outputNodeGuid":"356907e0-1488-4128-bfcc-7ff73cfc3330","outputPortName":"激活","inputNodeGuid":"5fb21a71-2fff-4477-b79b-4c1a8bc10f9a","inputPortName":"输入"}</t>
         </is>
       </c>
       <c r="H46"/>
@@ -1863,16 +1863,16 @@
       <c r="C47"/>
       <c r="D47"/>
       <c r="E47">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>{"guid":"93ec5a43-cc34-4e4a-acb3-39da2f2c3010","nodeType":12,"position":{"x":468.79998779296877,"y":-1749.5999755859375},"targetType":1,"requiredTags":{"_tags":[]},"immunityTags":{"_tags":[]},"destroyWithNode":true,"positionSource":2,"particlePrefab":{"instanceID":46182},"particleBindingName":"head","particleOffset":{"x":0.0,"y":0.0,"z":0.0},"particleScale":{"x":1.0,"y":1.0,"z":1.0},"attachToTarget":true,"particleLoop":true}</t>
+          <t>{"guid":"c28fb88d-51b1-47b2-be59-859e0ac638e3","nodeType":10,"position":{"x":-1223.199951171875,"y":-1826.4000244140625},"targetType":1,"assetTags":{"_tags":[]},"grantedTags":{"_tags":[{"_name":"CD.RecBlood","_hashCode":1163914435,"_shortName":"回血","_ancestorHashCodes":[-1137859925],"_ancestorNames":["CD"]}]},"applicationRequiredTags":{"_tags":[]},"applicationImmunityTags":{"_tags":[]},"removeGameEffectsWithTags":{"_tags":[]},"durationType":1,"duration":"3","isPeriodic":false,"period":"1","executeOnApplication":false,"attributeModifiers":[],"stackType":0,"stackLimit":0,"stackDurationRefreshPolicy":0,"stackPeriodResetPolicy":0,"stackExpirationPolicy":0,"stackOverflowPolicy":0,"ongoingRequiredTags":{"_tags":[]},"cancelOnAbilityEnd":false,"cooldownType":0,"maxCharges":2,"chargeTime":"10"}</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>{"outputNodeGuid":"cb1df36f-5729-423e-9d1a-287db5a433f0","outputPortName":"初始效果","inputNodeGuid":"93ec5a43-cc34-4e4a-acb3-39da2f2c3010","inputPortName":"输入"}</t>
+          <t>{"outputNodeGuid":"5fb21a71-2fff-4477-b79b-4c1a8bc10f9a","outputPortName":"初始效果","inputNodeGuid":"cde57fb8-b693-4da8-a4a8-fd61e56c5dcd","inputPortName":"输入"}</t>
         </is>
       </c>
       <c r="H47"/>
@@ -1883,16 +1883,16 @@
       <c r="C48"/>
       <c r="D48"/>
       <c r="E48">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>{"guid":"cb1df36f-5729-423e-9d1a-287db5a433f0","nodeType":11,"position":{"x":18.399993896484376,"y":-1786.4000244140625},"targetType":0,"assetTags":{"_tags":[{"_name":"Buff.DeBuff.Stun","_hashCode":1791562953,"_shortName":"Stun","_ancestorHashCodes":[937056111,321157895],"_ancestorNames":["Buff","Buff.DeBuff"]}]},"grantedTags":{"_tags":[{"_name":"Buff.DeBuff.Stun","_hashCode":1791562953,"_shortName":"Stun","_ancestorHashCodes":[937056111,321157895],"_ancestorNames":["Buff","Buff.DeBuff"]}]},"applicationRequiredTags":{"_tags":[]},"applicationImmunityTags":{"_tags":[]},"removeGameEffectsWithTags":{"_tags":[]},"durationType":1,"duration":"4","isPeriodic":false,"period":"1","executeOnApplication":false,"attributeModifiers":[],"stackType":1,"stackLimit":1,"stackDurationRefreshPolicy":0,"stackPeriodResetPolicy":1,"stackExpirationPolicy":0,"stackOverflowPolicy":0,"ongoingRequiredTags":{"_tags":[]},"cancelOnAbilityEnd":false,"buffId":0}</t>
+          <t>{"guid":"356907e0-1488-4128-bfcc-7ff73cfc3330","nodeType":0,"position":{"x":-902.4000244140625,"y":-1844.0},"targetType":1,"skillId":1007,"assetTags":{"_tags":[]},"cancelAbilitiesWithTags":{"_tags":[]},"blockAbilitiesWithTags":{"_tags":[]},"activationOwnedTags":{"_tags":[]},"activationRequiredTags":{"_tags":[]},"activationBlockedTags":{"_tags":[{"_name":"CD.RecBlood","_hashCode":1163914435,"_shortName":"回血","_ancestorHashCodes":[-1137859925],"_ancestorNames":["CD"]}]},"ongoingBlockedTags":{"_tags":[]},"eventOutputPorts":[]}</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>{"outputNodeGuid":"432ff1e3-b18d-476d-af80-d39ddc07402a","outputPortName":"f41c85e0-7f26-494e-9ffc-4a06c980f811","inputNodeGuid":"f73ba91e-a76b-456c-b19c-a5176809d5f5","inputPortName":"输入"}</t>
+          <t>{"outputNodeGuid":"5fb21a71-2fff-4477-b79b-4c1a8bc10f9a","outputPortName":"完成效果","inputNodeGuid":"011aad56-e96c-41eb-9d85-e793d74a40bb","inputPortName":"输入"}</t>
         </is>
       </c>
       <c r="H48"/>
@@ -1903,16 +1903,16 @@
       <c r="C49"/>
       <c r="D49"/>
       <c r="E49">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>{"guid":"e33ab94c-1496-4d6a-ba5e-1afd38bb0c30","nodeType":4,"position":{"x":-452.0,"y":-1786.4000244140625},"targetType":1,"searchShapeType":0,"searchLineType":0,"positionSource":0,"positionBindingName":"center","searchCircleRadius":2.5,"searchSectorRadius":2.0,"searchSectorAngle":180.0,"searchLineDirectionOffsetAngle":0.0,"searchLineDirectionWidth":1.0,"searchLineDirectionLength":10.0,"lineStartPositionSource":0,"lineStartBindingName":"","lineEndPositionSource":1,"lineEndBindingName":"","searchLineBetweenWidth":1.0,"searchLineAbsoluteAngle":0.0,"searchLineAbsoluteWidth":1.0,"searchLineAbsoluteLength":10.0,"maxTargets":999,"searchTargetTags":{"_tags":[{"_name":"unitType.monster","_hashCode":-2021655864,"_shortName":"monster","_ancestorHashCodes":[1600484460],"_ancestorNames":["unitType"]}]},"searchExcludeTags":{"_tags":[]}}</t>
+          <t>{"guid":"cde57fb8-b693-4da8-a4a8-fd61e56c5dcd","nodeType":12,"position":{"x":-304.0,"y":-2072.0},"targetType":1,"requiredTags":{"_tags":[]},"immunityTags":{"_tags":[]},"destroyWithNode":false,"positionSource":0,"particlePrefab":{"instanceID":45910},"particleBindingName":"down","particleOffset":{"x":0.0,"y":0.0,"z":0.0},"particleScale":{"x":1.0,"y":1.0,"z":1.0},"attachToTarget":false,"particleLoop":false}</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>{"outputNodeGuid":"432ff1e3-b18d-476d-af80-d39ddc07402a","outputPortName":"de0ba361-3aba-4ef0-bb07-9b418fcae591","inputNodeGuid":"e33ab94c-1496-4d6a-ba5e-1afd38bb0c30","inputPortName":"输入"}</t>
+          <t>{"outputNodeGuid":"5fb21a71-2fff-4477-b79b-4c1a8bc10f9a","outputPortName":"完成效果","inputNodeGuid":"becb4d53-8a9e-4dc0-95a3-618d1e79ecc7","inputPortName":"输入"}</t>
         </is>
       </c>
       <c r="H49"/>
@@ -1923,58 +1923,58 @@
       <c r="C50"/>
       <c r="D50"/>
       <c r="E50">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>{"guid":"432ff1e3-b18d-476d-af80-d39ddc07402a","nodeType":20,"position":{"x":-452.0,"y":-2375.199951171875},"targetType":1,"skeletonDataAsset":{"instanceID":45056},"animationName":"Skill_attack_1005","animationDuration":"16","isAnimationLooping":false,"timeEffects":[{"triggerTime":7,"portId":"de0ba361-3aba-4ef0-bb07-9b418fcae591"},{"triggerTime":16,"portId":"f41c85e0-7f26-494e-9ffc-4a06c980f811"}],"timeCues":[{"startTime":6,"endTime":55,"portId":"8dea1941-c520-4f9a-aee0-40932c8542ef"}]}</t>
-        </is>
-      </c>
-      <c r="G50" t="inlineStr">
-        <is>
-          <t>{"outputNodeGuid":"432ff1e3-b18d-476d-af80-d39ddc07402a","outputPortName":"8dea1941-c520-4f9a-aee0-40932c8542ef","inputNodeGuid":"cde57fb8-b693-4da8-a4a8-fd61e56c5dcd","inputPortName":"输入"}</t>
-        </is>
-      </c>
+          <t>{"guid":"becb4d53-8a9e-4dc0-95a3-618d1e79ecc7","nodeType":14,"position":{"x":-313.6000061035156,"y":-1951.199951171875},"targetType":1,"requiredTags":{"_tags":[]},"immunityTags":{"_tags":[]},"destroyWithNode":false,"positionSource":2,"positionBindingName":"head","textType":1,"fixedText":"","contextDataKey":"Heal","textColor":{"r":0.0,"g":1.0,"b":0.10971927642822266,"a":1.0},"criticalColor":{"r":1.0,"g":0.5,"b":0.0,"a":1.0},"missColor":{"r":0.5,"g":0.5,"b":0.5,"a":1.0},"fontSize":45.0,"criticalFontSize":60.0,"duration":1.5,"offset":{"x":0.0,"y":0.0},"moveDirection":{"x":0.0,"y":1.0}}</t>
+        </is>
+      </c>
+      <c r="G50"/>
       <c r="H50"/>
     </row>
     <row r="51">
       <c r="A51"/>
-      <c r="B51"/>
-      <c r="C51"/>
+      <c r="B51">
+        <v>1003</v>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>RuFood</t>
+        </is>
+      </c>
       <c r="D51"/>
       <c r="E51">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>{"guid":"356907e0-1488-4128-bfcc-7ff73cfc3330","nodeType":0,"position":{"x":-878.4000244140625,"y":-1853.5999755859375},"targetType":1,"skillId":1003,"assetTags":{"_tags":[]},"cancelAbilitiesWithTags":{"_tags":[]},"blockAbilitiesWithTags":{"_tags":[]},"activationOwnedTags":{"_tags":[{"_name":"Skill.Running","_hashCode":-51601538,"_shortName":"Running","_ancestorHashCodes":[1312877309],"_ancestorNames":["Skill"]}]},"activationRequiredTags":{"_tags":[]},"activationBlockedTags":{"_tags":[{"_name":"CD.RuFood","_hashCode":-1045902856,"_shortName":"RuFood","_ancestorHashCodes":[-1137859925],"_ancestorNames":["CD"]},{"_name":"Skill.Running","_hashCode":-51601538,"_shortName":"Running","_ancestorHashCodes":[1312877309],"_ancestorNames":["Skill"]}]},"ongoingBlockedTags":{"_tags":[]},"eventOutputPorts":[]}</t>
-        </is>
-      </c>
-      <c r="G51"/>
+          <t>{"guid":"9d6f459d-b588-4b64-843b-1b71e8f299ae","nodeType":3,"position":{"x":-1186.4000244140625,"y":-2011.199951171875},"targetType":1,"assetTags":{"_tags":[]},"grantedTags":{"_tags":[]},"applicationRequiredTags":{"_tags":[]},"applicationImmunityTags":{"_tags":[]},"removeGameEffectsWithTags":{"_tags":[]},"durationType":0,"duration":"0","isPeriodic":false,"period":"1","executeOnApplication":false,"attributeModifiers":[{"attrType":100,"operation":0,"magnitudeSourceType":0,"fixedValue":10.0,"formula":"","mmcType":0,"setByCallerKey":"","mmcCaptureAttribute":200,"mmcAttributeSource":0,"mmcCoefficient":1.0,"mmcUseSnapshot":true}],"stackType":0,"stackLimit":0,"stackDurationRefreshPolicy":0,"stackPeriodResetPolicy":0,"stackExpirationPolicy":0,"stackOverflowPolicy":0,"ongoingRequiredTags":{"_tags":[]},"cancelOnAbilityEnd":true}</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>{"outputNodeGuid":"356907e0-1488-4128-bfcc-7ff73cfc3330","outputPortName":"动画","inputNodeGuid":"432ff1e3-b18d-476d-af80-d39ddc07402a","inputPortName":"输入"}</t>
+        </is>
+      </c>
       <c r="H51"/>
     </row>
     <row r="52">
       <c r="A52"/>
-      <c r="B52">
-        <v>1009</v>
-      </c>
-      <c r="C52" t="inlineStr">
-        <is>
-          <t>SpeedUp</t>
-        </is>
-      </c>
+      <c r="B52"/>
+      <c r="C52"/>
       <c r="D52"/>
       <c r="E52">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>{"guid":"9d6f459d-b588-4b64-843b-1b71e8f299ae","nodeType":3,"position":{"x":-1186.6666259765625,"y":-2011.3333740234375},"targetType":1,"assetTags":{"_tags":[]},"grantedTags":{"_tags":[]},"applicationRequiredTags":{"_tags":[]},"applicationImmunityTags":{"_tags":[]},"removeGameEffectsWithTags":{"_tags":[]},"durationType":0,"duration":"0","isPeriodic":false,"period":"1","executeOnApplication":false,"attributeModifiers":[{"attrType":100,"operation":0,"magnitudeSourceType":0,"fixedValue":10.0,"formula":"","mmcType":0,"setByCallerKey":"","mmcCaptureAttribute":200,"mmcAttributeSource":0,"mmcCoefficient":1.0,"mmcUseSnapshot":true}],"stackType":0,"stackLimit":0,"stackDurationRefreshPolicy":0,"stackPeriodResetPolicy":0,"stackExpirationPolicy":0,"stackOverflowPolicy":0,"ongoingRequiredTags":{"_tags":[]},"cancelOnAbilityEnd":true}</t>
+          <t>{"guid":"c28fb88d-51b1-47b2-be59-859e0ac638e3","nodeType":10,"position":{"x":-1186.4000244140625,"y":-1747.199951171875},"targetType":1,"assetTags":{"_tags":[]},"grantedTags":{"_tags":[{"_name":"CD.RuFood","_hashCode":-1045902856,"_shortName":"RuFood","_ancestorHashCodes":[-1137859925],"_ancestorNames":["CD"]}]},"applicationRequiredTags":{"_tags":[]},"applicationImmunityTags":{"_tags":[]},"removeGameEffectsWithTags":{"_tags":[]},"durationType":1,"duration":"5","isPeriodic":false,"period":"1","executeOnApplication":false,"attributeModifiers":[],"stackType":0,"stackLimit":0,"stackDurationRefreshPolicy":0,"stackPeriodResetPolicy":0,"stackExpirationPolicy":0,"stackOverflowPolicy":0,"ongoingRequiredTags":{"_tags":[]},"cancelOnAbilityEnd":false,"cooldownType":0,"maxCharges":2,"chargeTime":"10"}</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>{"outputNodeGuid":"356907e0-1488-4128-bfcc-7ff73cfc3330","outputPortName":"动画","inputNodeGuid":"432ff1e3-b18d-476d-af80-d39ddc07402a","inputPortName":"输入"}</t>
+          <t>{"outputNodeGuid":"356907e0-1488-4128-bfcc-7ff73cfc3330","outputPortName":"冷却","inputNodeGuid":"c28fb88d-51b1-47b2-be59-859e0ac638e3","inputPortName":"输入"}</t>
         </is>
       </c>
       <c r="H52"/>
@@ -1985,16 +1985,16 @@
       <c r="C53"/>
       <c r="D53"/>
       <c r="E53">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>{"guid":"f73ba91e-a76b-456c-b19c-a5176809d5f5","nodeType":7,"position":{"x":700.0,"y":-1856.666748046875},"targetType":1,"endType":0}</t>
+          <t>{"guid":"cde57fb8-b693-4da8-a4a8-fd61e56c5dcd","nodeType":12,"position":{"x":677.5999755859375,"y":-1998.4000244140625},"targetType":1,"requiredTags":{"_tags":[]},"immunityTags":{"_tags":[]},"destroyWithNode":false,"positionSource":0,"particlePrefab":{"instanceID":46054},"particleBindingName":"down","particleOffset":{"x":0.0,"y":0.0,"z":0.0},"particleScale":{"x":1.0,"y":1.0,"z":1.0},"attachToTarget":false,"particleLoop":false}</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>{"outputNodeGuid":"356907e0-1488-4128-bfcc-7ff73cfc3330","outputPortName":"冷却","inputNodeGuid":"c28fb88d-51b1-47b2-be59-859e0ac638e3","inputPortName":"输入"}</t>
+          <t>{"outputNodeGuid":"356907e0-1488-4128-bfcc-7ff73cfc3330","outputPortName":"消耗","inputNodeGuid":"9d6f459d-b588-4b64-843b-1b71e8f299ae","inputPortName":"输入"}</t>
         </is>
       </c>
       <c r="H53"/>
@@ -2005,16 +2005,16 @@
       <c r="C54"/>
       <c r="D54"/>
       <c r="E54">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>{"guid":"432ff1e3-b18d-476d-af80-d39ddc07402a","nodeType":20,"position":{"x":-502.6666564941406,"y":-2384.0},"targetType":1,"skeletonDataAsset":{"instanceID":45056},"animationName":"Stand","animationDuration":"24","isAnimationLooping":false,"timeEffects":[{"triggerTime":25,"portId":"f41c85e0-7f26-494e-9ffc-4a06c980f811"}],"timeCues":[]}</t>
+          <t>{"guid":"f73ba91e-a76b-456c-b19c-a5176809d5f5","nodeType":7,"position":{"x":700.0,"y":-1856.800048828125},"targetType":1,"endType":0}</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>{"outputNodeGuid":"356907e0-1488-4128-bfcc-7ff73cfc3330","outputPortName":"消耗","inputNodeGuid":"9d6f459d-b588-4b64-843b-1b71e8f299ae","inputPortName":"输入"}</t>
+          <t>{"outputNodeGuid":"e33ab94c-1496-4d6a-ba5e-1afd38bb0c30","outputPortName":"对每个目标","inputNodeGuid":"cb1df36f-5729-423e-9d1a-287db5a433f0","inputPortName":"输入"}</t>
         </is>
       </c>
       <c r="H54"/>
@@ -2025,16 +2025,16 @@
       <c r="C55"/>
       <c r="D55"/>
       <c r="E55">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>{"guid":"c28fb88d-51b1-47b2-be59-859e0ac638e3","nodeType":10,"position":{"x":-1186.6666259765625,"y":-1747.3333740234375},"targetType":1,"assetTags":{"_tags":[]},"grantedTags":{"_tags":[{"_name":"CD.SpeedUp","_hashCode":-605747253,"_shortName":"急速","_ancestorHashCodes":[-1137859925],"_ancestorNames":["CD"]}]},"applicationRequiredTags":{"_tags":[]},"applicationImmunityTags":{"_tags":[]},"removeGameEffectsWithTags":{"_tags":[]},"durationType":1,"duration":"10","isPeriodic":false,"period":"1","executeOnApplication":false,"attributeModifiers":[],"stackType":0,"stackLimit":0,"stackDurationRefreshPolicy":0,"stackPeriodResetPolicy":0,"stackExpirationPolicy":0,"stackOverflowPolicy":0,"ongoingRequiredTags":{"_tags":[]},"cancelOnAbilityEnd":false,"cooldownType":0,"maxCharges":2,"chargeTime":"10"}</t>
+          <t>{"guid":"93ec5a43-cc34-4e4a-acb3-39da2f2c3010","nodeType":12,"position":{"x":468.79998779296877,"y":-1749.5999755859375},"targetType":1,"requiredTags":{"_tags":[]},"immunityTags":{"_tags":[]},"destroyWithNode":true,"positionSource":2,"particlePrefab":{"instanceID":46182},"particleBindingName":"head","particleOffset":{"x":0.0,"y":0.0,"z":0.0},"particleScale":{"x":1.0,"y":1.0,"z":1.0},"attachToTarget":true,"particleLoop":true}</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>{"outputNodeGuid":"432ff1e3-b18d-476d-af80-d39ddc07402a","outputPortName":"f41c85e0-7f26-494e-9ffc-4a06c980f811","inputNodeGuid":"f73ba91e-a76b-456c-b19c-a5176809d5f5","inputPortName":"输入"}</t>
+          <t>{"outputNodeGuid":"cb1df36f-5729-423e-9d1a-287db5a433f0","outputPortName":"初始效果","inputNodeGuid":"93ec5a43-cc34-4e4a-acb3-39da2f2c3010","inputPortName":"输入"}</t>
         </is>
       </c>
       <c r="H55"/>
@@ -2049,12 +2049,12 @@
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>{"guid":"632c75e2-152b-4376-8e9e-62c0e74f92d0","nodeType":11,"position":{"x":-514.6666259765625,"y":-1880.0},"targetType":1,"assetTags":{"_tags":[]},"grantedTags":{"_tags":[]},"applicationRequiredTags":{"_tags":[]},"applicationImmunityTags":{"_tags":[]},"removeGameEffectsWithTags":{"_tags":[]},"durationType":1,"duration":"7","isPeriodic":false,"period":"1","executeOnApplication":false,"attributeModifiers":[{"attrType":300,"operation":0,"magnitudeSourceType":0,"fixedValue":10.0,"formula":"","mmcType":0,"setByCallerKey":"","mmcCaptureAttribute":200,"mmcAttributeSource":0,"mmcCoefficient":1.0,"mmcUseSnapshot":true}],"stackType":2,"stackLimit":1,"stackDurationRefreshPolicy":0,"stackPeriodResetPolicy":0,"stackExpirationPolicy":0,"stackOverflowPolicy":0,"ongoingRequiredTags":{"_tags":[]},"cancelOnAbilityEnd":false,"buffId":0}</t>
+          <t>{"guid":"cb1df36f-5729-423e-9d1a-287db5a433f0","nodeType":11,"position":{"x":18.399993896484376,"y":-1786.4000244140625},"targetType":0,"assetTags":{"_tags":[{"_name":"Buff.DeBuff.Stun","_hashCode":1791562953,"_shortName":"Stun","_ancestorHashCodes":[937056111,321157895],"_ancestorNames":["Buff","Buff.DeBuff"]}]},"grantedTags":{"_tags":[{"_name":"Buff.DeBuff.Stun","_hashCode":1791562953,"_shortName":"Stun","_ancestorHashCodes":[937056111,321157895],"_ancestorNames":["Buff","Buff.DeBuff"]}]},"applicationRequiredTags":{"_tags":[]},"applicationImmunityTags":{"_tags":[]},"removeGameEffectsWithTags":{"_tags":[]},"durationType":1,"duration":"4","isPeriodic":false,"period":"1","executeOnApplication":false,"attributeModifiers":[],"stackType":1,"stackLimit":1,"stackDurationRefreshPolicy":0,"stackPeriodResetPolicy":1,"stackExpirationPolicy":0,"stackOverflowPolicy":0,"ongoingRequiredTags":{"_tags":[]},"cancelOnAbilityEnd":false,"buffId":0}</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>{"outputNodeGuid":"356907e0-1488-4128-bfcc-7ff73cfc3330","outputPortName":"激活","inputNodeGuid":"632c75e2-152b-4376-8e9e-62c0e74f92d0","inputPortName":"输入"}</t>
+          <t>{"outputNodeGuid":"432ff1e3-b18d-476d-af80-d39ddc07402a","outputPortName":"f41c85e0-7f26-494e-9ffc-4a06c980f811","inputNodeGuid":"f73ba91e-a76b-456c-b19c-a5176809d5f5","inputPortName":"输入"}</t>
         </is>
       </c>
       <c r="H56"/>
@@ -2065,33 +2065,31 @@
       <c r="C57"/>
       <c r="D57"/>
       <c r="E57">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>{"guid":"356907e0-1488-4128-bfcc-7ff73cfc3330","nodeType":0,"position":{"x":-878.6666259765625,"y":-1853.3333740234375},"targetType":1,"skillId":1009,"assetTags":{"_tags":[]},"cancelAbilitiesWithTags":{"_tags":[]},"blockAbilitiesWithTags":{"_tags":[]},"activationOwnedTags":{"_tags":[]},"activationRequiredTags":{"_tags":[]},"activationBlockedTags":{"_tags":[{"_name":"CD.SpeedUp","_hashCode":-605747253,"_shortName":"急速","_ancestorHashCodes":[-1137859925],"_ancestorNames":["CD"]}]},"ongoingBlockedTags":{"_tags":[]},"eventOutputPorts":[]}</t>
-        </is>
-      </c>
-      <c r="G57"/>
+          <t>{"guid":"e33ab94c-1496-4d6a-ba5e-1afd38bb0c30","nodeType":4,"position":{"x":-452.0,"y":-1786.4000244140625},"targetType":1,"searchShapeType":0,"searchLineType":0,"positionSource":0,"positionBindingName":"center","searchCircleRadius":2.5,"searchSectorRadius":2.0,"searchSectorAngle":180.0,"searchLineDirectionOffsetAngle":0.0,"searchLineDirectionWidth":1.0,"searchLineDirectionLength":10.0,"lineStartPositionSource":0,"lineStartBindingName":"","lineEndPositionSource":1,"lineEndBindingName":"","searchLineBetweenWidth":1.0,"searchLineAbsoluteAngle":0.0,"searchLineAbsoluteWidth":1.0,"searchLineAbsoluteLength":10.0,"maxTargets":999,"searchTargetTags":{"_tags":[{"_name":"unitType.monster","_hashCode":-2021655864,"_shortName":"monster","_ancestorHashCodes":[1600484460],"_ancestorNames":["unitType"]}]},"searchExcludeTags":{"_tags":[]}}</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>{"outputNodeGuid":"432ff1e3-b18d-476d-af80-d39ddc07402a","outputPortName":"de0ba361-3aba-4ef0-bb07-9b418fcae591","inputNodeGuid":"e33ab94c-1496-4d6a-ba5e-1afd38bb0c30","inputPortName":"输入"}</t>
+        </is>
+      </c>
       <c r="H57"/>
     </row>
     <row r="58">
       <c r="A58"/>
-      <c r="B58">
-        <v>1001</v>
-      </c>
-      <c r="C58" t="inlineStr">
-        <is>
-          <t>Sweep</t>
-        </is>
-      </c>
+      <c r="B58"/>
+      <c r="C58"/>
       <c r="D58"/>
       <c r="E58">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>{"guid":"356907e0-1488-4128-bfcc-7ff73cfc3330","nodeType":0,"position":{"x":-797.3333740234375,"y":-2479.333251953125},"targetType":1,"skillId":1001,"assetTags":{"_tags":[]},"cancelAbilitiesWithTags":{"_tags":[]},"blockAbilitiesWithTags":{"_tags":[]},"activationOwnedTags":{"_tags":[]},"activationRequiredTags":{"_tags":[]},"activationBlockedTags":{"_tags":[{"_name":"CD.Sweep","_hashCode":-303359587,"_shortName":"Sweep","_ancestorHashCodes":[-1137859925],"_ancestorNames":["CD"]}]},"ongoingBlockedTags":{"_tags":[]},"eventOutputPorts":[]}</t>
+          <t>{"guid":"432ff1e3-b18d-476d-af80-d39ddc07402a","nodeType":20,"position":{"x":-452.0,"y":-2375.199951171875},"targetType":1,"skeletonDataAsset":{"instanceID":45056},"animationName":"Skill_attack_1005","animationDuration":"16","isAnimationLooping":false,"timeEffects":[{"triggerTime":7,"portId":"de0ba361-3aba-4ef0-bb07-9b418fcae591"},{"triggerTime":16,"portId":"f41c85e0-7f26-494e-9ffc-4a06c980f811"}],"timeCues":[{"startTime":6,"endTime":55,"portId":"8dea1941-c520-4f9a-aee0-40932c8542ef"}]}</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
@@ -2107,36 +2105,38 @@
       <c r="C59"/>
       <c r="D59"/>
       <c r="E59">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>{"guid":"c28fb88d-51b1-47b2-be59-859e0ac638e3","nodeType":10,"position":{"x":-1130.6666259765625,"y":-2232.0},"targetType":1,"assetTags":{"_tags":[]},"grantedTags":{"_tags":[{"_name":"CD.Sweep","_hashCode":-303359587,"_shortName":"Sweep","_ancestorHashCodes":[-1137859925],"_ancestorNames":["CD"]}]},"applicationRequiredTags":{"_tags":[]},"applicationImmunityTags":{"_tags":[]},"removeGameEffectsWithTags":{"_tags":[]},"durationType":1,"duration":"1","isPeriodic":false,"period":"1","executeOnApplication":false,"attributeModifiers":[],"stackType":0,"stackLimit":0,"stackDurationRefreshPolicy":0,"stackPeriodResetPolicy":0,"stackExpirationPolicy":0,"stackOverflowPolicy":0,"ongoingRequiredTags":{"_tags":[]},"cancelOnAbilityEnd":false,"cooldownType":0,"maxCharges":2,"chargeTime":"10"}</t>
-        </is>
-      </c>
-      <c r="G59" t="inlineStr">
-        <is>
-          <t>{"outputNodeGuid":"356907e0-1488-4128-bfcc-7ff73cfc3330","outputPortName":"动画","inputNodeGuid":"432ff1e3-b18d-476d-af80-d39ddc07402a","inputPortName":"输入"}</t>
-        </is>
-      </c>
+          <t>{"guid":"356907e0-1488-4128-bfcc-7ff73cfc3330","nodeType":0,"position":{"x":-878.4000244140625,"y":-1853.5999755859375},"targetType":1,"skillId":1003,"assetTags":{"_tags":[]},"cancelAbilitiesWithTags":{"_tags":[]},"blockAbilitiesWithTags":{"_tags":[]},"activationOwnedTags":{"_tags":[{"_name":"Skill.Running","_hashCode":-51601538,"_shortName":"Running","_ancestorHashCodes":[1312877309],"_ancestorNames":["Skill"]}]},"activationRequiredTags":{"_tags":[]},"activationBlockedTags":{"_tags":[{"_name":"CD.RuFood","_hashCode":-1045902856,"_shortName":"RuFood","_ancestorHashCodes":[-1137859925],"_ancestorNames":["CD"]},{"_name":"Skill.Running","_hashCode":-51601538,"_shortName":"Running","_ancestorHashCodes":[1312877309],"_ancestorNames":["Skill"]}]},"ongoingBlockedTags":{"_tags":[]},"eventOutputPorts":[]}</t>
+        </is>
+      </c>
+      <c r="G59"/>
       <c r="H59"/>
     </row>
     <row r="60">
       <c r="A60"/>
-      <c r="B60"/>
-      <c r="C60"/>
+      <c r="B60">
+        <v>1009</v>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>SpeedUp</t>
+        </is>
+      </c>
       <c r="D60"/>
       <c r="E60">
         <v>3</v>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>{"guid":"9d6f459d-b588-4b64-843b-1b71e8f299ae","nodeType":3,"position":{"x":-1130.6666259765625,"y":-2479.333251953125},"targetType":1,"assetTags":{"_tags":[]},"grantedTags":{"_tags":[]},"applicationRequiredTags":{"_tags":[]},"applicationImmunityTags":{"_tags":[]},"removeGameEffectsWithTags":{"_tags":[]},"durationType":0,"duration":"0","isPeriodic":false,"period":"1","executeOnApplication":false,"attributeModifiers":[{"attrType":100,"operation":0,"magnitudeSourceType":0,"fixedValue":-10.0,"formula":"","mmcType":0,"setByCallerKey":"","mmcCaptureAttribute":200,"mmcAttributeSource":0,"mmcCoefficient":1.0,"mmcUseSnapshot":true}],"stackType":0,"stackLimit":0,"stackDurationRefreshPolicy":0,"stackPeriodResetPolicy":0,"stackExpirationPolicy":0,"stackOverflowPolicy":0,"ongoingRequiredTags":{"_tags":[]},"cancelOnAbilityEnd":true}</t>
+          <t>{"guid":"9d6f459d-b588-4b64-843b-1b71e8f299ae","nodeType":3,"position":{"x":-1186.6666259765625,"y":-2011.3333740234375},"targetType":1,"assetTags":{"_tags":[]},"grantedTags":{"_tags":[]},"applicationRequiredTags":{"_tags":[]},"applicationImmunityTags":{"_tags":[]},"removeGameEffectsWithTags":{"_tags":[]},"durationType":0,"duration":"0","isPeriodic":false,"period":"1","executeOnApplication":false,"attributeModifiers":[{"attrType":100,"operation":0,"magnitudeSourceType":0,"fixedValue":10.0,"formula":"","mmcType":0,"setByCallerKey":"","mmcCaptureAttribute":200,"mmcAttributeSource":0,"mmcCoefficient":1.0,"mmcUseSnapshot":true}],"stackType":0,"stackLimit":0,"stackDurationRefreshPolicy":0,"stackPeriodResetPolicy":0,"stackExpirationPolicy":0,"stackOverflowPolicy":0,"ongoingRequiredTags":{"_tags":[]},"cancelOnAbilityEnd":true}</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>{"outputNodeGuid":"356907e0-1488-4128-bfcc-7ff73cfc3330","outputPortName":"冷却","inputNodeGuid":"c28fb88d-51b1-47b2-be59-859e0ac638e3","inputPortName":"输入"}</t>
+          <t>{"outputNodeGuid":"356907e0-1488-4128-bfcc-7ff73cfc3330","outputPortName":"动画","inputNodeGuid":"432ff1e3-b18d-476d-af80-d39ddc07402a","inputPortName":"输入"}</t>
         </is>
       </c>
       <c r="H60"/>
@@ -2147,16 +2147,16 @@
       <c r="C61"/>
       <c r="D61"/>
       <c r="E61">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>{"guid":"90235058-7c6f-4b61-b2c4-3cee99d3a11e","nodeType":0,"position":{"x":-797.3333740234375,"y":-2221.333251953125},"targetType":1,"skillId":0,"assetTags":{"_tags":[]},"cancelAbilitiesWithTags":{"_tags":[]},"blockAbilitiesWithTags":{"_tags":[]},"activationOwnedTags":{"_tags":[]},"activationRequiredTags":{"_tags":[]},"activationBlockedTags":{"_tags":[]},"ongoingBlockedTags":{"_tags":[]},"eventOutputPorts":[]}</t>
+          <t>{"guid":"f73ba91e-a76b-456c-b19c-a5176809d5f5","nodeType":7,"position":{"x":700.0,"y":-1856.666748046875},"targetType":1,"endType":0}</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>{"outputNodeGuid":"356907e0-1488-4128-bfcc-7ff73cfc3330","outputPortName":"消耗","inputNodeGuid":"9d6f459d-b588-4b64-843b-1b71e8f299ae","inputPortName":"输入"}</t>
+          <t>{"outputNodeGuid":"356907e0-1488-4128-bfcc-7ff73cfc3330","outputPortName":"冷却","inputNodeGuid":"c28fb88d-51b1-47b2-be59-859e0ac638e3","inputPortName":"输入"}</t>
         </is>
       </c>
       <c r="H61"/>
@@ -2171,12 +2171,12 @@
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>{"guid":"432ff1e3-b18d-476d-af80-d39ddc07402a","nodeType":20,"position":{"x":-416.6666564941406,"y":-2824.66650390625},"targetType":1,"skeletonDataAsset":{"instanceID":45056},"animationName":"Skill_attack_1001","animationDuration":"18","isAnimationLooping":true,"timeEffects":[{"triggerTime":7,"portId":"de0ba361-3aba-4ef0-bb07-9b418fcae591"},{"triggerTime":18,"portId":"84e238a8-5baf-470e-829f-186695064945"}],"timeCues":[{"startTime":7,"endTime":48,"portId":"8dea1941-c520-4f9a-aee0-40932c8542ef"}]}</t>
+          <t>{"guid":"432ff1e3-b18d-476d-af80-d39ddc07402a","nodeType":20,"position":{"x":-502.6666564941406,"y":-2384.0},"targetType":1,"skeletonDataAsset":{"instanceID":45056},"animationName":"Stand","animationDuration":"24","isAnimationLooping":false,"timeEffects":[{"triggerTime":25,"portId":"f41c85e0-7f26-494e-9ffc-4a06c980f811"}],"timeCues":[]}</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>{"outputNodeGuid":"432ff1e3-b18d-476d-af80-d39ddc07402a","outputPortName":"de0ba361-3aba-4ef0-bb07-9b418fcae591","inputNodeGuid":"e33ab94c-1496-4d6a-ba5e-1afd38bb0c30","inputPortName":"输入"}</t>
+          <t>{"outputNodeGuid":"356907e0-1488-4128-bfcc-7ff73cfc3330","outputPortName":"消耗","inputNodeGuid":"9d6f459d-b588-4b64-843b-1b71e8f299ae","inputPortName":"输入"}</t>
         </is>
       </c>
       <c r="H62"/>
@@ -2187,16 +2187,16 @@
       <c r="C63"/>
       <c r="D63"/>
       <c r="E63">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>{"guid":"2cfdacd2-0186-49dd-b177-4eb8c0ad87bd","nodeType":7,"position":{"x":731.3333740234375,"y":-2080.0},"targetType":1,"endType":0}</t>
+          <t>{"guid":"c28fb88d-51b1-47b2-be59-859e0ac638e3","nodeType":10,"position":{"x":-1186.6666259765625,"y":-1747.3333740234375},"targetType":1,"assetTags":{"_tags":[]},"grantedTags":{"_tags":[{"_name":"CD.SpeedUp","_hashCode":-605747253,"_shortName":"急速","_ancestorHashCodes":[-1137859925],"_ancestorNames":["CD"]}]},"applicationRequiredTags":{"_tags":[]},"applicationImmunityTags":{"_tags":[]},"removeGameEffectsWithTags":{"_tags":[]},"durationType":1,"duration":"10","isPeriodic":false,"period":"1","executeOnApplication":false,"attributeModifiers":[],"stackType":0,"stackLimit":0,"stackDurationRefreshPolicy":0,"stackPeriodResetPolicy":0,"stackExpirationPolicy":0,"stackOverflowPolicy":0,"ongoingRequiredTags":{"_tags":[]},"cancelOnAbilityEnd":false,"cooldownType":0,"maxCharges":2,"chargeTime":"10"}</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>{"outputNodeGuid":"e33ab94c-1496-4d6a-ba5e-1afd38bb0c30","outputPortName":"对每个目标","inputNodeGuid":"f8947676-1084-4228-b991-1509cc7fe851","inputPortName":"输入"}</t>
+          <t>{"outputNodeGuid":"432ff1e3-b18d-476d-af80-d39ddc07402a","outputPortName":"f41c85e0-7f26-494e-9ffc-4a06c980f811","inputNodeGuid":"f73ba91e-a76b-456c-b19c-a5176809d5f5","inputPortName":"输入"}</t>
         </is>
       </c>
       <c r="H63"/>
@@ -2207,16 +2207,16 @@
       <c r="C64"/>
       <c r="D64"/>
       <c r="E64">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>{"guid":"e33ab94c-1496-4d6a-ba5e-1afd38bb0c30","nodeType":4,"position":{"x":731.3333740234375,"y":-2344.0},"targetType":1,"searchShapeType":1,"searchLineType":0,"positionSource":0,"positionBindingName":"center","searchCircleRadius":5.0,"searchSectorRadius":2.0,"searchSectorAngle":180.0,"searchLineDirectionOffsetAngle":0.0,"searchLineDirectionWidth":1.0,"searchLineDirectionLength":10.0,"lineStartPositionSource":0,"lineStartBindingName":"","lineEndPositionSource":1,"lineEndBindingName":"","searchLineBetweenWidth":1.0,"searchLineAbsoluteAngle":0.0,"searchLineAbsoluteWidth":1.0,"searchLineAbsoluteLength":10.0,"maxTargets":999,"searchTargetTags":{"_tags":[{"_name":"unitType.monster","_hashCode":-2021655864,"_shortName":"monster","_ancestorHashCodes":[1600484460],"_ancestorNames":["unitType"]}]},"searchExcludeTags":{"_tags":[]}}</t>
+          <t>{"guid":"632c75e2-152b-4376-8e9e-62c0e74f92d0","nodeType":11,"position":{"x":-514.6666259765625,"y":-1880.0},"targetType":1,"assetTags":{"_tags":[]},"grantedTags":{"_tags":[]},"applicationRequiredTags":{"_tags":[]},"applicationImmunityTags":{"_tags":[]},"removeGameEffectsWithTags":{"_tags":[]},"durationType":1,"duration":"7","isPeriodic":false,"period":"1","executeOnApplication":false,"attributeModifiers":[{"attrType":300,"operation":0,"magnitudeSourceType":0,"fixedValue":10.0,"formula":"","mmcType":0,"setByCallerKey":"","mmcCaptureAttribute":200,"mmcAttributeSource":0,"mmcCoefficient":1.0,"mmcUseSnapshot":true}],"stackType":2,"stackLimit":1,"stackDurationRefreshPolicy":0,"stackPeriodResetPolicy":0,"stackExpirationPolicy":0,"stackOverflowPolicy":0,"ongoingRequiredTags":{"_tags":[]},"cancelOnAbilityEnd":false,"buffId":0}</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>{"outputNodeGuid":"f8947676-1084-4228-b991-1509cc7fe851","outputPortName":"完成效果","inputNodeGuid":"c353e286-8ef0-460a-b917-887f2aeb390a","inputPortName":"输入"}</t>
+          <t>{"outputNodeGuid":"356907e0-1488-4128-bfcc-7ff73cfc3330","outputPortName":"激活","inputNodeGuid":"632c75e2-152b-4376-8e9e-62c0e74f92d0","inputPortName":"输入"}</t>
         </is>
       </c>
       <c r="H64"/>
@@ -2227,34 +2227,40 @@
       <c r="C65"/>
       <c r="D65"/>
       <c r="E65">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>{"guid":"cde57fb8-b693-4da8-a4a8-fd61e56c5dcd","nodeType":12,"position":{"x":731.3333740234375,"y":-2488.66650390625},"targetType":1,"requiredTags":{"_tags":[]},"immunityTags":{"_tags":[]},"destroyWithNode":false,"positionSource":0,"particlePrefab":{"instanceID":46090},"particleBindingName":"down","particleOffset":{"x":0.0,"y":0.0,"z":0.0},"particleScale":{"x":1.0,"y":1.0,"z":1.0},"attachToTarget":false,"particleLoop":false}</t>
-        </is>
-      </c>
-      <c r="G65" t="inlineStr">
-        <is>
-          <t>{"outputNodeGuid":"432ff1e3-b18d-476d-af80-d39ddc07402a","outputPortName":"84e238a8-5baf-470e-829f-186695064945","inputNodeGuid":"2cfdacd2-0186-49dd-b177-4eb8c0ad87bd","inputPortName":"输入"}</t>
-        </is>
-      </c>
+          <t>{"guid":"356907e0-1488-4128-bfcc-7ff73cfc3330","nodeType":0,"position":{"x":-878.6666259765625,"y":-1853.3333740234375},"targetType":1,"skillId":1009,"assetTags":{"_tags":[]},"cancelAbilitiesWithTags":{"_tags":[]},"blockAbilitiesWithTags":{"_tags":[]},"activationOwnedTags":{"_tags":[]},"activationRequiredTags":{"_tags":[]},"activationBlockedTags":{"_tags":[{"_name":"CD.SpeedUp","_hashCode":-605747253,"_shortName":"急速","_ancestorHashCodes":[-1137859925],"_ancestorNames":["CD"]}]},"ongoingBlockedTags":{"_tags":[]},"eventOutputPorts":[]}</t>
+        </is>
+      </c>
+      <c r="G65"/>
       <c r="H65"/>
     </row>
     <row r="66">
       <c r="A66"/>
-      <c r="B66"/>
-      <c r="C66"/>
+      <c r="B66">
+        <v>1001</v>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>Sweep</t>
+        </is>
+      </c>
       <c r="D66"/>
       <c r="E66">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>{"guid":"f8947676-1084-4228-b991-1509cc7fe851","nodeType":1,"position":{"x":994.666748046875,"y":-2344.0},"targetType":0,"assetTags":{"_tags":[]},"grantedTags":{"_tags":[]},"applicationRequiredTags":{"_tags":[]},"applicationImmunityTags":{"_tags":[]},"removeGameEffectsWithTags":{"_tags":[]},"durationType":0,"duration":"0","isPeriodic":false,"period":"1","executeOnApplication":false,"attributeModifiers":[],"stackType":0,"stackLimit":0,"stackDurationRefreshPolicy":0,"stackPeriodResetPolicy":0,"stackExpirationPolicy":0,"stackOverflowPolicy":0,"ongoingRequiredTags":{"_tags":[]},"cancelOnAbilityEnd":true,"damageType":0,"damageSourceType":0,"damageFixedValue":10.0,"damageFormula":"","damageMMCType":0,"damageSetByCallerKey":"","damageMMCCaptureAttribute":200,"damageMMCAttributeSource":0,"damageMMCCoefficient":1.0,"damageMMCUseSnapshot":true,"damageMultiplyByStackCount":false,"damageCalculationType":0}</t>
-        </is>
-      </c>
-      <c r="G66"/>
+          <t>{"guid":"c28fb88d-51b1-47b2-be59-859e0ac638e3","nodeType":10,"position":{"x":-1130.6666259765625,"y":-2232.0},"targetType":1,"assetTags":{"_tags":[]},"grantedTags":{"_tags":[{"_name":"CD.Sweep","_hashCode":-303359587,"_shortName":"Sweep","_ancestorHashCodes":[-1137859925],"_ancestorNames":["CD"]}]},"applicationRequiredTags":{"_tags":[]},"applicationImmunityTags":{"_tags":[]},"removeGameEffectsWithTags":{"_tags":[]},"durationType":1,"duration":"1","isPeriodic":false,"period":"1","executeOnApplication":false,"attributeModifiers":[],"stackType":0,"stackLimit":0,"stackDurationRefreshPolicy":0,"stackPeriodResetPolicy":0,"stackExpirationPolicy":0,"stackOverflowPolicy":0,"ongoingRequiredTags":{"_tags":[]},"cancelOnAbilityEnd":false,"cooldownType":0,"maxCharges":2,"chargeTime":"10"}</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>{"outputNodeGuid":"432ff1e3-b18d-476d-af80-d39ddc07402a","outputPortName":"8dea1941-c520-4f9a-aee0-40932c8542ef","inputNodeGuid":"cde57fb8-b693-4da8-a4a8-fd61e56c5dcd","inputPortName":"输入"}</t>
+        </is>
+      </c>
       <c r="H66"/>
     </row>
     <row r="67">
@@ -2263,38 +2269,36 @@
       <c r="C67"/>
       <c r="D67"/>
       <c r="E67">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>{"guid":"c353e286-8ef0-460a-b917-887f2aeb390a","nodeType":14,"position":{"x":1190.0,"y":-2344.0},"targetType":1,"requiredTags":{"_tags":[]},"immunityTags":{"_tags":[]},"destroyWithNode":false,"positionSource":2,"positionBindingName":"head","textType":0,"fixedText":"","contextDataKey":"DamageResult","textColor":{"r":1.0,"g":0.0,"b":0.0,"a":1.0},"criticalColor":{"r":1.0,"g":0.5,"b":0.0,"a":1.0},"missColor":{"r":0.5,"g":0.5,"b":0.5,"a":1.0},"fontSize":45.0,"criticalFontSize":60.0,"duration":1.5,"offset":{"x":0.0,"y":0.0},"moveDirection":{"x":0.0,"y":1.0}}</t>
-        </is>
-      </c>
-      <c r="G67"/>
+          <t>{"guid":"9d6f459d-b588-4b64-843b-1b71e8f299ae","nodeType":3,"position":{"x":-1130.6666259765625,"y":-2479.333251953125},"targetType":1,"assetTags":{"_tags":[]},"grantedTags":{"_tags":[]},"applicationRequiredTags":{"_tags":[]},"applicationImmunityTags":{"_tags":[]},"removeGameEffectsWithTags":{"_tags":[]},"durationType":0,"duration":"0","isPeriodic":false,"period":"1","executeOnApplication":false,"attributeModifiers":[{"attrType":100,"operation":0,"magnitudeSourceType":0,"fixedValue":-10.0,"formula":"","mmcType":0,"setByCallerKey":"","mmcCaptureAttribute":200,"mmcAttributeSource":0,"mmcCoefficient":1.0,"mmcUseSnapshot":true}],"stackType":0,"stackLimit":0,"stackDurationRefreshPolicy":0,"stackPeriodResetPolicy":0,"stackExpirationPolicy":0,"stackOverflowPolicy":0,"ongoingRequiredTags":{"_tags":[]},"cancelOnAbilityEnd":true}</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>{"outputNodeGuid":"356907e0-1488-4128-bfcc-7ff73cfc3330","outputPortName":"动画","inputNodeGuid":"432ff1e3-b18d-476d-af80-d39ddc07402a","inputPortName":"输入"}</t>
+        </is>
+      </c>
       <c r="H67"/>
     </row>
     <row r="68">
       <c r="A68"/>
-      <c r="B68">
-        <v>1008</v>
-      </c>
-      <c r="C68" t="inlineStr">
-        <is>
-          <t>ThreeFire</t>
-        </is>
-      </c>
+      <c r="B68"/>
+      <c r="C68"/>
       <c r="D68"/>
       <c r="E68">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>{"guid":"c353e286-8ef0-460a-b917-887f2aeb390a","nodeType":14,"position":{"x":1677.3333740234375,"y":-2239.333251953125},"targetType":1,"requiredTags":{"_tags":[]},"immunityTags":{"_tags":[]},"destroyWithNode":false,"positionSource":2,"positionBindingName":"head","textType":0,"fixedText":"","contextDataKey":"DamageResult","textColor":{"r":1.0,"g":0.0,"b":0.0,"a":1.0},"criticalColor":{"r":1.0,"g":0.5,"b":0.0,"a":1.0},"missColor":{"r":0.5,"g":0.5,"b":0.5,"a":1.0},"fontSize":45.0,"criticalFontSize":60.0,"duration":1.5,"offset":{"x":0.0,"y":0.0},"moveDirection":{"x":0.0,"y":1.0}}</t>
+          <t>{"guid":"432ff1e3-b18d-476d-af80-d39ddc07402a","nodeType":20,"position":{"x":-416.6666564941406,"y":-2824.66650390625},"targetType":1,"skeletonDataAsset":{"instanceID":45056},"animationName":"Skill_attack_1001","animationDuration":"18","isAnimationLooping":true,"timeEffects":[{"triggerTime":7,"portId":"de0ba361-3aba-4ef0-bb07-9b418fcae591"},{"triggerTime":18,"portId":"84e238a8-5baf-470e-829f-186695064945"}],"timeCues":[{"startTime":7,"endTime":48,"portId":"8dea1941-c520-4f9a-aee0-40932c8542ef"}]}</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>{"outputNodeGuid":"356907e0-1488-4128-bfcc-7ff73cfc3330","outputPortName":"动画","inputNodeGuid":"432ff1e3-b18d-476d-af80-d39ddc07402a","inputPortName":"输入"}</t>
+          <t>{"outputNodeGuid":"356907e0-1488-4128-bfcc-7ff73cfc3330","outputPortName":"冷却","inputNodeGuid":"c28fb88d-51b1-47b2-be59-859e0ac638e3","inputPortName":"输入"}</t>
         </is>
       </c>
       <c r="H68"/>
@@ -2305,16 +2309,16 @@
       <c r="C69"/>
       <c r="D69"/>
       <c r="E69">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>{"guid":"f8947676-1084-4228-b991-1509cc7fe851","nodeType":1,"position":{"x":1452.666748046875,"y":-2239.333251953125},"targetType":0,"assetTags":{"_tags":[]},"grantedTags":{"_tags":[]},"applicationRequiredTags":{"_tags":[]},"applicationImmunityTags":{"_tags":[]},"removeGameEffectsWithTags":{"_tags":[]},"durationType":0,"duration":"0","isPeriodic":false,"period":"1","executeOnApplication":false,"attributeModifiers":[],"stackType":0,"stackLimit":0,"stackDurationRefreshPolicy":0,"stackPeriodResetPolicy":0,"stackExpirationPolicy":0,"stackOverflowPolicy":0,"ongoingRequiredTags":{"_tags":[]},"cancelOnAbilityEnd":true,"damageType":0,"damageSourceType":0,"damageFixedValue":10.0,"damageFormula":"","damageMMCType":0,"damageSetByCallerKey":"","damageMMCCaptureAttribute":200,"damageMMCAttributeSource":0,"damageMMCCoefficient":1.0,"damageMMCUseSnapshot":true,"damageMultiplyByStackCount":false,"damageCalculationType":0}</t>
+          <t>{"guid":"2cfdacd2-0186-49dd-b177-4eb8c0ad87bd","nodeType":7,"position":{"x":731.3333740234375,"y":-2080.0},"targetType":1,"endType":0}</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>{"outputNodeGuid":"356907e0-1488-4128-bfcc-7ff73cfc3330","outputPortName":"冷却","inputNodeGuid":"c28fb88d-51b1-47b2-be59-859e0ac638e3","inputPortName":"输入"}</t>
+          <t>{"outputNodeGuid":"356907e0-1488-4128-bfcc-7ff73cfc3330","outputPortName":"消耗","inputNodeGuid":"9d6f459d-b588-4b64-843b-1b71e8f299ae","inputPortName":"输入"}</t>
         </is>
       </c>
       <c r="H69"/>
@@ -2325,16 +2329,16 @@
       <c r="C70"/>
       <c r="D70"/>
       <c r="E70">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>{"guid":"2cfdacd2-0186-49dd-b177-4eb8c0ad87bd","nodeType":7,"position":{"x":1052.666748046875,"y":-2551.333251953125},"targetType":1,"endType":0}</t>
+          <t>{"guid":"e33ab94c-1496-4d6a-ba5e-1afd38bb0c30","nodeType":4,"position":{"x":731.3333740234375,"y":-2344.0},"targetType":1,"searchShapeType":1,"searchLineType":0,"positionSource":0,"positionBindingName":"center","searchCircleRadius":5.0,"searchSectorRadius":2.0,"searchSectorAngle":180.0,"searchLineDirectionOffsetAngle":0.0,"searchLineDirectionWidth":1.0,"searchLineDirectionLength":10.0,"lineStartPositionSource":0,"lineStartBindingName":"","lineEndPositionSource":1,"lineEndBindingName":"","searchLineBetweenWidth":1.0,"searchLineAbsoluteAngle":0.0,"searchLineAbsoluteWidth":1.0,"searchLineAbsoluteLength":10.0,"maxTargets":999,"searchTargetTags":{"_tags":[{"_name":"unitType.monster","_hashCode":-2021655864,"_shortName":"monster","_ancestorHashCodes":[1600484460],"_ancestorNames":["unitType"]}]},"searchExcludeTags":{"_tags":[]}}</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>{"outputNodeGuid":"356907e0-1488-4128-bfcc-7ff73cfc3330","outputPortName":"消耗","inputNodeGuid":"9d6f459d-b588-4b64-843b-1b71e8f299ae","inputPortName":"输入"}</t>
+          <t>{"outputNodeGuid":"432ff1e3-b18d-476d-af80-d39ddc07402a","outputPortName":"de0ba361-3aba-4ef0-bb07-9b418fcae591","inputNodeGuid":"e33ab94c-1496-4d6a-ba5e-1afd38bb0c30","inputPortName":"输入"}</t>
         </is>
       </c>
       <c r="H70"/>
@@ -2345,16 +2349,16 @@
       <c r="C71"/>
       <c r="D71"/>
       <c r="E71">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>{"guid":"9d6f459d-b588-4b64-843b-1b71e8f299ae","nodeType":3,"position":{"x":-1144.0,"y":-2405.333251953125},"targetType":1,"assetTags":{"_tags":[]},"grantedTags":{"_tags":[]},"applicationRequiredTags":{"_tags":[]},"applicationImmunityTags":{"_tags":[]},"removeGameEffectsWithTags":{"_tags":[]},"durationType":0,"duration":"0","isPeriodic":false,"period":"1","executeOnApplication":false,"attributeModifiers":[{"attrType":100,"operation":0,"magnitudeSourceType":0,"fixedValue":10.0,"formula":"","mmcType":0,"setByCallerKey":"","mmcCaptureAttribute":200,"mmcAttributeSource":0,"mmcCoefficient":1.0,"mmcUseSnapshot":true}],"stackType":0,"stackLimit":0,"stackDurationRefreshPolicy":0,"stackPeriodResetPolicy":0,"stackExpirationPolicy":0,"stackOverflowPolicy":0,"ongoingRequiredTags":{"_tags":[]},"cancelOnAbilityEnd":true}</t>
+          <t>{"guid":"cde57fb8-b693-4da8-a4a8-fd61e56c5dcd","nodeType":12,"position":{"x":731.3333740234375,"y":-2488.66650390625},"targetType":1,"requiredTags":{"_tags":[]},"immunityTags":{"_tags":[]},"destroyWithNode":false,"positionSource":0,"particlePrefab":{"instanceID":46090},"particleBindingName":"down","particleOffset":{"x":0.0,"y":0.0,"z":0.0},"particleScale":{"x":1.0,"y":1.0,"z":1.0},"attachToTarget":false,"particleLoop":false}</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>{"outputNodeGuid":"f8947676-1084-4228-b991-1509cc7fe851","outputPortName":"完成效果","inputNodeGuid":"c353e286-8ef0-460a-b917-887f2aeb390a","inputPortName":"输入"}</t>
+          <t>{"outputNodeGuid":"e33ab94c-1496-4d6a-ba5e-1afd38bb0c30","outputPortName":"对每个目标","inputNodeGuid":"f8947676-1084-4228-b991-1509cc7fe851","inputPortName":"输入"}</t>
         </is>
       </c>
       <c r="H71"/>
@@ -2365,16 +2369,16 @@
       <c r="C72"/>
       <c r="D72"/>
       <c r="E72">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>{"guid":"c28fb88d-51b1-47b2-be59-859e0ac638e3","nodeType":10,"position":{"x":-1067.3333740234375,"y":-2188.66650390625},"targetType":1,"assetTags":{"_tags":[]},"grantedTags":{"_tags":[{"_name":"CD.ThreeFire","_hashCode":960327319,"_shortName":"ThreeFire","_ancestorHashCodes":[-1137859925],"_ancestorNames":["CD"]}]},"applicationRequiredTags":{"_tags":[]},"applicationImmunityTags":{"_tags":[]},"removeGameEffectsWithTags":{"_tags":[]},"durationType":1,"duration":"1","isPeriodic":false,"period":"1","executeOnApplication":false,"attributeModifiers":[],"stackType":0,"stackLimit":0,"stackDurationRefreshPolicy":0,"stackPeriodResetPolicy":0,"stackExpirationPolicy":0,"stackOverflowPolicy":0,"ongoingRequiredTags":{"_tags":[]},"cancelOnAbilityEnd":false,"cooldownType":0,"maxCharges":2,"chargeTime":"10"}</t>
+          <t>{"guid":"f8947676-1084-4228-b991-1509cc7fe851","nodeType":1,"position":{"x":994.666748046875,"y":-2344.0},"targetType":0,"assetTags":{"_tags":[]},"grantedTags":{"_tags":[]},"applicationRequiredTags":{"_tags":[]},"applicationImmunityTags":{"_tags":[]},"removeGameEffectsWithTags":{"_tags":[]},"durationType":0,"duration":"0","isPeriodic":false,"period":"1","executeOnApplication":false,"attributeModifiers":[],"stackType":0,"stackLimit":0,"stackDurationRefreshPolicy":0,"stackPeriodResetPolicy":0,"stackExpirationPolicy":0,"stackOverflowPolicy":0,"ongoingRequiredTags":{"_tags":[]},"cancelOnAbilityEnd":true,"damageType":0,"damageSourceType":0,"damageFixedValue":10.0,"damageFormula":"","damageMMCType":0,"damageSetByCallerKey":"","damageMMCCaptureAttribute":200,"damageMMCAttributeSource":0,"damageMMCCoefficient":1.0,"damageMMCUseSnapshot":true,"damageMultiplyByStackCount":false,"damageCalculationType":0}</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>{"outputNodeGuid":"ce857360-de7e-4457-b348-9c124ce98879","outputPortName":"碰撞时","inputNodeGuid":"f8947676-1084-4228-b991-1509cc7fe851","inputPortName":"输入"}</t>
+          <t>{"outputNodeGuid":"f8947676-1084-4228-b991-1509cc7fe851","outputPortName":"完成效果","inputNodeGuid":"c353e286-8ef0-460a-b917-887f2aeb390a","inputPortName":"输入"}</t>
         </is>
       </c>
       <c r="H72"/>
@@ -2385,16 +2389,16 @@
       <c r="C73"/>
       <c r="D73"/>
       <c r="E73">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>{"guid":"356907e0-1488-4128-bfcc-7ff73cfc3330","nodeType":0,"position":{"x":-746.6666259765625,"y":-2405.333251953125},"targetType":1,"skillId":1008,"assetTags":{"_tags":[]},"cancelAbilitiesWithTags":{"_tags":[]},"blockAbilitiesWithTags":{"_tags":[]},"activationOwnedTags":{"_tags":[]},"activationRequiredTags":{"_tags":[]},"activationBlockedTags":{"_tags":[{"_name":"CD.ThreeFire","_hashCode":960327319,"_shortName":"ThreeFire","_ancestorHashCodes":[-1137859925],"_ancestorNames":["CD"]}]},"ongoingBlockedTags":{"_tags":[]},"eventOutputPorts":[]}</t>
+          <t>{"guid":"c353e286-8ef0-460a-b917-887f2aeb390a","nodeType":14,"position":{"x":1190.0,"y":-2344.0},"targetType":1,"requiredTags":{"_tags":[]},"immunityTags":{"_tags":[]},"destroyWithNode":false,"positionSource":2,"positionBindingName":"head","textType":0,"fixedText":"","contextDataKey":"DamageResult","textColor":{"r":1.0,"g":0.0,"b":0.0,"a":1.0},"criticalColor":{"r":1.0,"g":0.5,"b":0.0,"a":1.0},"missColor":{"r":0.5,"g":0.5,"b":0.5,"a":1.0},"fontSize":45.0,"criticalFontSize":60.0,"duration":1.5,"offset":{"x":0.0,"y":0.0},"moveDirection":{"x":0.0,"y":1.0}}</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>{"outputNodeGuid":"9a695e91-e218-425e-82ed-1e157bf1b014","outputPortName":"碰撞时","inputNodeGuid":"f8947676-1084-4228-b991-1509cc7fe851","inputPortName":"输入"}</t>
+          <t>{"outputNodeGuid":"432ff1e3-b18d-476d-af80-d39ddc07402a","outputPortName":"84e238a8-5baf-470e-829f-186695064945","inputNodeGuid":"2cfdacd2-0186-49dd-b177-4eb8c0ad87bd","inputPortName":"输入"}</t>
         </is>
       </c>
       <c r="H73"/>
@@ -2405,36 +2409,38 @@
       <c r="C74"/>
       <c r="D74"/>
       <c r="E74">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>{"guid":"432ff1e3-b18d-476d-af80-d39ddc07402a","nodeType":20,"position":{"x":-238.66665649414063,"y":-2405.333251953125},"targetType":1,"skeletonDataAsset":{"instanceID":45056},"animationName":"Attack_01","animationDuration":"18","isAnimationLooping":false,"timeEffects":[{"triggerTime":7,"portId":"de0ba361-3aba-4ef0-bb07-9b418fcae591"},{"triggerTime":18,"portId":"84e238a8-5baf-470e-829f-186695064945"}],"timeCues":[]}</t>
-        </is>
-      </c>
-      <c r="G74" t="inlineStr">
-        <is>
-          <t>{"outputNodeGuid":"d897a922-5756-42cf-ac65-90a48c1e5a17","outputPortName":"碰撞时","inputNodeGuid":"f8947676-1084-4228-b991-1509cc7fe851","inputPortName":"输入"}</t>
-        </is>
-      </c>
+          <t>{"guid":"356907e0-1488-4128-bfcc-7ff73cfc3330","nodeType":0,"position":{"x":-797.3333740234375,"y":-2479.333251953125},"targetType":1,"skillId":1001,"assetTags":{"_tags":[]},"cancelAbilitiesWithTags":{"_tags":[]},"blockAbilitiesWithTags":{"_tags":[]},"activationOwnedTags":{"_tags":[]},"activationRequiredTags":{"_tags":[]},"activationBlockedTags":{"_tags":[{"_name":"CD.Sweep","_hashCode":-303359587,"_shortName":"Sweep","_ancestorHashCodes":[-1137859925],"_ancestorNames":["CD"]}]},"ongoingBlockedTags":{"_tags":[]},"eventOutputPorts":[]}</t>
+        </is>
+      </c>
+      <c r="G74"/>
       <c r="H74"/>
     </row>
     <row r="75">
       <c r="A75"/>
-      <c r="B75"/>
-      <c r="C75"/>
+      <c r="B75">
+        <v>1008</v>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>ThreeFire</t>
+        </is>
+      </c>
       <c r="D75"/>
       <c r="E75">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>{"guid":"ce857360-de7e-4457-b348-9c124ce98879","nodeType":8,"position":{"x":1040.666748046875,"y":-2305.333251953125},"targetType":2,"assetTags":{"_tags":[]},"grantedTags":{"_tags":[]},"applicationRequiredTags":{"_tags":[]},"applicationImmunityTags":{"_tags":[]},"removeGameEffectsWithTags":{"_tags":[]},"durationType":2,"duration":"0","isPeriodic":false,"period":"1","executeOnApplication":false,"attributeModifiers":[],"stackType":0,"stackLimit":0,"stackDurationRefreshPolicy":0,"stackPeriodResetPolicy":0,"stackExpirationPolicy":0,"stackOverflowPolicy":0,"ongoingRequiredTags":{"_tags":[]},"cancelOnAbilityEnd":false,"launchPositionSource":0,"launchBindingName":"center","targetPositionSource":1,"targetBindingName":"center","projectileTargetType":0,"flyOver":true,"offsetAngle":30.0,"curveHeight":0.0,"projectilePrefab":{"instanceID":45894},"speed":10.0,"maxDistance":10.0,"collisionRadius":0.5,"isPiercing":false,"maxPierceCount":1,"collisionTargetTags":{"_tags":[]},"collisionExcludeTags":{"_tags":[]}}</t>
+          <t>{"guid":"c353e286-8ef0-460a-b917-887f2aeb390a","nodeType":14,"position":{"x":1677.3333740234375,"y":-2239.333251953125},"targetType":1,"requiredTags":{"_tags":[]},"immunityTags":{"_tags":[]},"destroyWithNode":false,"positionSource":2,"positionBindingName":"head","textType":0,"fixedText":"","contextDataKey":"DamageResult","textColor":{"r":1.0,"g":0.0,"b":0.0,"a":1.0},"criticalColor":{"r":1.0,"g":0.5,"b":0.0,"a":1.0},"missColor":{"r":0.5,"g":0.5,"b":0.5,"a":1.0},"fontSize":45.0,"criticalFontSize":60.0,"duration":1.5,"offset":{"x":0.0,"y":0.0},"moveDirection":{"x":0.0,"y":1.0}}</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>{"outputNodeGuid":"432ff1e3-b18d-476d-af80-d39ddc07402a","outputPortName":"84e238a8-5baf-470e-829f-186695064945","inputNodeGuid":"2cfdacd2-0186-49dd-b177-4eb8c0ad87bd","inputPortName":"输入"}</t>
+          <t>{"outputNodeGuid":"356907e0-1488-4128-bfcc-7ff73cfc3330","outputPortName":"动画","inputNodeGuid":"432ff1e3-b18d-476d-af80-d39ddc07402a","inputPortName":"输入"}</t>
         </is>
       </c>
       <c r="H75"/>
@@ -2445,16 +2451,16 @@
       <c r="C76"/>
       <c r="D76"/>
       <c r="E76">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>{"guid":"9a695e91-e218-425e-82ed-1e157bf1b014","nodeType":8,"position":{"x":1022.666748046875,"y":-2131.333251953125},"targetType":2,"assetTags":{"_tags":[]},"grantedTags":{"_tags":[]},"applicationRequiredTags":{"_tags":[]},"applicationImmunityTags":{"_tags":[]},"removeGameEffectsWithTags":{"_tags":[]},"durationType":2,"duration":"0","isPeriodic":false,"period":"1","executeOnApplication":false,"attributeModifiers":[],"stackType":0,"stackLimit":0,"stackDurationRefreshPolicy":0,"stackPeriodResetPolicy":0,"stackExpirationPolicy":0,"stackOverflowPolicy":0,"ongoingRequiredTags":{"_tags":[]},"cancelOnAbilityEnd":false,"launchPositionSource":0,"launchBindingName":"center","targetPositionSource":1,"targetBindingName":"center","projectileTargetType":0,"flyOver":true,"offsetAngle":0.0,"curveHeight":0.0,"projectilePrefab":{"instanceID":45894},"speed":10.0,"maxDistance":10.0,"collisionRadius":0.5,"isPiercing":false,"maxPierceCount":1,"collisionTargetTags":{"_tags":[]},"collisionExcludeTags":{"_tags":[]}}</t>
+          <t>{"guid":"f8947676-1084-4228-b991-1509cc7fe851","nodeType":1,"position":{"x":1452.666748046875,"y":-2239.333251953125},"targetType":0,"assetTags":{"_tags":[]},"grantedTags":{"_tags":[]},"applicationRequiredTags":{"_tags":[]},"applicationImmunityTags":{"_tags":[]},"removeGameEffectsWithTags":{"_tags":[]},"durationType":0,"duration":"0","isPeriodic":false,"period":"1","executeOnApplication":false,"attributeModifiers":[],"stackType":0,"stackLimit":0,"stackDurationRefreshPolicy":0,"stackPeriodResetPolicy":0,"stackExpirationPolicy":0,"stackOverflowPolicy":0,"ongoingRequiredTags":{"_tags":[]},"cancelOnAbilityEnd":true,"damageType":0,"damageSourceType":0,"damageFixedValue":10.0,"damageFormula":"","damageMMCType":0,"damageSetByCallerKey":"","damageMMCCaptureAttribute":200,"damageMMCAttributeSource":0,"damageMMCCoefficient":1.0,"damageMMCUseSnapshot":true,"damageMultiplyByStackCount":false,"damageCalculationType":0}</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>{"outputNodeGuid":"432ff1e3-b18d-476d-af80-d39ddc07402a","outputPortName":"de0ba361-3aba-4ef0-bb07-9b418fcae591","inputNodeGuid":"ce857360-de7e-4457-b348-9c124ce98879","inputPortName":"输入"}</t>
+          <t>{"outputNodeGuid":"356907e0-1488-4128-bfcc-7ff73cfc3330","outputPortName":"冷却","inputNodeGuid":"c28fb88d-51b1-47b2-be59-859e0ac638e3","inputPortName":"输入"}</t>
         </is>
       </c>
       <c r="H76"/>
@@ -2465,16 +2471,16 @@
       <c r="C77"/>
       <c r="D77"/>
       <c r="E77">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>{"guid":"d897a922-5756-42cf-ac65-90a48c1e5a17","nodeType":8,"position":{"x":1022.666748046875,"y":-1978.0},"targetType":2,"assetTags":{"_tags":[]},"grantedTags":{"_tags":[]},"applicationRequiredTags":{"_tags":[]},"applicationImmunityTags":{"_tags":[]},"removeGameEffectsWithTags":{"_tags":[]},"durationType":2,"duration":"0","isPeriodic":false,"period":"1","executeOnApplication":false,"attributeModifiers":[],"stackType":0,"stackLimit":0,"stackDurationRefreshPolicy":0,"stackPeriodResetPolicy":0,"stackExpirationPolicy":0,"stackOverflowPolicy":0,"ongoingRequiredTags":{"_tags":[]},"cancelOnAbilityEnd":false,"launchPositionSource":0,"launchBindingName":"center","targetPositionSource":1,"targetBindingName":"center","projectileTargetType":0,"flyOver":true,"offsetAngle":-30.0,"curveHeight":0.0,"projectilePrefab":{"instanceID":45894},"speed":10.0,"maxDistance":10.0,"collisionRadius":0.5,"isPiercing":false,"maxPierceCount":1,"collisionTargetTags":{"_tags":[]},"collisionExcludeTags":{"_tags":[]}}</t>
+          <t>{"guid":"2cfdacd2-0186-49dd-b177-4eb8c0ad87bd","nodeType":7,"position":{"x":1052.666748046875,"y":-2551.333251953125},"targetType":1,"endType":0}</t>
         </is>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>{"outputNodeGuid":"432ff1e3-b18d-476d-af80-d39ddc07402a","outputPortName":"de0ba361-3aba-4ef0-bb07-9b418fcae591","inputNodeGuid":"9a695e91-e218-425e-82ed-1e157bf1b014","inputPortName":"输入"}</t>
+          <t>{"outputNodeGuid":"356907e0-1488-4128-bfcc-7ff73cfc3330","outputPortName":"消耗","inputNodeGuid":"9d6f459d-b588-4b64-843b-1b71e8f299ae","inputPortName":"输入"}</t>
         </is>
       </c>
       <c r="H77"/>
@@ -2484,37 +2490,37 @@
       <c r="B78"/>
       <c r="C78"/>
       <c r="D78"/>
-      <c r="E78"/>
-      <c r="F78"/>
+      <c r="E78">
+        <v>3</v>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>{"guid":"9d6f459d-b588-4b64-843b-1b71e8f299ae","nodeType":3,"position":{"x":-1144.0,"y":-2405.333251953125},"targetType":1,"assetTags":{"_tags":[]},"grantedTags":{"_tags":[]},"applicationRequiredTags":{"_tags":[]},"applicationImmunityTags":{"_tags":[]},"removeGameEffectsWithTags":{"_tags":[]},"durationType":0,"duration":"0","isPeriodic":false,"period":"1","executeOnApplication":false,"attributeModifiers":[{"attrType":100,"operation":0,"magnitudeSourceType":0,"fixedValue":10.0,"formula":"","mmcType":0,"setByCallerKey":"","mmcCaptureAttribute":200,"mmcAttributeSource":0,"mmcCoefficient":1.0,"mmcUseSnapshot":true}],"stackType":0,"stackLimit":0,"stackDurationRefreshPolicy":0,"stackPeriodResetPolicy":0,"stackExpirationPolicy":0,"stackOverflowPolicy":0,"ongoingRequiredTags":{"_tags":[]},"cancelOnAbilityEnd":true}</t>
+        </is>
+      </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>{"outputNodeGuid":"432ff1e3-b18d-476d-af80-d39ddc07402a","outputPortName":"de0ba361-3aba-4ef0-bb07-9b418fcae591","inputNodeGuid":"d897a922-5756-42cf-ac65-90a48c1e5a17","inputPortName":"输入"}</t>
+          <t>{"outputNodeGuid":"f8947676-1084-4228-b991-1509cc7fe851","outputPortName":"完成效果","inputNodeGuid":"c353e286-8ef0-460a-b917-887f2aeb390a","inputPortName":"输入"}</t>
         </is>
       </c>
       <c r="H78"/>
     </row>
     <row r="79">
       <c r="A79"/>
-      <c r="B79">
-        <v>1006</v>
-      </c>
-      <c r="C79" t="inlineStr">
-        <is>
-          <t>Wan</t>
-        </is>
-      </c>
+      <c r="B79"/>
+      <c r="C79"/>
       <c r="D79"/>
       <c r="E79">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>{"guid":"9d6f459d-b588-4b64-843b-1b71e8f299ae","nodeType":3,"position":{"x":-1186.4000244140625,"y":-2011.199951171875},"targetType":1,"assetTags":{"_tags":[]},"grantedTags":{"_tags":[]},"applicationRequiredTags":{"_tags":[]},"applicationImmunityTags":{"_tags":[]},"removeGameEffectsWithTags":{"_tags":[]},"durationType":0,"duration":"0","isPeriodic":false,"period":"1","executeOnApplication":false,"attributeModifiers":[{"attrType":100,"operation":0,"magnitudeSourceType":0,"fixedValue":10.0,"formula":"","mmcType":0,"setByCallerKey":"","mmcCaptureAttribute":200,"mmcAttributeSource":0,"mmcCoefficient":1.0,"mmcUseSnapshot":true}],"stackType":0,"stackLimit":0,"stackDurationRefreshPolicy":0,"stackPeriodResetPolicy":0,"stackExpirationPolicy":0,"stackOverflowPolicy":0,"ongoingRequiredTags":{"_tags":[]},"cancelOnAbilityEnd":true}</t>
+          <t>{"guid":"c28fb88d-51b1-47b2-be59-859e0ac638e3","nodeType":10,"position":{"x":-1067.3333740234375,"y":-2188.66650390625},"targetType":1,"assetTags":{"_tags":[]},"grantedTags":{"_tags":[{"_name":"CD.ThreeFire","_hashCode":960327319,"_shortName":"ThreeFire","_ancestorHashCodes":[-1137859925],"_ancestorNames":["CD"]}]},"applicationRequiredTags":{"_tags":[]},"applicationImmunityTags":{"_tags":[]},"removeGameEffectsWithTags":{"_tags":[]},"durationType":1,"duration":"1","isPeriodic":false,"period":"1","executeOnApplication":false,"attributeModifiers":[],"stackType":0,"stackLimit":0,"stackDurationRefreshPolicy":0,"stackPeriodResetPolicy":0,"stackExpirationPolicy":0,"stackOverflowPolicy":0,"ongoingRequiredTags":{"_tags":[]},"cancelOnAbilityEnd":false,"cooldownType":0,"maxCharges":2,"chargeTime":"10"}</t>
         </is>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>{"outputNodeGuid":"356907e0-1488-4128-bfcc-7ff73cfc3330","outputPortName":"动画","inputNodeGuid":"432ff1e3-b18d-476d-af80-d39ddc07402a","inputPortName":"输入"}</t>
+          <t>{"outputNodeGuid":"ce857360-de7e-4457-b348-9c124ce98879","outputPortName":"碰撞时","inputNodeGuid":"f8947676-1084-4228-b991-1509cc7fe851","inputPortName":"输入"}</t>
         </is>
       </c>
       <c r="H79"/>
@@ -2525,16 +2531,16 @@
       <c r="C80"/>
       <c r="D80"/>
       <c r="E80">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>{"guid":"f73ba91e-a76b-456c-b19c-a5176809d5f5","nodeType":7,"position":{"x":700.0,"y":-1856.800048828125},"targetType":1,"endType":0}</t>
+          <t>{"guid":"356907e0-1488-4128-bfcc-7ff73cfc3330","nodeType":0,"position":{"x":-746.6666259765625,"y":-2405.333251953125},"targetType":1,"skillId":1008,"assetTags":{"_tags":[]},"cancelAbilitiesWithTags":{"_tags":[]},"blockAbilitiesWithTags":{"_tags":[]},"activationOwnedTags":{"_tags":[]},"activationRequiredTags":{"_tags":[]},"activationBlockedTags":{"_tags":[{"_name":"CD.ThreeFire","_hashCode":960327319,"_shortName":"ThreeFire","_ancestorHashCodes":[-1137859925],"_ancestorNames":["CD"]}]},"ongoingBlockedTags":{"_tags":[]},"eventOutputPorts":[]}</t>
         </is>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>{"outputNodeGuid":"356907e0-1488-4128-bfcc-7ff73cfc3330","outputPortName":"冷却","inputNodeGuid":"c28fb88d-51b1-47b2-be59-859e0ac638e3","inputPortName":"输入"}</t>
+          <t>{"outputNodeGuid":"9a695e91-e218-425e-82ed-1e157bf1b014","outputPortName":"碰撞时","inputNodeGuid":"f8947676-1084-4228-b991-1509cc7fe851","inputPortName":"输入"}</t>
         </is>
       </c>
       <c r="H80"/>
@@ -2545,16 +2551,16 @@
       <c r="C81"/>
       <c r="D81"/>
       <c r="E81">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>{"guid":"091ecddb-f80b-4c00-aa06-f9bc718618d2","nodeType":22,"position":{"x":-93.60000610351563,"y":-1708.800048828125},"targetType":0,"assetTags":{"_tags":[]},"grantedTags":{"_tags":[]},"applicationRequiredTags":{"_tags":[]},"applicationImmunityTags":{"_tags":[]},"removeGameEffectsWithTags":{"_tags":[]},"durationType":1,"duration":"0.5","isPeriodic":false,"period":"1","executeOnApplication":false,"attributeModifiers":[],"stackType":0,"stackLimit":0,"stackDurationRefreshPolicy":0,"stackPeriodResetPolicy":0,"stackExpirationPolicy":0,"stackOverflowPolicy":0,"ongoingRequiredTags":{"_tags":[]},"cancelOnAbilityEnd":false,"displaceType":0,"speed":10.0,"distance":3.0,"minDistance":0.5,"pointSource":0,"pointBindingName":""}</t>
+          <t>{"guid":"432ff1e3-b18d-476d-af80-d39ddc07402a","nodeType":20,"position":{"x":-238.66665649414063,"y":-2405.333251953125},"targetType":1,"skeletonDataAsset":{"instanceID":45056},"animationName":"Attack_01","animationDuration":"18","isAnimationLooping":false,"timeEffects":[{"triggerTime":7,"portId":"de0ba361-3aba-4ef0-bb07-9b418fcae591"},{"triggerTime":18,"portId":"84e238a8-5baf-470e-829f-186695064945"}],"timeCues":[]}</t>
         </is>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>{"outputNodeGuid":"356907e0-1488-4128-bfcc-7ff73cfc3330","outputPortName":"消耗","inputNodeGuid":"9d6f459d-b588-4b64-843b-1b71e8f299ae","inputPortName":"输入"}</t>
+          <t>{"outputNodeGuid":"d897a922-5756-42cf-ac65-90a48c1e5a17","outputPortName":"碰撞时","inputNodeGuid":"f8947676-1084-4228-b991-1509cc7fe851","inputPortName":"输入"}</t>
         </is>
       </c>
       <c r="H81"/>
@@ -2565,16 +2571,16 @@
       <c r="C82"/>
       <c r="D82"/>
       <c r="E82">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>{"guid":"c28fb88d-51b1-47b2-be59-859e0ac638e3","nodeType":10,"position":{"x":-1186.4000244140625,"y":-1747.199951171875},"targetType":1,"assetTags":{"_tags":[]},"grantedTags":{"_tags":[{"_name":"CD.Wan","_hashCode":87403585,"_shortName":"Wan","_ancestorHashCodes":[-1137859925],"_ancestorNames":["CD"]}]},"applicationRequiredTags":{"_tags":[]},"applicationImmunityTags":{"_tags":[]},"removeGameEffectsWithTags":{"_tags":[]},"durationType":1,"duration":"5","isPeriodic":false,"period":"1","executeOnApplication":false,"attributeModifiers":[],"stackType":0,"stackLimit":0,"stackDurationRefreshPolicy":0,"stackPeriodResetPolicy":0,"stackExpirationPolicy":0,"stackOverflowPolicy":0,"ongoingRequiredTags":{"_tags":[]},"cancelOnAbilityEnd":false,"cooldownType":0,"maxCharges":2,"chargeTime":"10"}</t>
+          <t>{"guid":"ce857360-de7e-4457-b348-9c124ce98879","nodeType":8,"position":{"x":1040.666748046875,"y":-2305.333251953125},"targetType":2,"assetTags":{"_tags":[]},"grantedTags":{"_tags":[]},"applicationRequiredTags":{"_tags":[]},"applicationImmunityTags":{"_tags":[]},"removeGameEffectsWithTags":{"_tags":[]},"durationType":2,"duration":"0","isPeriodic":false,"period":"1","executeOnApplication":false,"attributeModifiers":[],"stackType":0,"stackLimit":0,"stackDurationRefreshPolicy":0,"stackPeriodResetPolicy":0,"stackExpirationPolicy":0,"stackOverflowPolicy":0,"ongoingRequiredTags":{"_tags":[]},"cancelOnAbilityEnd":false,"launchPositionSource":0,"launchBindingName":"center","targetPositionSource":1,"targetBindingName":"center","projectileTargetType":0,"flyOver":true,"offsetAngle":30.0,"curveHeight":0.0,"projectilePrefab":{"instanceID":45894},"speed":10.0,"maxDistance":10.0,"collisionRadius":0.5,"isPiercing":false,"maxPierceCount":1,"collisionTargetTags":{"_tags":[]},"collisionExcludeTags":{"_tags":[]},"isBouncing":false,"bounceTargetMode":0,"maxBounceCount":3,"bounceSearchRadius":10.0,"canBounceToSameTarget":false,"bounceAngleOffset":0.0}</t>
         </is>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>{"outputNodeGuid":"432ff1e3-b18d-476d-af80-d39ddc07402a","outputPortName":"f41c85e0-7f26-494e-9ffc-4a06c980f811","inputNodeGuid":"f73ba91e-a76b-456c-b19c-a5176809d5f5","inputPortName":"输入"}</t>
+          <t>{"outputNodeGuid":"432ff1e3-b18d-476d-af80-d39ddc07402a","outputPortName":"84e238a8-5baf-470e-829f-186695064945","inputNodeGuid":"2cfdacd2-0186-49dd-b177-4eb8c0ad87bd","inputPortName":"输入"}</t>
         </is>
       </c>
       <c r="H82"/>
@@ -2585,16 +2591,16 @@
       <c r="C83"/>
       <c r="D83"/>
       <c r="E83">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>{"guid":"cde57fb8-b693-4da8-a4a8-fd61e56c5dcd","nodeType":12,"position":{"x":677.5999755859375,"y":-1998.4000244140625},"targetType":1,"requiredTags":{"_tags":[]},"immunityTags":{"_tags":[]},"destroyWithNode":false,"positionSource":0,"particlePrefab":{"instanceID":45968},"particleBindingName":"down","particleOffset":{"x":0.0,"y":0.0,"z":0.0},"particleScale":{"x":1.0,"y":1.0,"z":1.0},"attachToTarget":false,"particleLoop":false}</t>
+          <t>{"guid":"9a695e91-e218-425e-82ed-1e157bf1b014","nodeType":8,"position":{"x":1022.666748046875,"y":-2131.333251953125},"targetType":2,"assetTags":{"_tags":[]},"grantedTags":{"_tags":[]},"applicationRequiredTags":{"_tags":[]},"applicationImmunityTags":{"_tags":[]},"removeGameEffectsWithTags":{"_tags":[]},"durationType":2,"duration":"0","isPeriodic":false,"period":"1","executeOnApplication":false,"attributeModifiers":[],"stackType":0,"stackLimit":0,"stackDurationRefreshPolicy":0,"stackPeriodResetPolicy":0,"stackExpirationPolicy":0,"stackOverflowPolicy":0,"ongoingRequiredTags":{"_tags":[]},"cancelOnAbilityEnd":false,"launchPositionSource":0,"launchBindingName":"center","targetPositionSource":1,"targetBindingName":"center","projectileTargetType":0,"flyOver":true,"offsetAngle":0.0,"curveHeight":0.0,"projectilePrefab":{"instanceID":45894},"speed":10.0,"maxDistance":10.0,"collisionRadius":0.5,"isPiercing":false,"maxPierceCount":1,"collisionTargetTags":{"_tags":[]},"collisionExcludeTags":{"_tags":[]},"isBouncing":false,"bounceTargetMode":0,"maxBounceCount":3,"bounceSearchRadius":10.0,"canBounceToSameTarget":false,"bounceAngleOffset":0.0}</t>
         </is>
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>{"outputNodeGuid":"432ff1e3-b18d-476d-af80-d39ddc07402a","outputPortName":"de0ba361-3aba-4ef0-bb07-9b418fcae591","inputNodeGuid":"e33ab94c-1496-4d6a-ba5e-1afd38bb0c30","inputPortName":"输入"}</t>
+          <t>{"outputNodeGuid":"432ff1e3-b18d-476d-af80-d39ddc07402a","outputPortName":"de0ba361-3aba-4ef0-bb07-9b418fcae591","inputNodeGuid":"ce857360-de7e-4457-b348-9c124ce98879","inputPortName":"输入"}</t>
         </is>
       </c>
       <c r="H83"/>
@@ -2605,16 +2611,16 @@
       <c r="C84"/>
       <c r="D84"/>
       <c r="E84">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>{"guid":"e33ab94c-1496-4d6a-ba5e-1afd38bb0c30","nodeType":4,"position":{"x":-452.0,"y":-1786.4000244140625},"targetType":1,"searchShapeType":0,"searchLineType":0,"positionSource":0,"positionBindingName":"center","searchCircleRadius":4.0,"searchSectorRadius":2.0,"searchSectorAngle":180.0,"searchLineDirectionOffsetAngle":0.0,"searchLineDirectionWidth":1.0,"searchLineDirectionLength":10.0,"lineStartPositionSource":0,"lineStartBindingName":"","lineEndPositionSource":1,"lineEndBindingName":"","searchLineBetweenWidth":1.0,"searchLineAbsoluteAngle":0.0,"searchLineAbsoluteWidth":1.0,"searchLineAbsoluteLength":10.0,"maxTargets":999,"searchTargetTags":{"_tags":[{"_name":"unitType.monster","_hashCode":-2021655864,"_shortName":"monster","_ancestorHashCodes":[1600484460],"_ancestorNames":["unitType"]}]},"searchExcludeTags":{"_tags":[]}}</t>
+          <t>{"guid":"d897a922-5756-42cf-ac65-90a48c1e5a17","nodeType":8,"position":{"x":1022.666748046875,"y":-1978.0},"targetType":2,"assetTags":{"_tags":[]},"grantedTags":{"_tags":[]},"applicationRequiredTags":{"_tags":[]},"applicationImmunityTags":{"_tags":[]},"removeGameEffectsWithTags":{"_tags":[]},"durationType":2,"duration":"0","isPeriodic":false,"period":"1","executeOnApplication":false,"attributeModifiers":[],"stackType":0,"stackLimit":0,"stackDurationRefreshPolicy":0,"stackPeriodResetPolicy":0,"stackExpirationPolicy":0,"stackOverflowPolicy":0,"ongoingRequiredTags":{"_tags":[]},"cancelOnAbilityEnd":false,"launchPositionSource":0,"launchBindingName":"center","targetPositionSource":1,"targetBindingName":"center","projectileTargetType":0,"flyOver":true,"offsetAngle":-30.0,"curveHeight":0.0,"projectilePrefab":{"instanceID":45894},"speed":10.0,"maxDistance":10.0,"collisionRadius":0.5,"isPiercing":false,"maxPierceCount":1,"collisionTargetTags":{"_tags":[]},"collisionExcludeTags":{"_tags":[]},"isBouncing":false,"bounceTargetMode":0,"maxBounceCount":3,"bounceSearchRadius":10.0,"canBounceToSameTarget":false,"bounceAngleOffset":0.0}</t>
         </is>
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>{"outputNodeGuid":"432ff1e3-b18d-476d-af80-d39ddc07402a","outputPortName":"8dea1941-c520-4f9a-aee0-40932c8542ef","inputNodeGuid":"cde57fb8-b693-4da8-a4a8-fd61e56c5dcd","inputPortName":"输入"}</t>
+          <t>{"outputNodeGuid":"432ff1e3-b18d-476d-af80-d39ddc07402a","outputPortName":"de0ba361-3aba-4ef0-bb07-9b418fcae591","inputNodeGuid":"9a695e91-e218-425e-82ed-1e157bf1b014","inputPortName":"输入"}</t>
         </is>
       </c>
       <c r="H84"/>
@@ -2624,59 +2630,57 @@
       <c r="B85"/>
       <c r="C85"/>
       <c r="D85"/>
-      <c r="E85">
-        <v>20</v>
-      </c>
-      <c r="F85" t="inlineStr">
-        <is>
-          <t>{"guid":"432ff1e3-b18d-476d-af80-d39ddc07402a","nodeType":20,"position":{"x":-502.3999938964844,"y":-2384.0},"targetType":1,"skeletonDataAsset":{"instanceID":45056},"animationName":"Skill_attack_1009","animationDuration":"25","isAnimationLooping":false,"timeEffects":[{"triggerTime":4,"portId":"de0ba361-3aba-4ef0-bb07-9b418fcae591"},{"triggerTime":25,"portId":"f41c85e0-7f26-494e-9ffc-4a06c980f811"}],"timeCues":[{"startTime":0,"endTime":75,"portId":"8dea1941-c520-4f9a-aee0-40932c8542ef"}]}</t>
-        </is>
-      </c>
+      <c r="E85"/>
+      <c r="F85"/>
       <c r="G85" t="inlineStr">
         <is>
-          <t>{"outputNodeGuid":"e33ab94c-1496-4d6a-ba5e-1afd38bb0c30","outputPortName":"对每个目标","inputNodeGuid":"091ecddb-f80b-4c00-aa06-f9bc718618d2","inputPortName":"输入"}</t>
+          <t>{"outputNodeGuid":"432ff1e3-b18d-476d-af80-d39ddc07402a","outputPortName":"de0ba361-3aba-4ef0-bb07-9b418fcae591","inputNodeGuid":"d897a922-5756-42cf-ac65-90a48c1e5a17","inputPortName":"输入"}</t>
         </is>
       </c>
       <c r="H85"/>
     </row>
     <row r="86">
       <c r="A86"/>
-      <c r="B86"/>
-      <c r="C86"/>
+      <c r="B86">
+        <v>1006</v>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>Wan</t>
+        </is>
+      </c>
       <c r="D86"/>
       <c r="E86">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>{"guid":"356907e0-1488-4128-bfcc-7ff73cfc3330","nodeType":0,"position":{"x":-878.4000244140625,"y":-1853.5999755859375},"targetType":1,"skillId":1006,"assetTags":{"_tags":[]},"cancelAbilitiesWithTags":{"_tags":[]},"blockAbilitiesWithTags":{"_tags":[]},"activationOwnedTags":{"_tags":[{"_name":"Skill.Running","_hashCode":-51601538,"_shortName":"Running","_ancestorHashCodes":[1312877309],"_ancestorNames":["Skill"]}]},"activationRequiredTags":{"_tags":[]},"activationBlockedTags":{"_tags":[{"_name":"CD.Wan","_hashCode":87403585,"_shortName":"Wan","_ancestorHashCodes":[-1137859925],"_ancestorNames":["CD"]},{"_name":"Skill.Running","_hashCode":-51601538,"_shortName":"Running","_ancestorHashCodes":[1312877309],"_ancestorNames":["Skill"]}]},"ongoingBlockedTags":{"_tags":[]},"eventOutputPorts":[]}</t>
-        </is>
-      </c>
-      <c r="G86"/>
+          <t>{"guid":"9d6f459d-b588-4b64-843b-1b71e8f299ae","nodeType":3,"position":{"x":-1186.4000244140625,"y":-2011.199951171875},"targetType":1,"assetTags":{"_tags":[]},"grantedTags":{"_tags":[]},"applicationRequiredTags":{"_tags":[]},"applicationImmunityTags":{"_tags":[]},"removeGameEffectsWithTags":{"_tags":[]},"durationType":0,"duration":"0","isPeriodic":false,"period":"1","executeOnApplication":false,"attributeModifiers":[{"attrType":100,"operation":0,"magnitudeSourceType":0,"fixedValue":10.0,"formula":"","mmcType":0,"setByCallerKey":"","mmcCaptureAttribute":200,"mmcAttributeSource":0,"mmcCoefficient":1.0,"mmcUseSnapshot":true}],"stackType":0,"stackLimit":0,"stackDurationRefreshPolicy":0,"stackPeriodResetPolicy":0,"stackExpirationPolicy":0,"stackOverflowPolicy":0,"ongoingRequiredTags":{"_tags":[]},"cancelOnAbilityEnd":true}</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>{"outputNodeGuid":"356907e0-1488-4128-bfcc-7ff73cfc3330","outputPortName":"动画","inputNodeGuid":"432ff1e3-b18d-476d-af80-d39ddc07402a","inputPortName":"输入"}</t>
+        </is>
+      </c>
       <c r="H86"/>
     </row>
     <row r="87">
       <c r="A87"/>
-      <c r="B87">
-        <v>1004</v>
-      </c>
-      <c r="C87" t="inlineStr">
-        <is>
-          <t>Wind</t>
-        </is>
-      </c>
+      <c r="B87"/>
+      <c r="C87"/>
       <c r="D87"/>
       <c r="E87">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>{"guid":"9d6f459d-b588-4b64-843b-1b71e8f299ae","nodeType":3,"position":{"x":-1186.4000244140625,"y":-2011.199951171875},"targetType":1,"assetTags":{"_tags":[]},"grantedTags":{"_tags":[]},"applicationRequiredTags":{"_tags":[]},"applicationImmunityTags":{"_tags":[]},"removeGameEffectsWithTags":{"_tags":[]},"durationType":0,"duration":"0","isPeriodic":false,"period":"1","executeOnApplication":false,"attributeModifiers":[{"attrType":100,"operation":0,"magnitudeSourceType":0,"fixedValue":10.0,"formula":"","mmcType":0,"setByCallerKey":"","mmcCaptureAttribute":200,"mmcAttributeSource":0,"mmcCoefficient":1.0,"mmcUseSnapshot":true}],"stackType":0,"stackLimit":0,"stackDurationRefreshPolicy":0,"stackPeriodResetPolicy":0,"stackExpirationPolicy":0,"stackOverflowPolicy":0,"ongoingRequiredTags":{"_tags":[]},"cancelOnAbilityEnd":true}</t>
+          <t>{"guid":"f73ba91e-a76b-456c-b19c-a5176809d5f5","nodeType":7,"position":{"x":700.0,"y":-1856.800048828125},"targetType":1,"endType":0}</t>
         </is>
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>{"outputNodeGuid":"356907e0-1488-4128-bfcc-7ff73cfc3330","outputPortName":"动画","inputNodeGuid":"432ff1e3-b18d-476d-af80-d39ddc07402a","inputPortName":"输入"}</t>
+          <t>{"outputNodeGuid":"356907e0-1488-4128-bfcc-7ff73cfc3330","outputPortName":"冷却","inputNodeGuid":"c28fb88d-51b1-47b2-be59-859e0ac638e3","inputPortName":"输入"}</t>
         </is>
       </c>
       <c r="H87"/>
@@ -2687,16 +2691,16 @@
       <c r="C88"/>
       <c r="D88"/>
       <c r="E88">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>{"guid":"764289ea-065e-4f48-afc0-0f6963d18d57","nodeType":14,"position":{"x":492.0,"y":-1539.199951171875},"targetType":1,"requiredTags":{"_tags":[]},"immunityTags":{"_tags":[]},"destroyWithNode":false,"positionSource":2,"positionBindingName":"head","textType":0,"fixedText":"","contextDataKey":"DamageResult","textColor":{"r":1.0,"g":0.0,"b":0.0,"a":1.0},"criticalColor":{"r":1.0,"g":0.5,"b":0.0,"a":1.0},"missColor":{"r":0.5,"g":0.5,"b":0.5,"a":1.0},"fontSize":45.0,"criticalFontSize":60.0,"duration":1.5,"offset":{"x":0.0,"y":0.0},"moveDirection":{"x":0.0,"y":1.0}}</t>
+          <t>{"guid":"091ecddb-f80b-4c00-aa06-f9bc718618d2","nodeType":22,"position":{"x":-93.60000610351563,"y":-1708.800048828125},"targetType":0,"assetTags":{"_tags":[]},"grantedTags":{"_tags":[]},"applicationRequiredTags":{"_tags":[]},"applicationImmunityTags":{"_tags":[]},"removeGameEffectsWithTags":{"_tags":[]},"durationType":1,"duration":"0.5","isPeriodic":false,"period":"1","executeOnApplication":false,"attributeModifiers":[],"stackType":0,"stackLimit":0,"stackDurationRefreshPolicy":0,"stackPeriodResetPolicy":0,"stackExpirationPolicy":0,"stackOverflowPolicy":0,"ongoingRequiredTags":{"_tags":[]},"cancelOnAbilityEnd":false,"displaceType":0,"speed":10.0,"distance":3.0,"minDistance":0.5,"pointSource":0,"pointBindingName":""}</t>
         </is>
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>{"outputNodeGuid":"356907e0-1488-4128-bfcc-7ff73cfc3330","outputPortName":"冷却","inputNodeGuid":"c28fb88d-51b1-47b2-be59-859e0ac638e3","inputPortName":"输入"}</t>
+          <t>{"outputNodeGuid":"356907e0-1488-4128-bfcc-7ff73cfc3330","outputPortName":"消耗","inputNodeGuid":"9d6f459d-b588-4b64-843b-1b71e8f299ae","inputPortName":"输入"}</t>
         </is>
       </c>
       <c r="H88"/>
@@ -2707,16 +2711,16 @@
       <c r="C89"/>
       <c r="D89"/>
       <c r="E89">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>{"guid":"a32d1135-94db-4f81-95ba-9d5f105ef8d0","nodeType":1,"position":{"x":308.79998779296877,"y":-1720.0},"targetType":0,"assetTags":{"_tags":[]},"grantedTags":{"_tags":[]},"applicationRequiredTags":{"_tags":[]},"applicationImmunityTags":{"_tags":[]},"removeGameEffectsWithTags":{"_tags":[]},"durationType":0,"duration":"0","isPeriodic":false,"period":"1","executeOnApplication":false,"attributeModifiers":[],"stackType":0,"stackLimit":0,"stackDurationRefreshPolicy":0,"stackPeriodResetPolicy":0,"stackExpirationPolicy":0,"stackOverflowPolicy":0,"ongoingRequiredTags":{"_tags":[]},"cancelOnAbilityEnd":true,"damageType":0,"damageSourceType":0,"damageFixedValue":1.0,"damageFormula":"","damageMMCType":0,"damageSetByCallerKey":"","damageMMCCaptureAttribute":200,"damageMMCAttributeSource":0,"damageMMCCoefficient":1.0,"damageMMCUseSnapshot":true,"damageMultiplyByStackCount":false,"damageCalculationType":0}</t>
+          <t>{"guid":"c28fb88d-51b1-47b2-be59-859e0ac638e3","nodeType":10,"position":{"x":-1186.4000244140625,"y":-1747.199951171875},"targetType":1,"assetTags":{"_tags":[]},"grantedTags":{"_tags":[{"_name":"CD.Wan","_hashCode":87403585,"_shortName":"Wan","_ancestorHashCodes":[-1137859925],"_ancestorNames":["CD"]}]},"applicationRequiredTags":{"_tags":[]},"applicationImmunityTags":{"_tags":[]},"removeGameEffectsWithTags":{"_tags":[]},"durationType":1,"duration":"5","isPeriodic":false,"period":"1","executeOnApplication":false,"attributeModifiers":[],"stackType":0,"stackLimit":0,"stackDurationRefreshPolicy":0,"stackPeriodResetPolicy":0,"stackExpirationPolicy":0,"stackOverflowPolicy":0,"ongoingRequiredTags":{"_tags":[]},"cancelOnAbilityEnd":false,"cooldownType":0,"maxCharges":2,"chargeTime":"10"}</t>
         </is>
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>{"outputNodeGuid":"356907e0-1488-4128-bfcc-7ff73cfc3330","outputPortName":"消耗","inputNodeGuid":"9d6f459d-b588-4b64-843b-1b71e8f299ae","inputPortName":"输入"}</t>
+          <t>{"outputNodeGuid":"432ff1e3-b18d-476d-af80-d39ddc07402a","outputPortName":"f41c85e0-7f26-494e-9ffc-4a06c980f811","inputNodeGuid":"f73ba91e-a76b-456c-b19c-a5176809d5f5","inputPortName":"输入"}</t>
         </is>
       </c>
       <c r="H89"/>
@@ -2731,12 +2735,12 @@
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>{"guid":"cde57fb8-b693-4da8-a4a8-fd61e56c5dcd","nodeType":12,"position":{"x":677.5999755859375,"y":-1998.4000244140625},"targetType":1,"requiredTags":{"_tags":[]},"immunityTags":{"_tags":[]},"destroyWithNode":true,"positionSource":0,"particlePrefab":{"instanceID":46262},"particleBindingName":"down","particleOffset":{"x":0.0,"y":0.0,"z":0.0},"particleScale":{"x":1.0,"y":1.0,"z":1.0},"attachToTarget":true,"particleLoop":true}</t>
+          <t>{"guid":"cde57fb8-b693-4da8-a4a8-fd61e56c5dcd","nodeType":12,"position":{"x":677.5999755859375,"y":-1998.4000244140625},"targetType":1,"requiredTags":{"_tags":[]},"immunityTags":{"_tags":[]},"destroyWithNode":false,"positionSource":0,"particlePrefab":{"instanceID":45968},"particleBindingName":"down","particleOffset":{"x":0.0,"y":0.0,"z":0.0},"particleScale":{"x":1.0,"y":1.0,"z":1.0},"attachToTarget":false,"particleLoop":false}</t>
         </is>
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>{"outputNodeGuid":"356907e0-1488-4128-bfcc-7ff73cfc3330","outputPortName":"激活","inputNodeGuid":"d8847c3e-459e-4589-a96b-37ebb5ec458b","inputPortName":"输入"}</t>
+          <t>{"outputNodeGuid":"432ff1e3-b18d-476d-af80-d39ddc07402a","outputPortName":"de0ba361-3aba-4ef0-bb07-9b418fcae591","inputNodeGuid":"e33ab94c-1496-4d6a-ba5e-1afd38bb0c30","inputPortName":"输入"}</t>
         </is>
       </c>
       <c r="H90"/>
@@ -2747,16 +2751,16 @@
       <c r="C91"/>
       <c r="D91"/>
       <c r="E91">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>{"guid":"c28fb88d-51b1-47b2-be59-859e0ac638e3","nodeType":10,"position":{"x":-1186.4000244140625,"y":-1747.199951171875},"targetType":1,"assetTags":{"_tags":[]},"grantedTags":{"_tags":[{"_name":"CD.Wind","_hashCode":1982736573,"_shortName":"Wind","_ancestorHashCodes":[-1137859925],"_ancestorNames":["CD"]}]},"applicationRequiredTags":{"_tags":[]},"applicationImmunityTags":{"_tags":[]},"removeGameEffectsWithTags":{"_tags":[]},"durationType":1,"duration":"15","isPeriodic":false,"period":"1","executeOnApplication":false,"attributeModifiers":[],"stackType":0,"stackLimit":0,"stackDurationRefreshPolicy":0,"stackPeriodResetPolicy":0,"stackExpirationPolicy":0,"stackOverflowPolicy":0,"ongoingRequiredTags":{"_tags":[]},"cancelOnAbilityEnd":false,"cooldownType":0,"maxCharges":2,"chargeTime":"10"}</t>
+          <t>{"guid":"e33ab94c-1496-4d6a-ba5e-1afd38bb0c30","nodeType":4,"position":{"x":-452.0,"y":-1786.4000244140625},"targetType":1,"searchShapeType":0,"searchLineType":0,"positionSource":0,"positionBindingName":"center","searchCircleRadius":4.0,"searchSectorRadius":2.0,"searchSectorAngle":180.0,"searchLineDirectionOffsetAngle":0.0,"searchLineDirectionWidth":1.0,"searchLineDirectionLength":10.0,"lineStartPositionSource":0,"lineStartBindingName":"","lineEndPositionSource":1,"lineEndBindingName":"","searchLineBetweenWidth":1.0,"searchLineAbsoluteAngle":0.0,"searchLineAbsoluteWidth":1.0,"searchLineAbsoluteLength":10.0,"maxTargets":999,"searchTargetTags":{"_tags":[{"_name":"unitType.monster","_hashCode":-2021655864,"_shortName":"monster","_ancestorHashCodes":[1600484460],"_ancestorNames":["unitType"]}]},"searchExcludeTags":{"_tags":[]}}</t>
         </is>
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>{"outputNodeGuid":"d8847c3e-459e-4589-a96b-37ebb5ec458b","outputPortName":"每周期执行","inputNodeGuid":"e33ab94c-1496-4d6a-ba5e-1afd38bb0c30","inputPortName":"输入"}</t>
+          <t>{"outputNodeGuid":"432ff1e3-b18d-476d-af80-d39ddc07402a","outputPortName":"8dea1941-c520-4f9a-aee0-40932c8542ef","inputNodeGuid":"cde57fb8-b693-4da8-a4a8-fd61e56c5dcd","inputPortName":"输入"}</t>
         </is>
       </c>
       <c r="H91"/>
@@ -2767,16 +2771,16 @@
       <c r="C92"/>
       <c r="D92"/>
       <c r="E92">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>{"guid":"f73ba91e-a76b-456c-b19c-a5176809d5f5","nodeType":7,"position":{"x":700.0,"y":-1856.800048828125},"targetType":1,"endType":0}</t>
+          <t>{"guid":"432ff1e3-b18d-476d-af80-d39ddc07402a","nodeType":20,"position":{"x":-502.3999938964844,"y":-2384.0},"targetType":1,"skeletonDataAsset":{"instanceID":45056},"animationName":"Skill_attack_1009","animationDuration":"25","isAnimationLooping":false,"timeEffects":[{"triggerTime":4,"portId":"de0ba361-3aba-4ef0-bb07-9b418fcae591"},{"triggerTime":25,"portId":"f41c85e0-7f26-494e-9ffc-4a06c980f811"}],"timeCues":[{"startTime":0,"endTime":75,"portId":"8dea1941-c520-4f9a-aee0-40932c8542ef"}]}</t>
         </is>
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>{"outputNodeGuid":"e33ab94c-1496-4d6a-ba5e-1afd38bb0c30","outputPortName":"对每个目标","inputNodeGuid":"a32d1135-94db-4f81-95ba-9d5f105ef8d0","inputPortName":"输入"}</t>
+          <t>{"outputNodeGuid":"e33ab94c-1496-4d6a-ba5e-1afd38bb0c30","outputPortName":"对每个目标","inputNodeGuid":"091ecddb-f80b-4c00-aa06-f9bc718618d2","inputPortName":"输入"}</t>
         </is>
       </c>
       <c r="H92"/>
@@ -2787,36 +2791,38 @@
       <c r="C93"/>
       <c r="D93"/>
       <c r="E93">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>{"guid":"d8847c3e-459e-4589-a96b-37ebb5ec458b","nodeType":21,"position":{"x":-308.79998779296877,"y":-1769.5999755859375},"targetType":1,"assetTags":{"_tags":[]},"grantedTags":{"_tags":[]},"applicationRequiredTags":{"_tags":[]},"applicationImmunityTags":{"_tags":[]},"removeGameEffectsWithTags":{"_tags":[]},"durationType":2,"duration":"0","isPeriodic":true,"period":"0.3","executeOnApplication":false,"attributeModifiers":[],"stackType":0,"stackLimit":0,"stackDurationRefreshPolicy":0,"stackPeriodResetPolicy":0,"stackExpirationPolicy":0,"stackOverflowPolicy":0,"ongoingRequiredTags":{"_tags":[]},"cancelOnAbilityEnd":true}</t>
-        </is>
-      </c>
-      <c r="G93" t="inlineStr">
-        <is>
-          <t>{"outputNodeGuid":"a32d1135-94db-4f81-95ba-9d5f105ef8d0","outputPortName":"完成效果","inputNodeGuid":"764289ea-065e-4f48-afc0-0f6963d18d57","inputPortName":"输入"}</t>
-        </is>
-      </c>
+          <t>{"guid":"356907e0-1488-4128-bfcc-7ff73cfc3330","nodeType":0,"position":{"x":-878.4000244140625,"y":-1853.5999755859375},"targetType":1,"skillId":1006,"assetTags":{"_tags":[]},"cancelAbilitiesWithTags":{"_tags":[]},"blockAbilitiesWithTags":{"_tags":[]},"activationOwnedTags":{"_tags":[{"_name":"Skill.Running","_hashCode":-51601538,"_shortName":"Running","_ancestorHashCodes":[1312877309],"_ancestorNames":["Skill"]}]},"activationRequiredTags":{"_tags":[]},"activationBlockedTags":{"_tags":[{"_name":"CD.Wan","_hashCode":87403585,"_shortName":"Wan","_ancestorHashCodes":[-1137859925],"_ancestorNames":["CD"]},{"_name":"Skill.Running","_hashCode":-51601538,"_shortName":"Running","_ancestorHashCodes":[1312877309],"_ancestorNames":["Skill"]}]},"ongoingBlockedTags":{"_tags":[]},"eventOutputPorts":[]}</t>
+        </is>
+      </c>
+      <c r="G93"/>
       <c r="H93"/>
     </row>
     <row r="94">
       <c r="A94"/>
-      <c r="B94"/>
-      <c r="C94"/>
+      <c r="B94">
+        <v>1004</v>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>Wind</t>
+        </is>
+      </c>
       <c r="D94"/>
       <c r="E94">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>{"guid":"e33ab94c-1496-4d6a-ba5e-1afd38bb0c30","nodeType":4,"position":{"x":27.20001220703125,"y":-1769.5999755859375},"targetType":1,"searchShapeType":0,"searchLineType":0,"positionSource":0,"positionBindingName":"center","searchCircleRadius":2.5,"searchSectorRadius":2.0,"searchSectorAngle":180.0,"searchLineDirectionOffsetAngle":0.0,"searchLineDirectionWidth":1.0,"searchLineDirectionLength":10.0,"lineStartPositionSource":0,"lineStartBindingName":"","lineEndPositionSource":1,"lineEndBindingName":"","searchLineBetweenWidth":1.0,"searchLineAbsoluteAngle":0.0,"searchLineAbsoluteWidth":1.0,"searchLineAbsoluteLength":10.0,"maxTargets":999,"searchTargetTags":{"_tags":[{"_name":"unitType.monster","_hashCode":-2021655864,"_shortName":"monster","_ancestorHashCodes":[1600484460],"_ancestorNames":["unitType"]}]},"searchExcludeTags":{"_tags":[]}}</t>
+          <t>{"guid":"9d6f459d-b588-4b64-843b-1b71e8f299ae","nodeType":3,"position":{"x":-1186.4000244140625,"y":-2011.199951171875},"targetType":1,"assetTags":{"_tags":[]},"grantedTags":{"_tags":[]},"applicationRequiredTags":{"_tags":[]},"applicationImmunityTags":{"_tags":[]},"removeGameEffectsWithTags":{"_tags":[]},"durationType":0,"duration":"0","isPeriodic":false,"period":"1","executeOnApplication":false,"attributeModifiers":[{"attrType":100,"operation":0,"magnitudeSourceType":0,"fixedValue":10.0,"formula":"","mmcType":0,"setByCallerKey":"","mmcCaptureAttribute":200,"mmcAttributeSource":0,"mmcCoefficient":1.0,"mmcUseSnapshot":true}],"stackType":0,"stackLimit":0,"stackDurationRefreshPolicy":0,"stackPeriodResetPolicy":0,"stackExpirationPolicy":0,"stackOverflowPolicy":0,"ongoingRequiredTags":{"_tags":[]},"cancelOnAbilityEnd":true}</t>
         </is>
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>{"outputNodeGuid":"432ff1e3-b18d-476d-af80-d39ddc07402a","outputPortName":"8dea1941-c520-4f9a-aee0-40932c8542ef","inputNodeGuid":"cde57fb8-b693-4da8-a4a8-fd61e56c5dcd","inputPortName":"输入"}</t>
+          <t>{"outputNodeGuid":"356907e0-1488-4128-bfcc-7ff73cfc3330","outputPortName":"动画","inputNodeGuid":"432ff1e3-b18d-476d-af80-d39ddc07402a","inputPortName":"输入"}</t>
         </is>
       </c>
       <c r="H94"/>
@@ -2827,16 +2833,16 @@
       <c r="C95"/>
       <c r="D95"/>
       <c r="E95">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>{"guid":"432ff1e3-b18d-476d-af80-d39ddc07402a","nodeType":20,"position":{"x":-452.0,"y":-2375.199951171875},"targetType":1,"skeletonDataAsset":{"instanceID":45056},"animationName":"Skill_attack_1011","animationDuration":"12","isAnimationLooping":true,"timeEffects":[{"triggerTime":250,"portId":"f41c85e0-7f26-494e-9ffc-4a06c980f811"}],"timeCues":[{"startTime":0,"endTime":255,"portId":"8dea1941-c520-4f9a-aee0-40932c8542ef"}]}</t>
+          <t>{"guid":"764289ea-065e-4f48-afc0-0f6963d18d57","nodeType":14,"position":{"x":492.0,"y":-1539.199951171875},"targetType":1,"requiredTags":{"_tags":[]},"immunityTags":{"_tags":[]},"destroyWithNode":false,"positionSource":2,"positionBindingName":"head","textType":0,"fixedText":"","contextDataKey":"DamageResult","textColor":{"r":1.0,"g":0.0,"b":0.0,"a":1.0},"criticalColor":{"r":1.0,"g":0.5,"b":0.0,"a":1.0},"missColor":{"r":0.5,"g":0.5,"b":0.5,"a":1.0},"fontSize":45.0,"criticalFontSize":60.0,"duration":1.5,"offset":{"x":0.0,"y":0.0},"moveDirection":{"x":0.0,"y":1.0}}</t>
         </is>
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>{"outputNodeGuid":"432ff1e3-b18d-476d-af80-d39ddc07402a","outputPortName":"f41c85e0-7f26-494e-9ffc-4a06c980f811","inputNodeGuid":"f73ba91e-a76b-456c-b19c-a5176809d5f5","inputPortName":"输入"}</t>
+          <t>{"outputNodeGuid":"356907e0-1488-4128-bfcc-7ff73cfc3330","outputPortName":"冷却","inputNodeGuid":"c28fb88d-51b1-47b2-be59-859e0ac638e3","inputPortName":"输入"}</t>
         </is>
       </c>
       <c r="H95"/>
@@ -2847,15 +2853,155 @@
       <c r="C96"/>
       <c r="D96"/>
       <c r="E96">
+        <v>1</v>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>{"guid":"a32d1135-94db-4f81-95ba-9d5f105ef8d0","nodeType":1,"position":{"x":308.79998779296877,"y":-1720.0},"targetType":0,"assetTags":{"_tags":[]},"grantedTags":{"_tags":[]},"applicationRequiredTags":{"_tags":[]},"applicationImmunityTags":{"_tags":[]},"removeGameEffectsWithTags":{"_tags":[]},"durationType":0,"duration":"0","isPeriodic":false,"period":"1","executeOnApplication":false,"attributeModifiers":[],"stackType":0,"stackLimit":0,"stackDurationRefreshPolicy":0,"stackPeriodResetPolicy":0,"stackExpirationPolicy":0,"stackOverflowPolicy":0,"ongoingRequiredTags":{"_tags":[]},"cancelOnAbilityEnd":true,"damageType":0,"damageSourceType":0,"damageFixedValue":1.0,"damageFormula":"","damageMMCType":0,"damageSetByCallerKey":"","damageMMCCaptureAttribute":200,"damageMMCAttributeSource":0,"damageMMCCoefficient":1.0,"damageMMCUseSnapshot":true,"damageMultiplyByStackCount":false,"damageCalculationType":0}</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>{"outputNodeGuid":"356907e0-1488-4128-bfcc-7ff73cfc3330","outputPortName":"消耗","inputNodeGuid":"9d6f459d-b588-4b64-843b-1b71e8f299ae","inputPortName":"输入"}</t>
+        </is>
+      </c>
+      <c r="H96"/>
+    </row>
+    <row r="97">
+      <c r="A97"/>
+      <c r="B97"/>
+      <c r="C97"/>
+      <c r="D97"/>
+      <c r="E97">
+        <v>12</v>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>{"guid":"cde57fb8-b693-4da8-a4a8-fd61e56c5dcd","nodeType":12,"position":{"x":677.5999755859375,"y":-1998.4000244140625},"targetType":1,"requiredTags":{"_tags":[]},"immunityTags":{"_tags":[]},"destroyWithNode":true,"positionSource":0,"particlePrefab":{"instanceID":46262},"particleBindingName":"down","particleOffset":{"x":0.0,"y":0.0,"z":0.0},"particleScale":{"x":1.0,"y":1.0,"z":1.0},"attachToTarget":true,"particleLoop":true}</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>{"outputNodeGuid":"356907e0-1488-4128-bfcc-7ff73cfc3330","outputPortName":"激活","inputNodeGuid":"d8847c3e-459e-4589-a96b-37ebb5ec458b","inputPortName":"输入"}</t>
+        </is>
+      </c>
+      <c r="H97"/>
+    </row>
+    <row r="98">
+      <c r="A98"/>
+      <c r="B98"/>
+      <c r="C98"/>
+      <c r="D98"/>
+      <c r="E98">
+        <v>10</v>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>{"guid":"c28fb88d-51b1-47b2-be59-859e0ac638e3","nodeType":10,"position":{"x":-1186.4000244140625,"y":-1747.199951171875},"targetType":1,"assetTags":{"_tags":[]},"grantedTags":{"_tags":[{"_name":"CD.Wind","_hashCode":1982736573,"_shortName":"Wind","_ancestorHashCodes":[-1137859925],"_ancestorNames":["CD"]}]},"applicationRequiredTags":{"_tags":[]},"applicationImmunityTags":{"_tags":[]},"removeGameEffectsWithTags":{"_tags":[]},"durationType":1,"duration":"15","isPeriodic":false,"period":"1","executeOnApplication":false,"attributeModifiers":[],"stackType":0,"stackLimit":0,"stackDurationRefreshPolicy":0,"stackPeriodResetPolicy":0,"stackExpirationPolicy":0,"stackOverflowPolicy":0,"ongoingRequiredTags":{"_tags":[]},"cancelOnAbilityEnd":false,"cooldownType":0,"maxCharges":2,"chargeTime":"10"}</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>{"outputNodeGuid":"d8847c3e-459e-4589-a96b-37ebb5ec458b","outputPortName":"每周期执行","inputNodeGuid":"e33ab94c-1496-4d6a-ba5e-1afd38bb0c30","inputPortName":"输入"}</t>
+        </is>
+      </c>
+      <c r="H98"/>
+    </row>
+    <row r="99">
+      <c r="A99"/>
+      <c r="B99"/>
+      <c r="C99"/>
+      <c r="D99"/>
+      <c r="E99">
+        <v>7</v>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>{"guid":"f73ba91e-a76b-456c-b19c-a5176809d5f5","nodeType":7,"position":{"x":700.0,"y":-1856.800048828125},"targetType":1,"endType":0}</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>{"outputNodeGuid":"e33ab94c-1496-4d6a-ba5e-1afd38bb0c30","outputPortName":"对每个目标","inputNodeGuid":"a32d1135-94db-4f81-95ba-9d5f105ef8d0","inputPortName":"输入"}</t>
+        </is>
+      </c>
+      <c r="H99"/>
+    </row>
+    <row r="100">
+      <c r="A100"/>
+      <c r="B100"/>
+      <c r="C100"/>
+      <c r="D100"/>
+      <c r="E100">
+        <v>21</v>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>{"guid":"d8847c3e-459e-4589-a96b-37ebb5ec458b","nodeType":21,"position":{"x":-308.79998779296877,"y":-1769.5999755859375},"targetType":1,"assetTags":{"_tags":[]},"grantedTags":{"_tags":[]},"applicationRequiredTags":{"_tags":[]},"applicationImmunityTags":{"_tags":[]},"removeGameEffectsWithTags":{"_tags":[]},"durationType":2,"duration":"0","isPeriodic":true,"period":"0.3","executeOnApplication":false,"attributeModifiers":[],"stackType":0,"stackLimit":0,"stackDurationRefreshPolicy":0,"stackPeriodResetPolicy":0,"stackExpirationPolicy":0,"stackOverflowPolicy":0,"ongoingRequiredTags":{"_tags":[]},"cancelOnAbilityEnd":true}</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>{"outputNodeGuid":"a32d1135-94db-4f81-95ba-9d5f105ef8d0","outputPortName":"完成效果","inputNodeGuid":"764289ea-065e-4f48-afc0-0f6963d18d57","inputPortName":"输入"}</t>
+        </is>
+      </c>
+      <c r="H100"/>
+    </row>
+    <row r="101">
+      <c r="A101"/>
+      <c r="B101"/>
+      <c r="C101"/>
+      <c r="D101"/>
+      <c r="E101">
+        <v>4</v>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>{"guid":"e33ab94c-1496-4d6a-ba5e-1afd38bb0c30","nodeType":4,"position":{"x":27.20001220703125,"y":-1769.5999755859375},"targetType":1,"searchShapeType":0,"searchLineType":0,"positionSource":0,"positionBindingName":"center","searchCircleRadius":2.5,"searchSectorRadius":2.0,"searchSectorAngle":180.0,"searchLineDirectionOffsetAngle":0.0,"searchLineDirectionWidth":1.0,"searchLineDirectionLength":10.0,"lineStartPositionSource":0,"lineStartBindingName":"","lineEndPositionSource":1,"lineEndBindingName":"","searchLineBetweenWidth":1.0,"searchLineAbsoluteAngle":0.0,"searchLineAbsoluteWidth":1.0,"searchLineAbsoluteLength":10.0,"maxTargets":999,"searchTargetTags":{"_tags":[{"_name":"unitType.monster","_hashCode":-2021655864,"_shortName":"monster","_ancestorHashCodes":[1600484460],"_ancestorNames":["unitType"]}]},"searchExcludeTags":{"_tags":[]}}</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>{"outputNodeGuid":"432ff1e3-b18d-476d-af80-d39ddc07402a","outputPortName":"8dea1941-c520-4f9a-aee0-40932c8542ef","inputNodeGuid":"cde57fb8-b693-4da8-a4a8-fd61e56c5dcd","inputPortName":"输入"}</t>
+        </is>
+      </c>
+      <c r="H101"/>
+    </row>
+    <row r="102">
+      <c r="A102"/>
+      <c r="B102"/>
+      <c r="C102"/>
+      <c r="D102"/>
+      <c r="E102">
+        <v>20</v>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>{"guid":"432ff1e3-b18d-476d-af80-d39ddc07402a","nodeType":20,"position":{"x":-452.0,"y":-2375.199951171875},"targetType":1,"skeletonDataAsset":{"instanceID":45056},"animationName":"Skill_attack_1011","animationDuration":"12","isAnimationLooping":true,"timeEffects":[{"triggerTime":250,"portId":"f41c85e0-7f26-494e-9ffc-4a06c980f811"}],"timeCues":[{"startTime":0,"endTime":255,"portId":"8dea1941-c520-4f9a-aee0-40932c8542ef"}]}</t>
+        </is>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>{"outputNodeGuid":"432ff1e3-b18d-476d-af80-d39ddc07402a","outputPortName":"f41c85e0-7f26-494e-9ffc-4a06c980f811","inputNodeGuid":"f73ba91e-a76b-456c-b19c-a5176809d5f5","inputPortName":"输入"}</t>
+        </is>
+      </c>
+      <c r="H102"/>
+    </row>
+    <row r="103">
+      <c r="A103"/>
+      <c r="B103"/>
+      <c r="C103"/>
+      <c r="D103"/>
+      <c r="E103">
         <v>0</v>
       </c>
-      <c r="F96" t="inlineStr">
+      <c r="F103" t="inlineStr">
         <is>
           <t>{"guid":"356907e0-1488-4128-bfcc-7ff73cfc3330","nodeType":0,"position":{"x":-878.4000244140625,"y":-1853.5999755859375},"targetType":1,"skillId":1004,"assetTags":{"_tags":[]},"cancelAbilitiesWithTags":{"_tags":[]},"blockAbilitiesWithTags":{"_tags":[]},"activationOwnedTags":{"_tags":[{"_name":"Skill.Running","_hashCode":-51601538,"_shortName":"Running","_ancestorHashCodes":[1312877309],"_ancestorNames":["Skill"]}]},"activationRequiredTags":{"_tags":[]},"activationBlockedTags":{"_tags":[{"_name":"CD.Wind","_hashCode":1982736573,"_shortName":"Wind","_ancestorHashCodes":[-1137859925],"_ancestorNames":["CD"]},{"_name":"Skill.Running","_hashCode":-51601538,"_shortName":"Running","_ancestorHashCodes":[1312877309],"_ancestorNames":["Skill"]}]},"ongoingBlockedTags":{"_tags":[]},"eventOutputPorts":[]}</t>
         </is>
       </c>
-      <c r="G96"/>
-      <c r="H96"/>
+      <c r="G103"/>
+      <c r="H103"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:G12" xr:uid="{00000000-0009-0000-0000-000000000000}"/>

--- a/Luban/MiniTemplate/Datas/#SkillGraph.xlsx
+++ b/Luban/MiniTemplate/Datas/#SkillGraph.xlsx
@@ -1119,7 +1119,7 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>{"guid":"cde57fb8-b693-4da8-a4a8-fd61e56c5dcd","nodeType":12,"position":{"x":677.5999755859375,"y":-1998.4000244140625},"targetType":1,"requiredTags":{"_tags":[]},"immunityTags":{"_tags":[]},"destroyWithNode":false,"positionSource":0,"particlePrefab":{"instanceID":46090},"particleBindingName":"down","particleOffset":{"x":0.0,"y":0.0,"z":0.0},"particleScale":{"x":1.0,"y":1.0,"z":1.0},"attachToTarget":false,"particleLoop":false}</t>
+          <t>{"guid":"cde57fb8-b693-4da8-a4a8-fd61e56c5dcd","nodeType":12,"position":{"x":677.5999755859375,"y":-1998.4000244140625},"targetType":1,"requiredTags":{"_tags":[]},"immunityTags":{"_tags":[]},"destroyWithNode":false,"positionSource":0,"particlePrefab":{"instanceID":46136},"particleBindingName":"down","particleOffset":{"x":0.0,"y":0.0,"z":0.0},"particleScale":{"x":1.0,"y":1.0,"z":1.0},"attachToTarget":false,"particleLoop":false}</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
@@ -1279,7 +1279,7 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>{"guid":"432ff1e3-b18d-476d-af80-d39ddc07402a","nodeType":20,"position":{"x":-472.0,"y":-2380.800048828125},"targetType":1,"skeletonDataAsset":{"instanceID":45056},"animationName":"Attack_02","animationDuration":"22","isAnimationLooping":false,"timeEffects":[{"triggerTime":7,"portId":"de0ba361-3aba-4ef0-bb07-9b418fcae591"},{"triggerTime":22,"portId":"97dc121c-84b7-4f94-9997-02e0e5b2ea6c"}],"timeCues":[{"startTime":7,"endTime":48,"portId":"8dea1941-c520-4f9a-aee0-40932c8542ef"}]}</t>
+          <t>{"guid":"432ff1e3-b18d-476d-af80-d39ddc07402a","nodeType":20,"position":{"x":-472.0,"y":-2380.800048828125},"targetType":1,"skeletonDataAsset":{"instanceID":45066},"animationName":"Attack_02","animationDuration":"22","isAnimationLooping":false,"timeEffects":[{"triggerTime":7,"portId":"de0ba361-3aba-4ef0-bb07-9b418fcae591"},{"triggerTime":22,"portId":"97dc121c-84b7-4f94-9997-02e0e5b2ea6c"}],"timeCues":[{"startTime":7,"endTime":48,"portId":"8dea1941-c520-4f9a-aee0-40932c8542ef"}]}</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
@@ -1401,7 +1401,7 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>{"guid":"432ff1e3-b18d-476d-af80-d39ddc07402a","nodeType":20,"position":{"x":-491.33331298828127,"y":-2478.66650390625},"targetType":1,"skeletonDataAsset":{"instanceID":45200},"animationName":"Attack","animationDuration":"24","isAnimationLooping":false,"timeEffects":[{"triggerTime":11,"portId":"de0ba361-3aba-4ef0-bb07-9b418fcae591"},{"triggerTime":24,"portId":"7ecf9fe6-7c5e-46ae-bade-7922214225e2"}],"timeCues":[]}</t>
+          <t>{"guid":"432ff1e3-b18d-476d-af80-d39ddc07402a","nodeType":20,"position":{"x":-491.33331298828127,"y":-2478.66650390625},"targetType":1,"skeletonDataAsset":{"instanceID":45210},"animationName":"Attack","animationDuration":"24","isAnimationLooping":false,"timeEffects":[{"triggerTime":11,"portId":"de0ba361-3aba-4ef0-bb07-9b418fcae591"},{"triggerTime":24,"portId":"7ecf9fe6-7c5e-46ae-bade-7922214225e2"}],"timeCues":[]}</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
@@ -1421,7 +1421,7 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>{"guid":"90bacd9f-d882-4bba-aaa8-41ed993ac3ff","nodeType":8,"position":{"x":-401.33331298828127,"y":-1826.666748046875},"targetType":2,"assetTags":{"_tags":[]},"grantedTags":{"_tags":[]},"applicationRequiredTags":{"_tags":[]},"applicationImmunityTags":{"_tags":[]},"removeGameEffectsWithTags":{"_tags":[]},"durationType":2,"duration":"0","isPeriodic":false,"period":"1","executeOnApplication":false,"attributeModifiers":[],"stackType":0,"stackLimit":0,"stackDurationRefreshPolicy":0,"stackPeriodResetPolicy":0,"stackExpirationPolicy":0,"stackOverflowPolicy":0,"ongoingRequiredTags":{"_tags":[]},"cancelOnAbilityEnd":false,"launchPositionSource":0,"launchBindingName":"center","targetPositionSource":1,"targetBindingName":"center","projectileTargetType":0,"flyOver":false,"offsetAngle":0.0,"curveHeight":0.0,"projectilePrefab":{"instanceID":45996},"speed":3.0,"maxDistance":10.0,"collisionRadius":0.5,"isPiercing":false,"maxPierceCount":1,"collisionTargetTags":{"_tags":[]},"collisionExcludeTags":{"_tags":[]},"isBouncing":false,"bounceTargetMode":0,"maxBounceCount":3,"bounceSearchRadius":10.0,"canBounceToSameTarget":false,"bounceAngleOffset":0.0}</t>
+          <t>{"guid":"90bacd9f-d882-4bba-aaa8-41ed993ac3ff","nodeType":8,"position":{"x":-401.33331298828127,"y":-1826.666748046875},"targetType":2,"assetTags":{"_tags":[]},"grantedTags":{"_tags":[]},"applicationRequiredTags":{"_tags":[]},"applicationImmunityTags":{"_tags":[]},"removeGameEffectsWithTags":{"_tags":[]},"durationType":2,"duration":"0","isPeriodic":false,"period":"1","executeOnApplication":false,"attributeModifiers":[],"stackType":0,"stackLimit":0,"stackDurationRefreshPolicy":0,"stackPeriodResetPolicy":0,"stackExpirationPolicy":0,"stackOverflowPolicy":0,"ongoingRequiredTags":{"_tags":[]},"cancelOnAbilityEnd":false,"launchPositionSource":0,"launchBindingName":"center","targetPositionSource":1,"targetBindingName":"center","projectileTargetType":0,"flyOver":false,"offsetAngle":0.0,"curveHeight":0.0,"projectilePrefab":{"instanceID":46040},"speed":3.0,"maxDistance":10.0,"collisionRadius":0.5,"isPiercing":false,"maxPierceCount":1,"collisionTargetTags":{"_tags":[]},"collisionExcludeTags":{"_tags":[]},"isBouncing":false,"bounceTargetMode":0,"maxBounceCount":3,"bounceSearchRadius":10.0,"canBounceToSameTarget":false,"bounceAngleOffset":0.0}</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
@@ -1563,7 +1563,7 @@
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>{"guid":"432ff1e3-b18d-476d-af80-d39ddc07402a","nodeType":20,"position":{"x":-491.33331298828127,"y":-2478.66650390625},"targetType":1,"skeletonDataAsset":{"instanceID":45056},"animationName":"Attack_01","animationDuration":"18","isAnimationLooping":false,"timeEffects":[{"triggerTime":11,"portId":"de0ba361-3aba-4ef0-bb07-9b418fcae591"},{"triggerTime":24,"portId":"7ecf9fe6-7c5e-46ae-bade-7922214225e2"}],"timeCues":[]}</t>
+          <t>{"guid":"432ff1e3-b18d-476d-af80-d39ddc07402a","nodeType":20,"position":{"x":-491.33331298828127,"y":-2478.66650390625},"targetType":1,"skeletonDataAsset":{"instanceID":45066},"animationName":"Attack_01","animationDuration":"18","isAnimationLooping":false,"timeEffects":[{"triggerTime":11,"portId":"de0ba361-3aba-4ef0-bb07-9b418fcae591"},{"triggerTime":24,"portId":"7ecf9fe6-7c5e-46ae-bade-7922214225e2"}],"timeCues":[]}</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
@@ -1623,7 +1623,7 @@
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>{"guid":"90bacd9f-d882-4bba-aaa8-41ed993ac3ff","nodeType":8,"position":{"x":-400.6666564941406,"y":-1836.666748046875},"targetType":2,"assetTags":{"_tags":[]},"grantedTags":{"_tags":[]},"applicationRequiredTags":{"_tags":[]},"applicationImmunityTags":{"_tags":[]},"removeGameEffectsWithTags":{"_tags":[]},"durationType":2,"duration":"0","isPeriodic":false,"period":"1","executeOnApplication":false,"attributeModifiers":[],"stackType":0,"stackLimit":0,"stackDurationRefreshPolicy":0,"stackPeriodResetPolicy":0,"stackExpirationPolicy":0,"stackOverflowPolicy":0,"ongoingRequiredTags":{"_tags":[]},"cancelOnAbilityEnd":false,"launchPositionSource":0,"launchBindingName":"center","targetPositionSource":1,"targetBindingName":"center","projectileTargetType":0,"flyOver":false,"offsetAngle":0.0,"curveHeight":0.0,"projectilePrefab":{"instanceID":45996},"speed":3.0,"maxDistance":10.0,"collisionRadius":0.5,"isPiercing":false,"maxPierceCount":1,"collisionTargetTags":{"_tags":[]},"collisionExcludeTags":{"_tags":[]},"isBouncing":true,"bounceTargetMode":1,"maxBounceCount":2,"bounceSearchRadius":10.0,"canBounceToSameTarget":false,"bounceAngleOffset":50.0}</t>
+          <t>{"guid":"90bacd9f-d882-4bba-aaa8-41ed993ac3ff","nodeType":8,"position":{"x":-400.6666564941406,"y":-1836.666748046875},"targetType":2,"assetTags":{"_tags":[]},"grantedTags":{"_tags":[]},"applicationRequiredTags":{"_tags":[]},"applicationImmunityTags":{"_tags":[]},"removeGameEffectsWithTags":{"_tags":[]},"durationType":2,"duration":"0","isPeriodic":false,"period":"1","executeOnApplication":false,"attributeModifiers":[],"stackType":0,"stackLimit":0,"stackDurationRefreshPolicy":0,"stackPeriodResetPolicy":0,"stackExpirationPolicy":0,"stackOverflowPolicy":0,"ongoingRequiredTags":{"_tags":[]},"cancelOnAbilityEnd":false,"launchPositionSource":0,"launchBindingName":"center","targetPositionSource":1,"targetBindingName":"center","projectileTargetType":0,"flyOver":false,"offsetAngle":0.0,"curveHeight":0.0,"projectilePrefab":{"instanceID":46040},"speed":3.0,"maxDistance":10.0,"collisionRadius":0.5,"isPiercing":false,"maxPierceCount":1,"collisionTargetTags":{"_tags":[]},"collisionExcludeTags":{"_tags":[]},"isBouncing":true,"bounceTargetMode":0,"maxBounceCount":2,"bounceSearchRadius":10.0,"canBounceToSameTarget":false,"bounceAngleOffset":50.0}</t>
         </is>
       </c>
       <c r="G35"/>
@@ -1685,7 +1685,7 @@
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>{"guid":"cde57fb8-b693-4da8-a4a8-fd61e56c5dcd","nodeType":12,"position":{"x":677.3333740234375,"y":-1998.666748046875},"targetType":1,"requiredTags":{"_tags":[]},"immunityTags":{"_tags":[]},"destroyWithNode":false,"positionSource":0,"particlePrefab":{"instanceID":46092},"particleBindingName":"down","particleOffset":{"x":0.0,"y":0.0,"z":0.0},"particleScale":{"x":1.0,"y":1.0,"z":1.0},"attachToTarget":false,"particleLoop":false}</t>
+          <t>{"guid":"cde57fb8-b693-4da8-a4a8-fd61e56c5dcd","nodeType":12,"position":{"x":677.3333740234375,"y":-1998.666748046875},"targetType":1,"requiredTags":{"_tags":[]},"immunityTags":{"_tags":[]},"destroyWithNode":false,"positionSource":0,"particlePrefab":{"instanceID":46138},"particleBindingName":"down","particleOffset":{"x":0.0,"y":0.0,"z":0.0},"particleScale":{"x":1.0,"y":1.0,"z":1.0},"attachToTarget":false,"particleLoop":false}</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
@@ -1765,7 +1765,7 @@
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>{"guid":"432ff1e3-b18d-476d-af80-d39ddc07402a","nodeType":20,"position":{"x":-646.0,"y":-2456.0},"targetType":1,"skeletonDataAsset":{"instanceID":45056},"animationName":"Skill_attack_1009","animationDuration":"25","isAnimationLooping":false,"timeEffects":[{"triggerTime":4,"portId":"de0ba361-3aba-4ef0-bb07-9b418fcae591"},{"triggerTime":25,"portId":"f41c85e0-7f26-494e-9ffc-4a06c980f811"}],"timeCues":[{"startTime":0,"endTime":75,"portId":"8dea1941-c520-4f9a-aee0-40932c8542ef"}]}</t>
+          <t>{"guid":"432ff1e3-b18d-476d-af80-d39ddc07402a","nodeType":20,"position":{"x":-646.0,"y":-2456.0},"targetType":1,"skeletonDataAsset":{"instanceID":45066},"animationName":"Skill_attack_1009","animationDuration":"25","isAnimationLooping":false,"timeEffects":[{"triggerTime":4,"portId":"de0ba361-3aba-4ef0-bb07-9b418fcae591"},{"triggerTime":25,"portId":"f41c85e0-7f26-494e-9ffc-4a06c980f811"}],"timeCues":[{"startTime":0,"endTime":75,"portId":"8dea1941-c520-4f9a-aee0-40932c8542ef"}]}</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
@@ -1907,7 +1907,7 @@
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>{"guid":"cde57fb8-b693-4da8-a4a8-fd61e56c5dcd","nodeType":12,"position":{"x":-304.0,"y":-2072.0},"targetType":1,"requiredTags":{"_tags":[]},"immunityTags":{"_tags":[]},"destroyWithNode":false,"positionSource":0,"particlePrefab":{"instanceID":45910},"particleBindingName":"down","particleOffset":{"x":0.0,"y":0.0,"z":0.0},"particleScale":{"x":1.0,"y":1.0,"z":1.0},"attachToTarget":false,"particleLoop":false}</t>
+          <t>{"guid":"cde57fb8-b693-4da8-a4a8-fd61e56c5dcd","nodeType":12,"position":{"x":-304.0,"y":-2072.0},"targetType":1,"requiredTags":{"_tags":[]},"immunityTags":{"_tags":[]},"destroyWithNode":false,"positionSource":0,"particlePrefab":{"instanceID":45954},"particleBindingName":"down","particleOffset":{"x":0.0,"y":0.0,"z":0.0},"particleScale":{"x":1.0,"y":1.0,"z":1.0},"attachToTarget":false,"particleLoop":false}</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
@@ -1989,7 +1989,7 @@
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>{"guid":"cde57fb8-b693-4da8-a4a8-fd61e56c5dcd","nodeType":12,"position":{"x":677.5999755859375,"y":-1998.4000244140625},"targetType":1,"requiredTags":{"_tags":[]},"immunityTags":{"_tags":[]},"destroyWithNode":false,"positionSource":0,"particlePrefab":{"instanceID":46054},"particleBindingName":"down","particleOffset":{"x":0.0,"y":0.0,"z":0.0},"particleScale":{"x":1.0,"y":1.0,"z":1.0},"attachToTarget":false,"particleLoop":false}</t>
+          <t>{"guid":"cde57fb8-b693-4da8-a4a8-fd61e56c5dcd","nodeType":12,"position":{"x":677.5999755859375,"y":-1998.4000244140625},"targetType":1,"requiredTags":{"_tags":[]},"immunityTags":{"_tags":[]},"destroyWithNode":false,"positionSource":0,"particlePrefab":{"instanceID":46100},"particleBindingName":"down","particleOffset":{"x":0.0,"y":0.0,"z":0.0},"particleScale":{"x":1.0,"y":1.0,"z":1.0},"attachToTarget":false,"particleLoop":false}</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
@@ -2029,7 +2029,7 @@
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>{"guid":"93ec5a43-cc34-4e4a-acb3-39da2f2c3010","nodeType":12,"position":{"x":468.79998779296877,"y":-1749.5999755859375},"targetType":1,"requiredTags":{"_tags":[]},"immunityTags":{"_tags":[]},"destroyWithNode":true,"positionSource":2,"particlePrefab":{"instanceID":46182},"particleBindingName":"head","particleOffset":{"x":0.0,"y":0.0,"z":0.0},"particleScale":{"x":1.0,"y":1.0,"z":1.0},"attachToTarget":true,"particleLoop":true}</t>
+          <t>{"guid":"93ec5a43-cc34-4e4a-acb3-39da2f2c3010","nodeType":12,"position":{"x":468.79998779296877,"y":-1749.5999755859375},"targetType":1,"requiredTags":{"_tags":[]},"immunityTags":{"_tags":[]},"destroyWithNode":true,"positionSource":2,"particlePrefab":{"instanceID":46228},"particleBindingName":"head","particleOffset":{"x":0.0,"y":0.0,"z":0.0},"particleScale":{"x":1.0,"y":1.0,"z":1.0},"attachToTarget":true,"particleLoop":true}</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
@@ -2089,7 +2089,7 @@
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>{"guid":"432ff1e3-b18d-476d-af80-d39ddc07402a","nodeType":20,"position":{"x":-452.0,"y":-2375.199951171875},"targetType":1,"skeletonDataAsset":{"instanceID":45056},"animationName":"Skill_attack_1005","animationDuration":"16","isAnimationLooping":false,"timeEffects":[{"triggerTime":7,"portId":"de0ba361-3aba-4ef0-bb07-9b418fcae591"},{"triggerTime":16,"portId":"f41c85e0-7f26-494e-9ffc-4a06c980f811"}],"timeCues":[{"startTime":6,"endTime":55,"portId":"8dea1941-c520-4f9a-aee0-40932c8542ef"}]}</t>
+          <t>{"guid":"432ff1e3-b18d-476d-af80-d39ddc07402a","nodeType":20,"position":{"x":-452.0,"y":-2375.199951171875},"targetType":1,"skeletonDataAsset":{"instanceID":45066},"animationName":"Skill_attack_1005","animationDuration":"16","isAnimationLooping":false,"timeEffects":[{"triggerTime":7,"portId":"de0ba361-3aba-4ef0-bb07-9b418fcae591"},{"triggerTime":16,"portId":"f41c85e0-7f26-494e-9ffc-4a06c980f811"}],"timeCues":[{"startTime":6,"endTime":55,"portId":"8dea1941-c520-4f9a-aee0-40932c8542ef"}]}</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
@@ -2171,7 +2171,7 @@
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>{"guid":"432ff1e3-b18d-476d-af80-d39ddc07402a","nodeType":20,"position":{"x":-502.6666564941406,"y":-2384.0},"targetType":1,"skeletonDataAsset":{"instanceID":45056},"animationName":"Stand","animationDuration":"24","isAnimationLooping":false,"timeEffects":[{"triggerTime":25,"portId":"f41c85e0-7f26-494e-9ffc-4a06c980f811"}],"timeCues":[]}</t>
+          <t>{"guid":"432ff1e3-b18d-476d-af80-d39ddc07402a","nodeType":20,"position":{"x":-502.6666564941406,"y":-2384.0},"targetType":1,"skeletonDataAsset":{"instanceID":45066},"animationName":"Stand","animationDuration":"24","isAnimationLooping":false,"timeEffects":[{"triggerTime":25,"portId":"f41c85e0-7f26-494e-9ffc-4a06c980f811"}],"timeCues":[]}</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
@@ -2293,7 +2293,7 @@
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>{"guid":"432ff1e3-b18d-476d-af80-d39ddc07402a","nodeType":20,"position":{"x":-416.6666564941406,"y":-2824.66650390625},"targetType":1,"skeletonDataAsset":{"instanceID":45056},"animationName":"Skill_attack_1001","animationDuration":"18","isAnimationLooping":true,"timeEffects":[{"triggerTime":7,"portId":"de0ba361-3aba-4ef0-bb07-9b418fcae591"},{"triggerTime":18,"portId":"84e238a8-5baf-470e-829f-186695064945"}],"timeCues":[{"startTime":7,"endTime":48,"portId":"8dea1941-c520-4f9a-aee0-40932c8542ef"}]}</t>
+          <t>{"guid":"432ff1e3-b18d-476d-af80-d39ddc07402a","nodeType":20,"position":{"x":-416.6666564941406,"y":-2824.66650390625},"targetType":1,"skeletonDataAsset":{"instanceID":45066},"animationName":"Skill_attack_1001","animationDuration":"18","isAnimationLooping":true,"timeEffects":[{"triggerTime":7,"portId":"de0ba361-3aba-4ef0-bb07-9b418fcae591"},{"triggerTime":18,"portId":"84e238a8-5baf-470e-829f-186695064945"}],"timeCues":[{"startTime":7,"endTime":48,"portId":"8dea1941-c520-4f9a-aee0-40932c8542ef"}]}</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
@@ -2353,7 +2353,7 @@
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>{"guid":"cde57fb8-b693-4da8-a4a8-fd61e56c5dcd","nodeType":12,"position":{"x":731.3333740234375,"y":-2488.66650390625},"targetType":1,"requiredTags":{"_tags":[]},"immunityTags":{"_tags":[]},"destroyWithNode":false,"positionSource":0,"particlePrefab":{"instanceID":46090},"particleBindingName":"down","particleOffset":{"x":0.0,"y":0.0,"z":0.0},"particleScale":{"x":1.0,"y":1.0,"z":1.0},"attachToTarget":false,"particleLoop":false}</t>
+          <t>{"guid":"cde57fb8-b693-4da8-a4a8-fd61e56c5dcd","nodeType":12,"position":{"x":731.3333740234375,"y":-2488.66650390625},"targetType":1,"requiredTags":{"_tags":[]},"immunityTags":{"_tags":[]},"destroyWithNode":false,"positionSource":0,"particlePrefab":{"instanceID":46136},"particleBindingName":"down","particleOffset":{"x":0.0,"y":0.0,"z":0.0},"particleScale":{"x":1.0,"y":1.0,"z":1.0},"attachToTarget":false,"particleLoop":false}</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
@@ -2555,7 +2555,7 @@
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>{"guid":"432ff1e3-b18d-476d-af80-d39ddc07402a","nodeType":20,"position":{"x":-238.66665649414063,"y":-2405.333251953125},"targetType":1,"skeletonDataAsset":{"instanceID":45056},"animationName":"Attack_01","animationDuration":"18","isAnimationLooping":false,"timeEffects":[{"triggerTime":7,"portId":"de0ba361-3aba-4ef0-bb07-9b418fcae591"},{"triggerTime":18,"portId":"84e238a8-5baf-470e-829f-186695064945"}],"timeCues":[]}</t>
+          <t>{"guid":"432ff1e3-b18d-476d-af80-d39ddc07402a","nodeType":20,"position":{"x":-238.66665649414063,"y":-2405.333251953125},"targetType":1,"skeletonDataAsset":{"instanceID":45066},"animationName":"Attack_01","animationDuration":"18","isAnimationLooping":false,"timeEffects":[{"triggerTime":7,"portId":"de0ba361-3aba-4ef0-bb07-9b418fcae591"},{"triggerTime":18,"portId":"84e238a8-5baf-470e-829f-186695064945"}],"timeCues":[]}</t>
         </is>
       </c>
       <c r="G81" t="inlineStr">
@@ -2575,7 +2575,7 @@
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>{"guid":"ce857360-de7e-4457-b348-9c124ce98879","nodeType":8,"position":{"x":1040.666748046875,"y":-2305.333251953125},"targetType":2,"assetTags":{"_tags":[]},"grantedTags":{"_tags":[]},"applicationRequiredTags":{"_tags":[]},"applicationImmunityTags":{"_tags":[]},"removeGameEffectsWithTags":{"_tags":[]},"durationType":2,"duration":"0","isPeriodic":false,"period":"1","executeOnApplication":false,"attributeModifiers":[],"stackType":0,"stackLimit":0,"stackDurationRefreshPolicy":0,"stackPeriodResetPolicy":0,"stackExpirationPolicy":0,"stackOverflowPolicy":0,"ongoingRequiredTags":{"_tags":[]},"cancelOnAbilityEnd":false,"launchPositionSource":0,"launchBindingName":"center","targetPositionSource":1,"targetBindingName":"center","projectileTargetType":0,"flyOver":true,"offsetAngle":30.0,"curveHeight":0.0,"projectilePrefab":{"instanceID":45894},"speed":10.0,"maxDistance":10.0,"collisionRadius":0.5,"isPiercing":false,"maxPierceCount":1,"collisionTargetTags":{"_tags":[]},"collisionExcludeTags":{"_tags":[]},"isBouncing":false,"bounceTargetMode":0,"maxBounceCount":3,"bounceSearchRadius":10.0,"canBounceToSameTarget":false,"bounceAngleOffset":0.0}</t>
+          <t>{"guid":"ce857360-de7e-4457-b348-9c124ce98879","nodeType":8,"position":{"x":1040.666748046875,"y":-2305.333251953125},"targetType":2,"assetTags":{"_tags":[]},"grantedTags":{"_tags":[]},"applicationRequiredTags":{"_tags":[]},"applicationImmunityTags":{"_tags":[]},"removeGameEffectsWithTags":{"_tags":[]},"durationType":2,"duration":"0","isPeriodic":false,"period":"1","executeOnApplication":false,"attributeModifiers":[],"stackType":0,"stackLimit":0,"stackDurationRefreshPolicy":0,"stackPeriodResetPolicy":0,"stackExpirationPolicy":0,"stackOverflowPolicy":0,"ongoingRequiredTags":{"_tags":[]},"cancelOnAbilityEnd":false,"launchPositionSource":0,"launchBindingName":"center","targetPositionSource":1,"targetBindingName":"center","projectileTargetType":0,"flyOver":true,"offsetAngle":30.0,"curveHeight":0.0,"projectilePrefab":{"instanceID":45938},"speed":10.0,"maxDistance":10.0,"collisionRadius":0.5,"isPiercing":false,"maxPierceCount":1,"collisionTargetTags":{"_tags":[]},"collisionExcludeTags":{"_tags":[]},"isBouncing":false,"bounceTargetMode":0,"maxBounceCount":3,"bounceSearchRadius":10.0,"canBounceToSameTarget":false,"bounceAngleOffset":0.0}</t>
         </is>
       </c>
       <c r="G82" t="inlineStr">
@@ -2595,7 +2595,7 @@
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>{"guid":"9a695e91-e218-425e-82ed-1e157bf1b014","nodeType":8,"position":{"x":1022.666748046875,"y":-2131.333251953125},"targetType":2,"assetTags":{"_tags":[]},"grantedTags":{"_tags":[]},"applicationRequiredTags":{"_tags":[]},"applicationImmunityTags":{"_tags":[]},"removeGameEffectsWithTags":{"_tags":[]},"durationType":2,"duration":"0","isPeriodic":false,"period":"1","executeOnApplication":false,"attributeModifiers":[],"stackType":0,"stackLimit":0,"stackDurationRefreshPolicy":0,"stackPeriodResetPolicy":0,"stackExpirationPolicy":0,"stackOverflowPolicy":0,"ongoingRequiredTags":{"_tags":[]},"cancelOnAbilityEnd":false,"launchPositionSource":0,"launchBindingName":"center","targetPositionSource":1,"targetBindingName":"center","projectileTargetType":0,"flyOver":true,"offsetAngle":0.0,"curveHeight":0.0,"projectilePrefab":{"instanceID":45894},"speed":10.0,"maxDistance":10.0,"collisionRadius":0.5,"isPiercing":false,"maxPierceCount":1,"collisionTargetTags":{"_tags":[]},"collisionExcludeTags":{"_tags":[]},"isBouncing":false,"bounceTargetMode":0,"maxBounceCount":3,"bounceSearchRadius":10.0,"canBounceToSameTarget":false,"bounceAngleOffset":0.0}</t>
+          <t>{"guid":"9a695e91-e218-425e-82ed-1e157bf1b014","nodeType":8,"position":{"x":1022.666748046875,"y":-2131.333251953125},"targetType":2,"assetTags":{"_tags":[]},"grantedTags":{"_tags":[]},"applicationRequiredTags":{"_tags":[]},"applicationImmunityTags":{"_tags":[]},"removeGameEffectsWithTags":{"_tags":[]},"durationType":2,"duration":"0","isPeriodic":false,"period":"1","executeOnApplication":false,"attributeModifiers":[],"stackType":0,"stackLimit":0,"stackDurationRefreshPolicy":0,"stackPeriodResetPolicy":0,"stackExpirationPolicy":0,"stackOverflowPolicy":0,"ongoingRequiredTags":{"_tags":[]},"cancelOnAbilityEnd":false,"launchPositionSource":0,"launchBindingName":"center","targetPositionSource":1,"targetBindingName":"center","projectileTargetType":0,"flyOver":true,"offsetAngle":0.0,"curveHeight":0.0,"projectilePrefab":{"instanceID":45938},"speed":10.0,"maxDistance":10.0,"collisionRadius":0.5,"isPiercing":false,"maxPierceCount":1,"collisionTargetTags":{"_tags":[]},"collisionExcludeTags":{"_tags":[]},"isBouncing":false,"bounceTargetMode":0,"maxBounceCount":3,"bounceSearchRadius":10.0,"canBounceToSameTarget":false,"bounceAngleOffset":0.0}</t>
         </is>
       </c>
       <c r="G83" t="inlineStr">
@@ -2615,7 +2615,7 @@
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>{"guid":"d897a922-5756-42cf-ac65-90a48c1e5a17","nodeType":8,"position":{"x":1022.666748046875,"y":-1978.0},"targetType":2,"assetTags":{"_tags":[]},"grantedTags":{"_tags":[]},"applicationRequiredTags":{"_tags":[]},"applicationImmunityTags":{"_tags":[]},"removeGameEffectsWithTags":{"_tags":[]},"durationType":2,"duration":"0","isPeriodic":false,"period":"1","executeOnApplication":false,"attributeModifiers":[],"stackType":0,"stackLimit":0,"stackDurationRefreshPolicy":0,"stackPeriodResetPolicy":0,"stackExpirationPolicy":0,"stackOverflowPolicy":0,"ongoingRequiredTags":{"_tags":[]},"cancelOnAbilityEnd":false,"launchPositionSource":0,"launchBindingName":"center","targetPositionSource":1,"targetBindingName":"center","projectileTargetType":0,"flyOver":true,"offsetAngle":-30.0,"curveHeight":0.0,"projectilePrefab":{"instanceID":45894},"speed":10.0,"maxDistance":10.0,"collisionRadius":0.5,"isPiercing":false,"maxPierceCount":1,"collisionTargetTags":{"_tags":[]},"collisionExcludeTags":{"_tags":[]},"isBouncing":false,"bounceTargetMode":0,"maxBounceCount":3,"bounceSearchRadius":10.0,"canBounceToSameTarget":false,"bounceAngleOffset":0.0}</t>
+          <t>{"guid":"d897a922-5756-42cf-ac65-90a48c1e5a17","nodeType":8,"position":{"x":1022.666748046875,"y":-1978.0},"targetType":2,"assetTags":{"_tags":[]},"grantedTags":{"_tags":[]},"applicationRequiredTags":{"_tags":[]},"applicationImmunityTags":{"_tags":[]},"removeGameEffectsWithTags":{"_tags":[]},"durationType":2,"duration":"0","isPeriodic":false,"period":"1","executeOnApplication":false,"attributeModifiers":[],"stackType":0,"stackLimit":0,"stackDurationRefreshPolicy":0,"stackPeriodResetPolicy":0,"stackExpirationPolicy":0,"stackOverflowPolicy":0,"ongoingRequiredTags":{"_tags":[]},"cancelOnAbilityEnd":false,"launchPositionSource":0,"launchBindingName":"center","targetPositionSource":1,"targetBindingName":"center","projectileTargetType":0,"flyOver":true,"offsetAngle":-30.0,"curveHeight":0.0,"projectilePrefab":{"instanceID":45938},"speed":10.0,"maxDistance":10.0,"collisionRadius":0.5,"isPiercing":false,"maxPierceCount":1,"collisionTargetTags":{"_tags":[]},"collisionExcludeTags":{"_tags":[]},"isBouncing":false,"bounceTargetMode":0,"maxBounceCount":3,"bounceSearchRadius":10.0,"canBounceToSameTarget":false,"bounceAngleOffset":0.0}</t>
         </is>
       </c>
       <c r="G84" t="inlineStr">
@@ -2735,7 +2735,7 @@
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>{"guid":"cde57fb8-b693-4da8-a4a8-fd61e56c5dcd","nodeType":12,"position":{"x":677.5999755859375,"y":-1998.4000244140625},"targetType":1,"requiredTags":{"_tags":[]},"immunityTags":{"_tags":[]},"destroyWithNode":false,"positionSource":0,"particlePrefab":{"instanceID":45968},"particleBindingName":"down","particleOffset":{"x":0.0,"y":0.0,"z":0.0},"particleScale":{"x":1.0,"y":1.0,"z":1.0},"attachToTarget":false,"particleLoop":false}</t>
+          <t>{"guid":"cde57fb8-b693-4da8-a4a8-fd61e56c5dcd","nodeType":12,"position":{"x":677.5999755859375,"y":-1998.4000244140625},"targetType":1,"requiredTags":{"_tags":[]},"immunityTags":{"_tags":[]},"destroyWithNode":false,"positionSource":0,"particlePrefab":{"instanceID":46012},"particleBindingName":"down","particleOffset":{"x":0.0,"y":0.0,"z":0.0},"particleScale":{"x":1.0,"y":1.0,"z":1.0},"attachToTarget":false,"particleLoop":false}</t>
         </is>
       </c>
       <c r="G90" t="inlineStr">
@@ -2775,7 +2775,7 @@
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>{"guid":"432ff1e3-b18d-476d-af80-d39ddc07402a","nodeType":20,"position":{"x":-502.3999938964844,"y":-2384.0},"targetType":1,"skeletonDataAsset":{"instanceID":45056},"animationName":"Skill_attack_1009","animationDuration":"25","isAnimationLooping":false,"timeEffects":[{"triggerTime":4,"portId":"de0ba361-3aba-4ef0-bb07-9b418fcae591"},{"triggerTime":25,"portId":"f41c85e0-7f26-494e-9ffc-4a06c980f811"}],"timeCues":[{"startTime":0,"endTime":75,"portId":"8dea1941-c520-4f9a-aee0-40932c8542ef"}]}</t>
+          <t>{"guid":"432ff1e3-b18d-476d-af80-d39ddc07402a","nodeType":20,"position":{"x":-502.3999938964844,"y":-2384.0},"targetType":1,"skeletonDataAsset":{"instanceID":45066},"animationName":"Skill_attack_1009","animationDuration":"25","isAnimationLooping":false,"timeEffects":[{"triggerTime":4,"portId":"de0ba361-3aba-4ef0-bb07-9b418fcae591"},{"triggerTime":25,"portId":"f41c85e0-7f26-494e-9ffc-4a06c980f811"}],"timeCues":[{"startTime":0,"endTime":75,"portId":"8dea1941-c520-4f9a-aee0-40932c8542ef"}]}</t>
         </is>
       </c>
       <c r="G92" t="inlineStr">
@@ -2877,7 +2877,7 @@
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>{"guid":"cde57fb8-b693-4da8-a4a8-fd61e56c5dcd","nodeType":12,"position":{"x":677.5999755859375,"y":-1998.4000244140625},"targetType":1,"requiredTags":{"_tags":[]},"immunityTags":{"_tags":[]},"destroyWithNode":true,"positionSource":0,"particlePrefab":{"instanceID":46262},"particleBindingName":"down","particleOffset":{"x":0.0,"y":0.0,"z":0.0},"particleScale":{"x":1.0,"y":1.0,"z":1.0},"attachToTarget":true,"particleLoop":true}</t>
+          <t>{"guid":"cde57fb8-b693-4da8-a4a8-fd61e56c5dcd","nodeType":12,"position":{"x":677.5999755859375,"y":-1998.4000244140625},"targetType":1,"requiredTags":{"_tags":[]},"immunityTags":{"_tags":[]},"destroyWithNode":true,"positionSource":0,"particlePrefab":{"instanceID":46308},"particleBindingName":"down","particleOffset":{"x":0.0,"y":0.0,"z":0.0},"particleScale":{"x":1.0,"y":1.0,"z":1.0},"attachToTarget":true,"particleLoop":true}</t>
         </is>
       </c>
       <c r="G97" t="inlineStr">
@@ -2977,7 +2977,7 @@
       </c>
       <c r="F102" t="inlineStr">
         <is>
-          <t>{"guid":"432ff1e3-b18d-476d-af80-d39ddc07402a","nodeType":20,"position":{"x":-452.0,"y":-2375.199951171875},"targetType":1,"skeletonDataAsset":{"instanceID":45056},"animationName":"Skill_attack_1011","animationDuration":"12","isAnimationLooping":true,"timeEffects":[{"triggerTime":250,"portId":"f41c85e0-7f26-494e-9ffc-4a06c980f811"}],"timeCues":[{"startTime":0,"endTime":255,"portId":"8dea1941-c520-4f9a-aee0-40932c8542ef"}]}</t>
+          <t>{"guid":"432ff1e3-b18d-476d-af80-d39ddc07402a","nodeType":20,"position":{"x":-452.0,"y":-2375.199951171875},"targetType":1,"skeletonDataAsset":{"instanceID":45066},"animationName":"Skill_attack_1011","animationDuration":"12","isAnimationLooping":true,"timeEffects":[{"triggerTime":250,"portId":"f41c85e0-7f26-494e-9ffc-4a06c980f811"}],"timeCues":[{"startTime":0,"endTime":255,"portId":"8dea1941-c520-4f9a-aee0-40932c8542ef"}]}</t>
         </is>
       </c>
       <c r="G102" t="inlineStr">
